--- a/howell6.xlsx
+++ b/howell6.xlsx
@@ -520,7 +520,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Sep 04, 2025.</t>
+          <t>For public domain. No rights reserved. Generated on Sep 10, 2025.</t>
         </is>
       </c>
     </row>
@@ -695,12 +695,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PH14</t>
+          <t>PH72</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PH42</t>
+          <t>PH49</t>
         </is>
       </c>
       <c r="D2" s="4">
@@ -714,12 +714,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PH81</t>
+          <t>PH11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PH34</t>
+          <t>PH51</t>
         </is>
       </c>
       <c r="D3" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PH38</t>
+          <t>PH67</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PH45</t>
+          <t>PH37</t>
         </is>
       </c>
       <c r="D4" s="4">
@@ -752,12 +752,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PH48</t>
+          <t>PH72</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PH33</t>
+          <t>PH23</t>
         </is>
       </c>
       <c r="D5" s="4">
@@ -771,12 +771,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PH60</t>
+          <t>PH44</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PH80</t>
+          <t>PH29</t>
         </is>
       </c>
       <c r="D6" s="4">
@@ -790,12 +790,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PH14</t>
+          <t>PH54</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PH14</t>
+          <t>PH31</t>
         </is>
       </c>
       <c r="D7" s="4">

--- a/howell6.xlsx
+++ b/howell6.xlsx
@@ -11,11 +11,9 @@
     <sheet name="Roster" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="By Board" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="By Round" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="By Table" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="By Pair" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Traveler Template" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="IMP Table" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Scoring Table" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Traveler Template" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="IMP Table" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Scoring Table" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -68,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -79,6 +77,16 @@
     <border>
       <top style="thin">
         <color rgb="00FF0000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="00F80000"/>
       </top>
     </border>
     <border>
@@ -111,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -121,24 +129,32 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -520,7 +536,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Sep 10, 2025.</t>
+          <t>For public domain. No rights reserved. Generated on Jan 14, 2026.</t>
         </is>
       </c>
     </row>
@@ -695,12 +711,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PH72</t>
+          <t>PH68</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PH49</t>
+          <t>PH31</t>
         </is>
       </c>
       <c r="D2" s="4">
@@ -714,12 +730,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PH11</t>
+          <t>PH19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PH51</t>
+          <t>PH90</t>
         </is>
       </c>
       <c r="D3" s="4">
@@ -733,12 +749,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PH67</t>
+          <t>PH43</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PH37</t>
+          <t>PH53</t>
         </is>
       </c>
       <c r="D4" s="4">
@@ -752,12 +768,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PH72</t>
+          <t>PH38</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PH23</t>
+          <t>PH18</t>
         </is>
       </c>
       <c r="D5" s="4">
@@ -771,12 +787,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PH44</t>
+          <t>PH15</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PH29</t>
+          <t>PH57</t>
         </is>
       </c>
       <c r="D6" s="4">
@@ -790,7 +806,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PH54</t>
+          <t>PH90</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -965,6 +981,26 @@
           <t>None</t>
         </is>
       </c>
+      <c r="G3">
+        <f>'By Round'!G2</f>
+        <v/>
+      </c>
+      <c r="H3">
+        <f>'By Round'!H2</f>
+        <v/>
+      </c>
+      <c r="I3">
+        <f>'By Round'!I2</f>
+        <v/>
+      </c>
+      <c r="J3">
+        <f>'By Round'!J2</f>
+        <v/>
+      </c>
+      <c r="K3">
+        <f>'By Round'!K2</f>
+        <v/>
+      </c>
       <c r="L3" s="11">
         <f>IFERROR(AVERAGE(P3:Q3),"")</f>
         <v/>
@@ -1000,25 +1036,45 @@
     </row>
     <row r="4">
       <c r="B4">
-        <f>'By Round'!A8</f>
+        <f>'By Round'!A20</f>
         <v/>
       </c>
       <c r="C4">
-        <f>'By Round'!B10</f>
+        <f>'By Round'!B26</f>
         <v/>
       </c>
       <c r="D4">
-        <f>'By Round'!C10</f>
+        <f>'By Round'!C26</f>
         <v/>
       </c>
       <c r="E4">
-        <f>'By Round'!D10</f>
+        <f>'By Round'!D26</f>
         <v/>
       </c>
       <c r="F4" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="G4">
+        <f>'By Round'!G26</f>
+        <v/>
+      </c>
+      <c r="H4">
+        <f>'By Round'!H26</f>
+        <v/>
+      </c>
+      <c r="I4">
+        <f>'By Round'!I26</f>
+        <v/>
+      </c>
+      <c r="J4">
+        <f>'By Round'!J26</f>
+        <v/>
+      </c>
+      <c r="K4">
+        <f>'By Round'!K26</f>
+        <v/>
       </c>
       <c r="L4" s="11">
         <f>IFERROR(AVERAGE(P4:Q4),"")</f>
@@ -1055,25 +1111,45 @@
     </row>
     <row r="5">
       <c r="B5">
-        <f>'By Round'!A11</f>
+        <f>'By Round'!A29</f>
         <v/>
       </c>
       <c r="C5">
-        <f>'By Round'!B13</f>
+        <f>'By Round'!B35</f>
         <v/>
       </c>
       <c r="D5">
-        <f>'By Round'!C13</f>
+        <f>'By Round'!C35</f>
         <v/>
       </c>
       <c r="E5">
-        <f>'By Round'!D13</f>
+        <f>'By Round'!D35</f>
         <v/>
       </c>
       <c r="F5" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="G5">
+        <f>'By Round'!G35</f>
+        <v/>
+      </c>
+      <c r="H5">
+        <f>'By Round'!H35</f>
+        <v/>
+      </c>
+      <c r="I5">
+        <f>'By Round'!I35</f>
+        <v/>
+      </c>
+      <c r="J5">
+        <f>'By Round'!J35</f>
+        <v/>
+      </c>
+      <c r="K5">
+        <f>'By Round'!K35</f>
+        <v/>
       </c>
       <c r="L5" s="11">
         <f>IFERROR(AVERAGE(P5:Q5),"")</f>
@@ -1133,6 +1209,26 @@
           <t>NS</t>
         </is>
       </c>
+      <c r="G6">
+        <f>'By Round'!G3</f>
+        <v/>
+      </c>
+      <c r="H6">
+        <f>'By Round'!H3</f>
+        <v/>
+      </c>
+      <c r="I6">
+        <f>'By Round'!I3</f>
+        <v/>
+      </c>
+      <c r="J6">
+        <f>'By Round'!J3</f>
+        <v/>
+      </c>
+      <c r="K6">
+        <f>'By Round'!K3</f>
+        <v/>
+      </c>
       <c r="L6" s="11">
         <f>IFERROR(AVERAGE(P6:Q6),"")</f>
         <v/>
@@ -1168,25 +1264,45 @@
     </row>
     <row r="7">
       <c r="B7">
-        <f>'By Round'!A8</f>
+        <f>'By Round'!A20</f>
         <v/>
       </c>
       <c r="C7">
-        <f>'By Round'!B10</f>
+        <f>'By Round'!B26</f>
         <v/>
       </c>
       <c r="D7">
-        <f>'By Round'!C10</f>
+        <f>'By Round'!C26</f>
         <v/>
       </c>
       <c r="E7">
-        <f>'By Round'!D10</f>
+        <f>'By Round'!D26</f>
         <v/>
       </c>
       <c r="F7" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
+      </c>
+      <c r="G7">
+        <f>'By Round'!G27</f>
+        <v/>
+      </c>
+      <c r="H7">
+        <f>'By Round'!H27</f>
+        <v/>
+      </c>
+      <c r="I7">
+        <f>'By Round'!I27</f>
+        <v/>
+      </c>
+      <c r="J7">
+        <f>'By Round'!J27</f>
+        <v/>
+      </c>
+      <c r="K7">
+        <f>'By Round'!K27</f>
+        <v/>
       </c>
       <c r="L7" s="11">
         <f>IFERROR(AVERAGE(P7:Q7),"")</f>
@@ -1223,25 +1339,45 @@
     </row>
     <row r="8">
       <c r="B8">
-        <f>'By Round'!A11</f>
+        <f>'By Round'!A29</f>
         <v/>
       </c>
       <c r="C8">
-        <f>'By Round'!B13</f>
+        <f>'By Round'!B35</f>
         <v/>
       </c>
       <c r="D8">
-        <f>'By Round'!C13</f>
+        <f>'By Round'!C35</f>
         <v/>
       </c>
       <c r="E8">
-        <f>'By Round'!D13</f>
+        <f>'By Round'!D35</f>
         <v/>
       </c>
       <c r="F8" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
+      </c>
+      <c r="G8">
+        <f>'By Round'!G36</f>
+        <v/>
+      </c>
+      <c r="H8">
+        <f>'By Round'!H36</f>
+        <v/>
+      </c>
+      <c r="I8">
+        <f>'By Round'!I36</f>
+        <v/>
+      </c>
+      <c r="J8">
+        <f>'By Round'!J36</f>
+        <v/>
+      </c>
+      <c r="K8">
+        <f>'By Round'!K36</f>
+        <v/>
       </c>
       <c r="L8" s="11">
         <f>IFERROR(AVERAGE(P8:Q8),"")</f>
@@ -1301,6 +1437,26 @@
           <t>EW</t>
         </is>
       </c>
+      <c r="G9">
+        <f>'By Round'!G4</f>
+        <v/>
+      </c>
+      <c r="H9">
+        <f>'By Round'!H4</f>
+        <v/>
+      </c>
+      <c r="I9">
+        <f>'By Round'!I4</f>
+        <v/>
+      </c>
+      <c r="J9">
+        <f>'By Round'!J4</f>
+        <v/>
+      </c>
+      <c r="K9">
+        <f>'By Round'!K4</f>
+        <v/>
+      </c>
       <c r="L9" s="11">
         <f>IFERROR(AVERAGE(P9:Q9),"")</f>
         <v/>
@@ -1336,25 +1492,45 @@
     </row>
     <row r="10">
       <c r="B10">
-        <f>'By Round'!A8</f>
+        <f>'By Round'!A20</f>
         <v/>
       </c>
       <c r="C10">
-        <f>'By Round'!B10</f>
+        <f>'By Round'!B26</f>
         <v/>
       </c>
       <c r="D10">
-        <f>'By Round'!C10</f>
+        <f>'By Round'!C26</f>
         <v/>
       </c>
       <c r="E10">
-        <f>'By Round'!D10</f>
+        <f>'By Round'!D26</f>
         <v/>
       </c>
       <c r="F10" s="10" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
+      </c>
+      <c r="G10">
+        <f>'By Round'!G28</f>
+        <v/>
+      </c>
+      <c r="H10">
+        <f>'By Round'!H28</f>
+        <v/>
+      </c>
+      <c r="I10">
+        <f>'By Round'!I28</f>
+        <v/>
+      </c>
+      <c r="J10">
+        <f>'By Round'!J28</f>
+        <v/>
+      </c>
+      <c r="K10">
+        <f>'By Round'!K28</f>
+        <v/>
       </c>
       <c r="L10" s="11">
         <f>IFERROR(AVERAGE(P10:Q10),"")</f>
@@ -1391,25 +1567,45 @@
     </row>
     <row r="11">
       <c r="B11">
-        <f>'By Round'!A11</f>
+        <f>'By Round'!A29</f>
         <v/>
       </c>
       <c r="C11">
-        <f>'By Round'!B13</f>
+        <f>'By Round'!B35</f>
         <v/>
       </c>
       <c r="D11">
-        <f>'By Round'!C13</f>
+        <f>'By Round'!C35</f>
         <v/>
       </c>
       <c r="E11">
-        <f>'By Round'!D13</f>
+        <f>'By Round'!D35</f>
         <v/>
       </c>
       <c r="F11" s="10" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
+      </c>
+      <c r="G11">
+        <f>'By Round'!G37</f>
+        <v/>
+      </c>
+      <c r="H11">
+        <f>'By Round'!H37</f>
+        <v/>
+      </c>
+      <c r="I11">
+        <f>'By Round'!I37</f>
+        <v/>
+      </c>
+      <c r="J11">
+        <f>'By Round'!J37</f>
+        <v/>
+      </c>
+      <c r="K11">
+        <f>'By Round'!K37</f>
+        <v/>
       </c>
       <c r="L11" s="11">
         <f>IFERROR(AVERAGE(P11:Q11),"")</f>
@@ -1453,21 +1649,41 @@
         <v/>
       </c>
       <c r="C12">
-        <f>'By Round'!B3</f>
+        <f>'By Round'!B5</f>
         <v/>
       </c>
       <c r="D12">
-        <f>'By Round'!C3</f>
+        <f>'By Round'!C5</f>
         <v/>
       </c>
       <c r="E12">
-        <f>'By Round'!D3</f>
+        <f>'By Round'!D5</f>
         <v/>
       </c>
       <c r="F12" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G12">
+        <f>'By Round'!G5</f>
+        <v/>
+      </c>
+      <c r="H12">
+        <f>'By Round'!H5</f>
+        <v/>
+      </c>
+      <c r="I12">
+        <f>'By Round'!I5</f>
+        <v/>
+      </c>
+      <c r="J12">
+        <f>'By Round'!J5</f>
+        <v/>
+      </c>
+      <c r="K12">
+        <f>'By Round'!K5</f>
+        <v/>
       </c>
       <c r="L12" s="11">
         <f>IFERROR(AVERAGE(P12:Q12),"")</f>
@@ -1504,25 +1720,45 @@
     </row>
     <row r="13">
       <c r="B13">
-        <f>'By Round'!A5</f>
+        <f>'By Round'!A11</f>
         <v/>
       </c>
       <c r="C13">
-        <f>'By Round'!B5</f>
+        <f>'By Round'!B11</f>
         <v/>
       </c>
       <c r="D13">
-        <f>'By Round'!C5</f>
+        <f>'By Round'!C11</f>
         <v/>
       </c>
       <c r="E13">
-        <f>'By Round'!D5</f>
+        <f>'By Round'!D11</f>
         <v/>
       </c>
       <c r="F13" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G13">
+        <f>'By Round'!G11</f>
+        <v/>
+      </c>
+      <c r="H13">
+        <f>'By Round'!H11</f>
+        <v/>
+      </c>
+      <c r="I13">
+        <f>'By Round'!I11</f>
+        <v/>
+      </c>
+      <c r="J13">
+        <f>'By Round'!J11</f>
+        <v/>
+      </c>
+      <c r="K13">
+        <f>'By Round'!K11</f>
+        <v/>
       </c>
       <c r="L13" s="11">
         <f>IFERROR(AVERAGE(P13:Q13),"")</f>
@@ -1559,25 +1795,45 @@
     </row>
     <row r="14">
       <c r="B14">
-        <f>'By Round'!A8</f>
+        <f>'By Round'!A20</f>
         <v/>
       </c>
       <c r="C14">
-        <f>'By Round'!B9</f>
+        <f>'By Round'!B23</f>
         <v/>
       </c>
       <c r="D14">
-        <f>'By Round'!C9</f>
+        <f>'By Round'!C23</f>
         <v/>
       </c>
       <c r="E14">
-        <f>'By Round'!D9</f>
+        <f>'By Round'!D23</f>
         <v/>
       </c>
       <c r="F14" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G14">
+        <f>'By Round'!G23</f>
+        <v/>
+      </c>
+      <c r="H14">
+        <f>'By Round'!H23</f>
+        <v/>
+      </c>
+      <c r="I14">
+        <f>'By Round'!I23</f>
+        <v/>
+      </c>
+      <c r="J14">
+        <f>'By Round'!J23</f>
+        <v/>
+      </c>
+      <c r="K14">
+        <f>'By Round'!K23</f>
+        <v/>
       </c>
       <c r="L14" s="11">
         <f>IFERROR(AVERAGE(P14:Q14),"")</f>
@@ -1621,21 +1877,41 @@
         <v/>
       </c>
       <c r="C15">
-        <f>'By Round'!B3</f>
+        <f>'By Round'!B5</f>
         <v/>
       </c>
       <c r="D15">
-        <f>'By Round'!C3</f>
+        <f>'By Round'!C5</f>
         <v/>
       </c>
       <c r="E15">
-        <f>'By Round'!D3</f>
+        <f>'By Round'!D5</f>
         <v/>
       </c>
       <c r="F15" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
+      </c>
+      <c r="G15">
+        <f>'By Round'!G6</f>
+        <v/>
+      </c>
+      <c r="H15">
+        <f>'By Round'!H6</f>
+        <v/>
+      </c>
+      <c r="I15">
+        <f>'By Round'!I6</f>
+        <v/>
+      </c>
+      <c r="J15">
+        <f>'By Round'!J6</f>
+        <v/>
+      </c>
+      <c r="K15">
+        <f>'By Round'!K6</f>
+        <v/>
       </c>
       <c r="L15" s="11">
         <f>IFERROR(AVERAGE(P15:Q15),"")</f>
@@ -1672,25 +1948,45 @@
     </row>
     <row r="16">
       <c r="B16">
-        <f>'By Round'!A5</f>
+        <f>'By Round'!A11</f>
         <v/>
       </c>
       <c r="C16">
-        <f>'By Round'!B5</f>
+        <f>'By Round'!B11</f>
         <v/>
       </c>
       <c r="D16">
-        <f>'By Round'!C5</f>
+        <f>'By Round'!C11</f>
         <v/>
       </c>
       <c r="E16">
-        <f>'By Round'!D5</f>
+        <f>'By Round'!D11</f>
         <v/>
       </c>
       <c r="F16" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
+      </c>
+      <c r="G16">
+        <f>'By Round'!G12</f>
+        <v/>
+      </c>
+      <c r="H16">
+        <f>'By Round'!H12</f>
+        <v/>
+      </c>
+      <c r="I16">
+        <f>'By Round'!I12</f>
+        <v/>
+      </c>
+      <c r="J16">
+        <f>'By Round'!J12</f>
+        <v/>
+      </c>
+      <c r="K16">
+        <f>'By Round'!K12</f>
+        <v/>
       </c>
       <c r="L16" s="11">
         <f>IFERROR(AVERAGE(P16:Q16),"")</f>
@@ -1727,25 +2023,45 @@
     </row>
     <row r="17">
       <c r="B17">
-        <f>'By Round'!A8</f>
+        <f>'By Round'!A20</f>
         <v/>
       </c>
       <c r="C17">
-        <f>'By Round'!B9</f>
+        <f>'By Round'!B23</f>
         <v/>
       </c>
       <c r="D17">
-        <f>'By Round'!C9</f>
+        <f>'By Round'!C23</f>
         <v/>
       </c>
       <c r="E17">
-        <f>'By Round'!D9</f>
+        <f>'By Round'!D23</f>
         <v/>
       </c>
       <c r="F17" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
+      </c>
+      <c r="G17">
+        <f>'By Round'!G24</f>
+        <v/>
+      </c>
+      <c r="H17">
+        <f>'By Round'!H24</f>
+        <v/>
+      </c>
+      <c r="I17">
+        <f>'By Round'!I24</f>
+        <v/>
+      </c>
+      <c r="J17">
+        <f>'By Round'!J24</f>
+        <v/>
+      </c>
+      <c r="K17">
+        <f>'By Round'!K24</f>
+        <v/>
       </c>
       <c r="L17" s="11">
         <f>IFERROR(AVERAGE(P17:Q17),"")</f>
@@ -1789,21 +2105,41 @@
         <v/>
       </c>
       <c r="C18">
-        <f>'By Round'!B3</f>
+        <f>'By Round'!B5</f>
         <v/>
       </c>
       <c r="D18">
-        <f>'By Round'!C3</f>
+        <f>'By Round'!C5</f>
         <v/>
       </c>
       <c r="E18">
-        <f>'By Round'!D3</f>
+        <f>'By Round'!D5</f>
         <v/>
       </c>
       <c r="F18" s="10" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
+      </c>
+      <c r="G18">
+        <f>'By Round'!G7</f>
+        <v/>
+      </c>
+      <c r="H18">
+        <f>'By Round'!H7</f>
+        <v/>
+      </c>
+      <c r="I18">
+        <f>'By Round'!I7</f>
+        <v/>
+      </c>
+      <c r="J18">
+        <f>'By Round'!J7</f>
+        <v/>
+      </c>
+      <c r="K18">
+        <f>'By Round'!K7</f>
+        <v/>
       </c>
       <c r="L18" s="11">
         <f>IFERROR(AVERAGE(P18:Q18),"")</f>
@@ -1840,25 +2176,45 @@
     </row>
     <row r="19">
       <c r="B19">
-        <f>'By Round'!A5</f>
+        <f>'By Round'!A11</f>
         <v/>
       </c>
       <c r="C19">
-        <f>'By Round'!B5</f>
+        <f>'By Round'!B11</f>
         <v/>
       </c>
       <c r="D19">
-        <f>'By Round'!C5</f>
+        <f>'By Round'!C11</f>
         <v/>
       </c>
       <c r="E19">
-        <f>'By Round'!D5</f>
+        <f>'By Round'!D11</f>
         <v/>
       </c>
       <c r="F19" s="10" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
+      </c>
+      <c r="G19">
+        <f>'By Round'!G13</f>
+        <v/>
+      </c>
+      <c r="H19">
+        <f>'By Round'!H13</f>
+        <v/>
+      </c>
+      <c r="I19">
+        <f>'By Round'!I13</f>
+        <v/>
+      </c>
+      <c r="J19">
+        <f>'By Round'!J13</f>
+        <v/>
+      </c>
+      <c r="K19">
+        <f>'By Round'!K13</f>
+        <v/>
       </c>
       <c r="L19" s="11">
         <f>IFERROR(AVERAGE(P19:Q19),"")</f>
@@ -1895,25 +2251,45 @@
     </row>
     <row r="20">
       <c r="B20">
-        <f>'By Round'!A8</f>
+        <f>'By Round'!A20</f>
         <v/>
       </c>
       <c r="C20">
-        <f>'By Round'!B9</f>
+        <f>'By Round'!B23</f>
         <v/>
       </c>
       <c r="D20">
-        <f>'By Round'!C9</f>
+        <f>'By Round'!C23</f>
         <v/>
       </c>
       <c r="E20">
-        <f>'By Round'!D9</f>
+        <f>'By Round'!D23</f>
         <v/>
       </c>
       <c r="F20" s="10" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
+      </c>
+      <c r="G20">
+        <f>'By Round'!G25</f>
+        <v/>
+      </c>
+      <c r="H20">
+        <f>'By Round'!H25</f>
+        <v/>
+      </c>
+      <c r="I20">
+        <f>'By Round'!I25</f>
+        <v/>
+      </c>
+      <c r="J20">
+        <f>'By Round'!J25</f>
+        <v/>
+      </c>
+      <c r="K20">
+        <f>'By Round'!K25</f>
+        <v/>
       </c>
       <c r="L20" s="11">
         <f>IFERROR(AVERAGE(P20:Q20),"")</f>
@@ -1953,25 +2329,45 @@
         <v>7</v>
       </c>
       <c r="B21">
-        <f>'By Round'!A5</f>
+        <f>'By Round'!A11</f>
         <v/>
       </c>
       <c r="C21">
-        <f>'By Round'!B6</f>
+        <f>'By Round'!B14</f>
         <v/>
       </c>
       <c r="D21">
-        <f>'By Round'!C6</f>
+        <f>'By Round'!C14</f>
         <v/>
       </c>
       <c r="E21">
-        <f>'By Round'!D6</f>
+        <f>'By Round'!D14</f>
         <v/>
       </c>
       <c r="F21" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G21">
+        <f>'By Round'!G14</f>
+        <v/>
+      </c>
+      <c r="H21">
+        <f>'By Round'!H14</f>
+        <v/>
+      </c>
+      <c r="I21">
+        <f>'By Round'!I14</f>
+        <v/>
+      </c>
+      <c r="J21">
+        <f>'By Round'!J14</f>
+        <v/>
+      </c>
+      <c r="K21">
+        <f>'By Round'!K14</f>
+        <v/>
       </c>
       <c r="L21" s="11">
         <f>IFERROR(AVERAGE(P21:Q21),"")</f>
@@ -2008,25 +2404,45 @@
     </row>
     <row r="22">
       <c r="B22">
-        <f>'By Round'!A8</f>
+        <f>'By Round'!A20</f>
         <v/>
       </c>
       <c r="C22">
-        <f>'By Round'!B8</f>
+        <f>'By Round'!B20</f>
         <v/>
       </c>
       <c r="D22">
-        <f>'By Round'!C8</f>
+        <f>'By Round'!C20</f>
         <v/>
       </c>
       <c r="E22">
-        <f>'By Round'!D8</f>
+        <f>'By Round'!D20</f>
         <v/>
       </c>
       <c r="F22" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G22">
+        <f>'By Round'!G20</f>
+        <v/>
+      </c>
+      <c r="H22">
+        <f>'By Round'!H20</f>
+        <v/>
+      </c>
+      <c r="I22">
+        <f>'By Round'!I20</f>
+        <v/>
+      </c>
+      <c r="J22">
+        <f>'By Round'!J20</f>
+        <v/>
+      </c>
+      <c r="K22">
+        <f>'By Round'!K20</f>
+        <v/>
       </c>
       <c r="L22" s="11">
         <f>IFERROR(AVERAGE(P22:Q22),"")</f>
@@ -2063,25 +2479,45 @@
     </row>
     <row r="23">
       <c r="B23">
-        <f>'By Round'!A11</f>
+        <f>'By Round'!A29</f>
         <v/>
       </c>
       <c r="C23">
-        <f>'By Round'!B12</f>
+        <f>'By Round'!B32</f>
         <v/>
       </c>
       <c r="D23">
-        <f>'By Round'!C12</f>
+        <f>'By Round'!C32</f>
         <v/>
       </c>
       <c r="E23">
-        <f>'By Round'!D12</f>
+        <f>'By Round'!D32</f>
         <v/>
       </c>
       <c r="F23" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G23">
+        <f>'By Round'!G32</f>
+        <v/>
+      </c>
+      <c r="H23">
+        <f>'By Round'!H32</f>
+        <v/>
+      </c>
+      <c r="I23">
+        <f>'By Round'!I32</f>
+        <v/>
+      </c>
+      <c r="J23">
+        <f>'By Round'!J32</f>
+        <v/>
+      </c>
+      <c r="K23">
+        <f>'By Round'!K32</f>
+        <v/>
       </c>
       <c r="L23" s="11">
         <f>IFERROR(AVERAGE(P23:Q23),"")</f>
@@ -2121,25 +2557,45 @@
         <v>8</v>
       </c>
       <c r="B24">
-        <f>'By Round'!A5</f>
+        <f>'By Round'!A11</f>
         <v/>
       </c>
       <c r="C24">
-        <f>'By Round'!B6</f>
+        <f>'By Round'!B14</f>
         <v/>
       </c>
       <c r="D24">
-        <f>'By Round'!C6</f>
+        <f>'By Round'!C14</f>
         <v/>
       </c>
       <c r="E24">
-        <f>'By Round'!D6</f>
+        <f>'By Round'!D14</f>
         <v/>
       </c>
       <c r="F24" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="G24">
+        <f>'By Round'!G15</f>
+        <v/>
+      </c>
+      <c r="H24">
+        <f>'By Round'!H15</f>
+        <v/>
+      </c>
+      <c r="I24">
+        <f>'By Round'!I15</f>
+        <v/>
+      </c>
+      <c r="J24">
+        <f>'By Round'!J15</f>
+        <v/>
+      </c>
+      <c r="K24">
+        <f>'By Round'!K15</f>
+        <v/>
       </c>
       <c r="L24" s="11">
         <f>IFERROR(AVERAGE(P24:Q24),"")</f>
@@ -2176,25 +2632,45 @@
     </row>
     <row r="25">
       <c r="B25">
-        <f>'By Round'!A8</f>
+        <f>'By Round'!A20</f>
         <v/>
       </c>
       <c r="C25">
-        <f>'By Round'!B8</f>
+        <f>'By Round'!B20</f>
         <v/>
       </c>
       <c r="D25">
-        <f>'By Round'!C8</f>
+        <f>'By Round'!C20</f>
         <v/>
       </c>
       <c r="E25">
-        <f>'By Round'!D8</f>
+        <f>'By Round'!D20</f>
         <v/>
       </c>
       <c r="F25" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="G25">
+        <f>'By Round'!G21</f>
+        <v/>
+      </c>
+      <c r="H25">
+        <f>'By Round'!H21</f>
+        <v/>
+      </c>
+      <c r="I25">
+        <f>'By Round'!I21</f>
+        <v/>
+      </c>
+      <c r="J25">
+        <f>'By Round'!J21</f>
+        <v/>
+      </c>
+      <c r="K25">
+        <f>'By Round'!K21</f>
+        <v/>
       </c>
       <c r="L25" s="11">
         <f>IFERROR(AVERAGE(P25:Q25),"")</f>
@@ -2231,25 +2707,45 @@
     </row>
     <row r="26">
       <c r="B26">
-        <f>'By Round'!A11</f>
+        <f>'By Round'!A29</f>
         <v/>
       </c>
       <c r="C26">
-        <f>'By Round'!B12</f>
+        <f>'By Round'!B32</f>
         <v/>
       </c>
       <c r="D26">
-        <f>'By Round'!C12</f>
+        <f>'By Round'!C32</f>
         <v/>
       </c>
       <c r="E26">
-        <f>'By Round'!D12</f>
+        <f>'By Round'!D32</f>
         <v/>
       </c>
       <c r="F26" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="G26">
+        <f>'By Round'!G33</f>
+        <v/>
+      </c>
+      <c r="H26">
+        <f>'By Round'!H33</f>
+        <v/>
+      </c>
+      <c r="I26">
+        <f>'By Round'!I33</f>
+        <v/>
+      </c>
+      <c r="J26">
+        <f>'By Round'!J33</f>
+        <v/>
+      </c>
+      <c r="K26">
+        <f>'By Round'!K33</f>
+        <v/>
       </c>
       <c r="L26" s="11">
         <f>IFERROR(AVERAGE(P26:Q26),"")</f>
@@ -2289,25 +2785,45 @@
         <v>9</v>
       </c>
       <c r="B27">
-        <f>'By Round'!A5</f>
+        <f>'By Round'!A11</f>
         <v/>
       </c>
       <c r="C27">
-        <f>'By Round'!B6</f>
+        <f>'By Round'!B14</f>
         <v/>
       </c>
       <c r="D27">
-        <f>'By Round'!C6</f>
+        <f>'By Round'!C14</f>
         <v/>
       </c>
       <c r="E27">
-        <f>'By Round'!D6</f>
+        <f>'By Round'!D14</f>
         <v/>
       </c>
       <c r="F27" s="10" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
+      </c>
+      <c r="G27">
+        <f>'By Round'!G16</f>
+        <v/>
+      </c>
+      <c r="H27">
+        <f>'By Round'!H16</f>
+        <v/>
+      </c>
+      <c r="I27">
+        <f>'By Round'!I16</f>
+        <v/>
+      </c>
+      <c r="J27">
+        <f>'By Round'!J16</f>
+        <v/>
+      </c>
+      <c r="K27">
+        <f>'By Round'!K16</f>
+        <v/>
       </c>
       <c r="L27" s="11">
         <f>IFERROR(AVERAGE(P27:Q27),"")</f>
@@ -2344,25 +2860,45 @@
     </row>
     <row r="28">
       <c r="B28">
-        <f>'By Round'!A8</f>
+        <f>'By Round'!A20</f>
         <v/>
       </c>
       <c r="C28">
-        <f>'By Round'!B8</f>
+        <f>'By Round'!B20</f>
         <v/>
       </c>
       <c r="D28">
-        <f>'By Round'!C8</f>
+        <f>'By Round'!C20</f>
         <v/>
       </c>
       <c r="E28">
-        <f>'By Round'!D8</f>
+        <f>'By Round'!D20</f>
         <v/>
       </c>
       <c r="F28" s="10" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
+      </c>
+      <c r="G28">
+        <f>'By Round'!G22</f>
+        <v/>
+      </c>
+      <c r="H28">
+        <f>'By Round'!H22</f>
+        <v/>
+      </c>
+      <c r="I28">
+        <f>'By Round'!I22</f>
+        <v/>
+      </c>
+      <c r="J28">
+        <f>'By Round'!J22</f>
+        <v/>
+      </c>
+      <c r="K28">
+        <f>'By Round'!K22</f>
+        <v/>
       </c>
       <c r="L28" s="11">
         <f>IFERROR(AVERAGE(P28:Q28),"")</f>
@@ -2399,25 +2935,45 @@
     </row>
     <row r="29">
       <c r="B29">
-        <f>'By Round'!A11</f>
+        <f>'By Round'!A29</f>
         <v/>
       </c>
       <c r="C29">
-        <f>'By Round'!B12</f>
+        <f>'By Round'!B32</f>
         <v/>
       </c>
       <c r="D29">
-        <f>'By Round'!C12</f>
+        <f>'By Round'!C32</f>
         <v/>
       </c>
       <c r="E29">
-        <f>'By Round'!D12</f>
+        <f>'By Round'!D32</f>
         <v/>
       </c>
       <c r="F29" s="10" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
+      </c>
+      <c r="G29">
+        <f>'By Round'!G34</f>
+        <v/>
+      </c>
+      <c r="H29">
+        <f>'By Round'!H34</f>
+        <v/>
+      </c>
+      <c r="I29">
+        <f>'By Round'!I34</f>
+        <v/>
+      </c>
+      <c r="J29">
+        <f>'By Round'!J34</f>
+        <v/>
+      </c>
+      <c r="K29">
+        <f>'By Round'!K34</f>
+        <v/>
       </c>
       <c r="L29" s="11">
         <f>IFERROR(AVERAGE(P29:Q29),"")</f>
@@ -2461,21 +3017,41 @@
         <v/>
       </c>
       <c r="C30">
-        <f>'By Round'!B4</f>
+        <f>'By Round'!B8</f>
         <v/>
       </c>
       <c r="D30">
-        <f>'By Round'!C4</f>
+        <f>'By Round'!C8</f>
         <v/>
       </c>
       <c r="E30">
-        <f>'By Round'!D4</f>
+        <f>'By Round'!D8</f>
         <v/>
       </c>
       <c r="F30" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G30">
+        <f>'By Round'!G8</f>
+        <v/>
+      </c>
+      <c r="H30">
+        <f>'By Round'!H8</f>
+        <v/>
+      </c>
+      <c r="I30">
+        <f>'By Round'!I8</f>
+        <v/>
+      </c>
+      <c r="J30">
+        <f>'By Round'!J8</f>
+        <v/>
+      </c>
+      <c r="K30">
+        <f>'By Round'!K8</f>
+        <v/>
       </c>
       <c r="L30" s="11">
         <f>IFERROR(AVERAGE(P30:Q30),"")</f>
@@ -2512,25 +3088,45 @@
     </row>
     <row r="31">
       <c r="B31">
-        <f>'By Round'!A5</f>
+        <f>'By Round'!A11</f>
         <v/>
       </c>
       <c r="C31">
-        <f>'By Round'!B7</f>
+        <f>'By Round'!B17</f>
         <v/>
       </c>
       <c r="D31">
-        <f>'By Round'!C7</f>
+        <f>'By Round'!C17</f>
         <v/>
       </c>
       <c r="E31">
-        <f>'By Round'!D7</f>
+        <f>'By Round'!D17</f>
         <v/>
       </c>
       <c r="F31" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G31">
+        <f>'By Round'!G17</f>
+        <v/>
+      </c>
+      <c r="H31">
+        <f>'By Round'!H17</f>
+        <v/>
+      </c>
+      <c r="I31">
+        <f>'By Round'!I17</f>
+        <v/>
+      </c>
+      <c r="J31">
+        <f>'By Round'!J17</f>
+        <v/>
+      </c>
+      <c r="K31">
+        <f>'By Round'!K17</f>
+        <v/>
       </c>
       <c r="L31" s="11">
         <f>IFERROR(AVERAGE(P31:Q31),"")</f>
@@ -2567,25 +3163,45 @@
     </row>
     <row r="32">
       <c r="B32">
-        <f>'By Round'!A11</f>
+        <f>'By Round'!A29</f>
         <v/>
       </c>
       <c r="C32">
-        <f>'By Round'!B11</f>
+        <f>'By Round'!B29</f>
         <v/>
       </c>
       <c r="D32">
-        <f>'By Round'!C11</f>
+        <f>'By Round'!C29</f>
         <v/>
       </c>
       <c r="E32">
-        <f>'By Round'!D11</f>
+        <f>'By Round'!D29</f>
         <v/>
       </c>
       <c r="F32" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G32">
+        <f>'By Round'!G29</f>
+        <v/>
+      </c>
+      <c r="H32">
+        <f>'By Round'!H29</f>
+        <v/>
+      </c>
+      <c r="I32">
+        <f>'By Round'!I29</f>
+        <v/>
+      </c>
+      <c r="J32">
+        <f>'By Round'!J29</f>
+        <v/>
+      </c>
+      <c r="K32">
+        <f>'By Round'!K29</f>
+        <v/>
       </c>
       <c r="L32" s="11">
         <f>IFERROR(AVERAGE(P32:Q32),"")</f>
@@ -2629,21 +3245,41 @@
         <v/>
       </c>
       <c r="C33">
-        <f>'By Round'!B4</f>
+        <f>'By Round'!B8</f>
         <v/>
       </c>
       <c r="D33">
-        <f>'By Round'!C4</f>
+        <f>'By Round'!C8</f>
         <v/>
       </c>
       <c r="E33">
-        <f>'By Round'!D4</f>
+        <f>'By Round'!D8</f>
         <v/>
       </c>
       <c r="F33" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="G33">
+        <f>'By Round'!G9</f>
+        <v/>
+      </c>
+      <c r="H33">
+        <f>'By Round'!H9</f>
+        <v/>
+      </c>
+      <c r="I33">
+        <f>'By Round'!I9</f>
+        <v/>
+      </c>
+      <c r="J33">
+        <f>'By Round'!J9</f>
+        <v/>
+      </c>
+      <c r="K33">
+        <f>'By Round'!K9</f>
+        <v/>
       </c>
       <c r="L33" s="11">
         <f>IFERROR(AVERAGE(P33:Q33),"")</f>
@@ -2680,25 +3316,45 @@
     </row>
     <row r="34">
       <c r="B34">
-        <f>'By Round'!A5</f>
+        <f>'By Round'!A11</f>
         <v/>
       </c>
       <c r="C34">
-        <f>'By Round'!B7</f>
+        <f>'By Round'!B17</f>
         <v/>
       </c>
       <c r="D34">
-        <f>'By Round'!C7</f>
+        <f>'By Round'!C17</f>
         <v/>
       </c>
       <c r="E34">
-        <f>'By Round'!D7</f>
+        <f>'By Round'!D17</f>
         <v/>
       </c>
       <c r="F34" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="G34">
+        <f>'By Round'!G18</f>
+        <v/>
+      </c>
+      <c r="H34">
+        <f>'By Round'!H18</f>
+        <v/>
+      </c>
+      <c r="I34">
+        <f>'By Round'!I18</f>
+        <v/>
+      </c>
+      <c r="J34">
+        <f>'By Round'!J18</f>
+        <v/>
+      </c>
+      <c r="K34">
+        <f>'By Round'!K18</f>
+        <v/>
       </c>
       <c r="L34" s="11">
         <f>IFERROR(AVERAGE(P34:Q34),"")</f>
@@ -2735,25 +3391,45 @@
     </row>
     <row r="35">
       <c r="B35">
-        <f>'By Round'!A11</f>
+        <f>'By Round'!A29</f>
         <v/>
       </c>
       <c r="C35">
-        <f>'By Round'!B11</f>
+        <f>'By Round'!B29</f>
         <v/>
       </c>
       <c r="D35">
-        <f>'By Round'!C11</f>
+        <f>'By Round'!C29</f>
         <v/>
       </c>
       <c r="E35">
-        <f>'By Round'!D11</f>
+        <f>'By Round'!D29</f>
         <v/>
       </c>
       <c r="F35" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="G35">
+        <f>'By Round'!G30</f>
+        <v/>
+      </c>
+      <c r="H35">
+        <f>'By Round'!H30</f>
+        <v/>
+      </c>
+      <c r="I35">
+        <f>'By Round'!I30</f>
+        <v/>
+      </c>
+      <c r="J35">
+        <f>'By Round'!J30</f>
+        <v/>
+      </c>
+      <c r="K35">
+        <f>'By Round'!K30</f>
+        <v/>
       </c>
       <c r="L35" s="11">
         <f>IFERROR(AVERAGE(P35:Q35),"")</f>
@@ -2797,21 +3473,41 @@
         <v/>
       </c>
       <c r="C36">
-        <f>'By Round'!B4</f>
+        <f>'By Round'!B8</f>
         <v/>
       </c>
       <c r="D36">
-        <f>'By Round'!C4</f>
+        <f>'By Round'!C8</f>
         <v/>
       </c>
       <c r="E36">
-        <f>'By Round'!D4</f>
+        <f>'By Round'!D8</f>
         <v/>
       </c>
       <c r="F36" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
+      </c>
+      <c r="G36">
+        <f>'By Round'!G10</f>
+        <v/>
+      </c>
+      <c r="H36">
+        <f>'By Round'!H10</f>
+        <v/>
+      </c>
+      <c r="I36">
+        <f>'By Round'!I10</f>
+        <v/>
+      </c>
+      <c r="J36">
+        <f>'By Round'!J10</f>
+        <v/>
+      </c>
+      <c r="K36">
+        <f>'By Round'!K10</f>
+        <v/>
       </c>
       <c r="L36" s="11">
         <f>IFERROR(AVERAGE(P36:Q36),"")</f>
@@ -2848,25 +3544,45 @@
     </row>
     <row r="37">
       <c r="B37">
-        <f>'By Round'!A5</f>
+        <f>'By Round'!A11</f>
         <v/>
       </c>
       <c r="C37">
-        <f>'By Round'!B7</f>
+        <f>'By Round'!B17</f>
         <v/>
       </c>
       <c r="D37">
-        <f>'By Round'!C7</f>
+        <f>'By Round'!C17</f>
         <v/>
       </c>
       <c r="E37">
-        <f>'By Round'!D7</f>
+        <f>'By Round'!D17</f>
         <v/>
       </c>
       <c r="F37" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
+      </c>
+      <c r="G37">
+        <f>'By Round'!G19</f>
+        <v/>
+      </c>
+      <c r="H37">
+        <f>'By Round'!H19</f>
+        <v/>
+      </c>
+      <c r="I37">
+        <f>'By Round'!I19</f>
+        <v/>
+      </c>
+      <c r="J37">
+        <f>'By Round'!J19</f>
+        <v/>
+      </c>
+      <c r="K37">
+        <f>'By Round'!K19</f>
+        <v/>
       </c>
       <c r="L37" s="11">
         <f>IFERROR(AVERAGE(P37:Q37),"")</f>
@@ -2903,25 +3619,45 @@
     </row>
     <row r="38">
       <c r="B38">
-        <f>'By Round'!A11</f>
+        <f>'By Round'!A29</f>
         <v/>
       </c>
       <c r="C38">
-        <f>'By Round'!B11</f>
+        <f>'By Round'!B29</f>
         <v/>
       </c>
       <c r="D38">
-        <f>'By Round'!C11</f>
+        <f>'By Round'!C29</f>
         <v/>
       </c>
       <c r="E38">
-        <f>'By Round'!D11</f>
+        <f>'By Round'!D29</f>
         <v/>
       </c>
       <c r="F38" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
+      </c>
+      <c r="G38">
+        <f>'By Round'!G31</f>
+        <v/>
+      </c>
+      <c r="H38">
+        <f>'By Round'!H31</f>
+        <v/>
+      </c>
+      <c r="I38">
+        <f>'By Round'!I31</f>
+        <v/>
+      </c>
+      <c r="J38">
+        <f>'By Round'!J31</f>
+        <v/>
+      </c>
+      <c r="K38">
+        <f>'By Round'!K31</f>
+        <v/>
       </c>
       <c r="L38" s="11">
         <f>IFERROR(AVERAGE(P38:Q38),"")</f>
@@ -2961,25 +3697,45 @@
         <v>13</v>
       </c>
       <c r="B39">
-        <f>'By Round'!A14</f>
+        <f>'By Round'!A38</f>
         <v/>
       </c>
       <c r="C39">
-        <f>'By Round'!B14</f>
+        <f>'By Round'!B38</f>
         <v/>
       </c>
       <c r="D39">
-        <f>'By Round'!C14</f>
+        <f>'By Round'!C38</f>
         <v/>
       </c>
       <c r="E39">
-        <f>'By Round'!D14</f>
+        <f>'By Round'!D38</f>
         <v/>
       </c>
       <c r="F39" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G39">
+        <f>'By Round'!G38</f>
+        <v/>
+      </c>
+      <c r="H39">
+        <f>'By Round'!H38</f>
+        <v/>
+      </c>
+      <c r="I39">
+        <f>'By Round'!I38</f>
+        <v/>
+      </c>
+      <c r="J39">
+        <f>'By Round'!J38</f>
+        <v/>
+      </c>
+      <c r="K39">
+        <f>'By Round'!K38</f>
+        <v/>
       </c>
       <c r="L39" s="11">
         <f>IFERROR(AVERAGE(P39:Q39),"")</f>
@@ -3016,25 +3772,45 @@
     </row>
     <row r="40">
       <c r="B40">
-        <f>'By Round'!A14</f>
+        <f>'By Round'!A38</f>
         <v/>
       </c>
       <c r="C40">
-        <f>'By Round'!B15</f>
+        <f>'By Round'!B41</f>
         <v/>
       </c>
       <c r="D40">
-        <f>'By Round'!C15</f>
+        <f>'By Round'!C41</f>
         <v/>
       </c>
       <c r="E40">
-        <f>'By Round'!D15</f>
+        <f>'By Round'!D41</f>
         <v/>
       </c>
       <c r="F40" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G40">
+        <f>'By Round'!G41</f>
+        <v/>
+      </c>
+      <c r="H40">
+        <f>'By Round'!H41</f>
+        <v/>
+      </c>
+      <c r="I40">
+        <f>'By Round'!I41</f>
+        <v/>
+      </c>
+      <c r="J40">
+        <f>'By Round'!J41</f>
+        <v/>
+      </c>
+      <c r="K40">
+        <f>'By Round'!K41</f>
+        <v/>
       </c>
       <c r="L40" s="11">
         <f>IFERROR(AVERAGE(P40:Q40),"")</f>
@@ -3071,25 +3847,45 @@
     </row>
     <row r="41">
       <c r="B41">
-        <f>'By Round'!A14</f>
+        <f>'By Round'!A38</f>
         <v/>
       </c>
       <c r="C41">
-        <f>'By Round'!B16</f>
+        <f>'By Round'!B44</f>
         <v/>
       </c>
       <c r="D41">
-        <f>'By Round'!C16</f>
+        <f>'By Round'!C44</f>
         <v/>
       </c>
       <c r="E41">
-        <f>'By Round'!D16</f>
+        <f>'By Round'!D44</f>
         <v/>
       </c>
       <c r="F41" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G41">
+        <f>'By Round'!G44</f>
+        <v/>
+      </c>
+      <c r="H41">
+        <f>'By Round'!H44</f>
+        <v/>
+      </c>
+      <c r="I41">
+        <f>'By Round'!I44</f>
+        <v/>
+      </c>
+      <c r="J41">
+        <f>'By Round'!J44</f>
+        <v/>
+      </c>
+      <c r="K41">
+        <f>'By Round'!K44</f>
+        <v/>
       </c>
       <c r="L41" s="11">
         <f>IFERROR(AVERAGE(P41:Q41),"")</f>
@@ -3129,25 +3925,45 @@
         <v>14</v>
       </c>
       <c r="B42">
-        <f>'By Round'!A14</f>
+        <f>'By Round'!A38</f>
         <v/>
       </c>
       <c r="C42">
-        <f>'By Round'!B14</f>
+        <f>'By Round'!B38</f>
         <v/>
       </c>
       <c r="D42">
-        <f>'By Round'!C14</f>
+        <f>'By Round'!C38</f>
         <v/>
       </c>
       <c r="E42">
-        <f>'By Round'!D14</f>
+        <f>'By Round'!D38</f>
         <v/>
       </c>
       <c r="F42" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="G42">
+        <f>'By Round'!G39</f>
+        <v/>
+      </c>
+      <c r="H42">
+        <f>'By Round'!H39</f>
+        <v/>
+      </c>
+      <c r="I42">
+        <f>'By Round'!I39</f>
+        <v/>
+      </c>
+      <c r="J42">
+        <f>'By Round'!J39</f>
+        <v/>
+      </c>
+      <c r="K42">
+        <f>'By Round'!K39</f>
+        <v/>
       </c>
       <c r="L42" s="11">
         <f>IFERROR(AVERAGE(P42:Q42),"")</f>
@@ -3184,25 +4000,45 @@
     </row>
     <row r="43">
       <c r="B43">
-        <f>'By Round'!A14</f>
+        <f>'By Round'!A38</f>
         <v/>
       </c>
       <c r="C43">
-        <f>'By Round'!B15</f>
+        <f>'By Round'!B41</f>
         <v/>
       </c>
       <c r="D43">
-        <f>'By Round'!C15</f>
+        <f>'By Round'!C41</f>
         <v/>
       </c>
       <c r="E43">
-        <f>'By Round'!D15</f>
+        <f>'By Round'!D41</f>
         <v/>
       </c>
       <c r="F43" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="G43">
+        <f>'By Round'!G42</f>
+        <v/>
+      </c>
+      <c r="H43">
+        <f>'By Round'!H42</f>
+        <v/>
+      </c>
+      <c r="I43">
+        <f>'By Round'!I42</f>
+        <v/>
+      </c>
+      <c r="J43">
+        <f>'By Round'!J42</f>
+        <v/>
+      </c>
+      <c r="K43">
+        <f>'By Round'!K42</f>
+        <v/>
       </c>
       <c r="L43" s="11">
         <f>IFERROR(AVERAGE(P43:Q43),"")</f>
@@ -3239,25 +4075,45 @@
     </row>
     <row r="44">
       <c r="B44">
-        <f>'By Round'!A14</f>
+        <f>'By Round'!A38</f>
         <v/>
       </c>
       <c r="C44">
-        <f>'By Round'!B16</f>
+        <f>'By Round'!B44</f>
         <v/>
       </c>
       <c r="D44">
-        <f>'By Round'!C16</f>
+        <f>'By Round'!C44</f>
         <v/>
       </c>
       <c r="E44">
-        <f>'By Round'!D16</f>
+        <f>'By Round'!D44</f>
         <v/>
       </c>
       <c r="F44" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="G44">
+        <f>'By Round'!G45</f>
+        <v/>
+      </c>
+      <c r="H44">
+        <f>'By Round'!H45</f>
+        <v/>
+      </c>
+      <c r="I44">
+        <f>'By Round'!I45</f>
+        <v/>
+      </c>
+      <c r="J44">
+        <f>'By Round'!J45</f>
+        <v/>
+      </c>
+      <c r="K44">
+        <f>'By Round'!K45</f>
+        <v/>
       </c>
       <c r="L44" s="11">
         <f>IFERROR(AVERAGE(P44:Q44),"")</f>
@@ -3297,25 +4153,45 @@
         <v>15</v>
       </c>
       <c r="B45">
-        <f>'By Round'!A14</f>
+        <f>'By Round'!A38</f>
         <v/>
       </c>
       <c r="C45">
-        <f>'By Round'!B14</f>
+        <f>'By Round'!B38</f>
         <v/>
       </c>
       <c r="D45">
-        <f>'By Round'!C14</f>
+        <f>'By Round'!C38</f>
         <v/>
       </c>
       <c r="E45">
-        <f>'By Round'!D14</f>
+        <f>'By Round'!D38</f>
         <v/>
       </c>
       <c r="F45" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
+      </c>
+      <c r="G45">
+        <f>'By Round'!G40</f>
+        <v/>
+      </c>
+      <c r="H45">
+        <f>'By Round'!H40</f>
+        <v/>
+      </c>
+      <c r="I45">
+        <f>'By Round'!I40</f>
+        <v/>
+      </c>
+      <c r="J45">
+        <f>'By Round'!J40</f>
+        <v/>
+      </c>
+      <c r="K45">
+        <f>'By Round'!K40</f>
+        <v/>
       </c>
       <c r="L45" s="11">
         <f>IFERROR(AVERAGE(P45:Q45),"")</f>
@@ -3352,25 +4228,45 @@
     </row>
     <row r="46">
       <c r="B46">
-        <f>'By Round'!A14</f>
+        <f>'By Round'!A38</f>
         <v/>
       </c>
       <c r="C46">
-        <f>'By Round'!B15</f>
+        <f>'By Round'!B41</f>
         <v/>
       </c>
       <c r="D46">
-        <f>'By Round'!C15</f>
+        <f>'By Round'!C41</f>
         <v/>
       </c>
       <c r="E46">
-        <f>'By Round'!D15</f>
+        <f>'By Round'!D41</f>
         <v/>
       </c>
       <c r="F46" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
+      </c>
+      <c r="G46">
+        <f>'By Round'!G43</f>
+        <v/>
+      </c>
+      <c r="H46">
+        <f>'By Round'!H43</f>
+        <v/>
+      </c>
+      <c r="I46">
+        <f>'By Round'!I43</f>
+        <v/>
+      </c>
+      <c r="J46">
+        <f>'By Round'!J43</f>
+        <v/>
+      </c>
+      <c r="K46">
+        <f>'By Round'!K43</f>
+        <v/>
       </c>
       <c r="L46" s="11">
         <f>IFERROR(AVERAGE(P46:Q46),"")</f>
@@ -3407,25 +4303,45 @@
     </row>
     <row r="47">
       <c r="B47">
-        <f>'By Round'!A14</f>
+        <f>'By Round'!A38</f>
         <v/>
       </c>
       <c r="C47">
-        <f>'By Round'!B16</f>
+        <f>'By Round'!B44</f>
         <v/>
       </c>
       <c r="D47">
-        <f>'By Round'!C16</f>
+        <f>'By Round'!C44</f>
         <v/>
       </c>
       <c r="E47">
-        <f>'By Round'!D16</f>
+        <f>'By Round'!D44</f>
         <v/>
       </c>
       <c r="F47" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
+      </c>
+      <c r="G47">
+        <f>'By Round'!G46</f>
+        <v/>
+      </c>
+      <c r="H47">
+        <f>'By Round'!H46</f>
+        <v/>
+      </c>
+      <c r="I47">
+        <f>'By Round'!I46</f>
+        <v/>
+      </c>
+      <c r="J47">
+        <f>'By Round'!J46</f>
+        <v/>
+      </c>
+      <c r="K47">
+        <f>'By Round'!K46</f>
+        <v/>
       </c>
       <c r="L47" s="11">
         <f>IFERROR(AVERAGE(P47:Q47),"")</f>
@@ -3478,7 +4394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3486,7 +4402,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3515,6 +4433,36 @@
           <t>Board</t>
         </is>
       </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Vul</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>By</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>NS Score</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>EW Score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -3529,247 +4477,675 @@
       <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1 &amp; 2 &amp; 3</t>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="n">
+      <c r="E3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="F3" s="10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F4" s="10" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>4 &amp; 5 &amp; 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="n">
+      <c r="E5" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="13" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G5" s="12" t="n"/>
+      <c r="H5" s="12" t="n"/>
+      <c r="I5" s="12" t="n"/>
+      <c r="J5" s="12" t="n"/>
+      <c r="K5" s="12" t="n"/>
+    </row>
+    <row r="6">
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C8" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D8" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>10 &amp; 11 &amp; 12</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="E8" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" s="13" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G8" s="12" t="n"/>
+      <c r="H8" s="12" t="n"/>
+      <c r="I8" s="12" t="n"/>
+      <c r="J8" s="12" t="n"/>
+      <c r="K8" s="12" t="n"/>
+    </row>
+    <row r="9">
+      <c r="E9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="n">
+        <v>12</v>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B11" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C11" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D11" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4 &amp; 5 &amp; 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="n">
+      <c r="E11" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G11" s="14" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="I11" s="14" t="n"/>
+      <c r="J11" s="14" t="n"/>
+      <c r="K11" s="14" t="n"/>
+    </row>
+    <row r="12">
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C14" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D14" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>7 &amp; 8 &amp; 9</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="n">
+      <c r="E14" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="F14" s="13" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G14" s="12" t="n"/>
+      <c r="H14" s="12" t="n"/>
+      <c r="I14" s="12" t="n"/>
+      <c r="J14" s="12" t="n"/>
+      <c r="K14" s="12" t="n"/>
+    </row>
+    <row r="15">
+      <c r="E15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="n">
+        <v>9</v>
+      </c>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C17" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D17" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>10 &amp; 11 &amp; 12</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="E17" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" s="13" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G17" s="12" t="n"/>
+      <c r="H17" s="12" t="n"/>
+      <c r="I17" s="12" t="n"/>
+      <c r="J17" s="12" t="n"/>
+      <c r="K17" s="12" t="n"/>
+    </row>
+    <row r="18">
+      <c r="E18" t="n">
+        <v>11</v>
+      </c>
+      <c r="F18" s="10" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="n">
+        <v>12</v>
+      </c>
+      <c r="F19" s="10" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B20" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C20" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D20" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>7 &amp; 8 &amp; 9</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="n">
+      <c r="E20" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F20" s="15" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G20" s="14" t="n"/>
+      <c r="H20" s="14" t="n"/>
+      <c r="I20" s="14" t="n"/>
+      <c r="J20" s="14" t="n"/>
+      <c r="K20" s="14" t="n"/>
+    </row>
+    <row r="21">
+      <c r="E21" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" s="10" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="n">
+        <v>9</v>
+      </c>
+      <c r="F22" s="10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C23" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D23" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4 &amp; 5 &amp; 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="n">
+      <c r="E23" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" s="13" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G23" s="12" t="n"/>
+      <c r="H23" s="12" t="n"/>
+      <c r="I23" s="12" t="n"/>
+      <c r="J23" s="12" t="n"/>
+      <c r="K23" s="12" t="n"/>
+    </row>
+    <row r="24">
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
+      <c r="F24" s="10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="n">
+        <v>6</v>
+      </c>
+      <c r="F25" s="10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C26" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D26" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1 &amp; 2 &amp; 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="E26" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G26" s="12" t="n"/>
+      <c r="H26" s="12" t="n"/>
+      <c r="I26" s="12" t="n"/>
+      <c r="J26" s="12" t="n"/>
+      <c r="K26" s="12" t="n"/>
+    </row>
+    <row r="27">
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" s="10" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B29" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C29" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D29" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>10 &amp; 11 &amp; 12</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="n">
+      <c r="E29" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" s="15" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G29" s="14" t="n"/>
+      <c r="H29" s="14" t="n"/>
+      <c r="I29" s="14" t="n"/>
+      <c r="J29" s="14" t="n"/>
+      <c r="K29" s="14" t="n"/>
+    </row>
+    <row r="30">
+      <c r="E30" t="n">
+        <v>11</v>
+      </c>
+      <c r="F30" s="10" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="n">
+        <v>12</v>
+      </c>
+      <c r="F31" s="10" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C32" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D32" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>7 &amp; 8 &amp; 9</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="n">
+      <c r="E32" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="F32" s="13" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G32" s="12" t="n"/>
+      <c r="H32" s="12" t="n"/>
+      <c r="I32" s="12" t="n"/>
+      <c r="J32" s="12" t="n"/>
+      <c r="K32" s="12" t="n"/>
+    </row>
+    <row r="33">
+      <c r="E33" t="n">
+        <v>8</v>
+      </c>
+      <c r="F33" s="10" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="n">
+        <v>9</v>
+      </c>
+      <c r="F34" s="10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C35" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D35" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1 &amp; 2 &amp; 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="E35" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G35" s="12" t="n"/>
+      <c r="H35" s="12" t="n"/>
+      <c r="I35" s="12" t="n"/>
+      <c r="J35" s="12" t="n"/>
+      <c r="K35" s="12" t="n"/>
+    </row>
+    <row r="36">
+      <c r="E36" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" s="10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="n">
+        <v>3</v>
+      </c>
+      <c r="F37" s="10" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B38" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C38" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D38" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>13 &amp; 14 &amp; 15</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="n">
+      <c r="E38" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="F38" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G38" s="14" t="n"/>
+      <c r="H38" s="14" t="n"/>
+      <c r="I38" s="14" t="n"/>
+      <c r="J38" s="14" t="n"/>
+      <c r="K38" s="14" t="n"/>
+    </row>
+    <row r="39">
+      <c r="E39" t="n">
+        <v>14</v>
+      </c>
+      <c r="F39" s="10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="n">
+        <v>15</v>
+      </c>
+      <c r="F40" s="10" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C41" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D41" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>13 &amp; 14 &amp; 15</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="n">
+      <c r="E41" s="12" t="n">
+        <v>13</v>
+      </c>
+      <c r="F41" s="13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G41" s="12" t="n"/>
+      <c r="H41" s="12" t="n"/>
+      <c r="I41" s="12" t="n"/>
+      <c r="J41" s="12" t="n"/>
+      <c r="K41" s="12" t="n"/>
+    </row>
+    <row r="42">
+      <c r="E42" t="n">
+        <v>14</v>
+      </c>
+      <c r="F42" s="10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="n">
+        <v>15</v>
+      </c>
+      <c r="F43" s="10" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C44" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D44" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>13 &amp; 14 &amp; 15</t>
-        </is>
-      </c>
+      <c r="E44" s="12" t="n">
+        <v>13</v>
+      </c>
+      <c r="F44" s="13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G44" s="12" t="n"/>
+      <c r="H44" s="12" t="n"/>
+      <c r="I44" s="12" t="n"/>
+      <c r="J44" s="12" t="n"/>
+      <c r="K44" s="12" t="n"/>
+    </row>
+    <row r="45">
+      <c r="E45" t="n">
+        <v>14</v>
+      </c>
+      <c r="F45" s="10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="n">
+        <v>15</v>
+      </c>
+      <c r="F46" s="10" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="14" t="n"/>
+      <c r="B47" s="14" t="n"/>
+      <c r="C47" s="14" t="n"/>
+      <c r="D47" s="14" t="n"/>
+      <c r="E47" s="14" t="n"/>
+      <c r="F47" s="14" t="n"/>
+      <c r="G47" s="14" t="n"/>
+      <c r="H47" s="14" t="n"/>
+      <c r="I47" s="14" t="n"/>
+      <c r="J47" s="14" t="n"/>
+      <c r="K47" s="14" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3777,1228 +5153,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Table</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Round</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Board</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>NS Next</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>EW Next</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f>'By Round'!A2</f>
-        <v/>
-      </c>
-      <c r="C2">
-        <f>'By Round'!C2</f>
-        <v/>
-      </c>
-      <c r="D2">
-        <f>'By Round'!D2</f>
-        <v/>
-      </c>
-      <c r="E2">
-        <f>'By Round'!E2</f>
-        <v/>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Table 1 NS</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Table 3 NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3">
-        <f>'By Round'!A5</f>
-        <v/>
-      </c>
-      <c r="C3">
-        <f>'By Round'!C5</f>
-        <v/>
-      </c>
-      <c r="D3">
-        <f>'By Round'!D5</f>
-        <v/>
-      </c>
-      <c r="E3">
-        <f>'By Round'!E5</f>
-        <v/>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Table 1 NS</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Table 3 NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4">
-        <f>'By Round'!A8</f>
-        <v/>
-      </c>
-      <c r="C4">
-        <f>'By Round'!C8</f>
-        <v/>
-      </c>
-      <c r="D4">
-        <f>'By Round'!D8</f>
-        <v/>
-      </c>
-      <c r="E4">
-        <f>'By Round'!E8</f>
-        <v/>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Table 1 NS</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Table 3 NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5">
-        <f>'By Round'!A11</f>
-        <v/>
-      </c>
-      <c r="C5">
-        <f>'By Round'!C11</f>
-        <v/>
-      </c>
-      <c r="D5">
-        <f>'By Round'!D11</f>
-        <v/>
-      </c>
-      <c r="E5">
-        <f>'By Round'!E11</f>
-        <v/>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Table 1 NS</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Table 3 NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6">
-        <f>'By Round'!A14</f>
-        <v/>
-      </c>
-      <c r="C6">
-        <f>'By Round'!C14</f>
-        <v/>
-      </c>
-      <c r="D6">
-        <f>'By Round'!D14</f>
-        <v/>
-      </c>
-      <c r="E6">
-        <f>'By Round'!E14</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <f>'By Round'!A2</f>
-        <v/>
-      </c>
-      <c r="C7">
-        <f>'By Round'!C3</f>
-        <v/>
-      </c>
-      <c r="D7">
-        <f>'By Round'!D3</f>
-        <v/>
-      </c>
-      <c r="E7">
-        <f>'By Round'!E3</f>
-        <v/>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Table 3 EW</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Table 2 NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8">
-        <f>'By Round'!A5</f>
-        <v/>
-      </c>
-      <c r="C8">
-        <f>'By Round'!C6</f>
-        <v/>
-      </c>
-      <c r="D8">
-        <f>'By Round'!D6</f>
-        <v/>
-      </c>
-      <c r="E8">
-        <f>'By Round'!E6</f>
-        <v/>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Table 3 EW</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Table 2 NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9">
-        <f>'By Round'!A8</f>
-        <v/>
-      </c>
-      <c r="C9">
-        <f>'By Round'!C9</f>
-        <v/>
-      </c>
-      <c r="D9">
-        <f>'By Round'!D9</f>
-        <v/>
-      </c>
-      <c r="E9">
-        <f>'By Round'!E9</f>
-        <v/>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Table 3 EW</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Table 2 NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10">
-        <f>'By Round'!A11</f>
-        <v/>
-      </c>
-      <c r="C10">
-        <f>'By Round'!C12</f>
-        <v/>
-      </c>
-      <c r="D10">
-        <f>'By Round'!D12</f>
-        <v/>
-      </c>
-      <c r="E10">
-        <f>'By Round'!E12</f>
-        <v/>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Table 3 EW</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Table 2 NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11">
-        <f>'By Round'!A14</f>
-        <v/>
-      </c>
-      <c r="C11">
-        <f>'By Round'!C15</f>
-        <v/>
-      </c>
-      <c r="D11">
-        <f>'By Round'!D15</f>
-        <v/>
-      </c>
-      <c r="E11">
-        <f>'By Round'!E15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <f>'By Round'!A2</f>
-        <v/>
-      </c>
-      <c r="C12">
-        <f>'By Round'!C4</f>
-        <v/>
-      </c>
-      <c r="D12">
-        <f>'By Round'!D4</f>
-        <v/>
-      </c>
-      <c r="E12">
-        <f>'By Round'!E4</f>
-        <v/>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Table 2 EW</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Table 1 EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13">
-        <f>'By Round'!A5</f>
-        <v/>
-      </c>
-      <c r="C13">
-        <f>'By Round'!C7</f>
-        <v/>
-      </c>
-      <c r="D13">
-        <f>'By Round'!D7</f>
-        <v/>
-      </c>
-      <c r="E13">
-        <f>'By Round'!E7</f>
-        <v/>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Table 2 EW</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Table 1 EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14">
-        <f>'By Round'!A8</f>
-        <v/>
-      </c>
-      <c r="C14">
-        <f>'By Round'!C10</f>
-        <v/>
-      </c>
-      <c r="D14">
-        <f>'By Round'!D10</f>
-        <v/>
-      </c>
-      <c r="E14">
-        <f>'By Round'!E10</f>
-        <v/>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Table 2 EW</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Table 1 EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15">
-        <f>'By Round'!A11</f>
-        <v/>
-      </c>
-      <c r="C15">
-        <f>'By Round'!C13</f>
-        <v/>
-      </c>
-      <c r="D15">
-        <f>'By Round'!D13</f>
-        <v/>
-      </c>
-      <c r="E15">
-        <f>'By Round'!E13</f>
-        <v/>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Table 2 EW</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Table 1 EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16">
-        <f>'By Round'!A14</f>
-        <v/>
-      </c>
-      <c r="C16">
-        <f>'By Round'!C16</f>
-        <v/>
-      </c>
-      <c r="D16">
-        <f>'By Round'!D16</f>
-        <v/>
-      </c>
-      <c r="E16">
-        <f>'By Round'!E16</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Pair</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Round</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Table</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Seats</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Against</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Board</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10">
-        <f>'By Round'!A2</f>
-        <v/>
-      </c>
-      <c r="C2" s="10">
-        <f>'By Round'!B2</f>
-        <v/>
-      </c>
-      <c r="D2" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E2" s="10">
-        <f>'By Round'!C2</f>
-        <v/>
-      </c>
-      <c r="F2" s="10">
-        <f>'By Round'!E2</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="10">
-        <f>'By Round'!A5</f>
-        <v/>
-      </c>
-      <c r="C3" s="10">
-        <f>'By Round'!B7</f>
-        <v/>
-      </c>
-      <c r="D3" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E3" s="10">
-        <f>'By Round'!D7</f>
-        <v/>
-      </c>
-      <c r="F3" s="10">
-        <f>'By Round'!E7</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="10">
-        <f>'By Round'!A8</f>
-        <v/>
-      </c>
-      <c r="C4" s="10">
-        <f>'By Round'!B9</f>
-        <v/>
-      </c>
-      <c r="D4" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E4" s="10">
-        <f>'By Round'!C9</f>
-        <v/>
-      </c>
-      <c r="F4" s="10">
-        <f>'By Round'!E9</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="10">
-        <f>'By Round'!A11</f>
-        <v/>
-      </c>
-      <c r="C5" s="10">
-        <f>'By Round'!B12</f>
-        <v/>
-      </c>
-      <c r="D5" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E5" s="10">
-        <f>'By Round'!D12</f>
-        <v/>
-      </c>
-      <c r="F5" s="10">
-        <f>'By Round'!E12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="10">
-        <f>'By Round'!A14</f>
-        <v/>
-      </c>
-      <c r="C6" s="10">
-        <f>'By Round'!B16</f>
-        <v/>
-      </c>
-      <c r="D6" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E6" s="10">
-        <f>'By Round'!C16</f>
-        <v/>
-      </c>
-      <c r="F6" s="10">
-        <f>'By Round'!E16</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="10">
-        <f>'By Round'!A2</f>
-        <v/>
-      </c>
-      <c r="C7" s="10">
-        <f>'By Round'!B4</f>
-        <v/>
-      </c>
-      <c r="D7" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E7" s="10">
-        <f>'By Round'!C4</f>
-        <v/>
-      </c>
-      <c r="F7" s="10">
-        <f>'By Round'!E4</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="10">
-        <f>'By Round'!A5</f>
-        <v/>
-      </c>
-      <c r="C8" s="10">
-        <f>'By Round'!B5</f>
-        <v/>
-      </c>
-      <c r="D8" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E8" s="10">
-        <f>'By Round'!C5</f>
-        <v/>
-      </c>
-      <c r="F8" s="10">
-        <f>'By Round'!E5</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="10">
-        <f>'By Round'!A8</f>
-        <v/>
-      </c>
-      <c r="C9" s="10">
-        <f>'By Round'!B10</f>
-        <v/>
-      </c>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E9" s="10">
-        <f>'By Round'!D10</f>
-        <v/>
-      </c>
-      <c r="F9" s="10">
-        <f>'By Round'!E10</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="10">
-        <f>'By Round'!A11</f>
-        <v/>
-      </c>
-      <c r="C10" s="10">
-        <f>'By Round'!B12</f>
-        <v/>
-      </c>
-      <c r="D10" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E10" s="10">
-        <f>'By Round'!C12</f>
-        <v/>
-      </c>
-      <c r="F10" s="10">
-        <f>'By Round'!E12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="10">
-        <f>'By Round'!A14</f>
-        <v/>
-      </c>
-      <c r="C11" s="10">
-        <f>'By Round'!B15</f>
-        <v/>
-      </c>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E11" s="10">
-        <f>'By Round'!D15</f>
-        <v/>
-      </c>
-      <c r="F11" s="10">
-        <f>'By Round'!E15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" s="10">
-        <f>'By Round'!A2</f>
-        <v/>
-      </c>
-      <c r="C12" s="10">
-        <f>'By Round'!B3</f>
-        <v/>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E12" s="10">
-        <f>'By Round'!D3</f>
-        <v/>
-      </c>
-      <c r="F12" s="10">
-        <f>'By Round'!E3</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="10">
-        <f>'By Round'!A5</f>
-        <v/>
-      </c>
-      <c r="C13" s="10">
-        <f>'By Round'!B7</f>
-        <v/>
-      </c>
-      <c r="D13" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E13" s="10">
-        <f>'By Round'!C7</f>
-        <v/>
-      </c>
-      <c r="F13" s="10">
-        <f>'By Round'!E7</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="10">
-        <f>'By Round'!A8</f>
-        <v/>
-      </c>
-      <c r="C14" s="10">
-        <f>'By Round'!B8</f>
-        <v/>
-      </c>
-      <c r="D14" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E14" s="10">
-        <f>'By Round'!C8</f>
-        <v/>
-      </c>
-      <c r="F14" s="10">
-        <f>'By Round'!E8</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="10">
-        <f>'By Round'!A11</f>
-        <v/>
-      </c>
-      <c r="C15" s="10">
-        <f>'By Round'!B13</f>
-        <v/>
-      </c>
-      <c r="D15" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E15" s="10">
-        <f>'By Round'!D13</f>
-        <v/>
-      </c>
-      <c r="F15" s="10">
-        <f>'By Round'!E13</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="10">
-        <f>'By Round'!A14</f>
-        <v/>
-      </c>
-      <c r="C16" s="10">
-        <f>'By Round'!B15</f>
-        <v/>
-      </c>
-      <c r="D16" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E16" s="10">
-        <f>'By Round'!C15</f>
-        <v/>
-      </c>
-      <c r="F16" s="10">
-        <f>'By Round'!E15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" s="10">
-        <f>'By Round'!A2</f>
-        <v/>
-      </c>
-      <c r="C17" s="10">
-        <f>'By Round'!B3</f>
-        <v/>
-      </c>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E17" s="10">
-        <f>'By Round'!C3</f>
-        <v/>
-      </c>
-      <c r="F17" s="10">
-        <f>'By Round'!E3</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="10">
-        <f>'By Round'!A5</f>
-        <v/>
-      </c>
-      <c r="C18" s="10">
-        <f>'By Round'!B6</f>
-        <v/>
-      </c>
-      <c r="D18" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E18" s="10">
-        <f>'By Round'!D6</f>
-        <v/>
-      </c>
-      <c r="F18" s="10">
-        <f>'By Round'!E6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="10">
-        <f>'By Round'!A8</f>
-        <v/>
-      </c>
-      <c r="C19" s="10">
-        <f>'By Round'!B10</f>
-        <v/>
-      </c>
-      <c r="D19" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E19" s="10">
-        <f>'By Round'!C10</f>
-        <v/>
-      </c>
-      <c r="F19" s="10">
-        <f>'By Round'!E10</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="10">
-        <f>'By Round'!A11</f>
-        <v/>
-      </c>
-      <c r="C20" s="10">
-        <f>'By Round'!B11</f>
-        <v/>
-      </c>
-      <c r="D20" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E20" s="10">
-        <f>'By Round'!C11</f>
-        <v/>
-      </c>
-      <c r="F20" s="10">
-        <f>'By Round'!E11</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="10">
-        <f>'By Round'!A14</f>
-        <v/>
-      </c>
-      <c r="C21" s="10">
-        <f>'By Round'!B16</f>
-        <v/>
-      </c>
-      <c r="D21" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E21" s="10">
-        <f>'By Round'!D16</f>
-        <v/>
-      </c>
-      <c r="F21" s="10">
-        <f>'By Round'!E16</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" s="10">
-        <f>'By Round'!A2</f>
-        <v/>
-      </c>
-      <c r="C22" s="10">
-        <f>'By Round'!B4</f>
-        <v/>
-      </c>
-      <c r="D22" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E22" s="10">
-        <f>'By Round'!D4</f>
-        <v/>
-      </c>
-      <c r="F22" s="10">
-        <f>'By Round'!E4</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="10">
-        <f>'By Round'!A5</f>
-        <v/>
-      </c>
-      <c r="C23" s="10">
-        <f>'By Round'!B6</f>
-        <v/>
-      </c>
-      <c r="D23" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E23" s="10">
-        <f>'By Round'!C6</f>
-        <v/>
-      </c>
-      <c r="F23" s="10">
-        <f>'By Round'!E6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="10">
-        <f>'By Round'!A8</f>
-        <v/>
-      </c>
-      <c r="C24" s="10">
-        <f>'By Round'!B9</f>
-        <v/>
-      </c>
-      <c r="D24" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E24" s="10">
-        <f>'By Round'!D9</f>
-        <v/>
-      </c>
-      <c r="F24" s="10">
-        <f>'By Round'!E9</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="10">
-        <f>'By Round'!A11</f>
-        <v/>
-      </c>
-      <c r="C25" s="10">
-        <f>'By Round'!B13</f>
-        <v/>
-      </c>
-      <c r="D25" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E25" s="10">
-        <f>'By Round'!C13</f>
-        <v/>
-      </c>
-      <c r="F25" s="10">
-        <f>'By Round'!E13</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="10">
-        <f>'By Round'!A14</f>
-        <v/>
-      </c>
-      <c r="C26" s="10">
-        <f>'By Round'!B14</f>
-        <v/>
-      </c>
-      <c r="D26" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E26" s="10">
-        <f>'By Round'!C14</f>
-        <v/>
-      </c>
-      <c r="F26" s="10">
-        <f>'By Round'!E14</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>6</v>
-      </c>
-      <c r="B27" s="10">
-        <f>'By Round'!A2</f>
-        <v/>
-      </c>
-      <c r="C27" s="10">
-        <f>'By Round'!B2</f>
-        <v/>
-      </c>
-      <c r="D27" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E27" s="10">
-        <f>'By Round'!D2</f>
-        <v/>
-      </c>
-      <c r="F27" s="10">
-        <f>'By Round'!E2</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="10">
-        <f>'By Round'!A5</f>
-        <v/>
-      </c>
-      <c r="C28" s="10">
-        <f>'By Round'!B5</f>
-        <v/>
-      </c>
-      <c r="D28" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E28" s="10">
-        <f>'By Round'!D5</f>
-        <v/>
-      </c>
-      <c r="F28" s="10">
-        <f>'By Round'!E5</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="10">
-        <f>'By Round'!A8</f>
-        <v/>
-      </c>
-      <c r="C29" s="10">
-        <f>'By Round'!B8</f>
-        <v/>
-      </c>
-      <c r="D29" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E29" s="10">
-        <f>'By Round'!D8</f>
-        <v/>
-      </c>
-      <c r="F29" s="10">
-        <f>'By Round'!E8</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="10">
-        <f>'By Round'!A11</f>
-        <v/>
-      </c>
-      <c r="C30" s="10">
-        <f>'By Round'!B11</f>
-        <v/>
-      </c>
-      <c r="D30" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E30" s="10">
-        <f>'By Round'!D11</f>
-        <v/>
-      </c>
-      <c r="F30" s="10">
-        <f>'By Round'!E11</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="10">
-        <f>'By Round'!A14</f>
-        <v/>
-      </c>
-      <c r="C31" s="10">
-        <f>'By Round'!B14</f>
-        <v/>
-      </c>
-      <c r="D31" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E31" s="10">
-        <f>'By Round'!D14</f>
-        <v/>
-      </c>
-      <c r="F31" s="10">
-        <f>'By Round'!E14</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5021,12 +5175,12 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="inlineStr">
+      <c r="A1" s="16" t="inlineStr">
         <is>
           <t>Board #</t>
         </is>
       </c>
-      <c r="C1" s="12" t="n"/>
+      <c r="C1" s="16" t="n"/>
       <c r="D1" t="inlineStr">
         <is>
           <t>0 for contract made, "Avg" for incomplete</t>
@@ -5066,54 +5220,54 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="n">
+      <c r="A4" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="n"/>
-      <c r="C4" s="14" t="n"/>
-      <c r="D4" s="14" t="n"/>
-      <c r="E4" s="14" t="n"/>
-      <c r="F4" s="14" t="n"/>
+      <c r="B4" s="18" t="n"/>
+      <c r="C4" s="18" t="n"/>
+      <c r="D4" s="18" t="n"/>
+      <c r="E4" s="18" t="n"/>
+      <c r="F4" s="18" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="n">
+      <c r="A5" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="n"/>
-      <c r="C5" s="14" t="n"/>
-      <c r="D5" s="14" t="n"/>
-      <c r="E5" s="14" t="n"/>
-      <c r="F5" s="14" t="n"/>
+      <c r="B5" s="18" t="n"/>
+      <c r="C5" s="18" t="n"/>
+      <c r="D5" s="18" t="n"/>
+      <c r="E5" s="18" t="n"/>
+      <c r="F5" s="18" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="n">
+      <c r="A6" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="14" t="n"/>
-      <c r="C6" s="14" t="n"/>
-      <c r="D6" s="14" t="n"/>
-      <c r="E6" s="14" t="n"/>
-      <c r="F6" s="14" t="n"/>
+      <c r="B6" s="18" t="n"/>
+      <c r="C6" s="18" t="n"/>
+      <c r="D6" s="18" t="n"/>
+      <c r="E6" s="18" t="n"/>
+      <c r="F6" s="18" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="n"/>
-      <c r="C7" s="14" t="n"/>
-      <c r="D7" s="14" t="n"/>
-      <c r="E7" s="14" t="n"/>
-      <c r="F7" s="14" t="n"/>
+      <c r="B7" s="18" t="n"/>
+      <c r="C7" s="18" t="n"/>
+      <c r="D7" s="18" t="n"/>
+      <c r="E7" s="18" t="n"/>
+      <c r="F7" s="18" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="n">
+      <c r="A8" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="14" t="n"/>
-      <c r="C8" s="14" t="n"/>
-      <c r="D8" s="14" t="n"/>
-      <c r="E8" s="14" t="n"/>
-      <c r="F8" s="14" t="n"/>
+      <c r="B8" s="18" t="n"/>
+      <c r="C8" s="18" t="n"/>
+      <c r="D8" s="18" t="n"/>
+      <c r="E8" s="18" t="n"/>
+      <c r="F8" s="18" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5123,7 +5277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5434,7 +5588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5537,25 +5691,25 @@
           <t>1 D/C</t>
         </is>
       </c>
-      <c r="B3" s="15" t="n">
+      <c r="B3" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="n">
+      <c r="C3" s="20" t="n">
         <v>70</v>
       </c>
-      <c r="D3" s="16" t="n">
+      <c r="D3" s="20" t="n">
         <v>140</v>
       </c>
-      <c r="E3" s="16" t="n">
+      <c r="E3" s="20" t="n">
         <v>230</v>
       </c>
-      <c r="F3" s="16" t="n">
+      <c r="F3" s="20" t="n">
         <v>70</v>
       </c>
-      <c r="G3" s="16" t="n">
+      <c r="G3" s="20" t="n">
         <v>140</v>
       </c>
-      <c r="H3" s="16" t="n">
+      <c r="H3" s="20" t="n">
         <v>230</v>
       </c>
       <c r="J3" t="n">
@@ -5583,25 +5737,25 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="15" t="n">
+      <c r="B4" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="n">
+      <c r="C4" s="20" t="n">
         <v>90</v>
       </c>
-      <c r="D4" s="16" t="n">
+      <c r="D4" s="20" t="n">
         <v>240</v>
       </c>
-      <c r="E4" s="16" t="n">
+      <c r="E4" s="20" t="n">
         <v>430</v>
       </c>
-      <c r="F4" s="16" t="n">
+      <c r="F4" s="20" t="n">
         <v>90</v>
       </c>
-      <c r="G4" s="16" t="n">
+      <c r="G4" s="20" t="n">
         <v>340</v>
       </c>
-      <c r="H4" s="16" t="n">
+      <c r="H4" s="20" t="n">
         <v>630</v>
       </c>
       <c r="J4" t="n">
@@ -5633,25 +5787,25 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="15" t="n">
+      <c r="B5" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="n">
+      <c r="C5" s="20" t="n">
         <v>110</v>
       </c>
-      <c r="D5" s="16" t="n">
+      <c r="D5" s="20" t="n">
         <v>340</v>
       </c>
-      <c r="E5" s="16" t="n">
+      <c r="E5" s="20" t="n">
         <v>630</v>
       </c>
-      <c r="F5" s="16" t="n">
+      <c r="F5" s="20" t="n">
         <v>110</v>
       </c>
-      <c r="G5" s="16" t="n">
+      <c r="G5" s="20" t="n">
         <v>540</v>
       </c>
-      <c r="H5" s="16" t="n">
+      <c r="H5" s="20" t="n">
         <v>1030</v>
       </c>
       <c r="J5" t="n">
@@ -5683,25 +5837,25 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="15" t="n">
+      <c r="B6" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="n">
+      <c r="C6" s="20" t="n">
         <v>130</v>
       </c>
-      <c r="D6" s="16" t="n">
+      <c r="D6" s="20" t="n">
         <v>440</v>
       </c>
-      <c r="E6" s="16" t="n">
+      <c r="E6" s="20" t="n">
         <v>830</v>
       </c>
-      <c r="F6" s="16" t="n">
+      <c r="F6" s="20" t="n">
         <v>130</v>
       </c>
-      <c r="G6" s="16" t="n">
+      <c r="G6" s="20" t="n">
         <v>740</v>
       </c>
-      <c r="H6" s="16" t="n">
+      <c r="H6" s="20" t="n">
         <v>1430</v>
       </c>
       <c r="J6" t="n">
@@ -5733,25 +5887,25 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="15" t="n">
+      <c r="B7" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="C7" s="16" t="n">
+      <c r="C7" s="20" t="n">
         <v>150</v>
       </c>
-      <c r="D7" s="16" t="n">
+      <c r="D7" s="20" t="n">
         <v>540</v>
       </c>
-      <c r="E7" s="16" t="n">
+      <c r="E7" s="20" t="n">
         <v>1030</v>
       </c>
-      <c r="F7" s="16" t="n">
+      <c r="F7" s="20" t="n">
         <v>150</v>
       </c>
-      <c r="G7" s="16" t="n">
+      <c r="G7" s="20" t="n">
         <v>940</v>
       </c>
-      <c r="H7" s="16" t="n">
+      <c r="H7" s="20" t="n">
         <v>1830</v>
       </c>
       <c r="J7" t="n">
@@ -5783,25 +5937,25 @@
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="15" t="n">
+      <c r="B8" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="n">
+      <c r="C8" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="D8" s="16" t="n">
+      <c r="D8" s="20" t="n">
         <v>640</v>
       </c>
-      <c r="E8" s="16" t="n">
+      <c r="E8" s="20" t="n">
         <v>1230</v>
       </c>
-      <c r="F8" s="16" t="n">
+      <c r="F8" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="G8" s="16" t="n">
+      <c r="G8" s="20" t="n">
         <v>1140</v>
       </c>
-      <c r="H8" s="16" t="n">
+      <c r="H8" s="20" t="n">
         <v>2230</v>
       </c>
       <c r="J8" t="n">
@@ -5833,25 +5987,25 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="15" t="n">
+      <c r="B9" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="C9" s="16" t="n">
+      <c r="C9" s="20" t="n">
         <v>190</v>
       </c>
-      <c r="D9" s="16" t="n">
+      <c r="D9" s="20" t="n">
         <v>740</v>
       </c>
-      <c r="E9" s="16" t="n">
+      <c r="E9" s="20" t="n">
         <v>1430</v>
       </c>
-      <c r="F9" s="16" t="n">
+      <c r="F9" s="20" t="n">
         <v>190</v>
       </c>
-      <c r="G9" s="16" t="n">
+      <c r="G9" s="20" t="n">
         <v>1340</v>
       </c>
-      <c r="H9" s="16" t="n">
+      <c r="H9" s="20" t="n">
         <v>2630</v>
       </c>
       <c r="J9" t="n">
@@ -5888,25 +6042,25 @@
           <t>1 H/S</t>
         </is>
       </c>
-      <c r="B10" s="15" t="n">
+      <c r="B10" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="16" t="n">
+      <c r="C10" s="20" t="n">
         <v>80</v>
       </c>
-      <c r="D10" s="16" t="n">
+      <c r="D10" s="20" t="n">
         <v>160</v>
       </c>
-      <c r="E10" s="16" t="n">
+      <c r="E10" s="20" t="n">
         <v>520</v>
       </c>
-      <c r="F10" s="16" t="n">
+      <c r="F10" s="20" t="n">
         <v>80</v>
       </c>
-      <c r="G10" s="16" t="n">
+      <c r="G10" s="20" t="n">
         <v>160</v>
       </c>
-      <c r="H10" s="16" t="n">
+      <c r="H10" s="20" t="n">
         <v>720</v>
       </c>
       <c r="J10" t="n">
@@ -5938,25 +6092,25 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="15" t="n">
+      <c r="B11" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="16" t="n">
+      <c r="C11" s="20" t="n">
         <v>110</v>
       </c>
-      <c r="D11" s="16" t="n">
+      <c r="D11" s="20" t="n">
         <v>260</v>
       </c>
-      <c r="E11" s="16" t="n">
+      <c r="E11" s="20" t="n">
         <v>720</v>
       </c>
-      <c r="F11" s="16" t="n">
+      <c r="F11" s="20" t="n">
         <v>110</v>
       </c>
-      <c r="G11" s="16" t="n">
+      <c r="G11" s="20" t="n">
         <v>360</v>
       </c>
-      <c r="H11" s="16" t="n">
+      <c r="H11" s="20" t="n">
         <v>1120</v>
       </c>
       <c r="J11" t="n">
@@ -5988,25 +6142,25 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="15" t="n">
+      <c r="B12" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="16" t="n">
+      <c r="C12" s="20" t="n">
         <v>140</v>
       </c>
-      <c r="D12" s="16" t="n">
+      <c r="D12" s="20" t="n">
         <v>360</v>
       </c>
-      <c r="E12" s="16" t="n">
+      <c r="E12" s="20" t="n">
         <v>920</v>
       </c>
-      <c r="F12" s="16" t="n">
+      <c r="F12" s="20" t="n">
         <v>140</v>
       </c>
-      <c r="G12" s="16" t="n">
+      <c r="G12" s="20" t="n">
         <v>560</v>
       </c>
-      <c r="H12" s="16" t="n">
+      <c r="H12" s="20" t="n">
         <v>1520</v>
       </c>
       <c r="J12" t="n">
@@ -6038,25 +6192,25 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="15" t="n">
+      <c r="B13" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="16" t="n">
+      <c r="C13" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="D13" s="16" t="n">
+      <c r="D13" s="20" t="n">
         <v>460</v>
       </c>
-      <c r="E13" s="16" t="n">
+      <c r="E13" s="20" t="n">
         <v>1120</v>
       </c>
-      <c r="F13" s="16" t="n">
+      <c r="F13" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="G13" s="16" t="n">
+      <c r="G13" s="20" t="n">
         <v>760</v>
       </c>
-      <c r="H13" s="16" t="n">
+      <c r="H13" s="20" t="n">
         <v>1920</v>
       </c>
       <c r="J13" t="n">
@@ -6088,25 +6242,25 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="15" t="n">
+      <c r="B14" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="C14" s="16" t="n">
+      <c r="C14" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="D14" s="16" t="n">
+      <c r="D14" s="20" t="n">
         <v>560</v>
       </c>
-      <c r="E14" s="16" t="n">
+      <c r="E14" s="20" t="n">
         <v>1320</v>
       </c>
-      <c r="F14" s="16" t="n">
+      <c r="F14" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="G14" s="16" t="n">
+      <c r="G14" s="20" t="n">
         <v>960</v>
       </c>
-      <c r="H14" s="16" t="n">
+      <c r="H14" s="20" t="n">
         <v>2320</v>
       </c>
       <c r="J14" t="n">
@@ -6138,25 +6292,25 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="15" t="n">
+      <c r="B15" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="C15" s="16" t="n">
+      <c r="C15" s="20" t="n">
         <v>230</v>
       </c>
-      <c r="D15" s="16" t="n">
+      <c r="D15" s="20" t="n">
         <v>660</v>
       </c>
-      <c r="E15" s="16" t="n">
+      <c r="E15" s="20" t="n">
         <v>1520</v>
       </c>
-      <c r="F15" s="16" t="n">
+      <c r="F15" s="20" t="n">
         <v>230</v>
       </c>
-      <c r="G15" s="16" t="n">
+      <c r="G15" s="20" t="n">
         <v>1160</v>
       </c>
-      <c r="H15" s="16" t="n">
+      <c r="H15" s="20" t="n">
         <v>2720</v>
       </c>
       <c r="J15" t="n">
@@ -6188,25 +6342,25 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="15" t="n">
+      <c r="B16" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="C16" s="16" t="n">
+      <c r="C16" s="20" t="n">
         <v>260</v>
       </c>
-      <c r="D16" s="16" t="n">
+      <c r="D16" s="20" t="n">
         <v>760</v>
       </c>
-      <c r="E16" s="16" t="n">
+      <c r="E16" s="20" t="n">
         <v>1720</v>
       </c>
-      <c r="F16" s="16" t="n">
+      <c r="F16" s="20" t="n">
         <v>260</v>
       </c>
-      <c r="G16" s="16" t="n">
+      <c r="G16" s="20" t="n">
         <v>1360</v>
       </c>
-      <c r="H16" s="16" t="n">
+      <c r="H16" s="20" t="n">
         <v>3120</v>
       </c>
     </row>
@@ -6216,163 +6370,163 @@
           <t>1 NT</t>
         </is>
       </c>
-      <c r="B17" s="15" t="n">
+      <c r="B17" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C17" s="16" t="n">
+      <c r="C17" s="20" t="n">
         <v>90</v>
       </c>
-      <c r="D17" s="16" t="n">
+      <c r="D17" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E17" s="16" t="n">
+      <c r="E17" s="20" t="n">
         <v>560</v>
       </c>
-      <c r="F17" s="16" t="n">
+      <c r="F17" s="20" t="n">
         <v>90</v>
       </c>
-      <c r="G17" s="16" t="n">
+      <c r="G17" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="H17" s="16" t="n">
+      <c r="H17" s="20" t="n">
         <v>760</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="15" t="n">
+      <c r="B18" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="16" t="n">
+      <c r="C18" s="20" t="n">
         <v>120</v>
       </c>
-      <c r="D18" s="16" t="n">
+      <c r="D18" s="20" t="n">
         <v>280</v>
       </c>
-      <c r="E18" s="16" t="n">
+      <c r="E18" s="20" t="n">
         <v>760</v>
       </c>
-      <c r="F18" s="16" t="n">
+      <c r="F18" s="20" t="n">
         <v>120</v>
       </c>
-      <c r="G18" s="16" t="n">
+      <c r="G18" s="20" t="n">
         <v>380</v>
       </c>
-      <c r="H18" s="16" t="n">
+      <c r="H18" s="20" t="n">
         <v>1160</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="15" t="n">
+      <c r="B19" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C19" s="16" t="n">
+      <c r="C19" s="20" t="n">
         <v>150</v>
       </c>
-      <c r="D19" s="16" t="n">
+      <c r="D19" s="20" t="n">
         <v>380</v>
       </c>
-      <c r="E19" s="16" t="n">
+      <c r="E19" s="20" t="n">
         <v>960</v>
       </c>
-      <c r="F19" s="16" t="n">
+      <c r="F19" s="20" t="n">
         <v>150</v>
       </c>
-      <c r="G19" s="16" t="n">
+      <c r="G19" s="20" t="n">
         <v>580</v>
       </c>
-      <c r="H19" s="16" t="n">
+      <c r="H19" s="20" t="n">
         <v>1560</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="15" t="n">
+      <c r="B20" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C20" s="16" t="n">
+      <c r="C20" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="D20" s="16" t="n">
+      <c r="D20" s="20" t="n">
         <v>480</v>
       </c>
-      <c r="E20" s="16" t="n">
+      <c r="E20" s="20" t="n">
         <v>1160</v>
       </c>
-      <c r="F20" s="16" t="n">
+      <c r="F20" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="G20" s="16" t="n">
+      <c r="G20" s="20" t="n">
         <v>780</v>
       </c>
-      <c r="H20" s="16" t="n">
+      <c r="H20" s="20" t="n">
         <v>1960</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="15" t="n">
+      <c r="B21" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="C21" s="16" t="n">
+      <c r="C21" s="20" t="n">
         <v>210</v>
       </c>
-      <c r="D21" s="16" t="n">
+      <c r="D21" s="20" t="n">
         <v>580</v>
       </c>
-      <c r="E21" s="16" t="n">
+      <c r="E21" s="20" t="n">
         <v>1360</v>
       </c>
-      <c r="F21" s="16" t="n">
+      <c r="F21" s="20" t="n">
         <v>210</v>
       </c>
-      <c r="G21" s="16" t="n">
+      <c r="G21" s="20" t="n">
         <v>980</v>
       </c>
-      <c r="H21" s="16" t="n">
+      <c r="H21" s="20" t="n">
         <v>2360</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="15" t="n">
+      <c r="B22" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="C22" s="16" t="n">
+      <c r="C22" s="20" t="n">
         <v>240</v>
       </c>
-      <c r="D22" s="16" t="n">
+      <c r="D22" s="20" t="n">
         <v>680</v>
       </c>
-      <c r="E22" s="16" t="n">
+      <c r="E22" s="20" t="n">
         <v>1560</v>
       </c>
-      <c r="F22" s="16" t="n">
+      <c r="F22" s="20" t="n">
         <v>240</v>
       </c>
-      <c r="G22" s="16" t="n">
+      <c r="G22" s="20" t="n">
         <v>1180</v>
       </c>
-      <c r="H22" s="16" t="n">
+      <c r="H22" s="20" t="n">
         <v>2760</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="15" t="n">
+      <c r="B23" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="C23" s="16" t="n">
+      <c r="C23" s="20" t="n">
         <v>270</v>
       </c>
-      <c r="D23" s="16" t="n">
+      <c r="D23" s="20" t="n">
         <v>780</v>
       </c>
-      <c r="E23" s="16" t="n">
+      <c r="E23" s="20" t="n">
         <v>1760</v>
       </c>
-      <c r="F23" s="16" t="n">
+      <c r="F23" s="20" t="n">
         <v>270</v>
       </c>
-      <c r="G23" s="16" t="n">
+      <c r="G23" s="20" t="n">
         <v>1380</v>
       </c>
-      <c r="H23" s="16" t="n">
+      <c r="H23" s="20" t="n">
         <v>3160</v>
       </c>
     </row>
@@ -6382,140 +6536,140 @@
           <t>2 D/C</t>
         </is>
       </c>
-      <c r="B24" s="15" t="n">
+      <c r="B24" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C24" s="16" t="n">
+      <c r="C24" s="20" t="n">
         <v>90</v>
       </c>
-      <c r="D24" s="16" t="n">
+      <c r="D24" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E24" s="16" t="n">
+      <c r="E24" s="20" t="n">
         <v>560</v>
       </c>
-      <c r="F24" s="16" t="n">
+      <c r="F24" s="20" t="n">
         <v>90</v>
       </c>
-      <c r="G24" s="16" t="n">
+      <c r="G24" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="H24" s="16" t="n">
+      <c r="H24" s="20" t="n">
         <v>760</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="15" t="n">
+      <c r="B25" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="16" t="n">
+      <c r="C25" s="20" t="n">
         <v>110</v>
       </c>
-      <c r="D25" s="16" t="n">
+      <c r="D25" s="20" t="n">
         <v>280</v>
       </c>
-      <c r="E25" s="16" t="n">
+      <c r="E25" s="20" t="n">
         <v>760</v>
       </c>
-      <c r="F25" s="16" t="n">
+      <c r="F25" s="20" t="n">
         <v>110</v>
       </c>
-      <c r="G25" s="16" t="n">
+      <c r="G25" s="20" t="n">
         <v>380</v>
       </c>
-      <c r="H25" s="16" t="n">
+      <c r="H25" s="20" t="n">
         <v>1160</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="n">
+      <c r="B26" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C26" s="16" t="n">
+      <c r="C26" s="20" t="n">
         <v>130</v>
       </c>
-      <c r="D26" s="16" t="n">
+      <c r="D26" s="20" t="n">
         <v>380</v>
       </c>
-      <c r="E26" s="16" t="n">
+      <c r="E26" s="20" t="n">
         <v>960</v>
       </c>
-      <c r="F26" s="16" t="n">
+      <c r="F26" s="20" t="n">
         <v>130</v>
       </c>
-      <c r="G26" s="16" t="n">
+      <c r="G26" s="20" t="n">
         <v>580</v>
       </c>
-      <c r="H26" s="16" t="n">
+      <c r="H26" s="20" t="n">
         <v>1560</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="15" t="n">
+      <c r="B27" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C27" s="16" t="n">
+      <c r="C27" s="20" t="n">
         <v>150</v>
       </c>
-      <c r="D27" s="16" t="n">
+      <c r="D27" s="20" t="n">
         <v>480</v>
       </c>
-      <c r="E27" s="16" t="n">
+      <c r="E27" s="20" t="n">
         <v>1160</v>
       </c>
-      <c r="F27" s="16" t="n">
+      <c r="F27" s="20" t="n">
         <v>150</v>
       </c>
-      <c r="G27" s="16" t="n">
+      <c r="G27" s="20" t="n">
         <v>780</v>
       </c>
-      <c r="H27" s="16" t="n">
+      <c r="H27" s="20" t="n">
         <v>1960</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="15" t="n">
+      <c r="B28" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="C28" s="16" t="n">
+      <c r="C28" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="D28" s="16" t="n">
+      <c r="D28" s="20" t="n">
         <v>580</v>
       </c>
-      <c r="E28" s="16" t="n">
+      <c r="E28" s="20" t="n">
         <v>1360</v>
       </c>
-      <c r="F28" s="16" t="n">
+      <c r="F28" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="G28" s="16" t="n">
+      <c r="G28" s="20" t="n">
         <v>980</v>
       </c>
-      <c r="H28" s="16" t="n">
+      <c r="H28" s="20" t="n">
         <v>2360</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="15" t="n">
+      <c r="B29" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="C29" s="16" t="n">
+      <c r="C29" s="20" t="n">
         <v>190</v>
       </c>
-      <c r="D29" s="16" t="n">
+      <c r="D29" s="20" t="n">
         <v>680</v>
       </c>
-      <c r="E29" s="16" t="n">
+      <c r="E29" s="20" t="n">
         <v>1560</v>
       </c>
-      <c r="F29" s="16" t="n">
+      <c r="F29" s="20" t="n">
         <v>190</v>
       </c>
-      <c r="G29" s="16" t="n">
+      <c r="G29" s="20" t="n">
         <v>1180</v>
       </c>
-      <c r="H29" s="16" t="n">
+      <c r="H29" s="20" t="n">
         <v>2760</v>
       </c>
     </row>
@@ -6525,140 +6679,140 @@
           <t>2 H/S</t>
         </is>
       </c>
-      <c r="B30" s="15" t="n">
+      <c r="B30" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C30" s="16" t="n">
+      <c r="C30" s="20" t="n">
         <v>110</v>
       </c>
-      <c r="D30" s="16" t="n">
+      <c r="D30" s="20" t="n">
         <v>470</v>
       </c>
-      <c r="E30" s="16" t="n">
+      <c r="E30" s="20" t="n">
         <v>640</v>
       </c>
-      <c r="F30" s="16" t="n">
+      <c r="F30" s="20" t="n">
         <v>110</v>
       </c>
-      <c r="G30" s="16" t="n">
+      <c r="G30" s="20" t="n">
         <v>670</v>
       </c>
-      <c r="H30" s="16" t="n">
+      <c r="H30" s="20" t="n">
         <v>840</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="15" t="n">
+      <c r="B31" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C31" s="16" t="n">
+      <c r="C31" s="20" t="n">
         <v>140</v>
       </c>
-      <c r="D31" s="16" t="n">
+      <c r="D31" s="20" t="n">
         <v>570</v>
       </c>
-      <c r="E31" s="16" t="n">
+      <c r="E31" s="20" t="n">
         <v>840</v>
       </c>
-      <c r="F31" s="16" t="n">
+      <c r="F31" s="20" t="n">
         <v>140</v>
       </c>
-      <c r="G31" s="16" t="n">
+      <c r="G31" s="20" t="n">
         <v>870</v>
       </c>
-      <c r="H31" s="16" t="n">
+      <c r="H31" s="20" t="n">
         <v>1240</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="15" t="n">
+      <c r="B32" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C32" s="16" t="n">
+      <c r="C32" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="D32" s="16" t="n">
+      <c r="D32" s="20" t="n">
         <v>670</v>
       </c>
-      <c r="E32" s="16" t="n">
+      <c r="E32" s="20" t="n">
         <v>1040</v>
       </c>
-      <c r="F32" s="16" t="n">
+      <c r="F32" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="G32" s="16" t="n">
+      <c r="G32" s="20" t="n">
         <v>1070</v>
       </c>
-      <c r="H32" s="16" t="n">
+      <c r="H32" s="20" t="n">
         <v>1640</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="15" t="n">
+      <c r="B33" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C33" s="16" t="n">
+      <c r="C33" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="D33" s="16" t="n">
+      <c r="D33" s="20" t="n">
         <v>770</v>
       </c>
-      <c r="E33" s="16" t="n">
+      <c r="E33" s="20" t="n">
         <v>1240</v>
       </c>
-      <c r="F33" s="16" t="n">
+      <c r="F33" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="G33" s="16" t="n">
+      <c r="G33" s="20" t="n">
         <v>1270</v>
       </c>
-      <c r="H33" s="16" t="n">
+      <c r="H33" s="20" t="n">
         <v>2040</v>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="15" t="n">
+      <c r="B34" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="C34" s="16" t="n">
+      <c r="C34" s="20" t="n">
         <v>230</v>
       </c>
-      <c r="D34" s="16" t="n">
+      <c r="D34" s="20" t="n">
         <v>870</v>
       </c>
-      <c r="E34" s="16" t="n">
+      <c r="E34" s="20" t="n">
         <v>1440</v>
       </c>
-      <c r="F34" s="16" t="n">
+      <c r="F34" s="20" t="n">
         <v>230</v>
       </c>
-      <c r="G34" s="16" t="n">
+      <c r="G34" s="20" t="n">
         <v>1470</v>
       </c>
-      <c r="H34" s="16" t="n">
+      <c r="H34" s="20" t="n">
         <v>2440</v>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="15" t="n">
+      <c r="B35" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="C35" s="16" t="n">
+      <c r="C35" s="20" t="n">
         <v>260</v>
       </c>
-      <c r="D35" s="16" t="n">
+      <c r="D35" s="20" t="n">
         <v>970</v>
       </c>
-      <c r="E35" s="16" t="n">
+      <c r="E35" s="20" t="n">
         <v>1640</v>
       </c>
-      <c r="F35" s="16" t="n">
+      <c r="F35" s="20" t="n">
         <v>260</v>
       </c>
-      <c r="G35" s="16" t="n">
+      <c r="G35" s="20" t="n">
         <v>1670</v>
       </c>
-      <c r="H35" s="16" t="n">
+      <c r="H35" s="20" t="n">
         <v>2840</v>
       </c>
     </row>
@@ -6668,140 +6822,140 @@
           <t>2 NT</t>
         </is>
       </c>
-      <c r="B36" s="15" t="n">
+      <c r="B36" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C36" s="16" t="n">
+      <c r="C36" s="20" t="n">
         <v>120</v>
       </c>
-      <c r="D36" s="16" t="n">
+      <c r="D36" s="20" t="n">
         <v>490</v>
       </c>
-      <c r="E36" s="16" t="n">
+      <c r="E36" s="20" t="n">
         <v>680</v>
       </c>
-      <c r="F36" s="16" t="n">
+      <c r="F36" s="20" t="n">
         <v>120</v>
       </c>
-      <c r="G36" s="16" t="n">
+      <c r="G36" s="20" t="n">
         <v>690</v>
       </c>
-      <c r="H36" s="16" t="n">
+      <c r="H36" s="20" t="n">
         <v>880</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="15" t="n">
+      <c r="B37" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C37" s="16" t="n">
+      <c r="C37" s="20" t="n">
         <v>150</v>
       </c>
-      <c r="D37" s="16" t="n">
+      <c r="D37" s="20" t="n">
         <v>590</v>
       </c>
-      <c r="E37" s="16" t="n">
+      <c r="E37" s="20" t="n">
         <v>880</v>
       </c>
-      <c r="F37" s="16" t="n">
+      <c r="F37" s="20" t="n">
         <v>150</v>
       </c>
-      <c r="G37" s="16" t="n">
+      <c r="G37" s="20" t="n">
         <v>890</v>
       </c>
-      <c r="H37" s="16" t="n">
+      <c r="H37" s="20" t="n">
         <v>1280</v>
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="15" t="n">
+      <c r="B38" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C38" s="16" t="n">
+      <c r="C38" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="D38" s="16" t="n">
+      <c r="D38" s="20" t="n">
         <v>690</v>
       </c>
-      <c r="E38" s="16" t="n">
+      <c r="E38" s="20" t="n">
         <v>1080</v>
       </c>
-      <c r="F38" s="16" t="n">
+      <c r="F38" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="G38" s="16" t="n">
+      <c r="G38" s="20" t="n">
         <v>1090</v>
       </c>
-      <c r="H38" s="16" t="n">
+      <c r="H38" s="20" t="n">
         <v>1680</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="15" t="n">
+      <c r="B39" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C39" s="16" t="n">
+      <c r="C39" s="20" t="n">
         <v>210</v>
       </c>
-      <c r="D39" s="16" t="n">
+      <c r="D39" s="20" t="n">
         <v>790</v>
       </c>
-      <c r="E39" s="16" t="n">
+      <c r="E39" s="20" t="n">
         <v>1280</v>
       </c>
-      <c r="F39" s="16" t="n">
+      <c r="F39" s="20" t="n">
         <v>210</v>
       </c>
-      <c r="G39" s="16" t="n">
+      <c r="G39" s="20" t="n">
         <v>1290</v>
       </c>
-      <c r="H39" s="16" t="n">
+      <c r="H39" s="20" t="n">
         <v>2080</v>
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="15" t="n">
+      <c r="B40" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="C40" s="16" t="n">
+      <c r="C40" s="20" t="n">
         <v>240</v>
       </c>
-      <c r="D40" s="16" t="n">
+      <c r="D40" s="20" t="n">
         <v>890</v>
       </c>
-      <c r="E40" s="16" t="n">
+      <c r="E40" s="20" t="n">
         <v>1480</v>
       </c>
-      <c r="F40" s="16" t="n">
+      <c r="F40" s="20" t="n">
         <v>240</v>
       </c>
-      <c r="G40" s="16" t="n">
+      <c r="G40" s="20" t="n">
         <v>1490</v>
       </c>
-      <c r="H40" s="16" t="n">
+      <c r="H40" s="20" t="n">
         <v>2480</v>
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="15" t="n">
+      <c r="B41" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="C41" s="16" t="n">
+      <c r="C41" s="20" t="n">
         <v>270</v>
       </c>
-      <c r="D41" s="16" t="n">
+      <c r="D41" s="20" t="n">
         <v>990</v>
       </c>
-      <c r="E41" s="16" t="n">
+      <c r="E41" s="20" t="n">
         <v>1680</v>
       </c>
-      <c r="F41" s="16" t="n">
+      <c r="F41" s="20" t="n">
         <v>270</v>
       </c>
-      <c r="G41" s="16" t="n">
+      <c r="G41" s="20" t="n">
         <v>1690</v>
       </c>
-      <c r="H41" s="16" t="n">
+      <c r="H41" s="20" t="n">
         <v>2880</v>
       </c>
     </row>
@@ -6811,117 +6965,117 @@
           <t>3 D/C</t>
         </is>
       </c>
-      <c r="B42" s="15" t="n">
+      <c r="B42" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C42" s="16" t="n">
+      <c r="C42" s="20" t="n">
         <v>110</v>
       </c>
-      <c r="D42" s="16" t="n">
+      <c r="D42" s="20" t="n">
         <v>470</v>
       </c>
-      <c r="E42" s="16" t="n">
+      <c r="E42" s="20" t="n">
         <v>640</v>
       </c>
-      <c r="F42" s="16" t="n">
+      <c r="F42" s="20" t="n">
         <v>110</v>
       </c>
-      <c r="G42" s="16" t="n">
+      <c r="G42" s="20" t="n">
         <v>670</v>
       </c>
-      <c r="H42" s="16" t="n">
+      <c r="H42" s="20" t="n">
         <v>840</v>
       </c>
     </row>
     <row r="43">
-      <c r="B43" s="15" t="n">
+      <c r="B43" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C43" s="16" t="n">
+      <c r="C43" s="20" t="n">
         <v>130</v>
       </c>
-      <c r="D43" s="16" t="n">
+      <c r="D43" s="20" t="n">
         <v>570</v>
       </c>
-      <c r="E43" s="16" t="n">
+      <c r="E43" s="20" t="n">
         <v>840</v>
       </c>
-      <c r="F43" s="16" t="n">
+      <c r="F43" s="20" t="n">
         <v>130</v>
       </c>
-      <c r="G43" s="16" t="n">
+      <c r="G43" s="20" t="n">
         <v>870</v>
       </c>
-      <c r="H43" s="16" t="n">
+      <c r="H43" s="20" t="n">
         <v>1240</v>
       </c>
     </row>
     <row r="44">
-      <c r="B44" s="15" t="n">
+      <c r="B44" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C44" s="16" t="n">
+      <c r="C44" s="20" t="n">
         <v>150</v>
       </c>
-      <c r="D44" s="16" t="n">
+      <c r="D44" s="20" t="n">
         <v>670</v>
       </c>
-      <c r="E44" s="16" t="n">
+      <c r="E44" s="20" t="n">
         <v>1040</v>
       </c>
-      <c r="F44" s="16" t="n">
+      <c r="F44" s="20" t="n">
         <v>150</v>
       </c>
-      <c r="G44" s="16" t="n">
+      <c r="G44" s="20" t="n">
         <v>1070</v>
       </c>
-      <c r="H44" s="16" t="n">
+      <c r="H44" s="20" t="n">
         <v>1640</v>
       </c>
     </row>
     <row r="45">
-      <c r="B45" s="15" t="n">
+      <c r="B45" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C45" s="16" t="n">
+      <c r="C45" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="D45" s="16" t="n">
+      <c r="D45" s="20" t="n">
         <v>770</v>
       </c>
-      <c r="E45" s="16" t="n">
+      <c r="E45" s="20" t="n">
         <v>1240</v>
       </c>
-      <c r="F45" s="16" t="n">
+      <c r="F45" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="G45" s="16" t="n">
+      <c r="G45" s="20" t="n">
         <v>1270</v>
       </c>
-      <c r="H45" s="16" t="n">
+      <c r="H45" s="20" t="n">
         <v>2040</v>
       </c>
     </row>
     <row r="46">
-      <c r="B46" s="15" t="n">
+      <c r="B46" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="C46" s="16" t="n">
+      <c r="C46" s="20" t="n">
         <v>190</v>
       </c>
-      <c r="D46" s="16" t="n">
+      <c r="D46" s="20" t="n">
         <v>870</v>
       </c>
-      <c r="E46" s="16" t="n">
+      <c r="E46" s="20" t="n">
         <v>1440</v>
       </c>
-      <c r="F46" s="16" t="n">
+      <c r="F46" s="20" t="n">
         <v>190</v>
       </c>
-      <c r="G46" s="16" t="n">
+      <c r="G46" s="20" t="n">
         <v>1470</v>
       </c>
-      <c r="H46" s="16" t="n">
+      <c r="H46" s="20" t="n">
         <v>2440</v>
       </c>
     </row>
@@ -6931,117 +7085,117 @@
           <t>3 H/S</t>
         </is>
       </c>
-      <c r="B47" s="15" t="n">
+      <c r="B47" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C47" s="16" t="n">
+      <c r="C47" s="20" t="n">
         <v>140</v>
       </c>
-      <c r="D47" s="16" t="n">
+      <c r="D47" s="20" t="n">
         <v>530</v>
       </c>
-      <c r="E47" s="16" t="n">
+      <c r="E47" s="20" t="n">
         <v>760</v>
       </c>
-      <c r="F47" s="16" t="n">
+      <c r="F47" s="20" t="n">
         <v>140</v>
       </c>
-      <c r="G47" s="16" t="n">
+      <c r="G47" s="20" t="n">
         <v>730</v>
       </c>
-      <c r="H47" s="16" t="n">
+      <c r="H47" s="20" t="n">
         <v>960</v>
       </c>
     </row>
     <row r="48">
-      <c r="B48" s="15" t="n">
+      <c r="B48" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C48" s="16" t="n">
+      <c r="C48" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="D48" s="16" t="n">
+      <c r="D48" s="20" t="n">
         <v>630</v>
       </c>
-      <c r="E48" s="16" t="n">
+      <c r="E48" s="20" t="n">
         <v>960</v>
       </c>
-      <c r="F48" s="16" t="n">
+      <c r="F48" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="G48" s="16" t="n">
+      <c r="G48" s="20" t="n">
         <v>930</v>
       </c>
-      <c r="H48" s="16" t="n">
+      <c r="H48" s="20" t="n">
         <v>1360</v>
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="15" t="n">
+      <c r="B49" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C49" s="16" t="n">
+      <c r="C49" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="D49" s="16" t="n">
+      <c r="D49" s="20" t="n">
         <v>730</v>
       </c>
-      <c r="E49" s="16" t="n">
+      <c r="E49" s="20" t="n">
         <v>1160</v>
       </c>
-      <c r="F49" s="16" t="n">
+      <c r="F49" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="G49" s="16" t="n">
+      <c r="G49" s="20" t="n">
         <v>1130</v>
       </c>
-      <c r="H49" s="16" t="n">
+      <c r="H49" s="20" t="n">
         <v>1760</v>
       </c>
     </row>
     <row r="50">
-      <c r="B50" s="15" t="n">
+      <c r="B50" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C50" s="16" t="n">
+      <c r="C50" s="20" t="n">
         <v>230</v>
       </c>
-      <c r="D50" s="16" t="n">
+      <c r="D50" s="20" t="n">
         <v>830</v>
       </c>
-      <c r="E50" s="16" t="n">
+      <c r="E50" s="20" t="n">
         <v>1360</v>
       </c>
-      <c r="F50" s="16" t="n">
+      <c r="F50" s="20" t="n">
         <v>230</v>
       </c>
-      <c r="G50" s="16" t="n">
+      <c r="G50" s="20" t="n">
         <v>1330</v>
       </c>
-      <c r="H50" s="16" t="n">
+      <c r="H50" s="20" t="n">
         <v>2160</v>
       </c>
     </row>
     <row r="51">
-      <c r="B51" s="15" t="n">
+      <c r="B51" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="C51" s="16" t="n">
+      <c r="C51" s="20" t="n">
         <v>260</v>
       </c>
-      <c r="D51" s="16" t="n">
+      <c r="D51" s="20" t="n">
         <v>930</v>
       </c>
-      <c r="E51" s="16" t="n">
+      <c r="E51" s="20" t="n">
         <v>1560</v>
       </c>
-      <c r="F51" s="16" t="n">
+      <c r="F51" s="20" t="n">
         <v>260</v>
       </c>
-      <c r="G51" s="16" t="n">
+      <c r="G51" s="20" t="n">
         <v>1530</v>
       </c>
-      <c r="H51" s="16" t="n">
+      <c r="H51" s="20" t="n">
         <v>2560</v>
       </c>
     </row>
@@ -7051,117 +7205,117 @@
           <t>3 NT</t>
         </is>
       </c>
-      <c r="B52" s="15" t="n">
+      <c r="B52" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C52" s="16" t="n">
+      <c r="C52" s="20" t="n">
         <v>400</v>
       </c>
-      <c r="D52" s="16" t="n">
+      <c r="D52" s="20" t="n">
         <v>550</v>
       </c>
-      <c r="E52" s="16" t="n">
+      <c r="E52" s="20" t="n">
         <v>800</v>
       </c>
-      <c r="F52" s="16" t="n">
+      <c r="F52" s="20" t="n">
         <v>600</v>
       </c>
-      <c r="G52" s="16" t="n">
+      <c r="G52" s="20" t="n">
         <v>750</v>
       </c>
-      <c r="H52" s="16" t="n">
+      <c r="H52" s="20" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="53">
-      <c r="B53" s="15" t="n">
+      <c r="B53" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C53" s="16" t="n">
+      <c r="C53" s="20" t="n">
         <v>430</v>
       </c>
-      <c r="D53" s="16" t="n">
+      <c r="D53" s="20" t="n">
         <v>650</v>
       </c>
-      <c r="E53" s="16" t="n">
+      <c r="E53" s="20" t="n">
         <v>1000</v>
       </c>
-      <c r="F53" s="16" t="n">
+      <c r="F53" s="20" t="n">
         <v>630</v>
       </c>
-      <c r="G53" s="16" t="n">
+      <c r="G53" s="20" t="n">
         <v>950</v>
       </c>
-      <c r="H53" s="16" t="n">
+      <c r="H53" s="20" t="n">
         <v>1400</v>
       </c>
     </row>
     <row r="54">
-      <c r="B54" s="15" t="n">
+      <c r="B54" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C54" s="16" t="n">
+      <c r="C54" s="20" t="n">
         <v>460</v>
       </c>
-      <c r="D54" s="16" t="n">
+      <c r="D54" s="20" t="n">
         <v>750</v>
       </c>
-      <c r="E54" s="16" t="n">
+      <c r="E54" s="20" t="n">
         <v>1200</v>
       </c>
-      <c r="F54" s="16" t="n">
+      <c r="F54" s="20" t="n">
         <v>660</v>
       </c>
-      <c r="G54" s="16" t="n">
+      <c r="G54" s="20" t="n">
         <v>1150</v>
       </c>
-      <c r="H54" s="16" t="n">
+      <c r="H54" s="20" t="n">
         <v>1800</v>
       </c>
     </row>
     <row r="55">
-      <c r="B55" s="15" t="n">
+      <c r="B55" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C55" s="16" t="n">
+      <c r="C55" s="20" t="n">
         <v>490</v>
       </c>
-      <c r="D55" s="16" t="n">
+      <c r="D55" s="20" t="n">
         <v>850</v>
       </c>
-      <c r="E55" s="16" t="n">
+      <c r="E55" s="20" t="n">
         <v>1400</v>
       </c>
-      <c r="F55" s="16" t="n">
+      <c r="F55" s="20" t="n">
         <v>690</v>
       </c>
-      <c r="G55" s="16" t="n">
+      <c r="G55" s="20" t="n">
         <v>1350</v>
       </c>
-      <c r="H55" s="16" t="n">
+      <c r="H55" s="20" t="n">
         <v>2200</v>
       </c>
     </row>
     <row r="56">
-      <c r="B56" s="15" t="n">
+      <c r="B56" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="C56" s="16" t="n">
+      <c r="C56" s="20" t="n">
         <v>520</v>
       </c>
-      <c r="D56" s="16" t="n">
+      <c r="D56" s="20" t="n">
         <v>950</v>
       </c>
-      <c r="E56" s="16" t="n">
+      <c r="E56" s="20" t="n">
         <v>1600</v>
       </c>
-      <c r="F56" s="16" t="n">
+      <c r="F56" s="20" t="n">
         <v>720</v>
       </c>
-      <c r="G56" s="16" t="n">
+      <c r="G56" s="20" t="n">
         <v>1550</v>
       </c>
-      <c r="H56" s="16" t="n">
+      <c r="H56" s="20" t="n">
         <v>2600</v>
       </c>
     </row>
@@ -7171,94 +7325,94 @@
           <t>4 D/C</t>
         </is>
       </c>
-      <c r="B57" s="15" t="n">
+      <c r="B57" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C57" s="16" t="n">
+      <c r="C57" s="20" t="n">
         <v>130</v>
       </c>
-      <c r="D57" s="16" t="n">
+      <c r="D57" s="20" t="n">
         <v>510</v>
       </c>
-      <c r="E57" s="16" t="n">
+      <c r="E57" s="20" t="n">
         <v>720</v>
       </c>
-      <c r="F57" s="16" t="n">
+      <c r="F57" s="20" t="n">
         <v>130</v>
       </c>
-      <c r="G57" s="16" t="n">
+      <c r="G57" s="20" t="n">
         <v>710</v>
       </c>
-      <c r="H57" s="16" t="n">
+      <c r="H57" s="20" t="n">
         <v>920</v>
       </c>
     </row>
     <row r="58">
-      <c r="B58" s="15" t="n">
+      <c r="B58" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C58" s="16" t="n">
+      <c r="C58" s="20" t="n">
         <v>150</v>
       </c>
-      <c r="D58" s="16" t="n">
+      <c r="D58" s="20" t="n">
         <v>610</v>
       </c>
-      <c r="E58" s="16" t="n">
+      <c r="E58" s="20" t="n">
         <v>920</v>
       </c>
-      <c r="F58" s="16" t="n">
+      <c r="F58" s="20" t="n">
         <v>150</v>
       </c>
-      <c r="G58" s="16" t="n">
+      <c r="G58" s="20" t="n">
         <v>910</v>
       </c>
-      <c r="H58" s="16" t="n">
+      <c r="H58" s="20" t="n">
         <v>1320</v>
       </c>
     </row>
     <row r="59">
-      <c r="B59" s="15" t="n">
+      <c r="B59" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C59" s="16" t="n">
+      <c r="C59" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="D59" s="16" t="n">
+      <c r="D59" s="20" t="n">
         <v>710</v>
       </c>
-      <c r="E59" s="16" t="n">
+      <c r="E59" s="20" t="n">
         <v>1120</v>
       </c>
-      <c r="F59" s="16" t="n">
+      <c r="F59" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="G59" s="16" t="n">
+      <c r="G59" s="20" t="n">
         <v>1110</v>
       </c>
-      <c r="H59" s="16" t="n">
+      <c r="H59" s="20" t="n">
         <v>1720</v>
       </c>
     </row>
     <row r="60">
-      <c r="B60" s="15" t="n">
+      <c r="B60" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C60" s="16" t="n">
+      <c r="C60" s="20" t="n">
         <v>190</v>
       </c>
-      <c r="D60" s="16" t="n">
+      <c r="D60" s="20" t="n">
         <v>810</v>
       </c>
-      <c r="E60" s="16" t="n">
+      <c r="E60" s="20" t="n">
         <v>1320</v>
       </c>
-      <c r="F60" s="16" t="n">
+      <c r="F60" s="20" t="n">
         <v>190</v>
       </c>
-      <c r="G60" s="16" t="n">
+      <c r="G60" s="20" t="n">
         <v>1310</v>
       </c>
-      <c r="H60" s="16" t="n">
+      <c r="H60" s="20" t="n">
         <v>2120</v>
       </c>
     </row>
@@ -7268,94 +7422,94 @@
           <t>4 H/S</t>
         </is>
       </c>
-      <c r="B61" s="15" t="n">
+      <c r="B61" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C61" s="16" t="n">
+      <c r="C61" s="20" t="n">
         <v>420</v>
       </c>
-      <c r="D61" s="16" t="n">
+      <c r="D61" s="20" t="n">
         <v>590</v>
       </c>
-      <c r="E61" s="16" t="n">
+      <c r="E61" s="20" t="n">
         <v>880</v>
       </c>
-      <c r="F61" s="16" t="n">
+      <c r="F61" s="20" t="n">
         <v>620</v>
       </c>
-      <c r="G61" s="16" t="n">
+      <c r="G61" s="20" t="n">
         <v>790</v>
       </c>
-      <c r="H61" s="16" t="n">
+      <c r="H61" s="20" t="n">
         <v>1080</v>
       </c>
     </row>
     <row r="62">
-      <c r="B62" s="15" t="n">
+      <c r="B62" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C62" s="16" t="n">
+      <c r="C62" s="20" t="n">
         <v>450</v>
       </c>
-      <c r="D62" s="16" t="n">
+      <c r="D62" s="20" t="n">
         <v>690</v>
       </c>
-      <c r="E62" s="16" t="n">
+      <c r="E62" s="20" t="n">
         <v>1080</v>
       </c>
-      <c r="F62" s="16" t="n">
+      <c r="F62" s="20" t="n">
         <v>650</v>
       </c>
-      <c r="G62" s="16" t="n">
+      <c r="G62" s="20" t="n">
         <v>990</v>
       </c>
-      <c r="H62" s="16" t="n">
+      <c r="H62" s="20" t="n">
         <v>1480</v>
       </c>
     </row>
     <row r="63">
-      <c r="B63" s="15" t="n">
+      <c r="B63" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C63" s="16" t="n">
+      <c r="C63" s="20" t="n">
         <v>480</v>
       </c>
-      <c r="D63" s="16" t="n">
+      <c r="D63" s="20" t="n">
         <v>790</v>
       </c>
-      <c r="E63" s="16" t="n">
+      <c r="E63" s="20" t="n">
         <v>1280</v>
       </c>
-      <c r="F63" s="16" t="n">
+      <c r="F63" s="20" t="n">
         <v>680</v>
       </c>
-      <c r="G63" s="16" t="n">
+      <c r="G63" s="20" t="n">
         <v>1190</v>
       </c>
-      <c r="H63" s="16" t="n">
+      <c r="H63" s="20" t="n">
         <v>1880</v>
       </c>
     </row>
     <row r="64">
-      <c r="B64" s="15" t="n">
+      <c r="B64" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C64" s="16" t="n">
+      <c r="C64" s="20" t="n">
         <v>510</v>
       </c>
-      <c r="D64" s="16" t="n">
+      <c r="D64" s="20" t="n">
         <v>890</v>
       </c>
-      <c r="E64" s="16" t="n">
+      <c r="E64" s="20" t="n">
         <v>1480</v>
       </c>
-      <c r="F64" s="16" t="n">
+      <c r="F64" s="20" t="n">
         <v>710</v>
       </c>
-      <c r="G64" s="16" t="n">
+      <c r="G64" s="20" t="n">
         <v>1390</v>
       </c>
-      <c r="H64" s="16" t="n">
+      <c r="H64" s="20" t="n">
         <v>2280</v>
       </c>
     </row>
@@ -7365,94 +7519,94 @@
           <t>4 NT</t>
         </is>
       </c>
-      <c r="B65" s="15" t="n">
+      <c r="B65" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C65" s="16" t="n">
+      <c r="C65" s="20" t="n">
         <v>430</v>
       </c>
-      <c r="D65" s="16" t="n">
+      <c r="D65" s="20" t="n">
         <v>610</v>
       </c>
-      <c r="E65" s="16" t="n">
+      <c r="E65" s="20" t="n">
         <v>920</v>
       </c>
-      <c r="F65" s="16" t="n">
+      <c r="F65" s="20" t="n">
         <v>630</v>
       </c>
-      <c r="G65" s="16" t="n">
+      <c r="G65" s="20" t="n">
         <v>810</v>
       </c>
-      <c r="H65" s="16" t="n">
+      <c r="H65" s="20" t="n">
         <v>1120</v>
       </c>
     </row>
     <row r="66">
-      <c r="B66" s="15" t="n">
+      <c r="B66" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C66" s="16" t="n">
+      <c r="C66" s="20" t="n">
         <v>460</v>
       </c>
-      <c r="D66" s="16" t="n">
+      <c r="D66" s="20" t="n">
         <v>710</v>
       </c>
-      <c r="E66" s="16" t="n">
+      <c r="E66" s="20" t="n">
         <v>1120</v>
       </c>
-      <c r="F66" s="16" t="n">
+      <c r="F66" s="20" t="n">
         <v>660</v>
       </c>
-      <c r="G66" s="16" t="n">
+      <c r="G66" s="20" t="n">
         <v>1010</v>
       </c>
-      <c r="H66" s="16" t="n">
+      <c r="H66" s="20" t="n">
         <v>1520</v>
       </c>
     </row>
     <row r="67">
-      <c r="B67" s="15" t="n">
+      <c r="B67" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C67" s="16" t="n">
+      <c r="C67" s="20" t="n">
         <v>490</v>
       </c>
-      <c r="D67" s="16" t="n">
+      <c r="D67" s="20" t="n">
         <v>810</v>
       </c>
-      <c r="E67" s="16" t="n">
+      <c r="E67" s="20" t="n">
         <v>1320</v>
       </c>
-      <c r="F67" s="16" t="n">
+      <c r="F67" s="20" t="n">
         <v>690</v>
       </c>
-      <c r="G67" s="16" t="n">
+      <c r="G67" s="20" t="n">
         <v>1210</v>
       </c>
-      <c r="H67" s="16" t="n">
+      <c r="H67" s="20" t="n">
         <v>1920</v>
       </c>
     </row>
     <row r="68">
-      <c r="B68" s="15" t="n">
+      <c r="B68" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C68" s="16" t="n">
+      <c r="C68" s="20" t="n">
         <v>520</v>
       </c>
-      <c r="D68" s="16" t="n">
+      <c r="D68" s="20" t="n">
         <v>910</v>
       </c>
-      <c r="E68" s="16" t="n">
+      <c r="E68" s="20" t="n">
         <v>1520</v>
       </c>
-      <c r="F68" s="16" t="n">
+      <c r="F68" s="20" t="n">
         <v>720</v>
       </c>
-      <c r="G68" s="16" t="n">
+      <c r="G68" s="20" t="n">
         <v>1410</v>
       </c>
-      <c r="H68" s="16" t="n">
+      <c r="H68" s="20" t="n">
         <v>2320</v>
       </c>
     </row>
@@ -7462,71 +7616,71 @@
           <t>5 D/C</t>
         </is>
       </c>
-      <c r="B69" s="15" t="n">
+      <c r="B69" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C69" s="16" t="n">
+      <c r="C69" s="20" t="n">
         <v>400</v>
       </c>
-      <c r="D69" s="16" t="n">
+      <c r="D69" s="20" t="n">
         <v>550</v>
       </c>
-      <c r="E69" s="16" t="n">
+      <c r="E69" s="20" t="n">
         <v>800</v>
       </c>
-      <c r="F69" s="16" t="n">
+      <c r="F69" s="20" t="n">
         <v>600</v>
       </c>
-      <c r="G69" s="16" t="n">
+      <c r="G69" s="20" t="n">
         <v>750</v>
       </c>
-      <c r="H69" s="16" t="n">
+      <c r="H69" s="20" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="70">
-      <c r="B70" s="15" t="n">
+      <c r="B70" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C70" s="16" t="n">
+      <c r="C70" s="20" t="n">
         <v>420</v>
       </c>
-      <c r="D70" s="16" t="n">
+      <c r="D70" s="20" t="n">
         <v>650</v>
       </c>
-      <c r="E70" s="16" t="n">
+      <c r="E70" s="20" t="n">
         <v>1000</v>
       </c>
-      <c r="F70" s="16" t="n">
+      <c r="F70" s="20" t="n">
         <v>620</v>
       </c>
-      <c r="G70" s="16" t="n">
+      <c r="G70" s="20" t="n">
         <v>950</v>
       </c>
-      <c r="H70" s="16" t="n">
+      <c r="H70" s="20" t="n">
         <v>1400</v>
       </c>
     </row>
     <row r="71">
-      <c r="B71" s="15" t="n">
+      <c r="B71" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C71" s="16" t="n">
+      <c r="C71" s="20" t="n">
         <v>440</v>
       </c>
-      <c r="D71" s="16" t="n">
+      <c r="D71" s="20" t="n">
         <v>750</v>
       </c>
-      <c r="E71" s="16" t="n">
+      <c r="E71" s="20" t="n">
         <v>1200</v>
       </c>
-      <c r="F71" s="16" t="n">
+      <c r="F71" s="20" t="n">
         <v>640</v>
       </c>
-      <c r="G71" s="16" t="n">
+      <c r="G71" s="20" t="n">
         <v>1150</v>
       </c>
-      <c r="H71" s="16" t="n">
+      <c r="H71" s="20" t="n">
         <v>1800</v>
       </c>
     </row>
@@ -7536,71 +7690,71 @@
           <t>5 H/S</t>
         </is>
       </c>
-      <c r="B72" s="15" t="n">
+      <c r="B72" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C72" s="16" t="n">
+      <c r="C72" s="20" t="n">
         <v>450</v>
       </c>
-      <c r="D72" s="16" t="n">
+      <c r="D72" s="20" t="n">
         <v>650</v>
       </c>
-      <c r="E72" s="16" t="n">
+      <c r="E72" s="20" t="n">
         <v>1000</v>
       </c>
-      <c r="F72" s="16" t="n">
+      <c r="F72" s="20" t="n">
         <v>650</v>
       </c>
-      <c r="G72" s="16" t="n">
+      <c r="G72" s="20" t="n">
         <v>850</v>
       </c>
-      <c r="H72" s="16" t="n">
+      <c r="H72" s="20" t="n">
         <v>1200</v>
       </c>
     </row>
     <row r="73">
-      <c r="B73" s="15" t="n">
+      <c r="B73" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C73" s="16" t="n">
+      <c r="C73" s="20" t="n">
         <v>480</v>
       </c>
-      <c r="D73" s="16" t="n">
+      <c r="D73" s="20" t="n">
         <v>750</v>
       </c>
-      <c r="E73" s="16" t="n">
+      <c r="E73" s="20" t="n">
         <v>1200</v>
       </c>
-      <c r="F73" s="16" t="n">
+      <c r="F73" s="20" t="n">
         <v>680</v>
       </c>
-      <c r="G73" s="16" t="n">
+      <c r="G73" s="20" t="n">
         <v>1050</v>
       </c>
-      <c r="H73" s="16" t="n">
+      <c r="H73" s="20" t="n">
         <v>1600</v>
       </c>
     </row>
     <row r="74">
-      <c r="B74" s="15" t="n">
+      <c r="B74" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C74" s="16" t="n">
+      <c r="C74" s="20" t="n">
         <v>510</v>
       </c>
-      <c r="D74" s="16" t="n">
+      <c r="D74" s="20" t="n">
         <v>850</v>
       </c>
-      <c r="E74" s="16" t="n">
+      <c r="E74" s="20" t="n">
         <v>1400</v>
       </c>
-      <c r="F74" s="16" t="n">
+      <c r="F74" s="20" t="n">
         <v>710</v>
       </c>
-      <c r="G74" s="16" t="n">
+      <c r="G74" s="20" t="n">
         <v>1250</v>
       </c>
-      <c r="H74" s="16" t="n">
+      <c r="H74" s="20" t="n">
         <v>2000</v>
       </c>
     </row>
@@ -7610,71 +7764,71 @@
           <t>5 NT</t>
         </is>
       </c>
-      <c r="B75" s="15" t="n">
+      <c r="B75" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C75" s="16" t="n">
+      <c r="C75" s="20" t="n">
         <v>460</v>
       </c>
-      <c r="D75" s="16" t="n">
+      <c r="D75" s="20" t="n">
         <v>670</v>
       </c>
-      <c r="E75" s="16" t="n">
+      <c r="E75" s="20" t="n">
         <v>1040</v>
       </c>
-      <c r="F75" s="16" t="n">
+      <c r="F75" s="20" t="n">
         <v>660</v>
       </c>
-      <c r="G75" s="16" t="n">
+      <c r="G75" s="20" t="n">
         <v>870</v>
       </c>
-      <c r="H75" s="16" t="n">
+      <c r="H75" s="20" t="n">
         <v>1240</v>
       </c>
     </row>
     <row r="76">
-      <c r="B76" s="15" t="n">
+      <c r="B76" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C76" s="16" t="n">
+      <c r="C76" s="20" t="n">
         <v>490</v>
       </c>
-      <c r="D76" s="16" t="n">
+      <c r="D76" s="20" t="n">
         <v>770</v>
       </c>
-      <c r="E76" s="16" t="n">
+      <c r="E76" s="20" t="n">
         <v>1240</v>
       </c>
-      <c r="F76" s="16" t="n">
+      <c r="F76" s="20" t="n">
         <v>690</v>
       </c>
-      <c r="G76" s="16" t="n">
+      <c r="G76" s="20" t="n">
         <v>1070</v>
       </c>
-      <c r="H76" s="16" t="n">
+      <c r="H76" s="20" t="n">
         <v>1640</v>
       </c>
     </row>
     <row r="77">
-      <c r="B77" s="15" t="n">
+      <c r="B77" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C77" s="16" t="n">
+      <c r="C77" s="20" t="n">
         <v>520</v>
       </c>
-      <c r="D77" s="16" t="n">
+      <c r="D77" s="20" t="n">
         <v>870</v>
       </c>
-      <c r="E77" s="16" t="n">
+      <c r="E77" s="20" t="n">
         <v>1440</v>
       </c>
-      <c r="F77" s="16" t="n">
+      <c r="F77" s="20" t="n">
         <v>720</v>
       </c>
-      <c r="G77" s="16" t="n">
+      <c r="G77" s="20" t="n">
         <v>1270</v>
       </c>
-      <c r="H77" s="16" t="n">
+      <c r="H77" s="20" t="n">
         <v>2040</v>
       </c>
     </row>
@@ -7684,48 +7838,48 @@
           <t>6 D/C</t>
         </is>
       </c>
-      <c r="B78" s="15" t="n">
+      <c r="B78" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C78" s="16" t="n">
+      <c r="C78" s="20" t="n">
         <v>920</v>
       </c>
-      <c r="D78" s="16" t="n">
+      <c r="D78" s="20" t="n">
         <v>1090</v>
       </c>
-      <c r="E78" s="16" t="n">
+      <c r="E78" s="20" t="n">
         <v>1380</v>
       </c>
-      <c r="F78" s="16" t="n">
+      <c r="F78" s="20" t="n">
         <v>1370</v>
       </c>
-      <c r="G78" s="16" t="n">
+      <c r="G78" s="20" t="n">
         <v>1540</v>
       </c>
-      <c r="H78" s="16" t="n">
+      <c r="H78" s="20" t="n">
         <v>1830</v>
       </c>
     </row>
     <row r="79">
-      <c r="B79" s="15" t="n">
+      <c r="B79" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C79" s="16" t="n">
+      <c r="C79" s="20" t="n">
         <v>940</v>
       </c>
-      <c r="D79" s="16" t="n">
+      <c r="D79" s="20" t="n">
         <v>1190</v>
       </c>
-      <c r="E79" s="16" t="n">
+      <c r="E79" s="20" t="n">
         <v>1580</v>
       </c>
-      <c r="F79" s="16" t="n">
+      <c r="F79" s="20" t="n">
         <v>1390</v>
       </c>
-      <c r="G79" s="16" t="n">
+      <c r="G79" s="20" t="n">
         <v>1740</v>
       </c>
-      <c r="H79" s="16" t="n">
+      <c r="H79" s="20" t="n">
         <v>2230</v>
       </c>
     </row>
@@ -7735,48 +7889,48 @@
           <t>6 H/S</t>
         </is>
       </c>
-      <c r="B80" s="15" t="n">
+      <c r="B80" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C80" s="16" t="n">
+      <c r="C80" s="20" t="n">
         <v>980</v>
       </c>
-      <c r="D80" s="16" t="n">
+      <c r="D80" s="20" t="n">
         <v>1210</v>
       </c>
-      <c r="E80" s="16" t="n">
+      <c r="E80" s="20" t="n">
         <v>1620</v>
       </c>
-      <c r="F80" s="16" t="n">
+      <c r="F80" s="20" t="n">
         <v>1430</v>
       </c>
-      <c r="G80" s="16" t="n">
+      <c r="G80" s="20" t="n">
         <v>1660</v>
       </c>
-      <c r="H80" s="16" t="n">
+      <c r="H80" s="20" t="n">
         <v>2070</v>
       </c>
     </row>
     <row r="81">
-      <c r="B81" s="15" t="n">
+      <c r="B81" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C81" s="16" t="n">
+      <c r="C81" s="20" t="n">
         <v>1010</v>
       </c>
-      <c r="D81" s="16" t="n">
+      <c r="D81" s="20" t="n">
         <v>1310</v>
       </c>
-      <c r="E81" s="16" t="n">
+      <c r="E81" s="20" t="n">
         <v>1820</v>
       </c>
-      <c r="F81" s="16" t="n">
+      <c r="F81" s="20" t="n">
         <v>1460</v>
       </c>
-      <c r="G81" s="16" t="n">
+      <c r="G81" s="20" t="n">
         <v>1860</v>
       </c>
-      <c r="H81" s="16" t="n">
+      <c r="H81" s="20" t="n">
         <v>2470</v>
       </c>
     </row>
@@ -7786,48 +7940,48 @@
           <t>6 NT</t>
         </is>
       </c>
-      <c r="B82" s="15" t="n">
+      <c r="B82" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C82" s="16" t="n">
+      <c r="C82" s="20" t="n">
         <v>990</v>
       </c>
-      <c r="D82" s="16" t="n">
+      <c r="D82" s="20" t="n">
         <v>1230</v>
       </c>
-      <c r="E82" s="16" t="n">
+      <c r="E82" s="20" t="n">
         <v>1660</v>
       </c>
-      <c r="F82" s="16" t="n">
+      <c r="F82" s="20" t="n">
         <v>1440</v>
       </c>
-      <c r="G82" s="16" t="n">
+      <c r="G82" s="20" t="n">
         <v>1680</v>
       </c>
-      <c r="H82" s="16" t="n">
+      <c r="H82" s="20" t="n">
         <v>2110</v>
       </c>
     </row>
     <row r="83">
-      <c r="B83" s="15" t="n">
+      <c r="B83" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C83" s="16" t="n">
+      <c r="C83" s="20" t="n">
         <v>1020</v>
       </c>
-      <c r="D83" s="16" t="n">
+      <c r="D83" s="20" t="n">
         <v>1330</v>
       </c>
-      <c r="E83" s="16" t="n">
+      <c r="E83" s="20" t="n">
         <v>1860</v>
       </c>
-      <c r="F83" s="16" t="n">
+      <c r="F83" s="20" t="n">
         <v>1470</v>
       </c>
-      <c r="G83" s="16" t="n">
+      <c r="G83" s="20" t="n">
         <v>1880</v>
       </c>
-      <c r="H83" s="16" t="n">
+      <c r="H83" s="20" t="n">
         <v>2510</v>
       </c>
     </row>
@@ -7837,25 +7991,25 @@
           <t>7 D/C</t>
         </is>
       </c>
-      <c r="B84" s="15" t="n">
+      <c r="B84" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C84" s="16" t="n">
+      <c r="C84" s="20" t="n">
         <v>1440</v>
       </c>
-      <c r="D84" s="16" t="n">
+      <c r="D84" s="20" t="n">
         <v>1630</v>
       </c>
-      <c r="E84" s="16" t="n">
+      <c r="E84" s="20" t="n">
         <v>1960</v>
       </c>
-      <c r="F84" s="16" t="n">
+      <c r="F84" s="20" t="n">
         <v>2140</v>
       </c>
-      <c r="G84" s="16" t="n">
+      <c r="G84" s="20" t="n">
         <v>2330</v>
       </c>
-      <c r="H84" s="16" t="n">
+      <c r="H84" s="20" t="n">
         <v>2660</v>
       </c>
     </row>
@@ -7865,25 +8019,25 @@
           <t>7 H/S</t>
         </is>
       </c>
-      <c r="B85" s="15" t="n">
+      <c r="B85" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C85" s="16" t="n">
+      <c r="C85" s="20" t="n">
         <v>1510</v>
       </c>
-      <c r="D85" s="16" t="n">
+      <c r="D85" s="20" t="n">
         <v>1770</v>
       </c>
-      <c r="E85" s="16" t="n">
+      <c r="E85" s="20" t="n">
         <v>2240</v>
       </c>
-      <c r="F85" s="16" t="n">
+      <c r="F85" s="20" t="n">
         <v>2210</v>
       </c>
-      <c r="G85" s="16" t="n">
+      <c r="G85" s="20" t="n">
         <v>2470</v>
       </c>
-      <c r="H85" s="16" t="n">
+      <c r="H85" s="20" t="n">
         <v>2940</v>
       </c>
     </row>
@@ -7893,25 +8047,25 @@
           <t>7 NT</t>
         </is>
       </c>
-      <c r="B86" s="15" t="n">
+      <c r="B86" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C86" s="16" t="n">
+      <c r="C86" s="20" t="n">
         <v>1520</v>
       </c>
-      <c r="D86" s="16" t="n">
+      <c r="D86" s="20" t="n">
         <v>1790</v>
       </c>
-      <c r="E86" s="16" t="n">
+      <c r="E86" s="20" t="n">
         <v>2280</v>
       </c>
-      <c r="F86" s="16" t="n">
+      <c r="F86" s="20" t="n">
         <v>2220</v>
       </c>
-      <c r="G86" s="16" t="n">
+      <c r="G86" s="20" t="n">
         <v>2490</v>
       </c>
-      <c r="H86" s="16" t="n">
+      <c r="H86" s="20" t="n">
         <v>2980</v>
       </c>
     </row>

--- a/howell6.xlsx
+++ b/howell6.xlsx
@@ -536,7 +536,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Jan 14, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Jan 18, 2026.</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PH68</t>
+          <t>PH85</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PH31</t>
+          <t>PH80</t>
         </is>
       </c>
       <c r="D2" s="4">
@@ -730,12 +730,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PH19</t>
+          <t>PH52</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PH90</t>
+          <t>PH29</t>
         </is>
       </c>
       <c r="D3" s="4">
@@ -749,12 +749,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PH43</t>
+          <t>PH24</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PH53</t>
+          <t>PH21</t>
         </is>
       </c>
       <c r="D4" s="4">
@@ -768,12 +768,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PH38</t>
+          <t>PH27</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PH18</t>
+          <t>PH68</t>
         </is>
       </c>
       <c r="D5" s="4">
@@ -787,12 +787,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PH15</t>
+          <t>PH48</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PH57</t>
+          <t>PH70</t>
         </is>
       </c>
       <c r="D6" s="4">
@@ -806,12 +806,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PH90</t>
+          <t>PH25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PH31</t>
+          <t>PH85</t>
         </is>
       </c>
       <c r="D7" s="4">
@@ -1210,23 +1210,23 @@
         </is>
       </c>
       <c r="G6">
-        <f>'By Round'!G3</f>
+        <f>'By Round'!G2</f>
         <v/>
       </c>
       <c r="H6">
-        <f>'By Round'!H3</f>
+        <f>'By Round'!H2</f>
         <v/>
       </c>
       <c r="I6">
-        <f>'By Round'!I3</f>
+        <f>'By Round'!I2</f>
         <v/>
       </c>
       <c r="J6">
-        <f>'By Round'!J3</f>
+        <f>'By Round'!J2</f>
         <v/>
       </c>
       <c r="K6">
-        <f>'By Round'!K3</f>
+        <f>'By Round'!K2</f>
         <v/>
       </c>
       <c r="L6" s="11">
@@ -1285,23 +1285,23 @@
         </is>
       </c>
       <c r="G7">
-        <f>'By Round'!G27</f>
+        <f>'By Round'!G26</f>
         <v/>
       </c>
       <c r="H7">
-        <f>'By Round'!H27</f>
+        <f>'By Round'!H26</f>
         <v/>
       </c>
       <c r="I7">
-        <f>'By Round'!I27</f>
+        <f>'By Round'!I26</f>
         <v/>
       </c>
       <c r="J7">
-        <f>'By Round'!J27</f>
+        <f>'By Round'!J26</f>
         <v/>
       </c>
       <c r="K7">
-        <f>'By Round'!K27</f>
+        <f>'By Round'!K26</f>
         <v/>
       </c>
       <c r="L7" s="11">
@@ -1360,23 +1360,23 @@
         </is>
       </c>
       <c r="G8">
-        <f>'By Round'!G36</f>
+        <f>'By Round'!G35</f>
         <v/>
       </c>
       <c r="H8">
-        <f>'By Round'!H36</f>
+        <f>'By Round'!H35</f>
         <v/>
       </c>
       <c r="I8">
-        <f>'By Round'!I36</f>
+        <f>'By Round'!I35</f>
         <v/>
       </c>
       <c r="J8">
-        <f>'By Round'!J36</f>
+        <f>'By Round'!J35</f>
         <v/>
       </c>
       <c r="K8">
-        <f>'By Round'!K36</f>
+        <f>'By Round'!K35</f>
         <v/>
       </c>
       <c r="L8" s="11">
@@ -1438,23 +1438,23 @@
         </is>
       </c>
       <c r="G9">
-        <f>'By Round'!G4</f>
+        <f>'By Round'!G2</f>
         <v/>
       </c>
       <c r="H9">
-        <f>'By Round'!H4</f>
+        <f>'By Round'!H2</f>
         <v/>
       </c>
       <c r="I9">
-        <f>'By Round'!I4</f>
+        <f>'By Round'!I2</f>
         <v/>
       </c>
       <c r="J9">
-        <f>'By Round'!J4</f>
+        <f>'By Round'!J2</f>
         <v/>
       </c>
       <c r="K9">
-        <f>'By Round'!K4</f>
+        <f>'By Round'!K2</f>
         <v/>
       </c>
       <c r="L9" s="11">
@@ -1513,23 +1513,23 @@
         </is>
       </c>
       <c r="G10">
-        <f>'By Round'!G28</f>
+        <f>'By Round'!G26</f>
         <v/>
       </c>
       <c r="H10">
-        <f>'By Round'!H28</f>
+        <f>'By Round'!H26</f>
         <v/>
       </c>
       <c r="I10">
-        <f>'By Round'!I28</f>
+        <f>'By Round'!I26</f>
         <v/>
       </c>
       <c r="J10">
-        <f>'By Round'!J28</f>
+        <f>'By Round'!J26</f>
         <v/>
       </c>
       <c r="K10">
-        <f>'By Round'!K28</f>
+        <f>'By Round'!K26</f>
         <v/>
       </c>
       <c r="L10" s="11">
@@ -1588,23 +1588,23 @@
         </is>
       </c>
       <c r="G11">
-        <f>'By Round'!G37</f>
+        <f>'By Round'!G35</f>
         <v/>
       </c>
       <c r="H11">
-        <f>'By Round'!H37</f>
+        <f>'By Round'!H35</f>
         <v/>
       </c>
       <c r="I11">
-        <f>'By Round'!I37</f>
+        <f>'By Round'!I35</f>
         <v/>
       </c>
       <c r="J11">
-        <f>'By Round'!J37</f>
+        <f>'By Round'!J35</f>
         <v/>
       </c>
       <c r="K11">
-        <f>'By Round'!K37</f>
+        <f>'By Round'!K35</f>
         <v/>
       </c>
       <c r="L11" s="11">
@@ -1894,23 +1894,23 @@
         </is>
       </c>
       <c r="G15">
-        <f>'By Round'!G6</f>
+        <f>'By Round'!G5</f>
         <v/>
       </c>
       <c r="H15">
-        <f>'By Round'!H6</f>
+        <f>'By Round'!H5</f>
         <v/>
       </c>
       <c r="I15">
-        <f>'By Round'!I6</f>
+        <f>'By Round'!I5</f>
         <v/>
       </c>
       <c r="J15">
-        <f>'By Round'!J6</f>
+        <f>'By Round'!J5</f>
         <v/>
       </c>
       <c r="K15">
-        <f>'By Round'!K6</f>
+        <f>'By Round'!K5</f>
         <v/>
       </c>
       <c r="L15" s="11">
@@ -1969,23 +1969,23 @@
         </is>
       </c>
       <c r="G16">
-        <f>'By Round'!G12</f>
+        <f>'By Round'!G11</f>
         <v/>
       </c>
       <c r="H16">
-        <f>'By Round'!H12</f>
+        <f>'By Round'!H11</f>
         <v/>
       </c>
       <c r="I16">
-        <f>'By Round'!I12</f>
+        <f>'By Round'!I11</f>
         <v/>
       </c>
       <c r="J16">
-        <f>'By Round'!J12</f>
+        <f>'By Round'!J11</f>
         <v/>
       </c>
       <c r="K16">
-        <f>'By Round'!K12</f>
+        <f>'By Round'!K11</f>
         <v/>
       </c>
       <c r="L16" s="11">
@@ -2044,23 +2044,23 @@
         </is>
       </c>
       <c r="G17">
-        <f>'By Round'!G24</f>
+        <f>'By Round'!G23</f>
         <v/>
       </c>
       <c r="H17">
-        <f>'By Round'!H24</f>
+        <f>'By Round'!H23</f>
         <v/>
       </c>
       <c r="I17">
-        <f>'By Round'!I24</f>
+        <f>'By Round'!I23</f>
         <v/>
       </c>
       <c r="J17">
-        <f>'By Round'!J24</f>
+        <f>'By Round'!J23</f>
         <v/>
       </c>
       <c r="K17">
-        <f>'By Round'!K24</f>
+        <f>'By Round'!K23</f>
         <v/>
       </c>
       <c r="L17" s="11">
@@ -2122,23 +2122,23 @@
         </is>
       </c>
       <c r="G18">
-        <f>'By Round'!G7</f>
+        <f>'By Round'!G5</f>
         <v/>
       </c>
       <c r="H18">
-        <f>'By Round'!H7</f>
+        <f>'By Round'!H5</f>
         <v/>
       </c>
       <c r="I18">
-        <f>'By Round'!I7</f>
+        <f>'By Round'!I5</f>
         <v/>
       </c>
       <c r="J18">
-        <f>'By Round'!J7</f>
+        <f>'By Round'!J5</f>
         <v/>
       </c>
       <c r="K18">
-        <f>'By Round'!K7</f>
+        <f>'By Round'!K5</f>
         <v/>
       </c>
       <c r="L18" s="11">
@@ -2197,23 +2197,23 @@
         </is>
       </c>
       <c r="G19">
-        <f>'By Round'!G13</f>
+        <f>'By Round'!G11</f>
         <v/>
       </c>
       <c r="H19">
-        <f>'By Round'!H13</f>
+        <f>'By Round'!H11</f>
         <v/>
       </c>
       <c r="I19">
-        <f>'By Round'!I13</f>
+        <f>'By Round'!I11</f>
         <v/>
       </c>
       <c r="J19">
-        <f>'By Round'!J13</f>
+        <f>'By Round'!J11</f>
         <v/>
       </c>
       <c r="K19">
-        <f>'By Round'!K13</f>
+        <f>'By Round'!K11</f>
         <v/>
       </c>
       <c r="L19" s="11">
@@ -2272,23 +2272,23 @@
         </is>
       </c>
       <c r="G20">
-        <f>'By Round'!G25</f>
+        <f>'By Round'!G23</f>
         <v/>
       </c>
       <c r="H20">
-        <f>'By Round'!H25</f>
+        <f>'By Round'!H23</f>
         <v/>
       </c>
       <c r="I20">
-        <f>'By Round'!I25</f>
+        <f>'By Round'!I23</f>
         <v/>
       </c>
       <c r="J20">
-        <f>'By Round'!J25</f>
+        <f>'By Round'!J23</f>
         <v/>
       </c>
       <c r="K20">
-        <f>'By Round'!K25</f>
+        <f>'By Round'!K23</f>
         <v/>
       </c>
       <c r="L20" s="11">
@@ -2578,23 +2578,23 @@
         </is>
       </c>
       <c r="G24">
-        <f>'By Round'!G15</f>
+        <f>'By Round'!G14</f>
         <v/>
       </c>
       <c r="H24">
-        <f>'By Round'!H15</f>
+        <f>'By Round'!H14</f>
         <v/>
       </c>
       <c r="I24">
-        <f>'By Round'!I15</f>
+        <f>'By Round'!I14</f>
         <v/>
       </c>
       <c r="J24">
-        <f>'By Round'!J15</f>
+        <f>'By Round'!J14</f>
         <v/>
       </c>
       <c r="K24">
-        <f>'By Round'!K15</f>
+        <f>'By Round'!K14</f>
         <v/>
       </c>
       <c r="L24" s="11">
@@ -2653,23 +2653,23 @@
         </is>
       </c>
       <c r="G25">
-        <f>'By Round'!G21</f>
+        <f>'By Round'!G20</f>
         <v/>
       </c>
       <c r="H25">
-        <f>'By Round'!H21</f>
+        <f>'By Round'!H20</f>
         <v/>
       </c>
       <c r="I25">
-        <f>'By Round'!I21</f>
+        <f>'By Round'!I20</f>
         <v/>
       </c>
       <c r="J25">
-        <f>'By Round'!J21</f>
+        <f>'By Round'!J20</f>
         <v/>
       </c>
       <c r="K25">
-        <f>'By Round'!K21</f>
+        <f>'By Round'!K20</f>
         <v/>
       </c>
       <c r="L25" s="11">
@@ -2728,23 +2728,23 @@
         </is>
       </c>
       <c r="G26">
-        <f>'By Round'!G33</f>
+        <f>'By Round'!G32</f>
         <v/>
       </c>
       <c r="H26">
-        <f>'By Round'!H33</f>
+        <f>'By Round'!H32</f>
         <v/>
       </c>
       <c r="I26">
-        <f>'By Round'!I33</f>
+        <f>'By Round'!I32</f>
         <v/>
       </c>
       <c r="J26">
-        <f>'By Round'!J33</f>
+        <f>'By Round'!J32</f>
         <v/>
       </c>
       <c r="K26">
-        <f>'By Round'!K33</f>
+        <f>'By Round'!K32</f>
         <v/>
       </c>
       <c r="L26" s="11">
@@ -2806,23 +2806,23 @@
         </is>
       </c>
       <c r="G27">
-        <f>'By Round'!G16</f>
+        <f>'By Round'!G14</f>
         <v/>
       </c>
       <c r="H27">
-        <f>'By Round'!H16</f>
+        <f>'By Round'!H14</f>
         <v/>
       </c>
       <c r="I27">
-        <f>'By Round'!I16</f>
+        <f>'By Round'!I14</f>
         <v/>
       </c>
       <c r="J27">
-        <f>'By Round'!J16</f>
+        <f>'By Round'!J14</f>
         <v/>
       </c>
       <c r="K27">
-        <f>'By Round'!K16</f>
+        <f>'By Round'!K14</f>
         <v/>
       </c>
       <c r="L27" s="11">
@@ -2881,23 +2881,23 @@
         </is>
       </c>
       <c r="G28">
-        <f>'By Round'!G22</f>
+        <f>'By Round'!G20</f>
         <v/>
       </c>
       <c r="H28">
-        <f>'By Round'!H22</f>
+        <f>'By Round'!H20</f>
         <v/>
       </c>
       <c r="I28">
-        <f>'By Round'!I22</f>
+        <f>'By Round'!I20</f>
         <v/>
       </c>
       <c r="J28">
-        <f>'By Round'!J22</f>
+        <f>'By Round'!J20</f>
         <v/>
       </c>
       <c r="K28">
-        <f>'By Round'!K22</f>
+        <f>'By Round'!K20</f>
         <v/>
       </c>
       <c r="L28" s="11">
@@ -2956,23 +2956,23 @@
         </is>
       </c>
       <c r="G29">
-        <f>'By Round'!G34</f>
+        <f>'By Round'!G32</f>
         <v/>
       </c>
       <c r="H29">
-        <f>'By Round'!H34</f>
+        <f>'By Round'!H32</f>
         <v/>
       </c>
       <c r="I29">
-        <f>'By Round'!I34</f>
+        <f>'By Round'!I32</f>
         <v/>
       </c>
       <c r="J29">
-        <f>'By Round'!J34</f>
+        <f>'By Round'!J32</f>
         <v/>
       </c>
       <c r="K29">
-        <f>'By Round'!K34</f>
+        <f>'By Round'!K32</f>
         <v/>
       </c>
       <c r="L29" s="11">
@@ -3262,23 +3262,23 @@
         </is>
       </c>
       <c r="G33">
-        <f>'By Round'!G9</f>
+        <f>'By Round'!G8</f>
         <v/>
       </c>
       <c r="H33">
-        <f>'By Round'!H9</f>
+        <f>'By Round'!H8</f>
         <v/>
       </c>
       <c r="I33">
-        <f>'By Round'!I9</f>
+        <f>'By Round'!I8</f>
         <v/>
       </c>
       <c r="J33">
-        <f>'By Round'!J9</f>
+        <f>'By Round'!J8</f>
         <v/>
       </c>
       <c r="K33">
-        <f>'By Round'!K9</f>
+        <f>'By Round'!K8</f>
         <v/>
       </c>
       <c r="L33" s="11">
@@ -3337,23 +3337,23 @@
         </is>
       </c>
       <c r="G34">
-        <f>'By Round'!G18</f>
+        <f>'By Round'!G17</f>
         <v/>
       </c>
       <c r="H34">
-        <f>'By Round'!H18</f>
+        <f>'By Round'!H17</f>
         <v/>
       </c>
       <c r="I34">
-        <f>'By Round'!I18</f>
+        <f>'By Round'!I17</f>
         <v/>
       </c>
       <c r="J34">
-        <f>'By Round'!J18</f>
+        <f>'By Round'!J17</f>
         <v/>
       </c>
       <c r="K34">
-        <f>'By Round'!K18</f>
+        <f>'By Round'!K17</f>
         <v/>
       </c>
       <c r="L34" s="11">
@@ -3412,23 +3412,23 @@
         </is>
       </c>
       <c r="G35">
-        <f>'By Round'!G30</f>
+        <f>'By Round'!G29</f>
         <v/>
       </c>
       <c r="H35">
-        <f>'By Round'!H30</f>
+        <f>'By Round'!H29</f>
         <v/>
       </c>
       <c r="I35">
-        <f>'By Round'!I30</f>
+        <f>'By Round'!I29</f>
         <v/>
       </c>
       <c r="J35">
-        <f>'By Round'!J30</f>
+        <f>'By Round'!J29</f>
         <v/>
       </c>
       <c r="K35">
-        <f>'By Round'!K30</f>
+        <f>'By Round'!K29</f>
         <v/>
       </c>
       <c r="L35" s="11">
@@ -3490,23 +3490,23 @@
         </is>
       </c>
       <c r="G36">
-        <f>'By Round'!G10</f>
+        <f>'By Round'!G8</f>
         <v/>
       </c>
       <c r="H36">
-        <f>'By Round'!H10</f>
+        <f>'By Round'!H8</f>
         <v/>
       </c>
       <c r="I36">
-        <f>'By Round'!I10</f>
+        <f>'By Round'!I8</f>
         <v/>
       </c>
       <c r="J36">
-        <f>'By Round'!J10</f>
+        <f>'By Round'!J8</f>
         <v/>
       </c>
       <c r="K36">
-        <f>'By Round'!K10</f>
+        <f>'By Round'!K8</f>
         <v/>
       </c>
       <c r="L36" s="11">
@@ -3565,23 +3565,23 @@
         </is>
       </c>
       <c r="G37">
-        <f>'By Round'!G19</f>
+        <f>'By Round'!G17</f>
         <v/>
       </c>
       <c r="H37">
-        <f>'By Round'!H19</f>
+        <f>'By Round'!H17</f>
         <v/>
       </c>
       <c r="I37">
-        <f>'By Round'!I19</f>
+        <f>'By Round'!I17</f>
         <v/>
       </c>
       <c r="J37">
-        <f>'By Round'!J19</f>
+        <f>'By Round'!J17</f>
         <v/>
       </c>
       <c r="K37">
-        <f>'By Round'!K19</f>
+        <f>'By Round'!K17</f>
         <v/>
       </c>
       <c r="L37" s="11">
@@ -3640,23 +3640,23 @@
         </is>
       </c>
       <c r="G38">
-        <f>'By Round'!G31</f>
+        <f>'By Round'!G29</f>
         <v/>
       </c>
       <c r="H38">
-        <f>'By Round'!H31</f>
+        <f>'By Round'!H29</f>
         <v/>
       </c>
       <c r="I38">
-        <f>'By Round'!I31</f>
+        <f>'By Round'!I29</f>
         <v/>
       </c>
       <c r="J38">
-        <f>'By Round'!J31</f>
+        <f>'By Round'!J29</f>
         <v/>
       </c>
       <c r="K38">
-        <f>'By Round'!K31</f>
+        <f>'By Round'!K29</f>
         <v/>
       </c>
       <c r="L38" s="11">
@@ -3946,23 +3946,23 @@
         </is>
       </c>
       <c r="G42">
-        <f>'By Round'!G39</f>
+        <f>'By Round'!G38</f>
         <v/>
       </c>
       <c r="H42">
-        <f>'By Round'!H39</f>
+        <f>'By Round'!H38</f>
         <v/>
       </c>
       <c r="I42">
-        <f>'By Round'!I39</f>
+        <f>'By Round'!I38</f>
         <v/>
       </c>
       <c r="J42">
-        <f>'By Round'!J39</f>
+        <f>'By Round'!J38</f>
         <v/>
       </c>
       <c r="K42">
-        <f>'By Round'!K39</f>
+        <f>'By Round'!K38</f>
         <v/>
       </c>
       <c r="L42" s="11">
@@ -4021,23 +4021,23 @@
         </is>
       </c>
       <c r="G43">
-        <f>'By Round'!G42</f>
+        <f>'By Round'!G41</f>
         <v/>
       </c>
       <c r="H43">
-        <f>'By Round'!H42</f>
+        <f>'By Round'!H41</f>
         <v/>
       </c>
       <c r="I43">
-        <f>'By Round'!I42</f>
+        <f>'By Round'!I41</f>
         <v/>
       </c>
       <c r="J43">
-        <f>'By Round'!J42</f>
+        <f>'By Round'!J41</f>
         <v/>
       </c>
       <c r="K43">
-        <f>'By Round'!K42</f>
+        <f>'By Round'!K41</f>
         <v/>
       </c>
       <c r="L43" s="11">
@@ -4096,23 +4096,23 @@
         </is>
       </c>
       <c r="G44">
-        <f>'By Round'!G45</f>
+        <f>'By Round'!G44</f>
         <v/>
       </c>
       <c r="H44">
-        <f>'By Round'!H45</f>
+        <f>'By Round'!H44</f>
         <v/>
       </c>
       <c r="I44">
-        <f>'By Round'!I45</f>
+        <f>'By Round'!I44</f>
         <v/>
       </c>
       <c r="J44">
-        <f>'By Round'!J45</f>
+        <f>'By Round'!J44</f>
         <v/>
       </c>
       <c r="K44">
-        <f>'By Round'!K45</f>
+        <f>'By Round'!K44</f>
         <v/>
       </c>
       <c r="L44" s="11">
@@ -4174,23 +4174,23 @@
         </is>
       </c>
       <c r="G45">
-        <f>'By Round'!G40</f>
+        <f>'By Round'!G38</f>
         <v/>
       </c>
       <c r="H45">
-        <f>'By Round'!H40</f>
+        <f>'By Round'!H38</f>
         <v/>
       </c>
       <c r="I45">
-        <f>'By Round'!I40</f>
+        <f>'By Round'!I38</f>
         <v/>
       </c>
       <c r="J45">
-        <f>'By Round'!J40</f>
+        <f>'By Round'!J38</f>
         <v/>
       </c>
       <c r="K45">
-        <f>'By Round'!K40</f>
+        <f>'By Round'!K38</f>
         <v/>
       </c>
       <c r="L45" s="11">
@@ -4249,23 +4249,23 @@
         </is>
       </c>
       <c r="G46">
-        <f>'By Round'!G43</f>
+        <f>'By Round'!G41</f>
         <v/>
       </c>
       <c r="H46">
-        <f>'By Round'!H43</f>
+        <f>'By Round'!H41</f>
         <v/>
       </c>
       <c r="I46">
-        <f>'By Round'!I43</f>
+        <f>'By Round'!I41</f>
         <v/>
       </c>
       <c r="J46">
-        <f>'By Round'!J43</f>
+        <f>'By Round'!J41</f>
         <v/>
       </c>
       <c r="K46">
-        <f>'By Round'!K43</f>
+        <f>'By Round'!K41</f>
         <v/>
       </c>
       <c r="L46" s="11">
@@ -4324,23 +4324,23 @@
         </is>
       </c>
       <c r="G47">
-        <f>'By Round'!G46</f>
+        <f>'By Round'!G44</f>
         <v/>
       </c>
       <c r="H47">
-        <f>'By Round'!H46</f>
+        <f>'By Round'!H44</f>
         <v/>
       </c>
       <c r="I47">
-        <f>'By Round'!I46</f>
+        <f>'By Round'!I44</f>
         <v/>
       </c>
       <c r="J47">
-        <f>'By Round'!J46</f>
+        <f>'By Round'!J44</f>
         <v/>
       </c>
       <c r="K47">
-        <f>'By Round'!K46</f>
+        <f>'By Round'!K44</f>
         <v/>
       </c>
       <c r="L47" s="11">
@@ -5601,6 +5601,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="C1" s="3" t="inlineStr">

--- a/howell6.xlsx
+++ b/howell6.xlsx
@@ -22,10 +22,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#0.00"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="#0"/>
+    <numFmt numFmtId="166" formatCode="#0.0"/>
+    <numFmt numFmtId="167" formatCode="#0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -66,7 +67,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -85,18 +86,13 @@
       </bottom>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="00000000"/>
       </left>
+      <bottom/>
     </border>
     <border>
-      <left/>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="00000000"/>
       </left>
       <bottom style="thin">
@@ -121,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -136,38 +132,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -547,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Jan 29, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 01, 2026.</t>
         </is>
       </c>
     </row>
@@ -619,7 +607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,12 +652,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Name 70</t>
+          <t>Name 17</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Name 87</t>
+          <t>Name 69</t>
         </is>
       </c>
       <c r="D2" s="4">
@@ -687,12 +675,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Name 82</t>
+          <t>Name 79</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Name 52</t>
+          <t>Name 22</t>
         </is>
       </c>
       <c r="D3" s="4">
@@ -710,12 +698,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Name 55</t>
+          <t>Name 67</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Name 47</t>
+          <t>Name 81</t>
         </is>
       </c>
       <c r="D4" s="4">
@@ -733,12 +721,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Name 48</t>
+          <t>Name 39</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Name 88</t>
+          <t>Name 43</t>
         </is>
       </c>
       <c r="D5" s="4">
@@ -756,12 +744,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Name 74</t>
+          <t>Name 62</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Name 15</t>
+          <t>Name 65</t>
         </is>
       </c>
       <c r="D6" s="4">
@@ -779,12 +767,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Name 84</t>
+          <t>Name 47</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Name 70</t>
+          <t>Name 39</t>
         </is>
       </c>
       <c r="D7" s="4">
@@ -814,10 +802,18 @@
       </c>
     </row>
     <row r="11">
-      <c r="D11" s="4" t="n"/>
-      <c r="E11" s="8" t="n"/>
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>IMP Ranking</t>
+        </is>
+      </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>'=SORT(A2:E7,4,-1)</t>
+        </is>
+      </c>
       <c r="D12" s="4" t="n"/>
       <c r="E12" s="8" t="n"/>
     </row>
@@ -837,28 +833,23 @@
       <c r="D16" s="4" t="n"/>
       <c r="E16" s="8" t="n"/>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="17">
+      <c r="D17" s="4" t="n"/>
+      <c r="E17" s="8" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>MP Ranking</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>'=SORT(A2:E7,5,-1)</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n"/>
-      <c r="E19" s="8" t="n"/>
-    </row>
-    <row r="20">
-      <c r="D20" s="4" t="n"/>
-      <c r="E20" s="8" t="n"/>
-    </row>
-    <row r="21">
-      <c r="D21" s="4" t="n"/>
-      <c r="E21" s="8" t="n"/>
-    </row>
-    <row r="22">
-      <c r="D22" s="4" t="n"/>
-      <c r="E22" s="8" t="n"/>
-    </row>
-    <row r="23">
       <c r="D23" s="4" t="n"/>
       <c r="E23" s="8" t="n"/>
     </row>
@@ -866,7 +857,27 @@
       <c r="D24" s="4" t="n"/>
       <c r="E24" s="8" t="n"/>
     </row>
+    <row r="25">
+      <c r="D25" s="4" t="n"/>
+      <c r="E25" s="8" t="n"/>
+    </row>
+    <row r="26">
+      <c r="D26" s="4" t="n"/>
+      <c r="E26" s="8" t="n"/>
+    </row>
+    <row r="27">
+      <c r="D27" s="4" t="n"/>
+      <c r="E27" s="8" t="n"/>
+    </row>
+    <row r="28">
+      <c r="D28" s="4" t="n"/>
+      <c r="E28" s="8" t="n"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A22:E22"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -894,7 +905,7 @@
           <t>Score</t>
         </is>
       </c>
-      <c r="L1" s="10" t="inlineStr">
+      <c r="L1" s="9" t="inlineStr">
         <is>
           <t>IMP</t>
         </is>
@@ -909,142 +920,138 @@
           <t>MP Pts</t>
         </is>
       </c>
-      <c r="R1" s="10" t="inlineStr">
+      <c r="R1" s="9" t="inlineStr">
         <is>
           <t>Net</t>
         </is>
       </c>
       <c r="T1" s="9" t="inlineStr">
         <is>
+          <t>MP Calculation</t>
+        </is>
+      </c>
+      <c r="X1" s="9" t="inlineStr">
+        <is>
           <t>IMP Calculation</t>
         </is>
       </c>
-      <c r="X1" s="9" t="inlineStr">
-        <is>
-          <t>MP Calculation</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Board</t>
         </is>
       </c>
-      <c r="B2" s="11" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Round</t>
         </is>
       </c>
-      <c r="C2" s="11" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Table</t>
         </is>
       </c>
-      <c r="D2" s="11" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="E2" s="11" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="F2" s="11" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Vul</t>
         </is>
       </c>
-      <c r="G2" s="11" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Contract</t>
         </is>
       </c>
-      <c r="H2" s="11" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>By</t>
         </is>
       </c>
-      <c r="I2" s="11" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="J2" s="11" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K2" s="11" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="L2" s="12" t="inlineStr">
+      <c r="L2" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="M2" s="11" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="N2" s="11" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="O2" s="11" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="P2" s="11" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="Q2" s="11" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="R2" s="12" t="inlineStr">
+      <c r="R2" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="S2" s="11" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="T2" s="11" t="inlineStr">
-        <is>
-          <t>NS Pair-Wise</t>
-        </is>
-      </c>
-      <c r="U2" s="13" t="n"/>
-      <c r="V2" s="11" t="inlineStr">
-        <is>
-          <t>EW Pair-Wise</t>
-        </is>
-      </c>
-      <c r="W2" s="13" t="n"/>
-      <c r="X2" s="11" t="inlineStr">
-        <is>
-          <t>NS MP Score</t>
-        </is>
-      </c>
-      <c r="Y2" s="13" t="n"/>
-      <c r="Z2" s="11" t="inlineStr">
-        <is>
-          <t>EW MP Score</t>
-        </is>
-      </c>
-      <c r="AA2" s="13" t="n"/>
+      <c r="T2" s="10" t="inlineStr">
+        <is>
+          <t>NS MP Scores</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>EW MP Scores</t>
+        </is>
+      </c>
+      <c r="X2" s="10" t="inlineStr">
+        <is>
+          <t>NS IMP Pair-wise</t>
+        </is>
+      </c>
+      <c r="Z2" s="3" t="inlineStr">
+        <is>
+          <t>EW IMP Pair-wise</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1066,7 +1073,7 @@
         <f>'By Round'!D3</f>
         <v/>
       </c>
-      <c r="F3" s="14" t="inlineStr">
+      <c r="F3" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -1091,31 +1098,31 @@
         <f>IF(ISBLANK('By Round'!K3),"",'By Round'!K3)</f>
         <v/>
       </c>
-      <c r="L3" s="15">
-        <f>IFERROR(AVERAGE(T3:U3),"")</f>
-        <v/>
-      </c>
-      <c r="M3" s="4">
-        <f>IFERROR(AVERAGE(V3:W3),"")</f>
-        <v/>
-      </c>
-      <c r="N3" s="5">
-        <f>P3/2</f>
-        <v/>
-      </c>
-      <c r="O3" s="5">
-        <f>Q3/2</f>
+      <c r="L3" s="12">
+        <f>SUM(X3:Y3)</f>
+        <v/>
+      </c>
+      <c r="M3" s="13">
+        <f>SUM(Z3:AA3)</f>
+        <v/>
+      </c>
+      <c r="N3" s="8">
+        <f>IF(COUNT(T3:U3)&gt;0,P3/COUNT(T3:U3),0.5)</f>
+        <v/>
+      </c>
+      <c r="O3" s="8">
+        <f>IF(COUNT(V3:W3)&gt;0,Q3/COUNT(V3:W3),0.5)</f>
         <v/>
       </c>
       <c r="P3" s="4">
-        <f>IFERROR(SUM(X3:Y3),"")</f>
+        <f>SUM(T3:U3)</f>
         <v/>
       </c>
       <c r="Q3" s="4">
-        <f>IFERROR(SUM(Z3:AA3),"")</f>
-        <v/>
-      </c>
-      <c r="R3" s="16">
+        <f>SUM(V3:W3)</f>
+        <v/>
+      </c>
+      <c r="R3" s="14">
         <f>IF(ISNUMBER(J3),J3,IF(ISNUMBER(K3),-K3,""))</f>
         <v/>
       </c>
@@ -1123,36 +1130,36 @@
         <f>IF(ISNUMBER(K3),K3,IF(ISNUMBER(J3),-J3,""))</f>
         <v/>
       </c>
-      <c r="T3">
-        <f>IF(AND(ISNUMBER(R3),ISNUMBER(R4)),VLOOKUP(ABS(R3-R4),'IMP Table'!$A$2:$C$26,3)*SIGN(R3-R4),"")</f>
+      <c r="T3" s="14">
+        <f>IF(ISNUMBER(R3),IF(ISNUMBER(R4),IF(R3&gt;R4,1.0,IF(R3=R4,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>IF(AND(ISNUMBER(R3),ISNUMBER(R5)),VLOOKUP(ABS(R3-R5),'IMP Table'!$A$2:$C$26,3)*SIGN(R3-R5),"")</f>
+        <f>IF(ISNUMBER(R3),IF(ISNUMBER(R5),IF(R3&gt;R5,1.0,IF(R3=R5,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>IF(AND(ISNUMBER(S3),ISNUMBER(S4)),VLOOKUP(ABS(S3-S4),'IMP Table'!$A$2:$C$26,3)*SIGN(S3-S4),"")</f>
+        <f>IF(ISNUMBER(S3),IF(ISNUMBER(S4),IF(S3&gt;S4,1.0,IF(S3=S4,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>IF(AND(ISNUMBER(S3),ISNUMBER(S5)),VLOOKUP(ABS(S3-S5),'IMP Table'!$A$2:$C$26,3)*SIGN(S3-S5),"")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>IF(AND(ISNUMBER(R3),ISNUMBER(R4)),IF(R3&gt;R4,1,IF(R3=R4,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S3),IF(ISNUMBER(S5),IF(S3&gt;S5,1.0,IF(S3=S5,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X3" s="14">
+        <f>IF(AND(ISNUMBER(R3),ISNUMBER(R4)),VLOOKUP(ABS(R3-R4),'IMP Table'!$A$2:$C$26,3)*SIGN(R3-R4),0)</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>IF(AND(ISNUMBER(R3),ISNUMBER(R5)),IF(R3&gt;R5,1,IF(R3=R5,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R3),ISNUMBER(R5)),VLOOKUP(ABS(R3-R5),'IMP Table'!$A$2:$C$26,3)*SIGN(R3-R5),0)</f>
         <v/>
       </c>
       <c r="Z3">
-        <f>IF(AND(ISNUMBER(S3),ISNUMBER(S4)),IF(S3&gt;S4,1,IF(S3=S4,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S3),ISNUMBER(S4)),VLOOKUP(ABS(S3-S4),'IMP Table'!$A$2:$C$26,3)*SIGN(S3-S4),0)</f>
         <v/>
       </c>
       <c r="AA3">
-        <f>IF(AND(ISNUMBER(S3),ISNUMBER(S5)),IF(S3&gt;S5,1,IF(S3=S5,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S3),ISNUMBER(S5)),VLOOKUP(ABS(S3-S5),'IMP Table'!$A$2:$C$26,3)*SIGN(S3-S5),0)</f>
         <v/>
       </c>
     </row>
@@ -1173,7 +1180,7 @@
         <f>'By Round'!D27</f>
         <v/>
       </c>
-      <c r="F4" s="14" t="inlineStr">
+      <c r="F4" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -1198,31 +1205,31 @@
         <f>IF(ISBLANK('By Round'!K27),"",'By Round'!K27)</f>
         <v/>
       </c>
-      <c r="L4" s="15">
-        <f>IFERROR(AVERAGE(T4:U4),"")</f>
-        <v/>
-      </c>
-      <c r="M4" s="4">
-        <f>IFERROR(AVERAGE(V4:W4),"")</f>
-        <v/>
-      </c>
-      <c r="N4" s="5">
-        <f>P4/2</f>
-        <v/>
-      </c>
-      <c r="O4" s="5">
-        <f>Q4/2</f>
+      <c r="L4" s="12">
+        <f>SUM(X4:Y4)</f>
+        <v/>
+      </c>
+      <c r="M4" s="13">
+        <f>SUM(Z4:AA4)</f>
+        <v/>
+      </c>
+      <c r="N4" s="8">
+        <f>IF(COUNT(T4:U4)&gt;0,P4/COUNT(T4:U4),0.5)</f>
+        <v/>
+      </c>
+      <c r="O4" s="8">
+        <f>IF(COUNT(V4:W4)&gt;0,Q4/COUNT(V4:W4),0.5)</f>
         <v/>
       </c>
       <c r="P4" s="4">
-        <f>IFERROR(SUM(X4:Y4),"")</f>
+        <f>SUM(T4:U4)</f>
         <v/>
       </c>
       <c r="Q4" s="4">
-        <f>IFERROR(SUM(Z4:AA4),"")</f>
-        <v/>
-      </c>
-      <c r="R4" s="16">
+        <f>SUM(V4:W4)</f>
+        <v/>
+      </c>
+      <c r="R4" s="14">
         <f>IF(ISNUMBER(J4),J4,IF(ISNUMBER(K4),-K4,""))</f>
         <v/>
       </c>
@@ -1230,144 +1237,144 @@
         <f>IF(ISNUMBER(K4),K4,IF(ISNUMBER(J4),-J4,""))</f>
         <v/>
       </c>
-      <c r="T4">
-        <f>IF(AND(ISNUMBER(R4),ISNUMBER(R3)),VLOOKUP(ABS(R4-R3),'IMP Table'!$A$2:$C$26,3)*SIGN(R4-R3),"")</f>
+      <c r="T4" s="14">
+        <f>IF(ISNUMBER(R4),IF(ISNUMBER(R3),IF(R4&gt;R3,1.0,IF(R4=R3,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>IF(AND(ISNUMBER(R4),ISNUMBER(R5)),VLOOKUP(ABS(R4-R5),'IMP Table'!$A$2:$C$26,3)*SIGN(R4-R5),"")</f>
+        <f>IF(ISNUMBER(R4),IF(ISNUMBER(R5),IF(R4&gt;R5,1.0,IF(R4=R5,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>IF(AND(ISNUMBER(S4),ISNUMBER(S3)),VLOOKUP(ABS(S4-S3),'IMP Table'!$A$2:$C$26,3)*SIGN(S4-S3),"")</f>
+        <f>IF(ISNUMBER(S4),IF(ISNUMBER(S3),IF(S4&gt;S3,1.0,IF(S4=S3,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>IF(AND(ISNUMBER(S4),ISNUMBER(S5)),VLOOKUP(ABS(S4-S5),'IMP Table'!$A$2:$C$26,3)*SIGN(S4-S5),"")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>IF(AND(ISNUMBER(R4),ISNUMBER(R3)),IF(R4&gt;R3,1,IF(R4=R3,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S4),IF(ISNUMBER(S5),IF(S4&gt;S5,1.0,IF(S4=S5,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X4" s="14">
+        <f>IF(AND(ISNUMBER(R4),ISNUMBER(R3)),VLOOKUP(ABS(R4-R3),'IMP Table'!$A$2:$C$26,3)*SIGN(R4-R3),0)</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>IF(AND(ISNUMBER(R4),ISNUMBER(R5)),IF(R4&gt;R5,1,IF(R4=R5,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R4),ISNUMBER(R5)),VLOOKUP(ABS(R4-R5),'IMP Table'!$A$2:$C$26,3)*SIGN(R4-R5),0)</f>
         <v/>
       </c>
       <c r="Z4">
-        <f>IF(AND(ISNUMBER(S4),ISNUMBER(S3)),IF(S4&gt;S3,1,IF(S4=S3,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S4),ISNUMBER(S3)),VLOOKUP(ABS(S4-S3),'IMP Table'!$A$2:$C$26,3)*SIGN(S4-S3),0)</f>
         <v/>
       </c>
       <c r="AA4">
-        <f>IF(AND(ISNUMBER(S4),ISNUMBER(S5)),IF(S4&gt;S5,1,IF(S4=S5,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S4),ISNUMBER(S5)),VLOOKUP(ABS(S4-S5),'IMP Table'!$A$2:$C$26,3)*SIGN(S4-S5),0)</f>
         <v/>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="n"/>
-      <c r="B5" s="13">
+      <c r="A5" s="15" t="n"/>
+      <c r="B5" s="15">
         <f>'By Round'!A30</f>
         <v/>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="15">
         <f>'By Round'!B36</f>
         <v/>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="15">
         <f>'By Round'!C36</f>
         <v/>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="15">
         <f>'By Round'!D36</f>
         <v/>
       </c>
-      <c r="F5" s="17" t="inlineStr">
+      <c r="F5" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="15">
         <f>IF(ISBLANK('By Round'!G36),"",'By Round'!G36)</f>
         <v/>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="15">
         <f>IF(ISBLANK('By Round'!H36),"",'By Round'!H36)</f>
         <v/>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="15">
         <f>IF(ISBLANK('By Round'!I36),"",'By Round'!I36)</f>
         <v/>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="15">
         <f>IF(ISBLANK('By Round'!J36),"",'By Round'!J36)</f>
         <v/>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="15">
         <f>IF(ISBLANK('By Round'!K36),"",'By Round'!K36)</f>
         <v/>
       </c>
-      <c r="L5" s="18">
-        <f>IFERROR(AVERAGE(T5:U5),"")</f>
-        <v/>
-      </c>
-      <c r="M5" s="19">
-        <f>IFERROR(AVERAGE(V5:W5),"")</f>
-        <v/>
-      </c>
-      <c r="N5" s="20">
-        <f>P5/2</f>
-        <v/>
-      </c>
-      <c r="O5" s="20">
-        <f>Q5/2</f>
-        <v/>
-      </c>
-      <c r="P5" s="19">
-        <f>IFERROR(SUM(X5:Y5),"")</f>
-        <v/>
-      </c>
-      <c r="Q5" s="19">
-        <f>IFERROR(SUM(Z5:AA5),"")</f>
+      <c r="L5" s="17">
+        <f>SUM(X5:Y5)</f>
+        <v/>
+      </c>
+      <c r="M5" s="18">
+        <f>SUM(Z5:AA5)</f>
+        <v/>
+      </c>
+      <c r="N5" s="19">
+        <f>IF(COUNT(T5:U5)&gt;0,P5/COUNT(T5:U5),0.5)</f>
+        <v/>
+      </c>
+      <c r="O5" s="19">
+        <f>IF(COUNT(V5:W5)&gt;0,Q5/COUNT(V5:W5),0.5)</f>
+        <v/>
+      </c>
+      <c r="P5" s="20">
+        <f>SUM(T5:U5)</f>
+        <v/>
+      </c>
+      <c r="Q5" s="20">
+        <f>SUM(V5:W5)</f>
         <v/>
       </c>
       <c r="R5" s="21">
         <f>IF(ISNUMBER(J5),J5,IF(ISNUMBER(K5),-K5,""))</f>
         <v/>
       </c>
-      <c r="S5" s="13">
+      <c r="S5" s="15">
         <f>IF(ISNUMBER(K5),K5,IF(ISNUMBER(J5),-J5,""))</f>
         <v/>
       </c>
-      <c r="T5" s="13">
-        <f>IF(AND(ISNUMBER(R5),ISNUMBER(R3)),VLOOKUP(ABS(R5-R3),'IMP Table'!$A$2:$C$26,3)*SIGN(R5-R3),"")</f>
-        <v/>
-      </c>
-      <c r="U5" s="13">
-        <f>IF(AND(ISNUMBER(R5),ISNUMBER(R4)),VLOOKUP(ABS(R5-R4),'IMP Table'!$A$2:$C$26,3)*SIGN(R5-R4),"")</f>
-        <v/>
-      </c>
-      <c r="V5" s="13">
-        <f>IF(AND(ISNUMBER(S5),ISNUMBER(S3)),VLOOKUP(ABS(S5-S3),'IMP Table'!$A$2:$C$26,3)*SIGN(S5-S3),"")</f>
-        <v/>
-      </c>
-      <c r="W5" s="13">
-        <f>IF(AND(ISNUMBER(S5),ISNUMBER(S4)),VLOOKUP(ABS(S5-S4),'IMP Table'!$A$2:$C$26,3)*SIGN(S5-S4),"")</f>
-        <v/>
-      </c>
-      <c r="X5" s="13">
-        <f>IF(AND(ISNUMBER(R5),ISNUMBER(R3)),IF(R5&gt;R3,1,IF(R5=R3,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Y5" s="13">
-        <f>IF(AND(ISNUMBER(R5),ISNUMBER(R4)),IF(R5&gt;R4,1,IF(R5=R4,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Z5" s="13">
-        <f>IF(AND(ISNUMBER(S5),ISNUMBER(S3)),IF(S5&gt;S3,1,IF(S5=S3,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="AA5" s="13">
-        <f>IF(AND(ISNUMBER(S5),ISNUMBER(S4)),IF(S5&gt;S4,1,IF(S5=S4,0.5,0)),0.5)</f>
+      <c r="T5" s="21">
+        <f>IF(ISNUMBER(R5),IF(ISNUMBER(R3),IF(R5&gt;R3,1.0,IF(R5=R3,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="U5" s="15">
+        <f>IF(ISNUMBER(R5),IF(ISNUMBER(R4),IF(R5&gt;R4,1.0,IF(R5=R4,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="V5" s="15">
+        <f>IF(ISNUMBER(S5),IF(ISNUMBER(S3),IF(S5&gt;S3,1.0,IF(S5=S3,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="W5" s="15">
+        <f>IF(ISNUMBER(S5),IF(ISNUMBER(S4),IF(S5&gt;S4,1.0,IF(S5=S4,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X5" s="21">
+        <f>IF(AND(ISNUMBER(R5),ISNUMBER(R3)),VLOOKUP(ABS(R5-R3),'IMP Table'!$A$2:$C$26,3)*SIGN(R5-R3),0)</f>
+        <v/>
+      </c>
+      <c r="Y5" s="15">
+        <f>IF(AND(ISNUMBER(R5),ISNUMBER(R4)),VLOOKUP(ABS(R5-R4),'IMP Table'!$A$2:$C$26,3)*SIGN(R5-R4),0)</f>
+        <v/>
+      </c>
+      <c r="Z5" s="15">
+        <f>IF(AND(ISNUMBER(S5),ISNUMBER(S3)),VLOOKUP(ABS(S5-S3),'IMP Table'!$A$2:$C$26,3)*SIGN(S5-S3),0)</f>
+        <v/>
+      </c>
+      <c r="AA5" s="15">
+        <f>IF(AND(ISNUMBER(S5),ISNUMBER(S4)),VLOOKUP(ABS(S5-S4),'IMP Table'!$A$2:$C$26,3)*SIGN(S5-S4),0)</f>
         <v/>
       </c>
     </row>
@@ -1391,7 +1398,7 @@
         <f>'By Round'!D3</f>
         <v/>
       </c>
-      <c r="F6" s="14" t="inlineStr">
+      <c r="F6" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
@@ -1416,31 +1423,31 @@
         <f>IF(ISBLANK('By Round'!K3),"",'By Round'!K3)</f>
         <v/>
       </c>
-      <c r="L6" s="15">
-        <f>IFERROR(AVERAGE(T6:U6),"")</f>
-        <v/>
-      </c>
-      <c r="M6" s="4">
-        <f>IFERROR(AVERAGE(V6:W6),"")</f>
-        <v/>
-      </c>
-      <c r="N6" s="5">
-        <f>P6/2</f>
-        <v/>
-      </c>
-      <c r="O6" s="5">
-        <f>Q6/2</f>
+      <c r="L6" s="12">
+        <f>SUM(X6:Y6)</f>
+        <v/>
+      </c>
+      <c r="M6" s="13">
+        <f>SUM(Z6:AA6)</f>
+        <v/>
+      </c>
+      <c r="N6" s="8">
+        <f>IF(COUNT(T6:U6)&gt;0,P6/COUNT(T6:U6),0.5)</f>
+        <v/>
+      </c>
+      <c r="O6" s="8">
+        <f>IF(COUNT(V6:W6)&gt;0,Q6/COUNT(V6:W6),0.5)</f>
         <v/>
       </c>
       <c r="P6" s="4">
-        <f>IFERROR(SUM(X6:Y6),"")</f>
+        <f>SUM(T6:U6)</f>
         <v/>
       </c>
       <c r="Q6" s="4">
-        <f>IFERROR(SUM(Z6:AA6),"")</f>
-        <v/>
-      </c>
-      <c r="R6" s="16">
+        <f>SUM(V6:W6)</f>
+        <v/>
+      </c>
+      <c r="R6" s="14">
         <f>IF(ISNUMBER(J6),J6,IF(ISNUMBER(K6),-K6,""))</f>
         <v/>
       </c>
@@ -1448,36 +1455,36 @@
         <f>IF(ISNUMBER(K6),K6,IF(ISNUMBER(J6),-J6,""))</f>
         <v/>
       </c>
-      <c r="T6">
-        <f>IF(AND(ISNUMBER(R6),ISNUMBER(R7)),VLOOKUP(ABS(R6-R7),'IMP Table'!$A$2:$C$26,3)*SIGN(R6-R7),"")</f>
+      <c r="T6" s="14">
+        <f>IF(ISNUMBER(R6),IF(ISNUMBER(R7),IF(R6&gt;R7,1.0,IF(R6=R7,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>IF(AND(ISNUMBER(R6),ISNUMBER(R8)),VLOOKUP(ABS(R6-R8),'IMP Table'!$A$2:$C$26,3)*SIGN(R6-R8),"")</f>
+        <f>IF(ISNUMBER(R6),IF(ISNUMBER(R8),IF(R6&gt;R8,1.0,IF(R6=R8,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>IF(AND(ISNUMBER(S6),ISNUMBER(S7)),VLOOKUP(ABS(S6-S7),'IMP Table'!$A$2:$C$26,3)*SIGN(S6-S7),"")</f>
+        <f>IF(ISNUMBER(S6),IF(ISNUMBER(S7),IF(S6&gt;S7,1.0,IF(S6=S7,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>IF(AND(ISNUMBER(S6),ISNUMBER(S8)),VLOOKUP(ABS(S6-S8),'IMP Table'!$A$2:$C$26,3)*SIGN(S6-S8),"")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>IF(AND(ISNUMBER(R6),ISNUMBER(R7)),IF(R6&gt;R7,1,IF(R6=R7,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S6),IF(ISNUMBER(S8),IF(S6&gt;S8,1.0,IF(S6=S8,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X6" s="14">
+        <f>IF(AND(ISNUMBER(R6),ISNUMBER(R7)),VLOOKUP(ABS(R6-R7),'IMP Table'!$A$2:$C$26,3)*SIGN(R6-R7),0)</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>IF(AND(ISNUMBER(R6),ISNUMBER(R8)),IF(R6&gt;R8,1,IF(R6=R8,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R6),ISNUMBER(R8)),VLOOKUP(ABS(R6-R8),'IMP Table'!$A$2:$C$26,3)*SIGN(R6-R8),0)</f>
         <v/>
       </c>
       <c r="Z6">
-        <f>IF(AND(ISNUMBER(S6),ISNUMBER(S7)),IF(S6&gt;S7,1,IF(S6=S7,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S6),ISNUMBER(S7)),VLOOKUP(ABS(S6-S7),'IMP Table'!$A$2:$C$26,3)*SIGN(S6-S7),0)</f>
         <v/>
       </c>
       <c r="AA6">
-        <f>IF(AND(ISNUMBER(S6),ISNUMBER(S8)),IF(S6&gt;S8,1,IF(S6=S8,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S6),ISNUMBER(S8)),VLOOKUP(ABS(S6-S8),'IMP Table'!$A$2:$C$26,3)*SIGN(S6-S8),0)</f>
         <v/>
       </c>
     </row>
@@ -1498,7 +1505,7 @@
         <f>'By Round'!D27</f>
         <v/>
       </c>
-      <c r="F7" s="14" t="inlineStr">
+      <c r="F7" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
@@ -1523,31 +1530,31 @@
         <f>IF(ISBLANK('By Round'!K27),"",'By Round'!K27)</f>
         <v/>
       </c>
-      <c r="L7" s="15">
-        <f>IFERROR(AVERAGE(T7:U7),"")</f>
-        <v/>
-      </c>
-      <c r="M7" s="4">
-        <f>IFERROR(AVERAGE(V7:W7),"")</f>
-        <v/>
-      </c>
-      <c r="N7" s="5">
-        <f>P7/2</f>
-        <v/>
-      </c>
-      <c r="O7" s="5">
-        <f>Q7/2</f>
+      <c r="L7" s="12">
+        <f>SUM(X7:Y7)</f>
+        <v/>
+      </c>
+      <c r="M7" s="13">
+        <f>SUM(Z7:AA7)</f>
+        <v/>
+      </c>
+      <c r="N7" s="8">
+        <f>IF(COUNT(T7:U7)&gt;0,P7/COUNT(T7:U7),0.5)</f>
+        <v/>
+      </c>
+      <c r="O7" s="8">
+        <f>IF(COUNT(V7:W7)&gt;0,Q7/COUNT(V7:W7),0.5)</f>
         <v/>
       </c>
       <c r="P7" s="4">
-        <f>IFERROR(SUM(X7:Y7),"")</f>
+        <f>SUM(T7:U7)</f>
         <v/>
       </c>
       <c r="Q7" s="4">
-        <f>IFERROR(SUM(Z7:AA7),"")</f>
-        <v/>
-      </c>
-      <c r="R7" s="16">
+        <f>SUM(V7:W7)</f>
+        <v/>
+      </c>
+      <c r="R7" s="14">
         <f>IF(ISNUMBER(J7),J7,IF(ISNUMBER(K7),-K7,""))</f>
         <v/>
       </c>
@@ -1555,144 +1562,144 @@
         <f>IF(ISNUMBER(K7),K7,IF(ISNUMBER(J7),-J7,""))</f>
         <v/>
       </c>
-      <c r="T7">
-        <f>IF(AND(ISNUMBER(R7),ISNUMBER(R6)),VLOOKUP(ABS(R7-R6),'IMP Table'!$A$2:$C$26,3)*SIGN(R7-R6),"")</f>
+      <c r="T7" s="14">
+        <f>IF(ISNUMBER(R7),IF(ISNUMBER(R6),IF(R7&gt;R6,1.0,IF(R7=R6,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U7">
-        <f>IF(AND(ISNUMBER(R7),ISNUMBER(R8)),VLOOKUP(ABS(R7-R8),'IMP Table'!$A$2:$C$26,3)*SIGN(R7-R8),"")</f>
+        <f>IF(ISNUMBER(R7),IF(ISNUMBER(R8),IF(R7&gt;R8,1.0,IF(R7=R8,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>IF(AND(ISNUMBER(S7),ISNUMBER(S6)),VLOOKUP(ABS(S7-S6),'IMP Table'!$A$2:$C$26,3)*SIGN(S7-S6),"")</f>
+        <f>IF(ISNUMBER(S7),IF(ISNUMBER(S6),IF(S7&gt;S6,1.0,IF(S7=S6,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>IF(AND(ISNUMBER(S7),ISNUMBER(S8)),VLOOKUP(ABS(S7-S8),'IMP Table'!$A$2:$C$26,3)*SIGN(S7-S8),"")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>IF(AND(ISNUMBER(R7),ISNUMBER(R6)),IF(R7&gt;R6,1,IF(R7=R6,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S7),IF(ISNUMBER(S8),IF(S7&gt;S8,1.0,IF(S7=S8,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X7" s="14">
+        <f>IF(AND(ISNUMBER(R7),ISNUMBER(R6)),VLOOKUP(ABS(R7-R6),'IMP Table'!$A$2:$C$26,3)*SIGN(R7-R6),0)</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>IF(AND(ISNUMBER(R7),ISNUMBER(R8)),IF(R7&gt;R8,1,IF(R7=R8,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R7),ISNUMBER(R8)),VLOOKUP(ABS(R7-R8),'IMP Table'!$A$2:$C$26,3)*SIGN(R7-R8),0)</f>
         <v/>
       </c>
       <c r="Z7">
-        <f>IF(AND(ISNUMBER(S7),ISNUMBER(S6)),IF(S7&gt;S6,1,IF(S7=S6,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S7),ISNUMBER(S6)),VLOOKUP(ABS(S7-S6),'IMP Table'!$A$2:$C$26,3)*SIGN(S7-S6),0)</f>
         <v/>
       </c>
       <c r="AA7">
-        <f>IF(AND(ISNUMBER(S7),ISNUMBER(S8)),IF(S7&gt;S8,1,IF(S7=S8,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S7),ISNUMBER(S8)),VLOOKUP(ABS(S7-S8),'IMP Table'!$A$2:$C$26,3)*SIGN(S7-S8),0)</f>
         <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="n"/>
-      <c r="B8" s="13">
+      <c r="A8" s="15" t="n"/>
+      <c r="B8" s="15">
         <f>'By Round'!A30</f>
         <v/>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="15">
         <f>'By Round'!B36</f>
         <v/>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="15">
         <f>'By Round'!C36</f>
         <v/>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="15">
         <f>'By Round'!D36</f>
         <v/>
       </c>
-      <c r="F8" s="17" t="inlineStr">
+      <c r="F8" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="15">
         <f>IF(ISBLANK('By Round'!G36),"",'By Round'!G36)</f>
         <v/>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="15">
         <f>IF(ISBLANK('By Round'!H36),"",'By Round'!H36)</f>
         <v/>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="15">
         <f>IF(ISBLANK('By Round'!I36),"",'By Round'!I36)</f>
         <v/>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="15">
         <f>IF(ISBLANK('By Round'!J36),"",'By Round'!J36)</f>
         <v/>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="15">
         <f>IF(ISBLANK('By Round'!K36),"",'By Round'!K36)</f>
         <v/>
       </c>
-      <c r="L8" s="18">
-        <f>IFERROR(AVERAGE(T8:U8),"")</f>
-        <v/>
-      </c>
-      <c r="M8" s="19">
-        <f>IFERROR(AVERAGE(V8:W8),"")</f>
-        <v/>
-      </c>
-      <c r="N8" s="20">
-        <f>P8/2</f>
-        <v/>
-      </c>
-      <c r="O8" s="20">
-        <f>Q8/2</f>
-        <v/>
-      </c>
-      <c r="P8" s="19">
-        <f>IFERROR(SUM(X8:Y8),"")</f>
-        <v/>
-      </c>
-      <c r="Q8" s="19">
-        <f>IFERROR(SUM(Z8:AA8),"")</f>
+      <c r="L8" s="17">
+        <f>SUM(X8:Y8)</f>
+        <v/>
+      </c>
+      <c r="M8" s="18">
+        <f>SUM(Z8:AA8)</f>
+        <v/>
+      </c>
+      <c r="N8" s="19">
+        <f>IF(COUNT(T8:U8)&gt;0,P8/COUNT(T8:U8),0.5)</f>
+        <v/>
+      </c>
+      <c r="O8" s="19">
+        <f>IF(COUNT(V8:W8)&gt;0,Q8/COUNT(V8:W8),0.5)</f>
+        <v/>
+      </c>
+      <c r="P8" s="20">
+        <f>SUM(T8:U8)</f>
+        <v/>
+      </c>
+      <c r="Q8" s="20">
+        <f>SUM(V8:W8)</f>
         <v/>
       </c>
       <c r="R8" s="21">
         <f>IF(ISNUMBER(J8),J8,IF(ISNUMBER(K8),-K8,""))</f>
         <v/>
       </c>
-      <c r="S8" s="13">
+      <c r="S8" s="15">
         <f>IF(ISNUMBER(K8),K8,IF(ISNUMBER(J8),-J8,""))</f>
         <v/>
       </c>
-      <c r="T8" s="13">
-        <f>IF(AND(ISNUMBER(R8),ISNUMBER(R6)),VLOOKUP(ABS(R8-R6),'IMP Table'!$A$2:$C$26,3)*SIGN(R8-R6),"")</f>
-        <v/>
-      </c>
-      <c r="U8" s="13">
-        <f>IF(AND(ISNUMBER(R8),ISNUMBER(R7)),VLOOKUP(ABS(R8-R7),'IMP Table'!$A$2:$C$26,3)*SIGN(R8-R7),"")</f>
-        <v/>
-      </c>
-      <c r="V8" s="13">
-        <f>IF(AND(ISNUMBER(S8),ISNUMBER(S6)),VLOOKUP(ABS(S8-S6),'IMP Table'!$A$2:$C$26,3)*SIGN(S8-S6),"")</f>
-        <v/>
-      </c>
-      <c r="W8" s="13">
-        <f>IF(AND(ISNUMBER(S8),ISNUMBER(S7)),VLOOKUP(ABS(S8-S7),'IMP Table'!$A$2:$C$26,3)*SIGN(S8-S7),"")</f>
-        <v/>
-      </c>
-      <c r="X8" s="13">
-        <f>IF(AND(ISNUMBER(R8),ISNUMBER(R6)),IF(R8&gt;R6,1,IF(R8=R6,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Y8" s="13">
-        <f>IF(AND(ISNUMBER(R8),ISNUMBER(R7)),IF(R8&gt;R7,1,IF(R8=R7,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Z8" s="13">
-        <f>IF(AND(ISNUMBER(S8),ISNUMBER(S6)),IF(S8&gt;S6,1,IF(S8=S6,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="AA8" s="13">
-        <f>IF(AND(ISNUMBER(S8),ISNUMBER(S7)),IF(S8&gt;S7,1,IF(S8=S7,0.5,0)),0.5)</f>
+      <c r="T8" s="21">
+        <f>IF(ISNUMBER(R8),IF(ISNUMBER(R6),IF(R8&gt;R6,1.0,IF(R8=R6,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="U8" s="15">
+        <f>IF(ISNUMBER(R8),IF(ISNUMBER(R7),IF(R8&gt;R7,1.0,IF(R8=R7,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="V8" s="15">
+        <f>IF(ISNUMBER(S8),IF(ISNUMBER(S6),IF(S8&gt;S6,1.0,IF(S8=S6,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="W8" s="15">
+        <f>IF(ISNUMBER(S8),IF(ISNUMBER(S7),IF(S8&gt;S7,1.0,IF(S8=S7,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X8" s="21">
+        <f>IF(AND(ISNUMBER(R8),ISNUMBER(R6)),VLOOKUP(ABS(R8-R6),'IMP Table'!$A$2:$C$26,3)*SIGN(R8-R6),0)</f>
+        <v/>
+      </c>
+      <c r="Y8" s="15">
+        <f>IF(AND(ISNUMBER(R8),ISNUMBER(R7)),VLOOKUP(ABS(R8-R7),'IMP Table'!$A$2:$C$26,3)*SIGN(R8-R7),0)</f>
+        <v/>
+      </c>
+      <c r="Z8" s="15">
+        <f>IF(AND(ISNUMBER(S8),ISNUMBER(S6)),VLOOKUP(ABS(S8-S6),'IMP Table'!$A$2:$C$26,3)*SIGN(S8-S6),0)</f>
+        <v/>
+      </c>
+      <c r="AA8" s="15">
+        <f>IF(AND(ISNUMBER(S8),ISNUMBER(S7)),VLOOKUP(ABS(S8-S7),'IMP Table'!$A$2:$C$26,3)*SIGN(S8-S7),0)</f>
         <v/>
       </c>
     </row>
@@ -1716,7 +1723,7 @@
         <f>'By Round'!D3</f>
         <v/>
       </c>
-      <c r="F9" s="14" t="inlineStr">
+      <c r="F9" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
@@ -1741,31 +1748,31 @@
         <f>IF(ISBLANK('By Round'!K3),"",'By Round'!K3)</f>
         <v/>
       </c>
-      <c r="L9" s="15">
-        <f>IFERROR(AVERAGE(T9:U9),"")</f>
-        <v/>
-      </c>
-      <c r="M9" s="4">
-        <f>IFERROR(AVERAGE(V9:W9),"")</f>
-        <v/>
-      </c>
-      <c r="N9" s="5">
-        <f>P9/2</f>
-        <v/>
-      </c>
-      <c r="O9" s="5">
-        <f>Q9/2</f>
+      <c r="L9" s="12">
+        <f>SUM(X9:Y9)</f>
+        <v/>
+      </c>
+      <c r="M9" s="13">
+        <f>SUM(Z9:AA9)</f>
+        <v/>
+      </c>
+      <c r="N9" s="8">
+        <f>IF(COUNT(T9:U9)&gt;0,P9/COUNT(T9:U9),0.5)</f>
+        <v/>
+      </c>
+      <c r="O9" s="8">
+        <f>IF(COUNT(V9:W9)&gt;0,Q9/COUNT(V9:W9),0.5)</f>
         <v/>
       </c>
       <c r="P9" s="4">
-        <f>IFERROR(SUM(X9:Y9),"")</f>
+        <f>SUM(T9:U9)</f>
         <v/>
       </c>
       <c r="Q9" s="4">
-        <f>IFERROR(SUM(Z9:AA9),"")</f>
-        <v/>
-      </c>
-      <c r="R9" s="16">
+        <f>SUM(V9:W9)</f>
+        <v/>
+      </c>
+      <c r="R9" s="14">
         <f>IF(ISNUMBER(J9),J9,IF(ISNUMBER(K9),-K9,""))</f>
         <v/>
       </c>
@@ -1773,36 +1780,36 @@
         <f>IF(ISNUMBER(K9),K9,IF(ISNUMBER(J9),-J9,""))</f>
         <v/>
       </c>
-      <c r="T9">
-        <f>IF(AND(ISNUMBER(R9),ISNUMBER(R10)),VLOOKUP(ABS(R9-R10),'IMP Table'!$A$2:$C$26,3)*SIGN(R9-R10),"")</f>
+      <c r="T9" s="14">
+        <f>IF(ISNUMBER(R9),IF(ISNUMBER(R10),IF(R9&gt;R10,1.0,IF(R9=R10,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U9">
-        <f>IF(AND(ISNUMBER(R9),ISNUMBER(R11)),VLOOKUP(ABS(R9-R11),'IMP Table'!$A$2:$C$26,3)*SIGN(R9-R11),"")</f>
+        <f>IF(ISNUMBER(R9),IF(ISNUMBER(R11),IF(R9&gt;R11,1.0,IF(R9=R11,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>IF(AND(ISNUMBER(S9),ISNUMBER(S10)),VLOOKUP(ABS(S9-S10),'IMP Table'!$A$2:$C$26,3)*SIGN(S9-S10),"")</f>
+        <f>IF(ISNUMBER(S9),IF(ISNUMBER(S10),IF(S9&gt;S10,1.0,IF(S9=S10,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>IF(AND(ISNUMBER(S9),ISNUMBER(S11)),VLOOKUP(ABS(S9-S11),'IMP Table'!$A$2:$C$26,3)*SIGN(S9-S11),"")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>IF(AND(ISNUMBER(R9),ISNUMBER(R10)),IF(R9&gt;R10,1,IF(R9=R10,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S9),IF(ISNUMBER(S11),IF(S9&gt;S11,1.0,IF(S9=S11,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X9" s="14">
+        <f>IF(AND(ISNUMBER(R9),ISNUMBER(R10)),VLOOKUP(ABS(R9-R10),'IMP Table'!$A$2:$C$26,3)*SIGN(R9-R10),0)</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>IF(AND(ISNUMBER(R9),ISNUMBER(R11)),IF(R9&gt;R11,1,IF(R9=R11,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R9),ISNUMBER(R11)),VLOOKUP(ABS(R9-R11),'IMP Table'!$A$2:$C$26,3)*SIGN(R9-R11),0)</f>
         <v/>
       </c>
       <c r="Z9">
-        <f>IF(AND(ISNUMBER(S9),ISNUMBER(S10)),IF(S9&gt;S10,1,IF(S9=S10,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S9),ISNUMBER(S10)),VLOOKUP(ABS(S9-S10),'IMP Table'!$A$2:$C$26,3)*SIGN(S9-S10),0)</f>
         <v/>
       </c>
       <c r="AA9">
-        <f>IF(AND(ISNUMBER(S9),ISNUMBER(S11)),IF(S9&gt;S11,1,IF(S9=S11,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S9),ISNUMBER(S11)),VLOOKUP(ABS(S9-S11),'IMP Table'!$A$2:$C$26,3)*SIGN(S9-S11),0)</f>
         <v/>
       </c>
     </row>
@@ -1823,7 +1830,7 @@
         <f>'By Round'!D27</f>
         <v/>
       </c>
-      <c r="F10" s="14" t="inlineStr">
+      <c r="F10" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
@@ -1848,31 +1855,31 @@
         <f>IF(ISBLANK('By Round'!K27),"",'By Round'!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="15">
-        <f>IFERROR(AVERAGE(T10:U10),"")</f>
-        <v/>
-      </c>
-      <c r="M10" s="4">
-        <f>IFERROR(AVERAGE(V10:W10),"")</f>
-        <v/>
-      </c>
-      <c r="N10" s="5">
-        <f>P10/2</f>
-        <v/>
-      </c>
-      <c r="O10" s="5">
-        <f>Q10/2</f>
+      <c r="L10" s="12">
+        <f>SUM(X10:Y10)</f>
+        <v/>
+      </c>
+      <c r="M10" s="13">
+        <f>SUM(Z10:AA10)</f>
+        <v/>
+      </c>
+      <c r="N10" s="8">
+        <f>IF(COUNT(T10:U10)&gt;0,P10/COUNT(T10:U10),0.5)</f>
+        <v/>
+      </c>
+      <c r="O10" s="8">
+        <f>IF(COUNT(V10:W10)&gt;0,Q10/COUNT(V10:W10),0.5)</f>
         <v/>
       </c>
       <c r="P10" s="4">
-        <f>IFERROR(SUM(X10:Y10),"")</f>
+        <f>SUM(T10:U10)</f>
         <v/>
       </c>
       <c r="Q10" s="4">
-        <f>IFERROR(SUM(Z10:AA10),"")</f>
-        <v/>
-      </c>
-      <c r="R10" s="16">
+        <f>SUM(V10:W10)</f>
+        <v/>
+      </c>
+      <c r="R10" s="14">
         <f>IF(ISNUMBER(J10),J10,IF(ISNUMBER(K10),-K10,""))</f>
         <v/>
       </c>
@@ -1880,144 +1887,144 @@
         <f>IF(ISNUMBER(K10),K10,IF(ISNUMBER(J10),-J10,""))</f>
         <v/>
       </c>
-      <c r="T10">
-        <f>IF(AND(ISNUMBER(R10),ISNUMBER(R9)),VLOOKUP(ABS(R10-R9),'IMP Table'!$A$2:$C$26,3)*SIGN(R10-R9),"")</f>
+      <c r="T10" s="14">
+        <f>IF(ISNUMBER(R10),IF(ISNUMBER(R9),IF(R10&gt;R9,1.0,IF(R10=R9,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U10">
-        <f>IF(AND(ISNUMBER(R10),ISNUMBER(R11)),VLOOKUP(ABS(R10-R11),'IMP Table'!$A$2:$C$26,3)*SIGN(R10-R11),"")</f>
+        <f>IF(ISNUMBER(R10),IF(ISNUMBER(R11),IF(R10&gt;R11,1.0,IF(R10=R11,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>IF(AND(ISNUMBER(S10),ISNUMBER(S9)),VLOOKUP(ABS(S10-S9),'IMP Table'!$A$2:$C$26,3)*SIGN(S10-S9),"")</f>
+        <f>IF(ISNUMBER(S10),IF(ISNUMBER(S9),IF(S10&gt;S9,1.0,IF(S10=S9,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>IF(AND(ISNUMBER(S10),ISNUMBER(S11)),VLOOKUP(ABS(S10-S11),'IMP Table'!$A$2:$C$26,3)*SIGN(S10-S11),"")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>IF(AND(ISNUMBER(R10),ISNUMBER(R9)),IF(R10&gt;R9,1,IF(R10=R9,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S10),IF(ISNUMBER(S11),IF(S10&gt;S11,1.0,IF(S10=S11,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X10" s="14">
+        <f>IF(AND(ISNUMBER(R10),ISNUMBER(R9)),VLOOKUP(ABS(R10-R9),'IMP Table'!$A$2:$C$26,3)*SIGN(R10-R9),0)</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>IF(AND(ISNUMBER(R10),ISNUMBER(R11)),IF(R10&gt;R11,1,IF(R10=R11,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R10),ISNUMBER(R11)),VLOOKUP(ABS(R10-R11),'IMP Table'!$A$2:$C$26,3)*SIGN(R10-R11),0)</f>
         <v/>
       </c>
       <c r="Z10">
-        <f>IF(AND(ISNUMBER(S10),ISNUMBER(S9)),IF(S10&gt;S9,1,IF(S10=S9,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S10),ISNUMBER(S9)),VLOOKUP(ABS(S10-S9),'IMP Table'!$A$2:$C$26,3)*SIGN(S10-S9),0)</f>
         <v/>
       </c>
       <c r="AA10">
-        <f>IF(AND(ISNUMBER(S10),ISNUMBER(S11)),IF(S10&gt;S11,1,IF(S10=S11,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S10),ISNUMBER(S11)),VLOOKUP(ABS(S10-S11),'IMP Table'!$A$2:$C$26,3)*SIGN(S10-S11),0)</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="n"/>
-      <c r="B11" s="13">
+      <c r="A11" s="15" t="n"/>
+      <c r="B11" s="15">
         <f>'By Round'!A30</f>
         <v/>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="15">
         <f>'By Round'!B36</f>
         <v/>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="15">
         <f>'By Round'!C36</f>
         <v/>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="15">
         <f>'By Round'!D36</f>
         <v/>
       </c>
-      <c r="F11" s="17" t="inlineStr">
+      <c r="F11" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="15">
         <f>IF(ISBLANK('By Round'!G36),"",'By Round'!G36)</f>
         <v/>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="15">
         <f>IF(ISBLANK('By Round'!H36),"",'By Round'!H36)</f>
         <v/>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="15">
         <f>IF(ISBLANK('By Round'!I36),"",'By Round'!I36)</f>
         <v/>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="15">
         <f>IF(ISBLANK('By Round'!J36),"",'By Round'!J36)</f>
         <v/>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="15">
         <f>IF(ISBLANK('By Round'!K36),"",'By Round'!K36)</f>
         <v/>
       </c>
-      <c r="L11" s="18">
-        <f>IFERROR(AVERAGE(T11:U11),"")</f>
-        <v/>
-      </c>
-      <c r="M11" s="19">
-        <f>IFERROR(AVERAGE(V11:W11),"")</f>
-        <v/>
-      </c>
-      <c r="N11" s="20">
-        <f>P11/2</f>
-        <v/>
-      </c>
-      <c r="O11" s="20">
-        <f>Q11/2</f>
-        <v/>
-      </c>
-      <c r="P11" s="19">
-        <f>IFERROR(SUM(X11:Y11),"")</f>
-        <v/>
-      </c>
-      <c r="Q11" s="19">
-        <f>IFERROR(SUM(Z11:AA11),"")</f>
+      <c r="L11" s="17">
+        <f>SUM(X11:Y11)</f>
+        <v/>
+      </c>
+      <c r="M11" s="18">
+        <f>SUM(Z11:AA11)</f>
+        <v/>
+      </c>
+      <c r="N11" s="19">
+        <f>IF(COUNT(T11:U11)&gt;0,P11/COUNT(T11:U11),0.5)</f>
+        <v/>
+      </c>
+      <c r="O11" s="19">
+        <f>IF(COUNT(V11:W11)&gt;0,Q11/COUNT(V11:W11),0.5)</f>
+        <v/>
+      </c>
+      <c r="P11" s="20">
+        <f>SUM(T11:U11)</f>
+        <v/>
+      </c>
+      <c r="Q11" s="20">
+        <f>SUM(V11:W11)</f>
         <v/>
       </c>
       <c r="R11" s="21">
         <f>IF(ISNUMBER(J11),J11,IF(ISNUMBER(K11),-K11,""))</f>
         <v/>
       </c>
-      <c r="S11" s="13">
+      <c r="S11" s="15">
         <f>IF(ISNUMBER(K11),K11,IF(ISNUMBER(J11),-J11,""))</f>
         <v/>
       </c>
-      <c r="T11" s="13">
-        <f>IF(AND(ISNUMBER(R11),ISNUMBER(R9)),VLOOKUP(ABS(R11-R9),'IMP Table'!$A$2:$C$26,3)*SIGN(R11-R9),"")</f>
-        <v/>
-      </c>
-      <c r="U11" s="13">
-        <f>IF(AND(ISNUMBER(R11),ISNUMBER(R10)),VLOOKUP(ABS(R11-R10),'IMP Table'!$A$2:$C$26,3)*SIGN(R11-R10),"")</f>
-        <v/>
-      </c>
-      <c r="V11" s="13">
-        <f>IF(AND(ISNUMBER(S11),ISNUMBER(S9)),VLOOKUP(ABS(S11-S9),'IMP Table'!$A$2:$C$26,3)*SIGN(S11-S9),"")</f>
-        <v/>
-      </c>
-      <c r="W11" s="13">
-        <f>IF(AND(ISNUMBER(S11),ISNUMBER(S10)),VLOOKUP(ABS(S11-S10),'IMP Table'!$A$2:$C$26,3)*SIGN(S11-S10),"")</f>
-        <v/>
-      </c>
-      <c r="X11" s="13">
-        <f>IF(AND(ISNUMBER(R11),ISNUMBER(R9)),IF(R11&gt;R9,1,IF(R11=R9,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Y11" s="13">
-        <f>IF(AND(ISNUMBER(R11),ISNUMBER(R10)),IF(R11&gt;R10,1,IF(R11=R10,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Z11" s="13">
-        <f>IF(AND(ISNUMBER(S11),ISNUMBER(S9)),IF(S11&gt;S9,1,IF(S11=S9,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="AA11" s="13">
-        <f>IF(AND(ISNUMBER(S11),ISNUMBER(S10)),IF(S11&gt;S10,1,IF(S11=S10,0.5,0)),0.5)</f>
+      <c r="T11" s="21">
+        <f>IF(ISNUMBER(R11),IF(ISNUMBER(R9),IF(R11&gt;R9,1.0,IF(R11=R9,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="U11" s="15">
+        <f>IF(ISNUMBER(R11),IF(ISNUMBER(R10),IF(R11&gt;R10,1.0,IF(R11=R10,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="V11" s="15">
+        <f>IF(ISNUMBER(S11),IF(ISNUMBER(S9),IF(S11&gt;S9,1.0,IF(S11=S9,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="W11" s="15">
+        <f>IF(ISNUMBER(S11),IF(ISNUMBER(S10),IF(S11&gt;S10,1.0,IF(S11=S10,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X11" s="21">
+        <f>IF(AND(ISNUMBER(R11),ISNUMBER(R9)),VLOOKUP(ABS(R11-R9),'IMP Table'!$A$2:$C$26,3)*SIGN(R11-R9),0)</f>
+        <v/>
+      </c>
+      <c r="Y11" s="15">
+        <f>IF(AND(ISNUMBER(R11),ISNUMBER(R10)),VLOOKUP(ABS(R11-R10),'IMP Table'!$A$2:$C$26,3)*SIGN(R11-R10),0)</f>
+        <v/>
+      </c>
+      <c r="Z11" s="15">
+        <f>IF(AND(ISNUMBER(S11),ISNUMBER(S9)),VLOOKUP(ABS(S11-S9),'IMP Table'!$A$2:$C$26,3)*SIGN(S11-S9),0)</f>
+        <v/>
+      </c>
+      <c r="AA11" s="15">
+        <f>IF(AND(ISNUMBER(S11),ISNUMBER(S10)),VLOOKUP(ABS(S11-S10),'IMP Table'!$A$2:$C$26,3)*SIGN(S11-S10),0)</f>
         <v/>
       </c>
     </row>
@@ -2041,7 +2048,7 @@
         <f>'By Round'!D6</f>
         <v/>
       </c>
-      <c r="F12" s="14" t="inlineStr">
+      <c r="F12" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
@@ -2066,31 +2073,31 @@
         <f>IF(ISBLANK('By Round'!K6),"",'By Round'!K6)</f>
         <v/>
       </c>
-      <c r="L12" s="15">
-        <f>IFERROR(AVERAGE(T12:U12),"")</f>
-        <v/>
-      </c>
-      <c r="M12" s="4">
-        <f>IFERROR(AVERAGE(V12:W12),"")</f>
-        <v/>
-      </c>
-      <c r="N12" s="5">
-        <f>P12/2</f>
-        <v/>
-      </c>
-      <c r="O12" s="5">
-        <f>Q12/2</f>
+      <c r="L12" s="12">
+        <f>SUM(X12:Y12)</f>
+        <v/>
+      </c>
+      <c r="M12" s="13">
+        <f>SUM(Z12:AA12)</f>
+        <v/>
+      </c>
+      <c r="N12" s="8">
+        <f>IF(COUNT(T12:U12)&gt;0,P12/COUNT(T12:U12),0.5)</f>
+        <v/>
+      </c>
+      <c r="O12" s="8">
+        <f>IF(COUNT(V12:W12)&gt;0,Q12/COUNT(V12:W12),0.5)</f>
         <v/>
       </c>
       <c r="P12" s="4">
-        <f>IFERROR(SUM(X12:Y12),"")</f>
+        <f>SUM(T12:U12)</f>
         <v/>
       </c>
       <c r="Q12" s="4">
-        <f>IFERROR(SUM(Z12:AA12),"")</f>
-        <v/>
-      </c>
-      <c r="R12" s="16">
+        <f>SUM(V12:W12)</f>
+        <v/>
+      </c>
+      <c r="R12" s="14">
         <f>IF(ISNUMBER(J12),J12,IF(ISNUMBER(K12),-K12,""))</f>
         <v/>
       </c>
@@ -2098,36 +2105,36 @@
         <f>IF(ISNUMBER(K12),K12,IF(ISNUMBER(J12),-J12,""))</f>
         <v/>
       </c>
-      <c r="T12">
-        <f>IF(AND(ISNUMBER(R12),ISNUMBER(R13)),VLOOKUP(ABS(R12-R13),'IMP Table'!$A$2:$C$26,3)*SIGN(R12-R13),"")</f>
+      <c r="T12" s="14">
+        <f>IF(ISNUMBER(R12),IF(ISNUMBER(R13),IF(R12&gt;R13,1.0,IF(R12=R13,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U12">
-        <f>IF(AND(ISNUMBER(R12),ISNUMBER(R14)),VLOOKUP(ABS(R12-R14),'IMP Table'!$A$2:$C$26,3)*SIGN(R12-R14),"")</f>
+        <f>IF(ISNUMBER(R12),IF(ISNUMBER(R14),IF(R12&gt;R14,1.0,IF(R12=R14,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>IF(AND(ISNUMBER(S12),ISNUMBER(S13)),VLOOKUP(ABS(S12-S13),'IMP Table'!$A$2:$C$26,3)*SIGN(S12-S13),"")</f>
+        <f>IF(ISNUMBER(S12),IF(ISNUMBER(S13),IF(S12&gt;S13,1.0,IF(S12=S13,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>IF(AND(ISNUMBER(S12),ISNUMBER(S14)),VLOOKUP(ABS(S12-S14),'IMP Table'!$A$2:$C$26,3)*SIGN(S12-S14),"")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>IF(AND(ISNUMBER(R12),ISNUMBER(R13)),IF(R12&gt;R13,1,IF(R12=R13,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S12),IF(ISNUMBER(S14),IF(S12&gt;S14,1.0,IF(S12=S14,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X12" s="14">
+        <f>IF(AND(ISNUMBER(R12),ISNUMBER(R13)),VLOOKUP(ABS(R12-R13),'IMP Table'!$A$2:$C$26,3)*SIGN(R12-R13),0)</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>IF(AND(ISNUMBER(R12),ISNUMBER(R14)),IF(R12&gt;R14,1,IF(R12=R14,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R12),ISNUMBER(R14)),VLOOKUP(ABS(R12-R14),'IMP Table'!$A$2:$C$26,3)*SIGN(R12-R14),0)</f>
         <v/>
       </c>
       <c r="Z12">
-        <f>IF(AND(ISNUMBER(S12),ISNUMBER(S13)),IF(S12&gt;S13,1,IF(S12=S13,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S12),ISNUMBER(S13)),VLOOKUP(ABS(S12-S13),'IMP Table'!$A$2:$C$26,3)*SIGN(S12-S13),0)</f>
         <v/>
       </c>
       <c r="AA12">
-        <f>IF(AND(ISNUMBER(S12),ISNUMBER(S14)),IF(S12&gt;S14,1,IF(S12=S14,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S12),ISNUMBER(S14)),VLOOKUP(ABS(S12-S14),'IMP Table'!$A$2:$C$26,3)*SIGN(S12-S14),0)</f>
         <v/>
       </c>
     </row>
@@ -2148,7 +2155,7 @@
         <f>'By Round'!D12</f>
         <v/>
       </c>
-      <c r="F13" s="14" t="inlineStr">
+      <c r="F13" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
@@ -2173,31 +2180,31 @@
         <f>IF(ISBLANK('By Round'!K12),"",'By Round'!K12)</f>
         <v/>
       </c>
-      <c r="L13" s="15">
-        <f>IFERROR(AVERAGE(T13:U13),"")</f>
-        <v/>
-      </c>
-      <c r="M13" s="4">
-        <f>IFERROR(AVERAGE(V13:W13),"")</f>
-        <v/>
-      </c>
-      <c r="N13" s="5">
-        <f>P13/2</f>
-        <v/>
-      </c>
-      <c r="O13" s="5">
-        <f>Q13/2</f>
+      <c r="L13" s="12">
+        <f>SUM(X13:Y13)</f>
+        <v/>
+      </c>
+      <c r="M13" s="13">
+        <f>SUM(Z13:AA13)</f>
+        <v/>
+      </c>
+      <c r="N13" s="8">
+        <f>IF(COUNT(T13:U13)&gt;0,P13/COUNT(T13:U13),0.5)</f>
+        <v/>
+      </c>
+      <c r="O13" s="8">
+        <f>IF(COUNT(V13:W13)&gt;0,Q13/COUNT(V13:W13),0.5)</f>
         <v/>
       </c>
       <c r="P13" s="4">
-        <f>IFERROR(SUM(X13:Y13),"")</f>
+        <f>SUM(T13:U13)</f>
         <v/>
       </c>
       <c r="Q13" s="4">
-        <f>IFERROR(SUM(Z13:AA13),"")</f>
-        <v/>
-      </c>
-      <c r="R13" s="16">
+        <f>SUM(V13:W13)</f>
+        <v/>
+      </c>
+      <c r="R13" s="14">
         <f>IF(ISNUMBER(J13),J13,IF(ISNUMBER(K13),-K13,""))</f>
         <v/>
       </c>
@@ -2205,144 +2212,144 @@
         <f>IF(ISNUMBER(K13),K13,IF(ISNUMBER(J13),-J13,""))</f>
         <v/>
       </c>
-      <c r="T13">
-        <f>IF(AND(ISNUMBER(R13),ISNUMBER(R12)),VLOOKUP(ABS(R13-R12),'IMP Table'!$A$2:$C$26,3)*SIGN(R13-R12),"")</f>
+      <c r="T13" s="14">
+        <f>IF(ISNUMBER(R13),IF(ISNUMBER(R12),IF(R13&gt;R12,1.0,IF(R13=R12,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U13">
-        <f>IF(AND(ISNUMBER(R13),ISNUMBER(R14)),VLOOKUP(ABS(R13-R14),'IMP Table'!$A$2:$C$26,3)*SIGN(R13-R14),"")</f>
+        <f>IF(ISNUMBER(R13),IF(ISNUMBER(R14),IF(R13&gt;R14,1.0,IF(R13=R14,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>IF(AND(ISNUMBER(S13),ISNUMBER(S12)),VLOOKUP(ABS(S13-S12),'IMP Table'!$A$2:$C$26,3)*SIGN(S13-S12),"")</f>
+        <f>IF(ISNUMBER(S13),IF(ISNUMBER(S12),IF(S13&gt;S12,1.0,IF(S13=S12,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>IF(AND(ISNUMBER(S13),ISNUMBER(S14)),VLOOKUP(ABS(S13-S14),'IMP Table'!$A$2:$C$26,3)*SIGN(S13-S14),"")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>IF(AND(ISNUMBER(R13),ISNUMBER(R12)),IF(R13&gt;R12,1,IF(R13=R12,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S13),IF(ISNUMBER(S14),IF(S13&gt;S14,1.0,IF(S13=S14,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X13" s="14">
+        <f>IF(AND(ISNUMBER(R13),ISNUMBER(R12)),VLOOKUP(ABS(R13-R12),'IMP Table'!$A$2:$C$26,3)*SIGN(R13-R12),0)</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>IF(AND(ISNUMBER(R13),ISNUMBER(R14)),IF(R13&gt;R14,1,IF(R13=R14,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R13),ISNUMBER(R14)),VLOOKUP(ABS(R13-R14),'IMP Table'!$A$2:$C$26,3)*SIGN(R13-R14),0)</f>
         <v/>
       </c>
       <c r="Z13">
-        <f>IF(AND(ISNUMBER(S13),ISNUMBER(S12)),IF(S13&gt;S12,1,IF(S13=S12,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S13),ISNUMBER(S12)),VLOOKUP(ABS(S13-S12),'IMP Table'!$A$2:$C$26,3)*SIGN(S13-S12),0)</f>
         <v/>
       </c>
       <c r="AA13">
-        <f>IF(AND(ISNUMBER(S13),ISNUMBER(S14)),IF(S13&gt;S14,1,IF(S13=S14,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S13),ISNUMBER(S14)),VLOOKUP(ABS(S13-S14),'IMP Table'!$A$2:$C$26,3)*SIGN(S13-S14),0)</f>
         <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="n"/>
-      <c r="B14" s="13">
+      <c r="A14" s="15" t="n"/>
+      <c r="B14" s="15">
         <f>'By Round'!A21</f>
         <v/>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="15">
         <f>'By Round'!B24</f>
         <v/>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="15">
         <f>'By Round'!C24</f>
         <v/>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="15">
         <f>'By Round'!D24</f>
         <v/>
       </c>
-      <c r="F14" s="17" t="inlineStr">
+      <c r="F14" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="15">
         <f>IF(ISBLANK('By Round'!G24),"",'By Round'!G24)</f>
         <v/>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="15">
         <f>IF(ISBLANK('By Round'!H24),"",'By Round'!H24)</f>
         <v/>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="15">
         <f>IF(ISBLANK('By Round'!I24),"",'By Round'!I24)</f>
         <v/>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="15">
         <f>IF(ISBLANK('By Round'!J24),"",'By Round'!J24)</f>
         <v/>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="15">
         <f>IF(ISBLANK('By Round'!K24),"",'By Round'!K24)</f>
         <v/>
       </c>
-      <c r="L14" s="18">
-        <f>IFERROR(AVERAGE(T14:U14),"")</f>
-        <v/>
-      </c>
-      <c r="M14" s="19">
-        <f>IFERROR(AVERAGE(V14:W14),"")</f>
-        <v/>
-      </c>
-      <c r="N14" s="20">
-        <f>P14/2</f>
-        <v/>
-      </c>
-      <c r="O14" s="20">
-        <f>Q14/2</f>
-        <v/>
-      </c>
-      <c r="P14" s="19">
-        <f>IFERROR(SUM(X14:Y14),"")</f>
-        <v/>
-      </c>
-      <c r="Q14" s="19">
-        <f>IFERROR(SUM(Z14:AA14),"")</f>
+      <c r="L14" s="17">
+        <f>SUM(X14:Y14)</f>
+        <v/>
+      </c>
+      <c r="M14" s="18">
+        <f>SUM(Z14:AA14)</f>
+        <v/>
+      </c>
+      <c r="N14" s="19">
+        <f>IF(COUNT(T14:U14)&gt;0,P14/COUNT(T14:U14),0.5)</f>
+        <v/>
+      </c>
+      <c r="O14" s="19">
+        <f>IF(COUNT(V14:W14)&gt;0,Q14/COUNT(V14:W14),0.5)</f>
+        <v/>
+      </c>
+      <c r="P14" s="20">
+        <f>SUM(T14:U14)</f>
+        <v/>
+      </c>
+      <c r="Q14" s="20">
+        <f>SUM(V14:W14)</f>
         <v/>
       </c>
       <c r="R14" s="21">
         <f>IF(ISNUMBER(J14),J14,IF(ISNUMBER(K14),-K14,""))</f>
         <v/>
       </c>
-      <c r="S14" s="13">
+      <c r="S14" s="15">
         <f>IF(ISNUMBER(K14),K14,IF(ISNUMBER(J14),-J14,""))</f>
         <v/>
       </c>
-      <c r="T14" s="13">
-        <f>IF(AND(ISNUMBER(R14),ISNUMBER(R12)),VLOOKUP(ABS(R14-R12),'IMP Table'!$A$2:$C$26,3)*SIGN(R14-R12),"")</f>
-        <v/>
-      </c>
-      <c r="U14" s="13">
-        <f>IF(AND(ISNUMBER(R14),ISNUMBER(R13)),VLOOKUP(ABS(R14-R13),'IMP Table'!$A$2:$C$26,3)*SIGN(R14-R13),"")</f>
-        <v/>
-      </c>
-      <c r="V14" s="13">
-        <f>IF(AND(ISNUMBER(S14),ISNUMBER(S12)),VLOOKUP(ABS(S14-S12),'IMP Table'!$A$2:$C$26,3)*SIGN(S14-S12),"")</f>
-        <v/>
-      </c>
-      <c r="W14" s="13">
-        <f>IF(AND(ISNUMBER(S14),ISNUMBER(S13)),VLOOKUP(ABS(S14-S13),'IMP Table'!$A$2:$C$26,3)*SIGN(S14-S13),"")</f>
-        <v/>
-      </c>
-      <c r="X14" s="13">
-        <f>IF(AND(ISNUMBER(R14),ISNUMBER(R12)),IF(R14&gt;R12,1,IF(R14=R12,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Y14" s="13">
-        <f>IF(AND(ISNUMBER(R14),ISNUMBER(R13)),IF(R14&gt;R13,1,IF(R14=R13,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Z14" s="13">
-        <f>IF(AND(ISNUMBER(S14),ISNUMBER(S12)),IF(S14&gt;S12,1,IF(S14=S12,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="AA14" s="13">
-        <f>IF(AND(ISNUMBER(S14),ISNUMBER(S13)),IF(S14&gt;S13,1,IF(S14=S13,0.5,0)),0.5)</f>
+      <c r="T14" s="21">
+        <f>IF(ISNUMBER(R14),IF(ISNUMBER(R12),IF(R14&gt;R12,1.0,IF(R14=R12,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="U14" s="15">
+        <f>IF(ISNUMBER(R14),IF(ISNUMBER(R13),IF(R14&gt;R13,1.0,IF(R14=R13,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="V14" s="15">
+        <f>IF(ISNUMBER(S14),IF(ISNUMBER(S12),IF(S14&gt;S12,1.0,IF(S14=S12,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="W14" s="15">
+        <f>IF(ISNUMBER(S14),IF(ISNUMBER(S13),IF(S14&gt;S13,1.0,IF(S14=S13,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X14" s="21">
+        <f>IF(AND(ISNUMBER(R14),ISNUMBER(R12)),VLOOKUP(ABS(R14-R12),'IMP Table'!$A$2:$C$26,3)*SIGN(R14-R12),0)</f>
+        <v/>
+      </c>
+      <c r="Y14" s="15">
+        <f>IF(AND(ISNUMBER(R14),ISNUMBER(R13)),VLOOKUP(ABS(R14-R13),'IMP Table'!$A$2:$C$26,3)*SIGN(R14-R13),0)</f>
+        <v/>
+      </c>
+      <c r="Z14" s="15">
+        <f>IF(AND(ISNUMBER(S14),ISNUMBER(S12)),VLOOKUP(ABS(S14-S12),'IMP Table'!$A$2:$C$26,3)*SIGN(S14-S12),0)</f>
+        <v/>
+      </c>
+      <c r="AA14" s="15">
+        <f>IF(AND(ISNUMBER(S14),ISNUMBER(S13)),VLOOKUP(ABS(S14-S13),'IMP Table'!$A$2:$C$26,3)*SIGN(S14-S13),0)</f>
         <v/>
       </c>
     </row>
@@ -2366,7 +2373,7 @@
         <f>'By Round'!D6</f>
         <v/>
       </c>
-      <c r="F15" s="14" t="inlineStr">
+      <c r="F15" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
@@ -2391,31 +2398,31 @@
         <f>IF(ISBLANK('By Round'!K6),"",'By Round'!K6)</f>
         <v/>
       </c>
-      <c r="L15" s="15">
-        <f>IFERROR(AVERAGE(T15:U15),"")</f>
-        <v/>
-      </c>
-      <c r="M15" s="4">
-        <f>IFERROR(AVERAGE(V15:W15),"")</f>
-        <v/>
-      </c>
-      <c r="N15" s="5">
-        <f>P15/2</f>
-        <v/>
-      </c>
-      <c r="O15" s="5">
-        <f>Q15/2</f>
+      <c r="L15" s="12">
+        <f>SUM(X15:Y15)</f>
+        <v/>
+      </c>
+      <c r="M15" s="13">
+        <f>SUM(Z15:AA15)</f>
+        <v/>
+      </c>
+      <c r="N15" s="8">
+        <f>IF(COUNT(T15:U15)&gt;0,P15/COUNT(T15:U15),0.5)</f>
+        <v/>
+      </c>
+      <c r="O15" s="8">
+        <f>IF(COUNT(V15:W15)&gt;0,Q15/COUNT(V15:W15),0.5)</f>
         <v/>
       </c>
       <c r="P15" s="4">
-        <f>IFERROR(SUM(X15:Y15),"")</f>
+        <f>SUM(T15:U15)</f>
         <v/>
       </c>
       <c r="Q15" s="4">
-        <f>IFERROR(SUM(Z15:AA15),"")</f>
-        <v/>
-      </c>
-      <c r="R15" s="16">
+        <f>SUM(V15:W15)</f>
+        <v/>
+      </c>
+      <c r="R15" s="14">
         <f>IF(ISNUMBER(J15),J15,IF(ISNUMBER(K15),-K15,""))</f>
         <v/>
       </c>
@@ -2423,36 +2430,36 @@
         <f>IF(ISNUMBER(K15),K15,IF(ISNUMBER(J15),-J15,""))</f>
         <v/>
       </c>
-      <c r="T15">
-        <f>IF(AND(ISNUMBER(R15),ISNUMBER(R16)),VLOOKUP(ABS(R15-R16),'IMP Table'!$A$2:$C$26,3)*SIGN(R15-R16),"")</f>
+      <c r="T15" s="14">
+        <f>IF(ISNUMBER(R15),IF(ISNUMBER(R16),IF(R15&gt;R16,1.0,IF(R15=R16,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U15">
-        <f>IF(AND(ISNUMBER(R15),ISNUMBER(R17)),VLOOKUP(ABS(R15-R17),'IMP Table'!$A$2:$C$26,3)*SIGN(R15-R17),"")</f>
+        <f>IF(ISNUMBER(R15),IF(ISNUMBER(R17),IF(R15&gt;R17,1.0,IF(R15=R17,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>IF(AND(ISNUMBER(S15),ISNUMBER(S16)),VLOOKUP(ABS(S15-S16),'IMP Table'!$A$2:$C$26,3)*SIGN(S15-S16),"")</f>
+        <f>IF(ISNUMBER(S15),IF(ISNUMBER(S16),IF(S15&gt;S16,1.0,IF(S15=S16,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>IF(AND(ISNUMBER(S15),ISNUMBER(S17)),VLOOKUP(ABS(S15-S17),'IMP Table'!$A$2:$C$26,3)*SIGN(S15-S17),"")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>IF(AND(ISNUMBER(R15),ISNUMBER(R16)),IF(R15&gt;R16,1,IF(R15=R16,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S15),IF(ISNUMBER(S17),IF(S15&gt;S17,1.0,IF(S15=S17,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X15" s="14">
+        <f>IF(AND(ISNUMBER(R15),ISNUMBER(R16)),VLOOKUP(ABS(R15-R16),'IMP Table'!$A$2:$C$26,3)*SIGN(R15-R16),0)</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>IF(AND(ISNUMBER(R15),ISNUMBER(R17)),IF(R15&gt;R17,1,IF(R15=R17,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R15),ISNUMBER(R17)),VLOOKUP(ABS(R15-R17),'IMP Table'!$A$2:$C$26,3)*SIGN(R15-R17),0)</f>
         <v/>
       </c>
       <c r="Z15">
-        <f>IF(AND(ISNUMBER(S15),ISNUMBER(S16)),IF(S15&gt;S16,1,IF(S15=S16,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S15),ISNUMBER(S16)),VLOOKUP(ABS(S15-S16),'IMP Table'!$A$2:$C$26,3)*SIGN(S15-S16),0)</f>
         <v/>
       </c>
       <c r="AA15">
-        <f>IF(AND(ISNUMBER(S15),ISNUMBER(S17)),IF(S15&gt;S17,1,IF(S15=S17,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S15),ISNUMBER(S17)),VLOOKUP(ABS(S15-S17),'IMP Table'!$A$2:$C$26,3)*SIGN(S15-S17),0)</f>
         <v/>
       </c>
     </row>
@@ -2473,7 +2480,7 @@
         <f>'By Round'!D12</f>
         <v/>
       </c>
-      <c r="F16" s="14" t="inlineStr">
+      <c r="F16" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
@@ -2498,31 +2505,31 @@
         <f>IF(ISBLANK('By Round'!K12),"",'By Round'!K12)</f>
         <v/>
       </c>
-      <c r="L16" s="15">
-        <f>IFERROR(AVERAGE(T16:U16),"")</f>
-        <v/>
-      </c>
-      <c r="M16" s="4">
-        <f>IFERROR(AVERAGE(V16:W16),"")</f>
-        <v/>
-      </c>
-      <c r="N16" s="5">
-        <f>P16/2</f>
-        <v/>
-      </c>
-      <c r="O16" s="5">
-        <f>Q16/2</f>
+      <c r="L16" s="12">
+        <f>SUM(X16:Y16)</f>
+        <v/>
+      </c>
+      <c r="M16" s="13">
+        <f>SUM(Z16:AA16)</f>
+        <v/>
+      </c>
+      <c r="N16" s="8">
+        <f>IF(COUNT(T16:U16)&gt;0,P16/COUNT(T16:U16),0.5)</f>
+        <v/>
+      </c>
+      <c r="O16" s="8">
+        <f>IF(COUNT(V16:W16)&gt;0,Q16/COUNT(V16:W16),0.5)</f>
         <v/>
       </c>
       <c r="P16" s="4">
-        <f>IFERROR(SUM(X16:Y16),"")</f>
+        <f>SUM(T16:U16)</f>
         <v/>
       </c>
       <c r="Q16" s="4">
-        <f>IFERROR(SUM(Z16:AA16),"")</f>
-        <v/>
-      </c>
-      <c r="R16" s="16">
+        <f>SUM(V16:W16)</f>
+        <v/>
+      </c>
+      <c r="R16" s="14">
         <f>IF(ISNUMBER(J16),J16,IF(ISNUMBER(K16),-K16,""))</f>
         <v/>
       </c>
@@ -2530,144 +2537,144 @@
         <f>IF(ISNUMBER(K16),K16,IF(ISNUMBER(J16),-J16,""))</f>
         <v/>
       </c>
-      <c r="T16">
-        <f>IF(AND(ISNUMBER(R16),ISNUMBER(R15)),VLOOKUP(ABS(R16-R15),'IMP Table'!$A$2:$C$26,3)*SIGN(R16-R15),"")</f>
+      <c r="T16" s="14">
+        <f>IF(ISNUMBER(R16),IF(ISNUMBER(R15),IF(R16&gt;R15,1.0,IF(R16=R15,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U16">
-        <f>IF(AND(ISNUMBER(R16),ISNUMBER(R17)),VLOOKUP(ABS(R16-R17),'IMP Table'!$A$2:$C$26,3)*SIGN(R16-R17),"")</f>
+        <f>IF(ISNUMBER(R16),IF(ISNUMBER(R17),IF(R16&gt;R17,1.0,IF(R16=R17,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>IF(AND(ISNUMBER(S16),ISNUMBER(S15)),VLOOKUP(ABS(S16-S15),'IMP Table'!$A$2:$C$26,3)*SIGN(S16-S15),"")</f>
+        <f>IF(ISNUMBER(S16),IF(ISNUMBER(S15),IF(S16&gt;S15,1.0,IF(S16=S15,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>IF(AND(ISNUMBER(S16),ISNUMBER(S17)),VLOOKUP(ABS(S16-S17),'IMP Table'!$A$2:$C$26,3)*SIGN(S16-S17),"")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>IF(AND(ISNUMBER(R16),ISNUMBER(R15)),IF(R16&gt;R15,1,IF(R16=R15,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S16),IF(ISNUMBER(S17),IF(S16&gt;S17,1.0,IF(S16=S17,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X16" s="14">
+        <f>IF(AND(ISNUMBER(R16),ISNUMBER(R15)),VLOOKUP(ABS(R16-R15),'IMP Table'!$A$2:$C$26,3)*SIGN(R16-R15),0)</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>IF(AND(ISNUMBER(R16),ISNUMBER(R17)),IF(R16&gt;R17,1,IF(R16=R17,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R16),ISNUMBER(R17)),VLOOKUP(ABS(R16-R17),'IMP Table'!$A$2:$C$26,3)*SIGN(R16-R17),0)</f>
         <v/>
       </c>
       <c r="Z16">
-        <f>IF(AND(ISNUMBER(S16),ISNUMBER(S15)),IF(S16&gt;S15,1,IF(S16=S15,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S16),ISNUMBER(S15)),VLOOKUP(ABS(S16-S15),'IMP Table'!$A$2:$C$26,3)*SIGN(S16-S15),0)</f>
         <v/>
       </c>
       <c r="AA16">
-        <f>IF(AND(ISNUMBER(S16),ISNUMBER(S17)),IF(S16&gt;S17,1,IF(S16=S17,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S16),ISNUMBER(S17)),VLOOKUP(ABS(S16-S17),'IMP Table'!$A$2:$C$26,3)*SIGN(S16-S17),0)</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="n"/>
-      <c r="B17" s="13">
+      <c r="A17" s="15" t="n"/>
+      <c r="B17" s="15">
         <f>'By Round'!A21</f>
         <v/>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="15">
         <f>'By Round'!B24</f>
         <v/>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="15">
         <f>'By Round'!C24</f>
         <v/>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="15">
         <f>'By Round'!D24</f>
         <v/>
       </c>
-      <c r="F17" s="17" t="inlineStr">
+      <c r="F17" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="15">
         <f>IF(ISBLANK('By Round'!G24),"",'By Round'!G24)</f>
         <v/>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="15">
         <f>IF(ISBLANK('By Round'!H24),"",'By Round'!H24)</f>
         <v/>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="15">
         <f>IF(ISBLANK('By Round'!I24),"",'By Round'!I24)</f>
         <v/>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="15">
         <f>IF(ISBLANK('By Round'!J24),"",'By Round'!J24)</f>
         <v/>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="15">
         <f>IF(ISBLANK('By Round'!K24),"",'By Round'!K24)</f>
         <v/>
       </c>
-      <c r="L17" s="18">
-        <f>IFERROR(AVERAGE(T17:U17),"")</f>
-        <v/>
-      </c>
-      <c r="M17" s="19">
-        <f>IFERROR(AVERAGE(V17:W17),"")</f>
-        <v/>
-      </c>
-      <c r="N17" s="20">
-        <f>P17/2</f>
-        <v/>
-      </c>
-      <c r="O17" s="20">
-        <f>Q17/2</f>
-        <v/>
-      </c>
-      <c r="P17" s="19">
-        <f>IFERROR(SUM(X17:Y17),"")</f>
-        <v/>
-      </c>
-      <c r="Q17" s="19">
-        <f>IFERROR(SUM(Z17:AA17),"")</f>
+      <c r="L17" s="17">
+        <f>SUM(X17:Y17)</f>
+        <v/>
+      </c>
+      <c r="M17" s="18">
+        <f>SUM(Z17:AA17)</f>
+        <v/>
+      </c>
+      <c r="N17" s="19">
+        <f>IF(COUNT(T17:U17)&gt;0,P17/COUNT(T17:U17),0.5)</f>
+        <v/>
+      </c>
+      <c r="O17" s="19">
+        <f>IF(COUNT(V17:W17)&gt;0,Q17/COUNT(V17:W17),0.5)</f>
+        <v/>
+      </c>
+      <c r="P17" s="20">
+        <f>SUM(T17:U17)</f>
+        <v/>
+      </c>
+      <c r="Q17" s="20">
+        <f>SUM(V17:W17)</f>
         <v/>
       </c>
       <c r="R17" s="21">
         <f>IF(ISNUMBER(J17),J17,IF(ISNUMBER(K17),-K17,""))</f>
         <v/>
       </c>
-      <c r="S17" s="13">
+      <c r="S17" s="15">
         <f>IF(ISNUMBER(K17),K17,IF(ISNUMBER(J17),-J17,""))</f>
         <v/>
       </c>
-      <c r="T17" s="13">
-        <f>IF(AND(ISNUMBER(R17),ISNUMBER(R15)),VLOOKUP(ABS(R17-R15),'IMP Table'!$A$2:$C$26,3)*SIGN(R17-R15),"")</f>
-        <v/>
-      </c>
-      <c r="U17" s="13">
-        <f>IF(AND(ISNUMBER(R17),ISNUMBER(R16)),VLOOKUP(ABS(R17-R16),'IMP Table'!$A$2:$C$26,3)*SIGN(R17-R16),"")</f>
-        <v/>
-      </c>
-      <c r="V17" s="13">
-        <f>IF(AND(ISNUMBER(S17),ISNUMBER(S15)),VLOOKUP(ABS(S17-S15),'IMP Table'!$A$2:$C$26,3)*SIGN(S17-S15),"")</f>
-        <v/>
-      </c>
-      <c r="W17" s="13">
-        <f>IF(AND(ISNUMBER(S17),ISNUMBER(S16)),VLOOKUP(ABS(S17-S16),'IMP Table'!$A$2:$C$26,3)*SIGN(S17-S16),"")</f>
-        <v/>
-      </c>
-      <c r="X17" s="13">
-        <f>IF(AND(ISNUMBER(R17),ISNUMBER(R15)),IF(R17&gt;R15,1,IF(R17=R15,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Y17" s="13">
-        <f>IF(AND(ISNUMBER(R17),ISNUMBER(R16)),IF(R17&gt;R16,1,IF(R17=R16,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Z17" s="13">
-        <f>IF(AND(ISNUMBER(S17),ISNUMBER(S15)),IF(S17&gt;S15,1,IF(S17=S15,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="AA17" s="13">
-        <f>IF(AND(ISNUMBER(S17),ISNUMBER(S16)),IF(S17&gt;S16,1,IF(S17=S16,0.5,0)),0.5)</f>
+      <c r="T17" s="21">
+        <f>IF(ISNUMBER(R17),IF(ISNUMBER(R15),IF(R17&gt;R15,1.0,IF(R17=R15,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="U17" s="15">
+        <f>IF(ISNUMBER(R17),IF(ISNUMBER(R16),IF(R17&gt;R16,1.0,IF(R17=R16,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="V17" s="15">
+        <f>IF(ISNUMBER(S17),IF(ISNUMBER(S15),IF(S17&gt;S15,1.0,IF(S17=S15,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="W17" s="15">
+        <f>IF(ISNUMBER(S17),IF(ISNUMBER(S16),IF(S17&gt;S16,1.0,IF(S17=S16,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X17" s="21">
+        <f>IF(AND(ISNUMBER(R17),ISNUMBER(R15)),VLOOKUP(ABS(R17-R15),'IMP Table'!$A$2:$C$26,3)*SIGN(R17-R15),0)</f>
+        <v/>
+      </c>
+      <c r="Y17" s="15">
+        <f>IF(AND(ISNUMBER(R17),ISNUMBER(R16)),VLOOKUP(ABS(R17-R16),'IMP Table'!$A$2:$C$26,3)*SIGN(R17-R16),0)</f>
+        <v/>
+      </c>
+      <c r="Z17" s="15">
+        <f>IF(AND(ISNUMBER(S17),ISNUMBER(S15)),VLOOKUP(ABS(S17-S15),'IMP Table'!$A$2:$C$26,3)*SIGN(S17-S15),0)</f>
+        <v/>
+      </c>
+      <c r="AA17" s="15">
+        <f>IF(AND(ISNUMBER(S17),ISNUMBER(S16)),VLOOKUP(ABS(S17-S16),'IMP Table'!$A$2:$C$26,3)*SIGN(S17-S16),0)</f>
         <v/>
       </c>
     </row>
@@ -2691,7 +2698,7 @@
         <f>'By Round'!D6</f>
         <v/>
       </c>
-      <c r="F18" s="14" t="inlineStr">
+      <c r="F18" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
@@ -2716,31 +2723,31 @@
         <f>IF(ISBLANK('By Round'!K6),"",'By Round'!K6)</f>
         <v/>
       </c>
-      <c r="L18" s="15">
-        <f>IFERROR(AVERAGE(T18:U18),"")</f>
-        <v/>
-      </c>
-      <c r="M18" s="4">
-        <f>IFERROR(AVERAGE(V18:W18),"")</f>
-        <v/>
-      </c>
-      <c r="N18" s="5">
-        <f>P18/2</f>
-        <v/>
-      </c>
-      <c r="O18" s="5">
-        <f>Q18/2</f>
+      <c r="L18" s="12">
+        <f>SUM(X18:Y18)</f>
+        <v/>
+      </c>
+      <c r="M18" s="13">
+        <f>SUM(Z18:AA18)</f>
+        <v/>
+      </c>
+      <c r="N18" s="8">
+        <f>IF(COUNT(T18:U18)&gt;0,P18/COUNT(T18:U18),0.5)</f>
+        <v/>
+      </c>
+      <c r="O18" s="8">
+        <f>IF(COUNT(V18:W18)&gt;0,Q18/COUNT(V18:W18),0.5)</f>
         <v/>
       </c>
       <c r="P18" s="4">
-        <f>IFERROR(SUM(X18:Y18),"")</f>
+        <f>SUM(T18:U18)</f>
         <v/>
       </c>
       <c r="Q18" s="4">
-        <f>IFERROR(SUM(Z18:AA18),"")</f>
-        <v/>
-      </c>
-      <c r="R18" s="16">
+        <f>SUM(V18:W18)</f>
+        <v/>
+      </c>
+      <c r="R18" s="14">
         <f>IF(ISNUMBER(J18),J18,IF(ISNUMBER(K18),-K18,""))</f>
         <v/>
       </c>
@@ -2748,36 +2755,36 @@
         <f>IF(ISNUMBER(K18),K18,IF(ISNUMBER(J18),-J18,""))</f>
         <v/>
       </c>
-      <c r="T18">
-        <f>IF(AND(ISNUMBER(R18),ISNUMBER(R19)),VLOOKUP(ABS(R18-R19),'IMP Table'!$A$2:$C$26,3)*SIGN(R18-R19),"")</f>
+      <c r="T18" s="14">
+        <f>IF(ISNUMBER(R18),IF(ISNUMBER(R19),IF(R18&gt;R19,1.0,IF(R18=R19,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U18">
-        <f>IF(AND(ISNUMBER(R18),ISNUMBER(R20)),VLOOKUP(ABS(R18-R20),'IMP Table'!$A$2:$C$26,3)*SIGN(R18-R20),"")</f>
+        <f>IF(ISNUMBER(R18),IF(ISNUMBER(R20),IF(R18&gt;R20,1.0,IF(R18=R20,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>IF(AND(ISNUMBER(S18),ISNUMBER(S19)),VLOOKUP(ABS(S18-S19),'IMP Table'!$A$2:$C$26,3)*SIGN(S18-S19),"")</f>
+        <f>IF(ISNUMBER(S18),IF(ISNUMBER(S19),IF(S18&gt;S19,1.0,IF(S18=S19,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>IF(AND(ISNUMBER(S18),ISNUMBER(S20)),VLOOKUP(ABS(S18-S20),'IMP Table'!$A$2:$C$26,3)*SIGN(S18-S20),"")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>IF(AND(ISNUMBER(R18),ISNUMBER(R19)),IF(R18&gt;R19,1,IF(R18=R19,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S18),IF(ISNUMBER(S20),IF(S18&gt;S20,1.0,IF(S18=S20,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X18" s="14">
+        <f>IF(AND(ISNUMBER(R18),ISNUMBER(R19)),VLOOKUP(ABS(R18-R19),'IMP Table'!$A$2:$C$26,3)*SIGN(R18-R19),0)</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>IF(AND(ISNUMBER(R18),ISNUMBER(R20)),IF(R18&gt;R20,1,IF(R18=R20,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R18),ISNUMBER(R20)),VLOOKUP(ABS(R18-R20),'IMP Table'!$A$2:$C$26,3)*SIGN(R18-R20),0)</f>
         <v/>
       </c>
       <c r="Z18">
-        <f>IF(AND(ISNUMBER(S18),ISNUMBER(S19)),IF(S18&gt;S19,1,IF(S18=S19,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S18),ISNUMBER(S19)),VLOOKUP(ABS(S18-S19),'IMP Table'!$A$2:$C$26,3)*SIGN(S18-S19),0)</f>
         <v/>
       </c>
       <c r="AA18">
-        <f>IF(AND(ISNUMBER(S18),ISNUMBER(S20)),IF(S18&gt;S20,1,IF(S18=S20,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S18),ISNUMBER(S20)),VLOOKUP(ABS(S18-S20),'IMP Table'!$A$2:$C$26,3)*SIGN(S18-S20),0)</f>
         <v/>
       </c>
     </row>
@@ -2798,7 +2805,7 @@
         <f>'By Round'!D12</f>
         <v/>
       </c>
-      <c r="F19" s="14" t="inlineStr">
+      <c r="F19" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
@@ -2823,31 +2830,31 @@
         <f>IF(ISBLANK('By Round'!K12),"",'By Round'!K12)</f>
         <v/>
       </c>
-      <c r="L19" s="15">
-        <f>IFERROR(AVERAGE(T19:U19),"")</f>
-        <v/>
-      </c>
-      <c r="M19" s="4">
-        <f>IFERROR(AVERAGE(V19:W19),"")</f>
-        <v/>
-      </c>
-      <c r="N19" s="5">
-        <f>P19/2</f>
-        <v/>
-      </c>
-      <c r="O19" s="5">
-        <f>Q19/2</f>
+      <c r="L19" s="12">
+        <f>SUM(X19:Y19)</f>
+        <v/>
+      </c>
+      <c r="M19" s="13">
+        <f>SUM(Z19:AA19)</f>
+        <v/>
+      </c>
+      <c r="N19" s="8">
+        <f>IF(COUNT(T19:U19)&gt;0,P19/COUNT(T19:U19),0.5)</f>
+        <v/>
+      </c>
+      <c r="O19" s="8">
+        <f>IF(COUNT(V19:W19)&gt;0,Q19/COUNT(V19:W19),0.5)</f>
         <v/>
       </c>
       <c r="P19" s="4">
-        <f>IFERROR(SUM(X19:Y19),"")</f>
+        <f>SUM(T19:U19)</f>
         <v/>
       </c>
       <c r="Q19" s="4">
-        <f>IFERROR(SUM(Z19:AA19),"")</f>
-        <v/>
-      </c>
-      <c r="R19" s="16">
+        <f>SUM(V19:W19)</f>
+        <v/>
+      </c>
+      <c r="R19" s="14">
         <f>IF(ISNUMBER(J19),J19,IF(ISNUMBER(K19),-K19,""))</f>
         <v/>
       </c>
@@ -2855,144 +2862,144 @@
         <f>IF(ISNUMBER(K19),K19,IF(ISNUMBER(J19),-J19,""))</f>
         <v/>
       </c>
-      <c r="T19">
-        <f>IF(AND(ISNUMBER(R19),ISNUMBER(R18)),VLOOKUP(ABS(R19-R18),'IMP Table'!$A$2:$C$26,3)*SIGN(R19-R18),"")</f>
+      <c r="T19" s="14">
+        <f>IF(ISNUMBER(R19),IF(ISNUMBER(R18),IF(R19&gt;R18,1.0,IF(R19=R18,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U19">
-        <f>IF(AND(ISNUMBER(R19),ISNUMBER(R20)),VLOOKUP(ABS(R19-R20),'IMP Table'!$A$2:$C$26,3)*SIGN(R19-R20),"")</f>
+        <f>IF(ISNUMBER(R19),IF(ISNUMBER(R20),IF(R19&gt;R20,1.0,IF(R19=R20,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>IF(AND(ISNUMBER(S19),ISNUMBER(S18)),VLOOKUP(ABS(S19-S18),'IMP Table'!$A$2:$C$26,3)*SIGN(S19-S18),"")</f>
+        <f>IF(ISNUMBER(S19),IF(ISNUMBER(S18),IF(S19&gt;S18,1.0,IF(S19=S18,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>IF(AND(ISNUMBER(S19),ISNUMBER(S20)),VLOOKUP(ABS(S19-S20),'IMP Table'!$A$2:$C$26,3)*SIGN(S19-S20),"")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>IF(AND(ISNUMBER(R19),ISNUMBER(R18)),IF(R19&gt;R18,1,IF(R19=R18,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S19),IF(ISNUMBER(S20),IF(S19&gt;S20,1.0,IF(S19=S20,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X19" s="14">
+        <f>IF(AND(ISNUMBER(R19),ISNUMBER(R18)),VLOOKUP(ABS(R19-R18),'IMP Table'!$A$2:$C$26,3)*SIGN(R19-R18),0)</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>IF(AND(ISNUMBER(R19),ISNUMBER(R20)),IF(R19&gt;R20,1,IF(R19=R20,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R19),ISNUMBER(R20)),VLOOKUP(ABS(R19-R20),'IMP Table'!$A$2:$C$26,3)*SIGN(R19-R20),0)</f>
         <v/>
       </c>
       <c r="Z19">
-        <f>IF(AND(ISNUMBER(S19),ISNUMBER(S18)),IF(S19&gt;S18,1,IF(S19=S18,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S19),ISNUMBER(S18)),VLOOKUP(ABS(S19-S18),'IMP Table'!$A$2:$C$26,3)*SIGN(S19-S18),0)</f>
         <v/>
       </c>
       <c r="AA19">
-        <f>IF(AND(ISNUMBER(S19),ISNUMBER(S20)),IF(S19&gt;S20,1,IF(S19=S20,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S19),ISNUMBER(S20)),VLOOKUP(ABS(S19-S20),'IMP Table'!$A$2:$C$26,3)*SIGN(S19-S20),0)</f>
         <v/>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="13" t="n"/>
-      <c r="B20" s="13">
+      <c r="A20" s="15" t="n"/>
+      <c r="B20" s="15">
         <f>'By Round'!A21</f>
         <v/>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="15">
         <f>'By Round'!B24</f>
         <v/>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="15">
         <f>'By Round'!C24</f>
         <v/>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="15">
         <f>'By Round'!D24</f>
         <v/>
       </c>
-      <c r="F20" s="17" t="inlineStr">
+      <c r="F20" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="15">
         <f>IF(ISBLANK('By Round'!G24),"",'By Round'!G24)</f>
         <v/>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="15">
         <f>IF(ISBLANK('By Round'!H24),"",'By Round'!H24)</f>
         <v/>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="15">
         <f>IF(ISBLANK('By Round'!I24),"",'By Round'!I24)</f>
         <v/>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="15">
         <f>IF(ISBLANK('By Round'!J24),"",'By Round'!J24)</f>
         <v/>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="15">
         <f>IF(ISBLANK('By Round'!K24),"",'By Round'!K24)</f>
         <v/>
       </c>
-      <c r="L20" s="18">
-        <f>IFERROR(AVERAGE(T20:U20),"")</f>
-        <v/>
-      </c>
-      <c r="M20" s="19">
-        <f>IFERROR(AVERAGE(V20:W20),"")</f>
-        <v/>
-      </c>
-      <c r="N20" s="20">
-        <f>P20/2</f>
-        <v/>
-      </c>
-      <c r="O20" s="20">
-        <f>Q20/2</f>
-        <v/>
-      </c>
-      <c r="P20" s="19">
-        <f>IFERROR(SUM(X20:Y20),"")</f>
-        <v/>
-      </c>
-      <c r="Q20" s="19">
-        <f>IFERROR(SUM(Z20:AA20),"")</f>
+      <c r="L20" s="17">
+        <f>SUM(X20:Y20)</f>
+        <v/>
+      </c>
+      <c r="M20" s="18">
+        <f>SUM(Z20:AA20)</f>
+        <v/>
+      </c>
+      <c r="N20" s="19">
+        <f>IF(COUNT(T20:U20)&gt;0,P20/COUNT(T20:U20),0.5)</f>
+        <v/>
+      </c>
+      <c r="O20" s="19">
+        <f>IF(COUNT(V20:W20)&gt;0,Q20/COUNT(V20:W20),0.5)</f>
+        <v/>
+      </c>
+      <c r="P20" s="20">
+        <f>SUM(T20:U20)</f>
+        <v/>
+      </c>
+      <c r="Q20" s="20">
+        <f>SUM(V20:W20)</f>
         <v/>
       </c>
       <c r="R20" s="21">
         <f>IF(ISNUMBER(J20),J20,IF(ISNUMBER(K20),-K20,""))</f>
         <v/>
       </c>
-      <c r="S20" s="13">
+      <c r="S20" s="15">
         <f>IF(ISNUMBER(K20),K20,IF(ISNUMBER(J20),-J20,""))</f>
         <v/>
       </c>
-      <c r="T20" s="13">
-        <f>IF(AND(ISNUMBER(R20),ISNUMBER(R18)),VLOOKUP(ABS(R20-R18),'IMP Table'!$A$2:$C$26,3)*SIGN(R20-R18),"")</f>
-        <v/>
-      </c>
-      <c r="U20" s="13">
-        <f>IF(AND(ISNUMBER(R20),ISNUMBER(R19)),VLOOKUP(ABS(R20-R19),'IMP Table'!$A$2:$C$26,3)*SIGN(R20-R19),"")</f>
-        <v/>
-      </c>
-      <c r="V20" s="13">
-        <f>IF(AND(ISNUMBER(S20),ISNUMBER(S18)),VLOOKUP(ABS(S20-S18),'IMP Table'!$A$2:$C$26,3)*SIGN(S20-S18),"")</f>
-        <v/>
-      </c>
-      <c r="W20" s="13">
-        <f>IF(AND(ISNUMBER(S20),ISNUMBER(S19)),VLOOKUP(ABS(S20-S19),'IMP Table'!$A$2:$C$26,3)*SIGN(S20-S19),"")</f>
-        <v/>
-      </c>
-      <c r="X20" s="13">
-        <f>IF(AND(ISNUMBER(R20),ISNUMBER(R18)),IF(R20&gt;R18,1,IF(R20=R18,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Y20" s="13">
-        <f>IF(AND(ISNUMBER(R20),ISNUMBER(R19)),IF(R20&gt;R19,1,IF(R20=R19,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Z20" s="13">
-        <f>IF(AND(ISNUMBER(S20),ISNUMBER(S18)),IF(S20&gt;S18,1,IF(S20=S18,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="AA20" s="13">
-        <f>IF(AND(ISNUMBER(S20),ISNUMBER(S19)),IF(S20&gt;S19,1,IF(S20=S19,0.5,0)),0.5)</f>
+      <c r="T20" s="21">
+        <f>IF(ISNUMBER(R20),IF(ISNUMBER(R18),IF(R20&gt;R18,1.0,IF(R20=R18,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="U20" s="15">
+        <f>IF(ISNUMBER(R20),IF(ISNUMBER(R19),IF(R20&gt;R19,1.0,IF(R20=R19,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="V20" s="15">
+        <f>IF(ISNUMBER(S20),IF(ISNUMBER(S18),IF(S20&gt;S18,1.0,IF(S20=S18,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="W20" s="15">
+        <f>IF(ISNUMBER(S20),IF(ISNUMBER(S19),IF(S20&gt;S19,1.0,IF(S20=S19,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X20" s="21">
+        <f>IF(AND(ISNUMBER(R20),ISNUMBER(R18)),VLOOKUP(ABS(R20-R18),'IMP Table'!$A$2:$C$26,3)*SIGN(R20-R18),0)</f>
+        <v/>
+      </c>
+      <c r="Y20" s="15">
+        <f>IF(AND(ISNUMBER(R20),ISNUMBER(R19)),VLOOKUP(ABS(R20-R19),'IMP Table'!$A$2:$C$26,3)*SIGN(R20-R19),0)</f>
+        <v/>
+      </c>
+      <c r="Z20" s="15">
+        <f>IF(AND(ISNUMBER(S20),ISNUMBER(S18)),VLOOKUP(ABS(S20-S18),'IMP Table'!$A$2:$C$26,3)*SIGN(S20-S18),0)</f>
+        <v/>
+      </c>
+      <c r="AA20" s="15">
+        <f>IF(AND(ISNUMBER(S20),ISNUMBER(S19)),VLOOKUP(ABS(S20-S19),'IMP Table'!$A$2:$C$26,3)*SIGN(S20-S19),0)</f>
         <v/>
       </c>
     </row>
@@ -3016,7 +3023,7 @@
         <f>'By Round'!D15</f>
         <v/>
       </c>
-      <c r="F21" s="14" t="inlineStr">
+      <c r="F21" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
@@ -3041,31 +3048,31 @@
         <f>IF(ISBLANK('By Round'!K15),"",'By Round'!K15)</f>
         <v/>
       </c>
-      <c r="L21" s="15">
-        <f>IFERROR(AVERAGE(T21:U21),"")</f>
-        <v/>
-      </c>
-      <c r="M21" s="4">
-        <f>IFERROR(AVERAGE(V21:W21),"")</f>
-        <v/>
-      </c>
-      <c r="N21" s="5">
-        <f>P21/2</f>
-        <v/>
-      </c>
-      <c r="O21" s="5">
-        <f>Q21/2</f>
+      <c r="L21" s="12">
+        <f>SUM(X21:Y21)</f>
+        <v/>
+      </c>
+      <c r="M21" s="13">
+        <f>SUM(Z21:AA21)</f>
+        <v/>
+      </c>
+      <c r="N21" s="8">
+        <f>IF(COUNT(T21:U21)&gt;0,P21/COUNT(T21:U21),0.5)</f>
+        <v/>
+      </c>
+      <c r="O21" s="8">
+        <f>IF(COUNT(V21:W21)&gt;0,Q21/COUNT(V21:W21),0.5)</f>
         <v/>
       </c>
       <c r="P21" s="4">
-        <f>IFERROR(SUM(X21:Y21),"")</f>
+        <f>SUM(T21:U21)</f>
         <v/>
       </c>
       <c r="Q21" s="4">
-        <f>IFERROR(SUM(Z21:AA21),"")</f>
-        <v/>
-      </c>
-      <c r="R21" s="16">
+        <f>SUM(V21:W21)</f>
+        <v/>
+      </c>
+      <c r="R21" s="14">
         <f>IF(ISNUMBER(J21),J21,IF(ISNUMBER(K21),-K21,""))</f>
         <v/>
       </c>
@@ -3073,36 +3080,36 @@
         <f>IF(ISNUMBER(K21),K21,IF(ISNUMBER(J21),-J21,""))</f>
         <v/>
       </c>
-      <c r="T21">
-        <f>IF(AND(ISNUMBER(R21),ISNUMBER(R22)),VLOOKUP(ABS(R21-R22),'IMP Table'!$A$2:$C$26,3)*SIGN(R21-R22),"")</f>
+      <c r="T21" s="14">
+        <f>IF(ISNUMBER(R21),IF(ISNUMBER(R22),IF(R21&gt;R22,1.0,IF(R21=R22,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U21">
-        <f>IF(AND(ISNUMBER(R21),ISNUMBER(R23)),VLOOKUP(ABS(R21-R23),'IMP Table'!$A$2:$C$26,3)*SIGN(R21-R23),"")</f>
+        <f>IF(ISNUMBER(R21),IF(ISNUMBER(R23),IF(R21&gt;R23,1.0,IF(R21=R23,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>IF(AND(ISNUMBER(S21),ISNUMBER(S22)),VLOOKUP(ABS(S21-S22),'IMP Table'!$A$2:$C$26,3)*SIGN(S21-S22),"")</f>
+        <f>IF(ISNUMBER(S21),IF(ISNUMBER(S22),IF(S21&gt;S22,1.0,IF(S21=S22,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>IF(AND(ISNUMBER(S21),ISNUMBER(S23)),VLOOKUP(ABS(S21-S23),'IMP Table'!$A$2:$C$26,3)*SIGN(S21-S23),"")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>IF(AND(ISNUMBER(R21),ISNUMBER(R22)),IF(R21&gt;R22,1,IF(R21=R22,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S21),IF(ISNUMBER(S23),IF(S21&gt;S23,1.0,IF(S21=S23,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X21" s="14">
+        <f>IF(AND(ISNUMBER(R21),ISNUMBER(R22)),VLOOKUP(ABS(R21-R22),'IMP Table'!$A$2:$C$26,3)*SIGN(R21-R22),0)</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>IF(AND(ISNUMBER(R21),ISNUMBER(R23)),IF(R21&gt;R23,1,IF(R21=R23,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R21),ISNUMBER(R23)),VLOOKUP(ABS(R21-R23),'IMP Table'!$A$2:$C$26,3)*SIGN(R21-R23),0)</f>
         <v/>
       </c>
       <c r="Z21">
-        <f>IF(AND(ISNUMBER(S21),ISNUMBER(S22)),IF(S21&gt;S22,1,IF(S21=S22,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S21),ISNUMBER(S22)),VLOOKUP(ABS(S21-S22),'IMP Table'!$A$2:$C$26,3)*SIGN(S21-S22),0)</f>
         <v/>
       </c>
       <c r="AA21">
-        <f>IF(AND(ISNUMBER(S21),ISNUMBER(S23)),IF(S21&gt;S23,1,IF(S21=S23,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S21),ISNUMBER(S23)),VLOOKUP(ABS(S21-S23),'IMP Table'!$A$2:$C$26,3)*SIGN(S21-S23),0)</f>
         <v/>
       </c>
     </row>
@@ -3123,7 +3130,7 @@
         <f>'By Round'!D21</f>
         <v/>
       </c>
-      <c r="F22" s="14" t="inlineStr">
+      <c r="F22" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
@@ -3148,31 +3155,31 @@
         <f>IF(ISBLANK('By Round'!K21),"",'By Round'!K21)</f>
         <v/>
       </c>
-      <c r="L22" s="15">
-        <f>IFERROR(AVERAGE(T22:U22),"")</f>
-        <v/>
-      </c>
-      <c r="M22" s="4">
-        <f>IFERROR(AVERAGE(V22:W22),"")</f>
-        <v/>
-      </c>
-      <c r="N22" s="5">
-        <f>P22/2</f>
-        <v/>
-      </c>
-      <c r="O22" s="5">
-        <f>Q22/2</f>
+      <c r="L22" s="12">
+        <f>SUM(X22:Y22)</f>
+        <v/>
+      </c>
+      <c r="M22" s="13">
+        <f>SUM(Z22:AA22)</f>
+        <v/>
+      </c>
+      <c r="N22" s="8">
+        <f>IF(COUNT(T22:U22)&gt;0,P22/COUNT(T22:U22),0.5)</f>
+        <v/>
+      </c>
+      <c r="O22" s="8">
+        <f>IF(COUNT(V22:W22)&gt;0,Q22/COUNT(V22:W22),0.5)</f>
         <v/>
       </c>
       <c r="P22" s="4">
-        <f>IFERROR(SUM(X22:Y22),"")</f>
+        <f>SUM(T22:U22)</f>
         <v/>
       </c>
       <c r="Q22" s="4">
-        <f>IFERROR(SUM(Z22:AA22),"")</f>
-        <v/>
-      </c>
-      <c r="R22" s="16">
+        <f>SUM(V22:W22)</f>
+        <v/>
+      </c>
+      <c r="R22" s="14">
         <f>IF(ISNUMBER(J22),J22,IF(ISNUMBER(K22),-K22,""))</f>
         <v/>
       </c>
@@ -3180,144 +3187,144 @@
         <f>IF(ISNUMBER(K22),K22,IF(ISNUMBER(J22),-J22,""))</f>
         <v/>
       </c>
-      <c r="T22">
-        <f>IF(AND(ISNUMBER(R22),ISNUMBER(R21)),VLOOKUP(ABS(R22-R21),'IMP Table'!$A$2:$C$26,3)*SIGN(R22-R21),"")</f>
+      <c r="T22" s="14">
+        <f>IF(ISNUMBER(R22),IF(ISNUMBER(R21),IF(R22&gt;R21,1.0,IF(R22=R21,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U22">
-        <f>IF(AND(ISNUMBER(R22),ISNUMBER(R23)),VLOOKUP(ABS(R22-R23),'IMP Table'!$A$2:$C$26,3)*SIGN(R22-R23),"")</f>
+        <f>IF(ISNUMBER(R22),IF(ISNUMBER(R23),IF(R22&gt;R23,1.0,IF(R22=R23,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>IF(AND(ISNUMBER(S22),ISNUMBER(S21)),VLOOKUP(ABS(S22-S21),'IMP Table'!$A$2:$C$26,3)*SIGN(S22-S21),"")</f>
+        <f>IF(ISNUMBER(S22),IF(ISNUMBER(S21),IF(S22&gt;S21,1.0,IF(S22=S21,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>IF(AND(ISNUMBER(S22),ISNUMBER(S23)),VLOOKUP(ABS(S22-S23),'IMP Table'!$A$2:$C$26,3)*SIGN(S22-S23),"")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>IF(AND(ISNUMBER(R22),ISNUMBER(R21)),IF(R22&gt;R21,1,IF(R22=R21,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S22),IF(ISNUMBER(S23),IF(S22&gt;S23,1.0,IF(S22=S23,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X22" s="14">
+        <f>IF(AND(ISNUMBER(R22),ISNUMBER(R21)),VLOOKUP(ABS(R22-R21),'IMP Table'!$A$2:$C$26,3)*SIGN(R22-R21),0)</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>IF(AND(ISNUMBER(R22),ISNUMBER(R23)),IF(R22&gt;R23,1,IF(R22=R23,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R22),ISNUMBER(R23)),VLOOKUP(ABS(R22-R23),'IMP Table'!$A$2:$C$26,3)*SIGN(R22-R23),0)</f>
         <v/>
       </c>
       <c r="Z22">
-        <f>IF(AND(ISNUMBER(S22),ISNUMBER(S21)),IF(S22&gt;S21,1,IF(S22=S21,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S22),ISNUMBER(S21)),VLOOKUP(ABS(S22-S21),'IMP Table'!$A$2:$C$26,3)*SIGN(S22-S21),0)</f>
         <v/>
       </c>
       <c r="AA22">
-        <f>IF(AND(ISNUMBER(S22),ISNUMBER(S23)),IF(S22&gt;S23,1,IF(S22=S23,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S22),ISNUMBER(S23)),VLOOKUP(ABS(S22-S23),'IMP Table'!$A$2:$C$26,3)*SIGN(S22-S23),0)</f>
         <v/>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="13" t="n"/>
-      <c r="B23" s="13">
+      <c r="A23" s="15" t="n"/>
+      <c r="B23" s="15">
         <f>'By Round'!A30</f>
         <v/>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="15">
         <f>'By Round'!B33</f>
         <v/>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="15">
         <f>'By Round'!C33</f>
         <v/>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="15">
         <f>'By Round'!D33</f>
         <v/>
       </c>
-      <c r="F23" s="17" t="inlineStr">
+      <c r="F23" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="15">
         <f>IF(ISBLANK('By Round'!G33),"",'By Round'!G33)</f>
         <v/>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="15">
         <f>IF(ISBLANK('By Round'!H33),"",'By Round'!H33)</f>
         <v/>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="15">
         <f>IF(ISBLANK('By Round'!I33),"",'By Round'!I33)</f>
         <v/>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="15">
         <f>IF(ISBLANK('By Round'!J33),"",'By Round'!J33)</f>
         <v/>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="15">
         <f>IF(ISBLANK('By Round'!K33),"",'By Round'!K33)</f>
         <v/>
       </c>
-      <c r="L23" s="18">
-        <f>IFERROR(AVERAGE(T23:U23),"")</f>
-        <v/>
-      </c>
-      <c r="M23" s="19">
-        <f>IFERROR(AVERAGE(V23:W23),"")</f>
-        <v/>
-      </c>
-      <c r="N23" s="20">
-        <f>P23/2</f>
-        <v/>
-      </c>
-      <c r="O23" s="20">
-        <f>Q23/2</f>
-        <v/>
-      </c>
-      <c r="P23" s="19">
-        <f>IFERROR(SUM(X23:Y23),"")</f>
-        <v/>
-      </c>
-      <c r="Q23" s="19">
-        <f>IFERROR(SUM(Z23:AA23),"")</f>
+      <c r="L23" s="17">
+        <f>SUM(X23:Y23)</f>
+        <v/>
+      </c>
+      <c r="M23" s="18">
+        <f>SUM(Z23:AA23)</f>
+        <v/>
+      </c>
+      <c r="N23" s="19">
+        <f>IF(COUNT(T23:U23)&gt;0,P23/COUNT(T23:U23),0.5)</f>
+        <v/>
+      </c>
+      <c r="O23" s="19">
+        <f>IF(COUNT(V23:W23)&gt;0,Q23/COUNT(V23:W23),0.5)</f>
+        <v/>
+      </c>
+      <c r="P23" s="20">
+        <f>SUM(T23:U23)</f>
+        <v/>
+      </c>
+      <c r="Q23" s="20">
+        <f>SUM(V23:W23)</f>
         <v/>
       </c>
       <c r="R23" s="21">
         <f>IF(ISNUMBER(J23),J23,IF(ISNUMBER(K23),-K23,""))</f>
         <v/>
       </c>
-      <c r="S23" s="13">
+      <c r="S23" s="15">
         <f>IF(ISNUMBER(K23),K23,IF(ISNUMBER(J23),-J23,""))</f>
         <v/>
       </c>
-      <c r="T23" s="13">
-        <f>IF(AND(ISNUMBER(R23),ISNUMBER(R21)),VLOOKUP(ABS(R23-R21),'IMP Table'!$A$2:$C$26,3)*SIGN(R23-R21),"")</f>
-        <v/>
-      </c>
-      <c r="U23" s="13">
-        <f>IF(AND(ISNUMBER(R23),ISNUMBER(R22)),VLOOKUP(ABS(R23-R22),'IMP Table'!$A$2:$C$26,3)*SIGN(R23-R22),"")</f>
-        <v/>
-      </c>
-      <c r="V23" s="13">
-        <f>IF(AND(ISNUMBER(S23),ISNUMBER(S21)),VLOOKUP(ABS(S23-S21),'IMP Table'!$A$2:$C$26,3)*SIGN(S23-S21),"")</f>
-        <v/>
-      </c>
-      <c r="W23" s="13">
-        <f>IF(AND(ISNUMBER(S23),ISNUMBER(S22)),VLOOKUP(ABS(S23-S22),'IMP Table'!$A$2:$C$26,3)*SIGN(S23-S22),"")</f>
-        <v/>
-      </c>
-      <c r="X23" s="13">
-        <f>IF(AND(ISNUMBER(R23),ISNUMBER(R21)),IF(R23&gt;R21,1,IF(R23=R21,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Y23" s="13">
-        <f>IF(AND(ISNUMBER(R23),ISNUMBER(R22)),IF(R23&gt;R22,1,IF(R23=R22,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Z23" s="13">
-        <f>IF(AND(ISNUMBER(S23),ISNUMBER(S21)),IF(S23&gt;S21,1,IF(S23=S21,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="AA23" s="13">
-        <f>IF(AND(ISNUMBER(S23),ISNUMBER(S22)),IF(S23&gt;S22,1,IF(S23=S22,0.5,0)),0.5)</f>
+      <c r="T23" s="21">
+        <f>IF(ISNUMBER(R23),IF(ISNUMBER(R21),IF(R23&gt;R21,1.0,IF(R23=R21,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="U23" s="15">
+        <f>IF(ISNUMBER(R23),IF(ISNUMBER(R22),IF(R23&gt;R22,1.0,IF(R23=R22,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="V23" s="15">
+        <f>IF(ISNUMBER(S23),IF(ISNUMBER(S21),IF(S23&gt;S21,1.0,IF(S23=S21,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="W23" s="15">
+        <f>IF(ISNUMBER(S23),IF(ISNUMBER(S22),IF(S23&gt;S22,1.0,IF(S23=S22,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X23" s="21">
+        <f>IF(AND(ISNUMBER(R23),ISNUMBER(R21)),VLOOKUP(ABS(R23-R21),'IMP Table'!$A$2:$C$26,3)*SIGN(R23-R21),0)</f>
+        <v/>
+      </c>
+      <c r="Y23" s="15">
+        <f>IF(AND(ISNUMBER(R23),ISNUMBER(R22)),VLOOKUP(ABS(R23-R22),'IMP Table'!$A$2:$C$26,3)*SIGN(R23-R22),0)</f>
+        <v/>
+      </c>
+      <c r="Z23" s="15">
+        <f>IF(AND(ISNUMBER(S23),ISNUMBER(S21)),VLOOKUP(ABS(S23-S21),'IMP Table'!$A$2:$C$26,3)*SIGN(S23-S21),0)</f>
+        <v/>
+      </c>
+      <c r="AA23" s="15">
+        <f>IF(AND(ISNUMBER(S23),ISNUMBER(S22)),VLOOKUP(ABS(S23-S22),'IMP Table'!$A$2:$C$26,3)*SIGN(S23-S22),0)</f>
         <v/>
       </c>
     </row>
@@ -3341,7 +3348,7 @@
         <f>'By Round'!D15</f>
         <v/>
       </c>
-      <c r="F24" s="14" t="inlineStr">
+      <c r="F24" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -3366,31 +3373,31 @@
         <f>IF(ISBLANK('By Round'!K15),"",'By Round'!K15)</f>
         <v/>
       </c>
-      <c r="L24" s="15">
-        <f>IFERROR(AVERAGE(T24:U24),"")</f>
-        <v/>
-      </c>
-      <c r="M24" s="4">
-        <f>IFERROR(AVERAGE(V24:W24),"")</f>
-        <v/>
-      </c>
-      <c r="N24" s="5">
-        <f>P24/2</f>
-        <v/>
-      </c>
-      <c r="O24" s="5">
-        <f>Q24/2</f>
+      <c r="L24" s="12">
+        <f>SUM(X24:Y24)</f>
+        <v/>
+      </c>
+      <c r="M24" s="13">
+        <f>SUM(Z24:AA24)</f>
+        <v/>
+      </c>
+      <c r="N24" s="8">
+        <f>IF(COUNT(T24:U24)&gt;0,P24/COUNT(T24:U24),0.5)</f>
+        <v/>
+      </c>
+      <c r="O24" s="8">
+        <f>IF(COUNT(V24:W24)&gt;0,Q24/COUNT(V24:W24),0.5)</f>
         <v/>
       </c>
       <c r="P24" s="4">
-        <f>IFERROR(SUM(X24:Y24),"")</f>
+        <f>SUM(T24:U24)</f>
         <v/>
       </c>
       <c r="Q24" s="4">
-        <f>IFERROR(SUM(Z24:AA24),"")</f>
-        <v/>
-      </c>
-      <c r="R24" s="16">
+        <f>SUM(V24:W24)</f>
+        <v/>
+      </c>
+      <c r="R24" s="14">
         <f>IF(ISNUMBER(J24),J24,IF(ISNUMBER(K24),-K24,""))</f>
         <v/>
       </c>
@@ -3398,36 +3405,36 @@
         <f>IF(ISNUMBER(K24),K24,IF(ISNUMBER(J24),-J24,""))</f>
         <v/>
       </c>
-      <c r="T24">
-        <f>IF(AND(ISNUMBER(R24),ISNUMBER(R25)),VLOOKUP(ABS(R24-R25),'IMP Table'!$A$2:$C$26,3)*SIGN(R24-R25),"")</f>
+      <c r="T24" s="14">
+        <f>IF(ISNUMBER(R24),IF(ISNUMBER(R25),IF(R24&gt;R25,1.0,IF(R24=R25,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U24">
-        <f>IF(AND(ISNUMBER(R24),ISNUMBER(R26)),VLOOKUP(ABS(R24-R26),'IMP Table'!$A$2:$C$26,3)*SIGN(R24-R26),"")</f>
+        <f>IF(ISNUMBER(R24),IF(ISNUMBER(R26),IF(R24&gt;R26,1.0,IF(R24=R26,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>IF(AND(ISNUMBER(S24),ISNUMBER(S25)),VLOOKUP(ABS(S24-S25),'IMP Table'!$A$2:$C$26,3)*SIGN(S24-S25),"")</f>
+        <f>IF(ISNUMBER(S24),IF(ISNUMBER(S25),IF(S24&gt;S25,1.0,IF(S24=S25,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>IF(AND(ISNUMBER(S24),ISNUMBER(S26)),VLOOKUP(ABS(S24-S26),'IMP Table'!$A$2:$C$26,3)*SIGN(S24-S26),"")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>IF(AND(ISNUMBER(R24),ISNUMBER(R25)),IF(R24&gt;R25,1,IF(R24=R25,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S24),IF(ISNUMBER(S26),IF(S24&gt;S26,1.0,IF(S24=S26,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X24" s="14">
+        <f>IF(AND(ISNUMBER(R24),ISNUMBER(R25)),VLOOKUP(ABS(R24-R25),'IMP Table'!$A$2:$C$26,3)*SIGN(R24-R25),0)</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>IF(AND(ISNUMBER(R24),ISNUMBER(R26)),IF(R24&gt;R26,1,IF(R24=R26,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R24),ISNUMBER(R26)),VLOOKUP(ABS(R24-R26),'IMP Table'!$A$2:$C$26,3)*SIGN(R24-R26),0)</f>
         <v/>
       </c>
       <c r="Z24">
-        <f>IF(AND(ISNUMBER(S24),ISNUMBER(S25)),IF(S24&gt;S25,1,IF(S24=S25,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S24),ISNUMBER(S25)),VLOOKUP(ABS(S24-S25),'IMP Table'!$A$2:$C$26,3)*SIGN(S24-S25),0)</f>
         <v/>
       </c>
       <c r="AA24">
-        <f>IF(AND(ISNUMBER(S24),ISNUMBER(S26)),IF(S24&gt;S26,1,IF(S24=S26,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S24),ISNUMBER(S26)),VLOOKUP(ABS(S24-S26),'IMP Table'!$A$2:$C$26,3)*SIGN(S24-S26),0)</f>
         <v/>
       </c>
     </row>
@@ -3448,7 +3455,7 @@
         <f>'By Round'!D21</f>
         <v/>
       </c>
-      <c r="F25" s="14" t="inlineStr">
+      <c r="F25" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -3473,31 +3480,31 @@
         <f>IF(ISBLANK('By Round'!K21),"",'By Round'!K21)</f>
         <v/>
       </c>
-      <c r="L25" s="15">
-        <f>IFERROR(AVERAGE(T25:U25),"")</f>
-        <v/>
-      </c>
-      <c r="M25" s="4">
-        <f>IFERROR(AVERAGE(V25:W25),"")</f>
-        <v/>
-      </c>
-      <c r="N25" s="5">
-        <f>P25/2</f>
-        <v/>
-      </c>
-      <c r="O25" s="5">
-        <f>Q25/2</f>
+      <c r="L25" s="12">
+        <f>SUM(X25:Y25)</f>
+        <v/>
+      </c>
+      <c r="M25" s="13">
+        <f>SUM(Z25:AA25)</f>
+        <v/>
+      </c>
+      <c r="N25" s="8">
+        <f>IF(COUNT(T25:U25)&gt;0,P25/COUNT(T25:U25),0.5)</f>
+        <v/>
+      </c>
+      <c r="O25" s="8">
+        <f>IF(COUNT(V25:W25)&gt;0,Q25/COUNT(V25:W25),0.5)</f>
         <v/>
       </c>
       <c r="P25" s="4">
-        <f>IFERROR(SUM(X25:Y25),"")</f>
+        <f>SUM(T25:U25)</f>
         <v/>
       </c>
       <c r="Q25" s="4">
-        <f>IFERROR(SUM(Z25:AA25),"")</f>
-        <v/>
-      </c>
-      <c r="R25" s="16">
+        <f>SUM(V25:W25)</f>
+        <v/>
+      </c>
+      <c r="R25" s="14">
         <f>IF(ISNUMBER(J25),J25,IF(ISNUMBER(K25),-K25,""))</f>
         <v/>
       </c>
@@ -3505,144 +3512,144 @@
         <f>IF(ISNUMBER(K25),K25,IF(ISNUMBER(J25),-J25,""))</f>
         <v/>
       </c>
-      <c r="T25">
-        <f>IF(AND(ISNUMBER(R25),ISNUMBER(R24)),VLOOKUP(ABS(R25-R24),'IMP Table'!$A$2:$C$26,3)*SIGN(R25-R24),"")</f>
+      <c r="T25" s="14">
+        <f>IF(ISNUMBER(R25),IF(ISNUMBER(R24),IF(R25&gt;R24,1.0,IF(R25=R24,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U25">
-        <f>IF(AND(ISNUMBER(R25),ISNUMBER(R26)),VLOOKUP(ABS(R25-R26),'IMP Table'!$A$2:$C$26,3)*SIGN(R25-R26),"")</f>
+        <f>IF(ISNUMBER(R25),IF(ISNUMBER(R26),IF(R25&gt;R26,1.0,IF(R25=R26,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>IF(AND(ISNUMBER(S25),ISNUMBER(S24)),VLOOKUP(ABS(S25-S24),'IMP Table'!$A$2:$C$26,3)*SIGN(S25-S24),"")</f>
+        <f>IF(ISNUMBER(S25),IF(ISNUMBER(S24),IF(S25&gt;S24,1.0,IF(S25=S24,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>IF(AND(ISNUMBER(S25),ISNUMBER(S26)),VLOOKUP(ABS(S25-S26),'IMP Table'!$A$2:$C$26,3)*SIGN(S25-S26),"")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>IF(AND(ISNUMBER(R25),ISNUMBER(R24)),IF(R25&gt;R24,1,IF(R25=R24,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S25),IF(ISNUMBER(S26),IF(S25&gt;S26,1.0,IF(S25=S26,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X25" s="14">
+        <f>IF(AND(ISNUMBER(R25),ISNUMBER(R24)),VLOOKUP(ABS(R25-R24),'IMP Table'!$A$2:$C$26,3)*SIGN(R25-R24),0)</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>IF(AND(ISNUMBER(R25),ISNUMBER(R26)),IF(R25&gt;R26,1,IF(R25=R26,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R25),ISNUMBER(R26)),VLOOKUP(ABS(R25-R26),'IMP Table'!$A$2:$C$26,3)*SIGN(R25-R26),0)</f>
         <v/>
       </c>
       <c r="Z25">
-        <f>IF(AND(ISNUMBER(S25),ISNUMBER(S24)),IF(S25&gt;S24,1,IF(S25=S24,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S25),ISNUMBER(S24)),VLOOKUP(ABS(S25-S24),'IMP Table'!$A$2:$C$26,3)*SIGN(S25-S24),0)</f>
         <v/>
       </c>
       <c r="AA25">
-        <f>IF(AND(ISNUMBER(S25),ISNUMBER(S26)),IF(S25&gt;S26,1,IF(S25=S26,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S25),ISNUMBER(S26)),VLOOKUP(ABS(S25-S26),'IMP Table'!$A$2:$C$26,3)*SIGN(S25-S26),0)</f>
         <v/>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="13" t="n"/>
-      <c r="B26" s="13">
+      <c r="A26" s="15" t="n"/>
+      <c r="B26" s="15">
         <f>'By Round'!A30</f>
         <v/>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="15">
         <f>'By Round'!B33</f>
         <v/>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="15">
         <f>'By Round'!C33</f>
         <v/>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="15">
         <f>'By Round'!D33</f>
         <v/>
       </c>
-      <c r="F26" s="17" t="inlineStr">
+      <c r="F26" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="15">
         <f>IF(ISBLANK('By Round'!G33),"",'By Round'!G33)</f>
         <v/>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="15">
         <f>IF(ISBLANK('By Round'!H33),"",'By Round'!H33)</f>
         <v/>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="15">
         <f>IF(ISBLANK('By Round'!I33),"",'By Round'!I33)</f>
         <v/>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="15">
         <f>IF(ISBLANK('By Round'!J33),"",'By Round'!J33)</f>
         <v/>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="15">
         <f>IF(ISBLANK('By Round'!K33),"",'By Round'!K33)</f>
         <v/>
       </c>
-      <c r="L26" s="18">
-        <f>IFERROR(AVERAGE(T26:U26),"")</f>
-        <v/>
-      </c>
-      <c r="M26" s="19">
-        <f>IFERROR(AVERAGE(V26:W26),"")</f>
-        <v/>
-      </c>
-      <c r="N26" s="20">
-        <f>P26/2</f>
-        <v/>
-      </c>
-      <c r="O26" s="20">
-        <f>Q26/2</f>
-        <v/>
-      </c>
-      <c r="P26" s="19">
-        <f>IFERROR(SUM(X26:Y26),"")</f>
-        <v/>
-      </c>
-      <c r="Q26" s="19">
-        <f>IFERROR(SUM(Z26:AA26),"")</f>
+      <c r="L26" s="17">
+        <f>SUM(X26:Y26)</f>
+        <v/>
+      </c>
+      <c r="M26" s="18">
+        <f>SUM(Z26:AA26)</f>
+        <v/>
+      </c>
+      <c r="N26" s="19">
+        <f>IF(COUNT(T26:U26)&gt;0,P26/COUNT(T26:U26),0.5)</f>
+        <v/>
+      </c>
+      <c r="O26" s="19">
+        <f>IF(COUNT(V26:W26)&gt;0,Q26/COUNT(V26:W26),0.5)</f>
+        <v/>
+      </c>
+      <c r="P26" s="20">
+        <f>SUM(T26:U26)</f>
+        <v/>
+      </c>
+      <c r="Q26" s="20">
+        <f>SUM(V26:W26)</f>
         <v/>
       </c>
       <c r="R26" s="21">
         <f>IF(ISNUMBER(J26),J26,IF(ISNUMBER(K26),-K26,""))</f>
         <v/>
       </c>
-      <c r="S26" s="13">
+      <c r="S26" s="15">
         <f>IF(ISNUMBER(K26),K26,IF(ISNUMBER(J26),-J26,""))</f>
         <v/>
       </c>
-      <c r="T26" s="13">
-        <f>IF(AND(ISNUMBER(R26),ISNUMBER(R24)),VLOOKUP(ABS(R26-R24),'IMP Table'!$A$2:$C$26,3)*SIGN(R26-R24),"")</f>
-        <v/>
-      </c>
-      <c r="U26" s="13">
-        <f>IF(AND(ISNUMBER(R26),ISNUMBER(R25)),VLOOKUP(ABS(R26-R25),'IMP Table'!$A$2:$C$26,3)*SIGN(R26-R25),"")</f>
-        <v/>
-      </c>
-      <c r="V26" s="13">
-        <f>IF(AND(ISNUMBER(S26),ISNUMBER(S24)),VLOOKUP(ABS(S26-S24),'IMP Table'!$A$2:$C$26,3)*SIGN(S26-S24),"")</f>
-        <v/>
-      </c>
-      <c r="W26" s="13">
-        <f>IF(AND(ISNUMBER(S26),ISNUMBER(S25)),VLOOKUP(ABS(S26-S25),'IMP Table'!$A$2:$C$26,3)*SIGN(S26-S25),"")</f>
-        <v/>
-      </c>
-      <c r="X26" s="13">
-        <f>IF(AND(ISNUMBER(R26),ISNUMBER(R24)),IF(R26&gt;R24,1,IF(R26=R24,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Y26" s="13">
-        <f>IF(AND(ISNUMBER(R26),ISNUMBER(R25)),IF(R26&gt;R25,1,IF(R26=R25,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Z26" s="13">
-        <f>IF(AND(ISNUMBER(S26),ISNUMBER(S24)),IF(S26&gt;S24,1,IF(S26=S24,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="AA26" s="13">
-        <f>IF(AND(ISNUMBER(S26),ISNUMBER(S25)),IF(S26&gt;S25,1,IF(S26=S25,0.5,0)),0.5)</f>
+      <c r="T26" s="21">
+        <f>IF(ISNUMBER(R26),IF(ISNUMBER(R24),IF(R26&gt;R24,1.0,IF(R26=R24,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="U26" s="15">
+        <f>IF(ISNUMBER(R26),IF(ISNUMBER(R25),IF(R26&gt;R25,1.0,IF(R26=R25,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="V26" s="15">
+        <f>IF(ISNUMBER(S26),IF(ISNUMBER(S24),IF(S26&gt;S24,1.0,IF(S26=S24,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="W26" s="15">
+        <f>IF(ISNUMBER(S26),IF(ISNUMBER(S25),IF(S26&gt;S25,1.0,IF(S26=S25,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X26" s="21">
+        <f>IF(AND(ISNUMBER(R26),ISNUMBER(R24)),VLOOKUP(ABS(R26-R24),'IMP Table'!$A$2:$C$26,3)*SIGN(R26-R24),0)</f>
+        <v/>
+      </c>
+      <c r="Y26" s="15">
+        <f>IF(AND(ISNUMBER(R26),ISNUMBER(R25)),VLOOKUP(ABS(R26-R25),'IMP Table'!$A$2:$C$26,3)*SIGN(R26-R25),0)</f>
+        <v/>
+      </c>
+      <c r="Z26" s="15">
+        <f>IF(AND(ISNUMBER(S26),ISNUMBER(S24)),VLOOKUP(ABS(S26-S24),'IMP Table'!$A$2:$C$26,3)*SIGN(S26-S24),0)</f>
+        <v/>
+      </c>
+      <c r="AA26" s="15">
+        <f>IF(AND(ISNUMBER(S26),ISNUMBER(S25)),VLOOKUP(ABS(S26-S25),'IMP Table'!$A$2:$C$26,3)*SIGN(S26-S25),0)</f>
         <v/>
       </c>
     </row>
@@ -3666,7 +3673,7 @@
         <f>'By Round'!D15</f>
         <v/>
       </c>
-      <c r="F27" s="14" t="inlineStr">
+      <c r="F27" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
@@ -3691,31 +3698,31 @@
         <f>IF(ISBLANK('By Round'!K15),"",'By Round'!K15)</f>
         <v/>
       </c>
-      <c r="L27" s="15">
-        <f>IFERROR(AVERAGE(T27:U27),"")</f>
-        <v/>
-      </c>
-      <c r="M27" s="4">
-        <f>IFERROR(AVERAGE(V27:W27),"")</f>
-        <v/>
-      </c>
-      <c r="N27" s="5">
-        <f>P27/2</f>
-        <v/>
-      </c>
-      <c r="O27" s="5">
-        <f>Q27/2</f>
+      <c r="L27" s="12">
+        <f>SUM(X27:Y27)</f>
+        <v/>
+      </c>
+      <c r="M27" s="13">
+        <f>SUM(Z27:AA27)</f>
+        <v/>
+      </c>
+      <c r="N27" s="8">
+        <f>IF(COUNT(T27:U27)&gt;0,P27/COUNT(T27:U27),0.5)</f>
+        <v/>
+      </c>
+      <c r="O27" s="8">
+        <f>IF(COUNT(V27:W27)&gt;0,Q27/COUNT(V27:W27),0.5)</f>
         <v/>
       </c>
       <c r="P27" s="4">
-        <f>IFERROR(SUM(X27:Y27),"")</f>
+        <f>SUM(T27:U27)</f>
         <v/>
       </c>
       <c r="Q27" s="4">
-        <f>IFERROR(SUM(Z27:AA27),"")</f>
-        <v/>
-      </c>
-      <c r="R27" s="16">
+        <f>SUM(V27:W27)</f>
+        <v/>
+      </c>
+      <c r="R27" s="14">
         <f>IF(ISNUMBER(J27),J27,IF(ISNUMBER(K27),-K27,""))</f>
         <v/>
       </c>
@@ -3723,36 +3730,36 @@
         <f>IF(ISNUMBER(K27),K27,IF(ISNUMBER(J27),-J27,""))</f>
         <v/>
       </c>
-      <c r="T27">
-        <f>IF(AND(ISNUMBER(R27),ISNUMBER(R28)),VLOOKUP(ABS(R27-R28),'IMP Table'!$A$2:$C$26,3)*SIGN(R27-R28),"")</f>
+      <c r="T27" s="14">
+        <f>IF(ISNUMBER(R27),IF(ISNUMBER(R28),IF(R27&gt;R28,1.0,IF(R27=R28,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U27">
-        <f>IF(AND(ISNUMBER(R27),ISNUMBER(R29)),VLOOKUP(ABS(R27-R29),'IMP Table'!$A$2:$C$26,3)*SIGN(R27-R29),"")</f>
+        <f>IF(ISNUMBER(R27),IF(ISNUMBER(R29),IF(R27&gt;R29,1.0,IF(R27=R29,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>IF(AND(ISNUMBER(S27),ISNUMBER(S28)),VLOOKUP(ABS(S27-S28),'IMP Table'!$A$2:$C$26,3)*SIGN(S27-S28),"")</f>
+        <f>IF(ISNUMBER(S27),IF(ISNUMBER(S28),IF(S27&gt;S28,1.0,IF(S27=S28,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>IF(AND(ISNUMBER(S27),ISNUMBER(S29)),VLOOKUP(ABS(S27-S29),'IMP Table'!$A$2:$C$26,3)*SIGN(S27-S29),"")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>IF(AND(ISNUMBER(R27),ISNUMBER(R28)),IF(R27&gt;R28,1,IF(R27=R28,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S27),IF(ISNUMBER(S29),IF(S27&gt;S29,1.0,IF(S27=S29,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X27" s="14">
+        <f>IF(AND(ISNUMBER(R27),ISNUMBER(R28)),VLOOKUP(ABS(R27-R28),'IMP Table'!$A$2:$C$26,3)*SIGN(R27-R28),0)</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>IF(AND(ISNUMBER(R27),ISNUMBER(R29)),IF(R27&gt;R29,1,IF(R27=R29,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R27),ISNUMBER(R29)),VLOOKUP(ABS(R27-R29),'IMP Table'!$A$2:$C$26,3)*SIGN(R27-R29),0)</f>
         <v/>
       </c>
       <c r="Z27">
-        <f>IF(AND(ISNUMBER(S27),ISNUMBER(S28)),IF(S27&gt;S28,1,IF(S27=S28,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S27),ISNUMBER(S28)),VLOOKUP(ABS(S27-S28),'IMP Table'!$A$2:$C$26,3)*SIGN(S27-S28),0)</f>
         <v/>
       </c>
       <c r="AA27">
-        <f>IF(AND(ISNUMBER(S27),ISNUMBER(S29)),IF(S27&gt;S29,1,IF(S27=S29,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S27),ISNUMBER(S29)),VLOOKUP(ABS(S27-S29),'IMP Table'!$A$2:$C$26,3)*SIGN(S27-S29),0)</f>
         <v/>
       </c>
     </row>
@@ -3773,7 +3780,7 @@
         <f>'By Round'!D21</f>
         <v/>
       </c>
-      <c r="F28" s="14" t="inlineStr">
+      <c r="F28" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
@@ -3798,31 +3805,31 @@
         <f>IF(ISBLANK('By Round'!K21),"",'By Round'!K21)</f>
         <v/>
       </c>
-      <c r="L28" s="15">
-        <f>IFERROR(AVERAGE(T28:U28),"")</f>
-        <v/>
-      </c>
-      <c r="M28" s="4">
-        <f>IFERROR(AVERAGE(V28:W28),"")</f>
-        <v/>
-      </c>
-      <c r="N28" s="5">
-        <f>P28/2</f>
-        <v/>
-      </c>
-      <c r="O28" s="5">
-        <f>Q28/2</f>
+      <c r="L28" s="12">
+        <f>SUM(X28:Y28)</f>
+        <v/>
+      </c>
+      <c r="M28" s="13">
+        <f>SUM(Z28:AA28)</f>
+        <v/>
+      </c>
+      <c r="N28" s="8">
+        <f>IF(COUNT(T28:U28)&gt;0,P28/COUNT(T28:U28),0.5)</f>
+        <v/>
+      </c>
+      <c r="O28" s="8">
+        <f>IF(COUNT(V28:W28)&gt;0,Q28/COUNT(V28:W28),0.5)</f>
         <v/>
       </c>
       <c r="P28" s="4">
-        <f>IFERROR(SUM(X28:Y28),"")</f>
+        <f>SUM(T28:U28)</f>
         <v/>
       </c>
       <c r="Q28" s="4">
-        <f>IFERROR(SUM(Z28:AA28),"")</f>
-        <v/>
-      </c>
-      <c r="R28" s="16">
+        <f>SUM(V28:W28)</f>
+        <v/>
+      </c>
+      <c r="R28" s="14">
         <f>IF(ISNUMBER(J28),J28,IF(ISNUMBER(K28),-K28,""))</f>
         <v/>
       </c>
@@ -3830,144 +3837,144 @@
         <f>IF(ISNUMBER(K28),K28,IF(ISNUMBER(J28),-J28,""))</f>
         <v/>
       </c>
-      <c r="T28">
-        <f>IF(AND(ISNUMBER(R28),ISNUMBER(R27)),VLOOKUP(ABS(R28-R27),'IMP Table'!$A$2:$C$26,3)*SIGN(R28-R27),"")</f>
+      <c r="T28" s="14">
+        <f>IF(ISNUMBER(R28),IF(ISNUMBER(R27),IF(R28&gt;R27,1.0,IF(R28=R27,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U28">
-        <f>IF(AND(ISNUMBER(R28),ISNUMBER(R29)),VLOOKUP(ABS(R28-R29),'IMP Table'!$A$2:$C$26,3)*SIGN(R28-R29),"")</f>
+        <f>IF(ISNUMBER(R28),IF(ISNUMBER(R29),IF(R28&gt;R29,1.0,IF(R28=R29,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>IF(AND(ISNUMBER(S28),ISNUMBER(S27)),VLOOKUP(ABS(S28-S27),'IMP Table'!$A$2:$C$26,3)*SIGN(S28-S27),"")</f>
+        <f>IF(ISNUMBER(S28),IF(ISNUMBER(S27),IF(S28&gt;S27,1.0,IF(S28=S27,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>IF(AND(ISNUMBER(S28),ISNUMBER(S29)),VLOOKUP(ABS(S28-S29),'IMP Table'!$A$2:$C$26,3)*SIGN(S28-S29),"")</f>
-        <v/>
-      </c>
-      <c r="X28">
-        <f>IF(AND(ISNUMBER(R28),ISNUMBER(R27)),IF(R28&gt;R27,1,IF(R28=R27,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S28),IF(ISNUMBER(S29),IF(S28&gt;S29,1.0,IF(S28=S29,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X28" s="14">
+        <f>IF(AND(ISNUMBER(R28),ISNUMBER(R27)),VLOOKUP(ABS(R28-R27),'IMP Table'!$A$2:$C$26,3)*SIGN(R28-R27),0)</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>IF(AND(ISNUMBER(R28),ISNUMBER(R29)),IF(R28&gt;R29,1,IF(R28=R29,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R28),ISNUMBER(R29)),VLOOKUP(ABS(R28-R29),'IMP Table'!$A$2:$C$26,3)*SIGN(R28-R29),0)</f>
         <v/>
       </c>
       <c r="Z28">
-        <f>IF(AND(ISNUMBER(S28),ISNUMBER(S27)),IF(S28&gt;S27,1,IF(S28=S27,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S28),ISNUMBER(S27)),VLOOKUP(ABS(S28-S27),'IMP Table'!$A$2:$C$26,3)*SIGN(S28-S27),0)</f>
         <v/>
       </c>
       <c r="AA28">
-        <f>IF(AND(ISNUMBER(S28),ISNUMBER(S29)),IF(S28&gt;S29,1,IF(S28=S29,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S28),ISNUMBER(S29)),VLOOKUP(ABS(S28-S29),'IMP Table'!$A$2:$C$26,3)*SIGN(S28-S29),0)</f>
         <v/>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="13" t="n"/>
-      <c r="B29" s="13">
+      <c r="A29" s="15" t="n"/>
+      <c r="B29" s="15">
         <f>'By Round'!A30</f>
         <v/>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="15">
         <f>'By Round'!B33</f>
         <v/>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="15">
         <f>'By Round'!C33</f>
         <v/>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="15">
         <f>'By Round'!D33</f>
         <v/>
       </c>
-      <c r="F29" s="17" t="inlineStr">
+      <c r="F29" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="15">
         <f>IF(ISBLANK('By Round'!G33),"",'By Round'!G33)</f>
         <v/>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="15">
         <f>IF(ISBLANK('By Round'!H33),"",'By Round'!H33)</f>
         <v/>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="15">
         <f>IF(ISBLANK('By Round'!I33),"",'By Round'!I33)</f>
         <v/>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="15">
         <f>IF(ISBLANK('By Round'!J33),"",'By Round'!J33)</f>
         <v/>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="15">
         <f>IF(ISBLANK('By Round'!K33),"",'By Round'!K33)</f>
         <v/>
       </c>
-      <c r="L29" s="18">
-        <f>IFERROR(AVERAGE(T29:U29),"")</f>
-        <v/>
-      </c>
-      <c r="M29" s="19">
-        <f>IFERROR(AVERAGE(V29:W29),"")</f>
-        <v/>
-      </c>
-      <c r="N29" s="20">
-        <f>P29/2</f>
-        <v/>
-      </c>
-      <c r="O29" s="20">
-        <f>Q29/2</f>
-        <v/>
-      </c>
-      <c r="P29" s="19">
-        <f>IFERROR(SUM(X29:Y29),"")</f>
-        <v/>
-      </c>
-      <c r="Q29" s="19">
-        <f>IFERROR(SUM(Z29:AA29),"")</f>
+      <c r="L29" s="17">
+        <f>SUM(X29:Y29)</f>
+        <v/>
+      </c>
+      <c r="M29" s="18">
+        <f>SUM(Z29:AA29)</f>
+        <v/>
+      </c>
+      <c r="N29" s="19">
+        <f>IF(COUNT(T29:U29)&gt;0,P29/COUNT(T29:U29),0.5)</f>
+        <v/>
+      </c>
+      <c r="O29" s="19">
+        <f>IF(COUNT(V29:W29)&gt;0,Q29/COUNT(V29:W29),0.5)</f>
+        <v/>
+      </c>
+      <c r="P29" s="20">
+        <f>SUM(T29:U29)</f>
+        <v/>
+      </c>
+      <c r="Q29" s="20">
+        <f>SUM(V29:W29)</f>
         <v/>
       </c>
       <c r="R29" s="21">
         <f>IF(ISNUMBER(J29),J29,IF(ISNUMBER(K29),-K29,""))</f>
         <v/>
       </c>
-      <c r="S29" s="13">
+      <c r="S29" s="15">
         <f>IF(ISNUMBER(K29),K29,IF(ISNUMBER(J29),-J29,""))</f>
         <v/>
       </c>
-      <c r="T29" s="13">
-        <f>IF(AND(ISNUMBER(R29),ISNUMBER(R27)),VLOOKUP(ABS(R29-R27),'IMP Table'!$A$2:$C$26,3)*SIGN(R29-R27),"")</f>
-        <v/>
-      </c>
-      <c r="U29" s="13">
-        <f>IF(AND(ISNUMBER(R29),ISNUMBER(R28)),VLOOKUP(ABS(R29-R28),'IMP Table'!$A$2:$C$26,3)*SIGN(R29-R28),"")</f>
-        <v/>
-      </c>
-      <c r="V29" s="13">
-        <f>IF(AND(ISNUMBER(S29),ISNUMBER(S27)),VLOOKUP(ABS(S29-S27),'IMP Table'!$A$2:$C$26,3)*SIGN(S29-S27),"")</f>
-        <v/>
-      </c>
-      <c r="W29" s="13">
-        <f>IF(AND(ISNUMBER(S29),ISNUMBER(S28)),VLOOKUP(ABS(S29-S28),'IMP Table'!$A$2:$C$26,3)*SIGN(S29-S28),"")</f>
-        <v/>
-      </c>
-      <c r="X29" s="13">
-        <f>IF(AND(ISNUMBER(R29),ISNUMBER(R27)),IF(R29&gt;R27,1,IF(R29=R27,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Y29" s="13">
-        <f>IF(AND(ISNUMBER(R29),ISNUMBER(R28)),IF(R29&gt;R28,1,IF(R29=R28,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Z29" s="13">
-        <f>IF(AND(ISNUMBER(S29),ISNUMBER(S27)),IF(S29&gt;S27,1,IF(S29=S27,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="AA29" s="13">
-        <f>IF(AND(ISNUMBER(S29),ISNUMBER(S28)),IF(S29&gt;S28,1,IF(S29=S28,0.5,0)),0.5)</f>
+      <c r="T29" s="21">
+        <f>IF(ISNUMBER(R29),IF(ISNUMBER(R27),IF(R29&gt;R27,1.0,IF(R29=R27,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="U29" s="15">
+        <f>IF(ISNUMBER(R29),IF(ISNUMBER(R28),IF(R29&gt;R28,1.0,IF(R29=R28,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="V29" s="15">
+        <f>IF(ISNUMBER(S29),IF(ISNUMBER(S27),IF(S29&gt;S27,1.0,IF(S29=S27,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="W29" s="15">
+        <f>IF(ISNUMBER(S29),IF(ISNUMBER(S28),IF(S29&gt;S28,1.0,IF(S29=S28,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X29" s="21">
+        <f>IF(AND(ISNUMBER(R29),ISNUMBER(R27)),VLOOKUP(ABS(R29-R27),'IMP Table'!$A$2:$C$26,3)*SIGN(R29-R27),0)</f>
+        <v/>
+      </c>
+      <c r="Y29" s="15">
+        <f>IF(AND(ISNUMBER(R29),ISNUMBER(R28)),VLOOKUP(ABS(R29-R28),'IMP Table'!$A$2:$C$26,3)*SIGN(R29-R28),0)</f>
+        <v/>
+      </c>
+      <c r="Z29" s="15">
+        <f>IF(AND(ISNUMBER(S29),ISNUMBER(S27)),VLOOKUP(ABS(S29-S27),'IMP Table'!$A$2:$C$26,3)*SIGN(S29-S27),0)</f>
+        <v/>
+      </c>
+      <c r="AA29" s="15">
+        <f>IF(AND(ISNUMBER(S29),ISNUMBER(S28)),VLOOKUP(ABS(S29-S28),'IMP Table'!$A$2:$C$26,3)*SIGN(S29-S28),0)</f>
         <v/>
       </c>
     </row>
@@ -3991,7 +3998,7 @@
         <f>'By Round'!D9</f>
         <v/>
       </c>
-      <c r="F30" s="14" t="inlineStr">
+      <c r="F30" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
@@ -4016,31 +4023,31 @@
         <f>IF(ISBLANK('By Round'!K9),"",'By Round'!K9)</f>
         <v/>
       </c>
-      <c r="L30" s="15">
-        <f>IFERROR(AVERAGE(T30:U30),"")</f>
-        <v/>
-      </c>
-      <c r="M30" s="4">
-        <f>IFERROR(AVERAGE(V30:W30),"")</f>
-        <v/>
-      </c>
-      <c r="N30" s="5">
-        <f>P30/2</f>
-        <v/>
-      </c>
-      <c r="O30" s="5">
-        <f>Q30/2</f>
+      <c r="L30" s="12">
+        <f>SUM(X30:Y30)</f>
+        <v/>
+      </c>
+      <c r="M30" s="13">
+        <f>SUM(Z30:AA30)</f>
+        <v/>
+      </c>
+      <c r="N30" s="8">
+        <f>IF(COUNT(T30:U30)&gt;0,P30/COUNT(T30:U30),0.5)</f>
+        <v/>
+      </c>
+      <c r="O30" s="8">
+        <f>IF(COUNT(V30:W30)&gt;0,Q30/COUNT(V30:W30),0.5)</f>
         <v/>
       </c>
       <c r="P30" s="4">
-        <f>IFERROR(SUM(X30:Y30),"")</f>
+        <f>SUM(T30:U30)</f>
         <v/>
       </c>
       <c r="Q30" s="4">
-        <f>IFERROR(SUM(Z30:AA30),"")</f>
-        <v/>
-      </c>
-      <c r="R30" s="16">
+        <f>SUM(V30:W30)</f>
+        <v/>
+      </c>
+      <c r="R30" s="14">
         <f>IF(ISNUMBER(J30),J30,IF(ISNUMBER(K30),-K30,""))</f>
         <v/>
       </c>
@@ -4048,36 +4055,36 @@
         <f>IF(ISNUMBER(K30),K30,IF(ISNUMBER(J30),-J30,""))</f>
         <v/>
       </c>
-      <c r="T30">
-        <f>IF(AND(ISNUMBER(R30),ISNUMBER(R31)),VLOOKUP(ABS(R30-R31),'IMP Table'!$A$2:$C$26,3)*SIGN(R30-R31),"")</f>
+      <c r="T30" s="14">
+        <f>IF(ISNUMBER(R30),IF(ISNUMBER(R31),IF(R30&gt;R31,1.0,IF(R30=R31,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U30">
-        <f>IF(AND(ISNUMBER(R30),ISNUMBER(R32)),VLOOKUP(ABS(R30-R32),'IMP Table'!$A$2:$C$26,3)*SIGN(R30-R32),"")</f>
+        <f>IF(ISNUMBER(R30),IF(ISNUMBER(R32),IF(R30&gt;R32,1.0,IF(R30=R32,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>IF(AND(ISNUMBER(S30),ISNUMBER(S31)),VLOOKUP(ABS(S30-S31),'IMP Table'!$A$2:$C$26,3)*SIGN(S30-S31),"")</f>
+        <f>IF(ISNUMBER(S30),IF(ISNUMBER(S31),IF(S30&gt;S31,1.0,IF(S30=S31,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>IF(AND(ISNUMBER(S30),ISNUMBER(S32)),VLOOKUP(ABS(S30-S32),'IMP Table'!$A$2:$C$26,3)*SIGN(S30-S32),"")</f>
-        <v/>
-      </c>
-      <c r="X30">
-        <f>IF(AND(ISNUMBER(R30),ISNUMBER(R31)),IF(R30&gt;R31,1,IF(R30=R31,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S30),IF(ISNUMBER(S32),IF(S30&gt;S32,1.0,IF(S30=S32,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X30" s="14">
+        <f>IF(AND(ISNUMBER(R30),ISNUMBER(R31)),VLOOKUP(ABS(R30-R31),'IMP Table'!$A$2:$C$26,3)*SIGN(R30-R31),0)</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>IF(AND(ISNUMBER(R30),ISNUMBER(R32)),IF(R30&gt;R32,1,IF(R30=R32,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R30),ISNUMBER(R32)),VLOOKUP(ABS(R30-R32),'IMP Table'!$A$2:$C$26,3)*SIGN(R30-R32),0)</f>
         <v/>
       </c>
       <c r="Z30">
-        <f>IF(AND(ISNUMBER(S30),ISNUMBER(S31)),IF(S30&gt;S31,1,IF(S30=S31,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S30),ISNUMBER(S31)),VLOOKUP(ABS(S30-S31),'IMP Table'!$A$2:$C$26,3)*SIGN(S30-S31),0)</f>
         <v/>
       </c>
       <c r="AA30">
-        <f>IF(AND(ISNUMBER(S30),ISNUMBER(S32)),IF(S30&gt;S32,1,IF(S30=S32,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S30),ISNUMBER(S32)),VLOOKUP(ABS(S30-S32),'IMP Table'!$A$2:$C$26,3)*SIGN(S30-S32),0)</f>
         <v/>
       </c>
     </row>
@@ -4098,7 +4105,7 @@
         <f>'By Round'!D18</f>
         <v/>
       </c>
-      <c r="F31" s="14" t="inlineStr">
+      <c r="F31" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
@@ -4123,31 +4130,31 @@
         <f>IF(ISBLANK('By Round'!K18),"",'By Round'!K18)</f>
         <v/>
       </c>
-      <c r="L31" s="15">
-        <f>IFERROR(AVERAGE(T31:U31),"")</f>
-        <v/>
-      </c>
-      <c r="M31" s="4">
-        <f>IFERROR(AVERAGE(V31:W31),"")</f>
-        <v/>
-      </c>
-      <c r="N31" s="5">
-        <f>P31/2</f>
-        <v/>
-      </c>
-      <c r="O31" s="5">
-        <f>Q31/2</f>
+      <c r="L31" s="12">
+        <f>SUM(X31:Y31)</f>
+        <v/>
+      </c>
+      <c r="M31" s="13">
+        <f>SUM(Z31:AA31)</f>
+        <v/>
+      </c>
+      <c r="N31" s="8">
+        <f>IF(COUNT(T31:U31)&gt;0,P31/COUNT(T31:U31),0.5)</f>
+        <v/>
+      </c>
+      <c r="O31" s="8">
+        <f>IF(COUNT(V31:W31)&gt;0,Q31/COUNT(V31:W31),0.5)</f>
         <v/>
       </c>
       <c r="P31" s="4">
-        <f>IFERROR(SUM(X31:Y31),"")</f>
+        <f>SUM(T31:U31)</f>
         <v/>
       </c>
       <c r="Q31" s="4">
-        <f>IFERROR(SUM(Z31:AA31),"")</f>
-        <v/>
-      </c>
-      <c r="R31" s="16">
+        <f>SUM(V31:W31)</f>
+        <v/>
+      </c>
+      <c r="R31" s="14">
         <f>IF(ISNUMBER(J31),J31,IF(ISNUMBER(K31),-K31,""))</f>
         <v/>
       </c>
@@ -4155,144 +4162,144 @@
         <f>IF(ISNUMBER(K31),K31,IF(ISNUMBER(J31),-J31,""))</f>
         <v/>
       </c>
-      <c r="T31">
-        <f>IF(AND(ISNUMBER(R31),ISNUMBER(R30)),VLOOKUP(ABS(R31-R30),'IMP Table'!$A$2:$C$26,3)*SIGN(R31-R30),"")</f>
+      <c r="T31" s="14">
+        <f>IF(ISNUMBER(R31),IF(ISNUMBER(R30),IF(R31&gt;R30,1.0,IF(R31=R30,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U31">
-        <f>IF(AND(ISNUMBER(R31),ISNUMBER(R32)),VLOOKUP(ABS(R31-R32),'IMP Table'!$A$2:$C$26,3)*SIGN(R31-R32),"")</f>
+        <f>IF(ISNUMBER(R31),IF(ISNUMBER(R32),IF(R31&gt;R32,1.0,IF(R31=R32,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>IF(AND(ISNUMBER(S31),ISNUMBER(S30)),VLOOKUP(ABS(S31-S30),'IMP Table'!$A$2:$C$26,3)*SIGN(S31-S30),"")</f>
+        <f>IF(ISNUMBER(S31),IF(ISNUMBER(S30),IF(S31&gt;S30,1.0,IF(S31=S30,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>IF(AND(ISNUMBER(S31),ISNUMBER(S32)),VLOOKUP(ABS(S31-S32),'IMP Table'!$A$2:$C$26,3)*SIGN(S31-S32),"")</f>
-        <v/>
-      </c>
-      <c r="X31">
-        <f>IF(AND(ISNUMBER(R31),ISNUMBER(R30)),IF(R31&gt;R30,1,IF(R31=R30,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S31),IF(ISNUMBER(S32),IF(S31&gt;S32,1.0,IF(S31=S32,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X31" s="14">
+        <f>IF(AND(ISNUMBER(R31),ISNUMBER(R30)),VLOOKUP(ABS(R31-R30),'IMP Table'!$A$2:$C$26,3)*SIGN(R31-R30),0)</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>IF(AND(ISNUMBER(R31),ISNUMBER(R32)),IF(R31&gt;R32,1,IF(R31=R32,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R31),ISNUMBER(R32)),VLOOKUP(ABS(R31-R32),'IMP Table'!$A$2:$C$26,3)*SIGN(R31-R32),0)</f>
         <v/>
       </c>
       <c r="Z31">
-        <f>IF(AND(ISNUMBER(S31),ISNUMBER(S30)),IF(S31&gt;S30,1,IF(S31=S30,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S31),ISNUMBER(S30)),VLOOKUP(ABS(S31-S30),'IMP Table'!$A$2:$C$26,3)*SIGN(S31-S30),0)</f>
         <v/>
       </c>
       <c r="AA31">
-        <f>IF(AND(ISNUMBER(S31),ISNUMBER(S32)),IF(S31&gt;S32,1,IF(S31=S32,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S31),ISNUMBER(S32)),VLOOKUP(ABS(S31-S32),'IMP Table'!$A$2:$C$26,3)*SIGN(S31-S32),0)</f>
         <v/>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="13" t="n"/>
-      <c r="B32" s="13">
+      <c r="A32" s="15" t="n"/>
+      <c r="B32" s="15">
         <f>'By Round'!A30</f>
         <v/>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="15">
         <f>'By Round'!B30</f>
         <v/>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="15">
         <f>'By Round'!C30</f>
         <v/>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="15">
         <f>'By Round'!D30</f>
         <v/>
       </c>
-      <c r="F32" s="17" t="inlineStr">
+      <c r="F32" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="15">
         <f>IF(ISBLANK('By Round'!G30),"",'By Round'!G30)</f>
         <v/>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="15">
         <f>IF(ISBLANK('By Round'!H30),"",'By Round'!H30)</f>
         <v/>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="15">
         <f>IF(ISBLANK('By Round'!I30),"",'By Round'!I30)</f>
         <v/>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="15">
         <f>IF(ISBLANK('By Round'!J30),"",'By Round'!J30)</f>
         <v/>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="15">
         <f>IF(ISBLANK('By Round'!K30),"",'By Round'!K30)</f>
         <v/>
       </c>
-      <c r="L32" s="18">
-        <f>IFERROR(AVERAGE(T32:U32),"")</f>
-        <v/>
-      </c>
-      <c r="M32" s="19">
-        <f>IFERROR(AVERAGE(V32:W32),"")</f>
-        <v/>
-      </c>
-      <c r="N32" s="20">
-        <f>P32/2</f>
-        <v/>
-      </c>
-      <c r="O32" s="20">
-        <f>Q32/2</f>
-        <v/>
-      </c>
-      <c r="P32" s="19">
-        <f>IFERROR(SUM(X32:Y32),"")</f>
-        <v/>
-      </c>
-      <c r="Q32" s="19">
-        <f>IFERROR(SUM(Z32:AA32),"")</f>
+      <c r="L32" s="17">
+        <f>SUM(X32:Y32)</f>
+        <v/>
+      </c>
+      <c r="M32" s="18">
+        <f>SUM(Z32:AA32)</f>
+        <v/>
+      </c>
+      <c r="N32" s="19">
+        <f>IF(COUNT(T32:U32)&gt;0,P32/COUNT(T32:U32),0.5)</f>
+        <v/>
+      </c>
+      <c r="O32" s="19">
+        <f>IF(COUNT(V32:W32)&gt;0,Q32/COUNT(V32:W32),0.5)</f>
+        <v/>
+      </c>
+      <c r="P32" s="20">
+        <f>SUM(T32:U32)</f>
+        <v/>
+      </c>
+      <c r="Q32" s="20">
+        <f>SUM(V32:W32)</f>
         <v/>
       </c>
       <c r="R32" s="21">
         <f>IF(ISNUMBER(J32),J32,IF(ISNUMBER(K32),-K32,""))</f>
         <v/>
       </c>
-      <c r="S32" s="13">
+      <c r="S32" s="15">
         <f>IF(ISNUMBER(K32),K32,IF(ISNUMBER(J32),-J32,""))</f>
         <v/>
       </c>
-      <c r="T32" s="13">
-        <f>IF(AND(ISNUMBER(R32),ISNUMBER(R30)),VLOOKUP(ABS(R32-R30),'IMP Table'!$A$2:$C$26,3)*SIGN(R32-R30),"")</f>
-        <v/>
-      </c>
-      <c r="U32" s="13">
-        <f>IF(AND(ISNUMBER(R32),ISNUMBER(R31)),VLOOKUP(ABS(R32-R31),'IMP Table'!$A$2:$C$26,3)*SIGN(R32-R31),"")</f>
-        <v/>
-      </c>
-      <c r="V32" s="13">
-        <f>IF(AND(ISNUMBER(S32),ISNUMBER(S30)),VLOOKUP(ABS(S32-S30),'IMP Table'!$A$2:$C$26,3)*SIGN(S32-S30),"")</f>
-        <v/>
-      </c>
-      <c r="W32" s="13">
-        <f>IF(AND(ISNUMBER(S32),ISNUMBER(S31)),VLOOKUP(ABS(S32-S31),'IMP Table'!$A$2:$C$26,3)*SIGN(S32-S31),"")</f>
-        <v/>
-      </c>
-      <c r="X32" s="13">
-        <f>IF(AND(ISNUMBER(R32),ISNUMBER(R30)),IF(R32&gt;R30,1,IF(R32=R30,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Y32" s="13">
-        <f>IF(AND(ISNUMBER(R32),ISNUMBER(R31)),IF(R32&gt;R31,1,IF(R32=R31,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Z32" s="13">
-        <f>IF(AND(ISNUMBER(S32),ISNUMBER(S30)),IF(S32&gt;S30,1,IF(S32=S30,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="AA32" s="13">
-        <f>IF(AND(ISNUMBER(S32),ISNUMBER(S31)),IF(S32&gt;S31,1,IF(S32=S31,0.5,0)),0.5)</f>
+      <c r="T32" s="21">
+        <f>IF(ISNUMBER(R32),IF(ISNUMBER(R30),IF(R32&gt;R30,1.0,IF(R32=R30,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="U32" s="15">
+        <f>IF(ISNUMBER(R32),IF(ISNUMBER(R31),IF(R32&gt;R31,1.0,IF(R32=R31,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="V32" s="15">
+        <f>IF(ISNUMBER(S32),IF(ISNUMBER(S30),IF(S32&gt;S30,1.0,IF(S32=S30,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="W32" s="15">
+        <f>IF(ISNUMBER(S32),IF(ISNUMBER(S31),IF(S32&gt;S31,1.0,IF(S32=S31,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X32" s="21">
+        <f>IF(AND(ISNUMBER(R32),ISNUMBER(R30)),VLOOKUP(ABS(R32-R30),'IMP Table'!$A$2:$C$26,3)*SIGN(R32-R30),0)</f>
+        <v/>
+      </c>
+      <c r="Y32" s="15">
+        <f>IF(AND(ISNUMBER(R32),ISNUMBER(R31)),VLOOKUP(ABS(R32-R31),'IMP Table'!$A$2:$C$26,3)*SIGN(R32-R31),0)</f>
+        <v/>
+      </c>
+      <c r="Z32" s="15">
+        <f>IF(AND(ISNUMBER(S32),ISNUMBER(S30)),VLOOKUP(ABS(S32-S30),'IMP Table'!$A$2:$C$26,3)*SIGN(S32-S30),0)</f>
+        <v/>
+      </c>
+      <c r="AA32" s="15">
+        <f>IF(AND(ISNUMBER(S32),ISNUMBER(S31)),VLOOKUP(ABS(S32-S31),'IMP Table'!$A$2:$C$26,3)*SIGN(S32-S31),0)</f>
         <v/>
       </c>
     </row>
@@ -4316,7 +4323,7 @@
         <f>'By Round'!D9</f>
         <v/>
       </c>
-      <c r="F33" s="14" t="inlineStr">
+      <c r="F33" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -4341,31 +4348,31 @@
         <f>IF(ISBLANK('By Round'!K9),"",'By Round'!K9)</f>
         <v/>
       </c>
-      <c r="L33" s="15">
-        <f>IFERROR(AVERAGE(T33:U33),"")</f>
-        <v/>
-      </c>
-      <c r="M33" s="4">
-        <f>IFERROR(AVERAGE(V33:W33),"")</f>
-        <v/>
-      </c>
-      <c r="N33" s="5">
-        <f>P33/2</f>
-        <v/>
-      </c>
-      <c r="O33" s="5">
-        <f>Q33/2</f>
+      <c r="L33" s="12">
+        <f>SUM(X33:Y33)</f>
+        <v/>
+      </c>
+      <c r="M33" s="13">
+        <f>SUM(Z33:AA33)</f>
+        <v/>
+      </c>
+      <c r="N33" s="8">
+        <f>IF(COUNT(T33:U33)&gt;0,P33/COUNT(T33:U33),0.5)</f>
+        <v/>
+      </c>
+      <c r="O33" s="8">
+        <f>IF(COUNT(V33:W33)&gt;0,Q33/COUNT(V33:W33),0.5)</f>
         <v/>
       </c>
       <c r="P33" s="4">
-        <f>IFERROR(SUM(X33:Y33),"")</f>
+        <f>SUM(T33:U33)</f>
         <v/>
       </c>
       <c r="Q33" s="4">
-        <f>IFERROR(SUM(Z33:AA33),"")</f>
-        <v/>
-      </c>
-      <c r="R33" s="16">
+        <f>SUM(V33:W33)</f>
+        <v/>
+      </c>
+      <c r="R33" s="14">
         <f>IF(ISNUMBER(J33),J33,IF(ISNUMBER(K33),-K33,""))</f>
         <v/>
       </c>
@@ -4373,36 +4380,36 @@
         <f>IF(ISNUMBER(K33),K33,IF(ISNUMBER(J33),-J33,""))</f>
         <v/>
       </c>
-      <c r="T33">
-        <f>IF(AND(ISNUMBER(R33),ISNUMBER(R34)),VLOOKUP(ABS(R33-R34),'IMP Table'!$A$2:$C$26,3)*SIGN(R33-R34),"")</f>
+      <c r="T33" s="14">
+        <f>IF(ISNUMBER(R33),IF(ISNUMBER(R34),IF(R33&gt;R34,1.0,IF(R33=R34,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U33">
-        <f>IF(AND(ISNUMBER(R33),ISNUMBER(R35)),VLOOKUP(ABS(R33-R35),'IMP Table'!$A$2:$C$26,3)*SIGN(R33-R35),"")</f>
+        <f>IF(ISNUMBER(R33),IF(ISNUMBER(R35),IF(R33&gt;R35,1.0,IF(R33=R35,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>IF(AND(ISNUMBER(S33),ISNUMBER(S34)),VLOOKUP(ABS(S33-S34),'IMP Table'!$A$2:$C$26,3)*SIGN(S33-S34),"")</f>
+        <f>IF(ISNUMBER(S33),IF(ISNUMBER(S34),IF(S33&gt;S34,1.0,IF(S33=S34,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>IF(AND(ISNUMBER(S33),ISNUMBER(S35)),VLOOKUP(ABS(S33-S35),'IMP Table'!$A$2:$C$26,3)*SIGN(S33-S35),"")</f>
-        <v/>
-      </c>
-      <c r="X33">
-        <f>IF(AND(ISNUMBER(R33),ISNUMBER(R34)),IF(R33&gt;R34,1,IF(R33=R34,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S33),IF(ISNUMBER(S35),IF(S33&gt;S35,1.0,IF(S33=S35,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X33" s="14">
+        <f>IF(AND(ISNUMBER(R33),ISNUMBER(R34)),VLOOKUP(ABS(R33-R34),'IMP Table'!$A$2:$C$26,3)*SIGN(R33-R34),0)</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>IF(AND(ISNUMBER(R33),ISNUMBER(R35)),IF(R33&gt;R35,1,IF(R33=R35,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R33),ISNUMBER(R35)),VLOOKUP(ABS(R33-R35),'IMP Table'!$A$2:$C$26,3)*SIGN(R33-R35),0)</f>
         <v/>
       </c>
       <c r="Z33">
-        <f>IF(AND(ISNUMBER(S33),ISNUMBER(S34)),IF(S33&gt;S34,1,IF(S33=S34,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S33),ISNUMBER(S34)),VLOOKUP(ABS(S33-S34),'IMP Table'!$A$2:$C$26,3)*SIGN(S33-S34),0)</f>
         <v/>
       </c>
       <c r="AA33">
-        <f>IF(AND(ISNUMBER(S33),ISNUMBER(S35)),IF(S33&gt;S35,1,IF(S33=S35,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S33),ISNUMBER(S35)),VLOOKUP(ABS(S33-S35),'IMP Table'!$A$2:$C$26,3)*SIGN(S33-S35),0)</f>
         <v/>
       </c>
     </row>
@@ -4423,7 +4430,7 @@
         <f>'By Round'!D18</f>
         <v/>
       </c>
-      <c r="F34" s="14" t="inlineStr">
+      <c r="F34" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -4448,31 +4455,31 @@
         <f>IF(ISBLANK('By Round'!K18),"",'By Round'!K18)</f>
         <v/>
       </c>
-      <c r="L34" s="15">
-        <f>IFERROR(AVERAGE(T34:U34),"")</f>
-        <v/>
-      </c>
-      <c r="M34" s="4">
-        <f>IFERROR(AVERAGE(V34:W34),"")</f>
-        <v/>
-      </c>
-      <c r="N34" s="5">
-        <f>P34/2</f>
-        <v/>
-      </c>
-      <c r="O34" s="5">
-        <f>Q34/2</f>
+      <c r="L34" s="12">
+        <f>SUM(X34:Y34)</f>
+        <v/>
+      </c>
+      <c r="M34" s="13">
+        <f>SUM(Z34:AA34)</f>
+        <v/>
+      </c>
+      <c r="N34" s="8">
+        <f>IF(COUNT(T34:U34)&gt;0,P34/COUNT(T34:U34),0.5)</f>
+        <v/>
+      </c>
+      <c r="O34" s="8">
+        <f>IF(COUNT(V34:W34)&gt;0,Q34/COUNT(V34:W34),0.5)</f>
         <v/>
       </c>
       <c r="P34" s="4">
-        <f>IFERROR(SUM(X34:Y34),"")</f>
+        <f>SUM(T34:U34)</f>
         <v/>
       </c>
       <c r="Q34" s="4">
-        <f>IFERROR(SUM(Z34:AA34),"")</f>
-        <v/>
-      </c>
-      <c r="R34" s="16">
+        <f>SUM(V34:W34)</f>
+        <v/>
+      </c>
+      <c r="R34" s="14">
         <f>IF(ISNUMBER(J34),J34,IF(ISNUMBER(K34),-K34,""))</f>
         <v/>
       </c>
@@ -4480,144 +4487,144 @@
         <f>IF(ISNUMBER(K34),K34,IF(ISNUMBER(J34),-J34,""))</f>
         <v/>
       </c>
-      <c r="T34">
-        <f>IF(AND(ISNUMBER(R34),ISNUMBER(R33)),VLOOKUP(ABS(R34-R33),'IMP Table'!$A$2:$C$26,3)*SIGN(R34-R33),"")</f>
+      <c r="T34" s="14">
+        <f>IF(ISNUMBER(R34),IF(ISNUMBER(R33),IF(R34&gt;R33,1.0,IF(R34=R33,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U34">
-        <f>IF(AND(ISNUMBER(R34),ISNUMBER(R35)),VLOOKUP(ABS(R34-R35),'IMP Table'!$A$2:$C$26,3)*SIGN(R34-R35),"")</f>
+        <f>IF(ISNUMBER(R34),IF(ISNUMBER(R35),IF(R34&gt;R35,1.0,IF(R34=R35,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>IF(AND(ISNUMBER(S34),ISNUMBER(S33)),VLOOKUP(ABS(S34-S33),'IMP Table'!$A$2:$C$26,3)*SIGN(S34-S33),"")</f>
+        <f>IF(ISNUMBER(S34),IF(ISNUMBER(S33),IF(S34&gt;S33,1.0,IF(S34=S33,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>IF(AND(ISNUMBER(S34),ISNUMBER(S35)),VLOOKUP(ABS(S34-S35),'IMP Table'!$A$2:$C$26,3)*SIGN(S34-S35),"")</f>
-        <v/>
-      </c>
-      <c r="X34">
-        <f>IF(AND(ISNUMBER(R34),ISNUMBER(R33)),IF(R34&gt;R33,1,IF(R34=R33,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S34),IF(ISNUMBER(S35),IF(S34&gt;S35,1.0,IF(S34=S35,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X34" s="14">
+        <f>IF(AND(ISNUMBER(R34),ISNUMBER(R33)),VLOOKUP(ABS(R34-R33),'IMP Table'!$A$2:$C$26,3)*SIGN(R34-R33),0)</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>IF(AND(ISNUMBER(R34),ISNUMBER(R35)),IF(R34&gt;R35,1,IF(R34=R35,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R34),ISNUMBER(R35)),VLOOKUP(ABS(R34-R35),'IMP Table'!$A$2:$C$26,3)*SIGN(R34-R35),0)</f>
         <v/>
       </c>
       <c r="Z34">
-        <f>IF(AND(ISNUMBER(S34),ISNUMBER(S33)),IF(S34&gt;S33,1,IF(S34=S33,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S34),ISNUMBER(S33)),VLOOKUP(ABS(S34-S33),'IMP Table'!$A$2:$C$26,3)*SIGN(S34-S33),0)</f>
         <v/>
       </c>
       <c r="AA34">
-        <f>IF(AND(ISNUMBER(S34),ISNUMBER(S35)),IF(S34&gt;S35,1,IF(S34=S35,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S34),ISNUMBER(S35)),VLOOKUP(ABS(S34-S35),'IMP Table'!$A$2:$C$26,3)*SIGN(S34-S35),0)</f>
         <v/>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="13" t="n"/>
-      <c r="B35" s="13">
+      <c r="A35" s="15" t="n"/>
+      <c r="B35" s="15">
         <f>'By Round'!A30</f>
         <v/>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="15">
         <f>'By Round'!B30</f>
         <v/>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="15">
         <f>'By Round'!C30</f>
         <v/>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="15">
         <f>'By Round'!D30</f>
         <v/>
       </c>
-      <c r="F35" s="17" t="inlineStr">
+      <c r="F35" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="15">
         <f>IF(ISBLANK('By Round'!G30),"",'By Round'!G30)</f>
         <v/>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="15">
         <f>IF(ISBLANK('By Round'!H30),"",'By Round'!H30)</f>
         <v/>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="15">
         <f>IF(ISBLANK('By Round'!I30),"",'By Round'!I30)</f>
         <v/>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="15">
         <f>IF(ISBLANK('By Round'!J30),"",'By Round'!J30)</f>
         <v/>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="15">
         <f>IF(ISBLANK('By Round'!K30),"",'By Round'!K30)</f>
         <v/>
       </c>
-      <c r="L35" s="18">
-        <f>IFERROR(AVERAGE(T35:U35),"")</f>
-        <v/>
-      </c>
-      <c r="M35" s="19">
-        <f>IFERROR(AVERAGE(V35:W35),"")</f>
-        <v/>
-      </c>
-      <c r="N35" s="20">
-        <f>P35/2</f>
-        <v/>
-      </c>
-      <c r="O35" s="20">
-        <f>Q35/2</f>
-        <v/>
-      </c>
-      <c r="P35" s="19">
-        <f>IFERROR(SUM(X35:Y35),"")</f>
-        <v/>
-      </c>
-      <c r="Q35" s="19">
-        <f>IFERROR(SUM(Z35:AA35),"")</f>
+      <c r="L35" s="17">
+        <f>SUM(X35:Y35)</f>
+        <v/>
+      </c>
+      <c r="M35" s="18">
+        <f>SUM(Z35:AA35)</f>
+        <v/>
+      </c>
+      <c r="N35" s="19">
+        <f>IF(COUNT(T35:U35)&gt;0,P35/COUNT(T35:U35),0.5)</f>
+        <v/>
+      </c>
+      <c r="O35" s="19">
+        <f>IF(COUNT(V35:W35)&gt;0,Q35/COUNT(V35:W35),0.5)</f>
+        <v/>
+      </c>
+      <c r="P35" s="20">
+        <f>SUM(T35:U35)</f>
+        <v/>
+      </c>
+      <c r="Q35" s="20">
+        <f>SUM(V35:W35)</f>
         <v/>
       </c>
       <c r="R35" s="21">
         <f>IF(ISNUMBER(J35),J35,IF(ISNUMBER(K35),-K35,""))</f>
         <v/>
       </c>
-      <c r="S35" s="13">
+      <c r="S35" s="15">
         <f>IF(ISNUMBER(K35),K35,IF(ISNUMBER(J35),-J35,""))</f>
         <v/>
       </c>
-      <c r="T35" s="13">
-        <f>IF(AND(ISNUMBER(R35),ISNUMBER(R33)),VLOOKUP(ABS(R35-R33),'IMP Table'!$A$2:$C$26,3)*SIGN(R35-R33),"")</f>
-        <v/>
-      </c>
-      <c r="U35" s="13">
-        <f>IF(AND(ISNUMBER(R35),ISNUMBER(R34)),VLOOKUP(ABS(R35-R34),'IMP Table'!$A$2:$C$26,3)*SIGN(R35-R34),"")</f>
-        <v/>
-      </c>
-      <c r="V35" s="13">
-        <f>IF(AND(ISNUMBER(S35),ISNUMBER(S33)),VLOOKUP(ABS(S35-S33),'IMP Table'!$A$2:$C$26,3)*SIGN(S35-S33),"")</f>
-        <v/>
-      </c>
-      <c r="W35" s="13">
-        <f>IF(AND(ISNUMBER(S35),ISNUMBER(S34)),VLOOKUP(ABS(S35-S34),'IMP Table'!$A$2:$C$26,3)*SIGN(S35-S34),"")</f>
-        <v/>
-      </c>
-      <c r="X35" s="13">
-        <f>IF(AND(ISNUMBER(R35),ISNUMBER(R33)),IF(R35&gt;R33,1,IF(R35=R33,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Y35" s="13">
-        <f>IF(AND(ISNUMBER(R35),ISNUMBER(R34)),IF(R35&gt;R34,1,IF(R35=R34,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Z35" s="13">
-        <f>IF(AND(ISNUMBER(S35),ISNUMBER(S33)),IF(S35&gt;S33,1,IF(S35=S33,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="AA35" s="13">
-        <f>IF(AND(ISNUMBER(S35),ISNUMBER(S34)),IF(S35&gt;S34,1,IF(S35=S34,0.5,0)),0.5)</f>
+      <c r="T35" s="21">
+        <f>IF(ISNUMBER(R35),IF(ISNUMBER(R33),IF(R35&gt;R33,1.0,IF(R35=R33,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="U35" s="15">
+        <f>IF(ISNUMBER(R35),IF(ISNUMBER(R34),IF(R35&gt;R34,1.0,IF(R35=R34,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="V35" s="15">
+        <f>IF(ISNUMBER(S35),IF(ISNUMBER(S33),IF(S35&gt;S33,1.0,IF(S35=S33,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="W35" s="15">
+        <f>IF(ISNUMBER(S35),IF(ISNUMBER(S34),IF(S35&gt;S34,1.0,IF(S35=S34,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X35" s="21">
+        <f>IF(AND(ISNUMBER(R35),ISNUMBER(R33)),VLOOKUP(ABS(R35-R33),'IMP Table'!$A$2:$C$26,3)*SIGN(R35-R33),0)</f>
+        <v/>
+      </c>
+      <c r="Y35" s="15">
+        <f>IF(AND(ISNUMBER(R35),ISNUMBER(R34)),VLOOKUP(ABS(R35-R34),'IMP Table'!$A$2:$C$26,3)*SIGN(R35-R34),0)</f>
+        <v/>
+      </c>
+      <c r="Z35" s="15">
+        <f>IF(AND(ISNUMBER(S35),ISNUMBER(S33)),VLOOKUP(ABS(S35-S33),'IMP Table'!$A$2:$C$26,3)*SIGN(S35-S33),0)</f>
+        <v/>
+      </c>
+      <c r="AA35" s="15">
+        <f>IF(AND(ISNUMBER(S35),ISNUMBER(S34)),VLOOKUP(ABS(S35-S34),'IMP Table'!$A$2:$C$26,3)*SIGN(S35-S34),0)</f>
         <v/>
       </c>
     </row>
@@ -4641,7 +4648,7 @@
         <f>'By Round'!D9</f>
         <v/>
       </c>
-      <c r="F36" s="14" t="inlineStr">
+      <c r="F36" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
@@ -4666,31 +4673,31 @@
         <f>IF(ISBLANK('By Round'!K9),"",'By Round'!K9)</f>
         <v/>
       </c>
-      <c r="L36" s="15">
-        <f>IFERROR(AVERAGE(T36:U36),"")</f>
-        <v/>
-      </c>
-      <c r="M36" s="4">
-        <f>IFERROR(AVERAGE(V36:W36),"")</f>
-        <v/>
-      </c>
-      <c r="N36" s="5">
-        <f>P36/2</f>
-        <v/>
-      </c>
-      <c r="O36" s="5">
-        <f>Q36/2</f>
+      <c r="L36" s="12">
+        <f>SUM(X36:Y36)</f>
+        <v/>
+      </c>
+      <c r="M36" s="13">
+        <f>SUM(Z36:AA36)</f>
+        <v/>
+      </c>
+      <c r="N36" s="8">
+        <f>IF(COUNT(T36:U36)&gt;0,P36/COUNT(T36:U36),0.5)</f>
+        <v/>
+      </c>
+      <c r="O36" s="8">
+        <f>IF(COUNT(V36:W36)&gt;0,Q36/COUNT(V36:W36),0.5)</f>
         <v/>
       </c>
       <c r="P36" s="4">
-        <f>IFERROR(SUM(X36:Y36),"")</f>
+        <f>SUM(T36:U36)</f>
         <v/>
       </c>
       <c r="Q36" s="4">
-        <f>IFERROR(SUM(Z36:AA36),"")</f>
-        <v/>
-      </c>
-      <c r="R36" s="16">
+        <f>SUM(V36:W36)</f>
+        <v/>
+      </c>
+      <c r="R36" s="14">
         <f>IF(ISNUMBER(J36),J36,IF(ISNUMBER(K36),-K36,""))</f>
         <v/>
       </c>
@@ -4698,36 +4705,36 @@
         <f>IF(ISNUMBER(K36),K36,IF(ISNUMBER(J36),-J36,""))</f>
         <v/>
       </c>
-      <c r="T36">
-        <f>IF(AND(ISNUMBER(R36),ISNUMBER(R37)),VLOOKUP(ABS(R36-R37),'IMP Table'!$A$2:$C$26,3)*SIGN(R36-R37),"")</f>
+      <c r="T36" s="14">
+        <f>IF(ISNUMBER(R36),IF(ISNUMBER(R37),IF(R36&gt;R37,1.0,IF(R36=R37,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U36">
-        <f>IF(AND(ISNUMBER(R36),ISNUMBER(R38)),VLOOKUP(ABS(R36-R38),'IMP Table'!$A$2:$C$26,3)*SIGN(R36-R38),"")</f>
+        <f>IF(ISNUMBER(R36),IF(ISNUMBER(R38),IF(R36&gt;R38,1.0,IF(R36=R38,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>IF(AND(ISNUMBER(S36),ISNUMBER(S37)),VLOOKUP(ABS(S36-S37),'IMP Table'!$A$2:$C$26,3)*SIGN(S36-S37),"")</f>
+        <f>IF(ISNUMBER(S36),IF(ISNUMBER(S37),IF(S36&gt;S37,1.0,IF(S36=S37,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>IF(AND(ISNUMBER(S36),ISNUMBER(S38)),VLOOKUP(ABS(S36-S38),'IMP Table'!$A$2:$C$26,3)*SIGN(S36-S38),"")</f>
-        <v/>
-      </c>
-      <c r="X36">
-        <f>IF(AND(ISNUMBER(R36),ISNUMBER(R37)),IF(R36&gt;R37,1,IF(R36=R37,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S36),IF(ISNUMBER(S38),IF(S36&gt;S38,1.0,IF(S36=S38,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X36" s="14">
+        <f>IF(AND(ISNUMBER(R36),ISNUMBER(R37)),VLOOKUP(ABS(R36-R37),'IMP Table'!$A$2:$C$26,3)*SIGN(R36-R37),0)</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>IF(AND(ISNUMBER(R36),ISNUMBER(R38)),IF(R36&gt;R38,1,IF(R36=R38,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R36),ISNUMBER(R38)),VLOOKUP(ABS(R36-R38),'IMP Table'!$A$2:$C$26,3)*SIGN(R36-R38),0)</f>
         <v/>
       </c>
       <c r="Z36">
-        <f>IF(AND(ISNUMBER(S36),ISNUMBER(S37)),IF(S36&gt;S37,1,IF(S36=S37,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S36),ISNUMBER(S37)),VLOOKUP(ABS(S36-S37),'IMP Table'!$A$2:$C$26,3)*SIGN(S36-S37),0)</f>
         <v/>
       </c>
       <c r="AA36">
-        <f>IF(AND(ISNUMBER(S36),ISNUMBER(S38)),IF(S36&gt;S38,1,IF(S36=S38,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S36),ISNUMBER(S38)),VLOOKUP(ABS(S36-S38),'IMP Table'!$A$2:$C$26,3)*SIGN(S36-S38),0)</f>
         <v/>
       </c>
     </row>
@@ -4748,7 +4755,7 @@
         <f>'By Round'!D18</f>
         <v/>
       </c>
-      <c r="F37" s="14" t="inlineStr">
+      <c r="F37" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
@@ -4773,31 +4780,31 @@
         <f>IF(ISBLANK('By Round'!K18),"",'By Round'!K18)</f>
         <v/>
       </c>
-      <c r="L37" s="15">
-        <f>IFERROR(AVERAGE(T37:U37),"")</f>
-        <v/>
-      </c>
-      <c r="M37" s="4">
-        <f>IFERROR(AVERAGE(V37:W37),"")</f>
-        <v/>
-      </c>
-      <c r="N37" s="5">
-        <f>P37/2</f>
-        <v/>
-      </c>
-      <c r="O37" s="5">
-        <f>Q37/2</f>
+      <c r="L37" s="12">
+        <f>SUM(X37:Y37)</f>
+        <v/>
+      </c>
+      <c r="M37" s="13">
+        <f>SUM(Z37:AA37)</f>
+        <v/>
+      </c>
+      <c r="N37" s="8">
+        <f>IF(COUNT(T37:U37)&gt;0,P37/COUNT(T37:U37),0.5)</f>
+        <v/>
+      </c>
+      <c r="O37" s="8">
+        <f>IF(COUNT(V37:W37)&gt;0,Q37/COUNT(V37:W37),0.5)</f>
         <v/>
       </c>
       <c r="P37" s="4">
-        <f>IFERROR(SUM(X37:Y37),"")</f>
+        <f>SUM(T37:U37)</f>
         <v/>
       </c>
       <c r="Q37" s="4">
-        <f>IFERROR(SUM(Z37:AA37),"")</f>
-        <v/>
-      </c>
-      <c r="R37" s="16">
+        <f>SUM(V37:W37)</f>
+        <v/>
+      </c>
+      <c r="R37" s="14">
         <f>IF(ISNUMBER(J37),J37,IF(ISNUMBER(K37),-K37,""))</f>
         <v/>
       </c>
@@ -4805,144 +4812,144 @@
         <f>IF(ISNUMBER(K37),K37,IF(ISNUMBER(J37),-J37,""))</f>
         <v/>
       </c>
-      <c r="T37">
-        <f>IF(AND(ISNUMBER(R37),ISNUMBER(R36)),VLOOKUP(ABS(R37-R36),'IMP Table'!$A$2:$C$26,3)*SIGN(R37-R36),"")</f>
+      <c r="T37" s="14">
+        <f>IF(ISNUMBER(R37),IF(ISNUMBER(R36),IF(R37&gt;R36,1.0,IF(R37=R36,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U37">
-        <f>IF(AND(ISNUMBER(R37),ISNUMBER(R38)),VLOOKUP(ABS(R37-R38),'IMP Table'!$A$2:$C$26,3)*SIGN(R37-R38),"")</f>
+        <f>IF(ISNUMBER(R37),IF(ISNUMBER(R38),IF(R37&gt;R38,1.0,IF(R37=R38,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>IF(AND(ISNUMBER(S37),ISNUMBER(S36)),VLOOKUP(ABS(S37-S36),'IMP Table'!$A$2:$C$26,3)*SIGN(S37-S36),"")</f>
+        <f>IF(ISNUMBER(S37),IF(ISNUMBER(S36),IF(S37&gt;S36,1.0,IF(S37=S36,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>IF(AND(ISNUMBER(S37),ISNUMBER(S38)),VLOOKUP(ABS(S37-S38),'IMP Table'!$A$2:$C$26,3)*SIGN(S37-S38),"")</f>
-        <v/>
-      </c>
-      <c r="X37">
-        <f>IF(AND(ISNUMBER(R37),ISNUMBER(R36)),IF(R37&gt;R36,1,IF(R37=R36,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S37),IF(ISNUMBER(S38),IF(S37&gt;S38,1.0,IF(S37=S38,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X37" s="14">
+        <f>IF(AND(ISNUMBER(R37),ISNUMBER(R36)),VLOOKUP(ABS(R37-R36),'IMP Table'!$A$2:$C$26,3)*SIGN(R37-R36),0)</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>IF(AND(ISNUMBER(R37),ISNUMBER(R38)),IF(R37&gt;R38,1,IF(R37=R38,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R37),ISNUMBER(R38)),VLOOKUP(ABS(R37-R38),'IMP Table'!$A$2:$C$26,3)*SIGN(R37-R38),0)</f>
         <v/>
       </c>
       <c r="Z37">
-        <f>IF(AND(ISNUMBER(S37),ISNUMBER(S36)),IF(S37&gt;S36,1,IF(S37=S36,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S37),ISNUMBER(S36)),VLOOKUP(ABS(S37-S36),'IMP Table'!$A$2:$C$26,3)*SIGN(S37-S36),0)</f>
         <v/>
       </c>
       <c r="AA37">
-        <f>IF(AND(ISNUMBER(S37),ISNUMBER(S38)),IF(S37&gt;S38,1,IF(S37=S38,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S37),ISNUMBER(S38)),VLOOKUP(ABS(S37-S38),'IMP Table'!$A$2:$C$26,3)*SIGN(S37-S38),0)</f>
         <v/>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="13" t="n"/>
-      <c r="B38" s="13">
+      <c r="A38" s="15" t="n"/>
+      <c r="B38" s="15">
         <f>'By Round'!A30</f>
         <v/>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="15">
         <f>'By Round'!B30</f>
         <v/>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="15">
         <f>'By Round'!C30</f>
         <v/>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="15">
         <f>'By Round'!D30</f>
         <v/>
       </c>
-      <c r="F38" s="17" t="inlineStr">
+      <c r="F38" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="15">
         <f>IF(ISBLANK('By Round'!G30),"",'By Round'!G30)</f>
         <v/>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="15">
         <f>IF(ISBLANK('By Round'!H30),"",'By Round'!H30)</f>
         <v/>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="15">
         <f>IF(ISBLANK('By Round'!I30),"",'By Round'!I30)</f>
         <v/>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="15">
         <f>IF(ISBLANK('By Round'!J30),"",'By Round'!J30)</f>
         <v/>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="15">
         <f>IF(ISBLANK('By Round'!K30),"",'By Round'!K30)</f>
         <v/>
       </c>
-      <c r="L38" s="18">
-        <f>IFERROR(AVERAGE(T38:U38),"")</f>
-        <v/>
-      </c>
-      <c r="M38" s="19">
-        <f>IFERROR(AVERAGE(V38:W38),"")</f>
-        <v/>
-      </c>
-      <c r="N38" s="20">
-        <f>P38/2</f>
-        <v/>
-      </c>
-      <c r="O38" s="20">
-        <f>Q38/2</f>
-        <v/>
-      </c>
-      <c r="P38" s="19">
-        <f>IFERROR(SUM(X38:Y38),"")</f>
-        <v/>
-      </c>
-      <c r="Q38" s="19">
-        <f>IFERROR(SUM(Z38:AA38),"")</f>
+      <c r="L38" s="17">
+        <f>SUM(X38:Y38)</f>
+        <v/>
+      </c>
+      <c r="M38" s="18">
+        <f>SUM(Z38:AA38)</f>
+        <v/>
+      </c>
+      <c r="N38" s="19">
+        <f>IF(COUNT(T38:U38)&gt;0,P38/COUNT(T38:U38),0.5)</f>
+        <v/>
+      </c>
+      <c r="O38" s="19">
+        <f>IF(COUNT(V38:W38)&gt;0,Q38/COUNT(V38:W38),0.5)</f>
+        <v/>
+      </c>
+      <c r="P38" s="20">
+        <f>SUM(T38:U38)</f>
+        <v/>
+      </c>
+      <c r="Q38" s="20">
+        <f>SUM(V38:W38)</f>
         <v/>
       </c>
       <c r="R38" s="21">
         <f>IF(ISNUMBER(J38),J38,IF(ISNUMBER(K38),-K38,""))</f>
         <v/>
       </c>
-      <c r="S38" s="13">
+      <c r="S38" s="15">
         <f>IF(ISNUMBER(K38),K38,IF(ISNUMBER(J38),-J38,""))</f>
         <v/>
       </c>
-      <c r="T38" s="13">
-        <f>IF(AND(ISNUMBER(R38),ISNUMBER(R36)),VLOOKUP(ABS(R38-R36),'IMP Table'!$A$2:$C$26,3)*SIGN(R38-R36),"")</f>
-        <v/>
-      </c>
-      <c r="U38" s="13">
-        <f>IF(AND(ISNUMBER(R38),ISNUMBER(R37)),VLOOKUP(ABS(R38-R37),'IMP Table'!$A$2:$C$26,3)*SIGN(R38-R37),"")</f>
-        <v/>
-      </c>
-      <c r="V38" s="13">
-        <f>IF(AND(ISNUMBER(S38),ISNUMBER(S36)),VLOOKUP(ABS(S38-S36),'IMP Table'!$A$2:$C$26,3)*SIGN(S38-S36),"")</f>
-        <v/>
-      </c>
-      <c r="W38" s="13">
-        <f>IF(AND(ISNUMBER(S38),ISNUMBER(S37)),VLOOKUP(ABS(S38-S37),'IMP Table'!$A$2:$C$26,3)*SIGN(S38-S37),"")</f>
-        <v/>
-      </c>
-      <c r="X38" s="13">
-        <f>IF(AND(ISNUMBER(R38),ISNUMBER(R36)),IF(R38&gt;R36,1,IF(R38=R36,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Y38" s="13">
-        <f>IF(AND(ISNUMBER(R38),ISNUMBER(R37)),IF(R38&gt;R37,1,IF(R38=R37,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Z38" s="13">
-        <f>IF(AND(ISNUMBER(S38),ISNUMBER(S36)),IF(S38&gt;S36,1,IF(S38=S36,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="AA38" s="13">
-        <f>IF(AND(ISNUMBER(S38),ISNUMBER(S37)),IF(S38&gt;S37,1,IF(S38=S37,0.5,0)),0.5)</f>
+      <c r="T38" s="21">
+        <f>IF(ISNUMBER(R38),IF(ISNUMBER(R36),IF(R38&gt;R36,1.0,IF(R38=R36,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="U38" s="15">
+        <f>IF(ISNUMBER(R38),IF(ISNUMBER(R37),IF(R38&gt;R37,1.0,IF(R38=R37,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="V38" s="15">
+        <f>IF(ISNUMBER(S38),IF(ISNUMBER(S36),IF(S38&gt;S36,1.0,IF(S38=S36,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="W38" s="15">
+        <f>IF(ISNUMBER(S38),IF(ISNUMBER(S37),IF(S38&gt;S37,1.0,IF(S38=S37,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X38" s="21">
+        <f>IF(AND(ISNUMBER(R38),ISNUMBER(R36)),VLOOKUP(ABS(R38-R36),'IMP Table'!$A$2:$C$26,3)*SIGN(R38-R36),0)</f>
+        <v/>
+      </c>
+      <c r="Y38" s="15">
+        <f>IF(AND(ISNUMBER(R38),ISNUMBER(R37)),VLOOKUP(ABS(R38-R37),'IMP Table'!$A$2:$C$26,3)*SIGN(R38-R37),0)</f>
+        <v/>
+      </c>
+      <c r="Z38" s="15">
+        <f>IF(AND(ISNUMBER(S38),ISNUMBER(S36)),VLOOKUP(ABS(S38-S36),'IMP Table'!$A$2:$C$26,3)*SIGN(S38-S36),0)</f>
+        <v/>
+      </c>
+      <c r="AA38" s="15">
+        <f>IF(AND(ISNUMBER(S38),ISNUMBER(S37)),VLOOKUP(ABS(S38-S37),'IMP Table'!$A$2:$C$26,3)*SIGN(S38-S37),0)</f>
         <v/>
       </c>
     </row>
@@ -4966,7 +4973,7 @@
         <f>'By Round'!D39</f>
         <v/>
       </c>
-      <c r="F39" s="14" t="inlineStr">
+      <c r="F39" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
@@ -4991,31 +4998,31 @@
         <f>IF(ISBLANK('By Round'!K39),"",'By Round'!K39)</f>
         <v/>
       </c>
-      <c r="L39" s="15">
-        <f>IFERROR(AVERAGE(T39:U39),"")</f>
-        <v/>
-      </c>
-      <c r="M39" s="4">
-        <f>IFERROR(AVERAGE(V39:W39),"")</f>
-        <v/>
-      </c>
-      <c r="N39" s="5">
-        <f>P39/2</f>
-        <v/>
-      </c>
-      <c r="O39" s="5">
-        <f>Q39/2</f>
+      <c r="L39" s="12">
+        <f>SUM(X39:Y39)</f>
+        <v/>
+      </c>
+      <c r="M39" s="13">
+        <f>SUM(Z39:AA39)</f>
+        <v/>
+      </c>
+      <c r="N39" s="8">
+        <f>IF(COUNT(T39:U39)&gt;0,P39/COUNT(T39:U39),0.5)</f>
+        <v/>
+      </c>
+      <c r="O39" s="8">
+        <f>IF(COUNT(V39:W39)&gt;0,Q39/COUNT(V39:W39),0.5)</f>
         <v/>
       </c>
       <c r="P39" s="4">
-        <f>IFERROR(SUM(X39:Y39),"")</f>
+        <f>SUM(T39:U39)</f>
         <v/>
       </c>
       <c r="Q39" s="4">
-        <f>IFERROR(SUM(Z39:AA39),"")</f>
-        <v/>
-      </c>
-      <c r="R39" s="16">
+        <f>SUM(V39:W39)</f>
+        <v/>
+      </c>
+      <c r="R39" s="14">
         <f>IF(ISNUMBER(J39),J39,IF(ISNUMBER(K39),-K39,""))</f>
         <v/>
       </c>
@@ -5023,36 +5030,36 @@
         <f>IF(ISNUMBER(K39),K39,IF(ISNUMBER(J39),-J39,""))</f>
         <v/>
       </c>
-      <c r="T39">
-        <f>IF(AND(ISNUMBER(R39),ISNUMBER(R40)),VLOOKUP(ABS(R39-R40),'IMP Table'!$A$2:$C$26,3)*SIGN(R39-R40),"")</f>
+      <c r="T39" s="14">
+        <f>IF(ISNUMBER(R39),IF(ISNUMBER(R40),IF(R39&gt;R40,1.0,IF(R39=R40,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U39">
-        <f>IF(AND(ISNUMBER(R39),ISNUMBER(R41)),VLOOKUP(ABS(R39-R41),'IMP Table'!$A$2:$C$26,3)*SIGN(R39-R41),"")</f>
+        <f>IF(ISNUMBER(R39),IF(ISNUMBER(R41),IF(R39&gt;R41,1.0,IF(R39=R41,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>IF(AND(ISNUMBER(S39),ISNUMBER(S40)),VLOOKUP(ABS(S39-S40),'IMP Table'!$A$2:$C$26,3)*SIGN(S39-S40),"")</f>
+        <f>IF(ISNUMBER(S39),IF(ISNUMBER(S40),IF(S39&gt;S40,1.0,IF(S39=S40,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>IF(AND(ISNUMBER(S39),ISNUMBER(S41)),VLOOKUP(ABS(S39-S41),'IMP Table'!$A$2:$C$26,3)*SIGN(S39-S41),"")</f>
-        <v/>
-      </c>
-      <c r="X39">
-        <f>IF(AND(ISNUMBER(R39),ISNUMBER(R40)),IF(R39&gt;R40,1,IF(R39=R40,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S39),IF(ISNUMBER(S41),IF(S39&gt;S41,1.0,IF(S39=S41,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X39" s="14">
+        <f>IF(AND(ISNUMBER(R39),ISNUMBER(R40)),VLOOKUP(ABS(R39-R40),'IMP Table'!$A$2:$C$26,3)*SIGN(R39-R40),0)</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>IF(AND(ISNUMBER(R39),ISNUMBER(R41)),IF(R39&gt;R41,1,IF(R39=R41,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R39),ISNUMBER(R41)),VLOOKUP(ABS(R39-R41),'IMP Table'!$A$2:$C$26,3)*SIGN(R39-R41),0)</f>
         <v/>
       </c>
       <c r="Z39">
-        <f>IF(AND(ISNUMBER(S39),ISNUMBER(S40)),IF(S39&gt;S40,1,IF(S39=S40,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S39),ISNUMBER(S40)),VLOOKUP(ABS(S39-S40),'IMP Table'!$A$2:$C$26,3)*SIGN(S39-S40),0)</f>
         <v/>
       </c>
       <c r="AA39">
-        <f>IF(AND(ISNUMBER(S39),ISNUMBER(S41)),IF(S39&gt;S41,1,IF(S39=S41,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S39),ISNUMBER(S41)),VLOOKUP(ABS(S39-S41),'IMP Table'!$A$2:$C$26,3)*SIGN(S39-S41),0)</f>
         <v/>
       </c>
     </row>
@@ -5073,7 +5080,7 @@
         <f>'By Round'!D42</f>
         <v/>
       </c>
-      <c r="F40" s="14" t="inlineStr">
+      <c r="F40" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
@@ -5098,31 +5105,31 @@
         <f>IF(ISBLANK('By Round'!K42),"",'By Round'!K42)</f>
         <v/>
       </c>
-      <c r="L40" s="15">
-        <f>IFERROR(AVERAGE(T40:U40),"")</f>
-        <v/>
-      </c>
-      <c r="M40" s="4">
-        <f>IFERROR(AVERAGE(V40:W40),"")</f>
-        <v/>
-      </c>
-      <c r="N40" s="5">
-        <f>P40/2</f>
-        <v/>
-      </c>
-      <c r="O40" s="5">
-        <f>Q40/2</f>
+      <c r="L40" s="12">
+        <f>SUM(X40:Y40)</f>
+        <v/>
+      </c>
+      <c r="M40" s="13">
+        <f>SUM(Z40:AA40)</f>
+        <v/>
+      </c>
+      <c r="N40" s="8">
+        <f>IF(COUNT(T40:U40)&gt;0,P40/COUNT(T40:U40),0.5)</f>
+        <v/>
+      </c>
+      <c r="O40" s="8">
+        <f>IF(COUNT(V40:W40)&gt;0,Q40/COUNT(V40:W40),0.5)</f>
         <v/>
       </c>
       <c r="P40" s="4">
-        <f>IFERROR(SUM(X40:Y40),"")</f>
+        <f>SUM(T40:U40)</f>
         <v/>
       </c>
       <c r="Q40" s="4">
-        <f>IFERROR(SUM(Z40:AA40),"")</f>
-        <v/>
-      </c>
-      <c r="R40" s="16">
+        <f>SUM(V40:W40)</f>
+        <v/>
+      </c>
+      <c r="R40" s="14">
         <f>IF(ISNUMBER(J40),J40,IF(ISNUMBER(K40),-K40,""))</f>
         <v/>
       </c>
@@ -5130,144 +5137,144 @@
         <f>IF(ISNUMBER(K40),K40,IF(ISNUMBER(J40),-J40,""))</f>
         <v/>
       </c>
-      <c r="T40">
-        <f>IF(AND(ISNUMBER(R40),ISNUMBER(R39)),VLOOKUP(ABS(R40-R39),'IMP Table'!$A$2:$C$26,3)*SIGN(R40-R39),"")</f>
+      <c r="T40" s="14">
+        <f>IF(ISNUMBER(R40),IF(ISNUMBER(R39),IF(R40&gt;R39,1.0,IF(R40=R39,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U40">
-        <f>IF(AND(ISNUMBER(R40),ISNUMBER(R41)),VLOOKUP(ABS(R40-R41),'IMP Table'!$A$2:$C$26,3)*SIGN(R40-R41),"")</f>
+        <f>IF(ISNUMBER(R40),IF(ISNUMBER(R41),IF(R40&gt;R41,1.0,IF(R40=R41,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>IF(AND(ISNUMBER(S40),ISNUMBER(S39)),VLOOKUP(ABS(S40-S39),'IMP Table'!$A$2:$C$26,3)*SIGN(S40-S39),"")</f>
+        <f>IF(ISNUMBER(S40),IF(ISNUMBER(S39),IF(S40&gt;S39,1.0,IF(S40=S39,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>IF(AND(ISNUMBER(S40),ISNUMBER(S41)),VLOOKUP(ABS(S40-S41),'IMP Table'!$A$2:$C$26,3)*SIGN(S40-S41),"")</f>
-        <v/>
-      </c>
-      <c r="X40">
-        <f>IF(AND(ISNUMBER(R40),ISNUMBER(R39)),IF(R40&gt;R39,1,IF(R40=R39,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S40),IF(ISNUMBER(S41),IF(S40&gt;S41,1.0,IF(S40=S41,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X40" s="14">
+        <f>IF(AND(ISNUMBER(R40),ISNUMBER(R39)),VLOOKUP(ABS(R40-R39),'IMP Table'!$A$2:$C$26,3)*SIGN(R40-R39),0)</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>IF(AND(ISNUMBER(R40),ISNUMBER(R41)),IF(R40&gt;R41,1,IF(R40=R41,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R40),ISNUMBER(R41)),VLOOKUP(ABS(R40-R41),'IMP Table'!$A$2:$C$26,3)*SIGN(R40-R41),0)</f>
         <v/>
       </c>
       <c r="Z40">
-        <f>IF(AND(ISNUMBER(S40),ISNUMBER(S39)),IF(S40&gt;S39,1,IF(S40=S39,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S40),ISNUMBER(S39)),VLOOKUP(ABS(S40-S39),'IMP Table'!$A$2:$C$26,3)*SIGN(S40-S39),0)</f>
         <v/>
       </c>
       <c r="AA40">
-        <f>IF(AND(ISNUMBER(S40),ISNUMBER(S41)),IF(S40&gt;S41,1,IF(S40=S41,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S40),ISNUMBER(S41)),VLOOKUP(ABS(S40-S41),'IMP Table'!$A$2:$C$26,3)*SIGN(S40-S41),0)</f>
         <v/>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="13" t="n"/>
-      <c r="B41" s="13">
+      <c r="A41" s="15" t="n"/>
+      <c r="B41" s="15">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="15">
         <f>'By Round'!B45</f>
         <v/>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="15">
         <f>'By Round'!C45</f>
         <v/>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="15">
         <f>'By Round'!D45</f>
         <v/>
       </c>
-      <c r="F41" s="17" t="inlineStr">
+      <c r="F41" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="15">
         <f>IF(ISBLANK('By Round'!G45),"",'By Round'!G45)</f>
         <v/>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="15">
         <f>IF(ISBLANK('By Round'!H45),"",'By Round'!H45)</f>
         <v/>
       </c>
-      <c r="I41" s="13">
+      <c r="I41" s="15">
         <f>IF(ISBLANK('By Round'!I45),"",'By Round'!I45)</f>
         <v/>
       </c>
-      <c r="J41" s="13">
+      <c r="J41" s="15">
         <f>IF(ISBLANK('By Round'!J45),"",'By Round'!J45)</f>
         <v/>
       </c>
-      <c r="K41" s="13">
+      <c r="K41" s="15">
         <f>IF(ISBLANK('By Round'!K45),"",'By Round'!K45)</f>
         <v/>
       </c>
-      <c r="L41" s="18">
-        <f>IFERROR(AVERAGE(T41:U41),"")</f>
-        <v/>
-      </c>
-      <c r="M41" s="19">
-        <f>IFERROR(AVERAGE(V41:W41),"")</f>
-        <v/>
-      </c>
-      <c r="N41" s="20">
-        <f>P41/2</f>
-        <v/>
-      </c>
-      <c r="O41" s="20">
-        <f>Q41/2</f>
-        <v/>
-      </c>
-      <c r="P41" s="19">
-        <f>IFERROR(SUM(X41:Y41),"")</f>
-        <v/>
-      </c>
-      <c r="Q41" s="19">
-        <f>IFERROR(SUM(Z41:AA41),"")</f>
+      <c r="L41" s="17">
+        <f>SUM(X41:Y41)</f>
+        <v/>
+      </c>
+      <c r="M41" s="18">
+        <f>SUM(Z41:AA41)</f>
+        <v/>
+      </c>
+      <c r="N41" s="19">
+        <f>IF(COUNT(T41:U41)&gt;0,P41/COUNT(T41:U41),0.5)</f>
+        <v/>
+      </c>
+      <c r="O41" s="19">
+        <f>IF(COUNT(V41:W41)&gt;0,Q41/COUNT(V41:W41),0.5)</f>
+        <v/>
+      </c>
+      <c r="P41" s="20">
+        <f>SUM(T41:U41)</f>
+        <v/>
+      </c>
+      <c r="Q41" s="20">
+        <f>SUM(V41:W41)</f>
         <v/>
       </c>
       <c r="R41" s="21">
         <f>IF(ISNUMBER(J41),J41,IF(ISNUMBER(K41),-K41,""))</f>
         <v/>
       </c>
-      <c r="S41" s="13">
+      <c r="S41" s="15">
         <f>IF(ISNUMBER(K41),K41,IF(ISNUMBER(J41),-J41,""))</f>
         <v/>
       </c>
-      <c r="T41" s="13">
-        <f>IF(AND(ISNUMBER(R41),ISNUMBER(R39)),VLOOKUP(ABS(R41-R39),'IMP Table'!$A$2:$C$26,3)*SIGN(R41-R39),"")</f>
-        <v/>
-      </c>
-      <c r="U41" s="13">
-        <f>IF(AND(ISNUMBER(R41),ISNUMBER(R40)),VLOOKUP(ABS(R41-R40),'IMP Table'!$A$2:$C$26,3)*SIGN(R41-R40),"")</f>
-        <v/>
-      </c>
-      <c r="V41" s="13">
-        <f>IF(AND(ISNUMBER(S41),ISNUMBER(S39)),VLOOKUP(ABS(S41-S39),'IMP Table'!$A$2:$C$26,3)*SIGN(S41-S39),"")</f>
-        <v/>
-      </c>
-      <c r="W41" s="13">
-        <f>IF(AND(ISNUMBER(S41),ISNUMBER(S40)),VLOOKUP(ABS(S41-S40),'IMP Table'!$A$2:$C$26,3)*SIGN(S41-S40),"")</f>
-        <v/>
-      </c>
-      <c r="X41" s="13">
-        <f>IF(AND(ISNUMBER(R41),ISNUMBER(R39)),IF(R41&gt;R39,1,IF(R41=R39,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Y41" s="13">
-        <f>IF(AND(ISNUMBER(R41),ISNUMBER(R40)),IF(R41&gt;R40,1,IF(R41=R40,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Z41" s="13">
-        <f>IF(AND(ISNUMBER(S41),ISNUMBER(S39)),IF(S41&gt;S39,1,IF(S41=S39,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="AA41" s="13">
-        <f>IF(AND(ISNUMBER(S41),ISNUMBER(S40)),IF(S41&gt;S40,1,IF(S41=S40,0.5,0)),0.5)</f>
+      <c r="T41" s="21">
+        <f>IF(ISNUMBER(R41),IF(ISNUMBER(R39),IF(R41&gt;R39,1.0,IF(R41=R39,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="U41" s="15">
+        <f>IF(ISNUMBER(R41),IF(ISNUMBER(R40),IF(R41&gt;R40,1.0,IF(R41=R40,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="V41" s="15">
+        <f>IF(ISNUMBER(S41),IF(ISNUMBER(S39),IF(S41&gt;S39,1.0,IF(S41=S39,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="W41" s="15">
+        <f>IF(ISNUMBER(S41),IF(ISNUMBER(S40),IF(S41&gt;S40,1.0,IF(S41=S40,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X41" s="21">
+        <f>IF(AND(ISNUMBER(R41),ISNUMBER(R39)),VLOOKUP(ABS(R41-R39),'IMP Table'!$A$2:$C$26,3)*SIGN(R41-R39),0)</f>
+        <v/>
+      </c>
+      <c r="Y41" s="15">
+        <f>IF(AND(ISNUMBER(R41),ISNUMBER(R40)),VLOOKUP(ABS(R41-R40),'IMP Table'!$A$2:$C$26,3)*SIGN(R41-R40),0)</f>
+        <v/>
+      </c>
+      <c r="Z41" s="15">
+        <f>IF(AND(ISNUMBER(S41),ISNUMBER(S39)),VLOOKUP(ABS(S41-S39),'IMP Table'!$A$2:$C$26,3)*SIGN(S41-S39),0)</f>
+        <v/>
+      </c>
+      <c r="AA41" s="15">
+        <f>IF(AND(ISNUMBER(S41),ISNUMBER(S40)),VLOOKUP(ABS(S41-S40),'IMP Table'!$A$2:$C$26,3)*SIGN(S41-S40),0)</f>
         <v/>
       </c>
     </row>
@@ -5291,7 +5298,7 @@
         <f>'By Round'!D39</f>
         <v/>
       </c>
-      <c r="F42" s="14" t="inlineStr">
+      <c r="F42" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -5316,31 +5323,31 @@
         <f>IF(ISBLANK('By Round'!K39),"",'By Round'!K39)</f>
         <v/>
       </c>
-      <c r="L42" s="15">
-        <f>IFERROR(AVERAGE(T42:U42),"")</f>
-        <v/>
-      </c>
-      <c r="M42" s="4">
-        <f>IFERROR(AVERAGE(V42:W42),"")</f>
-        <v/>
-      </c>
-      <c r="N42" s="5">
-        <f>P42/2</f>
-        <v/>
-      </c>
-      <c r="O42" s="5">
-        <f>Q42/2</f>
+      <c r="L42" s="12">
+        <f>SUM(X42:Y42)</f>
+        <v/>
+      </c>
+      <c r="M42" s="13">
+        <f>SUM(Z42:AA42)</f>
+        <v/>
+      </c>
+      <c r="N42" s="8">
+        <f>IF(COUNT(T42:U42)&gt;0,P42/COUNT(T42:U42),0.5)</f>
+        <v/>
+      </c>
+      <c r="O42" s="8">
+        <f>IF(COUNT(V42:W42)&gt;0,Q42/COUNT(V42:W42),0.5)</f>
         <v/>
       </c>
       <c r="P42" s="4">
-        <f>IFERROR(SUM(X42:Y42),"")</f>
+        <f>SUM(T42:U42)</f>
         <v/>
       </c>
       <c r="Q42" s="4">
-        <f>IFERROR(SUM(Z42:AA42),"")</f>
-        <v/>
-      </c>
-      <c r="R42" s="16">
+        <f>SUM(V42:W42)</f>
+        <v/>
+      </c>
+      <c r="R42" s="14">
         <f>IF(ISNUMBER(J42),J42,IF(ISNUMBER(K42),-K42,""))</f>
         <v/>
       </c>
@@ -5348,36 +5355,36 @@
         <f>IF(ISNUMBER(K42),K42,IF(ISNUMBER(J42),-J42,""))</f>
         <v/>
       </c>
-      <c r="T42">
-        <f>IF(AND(ISNUMBER(R42),ISNUMBER(R43)),VLOOKUP(ABS(R42-R43),'IMP Table'!$A$2:$C$26,3)*SIGN(R42-R43),"")</f>
+      <c r="T42" s="14">
+        <f>IF(ISNUMBER(R42),IF(ISNUMBER(R43),IF(R42&gt;R43,1.0,IF(R42=R43,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U42">
-        <f>IF(AND(ISNUMBER(R42),ISNUMBER(R44)),VLOOKUP(ABS(R42-R44),'IMP Table'!$A$2:$C$26,3)*SIGN(R42-R44),"")</f>
+        <f>IF(ISNUMBER(R42),IF(ISNUMBER(R44),IF(R42&gt;R44,1.0,IF(R42=R44,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>IF(AND(ISNUMBER(S42),ISNUMBER(S43)),VLOOKUP(ABS(S42-S43),'IMP Table'!$A$2:$C$26,3)*SIGN(S42-S43),"")</f>
+        <f>IF(ISNUMBER(S42),IF(ISNUMBER(S43),IF(S42&gt;S43,1.0,IF(S42=S43,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>IF(AND(ISNUMBER(S42),ISNUMBER(S44)),VLOOKUP(ABS(S42-S44),'IMP Table'!$A$2:$C$26,3)*SIGN(S42-S44),"")</f>
-        <v/>
-      </c>
-      <c r="X42">
-        <f>IF(AND(ISNUMBER(R42),ISNUMBER(R43)),IF(R42&gt;R43,1,IF(R42=R43,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S42),IF(ISNUMBER(S44),IF(S42&gt;S44,1.0,IF(S42=S44,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X42" s="14">
+        <f>IF(AND(ISNUMBER(R42),ISNUMBER(R43)),VLOOKUP(ABS(R42-R43),'IMP Table'!$A$2:$C$26,3)*SIGN(R42-R43),0)</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>IF(AND(ISNUMBER(R42),ISNUMBER(R44)),IF(R42&gt;R44,1,IF(R42=R44,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R42),ISNUMBER(R44)),VLOOKUP(ABS(R42-R44),'IMP Table'!$A$2:$C$26,3)*SIGN(R42-R44),0)</f>
         <v/>
       </c>
       <c r="Z42">
-        <f>IF(AND(ISNUMBER(S42),ISNUMBER(S43)),IF(S42&gt;S43,1,IF(S42=S43,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S42),ISNUMBER(S43)),VLOOKUP(ABS(S42-S43),'IMP Table'!$A$2:$C$26,3)*SIGN(S42-S43),0)</f>
         <v/>
       </c>
       <c r="AA42">
-        <f>IF(AND(ISNUMBER(S42),ISNUMBER(S44)),IF(S42&gt;S44,1,IF(S42=S44,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S42),ISNUMBER(S44)),VLOOKUP(ABS(S42-S44),'IMP Table'!$A$2:$C$26,3)*SIGN(S42-S44),0)</f>
         <v/>
       </c>
     </row>
@@ -5398,7 +5405,7 @@
         <f>'By Round'!D42</f>
         <v/>
       </c>
-      <c r="F43" s="14" t="inlineStr">
+      <c r="F43" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -5423,31 +5430,31 @@
         <f>IF(ISBLANK('By Round'!K42),"",'By Round'!K42)</f>
         <v/>
       </c>
-      <c r="L43" s="15">
-        <f>IFERROR(AVERAGE(T43:U43),"")</f>
-        <v/>
-      </c>
-      <c r="M43" s="4">
-        <f>IFERROR(AVERAGE(V43:W43),"")</f>
-        <v/>
-      </c>
-      <c r="N43" s="5">
-        <f>P43/2</f>
-        <v/>
-      </c>
-      <c r="O43" s="5">
-        <f>Q43/2</f>
+      <c r="L43" s="12">
+        <f>SUM(X43:Y43)</f>
+        <v/>
+      </c>
+      <c r="M43" s="13">
+        <f>SUM(Z43:AA43)</f>
+        <v/>
+      </c>
+      <c r="N43" s="8">
+        <f>IF(COUNT(T43:U43)&gt;0,P43/COUNT(T43:U43),0.5)</f>
+        <v/>
+      </c>
+      <c r="O43" s="8">
+        <f>IF(COUNT(V43:W43)&gt;0,Q43/COUNT(V43:W43),0.5)</f>
         <v/>
       </c>
       <c r="P43" s="4">
-        <f>IFERROR(SUM(X43:Y43),"")</f>
+        <f>SUM(T43:U43)</f>
         <v/>
       </c>
       <c r="Q43" s="4">
-        <f>IFERROR(SUM(Z43:AA43),"")</f>
-        <v/>
-      </c>
-      <c r="R43" s="16">
+        <f>SUM(V43:W43)</f>
+        <v/>
+      </c>
+      <c r="R43" s="14">
         <f>IF(ISNUMBER(J43),J43,IF(ISNUMBER(K43),-K43,""))</f>
         <v/>
       </c>
@@ -5455,144 +5462,144 @@
         <f>IF(ISNUMBER(K43),K43,IF(ISNUMBER(J43),-J43,""))</f>
         <v/>
       </c>
-      <c r="T43">
-        <f>IF(AND(ISNUMBER(R43),ISNUMBER(R42)),VLOOKUP(ABS(R43-R42),'IMP Table'!$A$2:$C$26,3)*SIGN(R43-R42),"")</f>
+      <c r="T43" s="14">
+        <f>IF(ISNUMBER(R43),IF(ISNUMBER(R42),IF(R43&gt;R42,1.0,IF(R43=R42,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U43">
-        <f>IF(AND(ISNUMBER(R43),ISNUMBER(R44)),VLOOKUP(ABS(R43-R44),'IMP Table'!$A$2:$C$26,3)*SIGN(R43-R44),"")</f>
+        <f>IF(ISNUMBER(R43),IF(ISNUMBER(R44),IF(R43&gt;R44,1.0,IF(R43=R44,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>IF(AND(ISNUMBER(S43),ISNUMBER(S42)),VLOOKUP(ABS(S43-S42),'IMP Table'!$A$2:$C$26,3)*SIGN(S43-S42),"")</f>
+        <f>IF(ISNUMBER(S43),IF(ISNUMBER(S42),IF(S43&gt;S42,1.0,IF(S43=S42,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>IF(AND(ISNUMBER(S43),ISNUMBER(S44)),VLOOKUP(ABS(S43-S44),'IMP Table'!$A$2:$C$26,3)*SIGN(S43-S44),"")</f>
-        <v/>
-      </c>
-      <c r="X43">
-        <f>IF(AND(ISNUMBER(R43),ISNUMBER(R42)),IF(R43&gt;R42,1,IF(R43=R42,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S43),IF(ISNUMBER(S44),IF(S43&gt;S44,1.0,IF(S43=S44,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X43" s="14">
+        <f>IF(AND(ISNUMBER(R43),ISNUMBER(R42)),VLOOKUP(ABS(R43-R42),'IMP Table'!$A$2:$C$26,3)*SIGN(R43-R42),0)</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>IF(AND(ISNUMBER(R43),ISNUMBER(R44)),IF(R43&gt;R44,1,IF(R43=R44,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R43),ISNUMBER(R44)),VLOOKUP(ABS(R43-R44),'IMP Table'!$A$2:$C$26,3)*SIGN(R43-R44),0)</f>
         <v/>
       </c>
       <c r="Z43">
-        <f>IF(AND(ISNUMBER(S43),ISNUMBER(S42)),IF(S43&gt;S42,1,IF(S43=S42,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S43),ISNUMBER(S42)),VLOOKUP(ABS(S43-S42),'IMP Table'!$A$2:$C$26,3)*SIGN(S43-S42),0)</f>
         <v/>
       </c>
       <c r="AA43">
-        <f>IF(AND(ISNUMBER(S43),ISNUMBER(S44)),IF(S43&gt;S44,1,IF(S43=S44,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S43),ISNUMBER(S44)),VLOOKUP(ABS(S43-S44),'IMP Table'!$A$2:$C$26,3)*SIGN(S43-S44),0)</f>
         <v/>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="13" t="n"/>
-      <c r="B44" s="13">
+      <c r="A44" s="15" t="n"/>
+      <c r="B44" s="15">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="15">
         <f>'By Round'!B45</f>
         <v/>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="15">
         <f>'By Round'!C45</f>
         <v/>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="15">
         <f>'By Round'!D45</f>
         <v/>
       </c>
-      <c r="F44" s="17" t="inlineStr">
+      <c r="F44" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="15">
         <f>IF(ISBLANK('By Round'!G45),"",'By Round'!G45)</f>
         <v/>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="15">
         <f>IF(ISBLANK('By Round'!H45),"",'By Round'!H45)</f>
         <v/>
       </c>
-      <c r="I44" s="13">
+      <c r="I44" s="15">
         <f>IF(ISBLANK('By Round'!I45),"",'By Round'!I45)</f>
         <v/>
       </c>
-      <c r="J44" s="13">
+      <c r="J44" s="15">
         <f>IF(ISBLANK('By Round'!J45),"",'By Round'!J45)</f>
         <v/>
       </c>
-      <c r="K44" s="13">
+      <c r="K44" s="15">
         <f>IF(ISBLANK('By Round'!K45),"",'By Round'!K45)</f>
         <v/>
       </c>
-      <c r="L44" s="18">
-        <f>IFERROR(AVERAGE(T44:U44),"")</f>
-        <v/>
-      </c>
-      <c r="M44" s="19">
-        <f>IFERROR(AVERAGE(V44:W44),"")</f>
-        <v/>
-      </c>
-      <c r="N44" s="20">
-        <f>P44/2</f>
-        <v/>
-      </c>
-      <c r="O44" s="20">
-        <f>Q44/2</f>
-        <v/>
-      </c>
-      <c r="P44" s="19">
-        <f>IFERROR(SUM(X44:Y44),"")</f>
-        <v/>
-      </c>
-      <c r="Q44" s="19">
-        <f>IFERROR(SUM(Z44:AA44),"")</f>
+      <c r="L44" s="17">
+        <f>SUM(X44:Y44)</f>
+        <v/>
+      </c>
+      <c r="M44" s="18">
+        <f>SUM(Z44:AA44)</f>
+        <v/>
+      </c>
+      <c r="N44" s="19">
+        <f>IF(COUNT(T44:U44)&gt;0,P44/COUNT(T44:U44),0.5)</f>
+        <v/>
+      </c>
+      <c r="O44" s="19">
+        <f>IF(COUNT(V44:W44)&gt;0,Q44/COUNT(V44:W44),0.5)</f>
+        <v/>
+      </c>
+      <c r="P44" s="20">
+        <f>SUM(T44:U44)</f>
+        <v/>
+      </c>
+      <c r="Q44" s="20">
+        <f>SUM(V44:W44)</f>
         <v/>
       </c>
       <c r="R44" s="21">
         <f>IF(ISNUMBER(J44),J44,IF(ISNUMBER(K44),-K44,""))</f>
         <v/>
       </c>
-      <c r="S44" s="13">
+      <c r="S44" s="15">
         <f>IF(ISNUMBER(K44),K44,IF(ISNUMBER(J44),-J44,""))</f>
         <v/>
       </c>
-      <c r="T44" s="13">
-        <f>IF(AND(ISNUMBER(R44),ISNUMBER(R42)),VLOOKUP(ABS(R44-R42),'IMP Table'!$A$2:$C$26,3)*SIGN(R44-R42),"")</f>
-        <v/>
-      </c>
-      <c r="U44" s="13">
-        <f>IF(AND(ISNUMBER(R44),ISNUMBER(R43)),VLOOKUP(ABS(R44-R43),'IMP Table'!$A$2:$C$26,3)*SIGN(R44-R43),"")</f>
-        <v/>
-      </c>
-      <c r="V44" s="13">
-        <f>IF(AND(ISNUMBER(S44),ISNUMBER(S42)),VLOOKUP(ABS(S44-S42),'IMP Table'!$A$2:$C$26,3)*SIGN(S44-S42),"")</f>
-        <v/>
-      </c>
-      <c r="W44" s="13">
-        <f>IF(AND(ISNUMBER(S44),ISNUMBER(S43)),VLOOKUP(ABS(S44-S43),'IMP Table'!$A$2:$C$26,3)*SIGN(S44-S43),"")</f>
-        <v/>
-      </c>
-      <c r="X44" s="13">
-        <f>IF(AND(ISNUMBER(R44),ISNUMBER(R42)),IF(R44&gt;R42,1,IF(R44=R42,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Y44" s="13">
-        <f>IF(AND(ISNUMBER(R44),ISNUMBER(R43)),IF(R44&gt;R43,1,IF(R44=R43,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Z44" s="13">
-        <f>IF(AND(ISNUMBER(S44),ISNUMBER(S42)),IF(S44&gt;S42,1,IF(S44=S42,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="AA44" s="13">
-        <f>IF(AND(ISNUMBER(S44),ISNUMBER(S43)),IF(S44&gt;S43,1,IF(S44=S43,0.5,0)),0.5)</f>
+      <c r="T44" s="21">
+        <f>IF(ISNUMBER(R44),IF(ISNUMBER(R42),IF(R44&gt;R42,1.0,IF(R44=R42,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="U44" s="15">
+        <f>IF(ISNUMBER(R44),IF(ISNUMBER(R43),IF(R44&gt;R43,1.0,IF(R44=R43,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="V44" s="15">
+        <f>IF(ISNUMBER(S44),IF(ISNUMBER(S42),IF(S44&gt;S42,1.0,IF(S44=S42,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="W44" s="15">
+        <f>IF(ISNUMBER(S44),IF(ISNUMBER(S43),IF(S44&gt;S43,1.0,IF(S44=S43,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X44" s="21">
+        <f>IF(AND(ISNUMBER(R44),ISNUMBER(R42)),VLOOKUP(ABS(R44-R42),'IMP Table'!$A$2:$C$26,3)*SIGN(R44-R42),0)</f>
+        <v/>
+      </c>
+      <c r="Y44" s="15">
+        <f>IF(AND(ISNUMBER(R44),ISNUMBER(R43)),VLOOKUP(ABS(R44-R43),'IMP Table'!$A$2:$C$26,3)*SIGN(R44-R43),0)</f>
+        <v/>
+      </c>
+      <c r="Z44" s="15">
+        <f>IF(AND(ISNUMBER(S44),ISNUMBER(S42)),VLOOKUP(ABS(S44-S42),'IMP Table'!$A$2:$C$26,3)*SIGN(S44-S42),0)</f>
+        <v/>
+      </c>
+      <c r="AA44" s="15">
+        <f>IF(AND(ISNUMBER(S44),ISNUMBER(S43)),VLOOKUP(ABS(S44-S43),'IMP Table'!$A$2:$C$26,3)*SIGN(S44-S43),0)</f>
         <v/>
       </c>
     </row>
@@ -5616,7 +5623,7 @@
         <f>'By Round'!D39</f>
         <v/>
       </c>
-      <c r="F45" s="14" t="inlineStr">
+      <c r="F45" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
@@ -5641,31 +5648,31 @@
         <f>IF(ISBLANK('By Round'!K39),"",'By Round'!K39)</f>
         <v/>
       </c>
-      <c r="L45" s="15">
-        <f>IFERROR(AVERAGE(T45:U45),"")</f>
-        <v/>
-      </c>
-      <c r="M45" s="4">
-        <f>IFERROR(AVERAGE(V45:W45),"")</f>
-        <v/>
-      </c>
-      <c r="N45" s="5">
-        <f>P45/2</f>
-        <v/>
-      </c>
-      <c r="O45" s="5">
-        <f>Q45/2</f>
+      <c r="L45" s="12">
+        <f>SUM(X45:Y45)</f>
+        <v/>
+      </c>
+      <c r="M45" s="13">
+        <f>SUM(Z45:AA45)</f>
+        <v/>
+      </c>
+      <c r="N45" s="8">
+        <f>IF(COUNT(T45:U45)&gt;0,P45/COUNT(T45:U45),0.5)</f>
+        <v/>
+      </c>
+      <c r="O45" s="8">
+        <f>IF(COUNT(V45:W45)&gt;0,Q45/COUNT(V45:W45),0.5)</f>
         <v/>
       </c>
       <c r="P45" s="4">
-        <f>IFERROR(SUM(X45:Y45),"")</f>
+        <f>SUM(T45:U45)</f>
         <v/>
       </c>
       <c r="Q45" s="4">
-        <f>IFERROR(SUM(Z45:AA45),"")</f>
-        <v/>
-      </c>
-      <c r="R45" s="16">
+        <f>SUM(V45:W45)</f>
+        <v/>
+      </c>
+      <c r="R45" s="14">
         <f>IF(ISNUMBER(J45),J45,IF(ISNUMBER(K45),-K45,""))</f>
         <v/>
       </c>
@@ -5673,36 +5680,36 @@
         <f>IF(ISNUMBER(K45),K45,IF(ISNUMBER(J45),-J45,""))</f>
         <v/>
       </c>
-      <c r="T45">
-        <f>IF(AND(ISNUMBER(R45),ISNUMBER(R46)),VLOOKUP(ABS(R45-R46),'IMP Table'!$A$2:$C$26,3)*SIGN(R45-R46),"")</f>
+      <c r="T45" s="14">
+        <f>IF(ISNUMBER(R45),IF(ISNUMBER(R46),IF(R45&gt;R46,1.0,IF(R45=R46,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U45">
-        <f>IF(AND(ISNUMBER(R45),ISNUMBER(R47)),VLOOKUP(ABS(R45-R47),'IMP Table'!$A$2:$C$26,3)*SIGN(R45-R47),"")</f>
+        <f>IF(ISNUMBER(R45),IF(ISNUMBER(R47),IF(R45&gt;R47,1.0,IF(R45=R47,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>IF(AND(ISNUMBER(S45),ISNUMBER(S46)),VLOOKUP(ABS(S45-S46),'IMP Table'!$A$2:$C$26,3)*SIGN(S45-S46),"")</f>
+        <f>IF(ISNUMBER(S45),IF(ISNUMBER(S46),IF(S45&gt;S46,1.0,IF(S45=S46,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>IF(AND(ISNUMBER(S45),ISNUMBER(S47)),VLOOKUP(ABS(S45-S47),'IMP Table'!$A$2:$C$26,3)*SIGN(S45-S47),"")</f>
-        <v/>
-      </c>
-      <c r="X45">
-        <f>IF(AND(ISNUMBER(R45),ISNUMBER(R46)),IF(R45&gt;R46,1,IF(R45=R46,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S45),IF(ISNUMBER(S47),IF(S45&gt;S47,1.0,IF(S45=S47,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X45" s="14">
+        <f>IF(AND(ISNUMBER(R45),ISNUMBER(R46)),VLOOKUP(ABS(R45-R46),'IMP Table'!$A$2:$C$26,3)*SIGN(R45-R46),0)</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>IF(AND(ISNUMBER(R45),ISNUMBER(R47)),IF(R45&gt;R47,1,IF(R45=R47,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R45),ISNUMBER(R47)),VLOOKUP(ABS(R45-R47),'IMP Table'!$A$2:$C$26,3)*SIGN(R45-R47),0)</f>
         <v/>
       </c>
       <c r="Z45">
-        <f>IF(AND(ISNUMBER(S45),ISNUMBER(S46)),IF(S45&gt;S46,1,IF(S45=S46,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S45),ISNUMBER(S46)),VLOOKUP(ABS(S45-S46),'IMP Table'!$A$2:$C$26,3)*SIGN(S45-S46),0)</f>
         <v/>
       </c>
       <c r="AA45">
-        <f>IF(AND(ISNUMBER(S45),ISNUMBER(S47)),IF(S45&gt;S47,1,IF(S45=S47,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S45),ISNUMBER(S47)),VLOOKUP(ABS(S45-S47),'IMP Table'!$A$2:$C$26,3)*SIGN(S45-S47),0)</f>
         <v/>
       </c>
     </row>
@@ -5723,7 +5730,7 @@
         <f>'By Round'!D42</f>
         <v/>
       </c>
-      <c r="F46" s="14" t="inlineStr">
+      <c r="F46" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
@@ -5748,31 +5755,31 @@
         <f>IF(ISBLANK('By Round'!K42),"",'By Round'!K42)</f>
         <v/>
       </c>
-      <c r="L46" s="15">
-        <f>IFERROR(AVERAGE(T46:U46),"")</f>
-        <v/>
-      </c>
-      <c r="M46" s="4">
-        <f>IFERROR(AVERAGE(V46:W46),"")</f>
-        <v/>
-      </c>
-      <c r="N46" s="5">
-        <f>P46/2</f>
-        <v/>
-      </c>
-      <c r="O46" s="5">
-        <f>Q46/2</f>
+      <c r="L46" s="12">
+        <f>SUM(X46:Y46)</f>
+        <v/>
+      </c>
+      <c r="M46" s="13">
+        <f>SUM(Z46:AA46)</f>
+        <v/>
+      </c>
+      <c r="N46" s="8">
+        <f>IF(COUNT(T46:U46)&gt;0,P46/COUNT(T46:U46),0.5)</f>
+        <v/>
+      </c>
+      <c r="O46" s="8">
+        <f>IF(COUNT(V46:W46)&gt;0,Q46/COUNT(V46:W46),0.5)</f>
         <v/>
       </c>
       <c r="P46" s="4">
-        <f>IFERROR(SUM(X46:Y46),"")</f>
+        <f>SUM(T46:U46)</f>
         <v/>
       </c>
       <c r="Q46" s="4">
-        <f>IFERROR(SUM(Z46:AA46),"")</f>
-        <v/>
-      </c>
-      <c r="R46" s="16">
+        <f>SUM(V46:W46)</f>
+        <v/>
+      </c>
+      <c r="R46" s="14">
         <f>IF(ISNUMBER(J46),J46,IF(ISNUMBER(K46),-K46,""))</f>
         <v/>
       </c>
@@ -5780,143 +5787,144 @@
         <f>IF(ISNUMBER(K46),K46,IF(ISNUMBER(J46),-J46,""))</f>
         <v/>
       </c>
-      <c r="T46">
-        <f>IF(AND(ISNUMBER(R46),ISNUMBER(R45)),VLOOKUP(ABS(R46-R45),'IMP Table'!$A$2:$C$26,3)*SIGN(R46-R45),"")</f>
+      <c r="T46" s="14">
+        <f>IF(ISNUMBER(R46),IF(ISNUMBER(R45),IF(R46&gt;R45,1.0,IF(R46=R45,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="U46">
-        <f>IF(AND(ISNUMBER(R46),ISNUMBER(R47)),VLOOKUP(ABS(R46-R47),'IMP Table'!$A$2:$C$26,3)*SIGN(R46-R47),"")</f>
+        <f>IF(ISNUMBER(R46),IF(ISNUMBER(R47),IF(R46&gt;R47,1.0,IF(R46=R47,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>IF(AND(ISNUMBER(S46),ISNUMBER(S45)),VLOOKUP(ABS(S46-S45),'IMP Table'!$A$2:$C$26,3)*SIGN(S46-S45),"")</f>
+        <f>IF(ISNUMBER(S46),IF(ISNUMBER(S45),IF(S46&gt;S45,1.0,IF(S46=S45,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>IF(AND(ISNUMBER(S46),ISNUMBER(S47)),VLOOKUP(ABS(S46-S47),'IMP Table'!$A$2:$C$26,3)*SIGN(S46-S47),"")</f>
-        <v/>
-      </c>
-      <c r="X46">
-        <f>IF(AND(ISNUMBER(R46),ISNUMBER(R45)),IF(R46&gt;R45,1,IF(R46=R45,0.5,0)),0.5)</f>
+        <f>IF(ISNUMBER(S46),IF(ISNUMBER(S47),IF(S46&gt;S47,1.0,IF(S46=S47,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X46" s="14">
+        <f>IF(AND(ISNUMBER(R46),ISNUMBER(R45)),VLOOKUP(ABS(R46-R45),'IMP Table'!$A$2:$C$26,3)*SIGN(R46-R45),0)</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>IF(AND(ISNUMBER(R46),ISNUMBER(R47)),IF(R46&gt;R47,1,IF(R46=R47,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(R46),ISNUMBER(R47)),VLOOKUP(ABS(R46-R47),'IMP Table'!$A$2:$C$26,3)*SIGN(R46-R47),0)</f>
         <v/>
       </c>
       <c r="Z46">
-        <f>IF(AND(ISNUMBER(S46),ISNUMBER(S45)),IF(S46&gt;S45,1,IF(S46=S45,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S46),ISNUMBER(S45)),VLOOKUP(ABS(S46-S45),'IMP Table'!$A$2:$C$26,3)*SIGN(S46-S45),0)</f>
         <v/>
       </c>
       <c r="AA46">
-        <f>IF(AND(ISNUMBER(S46),ISNUMBER(S47)),IF(S46&gt;S47,1,IF(S46=S47,0.5,0)),0.5)</f>
+        <f>IF(AND(ISNUMBER(S46),ISNUMBER(S47)),VLOOKUP(ABS(S46-S47),'IMP Table'!$A$2:$C$26,3)*SIGN(S46-S47),0)</f>
         <v/>
       </c>
     </row>
     <row r="47">
-      <c r="B47">
+      <c r="A47" s="15" t="n"/>
+      <c r="B47" s="15">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C47">
+      <c r="C47" s="15">
         <f>'By Round'!B45</f>
         <v/>
       </c>
-      <c r="D47">
+      <c r="D47" s="15">
         <f>'By Round'!C45</f>
         <v/>
       </c>
-      <c r="E47">
+      <c r="E47" s="15">
         <f>'By Round'!D45</f>
         <v/>
       </c>
-      <c r="F47" s="14" t="inlineStr">
+      <c r="F47" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G47">
+      <c r="G47" s="15">
         <f>IF(ISBLANK('By Round'!G45),"",'By Round'!G45)</f>
         <v/>
       </c>
-      <c r="H47">
+      <c r="H47" s="15">
         <f>IF(ISBLANK('By Round'!H45),"",'By Round'!H45)</f>
         <v/>
       </c>
-      <c r="I47">
+      <c r="I47" s="15">
         <f>IF(ISBLANK('By Round'!I45),"",'By Round'!I45)</f>
         <v/>
       </c>
-      <c r="J47">
+      <c r="J47" s="15">
         <f>IF(ISBLANK('By Round'!J45),"",'By Round'!J45)</f>
         <v/>
       </c>
-      <c r="K47">
+      <c r="K47" s="15">
         <f>IF(ISBLANK('By Round'!K45),"",'By Round'!K45)</f>
         <v/>
       </c>
-      <c r="L47" s="15">
-        <f>IFERROR(AVERAGE(T47:U47),"")</f>
-        <v/>
-      </c>
-      <c r="M47" s="4">
-        <f>IFERROR(AVERAGE(V47:W47),"")</f>
-        <v/>
-      </c>
-      <c r="N47" s="5">
-        <f>P47/2</f>
-        <v/>
-      </c>
-      <c r="O47" s="5">
-        <f>Q47/2</f>
-        <v/>
-      </c>
-      <c r="P47" s="4">
-        <f>IFERROR(SUM(X47:Y47),"")</f>
-        <v/>
-      </c>
-      <c r="Q47" s="4">
-        <f>IFERROR(SUM(Z47:AA47),"")</f>
-        <v/>
-      </c>
-      <c r="R47" s="16">
+      <c r="L47" s="17">
+        <f>SUM(X47:Y47)</f>
+        <v/>
+      </c>
+      <c r="M47" s="18">
+        <f>SUM(Z47:AA47)</f>
+        <v/>
+      </c>
+      <c r="N47" s="19">
+        <f>IF(COUNT(T47:U47)&gt;0,P47/COUNT(T47:U47),0.5)</f>
+        <v/>
+      </c>
+      <c r="O47" s="19">
+        <f>IF(COUNT(V47:W47)&gt;0,Q47/COUNT(V47:W47),0.5)</f>
+        <v/>
+      </c>
+      <c r="P47" s="20">
+        <f>SUM(T47:U47)</f>
+        <v/>
+      </c>
+      <c r="Q47" s="20">
+        <f>SUM(V47:W47)</f>
+        <v/>
+      </c>
+      <c r="R47" s="21">
         <f>IF(ISNUMBER(J47),J47,IF(ISNUMBER(K47),-K47,""))</f>
         <v/>
       </c>
-      <c r="S47">
+      <c r="S47" s="15">
         <f>IF(ISNUMBER(K47),K47,IF(ISNUMBER(J47),-J47,""))</f>
         <v/>
       </c>
-      <c r="T47">
-        <f>IF(AND(ISNUMBER(R47),ISNUMBER(R45)),VLOOKUP(ABS(R47-R45),'IMP Table'!$A$2:$C$26,3)*SIGN(R47-R45),"")</f>
-        <v/>
-      </c>
-      <c r="U47">
-        <f>IF(AND(ISNUMBER(R47),ISNUMBER(R46)),VLOOKUP(ABS(R47-R46),'IMP Table'!$A$2:$C$26,3)*SIGN(R47-R46),"")</f>
-        <v/>
-      </c>
-      <c r="V47">
-        <f>IF(AND(ISNUMBER(S47),ISNUMBER(S45)),VLOOKUP(ABS(S47-S45),'IMP Table'!$A$2:$C$26,3)*SIGN(S47-S45),"")</f>
-        <v/>
-      </c>
-      <c r="W47">
-        <f>IF(AND(ISNUMBER(S47),ISNUMBER(S46)),VLOOKUP(ABS(S47-S46),'IMP Table'!$A$2:$C$26,3)*SIGN(S47-S46),"")</f>
-        <v/>
-      </c>
-      <c r="X47">
-        <f>IF(AND(ISNUMBER(R47),ISNUMBER(R45)),IF(R47&gt;R45,1,IF(R47=R45,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Y47">
-        <f>IF(AND(ISNUMBER(R47),ISNUMBER(R46)),IF(R47&gt;R46,1,IF(R47=R46,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="Z47">
-        <f>IF(AND(ISNUMBER(S47),ISNUMBER(S45)),IF(S47&gt;S45,1,IF(S47=S45,0.5,0)),0.5)</f>
-        <v/>
-      </c>
-      <c r="AA47">
-        <f>IF(AND(ISNUMBER(S47),ISNUMBER(S46)),IF(S47&gt;S46,1,IF(S47=S46,0.5,0)),0.5)</f>
+      <c r="T47" s="21">
+        <f>IF(ISNUMBER(R47),IF(ISNUMBER(R45),IF(R47&gt;R45,1.0,IF(R47=R45,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="U47" s="15">
+        <f>IF(ISNUMBER(R47),IF(ISNUMBER(R46),IF(R47&gt;R46,1.0,IF(R47=R46,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="V47" s="15">
+        <f>IF(ISNUMBER(S47),IF(ISNUMBER(S45),IF(S47&gt;S45,1.0,IF(S47=S45,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="W47" s="15">
+        <f>IF(ISNUMBER(S47),IF(ISNUMBER(S46),IF(S47&gt;S46,1.0,IF(S47=S46,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X47" s="21">
+        <f>IF(AND(ISNUMBER(R47),ISNUMBER(R45)),VLOOKUP(ABS(R47-R45),'IMP Table'!$A$2:$C$26,3)*SIGN(R47-R45),0)</f>
+        <v/>
+      </c>
+      <c r="Y47" s="15">
+        <f>IF(AND(ISNUMBER(R47),ISNUMBER(R46)),VLOOKUP(ABS(R47-R46),'IMP Table'!$A$2:$C$26,3)*SIGN(R47-R46),0)</f>
+        <v/>
+      </c>
+      <c r="Z47" s="15">
+        <f>IF(AND(ISNUMBER(S47),ISNUMBER(S45)),VLOOKUP(ABS(S47-S45),'IMP Table'!$A$2:$C$26,3)*SIGN(S47-S45),0)</f>
+        <v/>
+      </c>
+      <c r="AA47" s="15">
+        <f>IF(AND(ISNUMBER(S47),ISNUMBER(S46)),VLOOKUP(ABS(S47-S46),'IMP Table'!$A$2:$C$26,3)*SIGN(S47-S46),0)</f>
         <v/>
       </c>
     </row>
@@ -6020,774 +6028,774 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="n">
+      <c r="A3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="n">
+      <c r="B3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="n">
+      <c r="C3" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D3" s="14" t="n">
+      <c r="D3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="14" t="n">
+      <c r="E3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="14" t="inlineStr">
+      <c r="F3" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="14" t="n"/>
-      <c r="C4" s="14" t="n"/>
-      <c r="D4" s="14" t="n"/>
-      <c r="E4" s="14" t="n">
+      <c r="B4" s="11" t="n"/>
+      <c r="C4" s="11" t="n"/>
+      <c r="D4" s="11" t="n"/>
+      <c r="E4" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="14" t="inlineStr">
+      <c r="F4" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="22" t="n"/>
-      <c r="C5" s="22" t="n"/>
-      <c r="D5" s="22" t="n"/>
-      <c r="E5" s="22" t="n">
+      <c r="B5" s="16" t="n"/>
+      <c r="C5" s="16" t="n"/>
+      <c r="D5" s="16" t="n"/>
+      <c r="E5" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="F5" s="22" t="inlineStr">
+      <c r="F5" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G5" s="23" t="n"/>
-      <c r="H5" s="23" t="n"/>
-      <c r="I5" s="23" t="n"/>
-      <c r="J5" s="23" t="n"/>
-      <c r="K5" s="23" t="n"/>
+      <c r="G5" s="15" t="n"/>
+      <c r="H5" s="15" t="n"/>
+      <c r="I5" s="15" t="n"/>
+      <c r="J5" s="15" t="n"/>
+      <c r="K5" s="15" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="14" t="n">
+      <c r="C6" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="14" t="n">
+      <c r="D6" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="14" t="inlineStr">
+      <c r="F6" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="14" t="n"/>
-      <c r="C7" s="14" t="n"/>
-      <c r="D7" s="14" t="n"/>
-      <c r="E7" s="14" t="n">
+      <c r="B7" s="11" t="n"/>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="11" t="n"/>
+      <c r="E7" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="14" t="inlineStr">
+      <c r="F7" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="22" t="n"/>
-      <c r="C8" s="22" t="n"/>
-      <c r="D8" s="22" t="n"/>
-      <c r="E8" s="22" t="n">
+      <c r="B8" s="16" t="n"/>
+      <c r="C8" s="16" t="n"/>
+      <c r="D8" s="16" t="n"/>
+      <c r="E8" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F8" s="22" t="inlineStr">
+      <c r="F8" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G8" s="23" t="n"/>
-      <c r="H8" s="23" t="n"/>
-      <c r="I8" s="23" t="n"/>
-      <c r="J8" s="23" t="n"/>
-      <c r="K8" s="23" t="n"/>
+      <c r="G8" s="15" t="n"/>
+      <c r="H8" s="15" t="n"/>
+      <c r="I8" s="15" t="n"/>
+      <c r="J8" s="15" t="n"/>
+      <c r="K8" s="15" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" s="14" t="n">
+      <c r="B9" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="14" t="n">
+      <c r="C9" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D9" s="14" t="n">
+      <c r="D9" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E9" s="14" t="n">
+      <c r="E9" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="F9" s="14" t="inlineStr">
+      <c r="F9" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="14" t="n"/>
-      <c r="C10" s="14" t="n"/>
-      <c r="D10" s="14" t="n"/>
-      <c r="E10" s="14" t="n">
+      <c r="B10" s="11" t="n"/>
+      <c r="C10" s="11" t="n"/>
+      <c r="D10" s="11" t="n"/>
+      <c r="E10" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F10" s="14" t="inlineStr">
+      <c r="F10" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="23" t="n"/>
-      <c r="B11" s="22" t="n"/>
-      <c r="C11" s="22" t="n"/>
-      <c r="D11" s="22" t="n"/>
-      <c r="E11" s="22" t="n">
+      <c r="A11" s="15" t="n"/>
+      <c r="B11" s="16" t="n"/>
+      <c r="C11" s="16" t="n"/>
+      <c r="D11" s="16" t="n"/>
+      <c r="E11" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F11" s="22" t="inlineStr">
+      <c r="F11" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G11" s="23" t="n"/>
-      <c r="H11" s="23" t="n"/>
-      <c r="I11" s="23" t="n"/>
-      <c r="J11" s="23" t="n"/>
-      <c r="K11" s="23" t="n"/>
+      <c r="G11" s="15" t="n"/>
+      <c r="H11" s="15" t="n"/>
+      <c r="I11" s="15" t="n"/>
+      <c r="J11" s="15" t="n"/>
+      <c r="K11" s="15" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="14" t="n">
+      <c r="A12" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="14" t="n">
+      <c r="B12" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="14" t="n">
+      <c r="C12" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D12" s="14" t="n">
+      <c r="D12" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E12" s="14" t="n">
+      <c r="E12" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="F12" s="14" t="inlineStr">
+      <c r="F12" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="14" t="n"/>
-      <c r="C13" s="14" t="n"/>
-      <c r="D13" s="14" t="n"/>
-      <c r="E13" s="14" t="n">
+      <c r="B13" s="11" t="n"/>
+      <c r="C13" s="11" t="n"/>
+      <c r="D13" s="11" t="n"/>
+      <c r="E13" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="14" t="inlineStr">
+      <c r="F13" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="22" t="n"/>
-      <c r="C14" s="22" t="n"/>
-      <c r="D14" s="22" t="n"/>
-      <c r="E14" s="22" t="n">
+      <c r="B14" s="16" t="n"/>
+      <c r="C14" s="16" t="n"/>
+      <c r="D14" s="16" t="n"/>
+      <c r="E14" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F14" s="22" t="inlineStr">
+      <c r="F14" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G14" s="23" t="n"/>
-      <c r="H14" s="23" t="n"/>
-      <c r="I14" s="23" t="n"/>
-      <c r="J14" s="23" t="n"/>
-      <c r="K14" s="23" t="n"/>
+      <c r="G14" s="15" t="n"/>
+      <c r="H14" s="15" t="n"/>
+      <c r="I14" s="15" t="n"/>
+      <c r="J14" s="15" t="n"/>
+      <c r="K14" s="15" t="n"/>
     </row>
     <row r="15">
-      <c r="B15" s="14" t="n">
+      <c r="B15" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="14" t="n">
+      <c r="C15" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D15" s="14" t="n">
+      <c r="D15" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F15" s="14" t="inlineStr">
+      <c r="F15" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="14" t="n"/>
-      <c r="C16" s="14" t="n"/>
-      <c r="D16" s="14" t="n"/>
-      <c r="E16" s="14" t="n">
+      <c r="B16" s="11" t="n"/>
+      <c r="C16" s="11" t="n"/>
+      <c r="D16" s="11" t="n"/>
+      <c r="E16" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="F16" s="14" t="inlineStr">
+      <c r="F16" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="22" t="n"/>
-      <c r="C17" s="22" t="n"/>
-      <c r="D17" s="22" t="n"/>
-      <c r="E17" s="22" t="n">
+      <c r="B17" s="16" t="n"/>
+      <c r="C17" s="16" t="n"/>
+      <c r="D17" s="16" t="n"/>
+      <c r="E17" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="F17" s="22" t="inlineStr">
+      <c r="F17" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G17" s="23" t="n"/>
-      <c r="H17" s="23" t="n"/>
-      <c r="I17" s="23" t="n"/>
-      <c r="J17" s="23" t="n"/>
-      <c r="K17" s="23" t="n"/>
+      <c r="G17" s="15" t="n"/>
+      <c r="H17" s="15" t="n"/>
+      <c r="I17" s="15" t="n"/>
+      <c r="J17" s="15" t="n"/>
+      <c r="K17" s="15" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="14" t="n">
+      <c r="B18" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="14" t="n">
+      <c r="C18" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="14" t="n">
+      <c r="D18" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E18" s="14" t="n">
+      <c r="E18" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="F18" s="14" t="inlineStr">
+      <c r="F18" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="14" t="n"/>
-      <c r="C19" s="14" t="n"/>
-      <c r="D19" s="14" t="n"/>
-      <c r="E19" s="14" t="n">
+      <c r="B19" s="11" t="n"/>
+      <c r="C19" s="11" t="n"/>
+      <c r="D19" s="11" t="n"/>
+      <c r="E19" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F19" s="14" t="inlineStr">
+      <c r="F19" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="23" t="n"/>
-      <c r="B20" s="22" t="n"/>
-      <c r="C20" s="22" t="n"/>
-      <c r="D20" s="22" t="n"/>
-      <c r="E20" s="22" t="n">
+      <c r="A20" s="15" t="n"/>
+      <c r="B20" s="16" t="n"/>
+      <c r="C20" s="16" t="n"/>
+      <c r="D20" s="16" t="n"/>
+      <c r="E20" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F20" s="22" t="inlineStr">
+      <c r="F20" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G20" s="23" t="n"/>
-      <c r="H20" s="23" t="n"/>
-      <c r="I20" s="23" t="n"/>
-      <c r="J20" s="23" t="n"/>
-      <c r="K20" s="23" t="n"/>
+      <c r="G20" s="15" t="n"/>
+      <c r="H20" s="15" t="n"/>
+      <c r="I20" s="15" t="n"/>
+      <c r="J20" s="15" t="n"/>
+      <c r="K20" s="15" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="14" t="n">
+      <c r="A21" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B21" s="14" t="n">
+      <c r="B21" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="14" t="n">
+      <c r="C21" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D21" s="14" t="n">
+      <c r="D21" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E21" s="14" t="n">
+      <c r="E21" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F21" s="14" t="inlineStr">
+      <c r="F21" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="14" t="n"/>
-      <c r="C22" s="14" t="n"/>
-      <c r="D22" s="14" t="n"/>
-      <c r="E22" s="14" t="n">
+      <c r="B22" s="11" t="n"/>
+      <c r="C22" s="11" t="n"/>
+      <c r="D22" s="11" t="n"/>
+      <c r="E22" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="F22" s="14" t="inlineStr">
+      <c r="F22" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="22" t="n"/>
-      <c r="C23" s="22" t="n"/>
-      <c r="D23" s="22" t="n"/>
-      <c r="E23" s="22" t="n">
+      <c r="B23" s="16" t="n"/>
+      <c r="C23" s="16" t="n"/>
+      <c r="D23" s="16" t="n"/>
+      <c r="E23" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="F23" s="22" t="inlineStr">
+      <c r="F23" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G23" s="23" t="n"/>
-      <c r="H23" s="23" t="n"/>
-      <c r="I23" s="23" t="n"/>
-      <c r="J23" s="23" t="n"/>
-      <c r="K23" s="23" t="n"/>
+      <c r="G23" s="15" t="n"/>
+      <c r="H23" s="15" t="n"/>
+      <c r="I23" s="15" t="n"/>
+      <c r="J23" s="15" t="n"/>
+      <c r="K23" s="15" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="14" t="n">
+      <c r="B24" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C24" s="14" t="n">
+      <c r="C24" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D24" s="14" t="n">
+      <c r="D24" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="14" t="n">
+      <c r="E24" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="F24" s="14" t="inlineStr">
+      <c r="F24" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="14" t="n"/>
-      <c r="C25" s="14" t="n"/>
-      <c r="D25" s="14" t="n"/>
-      <c r="E25" s="14" t="n">
+      <c r="B25" s="11" t="n"/>
+      <c r="C25" s="11" t="n"/>
+      <c r="D25" s="11" t="n"/>
+      <c r="E25" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F25" s="14" t="inlineStr">
+      <c r="F25" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="22" t="n"/>
-      <c r="C26" s="22" t="n"/>
-      <c r="D26" s="22" t="n"/>
-      <c r="E26" s="22" t="n">
+      <c r="B26" s="16" t="n"/>
+      <c r="C26" s="16" t="n"/>
+      <c r="D26" s="16" t="n"/>
+      <c r="E26" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F26" s="22" t="inlineStr">
+      <c r="F26" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G26" s="23" t="n"/>
-      <c r="H26" s="23" t="n"/>
-      <c r="I26" s="23" t="n"/>
-      <c r="J26" s="23" t="n"/>
-      <c r="K26" s="23" t="n"/>
+      <c r="G26" s="15" t="n"/>
+      <c r="H26" s="15" t="n"/>
+      <c r="I26" s="15" t="n"/>
+      <c r="J26" s="15" t="n"/>
+      <c r="K26" s="15" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="14" t="n">
+      <c r="B27" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C27" s="14" t="n">
+      <c r="C27" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D27" s="14" t="n">
+      <c r="D27" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E27" s="14" t="n">
+      <c r="E27" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F27" s="14" t="inlineStr">
+      <c r="F27" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="14" t="n"/>
-      <c r="C28" s="14" t="n"/>
-      <c r="D28" s="14" t="n"/>
-      <c r="E28" s="14" t="n">
+      <c r="B28" s="11" t="n"/>
+      <c r="C28" s="11" t="n"/>
+      <c r="D28" s="11" t="n"/>
+      <c r="E28" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="F28" s="14" t="inlineStr">
+      <c r="F28" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="23" t="n"/>
-      <c r="B29" s="22" t="n"/>
-      <c r="C29" s="22" t="n"/>
-      <c r="D29" s="22" t="n"/>
-      <c r="E29" s="22" t="n">
+      <c r="A29" s="15" t="n"/>
+      <c r="B29" s="16" t="n"/>
+      <c r="C29" s="16" t="n"/>
+      <c r="D29" s="16" t="n"/>
+      <c r="E29" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="F29" s="22" t="inlineStr">
+      <c r="F29" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G29" s="23" t="n"/>
-      <c r="H29" s="23" t="n"/>
-      <c r="I29" s="23" t="n"/>
-      <c r="J29" s="23" t="n"/>
-      <c r="K29" s="23" t="n"/>
+      <c r="G29" s="15" t="n"/>
+      <c r="H29" s="15" t="n"/>
+      <c r="I29" s="15" t="n"/>
+      <c r="J29" s="15" t="n"/>
+      <c r="K29" s="15" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="14" t="n">
+      <c r="A30" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B30" s="14" t="n">
+      <c r="B30" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="14" t="n">
+      <c r="C30" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D30" s="14" t="n">
+      <c r="D30" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E30" s="14" t="n">
+      <c r="E30" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="F30" s="14" t="inlineStr">
+      <c r="F30" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="14" t="n"/>
-      <c r="C31" s="14" t="n"/>
-      <c r="D31" s="14" t="n"/>
-      <c r="E31" s="14" t="n">
+      <c r="B31" s="11" t="n"/>
+      <c r="C31" s="11" t="n"/>
+      <c r="D31" s="11" t="n"/>
+      <c r="E31" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F31" s="14" t="inlineStr">
+      <c r="F31" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="22" t="n"/>
-      <c r="C32" s="22" t="n"/>
-      <c r="D32" s="22" t="n"/>
-      <c r="E32" s="22" t="n">
+      <c r="B32" s="16" t="n"/>
+      <c r="C32" s="16" t="n"/>
+      <c r="D32" s="16" t="n"/>
+      <c r="E32" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F32" s="22" t="inlineStr">
+      <c r="F32" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G32" s="23" t="n"/>
-      <c r="H32" s="23" t="n"/>
-      <c r="I32" s="23" t="n"/>
-      <c r="J32" s="23" t="n"/>
-      <c r="K32" s="23" t="n"/>
+      <c r="G32" s="15" t="n"/>
+      <c r="H32" s="15" t="n"/>
+      <c r="I32" s="15" t="n"/>
+      <c r="J32" s="15" t="n"/>
+      <c r="K32" s="15" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="14" t="n">
+      <c r="B33" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C33" s="14" t="n">
+      <c r="C33" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D33" s="14" t="n">
+      <c r="D33" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E33" s="14" t="n">
+      <c r="E33" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F33" s="14" t="inlineStr">
+      <c r="F33" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="14" t="n"/>
-      <c r="C34" s="14" t="n"/>
-      <c r="D34" s="14" t="n"/>
-      <c r="E34" s="14" t="n">
+      <c r="B34" s="11" t="n"/>
+      <c r="C34" s="11" t="n"/>
+      <c r="D34" s="11" t="n"/>
+      <c r="E34" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="F34" s="14" t="inlineStr">
+      <c r="F34" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="22" t="n"/>
-      <c r="C35" s="22" t="n"/>
-      <c r="D35" s="22" t="n"/>
-      <c r="E35" s="22" t="n">
+      <c r="B35" s="16" t="n"/>
+      <c r="C35" s="16" t="n"/>
+      <c r="D35" s="16" t="n"/>
+      <c r="E35" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="F35" s="22" t="inlineStr">
+      <c r="F35" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G35" s="23" t="n"/>
-      <c r="H35" s="23" t="n"/>
-      <c r="I35" s="23" t="n"/>
-      <c r="J35" s="23" t="n"/>
-      <c r="K35" s="23" t="n"/>
+      <c r="G35" s="15" t="n"/>
+      <c r="H35" s="15" t="n"/>
+      <c r="I35" s="15" t="n"/>
+      <c r="J35" s="15" t="n"/>
+      <c r="K35" s="15" t="n"/>
     </row>
     <row r="36">
-      <c r="B36" s="14" t="n">
+      <c r="B36" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C36" s="14" t="n">
+      <c r="C36" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D36" s="14" t="n">
+      <c r="D36" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E36" s="14" t="n">
+      <c r="E36" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F36" s="14" t="inlineStr">
+      <c r="F36" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="14" t="n"/>
-      <c r="C37" s="14" t="n"/>
-      <c r="D37" s="14" t="n"/>
-      <c r="E37" s="14" t="n">
+      <c r="B37" s="11" t="n"/>
+      <c r="C37" s="11" t="n"/>
+      <c r="D37" s="11" t="n"/>
+      <c r="E37" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="F37" s="14" t="inlineStr">
+      <c r="F37" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="23" t="n"/>
-      <c r="B38" s="22" t="n"/>
-      <c r="C38" s="22" t="n"/>
-      <c r="D38" s="22" t="n"/>
-      <c r="E38" s="22" t="n">
+      <c r="A38" s="15" t="n"/>
+      <c r="B38" s="16" t="n"/>
+      <c r="C38" s="16" t="n"/>
+      <c r="D38" s="16" t="n"/>
+      <c r="E38" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="F38" s="22" t="inlineStr">
+      <c r="F38" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G38" s="23" t="n"/>
-      <c r="H38" s="23" t="n"/>
-      <c r="I38" s="23" t="n"/>
-      <c r="J38" s="23" t="n"/>
-      <c r="K38" s="23" t="n"/>
+      <c r="G38" s="15" t="n"/>
+      <c r="H38" s="15" t="n"/>
+      <c r="I38" s="15" t="n"/>
+      <c r="J38" s="15" t="n"/>
+      <c r="K38" s="15" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="14" t="n">
+      <c r="A39" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B39" s="14" t="n">
+      <c r="B39" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C39" s="14" t="n">
+      <c r="C39" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D39" s="14" t="n">
+      <c r="D39" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E39" s="14" t="n">
+      <c r="E39" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F39" s="14" t="inlineStr">
+      <c r="F39" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="14" t="n"/>
-      <c r="C40" s="14" t="n"/>
-      <c r="D40" s="14" t="n"/>
-      <c r="E40" s="14" t="n">
+      <c r="B40" s="11" t="n"/>
+      <c r="C40" s="11" t="n"/>
+      <c r="D40" s="11" t="n"/>
+      <c r="E40" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="F40" s="14" t="inlineStr">
+      <c r="F40" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="22" t="n"/>
-      <c r="C41" s="22" t="n"/>
-      <c r="D41" s="22" t="n"/>
-      <c r="E41" s="22" t="n">
+      <c r="B41" s="16" t="n"/>
+      <c r="C41" s="16" t="n"/>
+      <c r="D41" s="16" t="n"/>
+      <c r="E41" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="F41" s="22" t="inlineStr">
+      <c r="F41" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G41" s="23" t="n"/>
-      <c r="H41" s="23" t="n"/>
-      <c r="I41" s="23" t="n"/>
-      <c r="J41" s="23" t="n"/>
-      <c r="K41" s="23" t="n"/>
+      <c r="G41" s="15" t="n"/>
+      <c r="H41" s="15" t="n"/>
+      <c r="I41" s="15" t="n"/>
+      <c r="J41" s="15" t="n"/>
+      <c r="K41" s="15" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="14" t="n">
+      <c r="B42" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C42" s="14" t="n">
+      <c r="C42" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D42" s="14" t="n">
+      <c r="D42" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E42" s="14" t="n">
+      <c r="E42" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F42" s="14" t="inlineStr">
+      <c r="F42" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="B43" s="14" t="n"/>
-      <c r="C43" s="14" t="n"/>
-      <c r="D43" s="14" t="n"/>
-      <c r="E43" s="14" t="n">
+      <c r="B43" s="11" t="n"/>
+      <c r="C43" s="11" t="n"/>
+      <c r="D43" s="11" t="n"/>
+      <c r="E43" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="F43" s="14" t="inlineStr">
+      <c r="F43" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="B44" s="22" t="n"/>
-      <c r="C44" s="22" t="n"/>
-      <c r="D44" s="22" t="n"/>
-      <c r="E44" s="22" t="n">
+      <c r="B44" s="16" t="n"/>
+      <c r="C44" s="16" t="n"/>
+      <c r="D44" s="16" t="n"/>
+      <c r="E44" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="F44" s="22" t="inlineStr">
+      <c r="F44" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G44" s="23" t="n"/>
-      <c r="H44" s="23" t="n"/>
-      <c r="I44" s="23" t="n"/>
-      <c r="J44" s="23" t="n"/>
-      <c r="K44" s="23" t="n"/>
+      <c r="G44" s="15" t="n"/>
+      <c r="H44" s="15" t="n"/>
+      <c r="I44" s="15" t="n"/>
+      <c r="J44" s="15" t="n"/>
+      <c r="K44" s="15" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="14" t="n">
+      <c r="B45" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C45" s="14" t="n">
+      <c r="C45" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D45" s="14" t="n">
+      <c r="D45" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E45" s="14" t="n">
+      <c r="E45" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F45" s="14" t="inlineStr">
+      <c r="F45" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="B46" s="14" t="n"/>
-      <c r="C46" s="14" t="n"/>
-      <c r="D46" s="14" t="n"/>
-      <c r="E46" s="14" t="n">
+      <c r="B46" s="11" t="n"/>
+      <c r="C46" s="11" t="n"/>
+      <c r="D46" s="11" t="n"/>
+      <c r="E46" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="F46" s="14" t="inlineStr">
+      <c r="F46" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="23" t="n"/>
-      <c r="B47" s="22" t="n"/>
-      <c r="C47" s="22" t="n"/>
-      <c r="D47" s="22" t="n"/>
-      <c r="E47" s="22" t="n">
+      <c r="A47" s="15" t="n"/>
+      <c r="B47" s="16" t="n"/>
+      <c r="C47" s="16" t="n"/>
+      <c r="D47" s="16" t="n"/>
+      <c r="E47" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="F47" s="22" t="inlineStr">
+      <c r="F47" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G47" s="23" t="n"/>
-      <c r="H47" s="23" t="n"/>
-      <c r="I47" s="23" t="n"/>
-      <c r="J47" s="23" t="n"/>
-      <c r="K47" s="23" t="n"/>
+      <c r="G47" s="15" t="n"/>
+      <c r="H47" s="15" t="n"/>
+      <c r="I47" s="15" t="n"/>
+      <c r="J47" s="15" t="n"/>
+      <c r="K47" s="15" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6822,7 +6830,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="24" t="inlineStr">
+      <c r="A1" s="22" t="inlineStr">
         <is>
           <t>Board #</t>
         </is>
@@ -6871,64 +6879,64 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="25" t="n">
+      <c r="A4" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="26" t="n"/>
-      <c r="C4" s="26" t="n"/>
-      <c r="D4" s="26" t="n"/>
-      <c r="E4" s="26" t="n"/>
-      <c r="F4" s="26" t="n"/>
-      <c r="G4" s="26" t="n"/>
-      <c r="H4" s="26" t="n"/>
+      <c r="B4" s="24" t="n"/>
+      <c r="C4" s="24" t="n"/>
+      <c r="D4" s="24" t="n"/>
+      <c r="E4" s="24" t="n"/>
+      <c r="F4" s="24" t="n"/>
+      <c r="G4" s="24" t="n"/>
+      <c r="H4" s="24" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="25" t="n">
+      <c r="A5" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="26" t="n"/>
-      <c r="C5" s="26" t="n"/>
-      <c r="D5" s="26" t="n"/>
-      <c r="E5" s="26" t="n"/>
-      <c r="F5" s="26" t="n"/>
-      <c r="G5" s="26" t="n"/>
-      <c r="H5" s="26" t="n"/>
+      <c r="B5" s="24" t="n"/>
+      <c r="C5" s="24" t="n"/>
+      <c r="D5" s="24" t="n"/>
+      <c r="E5" s="24" t="n"/>
+      <c r="F5" s="24" t="n"/>
+      <c r="G5" s="24" t="n"/>
+      <c r="H5" s="24" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="25" t="n">
+      <c r="A6" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="26" t="n"/>
-      <c r="C6" s="26" t="n"/>
-      <c r="D6" s="26" t="n"/>
-      <c r="E6" s="26" t="n"/>
-      <c r="F6" s="26" t="n"/>
-      <c r="G6" s="26" t="n"/>
-      <c r="H6" s="26" t="n"/>
+      <c r="B6" s="24" t="n"/>
+      <c r="C6" s="24" t="n"/>
+      <c r="D6" s="24" t="n"/>
+      <c r="E6" s="24" t="n"/>
+      <c r="F6" s="24" t="n"/>
+      <c r="G6" s="24" t="n"/>
+      <c r="H6" s="24" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="25" t="n">
+      <c r="A7" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="26" t="n"/>
-      <c r="C7" s="26" t="n"/>
-      <c r="D7" s="26" t="n"/>
-      <c r="E7" s="26" t="n"/>
-      <c r="F7" s="26" t="n"/>
-      <c r="G7" s="26" t="n"/>
-      <c r="H7" s="26" t="n"/>
+      <c r="B7" s="24" t="n"/>
+      <c r="C7" s="24" t="n"/>
+      <c r="D7" s="24" t="n"/>
+      <c r="E7" s="24" t="n"/>
+      <c r="F7" s="24" t="n"/>
+      <c r="G7" s="24" t="n"/>
+      <c r="H7" s="24" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="25" t="n">
+      <c r="A8" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="26" t="n"/>
-      <c r="C8" s="26" t="n"/>
-      <c r="D8" s="26" t="n"/>
-      <c r="E8" s="26" t="n"/>
-      <c r="F8" s="26" t="n"/>
-      <c r="G8" s="26" t="n"/>
-      <c r="H8" s="26" t="n"/>
+      <c r="B8" s="24" t="n"/>
+      <c r="C8" s="24" t="n"/>
+      <c r="D8" s="24" t="n"/>
+      <c r="E8" s="24" t="n"/>
+      <c r="F8" s="24" t="n"/>
+      <c r="G8" s="24" t="n"/>
+      <c r="H8" s="24" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7358,22 +7366,22 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="27" t="n">
+      <c r="C3" s="25" t="n">
         <v>70</v>
       </c>
-      <c r="D3" s="27" t="n">
+      <c r="D3" s="25" t="n">
         <v>140</v>
       </c>
-      <c r="E3" s="27" t="n">
+      <c r="E3" s="25" t="n">
         <v>230</v>
       </c>
-      <c r="F3" s="27" t="n">
+      <c r="F3" s="25" t="n">
         <v>70</v>
       </c>
-      <c r="G3" s="27" t="n">
+      <c r="G3" s="25" t="n">
         <v>140</v>
       </c>
-      <c r="H3" s="27" t="n">
+      <c r="H3" s="25" t="n">
         <v>230</v>
       </c>
       <c r="J3" t="n">
@@ -7404,22 +7412,22 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="27" t="n">
+      <c r="C4" s="25" t="n">
         <v>90</v>
       </c>
-      <c r="D4" s="27" t="n">
+      <c r="D4" s="25" t="n">
         <v>240</v>
       </c>
-      <c r="E4" s="27" t="n">
+      <c r="E4" s="25" t="n">
         <v>430</v>
       </c>
-      <c r="F4" s="27" t="n">
+      <c r="F4" s="25" t="n">
         <v>90</v>
       </c>
-      <c r="G4" s="27" t="n">
+      <c r="G4" s="25" t="n">
         <v>340</v>
       </c>
-      <c r="H4" s="27" t="n">
+      <c r="H4" s="25" t="n">
         <v>630</v>
       </c>
       <c r="J4" t="n">
@@ -7454,22 +7462,22 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="27" t="n">
+      <c r="C5" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="D5" s="27" t="n">
+      <c r="D5" s="25" t="n">
         <v>340</v>
       </c>
-      <c r="E5" s="27" t="n">
+      <c r="E5" s="25" t="n">
         <v>630</v>
       </c>
-      <c r="F5" s="27" t="n">
+      <c r="F5" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="G5" s="27" t="n">
+      <c r="G5" s="25" t="n">
         <v>540</v>
       </c>
-      <c r="H5" s="27" t="n">
+      <c r="H5" s="25" t="n">
         <v>1030</v>
       </c>
       <c r="J5" t="n">
@@ -7504,22 +7512,22 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="27" t="n">
+      <c r="C6" s="25" t="n">
         <v>130</v>
       </c>
-      <c r="D6" s="27" t="n">
+      <c r="D6" s="25" t="n">
         <v>440</v>
       </c>
-      <c r="E6" s="27" t="n">
+      <c r="E6" s="25" t="n">
         <v>830</v>
       </c>
-      <c r="F6" s="27" t="n">
+      <c r="F6" s="25" t="n">
         <v>130</v>
       </c>
-      <c r="G6" s="27" t="n">
+      <c r="G6" s="25" t="n">
         <v>740</v>
       </c>
-      <c r="H6" s="27" t="n">
+      <c r="H6" s="25" t="n">
         <v>1430</v>
       </c>
       <c r="J6" t="n">
@@ -7554,22 +7562,22 @@
       <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="27" t="n">
+      <c r="C7" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="D7" s="27" t="n">
+      <c r="D7" s="25" t="n">
         <v>540</v>
       </c>
-      <c r="E7" s="27" t="n">
+      <c r="E7" s="25" t="n">
         <v>1030</v>
       </c>
-      <c r="F7" s="27" t="n">
+      <c r="F7" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="G7" s="27" t="n">
+      <c r="G7" s="25" t="n">
         <v>940</v>
       </c>
-      <c r="H7" s="27" t="n">
+      <c r="H7" s="25" t="n">
         <v>1830</v>
       </c>
       <c r="J7" t="n">
@@ -7604,22 +7612,22 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="27" t="n">
+      <c r="C8" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="D8" s="27" t="n">
+      <c r="D8" s="25" t="n">
         <v>640</v>
       </c>
-      <c r="E8" s="27" t="n">
+      <c r="E8" s="25" t="n">
         <v>1230</v>
       </c>
-      <c r="F8" s="27" t="n">
+      <c r="F8" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="G8" s="27" t="n">
+      <c r="G8" s="25" t="n">
         <v>1140</v>
       </c>
-      <c r="H8" s="27" t="n">
+      <c r="H8" s="25" t="n">
         <v>2230</v>
       </c>
       <c r="J8" t="n">
@@ -7654,22 +7662,22 @@
       <c r="B9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="27" t="n">
+      <c r="C9" s="25" t="n">
         <v>190</v>
       </c>
-      <c r="D9" s="27" t="n">
+      <c r="D9" s="25" t="n">
         <v>740</v>
       </c>
-      <c r="E9" s="27" t="n">
+      <c r="E9" s="25" t="n">
         <v>1430</v>
       </c>
-      <c r="F9" s="27" t="n">
+      <c r="F9" s="25" t="n">
         <v>190</v>
       </c>
-      <c r="G9" s="27" t="n">
+      <c r="G9" s="25" t="n">
         <v>1340</v>
       </c>
-      <c r="H9" s="27" t="n">
+      <c r="H9" s="25" t="n">
         <v>2630</v>
       </c>
       <c r="J9" t="n">
@@ -7709,22 +7717,22 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="27" t="n">
+      <c r="C10" s="25" t="n">
         <v>80</v>
       </c>
-      <c r="D10" s="27" t="n">
+      <c r="D10" s="25" t="n">
         <v>160</v>
       </c>
-      <c r="E10" s="27" t="n">
+      <c r="E10" s="25" t="n">
         <v>520</v>
       </c>
-      <c r="F10" s="27" t="n">
+      <c r="F10" s="25" t="n">
         <v>80</v>
       </c>
-      <c r="G10" s="27" t="n">
+      <c r="G10" s="25" t="n">
         <v>160</v>
       </c>
-      <c r="H10" s="27" t="n">
+      <c r="H10" s="25" t="n">
         <v>720</v>
       </c>
       <c r="J10" t="n">
@@ -7759,22 +7767,22 @@
       <c r="B11" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="27" t="n">
+      <c r="C11" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="D11" s="27" t="n">
+      <c r="D11" s="25" t="n">
         <v>260</v>
       </c>
-      <c r="E11" s="27" t="n">
+      <c r="E11" s="25" t="n">
         <v>720</v>
       </c>
-      <c r="F11" s="27" t="n">
+      <c r="F11" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="G11" s="27" t="n">
+      <c r="G11" s="25" t="n">
         <v>360</v>
       </c>
-      <c r="H11" s="27" t="n">
+      <c r="H11" s="25" t="n">
         <v>1120</v>
       </c>
       <c r="J11" t="n">
@@ -7809,22 +7817,22 @@
       <c r="B12" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="25" t="n">
         <v>140</v>
       </c>
-      <c r="D12" s="27" t="n">
+      <c r="D12" s="25" t="n">
         <v>360</v>
       </c>
-      <c r="E12" s="27" t="n">
+      <c r="E12" s="25" t="n">
         <v>920</v>
       </c>
-      <c r="F12" s="27" t="n">
+      <c r="F12" s="25" t="n">
         <v>140</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="25" t="n">
         <v>560</v>
       </c>
-      <c r="H12" s="27" t="n">
+      <c r="H12" s="25" t="n">
         <v>1520</v>
       </c>
       <c r="J12" t="n">
@@ -7859,22 +7867,22 @@
       <c r="B13" t="n">
         <v>4</v>
       </c>
-      <c r="C13" s="27" t="n">
+      <c r="C13" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="D13" s="27" t="n">
+      <c r="D13" s="25" t="n">
         <v>460</v>
       </c>
-      <c r="E13" s="27" t="n">
+      <c r="E13" s="25" t="n">
         <v>1120</v>
       </c>
-      <c r="F13" s="27" t="n">
+      <c r="F13" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="G13" s="27" t="n">
+      <c r="G13" s="25" t="n">
         <v>760</v>
       </c>
-      <c r="H13" s="27" t="n">
+      <c r="H13" s="25" t="n">
         <v>1920</v>
       </c>
       <c r="J13" t="n">
@@ -7909,22 +7917,22 @@
       <c r="B14" t="n">
         <v>5</v>
       </c>
-      <c r="C14" s="27" t="n">
+      <c r="C14" s="25" t="n">
         <v>200</v>
       </c>
-      <c r="D14" s="27" t="n">
+      <c r="D14" s="25" t="n">
         <v>560</v>
       </c>
-      <c r="E14" s="27" t="n">
+      <c r="E14" s="25" t="n">
         <v>1320</v>
       </c>
-      <c r="F14" s="27" t="n">
+      <c r="F14" s="25" t="n">
         <v>200</v>
       </c>
-      <c r="G14" s="27" t="n">
+      <c r="G14" s="25" t="n">
         <v>960</v>
       </c>
-      <c r="H14" s="27" t="n">
+      <c r="H14" s="25" t="n">
         <v>2320</v>
       </c>
       <c r="J14" t="n">
@@ -7959,22 +7967,22 @@
       <c r="B15" t="n">
         <v>6</v>
       </c>
-      <c r="C15" s="27" t="n">
+      <c r="C15" s="25" t="n">
         <v>230</v>
       </c>
-      <c r="D15" s="27" t="n">
+      <c r="D15" s="25" t="n">
         <v>660</v>
       </c>
-      <c r="E15" s="27" t="n">
+      <c r="E15" s="25" t="n">
         <v>1520</v>
       </c>
-      <c r="F15" s="27" t="n">
+      <c r="F15" s="25" t="n">
         <v>230</v>
       </c>
-      <c r="G15" s="27" t="n">
+      <c r="G15" s="25" t="n">
         <v>1160</v>
       </c>
-      <c r="H15" s="27" t="n">
+      <c r="H15" s="25" t="n">
         <v>2720</v>
       </c>
       <c r="J15" t="n">
@@ -8009,22 +8017,22 @@
       <c r="B16" t="n">
         <v>7</v>
       </c>
-      <c r="C16" s="27" t="n">
+      <c r="C16" s="25" t="n">
         <v>260</v>
       </c>
-      <c r="D16" s="27" t="n">
+      <c r="D16" s="25" t="n">
         <v>760</v>
       </c>
-      <c r="E16" s="27" t="n">
+      <c r="E16" s="25" t="n">
         <v>1720</v>
       </c>
-      <c r="F16" s="27" t="n">
+      <c r="F16" s="25" t="n">
         <v>260</v>
       </c>
-      <c r="G16" s="27" t="n">
+      <c r="G16" s="25" t="n">
         <v>1360</v>
       </c>
-      <c r="H16" s="27" t="n">
+      <c r="H16" s="25" t="n">
         <v>3120</v>
       </c>
     </row>
@@ -8037,22 +8045,22 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="27" t="n">
+      <c r="C17" s="25" t="n">
         <v>90</v>
       </c>
-      <c r="D17" s="27" t="n">
+      <c r="D17" s="25" t="n">
         <v>180</v>
       </c>
-      <c r="E17" s="27" t="n">
+      <c r="E17" s="25" t="n">
         <v>560</v>
       </c>
-      <c r="F17" s="27" t="n">
+      <c r="F17" s="25" t="n">
         <v>90</v>
       </c>
-      <c r="G17" s="27" t="n">
+      <c r="G17" s="25" t="n">
         <v>180</v>
       </c>
-      <c r="H17" s="27" t="n">
+      <c r="H17" s="25" t="n">
         <v>760</v>
       </c>
     </row>
@@ -8060,22 +8068,22 @@
       <c r="B18" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="27" t="n">
+      <c r="C18" s="25" t="n">
         <v>120</v>
       </c>
-      <c r="D18" s="27" t="n">
+      <c r="D18" s="25" t="n">
         <v>280</v>
       </c>
-      <c r="E18" s="27" t="n">
+      <c r="E18" s="25" t="n">
         <v>760</v>
       </c>
-      <c r="F18" s="27" t="n">
+      <c r="F18" s="25" t="n">
         <v>120</v>
       </c>
-      <c r="G18" s="27" t="n">
+      <c r="G18" s="25" t="n">
         <v>380</v>
       </c>
-      <c r="H18" s="27" t="n">
+      <c r="H18" s="25" t="n">
         <v>1160</v>
       </c>
     </row>
@@ -8083,22 +8091,22 @@
       <c r="B19" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="27" t="n">
+      <c r="C19" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="D19" s="27" t="n">
+      <c r="D19" s="25" t="n">
         <v>380</v>
       </c>
-      <c r="E19" s="27" t="n">
+      <c r="E19" s="25" t="n">
         <v>960</v>
       </c>
-      <c r="F19" s="27" t="n">
+      <c r="F19" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="G19" s="27" t="n">
+      <c r="G19" s="25" t="n">
         <v>580</v>
       </c>
-      <c r="H19" s="27" t="n">
+      <c r="H19" s="25" t="n">
         <v>1560</v>
       </c>
     </row>
@@ -8106,22 +8114,22 @@
       <c r="B20" t="n">
         <v>4</v>
       </c>
-      <c r="C20" s="27" t="n">
+      <c r="C20" s="25" t="n">
         <v>180</v>
       </c>
-      <c r="D20" s="27" t="n">
+      <c r="D20" s="25" t="n">
         <v>480</v>
       </c>
-      <c r="E20" s="27" t="n">
+      <c r="E20" s="25" t="n">
         <v>1160</v>
       </c>
-      <c r="F20" s="27" t="n">
+      <c r="F20" s="25" t="n">
         <v>180</v>
       </c>
-      <c r="G20" s="27" t="n">
+      <c r="G20" s="25" t="n">
         <v>780</v>
       </c>
-      <c r="H20" s="27" t="n">
+      <c r="H20" s="25" t="n">
         <v>1960</v>
       </c>
     </row>
@@ -8129,22 +8137,22 @@
       <c r="B21" t="n">
         <v>5</v>
       </c>
-      <c r="C21" s="27" t="n">
+      <c r="C21" s="25" t="n">
         <v>210</v>
       </c>
-      <c r="D21" s="27" t="n">
+      <c r="D21" s="25" t="n">
         <v>580</v>
       </c>
-      <c r="E21" s="27" t="n">
+      <c r="E21" s="25" t="n">
         <v>1360</v>
       </c>
-      <c r="F21" s="27" t="n">
+      <c r="F21" s="25" t="n">
         <v>210</v>
       </c>
-      <c r="G21" s="27" t="n">
+      <c r="G21" s="25" t="n">
         <v>980</v>
       </c>
-      <c r="H21" s="27" t="n">
+      <c r="H21" s="25" t="n">
         <v>2360</v>
       </c>
     </row>
@@ -8152,22 +8160,22 @@
       <c r="B22" t="n">
         <v>6</v>
       </c>
-      <c r="C22" s="27" t="n">
+      <c r="C22" s="25" t="n">
         <v>240</v>
       </c>
-      <c r="D22" s="27" t="n">
+      <c r="D22" s="25" t="n">
         <v>680</v>
       </c>
-      <c r="E22" s="27" t="n">
+      <c r="E22" s="25" t="n">
         <v>1560</v>
       </c>
-      <c r="F22" s="27" t="n">
+      <c r="F22" s="25" t="n">
         <v>240</v>
       </c>
-      <c r="G22" s="27" t="n">
+      <c r="G22" s="25" t="n">
         <v>1180</v>
       </c>
-      <c r="H22" s="27" t="n">
+      <c r="H22" s="25" t="n">
         <v>2760</v>
       </c>
     </row>
@@ -8175,22 +8183,22 @@
       <c r="B23" t="n">
         <v>7</v>
       </c>
-      <c r="C23" s="27" t="n">
+      <c r="C23" s="25" t="n">
         <v>270</v>
       </c>
-      <c r="D23" s="27" t="n">
+      <c r="D23" s="25" t="n">
         <v>780</v>
       </c>
-      <c r="E23" s="27" t="n">
+      <c r="E23" s="25" t="n">
         <v>1760</v>
       </c>
-      <c r="F23" s="27" t="n">
+      <c r="F23" s="25" t="n">
         <v>270</v>
       </c>
-      <c r="G23" s="27" t="n">
+      <c r="G23" s="25" t="n">
         <v>1380</v>
       </c>
-      <c r="H23" s="27" t="n">
+      <c r="H23" s="25" t="n">
         <v>3160</v>
       </c>
     </row>
@@ -8203,22 +8211,22 @@
       <c r="B24" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="27" t="n">
+      <c r="C24" s="25" t="n">
         <v>90</v>
       </c>
-      <c r="D24" s="27" t="n">
+      <c r="D24" s="25" t="n">
         <v>180</v>
       </c>
-      <c r="E24" s="27" t="n">
+      <c r="E24" s="25" t="n">
         <v>560</v>
       </c>
-      <c r="F24" s="27" t="n">
+      <c r="F24" s="25" t="n">
         <v>90</v>
       </c>
-      <c r="G24" s="27" t="n">
+      <c r="G24" s="25" t="n">
         <v>180</v>
       </c>
-      <c r="H24" s="27" t="n">
+      <c r="H24" s="25" t="n">
         <v>760</v>
       </c>
     </row>
@@ -8226,22 +8234,22 @@
       <c r="B25" t="n">
         <v>2</v>
       </c>
-      <c r="C25" s="27" t="n">
+      <c r="C25" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="D25" s="27" t="n">
+      <c r="D25" s="25" t="n">
         <v>280</v>
       </c>
-      <c r="E25" s="27" t="n">
+      <c r="E25" s="25" t="n">
         <v>760</v>
       </c>
-      <c r="F25" s="27" t="n">
+      <c r="F25" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="G25" s="27" t="n">
+      <c r="G25" s="25" t="n">
         <v>380</v>
       </c>
-      <c r="H25" s="27" t="n">
+      <c r="H25" s="25" t="n">
         <v>1160</v>
       </c>
     </row>
@@ -8249,22 +8257,22 @@
       <c r="B26" t="n">
         <v>3</v>
       </c>
-      <c r="C26" s="27" t="n">
+      <c r="C26" s="25" t="n">
         <v>130</v>
       </c>
-      <c r="D26" s="27" t="n">
+      <c r="D26" s="25" t="n">
         <v>380</v>
       </c>
-      <c r="E26" s="27" t="n">
+      <c r="E26" s="25" t="n">
         <v>960</v>
       </c>
-      <c r="F26" s="27" t="n">
+      <c r="F26" s="25" t="n">
         <v>130</v>
       </c>
-      <c r="G26" s="27" t="n">
+      <c r="G26" s="25" t="n">
         <v>580</v>
       </c>
-      <c r="H26" s="27" t="n">
+      <c r="H26" s="25" t="n">
         <v>1560</v>
       </c>
     </row>
@@ -8272,22 +8280,22 @@
       <c r="B27" t="n">
         <v>4</v>
       </c>
-      <c r="C27" s="27" t="n">
+      <c r="C27" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="D27" s="27" t="n">
+      <c r="D27" s="25" t="n">
         <v>480</v>
       </c>
-      <c r="E27" s="27" t="n">
+      <c r="E27" s="25" t="n">
         <v>1160</v>
       </c>
-      <c r="F27" s="27" t="n">
+      <c r="F27" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="G27" s="27" t="n">
+      <c r="G27" s="25" t="n">
         <v>780</v>
       </c>
-      <c r="H27" s="27" t="n">
+      <c r="H27" s="25" t="n">
         <v>1960</v>
       </c>
     </row>
@@ -8295,22 +8303,22 @@
       <c r="B28" t="n">
         <v>5</v>
       </c>
-      <c r="C28" s="27" t="n">
+      <c r="C28" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="D28" s="27" t="n">
+      <c r="D28" s="25" t="n">
         <v>580</v>
       </c>
-      <c r="E28" s="27" t="n">
+      <c r="E28" s="25" t="n">
         <v>1360</v>
       </c>
-      <c r="F28" s="27" t="n">
+      <c r="F28" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="G28" s="27" t="n">
+      <c r="G28" s="25" t="n">
         <v>980</v>
       </c>
-      <c r="H28" s="27" t="n">
+      <c r="H28" s="25" t="n">
         <v>2360</v>
       </c>
     </row>
@@ -8318,22 +8326,22 @@
       <c r="B29" t="n">
         <v>6</v>
       </c>
-      <c r="C29" s="27" t="n">
+      <c r="C29" s="25" t="n">
         <v>190</v>
       </c>
-      <c r="D29" s="27" t="n">
+      <c r="D29" s="25" t="n">
         <v>680</v>
       </c>
-      <c r="E29" s="27" t="n">
+      <c r="E29" s="25" t="n">
         <v>1560</v>
       </c>
-      <c r="F29" s="27" t="n">
+      <c r="F29" s="25" t="n">
         <v>190</v>
       </c>
-      <c r="G29" s="27" t="n">
+      <c r="G29" s="25" t="n">
         <v>1180</v>
       </c>
-      <c r="H29" s="27" t="n">
+      <c r="H29" s="25" t="n">
         <v>2760</v>
       </c>
     </row>
@@ -8346,22 +8354,22 @@
       <c r="B30" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="27" t="n">
+      <c r="C30" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="D30" s="27" t="n">
+      <c r="D30" s="25" t="n">
         <v>470</v>
       </c>
-      <c r="E30" s="27" t="n">
+      <c r="E30" s="25" t="n">
         <v>640</v>
       </c>
-      <c r="F30" s="27" t="n">
+      <c r="F30" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="G30" s="27" t="n">
+      <c r="G30" s="25" t="n">
         <v>670</v>
       </c>
-      <c r="H30" s="27" t="n">
+      <c r="H30" s="25" t="n">
         <v>840</v>
       </c>
     </row>
@@ -8369,22 +8377,22 @@
       <c r="B31" t="n">
         <v>2</v>
       </c>
-      <c r="C31" s="27" t="n">
+      <c r="C31" s="25" t="n">
         <v>140</v>
       </c>
-      <c r="D31" s="27" t="n">
+      <c r="D31" s="25" t="n">
         <v>570</v>
       </c>
-      <c r="E31" s="27" t="n">
+      <c r="E31" s="25" t="n">
         <v>840</v>
       </c>
-      <c r="F31" s="27" t="n">
+      <c r="F31" s="25" t="n">
         <v>140</v>
       </c>
-      <c r="G31" s="27" t="n">
+      <c r="G31" s="25" t="n">
         <v>870</v>
       </c>
-      <c r="H31" s="27" t="n">
+      <c r="H31" s="25" t="n">
         <v>1240</v>
       </c>
     </row>
@@ -8392,22 +8400,22 @@
       <c r="B32" t="n">
         <v>3</v>
       </c>
-      <c r="C32" s="27" t="n">
+      <c r="C32" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="D32" s="27" t="n">
+      <c r="D32" s="25" t="n">
         <v>670</v>
       </c>
-      <c r="E32" s="27" t="n">
+      <c r="E32" s="25" t="n">
         <v>1040</v>
       </c>
-      <c r="F32" s="27" t="n">
+      <c r="F32" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="G32" s="27" t="n">
+      <c r="G32" s="25" t="n">
         <v>1070</v>
       </c>
-      <c r="H32" s="27" t="n">
+      <c r="H32" s="25" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -8415,22 +8423,22 @@
       <c r="B33" t="n">
         <v>4</v>
       </c>
-      <c r="C33" s="27" t="n">
+      <c r="C33" s="25" t="n">
         <v>200</v>
       </c>
-      <c r="D33" s="27" t="n">
+      <c r="D33" s="25" t="n">
         <v>770</v>
       </c>
-      <c r="E33" s="27" t="n">
+      <c r="E33" s="25" t="n">
         <v>1240</v>
       </c>
-      <c r="F33" s="27" t="n">
+      <c r="F33" s="25" t="n">
         <v>200</v>
       </c>
-      <c r="G33" s="27" t="n">
+      <c r="G33" s="25" t="n">
         <v>1270</v>
       </c>
-      <c r="H33" s="27" t="n">
+      <c r="H33" s="25" t="n">
         <v>2040</v>
       </c>
     </row>
@@ -8438,22 +8446,22 @@
       <c r="B34" t="n">
         <v>5</v>
       </c>
-      <c r="C34" s="27" t="n">
+      <c r="C34" s="25" t="n">
         <v>230</v>
       </c>
-      <c r="D34" s="27" t="n">
+      <c r="D34" s="25" t="n">
         <v>870</v>
       </c>
-      <c r="E34" s="27" t="n">
+      <c r="E34" s="25" t="n">
         <v>1440</v>
       </c>
-      <c r="F34" s="27" t="n">
+      <c r="F34" s="25" t="n">
         <v>230</v>
       </c>
-      <c r="G34" s="27" t="n">
+      <c r="G34" s="25" t="n">
         <v>1470</v>
       </c>
-      <c r="H34" s="27" t="n">
+      <c r="H34" s="25" t="n">
         <v>2440</v>
       </c>
     </row>
@@ -8461,22 +8469,22 @@
       <c r="B35" t="n">
         <v>6</v>
       </c>
-      <c r="C35" s="27" t="n">
+      <c r="C35" s="25" t="n">
         <v>260</v>
       </c>
-      <c r="D35" s="27" t="n">
+      <c r="D35" s="25" t="n">
         <v>970</v>
       </c>
-      <c r="E35" s="27" t="n">
+      <c r="E35" s="25" t="n">
         <v>1640</v>
       </c>
-      <c r="F35" s="27" t="n">
+      <c r="F35" s="25" t="n">
         <v>260</v>
       </c>
-      <c r="G35" s="27" t="n">
+      <c r="G35" s="25" t="n">
         <v>1670</v>
       </c>
-      <c r="H35" s="27" t="n">
+      <c r="H35" s="25" t="n">
         <v>2840</v>
       </c>
     </row>
@@ -8489,22 +8497,22 @@
       <c r="B36" t="n">
         <v>1</v>
       </c>
-      <c r="C36" s="27" t="n">
+      <c r="C36" s="25" t="n">
         <v>120</v>
       </c>
-      <c r="D36" s="27" t="n">
+      <c r="D36" s="25" t="n">
         <v>490</v>
       </c>
-      <c r="E36" s="27" t="n">
+      <c r="E36" s="25" t="n">
         <v>680</v>
       </c>
-      <c r="F36" s="27" t="n">
+      <c r="F36" s="25" t="n">
         <v>120</v>
       </c>
-      <c r="G36" s="27" t="n">
+      <c r="G36" s="25" t="n">
         <v>690</v>
       </c>
-      <c r="H36" s="27" t="n">
+      <c r="H36" s="25" t="n">
         <v>880</v>
       </c>
     </row>
@@ -8512,22 +8520,22 @@
       <c r="B37" t="n">
         <v>2</v>
       </c>
-      <c r="C37" s="27" t="n">
+      <c r="C37" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="D37" s="27" t="n">
+      <c r="D37" s="25" t="n">
         <v>590</v>
       </c>
-      <c r="E37" s="27" t="n">
+      <c r="E37" s="25" t="n">
         <v>880</v>
       </c>
-      <c r="F37" s="27" t="n">
+      <c r="F37" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="G37" s="27" t="n">
+      <c r="G37" s="25" t="n">
         <v>890</v>
       </c>
-      <c r="H37" s="27" t="n">
+      <c r="H37" s="25" t="n">
         <v>1280</v>
       </c>
     </row>
@@ -8535,22 +8543,22 @@
       <c r="B38" t="n">
         <v>3</v>
       </c>
-      <c r="C38" s="27" t="n">
+      <c r="C38" s="25" t="n">
         <v>180</v>
       </c>
-      <c r="D38" s="27" t="n">
+      <c r="D38" s="25" t="n">
         <v>690</v>
       </c>
-      <c r="E38" s="27" t="n">
+      <c r="E38" s="25" t="n">
         <v>1080</v>
       </c>
-      <c r="F38" s="27" t="n">
+      <c r="F38" s="25" t="n">
         <v>180</v>
       </c>
-      <c r="G38" s="27" t="n">
+      <c r="G38" s="25" t="n">
         <v>1090</v>
       </c>
-      <c r="H38" s="27" t="n">
+      <c r="H38" s="25" t="n">
         <v>1680</v>
       </c>
     </row>
@@ -8558,22 +8566,22 @@
       <c r="B39" t="n">
         <v>4</v>
       </c>
-      <c r="C39" s="27" t="n">
+      <c r="C39" s="25" t="n">
         <v>210</v>
       </c>
-      <c r="D39" s="27" t="n">
+      <c r="D39" s="25" t="n">
         <v>790</v>
       </c>
-      <c r="E39" s="27" t="n">
+      <c r="E39" s="25" t="n">
         <v>1280</v>
       </c>
-      <c r="F39" s="27" t="n">
+      <c r="F39" s="25" t="n">
         <v>210</v>
       </c>
-      <c r="G39" s="27" t="n">
+      <c r="G39" s="25" t="n">
         <v>1290</v>
       </c>
-      <c r="H39" s="27" t="n">
+      <c r="H39" s="25" t="n">
         <v>2080</v>
       </c>
     </row>
@@ -8581,22 +8589,22 @@
       <c r="B40" t="n">
         <v>5</v>
       </c>
-      <c r="C40" s="27" t="n">
+      <c r="C40" s="25" t="n">
         <v>240</v>
       </c>
-      <c r="D40" s="27" t="n">
+      <c r="D40" s="25" t="n">
         <v>890</v>
       </c>
-      <c r="E40" s="27" t="n">
+      <c r="E40" s="25" t="n">
         <v>1480</v>
       </c>
-      <c r="F40" s="27" t="n">
+      <c r="F40" s="25" t="n">
         <v>240</v>
       </c>
-      <c r="G40" s="27" t="n">
+      <c r="G40" s="25" t="n">
         <v>1490</v>
       </c>
-      <c r="H40" s="27" t="n">
+      <c r="H40" s="25" t="n">
         <v>2480</v>
       </c>
     </row>
@@ -8604,22 +8612,22 @@
       <c r="B41" t="n">
         <v>6</v>
       </c>
-      <c r="C41" s="27" t="n">
+      <c r="C41" s="25" t="n">
         <v>270</v>
       </c>
-      <c r="D41" s="27" t="n">
+      <c r="D41" s="25" t="n">
         <v>990</v>
       </c>
-      <c r="E41" s="27" t="n">
+      <c r="E41" s="25" t="n">
         <v>1680</v>
       </c>
-      <c r="F41" s="27" t="n">
+      <c r="F41" s="25" t="n">
         <v>270</v>
       </c>
-      <c r="G41" s="27" t="n">
+      <c r="G41" s="25" t="n">
         <v>1690</v>
       </c>
-      <c r="H41" s="27" t="n">
+      <c r="H41" s="25" t="n">
         <v>2880</v>
       </c>
     </row>
@@ -8632,22 +8640,22 @@
       <c r="B42" t="n">
         <v>1</v>
       </c>
-      <c r="C42" s="27" t="n">
+      <c r="C42" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="D42" s="27" t="n">
+      <c r="D42" s="25" t="n">
         <v>470</v>
       </c>
-      <c r="E42" s="27" t="n">
+      <c r="E42" s="25" t="n">
         <v>640</v>
       </c>
-      <c r="F42" s="27" t="n">
+      <c r="F42" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="G42" s="27" t="n">
+      <c r="G42" s="25" t="n">
         <v>670</v>
       </c>
-      <c r="H42" s="27" t="n">
+      <c r="H42" s="25" t="n">
         <v>840</v>
       </c>
     </row>
@@ -8655,22 +8663,22 @@
       <c r="B43" t="n">
         <v>2</v>
       </c>
-      <c r="C43" s="27" t="n">
+      <c r="C43" s="25" t="n">
         <v>130</v>
       </c>
-      <c r="D43" s="27" t="n">
+      <c r="D43" s="25" t="n">
         <v>570</v>
       </c>
-      <c r="E43" s="27" t="n">
+      <c r="E43" s="25" t="n">
         <v>840</v>
       </c>
-      <c r="F43" s="27" t="n">
+      <c r="F43" s="25" t="n">
         <v>130</v>
       </c>
-      <c r="G43" s="27" t="n">
+      <c r="G43" s="25" t="n">
         <v>870</v>
       </c>
-      <c r="H43" s="27" t="n">
+      <c r="H43" s="25" t="n">
         <v>1240</v>
       </c>
     </row>
@@ -8678,22 +8686,22 @@
       <c r="B44" t="n">
         <v>3</v>
       </c>
-      <c r="C44" s="27" t="n">
+      <c r="C44" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="D44" s="27" t="n">
+      <c r="D44" s="25" t="n">
         <v>670</v>
       </c>
-      <c r="E44" s="27" t="n">
+      <c r="E44" s="25" t="n">
         <v>1040</v>
       </c>
-      <c r="F44" s="27" t="n">
+      <c r="F44" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="G44" s="27" t="n">
+      <c r="G44" s="25" t="n">
         <v>1070</v>
       </c>
-      <c r="H44" s="27" t="n">
+      <c r="H44" s="25" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -8701,22 +8709,22 @@
       <c r="B45" t="n">
         <v>4</v>
       </c>
-      <c r="C45" s="27" t="n">
+      <c r="C45" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="D45" s="27" t="n">
+      <c r="D45" s="25" t="n">
         <v>770</v>
       </c>
-      <c r="E45" s="27" t="n">
+      <c r="E45" s="25" t="n">
         <v>1240</v>
       </c>
-      <c r="F45" s="27" t="n">
+      <c r="F45" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="G45" s="27" t="n">
+      <c r="G45" s="25" t="n">
         <v>1270</v>
       </c>
-      <c r="H45" s="27" t="n">
+      <c r="H45" s="25" t="n">
         <v>2040</v>
       </c>
     </row>
@@ -8724,22 +8732,22 @@
       <c r="B46" t="n">
         <v>5</v>
       </c>
-      <c r="C46" s="27" t="n">
+      <c r="C46" s="25" t="n">
         <v>190</v>
       </c>
-      <c r="D46" s="27" t="n">
+      <c r="D46" s="25" t="n">
         <v>870</v>
       </c>
-      <c r="E46" s="27" t="n">
+      <c r="E46" s="25" t="n">
         <v>1440</v>
       </c>
-      <c r="F46" s="27" t="n">
+      <c r="F46" s="25" t="n">
         <v>190</v>
       </c>
-      <c r="G46" s="27" t="n">
+      <c r="G46" s="25" t="n">
         <v>1470</v>
       </c>
-      <c r="H46" s="27" t="n">
+      <c r="H46" s="25" t="n">
         <v>2440</v>
       </c>
     </row>
@@ -8752,22 +8760,22 @@
       <c r="B47" t="n">
         <v>1</v>
       </c>
-      <c r="C47" s="27" t="n">
+      <c r="C47" s="25" t="n">
         <v>140</v>
       </c>
-      <c r="D47" s="27" t="n">
+      <c r="D47" s="25" t="n">
         <v>530</v>
       </c>
-      <c r="E47" s="27" t="n">
+      <c r="E47" s="25" t="n">
         <v>760</v>
       </c>
-      <c r="F47" s="27" t="n">
+      <c r="F47" s="25" t="n">
         <v>140</v>
       </c>
-      <c r="G47" s="27" t="n">
+      <c r="G47" s="25" t="n">
         <v>730</v>
       </c>
-      <c r="H47" s="27" t="n">
+      <c r="H47" s="25" t="n">
         <v>960</v>
       </c>
     </row>
@@ -8775,22 +8783,22 @@
       <c r="B48" t="n">
         <v>2</v>
       </c>
-      <c r="C48" s="27" t="n">
+      <c r="C48" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="D48" s="27" t="n">
+      <c r="D48" s="25" t="n">
         <v>630</v>
       </c>
-      <c r="E48" s="27" t="n">
+      <c r="E48" s="25" t="n">
         <v>960</v>
       </c>
-      <c r="F48" s="27" t="n">
+      <c r="F48" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="G48" s="27" t="n">
+      <c r="G48" s="25" t="n">
         <v>930</v>
       </c>
-      <c r="H48" s="27" t="n">
+      <c r="H48" s="25" t="n">
         <v>1360</v>
       </c>
     </row>
@@ -8798,22 +8806,22 @@
       <c r="B49" t="n">
         <v>3</v>
       </c>
-      <c r="C49" s="27" t="n">
+      <c r="C49" s="25" t="n">
         <v>200</v>
       </c>
-      <c r="D49" s="27" t="n">
+      <c r="D49" s="25" t="n">
         <v>730</v>
       </c>
-      <c r="E49" s="27" t="n">
+      <c r="E49" s="25" t="n">
         <v>1160</v>
       </c>
-      <c r="F49" s="27" t="n">
+      <c r="F49" s="25" t="n">
         <v>200</v>
       </c>
-      <c r="G49" s="27" t="n">
+      <c r="G49" s="25" t="n">
         <v>1130</v>
       </c>
-      <c r="H49" s="27" t="n">
+      <c r="H49" s="25" t="n">
         <v>1760</v>
       </c>
     </row>
@@ -8821,22 +8829,22 @@
       <c r="B50" t="n">
         <v>4</v>
       </c>
-      <c r="C50" s="27" t="n">
+      <c r="C50" s="25" t="n">
         <v>230</v>
       </c>
-      <c r="D50" s="27" t="n">
+      <c r="D50" s="25" t="n">
         <v>830</v>
       </c>
-      <c r="E50" s="27" t="n">
+      <c r="E50" s="25" t="n">
         <v>1360</v>
       </c>
-      <c r="F50" s="27" t="n">
+      <c r="F50" s="25" t="n">
         <v>230</v>
       </c>
-      <c r="G50" s="27" t="n">
+      <c r="G50" s="25" t="n">
         <v>1330</v>
       </c>
-      <c r="H50" s="27" t="n">
+      <c r="H50" s="25" t="n">
         <v>2160</v>
       </c>
     </row>
@@ -8844,22 +8852,22 @@
       <c r="B51" t="n">
         <v>5</v>
       </c>
-      <c r="C51" s="27" t="n">
+      <c r="C51" s="25" t="n">
         <v>260</v>
       </c>
-      <c r="D51" s="27" t="n">
+      <c r="D51" s="25" t="n">
         <v>930</v>
       </c>
-      <c r="E51" s="27" t="n">
+      <c r="E51" s="25" t="n">
         <v>1560</v>
       </c>
-      <c r="F51" s="27" t="n">
+      <c r="F51" s="25" t="n">
         <v>260</v>
       </c>
-      <c r="G51" s="27" t="n">
+      <c r="G51" s="25" t="n">
         <v>1530</v>
       </c>
-      <c r="H51" s="27" t="n">
+      <c r="H51" s="25" t="n">
         <v>2560</v>
       </c>
     </row>
@@ -8872,22 +8880,22 @@
       <c r="B52" t="n">
         <v>1</v>
       </c>
-      <c r="C52" s="27" t="n">
+      <c r="C52" s="25" t="n">
         <v>400</v>
       </c>
-      <c r="D52" s="27" t="n">
+      <c r="D52" s="25" t="n">
         <v>550</v>
       </c>
-      <c r="E52" s="27" t="n">
+      <c r="E52" s="25" t="n">
         <v>800</v>
       </c>
-      <c r="F52" s="27" t="n">
+      <c r="F52" s="25" t="n">
         <v>600</v>
       </c>
-      <c r="G52" s="27" t="n">
+      <c r="G52" s="25" t="n">
         <v>750</v>
       </c>
-      <c r="H52" s="27" t="n">
+      <c r="H52" s="25" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -8895,22 +8903,22 @@
       <c r="B53" t="n">
         <v>2</v>
       </c>
-      <c r="C53" s="27" t="n">
+      <c r="C53" s="25" t="n">
         <v>430</v>
       </c>
-      <c r="D53" s="27" t="n">
+      <c r="D53" s="25" t="n">
         <v>650</v>
       </c>
-      <c r="E53" s="27" t="n">
+      <c r="E53" s="25" t="n">
         <v>1000</v>
       </c>
-      <c r="F53" s="27" t="n">
+      <c r="F53" s="25" t="n">
         <v>630</v>
       </c>
-      <c r="G53" s="27" t="n">
+      <c r="G53" s="25" t="n">
         <v>950</v>
       </c>
-      <c r="H53" s="27" t="n">
+      <c r="H53" s="25" t="n">
         <v>1400</v>
       </c>
     </row>
@@ -8918,22 +8926,22 @@
       <c r="B54" t="n">
         <v>3</v>
       </c>
-      <c r="C54" s="27" t="n">
+      <c r="C54" s="25" t="n">
         <v>460</v>
       </c>
-      <c r="D54" s="27" t="n">
+      <c r="D54" s="25" t="n">
         <v>750</v>
       </c>
-      <c r="E54" s="27" t="n">
+      <c r="E54" s="25" t="n">
         <v>1200</v>
       </c>
-      <c r="F54" s="27" t="n">
+      <c r="F54" s="25" t="n">
         <v>660</v>
       </c>
-      <c r="G54" s="27" t="n">
+      <c r="G54" s="25" t="n">
         <v>1150</v>
       </c>
-      <c r="H54" s="27" t="n">
+      <c r="H54" s="25" t="n">
         <v>1800</v>
       </c>
     </row>
@@ -8941,22 +8949,22 @@
       <c r="B55" t="n">
         <v>4</v>
       </c>
-      <c r="C55" s="27" t="n">
+      <c r="C55" s="25" t="n">
         <v>490</v>
       </c>
-      <c r="D55" s="27" t="n">
+      <c r="D55" s="25" t="n">
         <v>850</v>
       </c>
-      <c r="E55" s="27" t="n">
+      <c r="E55" s="25" t="n">
         <v>1400</v>
       </c>
-      <c r="F55" s="27" t="n">
+      <c r="F55" s="25" t="n">
         <v>690</v>
       </c>
-      <c r="G55" s="27" t="n">
+      <c r="G55" s="25" t="n">
         <v>1350</v>
       </c>
-      <c r="H55" s="27" t="n">
+      <c r="H55" s="25" t="n">
         <v>2200</v>
       </c>
     </row>
@@ -8964,22 +8972,22 @@
       <c r="B56" t="n">
         <v>5</v>
       </c>
-      <c r="C56" s="27" t="n">
+      <c r="C56" s="25" t="n">
         <v>520</v>
       </c>
-      <c r="D56" s="27" t="n">
+      <c r="D56" s="25" t="n">
         <v>950</v>
       </c>
-      <c r="E56" s="27" t="n">
+      <c r="E56" s="25" t="n">
         <v>1600</v>
       </c>
-      <c r="F56" s="27" t="n">
+      <c r="F56" s="25" t="n">
         <v>720</v>
       </c>
-      <c r="G56" s="27" t="n">
+      <c r="G56" s="25" t="n">
         <v>1550</v>
       </c>
-      <c r="H56" s="27" t="n">
+      <c r="H56" s="25" t="n">
         <v>2600</v>
       </c>
     </row>
@@ -8992,22 +9000,22 @@
       <c r="B57" t="n">
         <v>1</v>
       </c>
-      <c r="C57" s="27" t="n">
+      <c r="C57" s="25" t="n">
         <v>130</v>
       </c>
-      <c r="D57" s="27" t="n">
+      <c r="D57" s="25" t="n">
         <v>510</v>
       </c>
-      <c r="E57" s="27" t="n">
+      <c r="E57" s="25" t="n">
         <v>720</v>
       </c>
-      <c r="F57" s="27" t="n">
+      <c r="F57" s="25" t="n">
         <v>130</v>
       </c>
-      <c r="G57" s="27" t="n">
+      <c r="G57" s="25" t="n">
         <v>710</v>
       </c>
-      <c r="H57" s="27" t="n">
+      <c r="H57" s="25" t="n">
         <v>920</v>
       </c>
     </row>
@@ -9015,22 +9023,22 @@
       <c r="B58" t="n">
         <v>2</v>
       </c>
-      <c r="C58" s="27" t="n">
+      <c r="C58" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="D58" s="27" t="n">
+      <c r="D58" s="25" t="n">
         <v>610</v>
       </c>
-      <c r="E58" s="27" t="n">
+      <c r="E58" s="25" t="n">
         <v>920</v>
       </c>
-      <c r="F58" s="27" t="n">
+      <c r="F58" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="G58" s="27" t="n">
+      <c r="G58" s="25" t="n">
         <v>910</v>
       </c>
-      <c r="H58" s="27" t="n">
+      <c r="H58" s="25" t="n">
         <v>1320</v>
       </c>
     </row>
@@ -9038,22 +9046,22 @@
       <c r="B59" t="n">
         <v>3</v>
       </c>
-      <c r="C59" s="27" t="n">
+      <c r="C59" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="D59" s="27" t="n">
+      <c r="D59" s="25" t="n">
         <v>710</v>
       </c>
-      <c r="E59" s="27" t="n">
+      <c r="E59" s="25" t="n">
         <v>1120</v>
       </c>
-      <c r="F59" s="27" t="n">
+      <c r="F59" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="G59" s="27" t="n">
+      <c r="G59" s="25" t="n">
         <v>1110</v>
       </c>
-      <c r="H59" s="27" t="n">
+      <c r="H59" s="25" t="n">
         <v>1720</v>
       </c>
     </row>
@@ -9061,22 +9069,22 @@
       <c r="B60" t="n">
         <v>4</v>
       </c>
-      <c r="C60" s="27" t="n">
+      <c r="C60" s="25" t="n">
         <v>190</v>
       </c>
-      <c r="D60" s="27" t="n">
+      <c r="D60" s="25" t="n">
         <v>810</v>
       </c>
-      <c r="E60" s="27" t="n">
+      <c r="E60" s="25" t="n">
         <v>1320</v>
       </c>
-      <c r="F60" s="27" t="n">
+      <c r="F60" s="25" t="n">
         <v>190</v>
       </c>
-      <c r="G60" s="27" t="n">
+      <c r="G60" s="25" t="n">
         <v>1310</v>
       </c>
-      <c r="H60" s="27" t="n">
+      <c r="H60" s="25" t="n">
         <v>2120</v>
       </c>
     </row>
@@ -9089,22 +9097,22 @@
       <c r="B61" t="n">
         <v>1</v>
       </c>
-      <c r="C61" s="27" t="n">
+      <c r="C61" s="25" t="n">
         <v>420</v>
       </c>
-      <c r="D61" s="27" t="n">
+      <c r="D61" s="25" t="n">
         <v>590</v>
       </c>
-      <c r="E61" s="27" t="n">
+      <c r="E61" s="25" t="n">
         <v>880</v>
       </c>
-      <c r="F61" s="27" t="n">
+      <c r="F61" s="25" t="n">
         <v>620</v>
       </c>
-      <c r="G61" s="27" t="n">
+      <c r="G61" s="25" t="n">
         <v>790</v>
       </c>
-      <c r="H61" s="27" t="n">
+      <c r="H61" s="25" t="n">
         <v>1080</v>
       </c>
     </row>
@@ -9112,22 +9120,22 @@
       <c r="B62" t="n">
         <v>2</v>
       </c>
-      <c r="C62" s="27" t="n">
+      <c r="C62" s="25" t="n">
         <v>450</v>
       </c>
-      <c r="D62" s="27" t="n">
+      <c r="D62" s="25" t="n">
         <v>690</v>
       </c>
-      <c r="E62" s="27" t="n">
+      <c r="E62" s="25" t="n">
         <v>1080</v>
       </c>
-      <c r="F62" s="27" t="n">
+      <c r="F62" s="25" t="n">
         <v>650</v>
       </c>
-      <c r="G62" s="27" t="n">
+      <c r="G62" s="25" t="n">
         <v>990</v>
       </c>
-      <c r="H62" s="27" t="n">
+      <c r="H62" s="25" t="n">
         <v>1480</v>
       </c>
     </row>
@@ -9135,22 +9143,22 @@
       <c r="B63" t="n">
         <v>3</v>
       </c>
-      <c r="C63" s="27" t="n">
+      <c r="C63" s="25" t="n">
         <v>480</v>
       </c>
-      <c r="D63" s="27" t="n">
+      <c r="D63" s="25" t="n">
         <v>790</v>
       </c>
-      <c r="E63" s="27" t="n">
+      <c r="E63" s="25" t="n">
         <v>1280</v>
       </c>
-      <c r="F63" s="27" t="n">
+      <c r="F63" s="25" t="n">
         <v>680</v>
       </c>
-      <c r="G63" s="27" t="n">
+      <c r="G63" s="25" t="n">
         <v>1190</v>
       </c>
-      <c r="H63" s="27" t="n">
+      <c r="H63" s="25" t="n">
         <v>1880</v>
       </c>
     </row>
@@ -9158,22 +9166,22 @@
       <c r="B64" t="n">
         <v>4</v>
       </c>
-      <c r="C64" s="27" t="n">
+      <c r="C64" s="25" t="n">
         <v>510</v>
       </c>
-      <c r="D64" s="27" t="n">
+      <c r="D64" s="25" t="n">
         <v>890</v>
       </c>
-      <c r="E64" s="27" t="n">
+      <c r="E64" s="25" t="n">
         <v>1480</v>
       </c>
-      <c r="F64" s="27" t="n">
+      <c r="F64" s="25" t="n">
         <v>710</v>
       </c>
-      <c r="G64" s="27" t="n">
+      <c r="G64" s="25" t="n">
         <v>1390</v>
       </c>
-      <c r="H64" s="27" t="n">
+      <c r="H64" s="25" t="n">
         <v>2280</v>
       </c>
     </row>
@@ -9186,22 +9194,22 @@
       <c r="B65" t="n">
         <v>1</v>
       </c>
-      <c r="C65" s="27" t="n">
+      <c r="C65" s="25" t="n">
         <v>430</v>
       </c>
-      <c r="D65" s="27" t="n">
+      <c r="D65" s="25" t="n">
         <v>610</v>
       </c>
-      <c r="E65" s="27" t="n">
+      <c r="E65" s="25" t="n">
         <v>920</v>
       </c>
-      <c r="F65" s="27" t="n">
+      <c r="F65" s="25" t="n">
         <v>630</v>
       </c>
-      <c r="G65" s="27" t="n">
+      <c r="G65" s="25" t="n">
         <v>810</v>
       </c>
-      <c r="H65" s="27" t="n">
+      <c r="H65" s="25" t="n">
         <v>1120</v>
       </c>
     </row>
@@ -9209,22 +9217,22 @@
       <c r="B66" t="n">
         <v>2</v>
       </c>
-      <c r="C66" s="27" t="n">
+      <c r="C66" s="25" t="n">
         <v>460</v>
       </c>
-      <c r="D66" s="27" t="n">
+      <c r="D66" s="25" t="n">
         <v>710</v>
       </c>
-      <c r="E66" s="27" t="n">
+      <c r="E66" s="25" t="n">
         <v>1120</v>
       </c>
-      <c r="F66" s="27" t="n">
+      <c r="F66" s="25" t="n">
         <v>660</v>
       </c>
-      <c r="G66" s="27" t="n">
+      <c r="G66" s="25" t="n">
         <v>1010</v>
       </c>
-      <c r="H66" s="27" t="n">
+      <c r="H66" s="25" t="n">
         <v>1520</v>
       </c>
     </row>
@@ -9232,22 +9240,22 @@
       <c r="B67" t="n">
         <v>3</v>
       </c>
-      <c r="C67" s="27" t="n">
+      <c r="C67" s="25" t="n">
         <v>490</v>
       </c>
-      <c r="D67" s="27" t="n">
+      <c r="D67" s="25" t="n">
         <v>810</v>
       </c>
-      <c r="E67" s="27" t="n">
+      <c r="E67" s="25" t="n">
         <v>1320</v>
       </c>
-      <c r="F67" s="27" t="n">
+      <c r="F67" s="25" t="n">
         <v>690</v>
       </c>
-      <c r="G67" s="27" t="n">
+      <c r="G67" s="25" t="n">
         <v>1210</v>
       </c>
-      <c r="H67" s="27" t="n">
+      <c r="H67" s="25" t="n">
         <v>1920</v>
       </c>
     </row>
@@ -9255,22 +9263,22 @@
       <c r="B68" t="n">
         <v>4</v>
       </c>
-      <c r="C68" s="27" t="n">
+      <c r="C68" s="25" t="n">
         <v>520</v>
       </c>
-      <c r="D68" s="27" t="n">
+      <c r="D68" s="25" t="n">
         <v>910</v>
       </c>
-      <c r="E68" s="27" t="n">
+      <c r="E68" s="25" t="n">
         <v>1520</v>
       </c>
-      <c r="F68" s="27" t="n">
+      <c r="F68" s="25" t="n">
         <v>720</v>
       </c>
-      <c r="G68" s="27" t="n">
+      <c r="G68" s="25" t="n">
         <v>1410</v>
       </c>
-      <c r="H68" s="27" t="n">
+      <c r="H68" s="25" t="n">
         <v>2320</v>
       </c>
     </row>
@@ -9283,22 +9291,22 @@
       <c r="B69" t="n">
         <v>1</v>
       </c>
-      <c r="C69" s="27" t="n">
+      <c r="C69" s="25" t="n">
         <v>400</v>
       </c>
-      <c r="D69" s="27" t="n">
+      <c r="D69" s="25" t="n">
         <v>550</v>
       </c>
-      <c r="E69" s="27" t="n">
+      <c r="E69" s="25" t="n">
         <v>800</v>
       </c>
-      <c r="F69" s="27" t="n">
+      <c r="F69" s="25" t="n">
         <v>600</v>
       </c>
-      <c r="G69" s="27" t="n">
+      <c r="G69" s="25" t="n">
         <v>750</v>
       </c>
-      <c r="H69" s="27" t="n">
+      <c r="H69" s="25" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -9306,22 +9314,22 @@
       <c r="B70" t="n">
         <v>2</v>
       </c>
-      <c r="C70" s="27" t="n">
+      <c r="C70" s="25" t="n">
         <v>420</v>
       </c>
-      <c r="D70" s="27" t="n">
+      <c r="D70" s="25" t="n">
         <v>650</v>
       </c>
-      <c r="E70" s="27" t="n">
+      <c r="E70" s="25" t="n">
         <v>1000</v>
       </c>
-      <c r="F70" s="27" t="n">
+      <c r="F70" s="25" t="n">
         <v>620</v>
       </c>
-      <c r="G70" s="27" t="n">
+      <c r="G70" s="25" t="n">
         <v>950</v>
       </c>
-      <c r="H70" s="27" t="n">
+      <c r="H70" s="25" t="n">
         <v>1400</v>
       </c>
     </row>
@@ -9329,22 +9337,22 @@
       <c r="B71" t="n">
         <v>3</v>
       </c>
-      <c r="C71" s="27" t="n">
+      <c r="C71" s="25" t="n">
         <v>440</v>
       </c>
-      <c r="D71" s="27" t="n">
+      <c r="D71" s="25" t="n">
         <v>750</v>
       </c>
-      <c r="E71" s="27" t="n">
+      <c r="E71" s="25" t="n">
         <v>1200</v>
       </c>
-      <c r="F71" s="27" t="n">
+      <c r="F71" s="25" t="n">
         <v>640</v>
       </c>
-      <c r="G71" s="27" t="n">
+      <c r="G71" s="25" t="n">
         <v>1150</v>
       </c>
-      <c r="H71" s="27" t="n">
+      <c r="H71" s="25" t="n">
         <v>1800</v>
       </c>
     </row>
@@ -9357,22 +9365,22 @@
       <c r="B72" t="n">
         <v>1</v>
       </c>
-      <c r="C72" s="27" t="n">
+      <c r="C72" s="25" t="n">
         <v>450</v>
       </c>
-      <c r="D72" s="27" t="n">
+      <c r="D72" s="25" t="n">
         <v>650</v>
       </c>
-      <c r="E72" s="27" t="n">
+      <c r="E72" s="25" t="n">
         <v>1000</v>
       </c>
-      <c r="F72" s="27" t="n">
+      <c r="F72" s="25" t="n">
         <v>650</v>
       </c>
-      <c r="G72" s="27" t="n">
+      <c r="G72" s="25" t="n">
         <v>850</v>
       </c>
-      <c r="H72" s="27" t="n">
+      <c r="H72" s="25" t="n">
         <v>1200</v>
       </c>
     </row>
@@ -9380,22 +9388,22 @@
       <c r="B73" t="n">
         <v>2</v>
       </c>
-      <c r="C73" s="27" t="n">
+      <c r="C73" s="25" t="n">
         <v>480</v>
       </c>
-      <c r="D73" s="27" t="n">
+      <c r="D73" s="25" t="n">
         <v>750</v>
       </c>
-      <c r="E73" s="27" t="n">
+      <c r="E73" s="25" t="n">
         <v>1200</v>
       </c>
-      <c r="F73" s="27" t="n">
+      <c r="F73" s="25" t="n">
         <v>680</v>
       </c>
-      <c r="G73" s="27" t="n">
+      <c r="G73" s="25" t="n">
         <v>1050</v>
       </c>
-      <c r="H73" s="27" t="n">
+      <c r="H73" s="25" t="n">
         <v>1600</v>
       </c>
     </row>
@@ -9403,22 +9411,22 @@
       <c r="B74" t="n">
         <v>3</v>
       </c>
-      <c r="C74" s="27" t="n">
+      <c r="C74" s="25" t="n">
         <v>510</v>
       </c>
-      <c r="D74" s="27" t="n">
+      <c r="D74" s="25" t="n">
         <v>850</v>
       </c>
-      <c r="E74" s="27" t="n">
+      <c r="E74" s="25" t="n">
         <v>1400</v>
       </c>
-      <c r="F74" s="27" t="n">
+      <c r="F74" s="25" t="n">
         <v>710</v>
       </c>
-      <c r="G74" s="27" t="n">
+      <c r="G74" s="25" t="n">
         <v>1250</v>
       </c>
-      <c r="H74" s="27" t="n">
+      <c r="H74" s="25" t="n">
         <v>2000</v>
       </c>
     </row>
@@ -9431,22 +9439,22 @@
       <c r="B75" t="n">
         <v>1</v>
       </c>
-      <c r="C75" s="27" t="n">
+      <c r="C75" s="25" t="n">
         <v>460</v>
       </c>
-      <c r="D75" s="27" t="n">
+      <c r="D75" s="25" t="n">
         <v>670</v>
       </c>
-      <c r="E75" s="27" t="n">
+      <c r="E75" s="25" t="n">
         <v>1040</v>
       </c>
-      <c r="F75" s="27" t="n">
+      <c r="F75" s="25" t="n">
         <v>660</v>
       </c>
-      <c r="G75" s="27" t="n">
+      <c r="G75" s="25" t="n">
         <v>870</v>
       </c>
-      <c r="H75" s="27" t="n">
+      <c r="H75" s="25" t="n">
         <v>1240</v>
       </c>
     </row>
@@ -9454,22 +9462,22 @@
       <c r="B76" t="n">
         <v>2</v>
       </c>
-      <c r="C76" s="27" t="n">
+      <c r="C76" s="25" t="n">
         <v>490</v>
       </c>
-      <c r="D76" s="27" t="n">
+      <c r="D76" s="25" t="n">
         <v>770</v>
       </c>
-      <c r="E76" s="27" t="n">
+      <c r="E76" s="25" t="n">
         <v>1240</v>
       </c>
-      <c r="F76" s="27" t="n">
+      <c r="F76" s="25" t="n">
         <v>690</v>
       </c>
-      <c r="G76" s="27" t="n">
+      <c r="G76" s="25" t="n">
         <v>1070</v>
       </c>
-      <c r="H76" s="27" t="n">
+      <c r="H76" s="25" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -9477,22 +9485,22 @@
       <c r="B77" t="n">
         <v>3</v>
       </c>
-      <c r="C77" s="27" t="n">
+      <c r="C77" s="25" t="n">
         <v>520</v>
       </c>
-      <c r="D77" s="27" t="n">
+      <c r="D77" s="25" t="n">
         <v>870</v>
       </c>
-      <c r="E77" s="27" t="n">
+      <c r="E77" s="25" t="n">
         <v>1440</v>
       </c>
-      <c r="F77" s="27" t="n">
+      <c r="F77" s="25" t="n">
         <v>720</v>
       </c>
-      <c r="G77" s="27" t="n">
+      <c r="G77" s="25" t="n">
         <v>1270</v>
       </c>
-      <c r="H77" s="27" t="n">
+      <c r="H77" s="25" t="n">
         <v>2040</v>
       </c>
     </row>
@@ -9505,22 +9513,22 @@
       <c r="B78" t="n">
         <v>1</v>
       </c>
-      <c r="C78" s="27" t="n">
+      <c r="C78" s="25" t="n">
         <v>920</v>
       </c>
-      <c r="D78" s="27" t="n">
+      <c r="D78" s="25" t="n">
         <v>1090</v>
       </c>
-      <c r="E78" s="27" t="n">
+      <c r="E78" s="25" t="n">
         <v>1380</v>
       </c>
-      <c r="F78" s="27" t="n">
+      <c r="F78" s="25" t="n">
         <v>1370</v>
       </c>
-      <c r="G78" s="27" t="n">
+      <c r="G78" s="25" t="n">
         <v>1540</v>
       </c>
-      <c r="H78" s="27" t="n">
+      <c r="H78" s="25" t="n">
         <v>1830</v>
       </c>
     </row>
@@ -9528,22 +9536,22 @@
       <c r="B79" t="n">
         <v>2</v>
       </c>
-      <c r="C79" s="27" t="n">
+      <c r="C79" s="25" t="n">
         <v>940</v>
       </c>
-      <c r="D79" s="27" t="n">
+      <c r="D79" s="25" t="n">
         <v>1190</v>
       </c>
-      <c r="E79" s="27" t="n">
+      <c r="E79" s="25" t="n">
         <v>1580</v>
       </c>
-      <c r="F79" s="27" t="n">
+      <c r="F79" s="25" t="n">
         <v>1390</v>
       </c>
-      <c r="G79" s="27" t="n">
+      <c r="G79" s="25" t="n">
         <v>1740</v>
       </c>
-      <c r="H79" s="27" t="n">
+      <c r="H79" s="25" t="n">
         <v>2230</v>
       </c>
     </row>
@@ -9556,22 +9564,22 @@
       <c r="B80" t="n">
         <v>1</v>
       </c>
-      <c r="C80" s="27" t="n">
+      <c r="C80" s="25" t="n">
         <v>980</v>
       </c>
-      <c r="D80" s="27" t="n">
+      <c r="D80" s="25" t="n">
         <v>1210</v>
       </c>
-      <c r="E80" s="27" t="n">
+      <c r="E80" s="25" t="n">
         <v>1620</v>
       </c>
-      <c r="F80" s="27" t="n">
+      <c r="F80" s="25" t="n">
         <v>1430</v>
       </c>
-      <c r="G80" s="27" t="n">
+      <c r="G80" s="25" t="n">
         <v>1660</v>
       </c>
-      <c r="H80" s="27" t="n">
+      <c r="H80" s="25" t="n">
         <v>2070</v>
       </c>
     </row>
@@ -9579,22 +9587,22 @@
       <c r="B81" t="n">
         <v>2</v>
       </c>
-      <c r="C81" s="27" t="n">
+      <c r="C81" s="25" t="n">
         <v>1010</v>
       </c>
-      <c r="D81" s="27" t="n">
+      <c r="D81" s="25" t="n">
         <v>1310</v>
       </c>
-      <c r="E81" s="27" t="n">
+      <c r="E81" s="25" t="n">
         <v>1820</v>
       </c>
-      <c r="F81" s="27" t="n">
+      <c r="F81" s="25" t="n">
         <v>1460</v>
       </c>
-      <c r="G81" s="27" t="n">
+      <c r="G81" s="25" t="n">
         <v>1860</v>
       </c>
-      <c r="H81" s="27" t="n">
+      <c r="H81" s="25" t="n">
         <v>2470</v>
       </c>
     </row>
@@ -9607,22 +9615,22 @@
       <c r="B82" t="n">
         <v>1</v>
       </c>
-      <c r="C82" s="27" t="n">
+      <c r="C82" s="25" t="n">
         <v>990</v>
       </c>
-      <c r="D82" s="27" t="n">
+      <c r="D82" s="25" t="n">
         <v>1230</v>
       </c>
-      <c r="E82" s="27" t="n">
+      <c r="E82" s="25" t="n">
         <v>1660</v>
       </c>
-      <c r="F82" s="27" t="n">
+      <c r="F82" s="25" t="n">
         <v>1440</v>
       </c>
-      <c r="G82" s="27" t="n">
+      <c r="G82" s="25" t="n">
         <v>1680</v>
       </c>
-      <c r="H82" s="27" t="n">
+      <c r="H82" s="25" t="n">
         <v>2110</v>
       </c>
     </row>
@@ -9630,22 +9638,22 @@
       <c r="B83" t="n">
         <v>2</v>
       </c>
-      <c r="C83" s="27" t="n">
+      <c r="C83" s="25" t="n">
         <v>1020</v>
       </c>
-      <c r="D83" s="27" t="n">
+      <c r="D83" s="25" t="n">
         <v>1330</v>
       </c>
-      <c r="E83" s="27" t="n">
+      <c r="E83" s="25" t="n">
         <v>1860</v>
       </c>
-      <c r="F83" s="27" t="n">
+      <c r="F83" s="25" t="n">
         <v>1470</v>
       </c>
-      <c r="G83" s="27" t="n">
+      <c r="G83" s="25" t="n">
         <v>1880</v>
       </c>
-      <c r="H83" s="27" t="n">
+      <c r="H83" s="25" t="n">
         <v>2510</v>
       </c>
     </row>
@@ -9658,22 +9666,22 @@
       <c r="B84" t="n">
         <v>1</v>
       </c>
-      <c r="C84" s="27" t="n">
+      <c r="C84" s="25" t="n">
         <v>1440</v>
       </c>
-      <c r="D84" s="27" t="n">
+      <c r="D84" s="25" t="n">
         <v>1630</v>
       </c>
-      <c r="E84" s="27" t="n">
+      <c r="E84" s="25" t="n">
         <v>1960</v>
       </c>
-      <c r="F84" s="27" t="n">
+      <c r="F84" s="25" t="n">
         <v>2140</v>
       </c>
-      <c r="G84" s="27" t="n">
+      <c r="G84" s="25" t="n">
         <v>2330</v>
       </c>
-      <c r="H84" s="27" t="n">
+      <c r="H84" s="25" t="n">
         <v>2660</v>
       </c>
     </row>
@@ -9686,22 +9694,22 @@
       <c r="B85" t="n">
         <v>1</v>
       </c>
-      <c r="C85" s="27" t="n">
+      <c r="C85" s="25" t="n">
         <v>1510</v>
       </c>
-      <c r="D85" s="27" t="n">
+      <c r="D85" s="25" t="n">
         <v>1770</v>
       </c>
-      <c r="E85" s="27" t="n">
+      <c r="E85" s="25" t="n">
         <v>2240</v>
       </c>
-      <c r="F85" s="27" t="n">
+      <c r="F85" s="25" t="n">
         <v>2210</v>
       </c>
-      <c r="G85" s="27" t="n">
+      <c r="G85" s="25" t="n">
         <v>2470</v>
       </c>
-      <c r="H85" s="27" t="n">
+      <c r="H85" s="25" t="n">
         <v>2940</v>
       </c>
     </row>
@@ -9714,22 +9722,22 @@
       <c r="B86" t="n">
         <v>1</v>
       </c>
-      <c r="C86" s="27" t="n">
+      <c r="C86" s="25" t="n">
         <v>1520</v>
       </c>
-      <c r="D86" s="27" t="n">
+      <c r="D86" s="25" t="n">
         <v>1790</v>
       </c>
-      <c r="E86" s="27" t="n">
+      <c r="E86" s="25" t="n">
         <v>2280</v>
       </c>
-      <c r="F86" s="27" t="n">
+      <c r="F86" s="25" t="n">
         <v>2220</v>
       </c>
-      <c r="G86" s="27" t="n">
+      <c r="G86" s="25" t="n">
         <v>2490</v>
       </c>
-      <c r="H86" s="27" t="n">
+      <c r="H86" s="25" t="n">
         <v>2980</v>
       </c>
     </row>

--- a/howell6.xlsx
+++ b/howell6.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 01, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 02, 2026.</t>
         </is>
       </c>
     </row>
@@ -652,12 +652,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Name 17</t>
+          <t>Name 59</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Name 69</t>
+          <t>Name 26</t>
         </is>
       </c>
       <c r="D2" s="4">
@@ -675,12 +675,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Name 79</t>
+          <t>Name 61</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Name 22</t>
+          <t>Name 21</t>
         </is>
       </c>
       <c r="D3" s="4">
@@ -698,12 +698,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Name 67</t>
+          <t>Name 53</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Name 81</t>
+          <t>Name 23</t>
         </is>
       </c>
       <c r="D4" s="4">
@@ -721,12 +721,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Name 39</t>
+          <t>Name 47</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Name 43</t>
+          <t>Name 27</t>
         </is>
       </c>
       <c r="D5" s="4">
@@ -744,12 +744,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Name 62</t>
+          <t>Name 40</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Name 65</t>
+          <t>Name 14</t>
         </is>
       </c>
       <c r="D6" s="4">
@@ -767,12 +767,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Name 47</t>
+          <t>Name 51</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Name 39</t>
+          <t>Name 46</t>
         </is>
       </c>
       <c r="D7" s="4">

--- a/howell6.xlsx
+++ b/howell6.xlsx
@@ -7,13 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tournament" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Roster" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="By Board" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="By Round" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Traveler Template" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="IMP Table" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Scoring Table" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Roster" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="By Board" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="By Round" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="IMP Table" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Scoring Table" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23,12 +21,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="#0.00"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="#0.00"/>
     <numFmt numFmtId="166" formatCode="#0.0"/>
     <numFmt numFmtId="167" formatCode="#0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -54,10 +52,6 @@
       <i val="1"/>
       <color rgb="00FF0000"/>
     </font>
-    <font>
-      <b val="1"/>
-      <sz val="22"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -67,7 +61,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -99,35 +93,21 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -148,13 +128,8 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -521,93 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>For public domain. No rights reserved. Generated on Feb 02, 2026.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Howell Arrangement (IMP &amp; MP)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Pairs</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Tables</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Rounds</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Boards per round</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Total Boards to play</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,269 +509,330 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Pair #</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Player 1</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Player 2</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>For public domain. No rights reserved. Generated on Feb 04, 2026.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Howell Tournament</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Pairs</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Tables</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Rounds</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Boards per round</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Total Boards to play</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Pairs</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>IMP</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Name 59</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Name 26</t>
-        </is>
-      </c>
-      <c r="D2" s="4">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Name 72</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Name 85</t>
+        </is>
+      </c>
+      <c r="D10" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$47,"=1",'By Board'!$N$3:$N$47)/15+SUMIF('By Board'!$E$3:$E$47,"=1",'By Board'!$O$3:$O$47)/15</f>
+        <v/>
+      </c>
+      <c r="E10" s="5">
         <f>SUMIF('By Board'!$D$3:$D$47,"=1",'By Board'!$L$3:$L$47)+SUMIF('By Board'!$E$3:$E$47,"=1",'By Board'!$M$3:$M$47)</f>
         <v/>
       </c>
-      <c r="E2" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$47,"=1",'By Board'!$N$3:$N$47)/15+SUMIF('By Board'!$E$3:$E$47,"=1",'By Board'!$O$3:$O$47)/15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Name 14</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Name 60</t>
+        </is>
+      </c>
+      <c r="D11" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$47,"=2",'By Board'!$N$3:$N$47)/15+SUMIF('By Board'!$E$3:$E$47,"=2",'By Board'!$O$3:$O$47)/15</f>
+        <v/>
+      </c>
+      <c r="E11" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$47,"=2",'By Board'!$L$3:$L$47)+SUMIF('By Board'!$E$3:$E$47,"=2",'By Board'!$M$3:$M$47)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Name 52</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Name 66</t>
+        </is>
+      </c>
+      <c r="D12" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$47,"=3",'By Board'!$N$3:$N$47)/15+SUMIF('By Board'!$E$3:$E$47,"=3",'By Board'!$O$3:$O$47)/15</f>
+        <v/>
+      </c>
+      <c r="E12" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$47,"=3",'By Board'!$L$3:$L$47)+SUMIF('By Board'!$E$3:$E$47,"=3",'By Board'!$M$3:$M$47)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Name 24</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Name 61</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D13" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$47,"=4",'By Board'!$N$3:$N$47)/15+SUMIF('By Board'!$E$3:$E$47,"=4",'By Board'!$O$3:$O$47)/15</f>
+        <v/>
+      </c>
+      <c r="E13" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$47,"=4",'By Board'!$L$3:$L$47)+SUMIF('By Board'!$E$3:$E$47,"=4",'By Board'!$M$3:$M$47)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Name 38</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Name 62</t>
+        </is>
+      </c>
+      <c r="D14" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$47,"=5",'By Board'!$N$3:$N$47)/15+SUMIF('By Board'!$E$3:$E$47,"=5",'By Board'!$O$3:$O$47)/15</f>
+        <v/>
+      </c>
+      <c r="E14" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$47,"=5",'By Board'!$L$3:$L$47)+SUMIF('By Board'!$E$3:$E$47,"=5",'By Board'!$M$3:$M$47)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Name 24</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>Name 21</t>
         </is>
       </c>
-      <c r="D3" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$47,"=2",'By Board'!$L$3:$L$47)+SUMIF('By Board'!$E$3:$E$47,"=2",'By Board'!$M$3:$M$47)</f>
-        <v/>
-      </c>
-      <c r="E3" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$47,"=2",'By Board'!$N$3:$N$47)/15+SUMIF('By Board'!$E$3:$E$47,"=2",'By Board'!$O$3:$O$47)/15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Name 53</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Name 23</t>
-        </is>
-      </c>
-      <c r="D4" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$47,"=3",'By Board'!$L$3:$L$47)+SUMIF('By Board'!$E$3:$E$47,"=3",'By Board'!$M$3:$M$47)</f>
-        <v/>
-      </c>
-      <c r="E4" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$47,"=3",'By Board'!$N$3:$N$47)/15+SUMIF('By Board'!$E$3:$E$47,"=3",'By Board'!$O$3:$O$47)/15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Name 47</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Name 27</t>
-        </is>
-      </c>
-      <c r="D5" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$47,"=4",'By Board'!$L$3:$L$47)+SUMIF('By Board'!$E$3:$E$47,"=4",'By Board'!$M$3:$M$47)</f>
-        <v/>
-      </c>
-      <c r="E5" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$47,"=4",'By Board'!$N$3:$N$47)/15+SUMIF('By Board'!$E$3:$E$47,"=4",'By Board'!$O$3:$O$47)/15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Name 40</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Name 14</t>
-        </is>
-      </c>
-      <c r="D6" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$47,"=5",'By Board'!$L$3:$L$47)+SUMIF('By Board'!$E$3:$E$47,"=5",'By Board'!$M$3:$M$47)</f>
-        <v/>
-      </c>
-      <c r="E6" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$47,"=5",'By Board'!$N$3:$N$47)/15+SUMIF('By Board'!$E$3:$E$47,"=5",'By Board'!$O$3:$O$47)/15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Name 51</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Name 46</t>
-        </is>
-      </c>
-      <c r="D7" s="4">
+      <c r="D15" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$47,"=6",'By Board'!$N$3:$N$47)/15+0/15</f>
+        <v/>
+      </c>
+      <c r="E15" s="5">
         <f>SUMIF('By Board'!$D$3:$D$47,"=6",'By Board'!$L$3:$L$47)+0</f>
         <v/>
       </c>
-      <c r="E7" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$47,"=6",'By Board'!$N$3:$N$47)/15+0/15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="D8" s="6">
-        <f>SUM(D2:D7)</f>
-        <v/>
-      </c>
-      <c r="E8" s="7">
-        <f>AVERAGE(E2:E7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Array Formula below, remove single quote</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+    </row>
+    <row r="16">
+      <c r="D16" s="6">
+        <f>AVERAGE(D10:D15)</f>
+        <v/>
+      </c>
+      <c r="E16" s="7">
+        <f>SUM(E10:E15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>To sort, remove single quote below</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>IMP Ranking</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>'=SORT(A2:E7,4,-1)</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="n"/>
-      <c r="E12" s="8" t="n"/>
-    </row>
-    <row r="13">
-      <c r="D13" s="4" t="n"/>
-      <c r="E13" s="8" t="n"/>
-    </row>
-    <row r="14">
-      <c r="D14" s="4" t="n"/>
-      <c r="E14" s="8" t="n"/>
-    </row>
-    <row r="15">
-      <c r="D15" s="4" t="n"/>
-      <c r="E15" s="8" t="n"/>
-    </row>
-    <row r="16">
-      <c r="D16" s="4" t="n"/>
-      <c r="E16" s="8" t="n"/>
-    </row>
-    <row r="17">
-      <c r="D17" s="4" t="n"/>
-      <c r="E17" s="8" t="n"/>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>'=SORT(A10:E15,4,-1)</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n"/>
+      <c r="E20" s="8" t="n"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="5" t="n"/>
+      <c r="E21" s="8" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="D22" s="5" t="n"/>
+      <c r="E22" s="8" t="n"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="5" t="n"/>
+      <c r="E23" s="8" t="n"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="5" t="n"/>
+      <c r="E24" s="8" t="n"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="5" t="n"/>
+      <c r="E25" s="8" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>MP Ranking</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>'=SORT(A2:E7,5,-1)</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="n"/>
-      <c r="E23" s="8" t="n"/>
-    </row>
-    <row r="24">
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="8" t="n"/>
-    </row>
-    <row r="25">
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="8" t="n"/>
-    </row>
-    <row r="26">
-      <c r="D26" s="4" t="n"/>
-      <c r="E26" s="8" t="n"/>
-    </row>
-    <row r="27">
-      <c r="D27" s="4" t="n"/>
-      <c r="E27" s="8" t="n"/>
-    </row>
-    <row r="28">
-      <c r="D28" s="4" t="n"/>
-      <c r="E28" s="8" t="n"/>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>'=SORT(A10:E15,5,-1)</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n"/>
+      <c r="E31" s="8" t="n"/>
+    </row>
+    <row r="32">
+      <c r="D32" s="5" t="n"/>
+      <c r="E32" s="8" t="n"/>
+    </row>
+    <row r="33">
+      <c r="D33" s="5" t="n"/>
+      <c r="E33" s="8" t="n"/>
+    </row>
+    <row r="34">
+      <c r="D34" s="5" t="n"/>
+      <c r="E34" s="8" t="n"/>
+    </row>
+    <row r="35">
+      <c r="D35" s="5" t="n"/>
+      <c r="E35" s="8" t="n"/>
+    </row>
+    <row r="36">
+      <c r="D36" s="5" t="n"/>
+      <c r="E36" s="8" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A22:E22"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -937,57 +887,57 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Board</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Round</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Table</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Vul</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Contract</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>By</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
@@ -997,27 +947,27 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="N2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="O2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="P2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
@@ -1027,7 +977,7 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="S2" s="3" t="inlineStr">
+      <c r="S2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
@@ -1037,7 +987,7 @@
           <t>NS MP Scores</t>
         </is>
       </c>
-      <c r="V2" s="3" t="inlineStr">
+      <c r="V2" s="2" t="inlineStr">
         <is>
           <t>EW MP Scores</t>
         </is>
@@ -1047,7 +997,7 @@
           <t>NS IMP Pair-wise</t>
         </is>
       </c>
-      <c r="Z2" s="3" t="inlineStr">
+      <c r="Z2" s="2" t="inlineStr">
         <is>
           <t>EW IMP Pair-wise</t>
         </is>
@@ -1114,11 +1064,11 @@
         <f>IF(COUNT(V3:W3)&gt;0,Q3/COUNT(V3:W3),0.5)</f>
         <v/>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="5">
         <f>SUM(T3:U3)</f>
         <v/>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="5">
         <f>SUM(V3:W3)</f>
         <v/>
       </c>
@@ -1221,11 +1171,11 @@
         <f>IF(COUNT(V4:W4)&gt;0,Q4/COUNT(V4:W4),0.5)</f>
         <v/>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="5">
         <f>SUM(T4:U4)</f>
         <v/>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="5">
         <f>SUM(V4:W4)</f>
         <v/>
       </c>
@@ -1439,11 +1389,11 @@
         <f>IF(COUNT(V6:W6)&gt;0,Q6/COUNT(V6:W6),0.5)</f>
         <v/>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="5">
         <f>SUM(T6:U6)</f>
         <v/>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="5">
         <f>SUM(V6:W6)</f>
         <v/>
       </c>
@@ -1546,11 +1496,11 @@
         <f>IF(COUNT(V7:W7)&gt;0,Q7/COUNT(V7:W7),0.5)</f>
         <v/>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="5">
         <f>SUM(T7:U7)</f>
         <v/>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="5">
         <f>SUM(V7:W7)</f>
         <v/>
       </c>
@@ -1764,11 +1714,11 @@
         <f>IF(COUNT(V9:W9)&gt;0,Q9/COUNT(V9:W9),0.5)</f>
         <v/>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="5">
         <f>SUM(T9:U9)</f>
         <v/>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="5">
         <f>SUM(V9:W9)</f>
         <v/>
       </c>
@@ -1871,11 +1821,11 @@
         <f>IF(COUNT(V10:W10)&gt;0,Q10/COUNT(V10:W10),0.5)</f>
         <v/>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="5">
         <f>SUM(T10:U10)</f>
         <v/>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="5">
         <f>SUM(V10:W10)</f>
         <v/>
       </c>
@@ -2089,11 +2039,11 @@
         <f>IF(COUNT(V12:W12)&gt;0,Q12/COUNT(V12:W12),0.5)</f>
         <v/>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="5">
         <f>SUM(T12:U12)</f>
         <v/>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="5">
         <f>SUM(V12:W12)</f>
         <v/>
       </c>
@@ -2196,11 +2146,11 @@
         <f>IF(COUNT(V13:W13)&gt;0,Q13/COUNT(V13:W13),0.5)</f>
         <v/>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="5">
         <f>SUM(T13:U13)</f>
         <v/>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="5">
         <f>SUM(V13:W13)</f>
         <v/>
       </c>
@@ -2414,11 +2364,11 @@
         <f>IF(COUNT(V15:W15)&gt;0,Q15/COUNT(V15:W15),0.5)</f>
         <v/>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="5">
         <f>SUM(T15:U15)</f>
         <v/>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="5">
         <f>SUM(V15:W15)</f>
         <v/>
       </c>
@@ -2521,11 +2471,11 @@
         <f>IF(COUNT(V16:W16)&gt;0,Q16/COUNT(V16:W16),0.5)</f>
         <v/>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="5">
         <f>SUM(T16:U16)</f>
         <v/>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="5">
         <f>SUM(V16:W16)</f>
         <v/>
       </c>
@@ -2739,11 +2689,11 @@
         <f>IF(COUNT(V18:W18)&gt;0,Q18/COUNT(V18:W18),0.5)</f>
         <v/>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="5">
         <f>SUM(T18:U18)</f>
         <v/>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="5">
         <f>SUM(V18:W18)</f>
         <v/>
       </c>
@@ -2846,11 +2796,11 @@
         <f>IF(COUNT(V19:W19)&gt;0,Q19/COUNT(V19:W19),0.5)</f>
         <v/>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="5">
         <f>SUM(T19:U19)</f>
         <v/>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="5">
         <f>SUM(V19:W19)</f>
         <v/>
       </c>
@@ -3064,11 +3014,11 @@
         <f>IF(COUNT(V21:W21)&gt;0,Q21/COUNT(V21:W21),0.5)</f>
         <v/>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="5">
         <f>SUM(T21:U21)</f>
         <v/>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="5">
         <f>SUM(V21:W21)</f>
         <v/>
       </c>
@@ -3171,11 +3121,11 @@
         <f>IF(COUNT(V22:W22)&gt;0,Q22/COUNT(V22:W22),0.5)</f>
         <v/>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="5">
         <f>SUM(T22:U22)</f>
         <v/>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="5">
         <f>SUM(V22:W22)</f>
         <v/>
       </c>
@@ -3389,11 +3339,11 @@
         <f>IF(COUNT(V24:W24)&gt;0,Q24/COUNT(V24:W24),0.5)</f>
         <v/>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="5">
         <f>SUM(T24:U24)</f>
         <v/>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="5">
         <f>SUM(V24:W24)</f>
         <v/>
       </c>
@@ -3496,11 +3446,11 @@
         <f>IF(COUNT(V25:W25)&gt;0,Q25/COUNT(V25:W25),0.5)</f>
         <v/>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="5">
         <f>SUM(T25:U25)</f>
         <v/>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="5">
         <f>SUM(V25:W25)</f>
         <v/>
       </c>
@@ -3714,11 +3664,11 @@
         <f>IF(COUNT(V27:W27)&gt;0,Q27/COUNT(V27:W27),0.5)</f>
         <v/>
       </c>
-      <c r="P27" s="4">
+      <c r="P27" s="5">
         <f>SUM(T27:U27)</f>
         <v/>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q27" s="5">
         <f>SUM(V27:W27)</f>
         <v/>
       </c>
@@ -3821,11 +3771,11 @@
         <f>IF(COUNT(V28:W28)&gt;0,Q28/COUNT(V28:W28),0.5)</f>
         <v/>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="5">
         <f>SUM(T28:U28)</f>
         <v/>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28" s="5">
         <f>SUM(V28:W28)</f>
         <v/>
       </c>
@@ -4039,11 +3989,11 @@
         <f>IF(COUNT(V30:W30)&gt;0,Q30/COUNT(V30:W30),0.5)</f>
         <v/>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="5">
         <f>SUM(T30:U30)</f>
         <v/>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q30" s="5">
         <f>SUM(V30:W30)</f>
         <v/>
       </c>
@@ -4146,11 +4096,11 @@
         <f>IF(COUNT(V31:W31)&gt;0,Q31/COUNT(V31:W31),0.5)</f>
         <v/>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="5">
         <f>SUM(T31:U31)</f>
         <v/>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q31" s="5">
         <f>SUM(V31:W31)</f>
         <v/>
       </c>
@@ -4364,11 +4314,11 @@
         <f>IF(COUNT(V33:W33)&gt;0,Q33/COUNT(V33:W33),0.5)</f>
         <v/>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="5">
         <f>SUM(T33:U33)</f>
         <v/>
       </c>
-      <c r="Q33" s="4">
+      <c r="Q33" s="5">
         <f>SUM(V33:W33)</f>
         <v/>
       </c>
@@ -4471,11 +4421,11 @@
         <f>IF(COUNT(V34:W34)&gt;0,Q34/COUNT(V34:W34),0.5)</f>
         <v/>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="5">
         <f>SUM(T34:U34)</f>
         <v/>
       </c>
-      <c r="Q34" s="4">
+      <c r="Q34" s="5">
         <f>SUM(V34:W34)</f>
         <v/>
       </c>
@@ -4689,11 +4639,11 @@
         <f>IF(COUNT(V36:W36)&gt;0,Q36/COUNT(V36:W36),0.5)</f>
         <v/>
       </c>
-      <c r="P36" s="4">
+      <c r="P36" s="5">
         <f>SUM(T36:U36)</f>
         <v/>
       </c>
-      <c r="Q36" s="4">
+      <c r="Q36" s="5">
         <f>SUM(V36:W36)</f>
         <v/>
       </c>
@@ -4796,11 +4746,11 @@
         <f>IF(COUNT(V37:W37)&gt;0,Q37/COUNT(V37:W37),0.5)</f>
         <v/>
       </c>
-      <c r="P37" s="4">
+      <c r="P37" s="5">
         <f>SUM(T37:U37)</f>
         <v/>
       </c>
-      <c r="Q37" s="4">
+      <c r="Q37" s="5">
         <f>SUM(V37:W37)</f>
         <v/>
       </c>
@@ -5014,11 +4964,11 @@
         <f>IF(COUNT(V39:W39)&gt;0,Q39/COUNT(V39:W39),0.5)</f>
         <v/>
       </c>
-      <c r="P39" s="4">
+      <c r="P39" s="5">
         <f>SUM(T39:U39)</f>
         <v/>
       </c>
-      <c r="Q39" s="4">
+      <c r="Q39" s="5">
         <f>SUM(V39:W39)</f>
         <v/>
       </c>
@@ -5121,11 +5071,11 @@
         <f>IF(COUNT(V40:W40)&gt;0,Q40/COUNT(V40:W40),0.5)</f>
         <v/>
       </c>
-      <c r="P40" s="4">
+      <c r="P40" s="5">
         <f>SUM(T40:U40)</f>
         <v/>
       </c>
-      <c r="Q40" s="4">
+      <c r="Q40" s="5">
         <f>SUM(V40:W40)</f>
         <v/>
       </c>
@@ -5339,11 +5289,11 @@
         <f>IF(COUNT(V42:W42)&gt;0,Q42/COUNT(V42:W42),0.5)</f>
         <v/>
       </c>
-      <c r="P42" s="4">
+      <c r="P42" s="5">
         <f>SUM(T42:U42)</f>
         <v/>
       </c>
-      <c r="Q42" s="4">
+      <c r="Q42" s="5">
         <f>SUM(V42:W42)</f>
         <v/>
       </c>
@@ -5446,11 +5396,11 @@
         <f>IF(COUNT(V43:W43)&gt;0,Q43/COUNT(V43:W43),0.5)</f>
         <v/>
       </c>
-      <c r="P43" s="4">
+      <c r="P43" s="5">
         <f>SUM(T43:U43)</f>
         <v/>
       </c>
-      <c r="Q43" s="4">
+      <c r="Q43" s="5">
         <f>SUM(V43:W43)</f>
         <v/>
       </c>
@@ -5664,11 +5614,11 @@
         <f>IF(COUNT(V45:W45)&gt;0,Q45/COUNT(V45:W45),0.5)</f>
         <v/>
       </c>
-      <c r="P45" s="4">
+      <c r="P45" s="5">
         <f>SUM(T45:U45)</f>
         <v/>
       </c>
-      <c r="Q45" s="4">
+      <c r="Q45" s="5">
         <f>SUM(V45:W45)</f>
         <v/>
       </c>
@@ -5771,11 +5721,11 @@
         <f>IF(COUNT(V46:W46)&gt;0,Q46/COUNT(V46:W46),0.5)</f>
         <v/>
       </c>
-      <c r="P46" s="4">
+      <c r="P46" s="5">
         <f>SUM(T46:U46)</f>
         <v/>
       </c>
-      <c r="Q46" s="4">
+      <c r="Q46" s="5">
         <f>SUM(V46:W46)</f>
         <v/>
       </c>
@@ -5946,7 +5896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5964,64 +5914,64 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Scores</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Round</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Table</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Board</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Vul</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Contract</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>By</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
@@ -6805,148 +6755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="22" t="inlineStr">
-        <is>
-          <t>Board #</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Round</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Contract</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>By</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="24" t="n"/>
-      <c r="C4" s="24" t="n"/>
-      <c r="D4" s="24" t="n"/>
-      <c r="E4" s="24" t="n"/>
-      <c r="F4" s="24" t="n"/>
-      <c r="G4" s="24" t="n"/>
-      <c r="H4" s="24" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="24" t="n"/>
-      <c r="C5" s="24" t="n"/>
-      <c r="D5" s="24" t="n"/>
-      <c r="E5" s="24" t="n"/>
-      <c r="F5" s="24" t="n"/>
-      <c r="G5" s="24" t="n"/>
-      <c r="H5" s="24" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="24" t="n"/>
-      <c r="C6" s="24" t="n"/>
-      <c r="D6" s="24" t="n"/>
-      <c r="E6" s="24" t="n"/>
-      <c r="F6" s="24" t="n"/>
-      <c r="G6" s="24" t="n"/>
-      <c r="H6" s="24" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="24" t="n"/>
-      <c r="C7" s="24" t="n"/>
-      <c r="D7" s="24" t="n"/>
-      <c r="E7" s="24" t="n"/>
-      <c r="F7" s="24" t="n"/>
-      <c r="G7" s="24" t="n"/>
-      <c r="H7" s="24" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" s="24" t="n"/>
-      <c r="C8" s="24" t="n"/>
-      <c r="D8" s="24" t="n"/>
-      <c r="E8" s="24" t="n"/>
-      <c r="F8" s="24" t="n"/>
-      <c r="G8" s="24" t="n"/>
-      <c r="H8" s="24" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6961,17 +6770,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>From</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>To</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>IMP</t>
         </is>
@@ -7257,7 +7066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7275,90 +7084,90 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Not Vulnerable</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Vulnerable</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>Not Vulnerable</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Vulnerable</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Contract</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Made</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr"/>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>XX</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr"/>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>XX</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>Down by</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr"/>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr">
         <is>
           <t>XX</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr"/>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="P2" s="2" t="inlineStr">
         <is>
           <t>XX</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>1 D/C</t>
         </is>
@@ -7366,22 +7175,22 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="n">
+      <c r="C3" s="22" t="n">
         <v>70</v>
       </c>
-      <c r="D3" s="25" t="n">
+      <c r="D3" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="E3" s="25" t="n">
+      <c r="E3" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="F3" s="25" t="n">
+      <c r="F3" s="22" t="n">
         <v>70</v>
       </c>
-      <c r="G3" s="25" t="n">
+      <c r="G3" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="H3" s="25" t="n">
+      <c r="H3" s="22" t="n">
         <v>230</v>
       </c>
       <c r="J3" t="n">
@@ -7412,22 +7221,22 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="25" t="n">
+      <c r="C4" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="D4" s="25" t="n">
+      <c r="D4" s="22" t="n">
         <v>240</v>
       </c>
-      <c r="E4" s="25" t="n">
+      <c r="E4" s="22" t="n">
         <v>430</v>
       </c>
-      <c r="F4" s="25" t="n">
+      <c r="F4" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="G4" s="25" t="n">
+      <c r="G4" s="22" t="n">
         <v>340</v>
       </c>
-      <c r="H4" s="25" t="n">
+      <c r="H4" s="22" t="n">
         <v>630</v>
       </c>
       <c r="J4" t="n">
@@ -7462,22 +7271,22 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="25" t="n">
+      <c r="C5" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="D5" s="25" t="n">
+      <c r="D5" s="22" t="n">
         <v>340</v>
       </c>
-      <c r="E5" s="25" t="n">
+      <c r="E5" s="22" t="n">
         <v>630</v>
       </c>
-      <c r="F5" s="25" t="n">
+      <c r="F5" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="G5" s="25" t="n">
+      <c r="G5" s="22" t="n">
         <v>540</v>
       </c>
-      <c r="H5" s="25" t="n">
+      <c r="H5" s="22" t="n">
         <v>1030</v>
       </c>
       <c r="J5" t="n">
@@ -7512,22 +7321,22 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="25" t="n">
+      <c r="C6" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="D6" s="25" t="n">
+      <c r="D6" s="22" t="n">
         <v>440</v>
       </c>
-      <c r="E6" s="25" t="n">
+      <c r="E6" s="22" t="n">
         <v>830</v>
       </c>
-      <c r="F6" s="25" t="n">
+      <c r="F6" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="G6" s="25" t="n">
+      <c r="G6" s="22" t="n">
         <v>740</v>
       </c>
-      <c r="H6" s="25" t="n">
+      <c r="H6" s="22" t="n">
         <v>1430</v>
       </c>
       <c r="J6" t="n">
@@ -7562,22 +7371,22 @@
       <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="25" t="n">
+      <c r="C7" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D7" s="25" t="n">
+      <c r="D7" s="22" t="n">
         <v>540</v>
       </c>
-      <c r="E7" s="25" t="n">
+      <c r="E7" s="22" t="n">
         <v>1030</v>
       </c>
-      <c r="F7" s="25" t="n">
+      <c r="F7" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G7" s="25" t="n">
+      <c r="G7" s="22" t="n">
         <v>940</v>
       </c>
-      <c r="H7" s="25" t="n">
+      <c r="H7" s="22" t="n">
         <v>1830</v>
       </c>
       <c r="J7" t="n">
@@ -7612,22 +7421,22 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="25" t="n">
+      <c r="C8" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D8" s="25" t="n">
+      <c r="D8" s="22" t="n">
         <v>640</v>
       </c>
-      <c r="E8" s="25" t="n">
+      <c r="E8" s="22" t="n">
         <v>1230</v>
       </c>
-      <c r="F8" s="25" t="n">
+      <c r="F8" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G8" s="25" t="n">
+      <c r="G8" s="22" t="n">
         <v>1140</v>
       </c>
-      <c r="H8" s="25" t="n">
+      <c r="H8" s="22" t="n">
         <v>2230</v>
       </c>
       <c r="J8" t="n">
@@ -7662,22 +7471,22 @@
       <c r="B9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="25" t="n">
+      <c r="C9" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="D9" s="25" t="n">
+      <c r="D9" s="22" t="n">
         <v>740</v>
       </c>
-      <c r="E9" s="25" t="n">
+      <c r="E9" s="22" t="n">
         <v>1430</v>
       </c>
-      <c r="F9" s="25" t="n">
+      <c r="F9" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="G9" s="25" t="n">
+      <c r="G9" s="22" t="n">
         <v>1340</v>
       </c>
-      <c r="H9" s="25" t="n">
+      <c r="H9" s="22" t="n">
         <v>2630</v>
       </c>
       <c r="J9" t="n">
@@ -7709,7 +7518,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>1 H/S</t>
         </is>
@@ -7717,22 +7526,22 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="25" t="n">
+      <c r="C10" s="22" t="n">
         <v>80</v>
       </c>
-      <c r="D10" s="25" t="n">
+      <c r="D10" s="22" t="n">
         <v>160</v>
       </c>
-      <c r="E10" s="25" t="n">
+      <c r="E10" s="22" t="n">
         <v>520</v>
       </c>
-      <c r="F10" s="25" t="n">
+      <c r="F10" s="22" t="n">
         <v>80</v>
       </c>
-      <c r="G10" s="25" t="n">
+      <c r="G10" s="22" t="n">
         <v>160</v>
       </c>
-      <c r="H10" s="25" t="n">
+      <c r="H10" s="22" t="n">
         <v>720</v>
       </c>
       <c r="J10" t="n">
@@ -7767,22 +7576,22 @@
       <c r="B11" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="25" t="n">
+      <c r="C11" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="D11" s="25" t="n">
+      <c r="D11" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="E11" s="25" t="n">
+      <c r="E11" s="22" t="n">
         <v>720</v>
       </c>
-      <c r="F11" s="25" t="n">
+      <c r="F11" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="G11" s="25" t="n">
+      <c r="G11" s="22" t="n">
         <v>360</v>
       </c>
-      <c r="H11" s="25" t="n">
+      <c r="H11" s="22" t="n">
         <v>1120</v>
       </c>
       <c r="J11" t="n">
@@ -7817,22 +7626,22 @@
       <c r="B12" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="25" t="n">
+      <c r="C12" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="D12" s="25" t="n">
+      <c r="D12" s="22" t="n">
         <v>360</v>
       </c>
-      <c r="E12" s="25" t="n">
+      <c r="E12" s="22" t="n">
         <v>920</v>
       </c>
-      <c r="F12" s="25" t="n">
+      <c r="F12" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="G12" s="25" t="n">
+      <c r="G12" s="22" t="n">
         <v>560</v>
       </c>
-      <c r="H12" s="25" t="n">
+      <c r="H12" s="22" t="n">
         <v>1520</v>
       </c>
       <c r="J12" t="n">
@@ -7867,22 +7676,22 @@
       <c r="B13" t="n">
         <v>4</v>
       </c>
-      <c r="C13" s="25" t="n">
+      <c r="C13" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D13" s="25" t="n">
+      <c r="D13" s="22" t="n">
         <v>460</v>
       </c>
-      <c r="E13" s="25" t="n">
+      <c r="E13" s="22" t="n">
         <v>1120</v>
       </c>
-      <c r="F13" s="25" t="n">
+      <c r="F13" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G13" s="25" t="n">
+      <c r="G13" s="22" t="n">
         <v>760</v>
       </c>
-      <c r="H13" s="25" t="n">
+      <c r="H13" s="22" t="n">
         <v>1920</v>
       </c>
       <c r="J13" t="n">
@@ -7917,22 +7726,22 @@
       <c r="B14" t="n">
         <v>5</v>
       </c>
-      <c r="C14" s="25" t="n">
+      <c r="C14" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="D14" s="25" t="n">
+      <c r="D14" s="22" t="n">
         <v>560</v>
       </c>
-      <c r="E14" s="25" t="n">
+      <c r="E14" s="22" t="n">
         <v>1320</v>
       </c>
-      <c r="F14" s="25" t="n">
+      <c r="F14" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="G14" s="25" t="n">
+      <c r="G14" s="22" t="n">
         <v>960</v>
       </c>
-      <c r="H14" s="25" t="n">
+      <c r="H14" s="22" t="n">
         <v>2320</v>
       </c>
       <c r="J14" t="n">
@@ -7967,22 +7776,22 @@
       <c r="B15" t="n">
         <v>6</v>
       </c>
-      <c r="C15" s="25" t="n">
+      <c r="C15" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="D15" s="25" t="n">
+      <c r="D15" s="22" t="n">
         <v>660</v>
       </c>
-      <c r="E15" s="25" t="n">
+      <c r="E15" s="22" t="n">
         <v>1520</v>
       </c>
-      <c r="F15" s="25" t="n">
+      <c r="F15" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="G15" s="25" t="n">
+      <c r="G15" s="22" t="n">
         <v>1160</v>
       </c>
-      <c r="H15" s="25" t="n">
+      <c r="H15" s="22" t="n">
         <v>2720</v>
       </c>
       <c r="J15" t="n">
@@ -8017,27 +7826,27 @@
       <c r="B16" t="n">
         <v>7</v>
       </c>
-      <c r="C16" s="25" t="n">
+      <c r="C16" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="D16" s="25" t="n">
+      <c r="D16" s="22" t="n">
         <v>760</v>
       </c>
-      <c r="E16" s="25" t="n">
+      <c r="E16" s="22" t="n">
         <v>1720</v>
       </c>
-      <c r="F16" s="25" t="n">
+      <c r="F16" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="G16" s="25" t="n">
+      <c r="G16" s="22" t="n">
         <v>1360</v>
       </c>
-      <c r="H16" s="25" t="n">
+      <c r="H16" s="22" t="n">
         <v>3120</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>1 NT</t>
         </is>
@@ -8045,22 +7854,22 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="25" t="n">
+      <c r="C17" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="D17" s="25" t="n">
+      <c r="D17" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="E17" s="25" t="n">
+      <c r="E17" s="22" t="n">
         <v>560</v>
       </c>
-      <c r="F17" s="25" t="n">
+      <c r="F17" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="G17" s="25" t="n">
+      <c r="G17" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="H17" s="25" t="n">
+      <c r="H17" s="22" t="n">
         <v>760</v>
       </c>
     </row>
@@ -8068,22 +7877,22 @@
       <c r="B18" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="25" t="n">
+      <c r="C18" s="22" t="n">
         <v>120</v>
       </c>
-      <c r="D18" s="25" t="n">
+      <c r="D18" s="22" t="n">
         <v>280</v>
       </c>
-      <c r="E18" s="25" t="n">
+      <c r="E18" s="22" t="n">
         <v>760</v>
       </c>
-      <c r="F18" s="25" t="n">
+      <c r="F18" s="22" t="n">
         <v>120</v>
       </c>
-      <c r="G18" s="25" t="n">
+      <c r="G18" s="22" t="n">
         <v>380</v>
       </c>
-      <c r="H18" s="25" t="n">
+      <c r="H18" s="22" t="n">
         <v>1160</v>
       </c>
     </row>
@@ -8091,22 +7900,22 @@
       <c r="B19" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="25" t="n">
+      <c r="C19" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D19" s="25" t="n">
+      <c r="D19" s="22" t="n">
         <v>380</v>
       </c>
-      <c r="E19" s="25" t="n">
+      <c r="E19" s="22" t="n">
         <v>960</v>
       </c>
-      <c r="F19" s="25" t="n">
+      <c r="F19" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G19" s="25" t="n">
+      <c r="G19" s="22" t="n">
         <v>580</v>
       </c>
-      <c r="H19" s="25" t="n">
+      <c r="H19" s="22" t="n">
         <v>1560</v>
       </c>
     </row>
@@ -8114,22 +7923,22 @@
       <c r="B20" t="n">
         <v>4</v>
       </c>
-      <c r="C20" s="25" t="n">
+      <c r="C20" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="D20" s="25" t="n">
+      <c r="D20" s="22" t="n">
         <v>480</v>
       </c>
-      <c r="E20" s="25" t="n">
+      <c r="E20" s="22" t="n">
         <v>1160</v>
       </c>
-      <c r="F20" s="25" t="n">
+      <c r="F20" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="G20" s="25" t="n">
+      <c r="G20" s="22" t="n">
         <v>780</v>
       </c>
-      <c r="H20" s="25" t="n">
+      <c r="H20" s="22" t="n">
         <v>1960</v>
       </c>
     </row>
@@ -8137,22 +7946,22 @@
       <c r="B21" t="n">
         <v>5</v>
       </c>
-      <c r="C21" s="25" t="n">
+      <c r="C21" s="22" t="n">
         <v>210</v>
       </c>
-      <c r="D21" s="25" t="n">
+      <c r="D21" s="22" t="n">
         <v>580</v>
       </c>
-      <c r="E21" s="25" t="n">
+      <c r="E21" s="22" t="n">
         <v>1360</v>
       </c>
-      <c r="F21" s="25" t="n">
+      <c r="F21" s="22" t="n">
         <v>210</v>
       </c>
-      <c r="G21" s="25" t="n">
+      <c r="G21" s="22" t="n">
         <v>980</v>
       </c>
-      <c r="H21" s="25" t="n">
+      <c r="H21" s="22" t="n">
         <v>2360</v>
       </c>
     </row>
@@ -8160,22 +7969,22 @@
       <c r="B22" t="n">
         <v>6</v>
       </c>
-      <c r="C22" s="25" t="n">
+      <c r="C22" s="22" t="n">
         <v>240</v>
       </c>
-      <c r="D22" s="25" t="n">
+      <c r="D22" s="22" t="n">
         <v>680</v>
       </c>
-      <c r="E22" s="25" t="n">
+      <c r="E22" s="22" t="n">
         <v>1560</v>
       </c>
-      <c r="F22" s="25" t="n">
+      <c r="F22" s="22" t="n">
         <v>240</v>
       </c>
-      <c r="G22" s="25" t="n">
+      <c r="G22" s="22" t="n">
         <v>1180</v>
       </c>
-      <c r="H22" s="25" t="n">
+      <c r="H22" s="22" t="n">
         <v>2760</v>
       </c>
     </row>
@@ -8183,27 +7992,27 @@
       <c r="B23" t="n">
         <v>7</v>
       </c>
-      <c r="C23" s="25" t="n">
+      <c r="C23" s="22" t="n">
         <v>270</v>
       </c>
-      <c r="D23" s="25" t="n">
+      <c r="D23" s="22" t="n">
         <v>780</v>
       </c>
-      <c r="E23" s="25" t="n">
+      <c r="E23" s="22" t="n">
         <v>1760</v>
       </c>
-      <c r="F23" s="25" t="n">
+      <c r="F23" s="22" t="n">
         <v>270</v>
       </c>
-      <c r="G23" s="25" t="n">
+      <c r="G23" s="22" t="n">
         <v>1380</v>
       </c>
-      <c r="H23" s="25" t="n">
+      <c r="H23" s="22" t="n">
         <v>3160</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>2 D/C</t>
         </is>
@@ -8211,22 +8020,22 @@
       <c r="B24" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="25" t="n">
+      <c r="C24" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="D24" s="25" t="n">
+      <c r="D24" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="E24" s="25" t="n">
+      <c r="E24" s="22" t="n">
         <v>560</v>
       </c>
-      <c r="F24" s="25" t="n">
+      <c r="F24" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="G24" s="25" t="n">
+      <c r="G24" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="H24" s="25" t="n">
+      <c r="H24" s="22" t="n">
         <v>760</v>
       </c>
     </row>
@@ -8234,22 +8043,22 @@
       <c r="B25" t="n">
         <v>2</v>
       </c>
-      <c r="C25" s="25" t="n">
+      <c r="C25" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="D25" s="25" t="n">
+      <c r="D25" s="22" t="n">
         <v>280</v>
       </c>
-      <c r="E25" s="25" t="n">
+      <c r="E25" s="22" t="n">
         <v>760</v>
       </c>
-      <c r="F25" s="25" t="n">
+      <c r="F25" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="G25" s="25" t="n">
+      <c r="G25" s="22" t="n">
         <v>380</v>
       </c>
-      <c r="H25" s="25" t="n">
+      <c r="H25" s="22" t="n">
         <v>1160</v>
       </c>
     </row>
@@ -8257,22 +8066,22 @@
       <c r="B26" t="n">
         <v>3</v>
       </c>
-      <c r="C26" s="25" t="n">
+      <c r="C26" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="D26" s="25" t="n">
+      <c r="D26" s="22" t="n">
         <v>380</v>
       </c>
-      <c r="E26" s="25" t="n">
+      <c r="E26" s="22" t="n">
         <v>960</v>
       </c>
-      <c r="F26" s="25" t="n">
+      <c r="F26" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="G26" s="25" t="n">
+      <c r="G26" s="22" t="n">
         <v>580</v>
       </c>
-      <c r="H26" s="25" t="n">
+      <c r="H26" s="22" t="n">
         <v>1560</v>
       </c>
     </row>
@@ -8280,22 +8089,22 @@
       <c r="B27" t="n">
         <v>4</v>
       </c>
-      <c r="C27" s="25" t="n">
+      <c r="C27" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D27" s="25" t="n">
+      <c r="D27" s="22" t="n">
         <v>480</v>
       </c>
-      <c r="E27" s="25" t="n">
+      <c r="E27" s="22" t="n">
         <v>1160</v>
       </c>
-      <c r="F27" s="25" t="n">
+      <c r="F27" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G27" s="25" t="n">
+      <c r="G27" s="22" t="n">
         <v>780</v>
       </c>
-      <c r="H27" s="25" t="n">
+      <c r="H27" s="22" t="n">
         <v>1960</v>
       </c>
     </row>
@@ -8303,22 +8112,22 @@
       <c r="B28" t="n">
         <v>5</v>
       </c>
-      <c r="C28" s="25" t="n">
+      <c r="C28" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D28" s="25" t="n">
+      <c r="D28" s="22" t="n">
         <v>580</v>
       </c>
-      <c r="E28" s="25" t="n">
+      <c r="E28" s="22" t="n">
         <v>1360</v>
       </c>
-      <c r="F28" s="25" t="n">
+      <c r="F28" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G28" s="25" t="n">
+      <c r="G28" s="22" t="n">
         <v>980</v>
       </c>
-      <c r="H28" s="25" t="n">
+      <c r="H28" s="22" t="n">
         <v>2360</v>
       </c>
     </row>
@@ -8326,27 +8135,27 @@
       <c r="B29" t="n">
         <v>6</v>
       </c>
-      <c r="C29" s="25" t="n">
+      <c r="C29" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="D29" s="25" t="n">
+      <c r="D29" s="22" t="n">
         <v>680</v>
       </c>
-      <c r="E29" s="25" t="n">
+      <c r="E29" s="22" t="n">
         <v>1560</v>
       </c>
-      <c r="F29" s="25" t="n">
+      <c r="F29" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="G29" s="25" t="n">
+      <c r="G29" s="22" t="n">
         <v>1180</v>
       </c>
-      <c r="H29" s="25" t="n">
+      <c r="H29" s="22" t="n">
         <v>2760</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>2 H/S</t>
         </is>
@@ -8354,22 +8163,22 @@
       <c r="B30" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="25" t="n">
+      <c r="C30" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="D30" s="25" t="n">
+      <c r="D30" s="22" t="n">
         <v>470</v>
       </c>
-      <c r="E30" s="25" t="n">
+      <c r="E30" s="22" t="n">
         <v>640</v>
       </c>
-      <c r="F30" s="25" t="n">
+      <c r="F30" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="G30" s="25" t="n">
+      <c r="G30" s="22" t="n">
         <v>670</v>
       </c>
-      <c r="H30" s="25" t="n">
+      <c r="H30" s="22" t="n">
         <v>840</v>
       </c>
     </row>
@@ -8377,22 +8186,22 @@
       <c r="B31" t="n">
         <v>2</v>
       </c>
-      <c r="C31" s="25" t="n">
+      <c r="C31" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="D31" s="25" t="n">
+      <c r="D31" s="22" t="n">
         <v>570</v>
       </c>
-      <c r="E31" s="25" t="n">
+      <c r="E31" s="22" t="n">
         <v>840</v>
       </c>
-      <c r="F31" s="25" t="n">
+      <c r="F31" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="G31" s="25" t="n">
+      <c r="G31" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="H31" s="25" t="n">
+      <c r="H31" s="22" t="n">
         <v>1240</v>
       </c>
     </row>
@@ -8400,22 +8209,22 @@
       <c r="B32" t="n">
         <v>3</v>
       </c>
-      <c r="C32" s="25" t="n">
+      <c r="C32" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D32" s="25" t="n">
+      <c r="D32" s="22" t="n">
         <v>670</v>
       </c>
-      <c r="E32" s="25" t="n">
+      <c r="E32" s="22" t="n">
         <v>1040</v>
       </c>
-      <c r="F32" s="25" t="n">
+      <c r="F32" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G32" s="25" t="n">
+      <c r="G32" s="22" t="n">
         <v>1070</v>
       </c>
-      <c r="H32" s="25" t="n">
+      <c r="H32" s="22" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -8423,22 +8232,22 @@
       <c r="B33" t="n">
         <v>4</v>
       </c>
-      <c r="C33" s="25" t="n">
+      <c r="C33" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="D33" s="25" t="n">
+      <c r="D33" s="22" t="n">
         <v>770</v>
       </c>
-      <c r="E33" s="25" t="n">
+      <c r="E33" s="22" t="n">
         <v>1240</v>
       </c>
-      <c r="F33" s="25" t="n">
+      <c r="F33" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="G33" s="25" t="n">
+      <c r="G33" s="22" t="n">
         <v>1270</v>
       </c>
-      <c r="H33" s="25" t="n">
+      <c r="H33" s="22" t="n">
         <v>2040</v>
       </c>
     </row>
@@ -8446,22 +8255,22 @@
       <c r="B34" t="n">
         <v>5</v>
       </c>
-      <c r="C34" s="25" t="n">
+      <c r="C34" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="D34" s="25" t="n">
+      <c r="D34" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="E34" s="25" t="n">
+      <c r="E34" s="22" t="n">
         <v>1440</v>
       </c>
-      <c r="F34" s="25" t="n">
+      <c r="F34" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="G34" s="25" t="n">
+      <c r="G34" s="22" t="n">
         <v>1470</v>
       </c>
-      <c r="H34" s="25" t="n">
+      <c r="H34" s="22" t="n">
         <v>2440</v>
       </c>
     </row>
@@ -8469,27 +8278,27 @@
       <c r="B35" t="n">
         <v>6</v>
       </c>
-      <c r="C35" s="25" t="n">
+      <c r="C35" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="D35" s="25" t="n">
+      <c r="D35" s="22" t="n">
         <v>970</v>
       </c>
-      <c r="E35" s="25" t="n">
+      <c r="E35" s="22" t="n">
         <v>1640</v>
       </c>
-      <c r="F35" s="25" t="n">
+      <c r="F35" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="G35" s="25" t="n">
+      <c r="G35" s="22" t="n">
         <v>1670</v>
       </c>
-      <c r="H35" s="25" t="n">
+      <c r="H35" s="22" t="n">
         <v>2840</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>2 NT</t>
         </is>
@@ -8497,22 +8306,22 @@
       <c r="B36" t="n">
         <v>1</v>
       </c>
-      <c r="C36" s="25" t="n">
+      <c r="C36" s="22" t="n">
         <v>120</v>
       </c>
-      <c r="D36" s="25" t="n">
+      <c r="D36" s="22" t="n">
         <v>490</v>
       </c>
-      <c r="E36" s="25" t="n">
+      <c r="E36" s="22" t="n">
         <v>680</v>
       </c>
-      <c r="F36" s="25" t="n">
+      <c r="F36" s="22" t="n">
         <v>120</v>
       </c>
-      <c r="G36" s="25" t="n">
+      <c r="G36" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="H36" s="25" t="n">
+      <c r="H36" s="22" t="n">
         <v>880</v>
       </c>
     </row>
@@ -8520,22 +8329,22 @@
       <c r="B37" t="n">
         <v>2</v>
       </c>
-      <c r="C37" s="25" t="n">
+      <c r="C37" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D37" s="25" t="n">
+      <c r="D37" s="22" t="n">
         <v>590</v>
       </c>
-      <c r="E37" s="25" t="n">
+      <c r="E37" s="22" t="n">
         <v>880</v>
       </c>
-      <c r="F37" s="25" t="n">
+      <c r="F37" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G37" s="25" t="n">
+      <c r="G37" s="22" t="n">
         <v>890</v>
       </c>
-      <c r="H37" s="25" t="n">
+      <c r="H37" s="22" t="n">
         <v>1280</v>
       </c>
     </row>
@@ -8543,22 +8352,22 @@
       <c r="B38" t="n">
         <v>3</v>
       </c>
-      <c r="C38" s="25" t="n">
+      <c r="C38" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="D38" s="25" t="n">
+      <c r="D38" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="E38" s="25" t="n">
+      <c r="E38" s="22" t="n">
         <v>1080</v>
       </c>
-      <c r="F38" s="25" t="n">
+      <c r="F38" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="G38" s="25" t="n">
+      <c r="G38" s="22" t="n">
         <v>1090</v>
       </c>
-      <c r="H38" s="25" t="n">
+      <c r="H38" s="22" t="n">
         <v>1680</v>
       </c>
     </row>
@@ -8566,22 +8375,22 @@
       <c r="B39" t="n">
         <v>4</v>
       </c>
-      <c r="C39" s="25" t="n">
+      <c r="C39" s="22" t="n">
         <v>210</v>
       </c>
-      <c r="D39" s="25" t="n">
+      <c r="D39" s="22" t="n">
         <v>790</v>
       </c>
-      <c r="E39" s="25" t="n">
+      <c r="E39" s="22" t="n">
         <v>1280</v>
       </c>
-      <c r="F39" s="25" t="n">
+      <c r="F39" s="22" t="n">
         <v>210</v>
       </c>
-      <c r="G39" s="25" t="n">
+      <c r="G39" s="22" t="n">
         <v>1290</v>
       </c>
-      <c r="H39" s="25" t="n">
+      <c r="H39" s="22" t="n">
         <v>2080</v>
       </c>
     </row>
@@ -8589,22 +8398,22 @@
       <c r="B40" t="n">
         <v>5</v>
       </c>
-      <c r="C40" s="25" t="n">
+      <c r="C40" s="22" t="n">
         <v>240</v>
       </c>
-      <c r="D40" s="25" t="n">
+      <c r="D40" s="22" t="n">
         <v>890</v>
       </c>
-      <c r="E40" s="25" t="n">
+      <c r="E40" s="22" t="n">
         <v>1480</v>
       </c>
-      <c r="F40" s="25" t="n">
+      <c r="F40" s="22" t="n">
         <v>240</v>
       </c>
-      <c r="G40" s="25" t="n">
+      <c r="G40" s="22" t="n">
         <v>1490</v>
       </c>
-      <c r="H40" s="25" t="n">
+      <c r="H40" s="22" t="n">
         <v>2480</v>
       </c>
     </row>
@@ -8612,27 +8421,27 @@
       <c r="B41" t="n">
         <v>6</v>
       </c>
-      <c r="C41" s="25" t="n">
+      <c r="C41" s="22" t="n">
         <v>270</v>
       </c>
-      <c r="D41" s="25" t="n">
+      <c r="D41" s="22" t="n">
         <v>990</v>
       </c>
-      <c r="E41" s="25" t="n">
+      <c r="E41" s="22" t="n">
         <v>1680</v>
       </c>
-      <c r="F41" s="25" t="n">
+      <c r="F41" s="22" t="n">
         <v>270</v>
       </c>
-      <c r="G41" s="25" t="n">
+      <c r="G41" s="22" t="n">
         <v>1690</v>
       </c>
-      <c r="H41" s="25" t="n">
+      <c r="H41" s="22" t="n">
         <v>2880</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>3 D/C</t>
         </is>
@@ -8640,22 +8449,22 @@
       <c r="B42" t="n">
         <v>1</v>
       </c>
-      <c r="C42" s="25" t="n">
+      <c r="C42" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="D42" s="25" t="n">
+      <c r="D42" s="22" t="n">
         <v>470</v>
       </c>
-      <c r="E42" s="25" t="n">
+      <c r="E42" s="22" t="n">
         <v>640</v>
       </c>
-      <c r="F42" s="25" t="n">
+      <c r="F42" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="G42" s="25" t="n">
+      <c r="G42" s="22" t="n">
         <v>670</v>
       </c>
-      <c r="H42" s="25" t="n">
+      <c r="H42" s="22" t="n">
         <v>840</v>
       </c>
     </row>
@@ -8663,22 +8472,22 @@
       <c r="B43" t="n">
         <v>2</v>
       </c>
-      <c r="C43" s="25" t="n">
+      <c r="C43" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="D43" s="25" t="n">
+      <c r="D43" s="22" t="n">
         <v>570</v>
       </c>
-      <c r="E43" s="25" t="n">
+      <c r="E43" s="22" t="n">
         <v>840</v>
       </c>
-      <c r="F43" s="25" t="n">
+      <c r="F43" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="G43" s="25" t="n">
+      <c r="G43" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="H43" s="25" t="n">
+      <c r="H43" s="22" t="n">
         <v>1240</v>
       </c>
     </row>
@@ -8686,22 +8495,22 @@
       <c r="B44" t="n">
         <v>3</v>
       </c>
-      <c r="C44" s="25" t="n">
+      <c r="C44" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D44" s="25" t="n">
+      <c r="D44" s="22" t="n">
         <v>670</v>
       </c>
-      <c r="E44" s="25" t="n">
+      <c r="E44" s="22" t="n">
         <v>1040</v>
       </c>
-      <c r="F44" s="25" t="n">
+      <c r="F44" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G44" s="25" t="n">
+      <c r="G44" s="22" t="n">
         <v>1070</v>
       </c>
-      <c r="H44" s="25" t="n">
+      <c r="H44" s="22" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -8709,22 +8518,22 @@
       <c r="B45" t="n">
         <v>4</v>
       </c>
-      <c r="C45" s="25" t="n">
+      <c r="C45" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D45" s="25" t="n">
+      <c r="D45" s="22" t="n">
         <v>770</v>
       </c>
-      <c r="E45" s="25" t="n">
+      <c r="E45" s="22" t="n">
         <v>1240</v>
       </c>
-      <c r="F45" s="25" t="n">
+      <c r="F45" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G45" s="25" t="n">
+      <c r="G45" s="22" t="n">
         <v>1270</v>
       </c>
-      <c r="H45" s="25" t="n">
+      <c r="H45" s="22" t="n">
         <v>2040</v>
       </c>
     </row>
@@ -8732,27 +8541,27 @@
       <c r="B46" t="n">
         <v>5</v>
       </c>
-      <c r="C46" s="25" t="n">
+      <c r="C46" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="D46" s="25" t="n">
+      <c r="D46" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="E46" s="25" t="n">
+      <c r="E46" s="22" t="n">
         <v>1440</v>
       </c>
-      <c r="F46" s="25" t="n">
+      <c r="F46" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="G46" s="25" t="n">
+      <c r="G46" s="22" t="n">
         <v>1470</v>
       </c>
-      <c r="H46" s="25" t="n">
+      <c r="H46" s="22" t="n">
         <v>2440</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="inlineStr">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>3 H/S</t>
         </is>
@@ -8760,22 +8569,22 @@
       <c r="B47" t="n">
         <v>1</v>
       </c>
-      <c r="C47" s="25" t="n">
+      <c r="C47" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="D47" s="25" t="n">
+      <c r="D47" s="22" t="n">
         <v>530</v>
       </c>
-      <c r="E47" s="25" t="n">
+      <c r="E47" s="22" t="n">
         <v>760</v>
       </c>
-      <c r="F47" s="25" t="n">
+      <c r="F47" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="G47" s="25" t="n">
+      <c r="G47" s="22" t="n">
         <v>730</v>
       </c>
-      <c r="H47" s="25" t="n">
+      <c r="H47" s="22" t="n">
         <v>960</v>
       </c>
     </row>
@@ -8783,22 +8592,22 @@
       <c r="B48" t="n">
         <v>2</v>
       </c>
-      <c r="C48" s="25" t="n">
+      <c r="C48" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D48" s="25" t="n">
+      <c r="D48" s="22" t="n">
         <v>630</v>
       </c>
-      <c r="E48" s="25" t="n">
+      <c r="E48" s="22" t="n">
         <v>960</v>
       </c>
-      <c r="F48" s="25" t="n">
+      <c r="F48" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G48" s="25" t="n">
+      <c r="G48" s="22" t="n">
         <v>930</v>
       </c>
-      <c r="H48" s="25" t="n">
+      <c r="H48" s="22" t="n">
         <v>1360</v>
       </c>
     </row>
@@ -8806,22 +8615,22 @@
       <c r="B49" t="n">
         <v>3</v>
       </c>
-      <c r="C49" s="25" t="n">
+      <c r="C49" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="D49" s="25" t="n">
+      <c r="D49" s="22" t="n">
         <v>730</v>
       </c>
-      <c r="E49" s="25" t="n">
+      <c r="E49" s="22" t="n">
         <v>1160</v>
       </c>
-      <c r="F49" s="25" t="n">
+      <c r="F49" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="G49" s="25" t="n">
+      <c r="G49" s="22" t="n">
         <v>1130</v>
       </c>
-      <c r="H49" s="25" t="n">
+      <c r="H49" s="22" t="n">
         <v>1760</v>
       </c>
     </row>
@@ -8829,22 +8638,22 @@
       <c r="B50" t="n">
         <v>4</v>
       </c>
-      <c r="C50" s="25" t="n">
+      <c r="C50" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="D50" s="25" t="n">
+      <c r="D50" s="22" t="n">
         <v>830</v>
       </c>
-      <c r="E50" s="25" t="n">
+      <c r="E50" s="22" t="n">
         <v>1360</v>
       </c>
-      <c r="F50" s="25" t="n">
+      <c r="F50" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="G50" s="25" t="n">
+      <c r="G50" s="22" t="n">
         <v>1330</v>
       </c>
-      <c r="H50" s="25" t="n">
+      <c r="H50" s="22" t="n">
         <v>2160</v>
       </c>
     </row>
@@ -8852,27 +8661,27 @@
       <c r="B51" t="n">
         <v>5</v>
       </c>
-      <c r="C51" s="25" t="n">
+      <c r="C51" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="D51" s="25" t="n">
+      <c r="D51" s="22" t="n">
         <v>930</v>
       </c>
-      <c r="E51" s="25" t="n">
+      <c r="E51" s="22" t="n">
         <v>1560</v>
       </c>
-      <c r="F51" s="25" t="n">
+      <c r="F51" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="G51" s="25" t="n">
+      <c r="G51" s="22" t="n">
         <v>1530</v>
       </c>
-      <c r="H51" s="25" t="n">
+      <c r="H51" s="22" t="n">
         <v>2560</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="inlineStr">
+      <c r="A52" s="2" t="inlineStr">
         <is>
           <t>3 NT</t>
         </is>
@@ -8880,22 +8689,22 @@
       <c r="B52" t="n">
         <v>1</v>
       </c>
-      <c r="C52" s="25" t="n">
+      <c r="C52" s="22" t="n">
         <v>400</v>
       </c>
-      <c r="D52" s="25" t="n">
+      <c r="D52" s="22" t="n">
         <v>550</v>
       </c>
-      <c r="E52" s="25" t="n">
+      <c r="E52" s="22" t="n">
         <v>800</v>
       </c>
-      <c r="F52" s="25" t="n">
+      <c r="F52" s="22" t="n">
         <v>600</v>
       </c>
-      <c r="G52" s="25" t="n">
+      <c r="G52" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="H52" s="25" t="n">
+      <c r="H52" s="22" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -8903,22 +8712,22 @@
       <c r="B53" t="n">
         <v>2</v>
       </c>
-      <c r="C53" s="25" t="n">
+      <c r="C53" s="22" t="n">
         <v>430</v>
       </c>
-      <c r="D53" s="25" t="n">
+      <c r="D53" s="22" t="n">
         <v>650</v>
       </c>
-      <c r="E53" s="25" t="n">
+      <c r="E53" s="22" t="n">
         <v>1000</v>
       </c>
-      <c r="F53" s="25" t="n">
+      <c r="F53" s="22" t="n">
         <v>630</v>
       </c>
-      <c r="G53" s="25" t="n">
+      <c r="G53" s="22" t="n">
         <v>950</v>
       </c>
-      <c r="H53" s="25" t="n">
+      <c r="H53" s="22" t="n">
         <v>1400</v>
       </c>
     </row>
@@ -8926,22 +8735,22 @@
       <c r="B54" t="n">
         <v>3</v>
       </c>
-      <c r="C54" s="25" t="n">
+      <c r="C54" s="22" t="n">
         <v>460</v>
       </c>
-      <c r="D54" s="25" t="n">
+      <c r="D54" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="E54" s="25" t="n">
+      <c r="E54" s="22" t="n">
         <v>1200</v>
       </c>
-      <c r="F54" s="25" t="n">
+      <c r="F54" s="22" t="n">
         <v>660</v>
       </c>
-      <c r="G54" s="25" t="n">
+      <c r="G54" s="22" t="n">
         <v>1150</v>
       </c>
-      <c r="H54" s="25" t="n">
+      <c r="H54" s="22" t="n">
         <v>1800</v>
       </c>
     </row>
@@ -8949,22 +8758,22 @@
       <c r="B55" t="n">
         <v>4</v>
       </c>
-      <c r="C55" s="25" t="n">
+      <c r="C55" s="22" t="n">
         <v>490</v>
       </c>
-      <c r="D55" s="25" t="n">
+      <c r="D55" s="22" t="n">
         <v>850</v>
       </c>
-      <c r="E55" s="25" t="n">
+      <c r="E55" s="22" t="n">
         <v>1400</v>
       </c>
-      <c r="F55" s="25" t="n">
+      <c r="F55" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="G55" s="25" t="n">
+      <c r="G55" s="22" t="n">
         <v>1350</v>
       </c>
-      <c r="H55" s="25" t="n">
+      <c r="H55" s="22" t="n">
         <v>2200</v>
       </c>
     </row>
@@ -8972,27 +8781,27 @@
       <c r="B56" t="n">
         <v>5</v>
       </c>
-      <c r="C56" s="25" t="n">
+      <c r="C56" s="22" t="n">
         <v>520</v>
       </c>
-      <c r="D56" s="25" t="n">
+      <c r="D56" s="22" t="n">
         <v>950</v>
       </c>
-      <c r="E56" s="25" t="n">
+      <c r="E56" s="22" t="n">
         <v>1600</v>
       </c>
-      <c r="F56" s="25" t="n">
+      <c r="F56" s="22" t="n">
         <v>720</v>
       </c>
-      <c r="G56" s="25" t="n">
+      <c r="G56" s="22" t="n">
         <v>1550</v>
       </c>
-      <c r="H56" s="25" t="n">
+      <c r="H56" s="22" t="n">
         <v>2600</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="inlineStr">
+      <c r="A57" s="2" t="inlineStr">
         <is>
           <t>4 D/C</t>
         </is>
@@ -9000,22 +8809,22 @@
       <c r="B57" t="n">
         <v>1</v>
       </c>
-      <c r="C57" s="25" t="n">
+      <c r="C57" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="D57" s="25" t="n">
+      <c r="D57" s="22" t="n">
         <v>510</v>
       </c>
-      <c r="E57" s="25" t="n">
+      <c r="E57" s="22" t="n">
         <v>720</v>
       </c>
-      <c r="F57" s="25" t="n">
+      <c r="F57" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="G57" s="25" t="n">
+      <c r="G57" s="22" t="n">
         <v>710</v>
       </c>
-      <c r="H57" s="25" t="n">
+      <c r="H57" s="22" t="n">
         <v>920</v>
       </c>
     </row>
@@ -9023,22 +8832,22 @@
       <c r="B58" t="n">
         <v>2</v>
       </c>
-      <c r="C58" s="25" t="n">
+      <c r="C58" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D58" s="25" t="n">
+      <c r="D58" s="22" t="n">
         <v>610</v>
       </c>
-      <c r="E58" s="25" t="n">
+      <c r="E58" s="22" t="n">
         <v>920</v>
       </c>
-      <c r="F58" s="25" t="n">
+      <c r="F58" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G58" s="25" t="n">
+      <c r="G58" s="22" t="n">
         <v>910</v>
       </c>
-      <c r="H58" s="25" t="n">
+      <c r="H58" s="22" t="n">
         <v>1320</v>
       </c>
     </row>
@@ -9046,22 +8855,22 @@
       <c r="B59" t="n">
         <v>3</v>
       </c>
-      <c r="C59" s="25" t="n">
+      <c r="C59" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D59" s="25" t="n">
+      <c r="D59" s="22" t="n">
         <v>710</v>
       </c>
-      <c r="E59" s="25" t="n">
+      <c r="E59" s="22" t="n">
         <v>1120</v>
       </c>
-      <c r="F59" s="25" t="n">
+      <c r="F59" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G59" s="25" t="n">
+      <c r="G59" s="22" t="n">
         <v>1110</v>
       </c>
-      <c r="H59" s="25" t="n">
+      <c r="H59" s="22" t="n">
         <v>1720</v>
       </c>
     </row>
@@ -9069,27 +8878,27 @@
       <c r="B60" t="n">
         <v>4</v>
       </c>
-      <c r="C60" s="25" t="n">
+      <c r="C60" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="D60" s="25" t="n">
+      <c r="D60" s="22" t="n">
         <v>810</v>
       </c>
-      <c r="E60" s="25" t="n">
+      <c r="E60" s="22" t="n">
         <v>1320</v>
       </c>
-      <c r="F60" s="25" t="n">
+      <c r="F60" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="G60" s="25" t="n">
+      <c r="G60" s="22" t="n">
         <v>1310</v>
       </c>
-      <c r="H60" s="25" t="n">
+      <c r="H60" s="22" t="n">
         <v>2120</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="inlineStr">
+      <c r="A61" s="2" t="inlineStr">
         <is>
           <t>4 H/S</t>
         </is>
@@ -9097,22 +8906,22 @@
       <c r="B61" t="n">
         <v>1</v>
       </c>
-      <c r="C61" s="25" t="n">
+      <c r="C61" s="22" t="n">
         <v>420</v>
       </c>
-      <c r="D61" s="25" t="n">
+      <c r="D61" s="22" t="n">
         <v>590</v>
       </c>
-      <c r="E61" s="25" t="n">
+      <c r="E61" s="22" t="n">
         <v>880</v>
       </c>
-      <c r="F61" s="25" t="n">
+      <c r="F61" s="22" t="n">
         <v>620</v>
       </c>
-      <c r="G61" s="25" t="n">
+      <c r="G61" s="22" t="n">
         <v>790</v>
       </c>
-      <c r="H61" s="25" t="n">
+      <c r="H61" s="22" t="n">
         <v>1080</v>
       </c>
     </row>
@@ -9120,22 +8929,22 @@
       <c r="B62" t="n">
         <v>2</v>
       </c>
-      <c r="C62" s="25" t="n">
+      <c r="C62" s="22" t="n">
         <v>450</v>
       </c>
-      <c r="D62" s="25" t="n">
+      <c r="D62" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="E62" s="25" t="n">
+      <c r="E62" s="22" t="n">
         <v>1080</v>
       </c>
-      <c r="F62" s="25" t="n">
+      <c r="F62" s="22" t="n">
         <v>650</v>
       </c>
-      <c r="G62" s="25" t="n">
+      <c r="G62" s="22" t="n">
         <v>990</v>
       </c>
-      <c r="H62" s="25" t="n">
+      <c r="H62" s="22" t="n">
         <v>1480</v>
       </c>
     </row>
@@ -9143,22 +8952,22 @@
       <c r="B63" t="n">
         <v>3</v>
       </c>
-      <c r="C63" s="25" t="n">
+      <c r="C63" s="22" t="n">
         <v>480</v>
       </c>
-      <c r="D63" s="25" t="n">
+      <c r="D63" s="22" t="n">
         <v>790</v>
       </c>
-      <c r="E63" s="25" t="n">
+      <c r="E63" s="22" t="n">
         <v>1280</v>
       </c>
-      <c r="F63" s="25" t="n">
+      <c r="F63" s="22" t="n">
         <v>680</v>
       </c>
-      <c r="G63" s="25" t="n">
+      <c r="G63" s="22" t="n">
         <v>1190</v>
       </c>
-      <c r="H63" s="25" t="n">
+      <c r="H63" s="22" t="n">
         <v>1880</v>
       </c>
     </row>
@@ -9166,27 +8975,27 @@
       <c r="B64" t="n">
         <v>4</v>
       </c>
-      <c r="C64" s="25" t="n">
+      <c r="C64" s="22" t="n">
         <v>510</v>
       </c>
-      <c r="D64" s="25" t="n">
+      <c r="D64" s="22" t="n">
         <v>890</v>
       </c>
-      <c r="E64" s="25" t="n">
+      <c r="E64" s="22" t="n">
         <v>1480</v>
       </c>
-      <c r="F64" s="25" t="n">
+      <c r="F64" s="22" t="n">
         <v>710</v>
       </c>
-      <c r="G64" s="25" t="n">
+      <c r="G64" s="22" t="n">
         <v>1390</v>
       </c>
-      <c r="H64" s="25" t="n">
+      <c r="H64" s="22" t="n">
         <v>2280</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="inlineStr">
+      <c r="A65" s="2" t="inlineStr">
         <is>
           <t>4 NT</t>
         </is>
@@ -9194,22 +9003,22 @@
       <c r="B65" t="n">
         <v>1</v>
       </c>
-      <c r="C65" s="25" t="n">
+      <c r="C65" s="22" t="n">
         <v>430</v>
       </c>
-      <c r="D65" s="25" t="n">
+      <c r="D65" s="22" t="n">
         <v>610</v>
       </c>
-      <c r="E65" s="25" t="n">
+      <c r="E65" s="22" t="n">
         <v>920</v>
       </c>
-      <c r="F65" s="25" t="n">
+      <c r="F65" s="22" t="n">
         <v>630</v>
       </c>
-      <c r="G65" s="25" t="n">
+      <c r="G65" s="22" t="n">
         <v>810</v>
       </c>
-      <c r="H65" s="25" t="n">
+      <c r="H65" s="22" t="n">
         <v>1120</v>
       </c>
     </row>
@@ -9217,22 +9026,22 @@
       <c r="B66" t="n">
         <v>2</v>
       </c>
-      <c r="C66" s="25" t="n">
+      <c r="C66" s="22" t="n">
         <v>460</v>
       </c>
-      <c r="D66" s="25" t="n">
+      <c r="D66" s="22" t="n">
         <v>710</v>
       </c>
-      <c r="E66" s="25" t="n">
+      <c r="E66" s="22" t="n">
         <v>1120</v>
       </c>
-      <c r="F66" s="25" t="n">
+      <c r="F66" s="22" t="n">
         <v>660</v>
       </c>
-      <c r="G66" s="25" t="n">
+      <c r="G66" s="22" t="n">
         <v>1010</v>
       </c>
-      <c r="H66" s="25" t="n">
+      <c r="H66" s="22" t="n">
         <v>1520</v>
       </c>
     </row>
@@ -9240,22 +9049,22 @@
       <c r="B67" t="n">
         <v>3</v>
       </c>
-      <c r="C67" s="25" t="n">
+      <c r="C67" s="22" t="n">
         <v>490</v>
       </c>
-      <c r="D67" s="25" t="n">
+      <c r="D67" s="22" t="n">
         <v>810</v>
       </c>
-      <c r="E67" s="25" t="n">
+      <c r="E67" s="22" t="n">
         <v>1320</v>
       </c>
-      <c r="F67" s="25" t="n">
+      <c r="F67" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="G67" s="25" t="n">
+      <c r="G67" s="22" t="n">
         <v>1210</v>
       </c>
-      <c r="H67" s="25" t="n">
+      <c r="H67" s="22" t="n">
         <v>1920</v>
       </c>
     </row>
@@ -9263,27 +9072,27 @@
       <c r="B68" t="n">
         <v>4</v>
       </c>
-      <c r="C68" s="25" t="n">
+      <c r="C68" s="22" t="n">
         <v>520</v>
       </c>
-      <c r="D68" s="25" t="n">
+      <c r="D68" s="22" t="n">
         <v>910</v>
       </c>
-      <c r="E68" s="25" t="n">
+      <c r="E68" s="22" t="n">
         <v>1520</v>
       </c>
-      <c r="F68" s="25" t="n">
+      <c r="F68" s="22" t="n">
         <v>720</v>
       </c>
-      <c r="G68" s="25" t="n">
+      <c r="G68" s="22" t="n">
         <v>1410</v>
       </c>
-      <c r="H68" s="25" t="n">
+      <c r="H68" s="22" t="n">
         <v>2320</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="inlineStr">
+      <c r="A69" s="2" t="inlineStr">
         <is>
           <t>5 D/C</t>
         </is>
@@ -9291,22 +9100,22 @@
       <c r="B69" t="n">
         <v>1</v>
       </c>
-      <c r="C69" s="25" t="n">
+      <c r="C69" s="22" t="n">
         <v>400</v>
       </c>
-      <c r="D69" s="25" t="n">
+      <c r="D69" s="22" t="n">
         <v>550</v>
       </c>
-      <c r="E69" s="25" t="n">
+      <c r="E69" s="22" t="n">
         <v>800</v>
       </c>
-      <c r="F69" s="25" t="n">
+      <c r="F69" s="22" t="n">
         <v>600</v>
       </c>
-      <c r="G69" s="25" t="n">
+      <c r="G69" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="H69" s="25" t="n">
+      <c r="H69" s="22" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -9314,22 +9123,22 @@
       <c r="B70" t="n">
         <v>2</v>
       </c>
-      <c r="C70" s="25" t="n">
+      <c r="C70" s="22" t="n">
         <v>420</v>
       </c>
-      <c r="D70" s="25" t="n">
+      <c r="D70" s="22" t="n">
         <v>650</v>
       </c>
-      <c r="E70" s="25" t="n">
+      <c r="E70" s="22" t="n">
         <v>1000</v>
       </c>
-      <c r="F70" s="25" t="n">
+      <c r="F70" s="22" t="n">
         <v>620</v>
       </c>
-      <c r="G70" s="25" t="n">
+      <c r="G70" s="22" t="n">
         <v>950</v>
       </c>
-      <c r="H70" s="25" t="n">
+      <c r="H70" s="22" t="n">
         <v>1400</v>
       </c>
     </row>
@@ -9337,27 +9146,27 @@
       <c r="B71" t="n">
         <v>3</v>
       </c>
-      <c r="C71" s="25" t="n">
+      <c r="C71" s="22" t="n">
         <v>440</v>
       </c>
-      <c r="D71" s="25" t="n">
+      <c r="D71" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="E71" s="25" t="n">
+      <c r="E71" s="22" t="n">
         <v>1200</v>
       </c>
-      <c r="F71" s="25" t="n">
+      <c r="F71" s="22" t="n">
         <v>640</v>
       </c>
-      <c r="G71" s="25" t="n">
+      <c r="G71" s="22" t="n">
         <v>1150</v>
       </c>
-      <c r="H71" s="25" t="n">
+      <c r="H71" s="22" t="n">
         <v>1800</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="inlineStr">
+      <c r="A72" s="2" t="inlineStr">
         <is>
           <t>5 H/S</t>
         </is>
@@ -9365,22 +9174,22 @@
       <c r="B72" t="n">
         <v>1</v>
       </c>
-      <c r="C72" s="25" t="n">
+      <c r="C72" s="22" t="n">
         <v>450</v>
       </c>
-      <c r="D72" s="25" t="n">
+      <c r="D72" s="22" t="n">
         <v>650</v>
       </c>
-      <c r="E72" s="25" t="n">
+      <c r="E72" s="22" t="n">
         <v>1000</v>
       </c>
-      <c r="F72" s="25" t="n">
+      <c r="F72" s="22" t="n">
         <v>650</v>
       </c>
-      <c r="G72" s="25" t="n">
+      <c r="G72" s="22" t="n">
         <v>850</v>
       </c>
-      <c r="H72" s="25" t="n">
+      <c r="H72" s="22" t="n">
         <v>1200</v>
       </c>
     </row>
@@ -9388,22 +9197,22 @@
       <c r="B73" t="n">
         <v>2</v>
       </c>
-      <c r="C73" s="25" t="n">
+      <c r="C73" s="22" t="n">
         <v>480</v>
       </c>
-      <c r="D73" s="25" t="n">
+      <c r="D73" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="E73" s="25" t="n">
+      <c r="E73" s="22" t="n">
         <v>1200</v>
       </c>
-      <c r="F73" s="25" t="n">
+      <c r="F73" s="22" t="n">
         <v>680</v>
       </c>
-      <c r="G73" s="25" t="n">
+      <c r="G73" s="22" t="n">
         <v>1050</v>
       </c>
-      <c r="H73" s="25" t="n">
+      <c r="H73" s="22" t="n">
         <v>1600</v>
       </c>
     </row>
@@ -9411,27 +9220,27 @@
       <c r="B74" t="n">
         <v>3</v>
       </c>
-      <c r="C74" s="25" t="n">
+      <c r="C74" s="22" t="n">
         <v>510</v>
       </c>
-      <c r="D74" s="25" t="n">
+      <c r="D74" s="22" t="n">
         <v>850</v>
       </c>
-      <c r="E74" s="25" t="n">
+      <c r="E74" s="22" t="n">
         <v>1400</v>
       </c>
-      <c r="F74" s="25" t="n">
+      <c r="F74" s="22" t="n">
         <v>710</v>
       </c>
-      <c r="G74" s="25" t="n">
+      <c r="G74" s="22" t="n">
         <v>1250</v>
       </c>
-      <c r="H74" s="25" t="n">
+      <c r="H74" s="22" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="inlineStr">
+      <c r="A75" s="2" t="inlineStr">
         <is>
           <t>5 NT</t>
         </is>
@@ -9439,22 +9248,22 @@
       <c r="B75" t="n">
         <v>1</v>
       </c>
-      <c r="C75" s="25" t="n">
+      <c r="C75" s="22" t="n">
         <v>460</v>
       </c>
-      <c r="D75" s="25" t="n">
+      <c r="D75" s="22" t="n">
         <v>670</v>
       </c>
-      <c r="E75" s="25" t="n">
+      <c r="E75" s="22" t="n">
         <v>1040</v>
       </c>
-      <c r="F75" s="25" t="n">
+      <c r="F75" s="22" t="n">
         <v>660</v>
       </c>
-      <c r="G75" s="25" t="n">
+      <c r="G75" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="H75" s="25" t="n">
+      <c r="H75" s="22" t="n">
         <v>1240</v>
       </c>
     </row>
@@ -9462,22 +9271,22 @@
       <c r="B76" t="n">
         <v>2</v>
       </c>
-      <c r="C76" s="25" t="n">
+      <c r="C76" s="22" t="n">
         <v>490</v>
       </c>
-      <c r="D76" s="25" t="n">
+      <c r="D76" s="22" t="n">
         <v>770</v>
       </c>
-      <c r="E76" s="25" t="n">
+      <c r="E76" s="22" t="n">
         <v>1240</v>
       </c>
-      <c r="F76" s="25" t="n">
+      <c r="F76" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="G76" s="25" t="n">
+      <c r="G76" s="22" t="n">
         <v>1070</v>
       </c>
-      <c r="H76" s="25" t="n">
+      <c r="H76" s="22" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -9485,27 +9294,27 @@
       <c r="B77" t="n">
         <v>3</v>
       </c>
-      <c r="C77" s="25" t="n">
+      <c r="C77" s="22" t="n">
         <v>520</v>
       </c>
-      <c r="D77" s="25" t="n">
+      <c r="D77" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="E77" s="25" t="n">
+      <c r="E77" s="22" t="n">
         <v>1440</v>
       </c>
-      <c r="F77" s="25" t="n">
+      <c r="F77" s="22" t="n">
         <v>720</v>
       </c>
-      <c r="G77" s="25" t="n">
+      <c r="G77" s="22" t="n">
         <v>1270</v>
       </c>
-      <c r="H77" s="25" t="n">
+      <c r="H77" s="22" t="n">
         <v>2040</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="inlineStr">
+      <c r="A78" s="2" t="inlineStr">
         <is>
           <t>6 D/C</t>
         </is>
@@ -9513,22 +9322,22 @@
       <c r="B78" t="n">
         <v>1</v>
       </c>
-      <c r="C78" s="25" t="n">
+      <c r="C78" s="22" t="n">
         <v>920</v>
       </c>
-      <c r="D78" s="25" t="n">
+      <c r="D78" s="22" t="n">
         <v>1090</v>
       </c>
-      <c r="E78" s="25" t="n">
+      <c r="E78" s="22" t="n">
         <v>1380</v>
       </c>
-      <c r="F78" s="25" t="n">
+      <c r="F78" s="22" t="n">
         <v>1370</v>
       </c>
-      <c r="G78" s="25" t="n">
+      <c r="G78" s="22" t="n">
         <v>1540</v>
       </c>
-      <c r="H78" s="25" t="n">
+      <c r="H78" s="22" t="n">
         <v>1830</v>
       </c>
     </row>
@@ -9536,27 +9345,27 @@
       <c r="B79" t="n">
         <v>2</v>
       </c>
-      <c r="C79" s="25" t="n">
+      <c r="C79" s="22" t="n">
         <v>940</v>
       </c>
-      <c r="D79" s="25" t="n">
+      <c r="D79" s="22" t="n">
         <v>1190</v>
       </c>
-      <c r="E79" s="25" t="n">
+      <c r="E79" s="22" t="n">
         <v>1580</v>
       </c>
-      <c r="F79" s="25" t="n">
+      <c r="F79" s="22" t="n">
         <v>1390</v>
       </c>
-      <c r="G79" s="25" t="n">
+      <c r="G79" s="22" t="n">
         <v>1740</v>
       </c>
-      <c r="H79" s="25" t="n">
+      <c r="H79" s="22" t="n">
         <v>2230</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="inlineStr">
+      <c r="A80" s="2" t="inlineStr">
         <is>
           <t>6 H/S</t>
         </is>
@@ -9564,22 +9373,22 @@
       <c r="B80" t="n">
         <v>1</v>
       </c>
-      <c r="C80" s="25" t="n">
+      <c r="C80" s="22" t="n">
         <v>980</v>
       </c>
-      <c r="D80" s="25" t="n">
+      <c r="D80" s="22" t="n">
         <v>1210</v>
       </c>
-      <c r="E80" s="25" t="n">
+      <c r="E80" s="22" t="n">
         <v>1620</v>
       </c>
-      <c r="F80" s="25" t="n">
+      <c r="F80" s="22" t="n">
         <v>1430</v>
       </c>
-      <c r="G80" s="25" t="n">
+      <c r="G80" s="22" t="n">
         <v>1660</v>
       </c>
-      <c r="H80" s="25" t="n">
+      <c r="H80" s="22" t="n">
         <v>2070</v>
       </c>
     </row>
@@ -9587,27 +9396,27 @@
       <c r="B81" t="n">
         <v>2</v>
       </c>
-      <c r="C81" s="25" t="n">
+      <c r="C81" s="22" t="n">
         <v>1010</v>
       </c>
-      <c r="D81" s="25" t="n">
+      <c r="D81" s="22" t="n">
         <v>1310</v>
       </c>
-      <c r="E81" s="25" t="n">
+      <c r="E81" s="22" t="n">
         <v>1820</v>
       </c>
-      <c r="F81" s="25" t="n">
+      <c r="F81" s="22" t="n">
         <v>1460</v>
       </c>
-      <c r="G81" s="25" t="n">
+      <c r="G81" s="22" t="n">
         <v>1860</v>
       </c>
-      <c r="H81" s="25" t="n">
+      <c r="H81" s="22" t="n">
         <v>2470</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="inlineStr">
+      <c r="A82" s="2" t="inlineStr">
         <is>
           <t>6 NT</t>
         </is>
@@ -9615,22 +9424,22 @@
       <c r="B82" t="n">
         <v>1</v>
       </c>
-      <c r="C82" s="25" t="n">
+      <c r="C82" s="22" t="n">
         <v>990</v>
       </c>
-      <c r="D82" s="25" t="n">
+      <c r="D82" s="22" t="n">
         <v>1230</v>
       </c>
-      <c r="E82" s="25" t="n">
+      <c r="E82" s="22" t="n">
         <v>1660</v>
       </c>
-      <c r="F82" s="25" t="n">
+      <c r="F82" s="22" t="n">
         <v>1440</v>
       </c>
-      <c r="G82" s="25" t="n">
+      <c r="G82" s="22" t="n">
         <v>1680</v>
       </c>
-      <c r="H82" s="25" t="n">
+      <c r="H82" s="22" t="n">
         <v>2110</v>
       </c>
     </row>
@@ -9638,27 +9447,27 @@
       <c r="B83" t="n">
         <v>2</v>
       </c>
-      <c r="C83" s="25" t="n">
+      <c r="C83" s="22" t="n">
         <v>1020</v>
       </c>
-      <c r="D83" s="25" t="n">
+      <c r="D83" s="22" t="n">
         <v>1330</v>
       </c>
-      <c r="E83" s="25" t="n">
+      <c r="E83" s="22" t="n">
         <v>1860</v>
       </c>
-      <c r="F83" s="25" t="n">
+      <c r="F83" s="22" t="n">
         <v>1470</v>
       </c>
-      <c r="G83" s="25" t="n">
+      <c r="G83" s="22" t="n">
         <v>1880</v>
       </c>
-      <c r="H83" s="25" t="n">
+      <c r="H83" s="22" t="n">
         <v>2510</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="inlineStr">
+      <c r="A84" s="2" t="inlineStr">
         <is>
           <t>7 D/C</t>
         </is>
@@ -9666,27 +9475,27 @@
       <c r="B84" t="n">
         <v>1</v>
       </c>
-      <c r="C84" s="25" t="n">
+      <c r="C84" s="22" t="n">
         <v>1440</v>
       </c>
-      <c r="D84" s="25" t="n">
+      <c r="D84" s="22" t="n">
         <v>1630</v>
       </c>
-      <c r="E84" s="25" t="n">
+      <c r="E84" s="22" t="n">
         <v>1960</v>
       </c>
-      <c r="F84" s="25" t="n">
+      <c r="F84" s="22" t="n">
         <v>2140</v>
       </c>
-      <c r="G84" s="25" t="n">
+      <c r="G84" s="22" t="n">
         <v>2330</v>
       </c>
-      <c r="H84" s="25" t="n">
+      <c r="H84" s="22" t="n">
         <v>2660</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="inlineStr">
+      <c r="A85" s="2" t="inlineStr">
         <is>
           <t>7 H/S</t>
         </is>
@@ -9694,27 +9503,27 @@
       <c r="B85" t="n">
         <v>1</v>
       </c>
-      <c r="C85" s="25" t="n">
+      <c r="C85" s="22" t="n">
         <v>1510</v>
       </c>
-      <c r="D85" s="25" t="n">
+      <c r="D85" s="22" t="n">
         <v>1770</v>
       </c>
-      <c r="E85" s="25" t="n">
+      <c r="E85" s="22" t="n">
         <v>2240</v>
       </c>
-      <c r="F85" s="25" t="n">
+      <c r="F85" s="22" t="n">
         <v>2210</v>
       </c>
-      <c r="G85" s="25" t="n">
+      <c r="G85" s="22" t="n">
         <v>2470</v>
       </c>
-      <c r="H85" s="25" t="n">
+      <c r="H85" s="22" t="n">
         <v>2940</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="inlineStr">
+      <c r="A86" s="2" t="inlineStr">
         <is>
           <t>7 NT</t>
         </is>
@@ -9722,22 +9531,22 @@
       <c r="B86" t="n">
         <v>1</v>
       </c>
-      <c r="C86" s="25" t="n">
+      <c r="C86" s="22" t="n">
         <v>1520</v>
       </c>
-      <c r="D86" s="25" t="n">
+      <c r="D86" s="22" t="n">
         <v>1790</v>
       </c>
-      <c r="E86" s="25" t="n">
+      <c r="E86" s="22" t="n">
         <v>2280</v>
       </c>
-      <c r="F86" s="25" t="n">
+      <c r="F86" s="22" t="n">
         <v>2220</v>
       </c>
-      <c r="G86" s="25" t="n">
+      <c r="G86" s="22" t="n">
         <v>2490</v>
       </c>
-      <c r="H86" s="25" t="n">
+      <c r="H86" s="22" t="n">
         <v>2980</v>
       </c>
     </row>

--- a/howell6.xlsx
+++ b/howell6.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 04, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 05, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 72</t>
+          <t>Name 61</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 85</t>
+          <t>Name 28</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 14</t>
+          <t>Name 39</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 60</t>
+          <t>Name 31</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 52</t>
+          <t>Name 21</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 66</t>
+          <t>Name 37</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 24</t>
+          <t>Name 38</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 61</t>
+          <t>Name 76</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 38</t>
+          <t>Name 79</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 62</t>
+          <t>Name 73</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 24</t>
+          <t>Name 22</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 21</t>
+          <t>Name 67</t>
         </is>
       </c>
       <c r="D15" s="4">

--- a/howell6.xlsx
+++ b/howell6.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 05, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 06, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 61</t>
+          <t>Name 78</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 28</t>
+          <t>Name 90</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 39</t>
+          <t>Name 23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 31</t>
+          <t>Name 77</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 21</t>
+          <t>Name 34</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 37</t>
+          <t>Name 62</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 38</t>
+          <t>Name 39</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 76</t>
+          <t>Name 25</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 79</t>
+          <t>Name 56</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 73</t>
+          <t>Name 76</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 22</t>
+          <t>Name 54</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 67</t>
+          <t>Name 82</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -5902,7 +5902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5914,842 +5914,855 @@
   </cols>
   <sheetData>
     <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Round</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Table</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Board</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Vul</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>By</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
           <t>Scores</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Round</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Table</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="A2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="11" t="n"/>
+      <c r="C3" s="11" t="n"/>
+      <c r="D3" s="11" t="n"/>
+      <c r="E3" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="B4" s="16" t="n"/>
+      <c r="C4" s="16" t="n"/>
+      <c r="D4" s="16" t="n"/>
+      <c r="E4" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Board</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Vul</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Contract</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>By</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="G4" s="15" t="n"/>
+      <c r="H4" s="15" t="n"/>
+      <c r="I4" s="15" t="n"/>
+      <c r="J4" s="15" t="n"/>
+      <c r="K4" s="15" t="n"/>
+      <c r="L4" s="15" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="11" t="n"/>
+      <c r="C6" s="11" t="n"/>
+      <c r="D6" s="11" t="n"/>
+      <c r="E6" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="B7" s="16" t="n"/>
+      <c r="C7" s="16" t="n"/>
+      <c r="D7" s="16" t="n"/>
+      <c r="E7" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="n">
+      <c r="G7" s="15" t="n"/>
+      <c r="H7" s="15" t="n"/>
+      <c r="I7" s="15" t="n"/>
+      <c r="J7" s="15" t="n"/>
+      <c r="K7" s="15" t="n"/>
+      <c r="L7" s="15" t="n"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="11" t="n"/>
+      <c r="C9" s="11" t="n"/>
+      <c r="D9" s="11" t="n"/>
+      <c r="E9" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="15" t="n"/>
+      <c r="B10" s="16" t="n"/>
+      <c r="C10" s="16" t="n"/>
+      <c r="D10" s="16" t="n"/>
+      <c r="E10" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F10" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G10" s="15" t="n"/>
+      <c r="H10" s="15" t="n"/>
+      <c r="I10" s="15" t="n"/>
+      <c r="J10" s="15" t="n"/>
+      <c r="K10" s="15" t="n"/>
+      <c r="L10" s="15" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="C11" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="11" t="n"/>
+      <c r="C12" s="11" t="n"/>
+      <c r="D12" s="11" t="n"/>
+      <c r="E12" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="16" t="n"/>
+      <c r="C13" s="16" t="n"/>
+      <c r="D13" s="16" t="n"/>
+      <c r="E13" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G13" s="15" t="n"/>
+      <c r="H13" s="15" t="n"/>
+      <c r="I13" s="15" t="n"/>
+      <c r="J13" s="15" t="n"/>
+      <c r="K13" s="15" t="n"/>
+      <c r="L13" s="15" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="11" t="n"/>
+      <c r="C15" s="11" t="n"/>
+      <c r="D15" s="11" t="n"/>
+      <c r="E15" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="16" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="16" t="n">
+        <v>9</v>
+      </c>
+      <c r="F16" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G16" s="15" t="n"/>
+      <c r="H16" s="15" t="n"/>
+      <c r="I16" s="15" t="n"/>
+      <c r="J16" s="15" t="n"/>
+      <c r="K16" s="15" t="n"/>
+      <c r="L16" s="15" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="n">
+      <c r="D17" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="11" t="n"/>
+      <c r="C18" s="11" t="n"/>
+      <c r="D18" s="11" t="n"/>
+      <c r="E18" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F18" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="15" t="n"/>
+      <c r="B19" s="16" t="n"/>
+      <c r="C19" s="16" t="n"/>
+      <c r="D19" s="16" t="n"/>
+      <c r="E19" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F19" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G19" s="15" t="n"/>
+      <c r="H19" s="15" t="n"/>
+      <c r="I19" s="15" t="n"/>
+      <c r="J19" s="15" t="n"/>
+      <c r="K19" s="15" t="n"/>
+      <c r="L19" s="15" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="n">
+      <c r="D20" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F20" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="11" t="n"/>
+      <c r="C21" s="11" t="n"/>
+      <c r="D21" s="11" t="n"/>
+      <c r="E21" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="16" t="n"/>
+      <c r="C22" s="16" t="n"/>
+      <c r="D22" s="16" t="n"/>
+      <c r="E22" s="16" t="n">
+        <v>9</v>
+      </c>
+      <c r="F22" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G22" s="15" t="n"/>
+      <c r="H22" s="15" t="n"/>
+      <c r="I22" s="15" t="n"/>
+      <c r="J22" s="15" t="n"/>
+      <c r="K22" s="15" t="n"/>
+      <c r="L22" s="15" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="n">
+      <c r="E23" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="11" t="n"/>
+      <c r="C24" s="11" t="n"/>
+      <c r="D24" s="11" t="n"/>
+      <c r="E24" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F24" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="16" t="n"/>
+      <c r="C25" s="16" t="n"/>
+      <c r="D25" s="16" t="n"/>
+      <c r="E25" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F25" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G25" s="15" t="n"/>
+      <c r="H25" s="15" t="n"/>
+      <c r="I25" s="15" t="n"/>
+      <c r="J25" s="15" t="n"/>
+      <c r="K25" s="15" t="n"/>
+      <c r="L25" s="15" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="11" t="inlineStr">
+      <c r="F26" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="11" t="n"/>
-      <c r="C4" s="11" t="n"/>
-      <c r="D4" s="11" t="n"/>
-      <c r="E4" s="11" t="n">
+    <row r="27">
+      <c r="B27" s="11" t="n"/>
+      <c r="C27" s="11" t="n"/>
+      <c r="D27" s="11" t="n"/>
+      <c r="E27" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="11" t="inlineStr">
+      <c r="F27" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="16" t="n"/>
-      <c r="C5" s="16" t="n"/>
-      <c r="D5" s="16" t="n"/>
-      <c r="E5" s="16" t="n">
+    <row r="28">
+      <c r="A28" s="15" t="n"/>
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="16" t="n"/>
+      <c r="D28" s="16" t="n"/>
+      <c r="E28" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="F5" s="16" t="inlineStr">
+      <c r="F28" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G5" s="15" t="n"/>
-      <c r="H5" s="15" t="n"/>
-      <c r="I5" s="15" t="n"/>
-      <c r="J5" s="15" t="n"/>
-      <c r="K5" s="15" t="n"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="11" t="n">
+      <c r="G28" s="15" t="n"/>
+      <c r="H28" s="15" t="n"/>
+      <c r="I28" s="15" t="n"/>
+      <c r="J28" s="15" t="n"/>
+      <c r="K28" s="15" t="n"/>
+      <c r="L28" s="15" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D29" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="11" t="n"/>
+      <c r="C30" s="11" t="n"/>
+      <c r="D30" s="11" t="n"/>
+      <c r="E30" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F30" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="16" t="n"/>
+      <c r="C31" s="16" t="n"/>
+      <c r="D31" s="16" t="n"/>
+      <c r="E31" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F31" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G31" s="15" t="n"/>
+      <c r="H31" s="15" t="n"/>
+      <c r="I31" s="15" t="n"/>
+      <c r="J31" s="15" t="n"/>
+      <c r="K31" s="15" t="n"/>
+      <c r="L31" s="15" t="n"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C32" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F32" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="11" t="n"/>
+      <c r="C33" s="11" t="n"/>
+      <c r="D33" s="11" t="n"/>
+      <c r="E33" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F33" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="16" t="n"/>
+      <c r="C34" s="16" t="n"/>
+      <c r="D34" s="16" t="n"/>
+      <c r="E34" s="16" t="n">
+        <v>9</v>
+      </c>
+      <c r="F34" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G34" s="15" t="n"/>
+      <c r="H34" s="15" t="n"/>
+      <c r="I34" s="15" t="n"/>
+      <c r="J34" s="15" t="n"/>
+      <c r="K34" s="15" t="n"/>
+      <c r="L34" s="15" t="n"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="C35" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="11" t="n"/>
+      <c r="C36" s="11" t="n"/>
+      <c r="D36" s="11" t="n"/>
+      <c r="E36" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="15" t="n"/>
+      <c r="B37" s="16" t="n"/>
+      <c r="C37" s="16" t="n"/>
+      <c r="D37" s="16" t="n"/>
+      <c r="E37" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F37" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G37" s="15" t="n"/>
+      <c r="H37" s="15" t="n"/>
+      <c r="I37" s="15" t="n"/>
+      <c r="J37" s="15" t="n"/>
+      <c r="K37" s="15" t="n"/>
+      <c r="L37" s="15" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D38" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F38" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="11" t="n"/>
+      <c r="C39" s="11" t="n"/>
+      <c r="D39" s="11" t="n"/>
+      <c r="E39" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="F39" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="16" t="n"/>
+      <c r="C40" s="16" t="n"/>
+      <c r="D40" s="16" t="n"/>
+      <c r="E40" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="F40" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G40" s="15" t="n"/>
+      <c r="H40" s="15" t="n"/>
+      <c r="I40" s="15" t="n"/>
+      <c r="J40" s="15" t="n"/>
+      <c r="K40" s="15" t="n"/>
+      <c r="L40" s="15" t="n"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F41" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="11" t="n"/>
+      <c r="C42" s="11" t="n"/>
+      <c r="D42" s="11" t="n"/>
+      <c r="E42" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="F42" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="16" t="n"/>
+      <c r="C43" s="16" t="n"/>
+      <c r="D43" s="16" t="n"/>
+      <c r="E43" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="F43" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G43" s="15" t="n"/>
+      <c r="H43" s="15" t="n"/>
+      <c r="I43" s="15" t="n"/>
+      <c r="J43" s="15" t="n"/>
+      <c r="K43" s="15" t="n"/>
+      <c r="L43" s="15" t="n"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E6" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" s="11" t="inlineStr">
+      <c r="D44" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F44" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="11" t="n"/>
-      <c r="C7" s="11" t="n"/>
-      <c r="D7" s="11" t="n"/>
-      <c r="E7" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" s="11" t="inlineStr">
+    <row r="45">
+      <c r="B45" s="11" t="n"/>
+      <c r="C45" s="11" t="n"/>
+      <c r="D45" s="11" t="n"/>
+      <c r="E45" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="F45" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="15" t="n"/>
+      <c r="B46" s="16" t="n"/>
+      <c r="C46" s="16" t="n"/>
+      <c r="D46" s="16" t="n"/>
+      <c r="E46" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="F46" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="16" t="n"/>
-      <c r="C8" s="16" t="n"/>
-      <c r="D8" s="16" t="n"/>
-      <c r="E8" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F8" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G8" s="15" t="n"/>
-      <c r="H8" s="15" t="n"/>
-      <c r="I8" s="15" t="n"/>
-      <c r="J8" s="15" t="n"/>
-      <c r="K8" s="15" t="n"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="F9" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="11" t="n"/>
-      <c r="C10" s="11" t="n"/>
-      <c r="D10" s="11" t="n"/>
-      <c r="E10" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F10" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="15" t="n"/>
-      <c r="B11" s="16" t="n"/>
-      <c r="C11" s="16" t="n"/>
-      <c r="D11" s="16" t="n"/>
-      <c r="E11" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F11" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G11" s="15" t="n"/>
-      <c r="H11" s="15" t="n"/>
-      <c r="I11" s="15" t="n"/>
-      <c r="J11" s="15" t="n"/>
-      <c r="K11" s="15" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="D12" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="F12" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="11" t="n"/>
-      <c r="C13" s="11" t="n"/>
-      <c r="D13" s="11" t="n"/>
-      <c r="E13" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="16" t="n"/>
-      <c r="C14" s="16" t="n"/>
-      <c r="D14" s="16" t="n"/>
-      <c r="E14" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F14" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G14" s="15" t="n"/>
-      <c r="H14" s="15" t="n"/>
-      <c r="I14" s="15" t="n"/>
-      <c r="J14" s="15" t="n"/>
-      <c r="K14" s="15" t="n"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E15" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F15" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="11" t="n"/>
-      <c r="C16" s="11" t="n"/>
-      <c r="D16" s="11" t="n"/>
-      <c r="E16" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="F16" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="16" t="n"/>
-      <c r="C17" s="16" t="n"/>
-      <c r="D17" s="16" t="n"/>
-      <c r="E17" s="16" t="n">
-        <v>9</v>
-      </c>
-      <c r="F17" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G17" s="15" t="n"/>
-      <c r="H17" s="15" t="n"/>
-      <c r="I17" s="15" t="n"/>
-      <c r="J17" s="15" t="n"/>
-      <c r="K17" s="15" t="n"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="F18" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="11" t="n"/>
-      <c r="C19" s="11" t="n"/>
-      <c r="D19" s="11" t="n"/>
-      <c r="E19" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F19" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="15" t="n"/>
-      <c r="B20" s="16" t="n"/>
-      <c r="C20" s="16" t="n"/>
-      <c r="D20" s="16" t="n"/>
-      <c r="E20" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F20" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G20" s="15" t="n"/>
-      <c r="H20" s="15" t="n"/>
-      <c r="I20" s="15" t="n"/>
-      <c r="J20" s="15" t="n"/>
-      <c r="K20" s="15" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B21" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="D21" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F21" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="11" t="n"/>
-      <c r="C22" s="11" t="n"/>
-      <c r="D22" s="11" t="n"/>
-      <c r="E22" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="F22" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="16" t="n"/>
-      <c r="C23" s="16" t="n"/>
-      <c r="D23" s="16" t="n"/>
-      <c r="E23" s="16" t="n">
-        <v>9</v>
-      </c>
-      <c r="F23" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G23" s="15" t="n"/>
-      <c r="H23" s="15" t="n"/>
-      <c r="I23" s="15" t="n"/>
-      <c r="J23" s="15" t="n"/>
-      <c r="K23" s="15" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C24" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D24" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="F24" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="11" t="n"/>
-      <c r="C25" s="11" t="n"/>
-      <c r="D25" s="11" t="n"/>
-      <c r="E25" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F25" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="16" t="n"/>
-      <c r="C26" s="16" t="n"/>
-      <c r="D26" s="16" t="n"/>
-      <c r="E26" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F26" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G26" s="15" t="n"/>
-      <c r="H26" s="15" t="n"/>
-      <c r="I26" s="15" t="n"/>
-      <c r="J26" s="15" t="n"/>
-      <c r="K26" s="15" t="n"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C27" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E27" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="11" t="n"/>
-      <c r="C28" s="11" t="n"/>
-      <c r="D28" s="11" t="n"/>
-      <c r="E28" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="15" t="n"/>
-      <c r="B29" s="16" t="n"/>
-      <c r="C29" s="16" t="n"/>
-      <c r="D29" s="16" t="n"/>
-      <c r="E29" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="F29" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G29" s="15" t="n"/>
-      <c r="H29" s="15" t="n"/>
-      <c r="I29" s="15" t="n"/>
-      <c r="J29" s="15" t="n"/>
-      <c r="K29" s="15" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B30" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="D30" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E30" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="F30" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="11" t="n"/>
-      <c r="C31" s="11" t="n"/>
-      <c r="D31" s="11" t="n"/>
-      <c r="E31" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F31" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="16" t="n"/>
-      <c r="C32" s="16" t="n"/>
-      <c r="D32" s="16" t="n"/>
-      <c r="E32" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F32" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G32" s="15" t="n"/>
-      <c r="H32" s="15" t="n"/>
-      <c r="I32" s="15" t="n"/>
-      <c r="J32" s="15" t="n"/>
-      <c r="K32" s="15" t="n"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C33" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E33" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F33" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="11" t="n"/>
-      <c r="C34" s="11" t="n"/>
-      <c r="D34" s="11" t="n"/>
-      <c r="E34" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="F34" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="16" t="n"/>
-      <c r="C35" s="16" t="n"/>
-      <c r="D35" s="16" t="n"/>
-      <c r="E35" s="16" t="n">
-        <v>9</v>
-      </c>
-      <c r="F35" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G35" s="15" t="n"/>
-      <c r="H35" s="15" t="n"/>
-      <c r="I35" s="15" t="n"/>
-      <c r="J35" s="15" t="n"/>
-      <c r="K35" s="15" t="n"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C36" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D36" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E36" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="11" t="n"/>
-      <c r="C37" s="11" t="n"/>
-      <c r="D37" s="11" t="n"/>
-      <c r="E37" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F37" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="15" t="n"/>
-      <c r="B38" s="16" t="n"/>
-      <c r="C38" s="16" t="n"/>
-      <c r="D38" s="16" t="n"/>
-      <c r="E38" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="F38" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G38" s="15" t="n"/>
-      <c r="H38" s="15" t="n"/>
-      <c r="I38" s="15" t="n"/>
-      <c r="J38" s="15" t="n"/>
-      <c r="K38" s="15" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B39" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="D39" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E39" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F39" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="11" t="n"/>
-      <c r="C40" s="11" t="n"/>
-      <c r="D40" s="11" t="n"/>
-      <c r="E40" s="11" t="n">
-        <v>14</v>
-      </c>
-      <c r="F40" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" s="16" t="n"/>
-      <c r="C41" s="16" t="n"/>
-      <c r="D41" s="16" t="n"/>
-      <c r="E41" s="16" t="n">
-        <v>15</v>
-      </c>
-      <c r="F41" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G41" s="15" t="n"/>
-      <c r="H41" s="15" t="n"/>
-      <c r="I41" s="15" t="n"/>
-      <c r="J41" s="15" t="n"/>
-      <c r="K41" s="15" t="n"/>
-    </row>
-    <row r="42">
-      <c r="B42" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C42" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D42" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E42" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F42" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="11" t="n"/>
-      <c r="C43" s="11" t="n"/>
-      <c r="D43" s="11" t="n"/>
-      <c r="E43" s="11" t="n">
-        <v>14</v>
-      </c>
-      <c r="F43" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="16" t="n"/>
-      <c r="C44" s="16" t="n"/>
-      <c r="D44" s="16" t="n"/>
-      <c r="E44" s="16" t="n">
-        <v>15</v>
-      </c>
-      <c r="F44" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G44" s="15" t="n"/>
-      <c r="H44" s="15" t="n"/>
-      <c r="I44" s="15" t="n"/>
-      <c r="J44" s="15" t="n"/>
-      <c r="K44" s="15" t="n"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C45" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D45" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F45" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="11" t="n"/>
-      <c r="C46" s="11" t="n"/>
-      <c r="D46" s="11" t="n"/>
-      <c r="E46" s="11" t="n">
-        <v>14</v>
-      </c>
-      <c r="F46" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="15" t="n"/>
-      <c r="B47" s="16" t="n"/>
-      <c r="C47" s="16" t="n"/>
-      <c r="D47" s="16" t="n"/>
-      <c r="E47" s="16" t="n">
-        <v>15</v>
-      </c>
-      <c r="F47" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G47" s="15" t="n"/>
-      <c r="H47" s="15" t="n"/>
-      <c r="I47" s="15" t="n"/>
-      <c r="J47" s="15" t="n"/>
-      <c r="K47" s="15" t="n"/>
+      <c r="G46" s="15" t="n"/>
+      <c r="H46" s="15" t="n"/>
+      <c r="I46" s="15" t="n"/>
+      <c r="J46" s="15" t="n"/>
+      <c r="K46" s="15" t="n"/>
+      <c r="L46" s="15" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/howell6.xlsx
+++ b/howell6.xlsx
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 78</t>
+          <t>Name 45</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 90</t>
+          <t>Name 26</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 23</t>
+          <t>Name 81</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 77</t>
+          <t>Name 38</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 34</t>
+          <t>Name 15</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 62</t>
+          <t>Name 19</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 39</t>
+          <t>Name 24</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 25</t>
+          <t>Name 76</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 56</t>
+          <t>Name 63</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 76</t>
+          <t>Name 29</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 54</t>
+          <t>Name 37</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 82</t>
+          <t>Name 68</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -5902,7 +5902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M46"/>
+  <dimension ref="A2:K47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5913,857 +5913,834 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Round</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Table</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Board</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Vul</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Contract</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>By</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>Scores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="n">
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="n">
+      <c r="C3" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="n">
+      <c r="D3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="n">
+      <c r="E3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="11" t="inlineStr">
+      <c r="F3" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="11" t="n"/>
-      <c r="C3" s="11" t="n"/>
-      <c r="D3" s="11" t="n"/>
-      <c r="E3" s="11" t="n">
+    <row r="4">
+      <c r="B4" s="11" t="n"/>
+      <c r="C4" s="11" t="n"/>
+      <c r="D4" s="11" t="n"/>
+      <c r="E4" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="inlineStr">
+      <c r="F4" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="16" t="n"/>
-      <c r="C4" s="16" t="n"/>
-      <c r="D4" s="16" t="n"/>
-      <c r="E4" s="16" t="n">
+    <row r="5">
+      <c r="B5" s="16" t="n"/>
+      <c r="C5" s="16" t="n"/>
+      <c r="D5" s="16" t="n"/>
+      <c r="E5" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="16" t="inlineStr">
+      <c r="F5" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G4" s="15" t="n"/>
-      <c r="H4" s="15" t="n"/>
-      <c r="I4" s="15" t="n"/>
-      <c r="J4" s="15" t="n"/>
-      <c r="K4" s="15" t="n"/>
-      <c r="L4" s="15" t="n"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="11" t="n">
+      <c r="G5" s="15" t="n"/>
+      <c r="H5" s="15" t="n"/>
+      <c r="I5" s="15" t="n"/>
+      <c r="J5" s="15" t="n"/>
+      <c r="K5" s="15" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C6" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D6" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E6" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="11" t="inlineStr">
+      <c r="F6" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="11" t="n"/>
-      <c r="C6" s="11" t="n"/>
-      <c r="D6" s="11" t="n"/>
-      <c r="E6" s="11" t="n">
+    <row r="7">
+      <c r="B7" s="11" t="n"/>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="11" t="n"/>
+      <c r="E7" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="11" t="inlineStr">
+      <c r="F7" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="16" t="n"/>
-      <c r="C7" s="16" t="n"/>
-      <c r="D7" s="16" t="n"/>
-      <c r="E7" s="16" t="n">
+    <row r="8">
+      <c r="B8" s="16" t="n"/>
+      <c r="C8" s="16" t="n"/>
+      <c r="D8" s="16" t="n"/>
+      <c r="E8" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F7" s="16" t="inlineStr">
+      <c r="F8" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G7" s="15" t="n"/>
-      <c r="H7" s="15" t="n"/>
-      <c r="I7" s="15" t="n"/>
-      <c r="J7" s="15" t="n"/>
-      <c r="K7" s="15" t="n"/>
-      <c r="L7" s="15" t="n"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="11" t="n">
+      <c r="G8" s="15" t="n"/>
+      <c r="H8" s="15" t="n"/>
+      <c r="I8" s="15" t="n"/>
+      <c r="J8" s="15" t="n"/>
+      <c r="K8" s="15" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="C9" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D9" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E9" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="F8" s="11" t="inlineStr">
+      <c r="F9" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="11" t="n"/>
-      <c r="C9" s="11" t="n"/>
-      <c r="D9" s="11" t="n"/>
-      <c r="E9" s="11" t="n">
+    <row r="10">
+      <c r="B10" s="11" t="n"/>
+      <c r="C10" s="11" t="n"/>
+      <c r="D10" s="11" t="n"/>
+      <c r="E10" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F9" s="11" t="inlineStr">
+      <c r="F10" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="15" t="n"/>
-      <c r="B10" s="16" t="n"/>
-      <c r="C10" s="16" t="n"/>
-      <c r="D10" s="16" t="n"/>
-      <c r="E10" s="16" t="n">
+    <row r="11">
+      <c r="A11" s="15" t="n"/>
+      <c r="B11" s="16" t="n"/>
+      <c r="C11" s="16" t="n"/>
+      <c r="D11" s="16" t="n"/>
+      <c r="E11" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F10" s="16" t="inlineStr">
+      <c r="F11" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G10" s="15" t="n"/>
-      <c r="H10" s="15" t="n"/>
-      <c r="I10" s="15" t="n"/>
-      <c r="J10" s="15" t="n"/>
-      <c r="K10" s="15" t="n"/>
-      <c r="L10" s="15" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="n">
+      <c r="G11" s="15" t="n"/>
+      <c r="H11" s="15" t="n"/>
+      <c r="I11" s="15" t="n"/>
+      <c r="J11" s="15" t="n"/>
+      <c r="K11" s="15" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="11" t="n">
+      <c r="B12" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="11" t="n">
+      <c r="C12" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D12" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E12" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="11" t="inlineStr">
+      <c r="F12" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="11" t="n"/>
-      <c r="C12" s="11" t="n"/>
-      <c r="D12" s="11" t="n"/>
-      <c r="E12" s="11" t="n">
+    <row r="13">
+      <c r="B13" s="11" t="n"/>
+      <c r="C13" s="11" t="n"/>
+      <c r="D13" s="11" t="n"/>
+      <c r="E13" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F12" s="11" t="inlineStr">
+      <c r="F13" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="16" t="n"/>
-      <c r="C13" s="16" t="n"/>
-      <c r="D13" s="16" t="n"/>
-      <c r="E13" s="16" t="n">
+    <row r="14">
+      <c r="B14" s="16" t="n"/>
+      <c r="C14" s="16" t="n"/>
+      <c r="D14" s="16" t="n"/>
+      <c r="E14" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F13" s="16" t="inlineStr">
+      <c r="F14" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G13" s="15" t="n"/>
-      <c r="H13" s="15" t="n"/>
-      <c r="I13" s="15" t="n"/>
-      <c r="J13" s="15" t="n"/>
-      <c r="K13" s="15" t="n"/>
-      <c r="L13" s="15" t="n"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="11" t="n">
+      <c r="G14" s="15" t="n"/>
+      <c r="H14" s="15" t="n"/>
+      <c r="I14" s="15" t="n"/>
+      <c r="J14" s="15" t="n"/>
+      <c r="K14" s="15" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="11" t="n">
+      <c r="C15" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D14" s="11" t="n">
+      <c r="D15" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E14" s="11" t="n">
+      <c r="E15" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F14" s="11" t="inlineStr">
+      <c r="F15" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="11" t="n"/>
-      <c r="C15" s="11" t="n"/>
-      <c r="D15" s="11" t="n"/>
-      <c r="E15" s="11" t="n">
+    <row r="16">
+      <c r="B16" s="11" t="n"/>
+      <c r="C16" s="11" t="n"/>
+      <c r="D16" s="11" t="n"/>
+      <c r="E16" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="F15" s="11" t="inlineStr">
+      <c r="F16" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="16" t="n"/>
-      <c r="C16" s="16" t="n"/>
-      <c r="D16" s="16" t="n"/>
-      <c r="E16" s="16" t="n">
+    <row r="17">
+      <c r="B17" s="16" t="n"/>
+      <c r="C17" s="16" t="n"/>
+      <c r="D17" s="16" t="n"/>
+      <c r="E17" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="F16" s="16" t="inlineStr">
+      <c r="F17" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G16" s="15" t="n"/>
-      <c r="H16" s="15" t="n"/>
-      <c r="I16" s="15" t="n"/>
-      <c r="J16" s="15" t="n"/>
-      <c r="K16" s="15" t="n"/>
-      <c r="L16" s="15" t="n"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="11" t="n">
+      <c r="G17" s="15" t="n"/>
+      <c r="H17" s="15" t="n"/>
+      <c r="I17" s="15" t="n"/>
+      <c r="J17" s="15" t="n"/>
+      <c r="K17" s="15" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C18" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="11" t="n">
+      <c r="D18" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E17" s="11" t="n">
+      <c r="E18" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="F17" s="11" t="inlineStr">
+      <c r="F18" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="11" t="n"/>
-      <c r="C18" s="11" t="n"/>
-      <c r="D18" s="11" t="n"/>
-      <c r="E18" s="11" t="n">
+    <row r="19">
+      <c r="B19" s="11" t="n"/>
+      <c r="C19" s="11" t="n"/>
+      <c r="D19" s="11" t="n"/>
+      <c r="E19" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F18" s="11" t="inlineStr">
+      <c r="F19" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="15" t="n"/>
-      <c r="B19" s="16" t="n"/>
-      <c r="C19" s="16" t="n"/>
-      <c r="D19" s="16" t="n"/>
-      <c r="E19" s="16" t="n">
+    <row r="20">
+      <c r="A20" s="15" t="n"/>
+      <c r="B20" s="16" t="n"/>
+      <c r="C20" s="16" t="n"/>
+      <c r="D20" s="16" t="n"/>
+      <c r="E20" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F19" s="16" t="inlineStr">
+      <c r="F20" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G19" s="15" t="n"/>
-      <c r="H19" s="15" t="n"/>
-      <c r="I19" s="15" t="n"/>
-      <c r="J19" s="15" t="n"/>
-      <c r="K19" s="15" t="n"/>
-      <c r="L19" s="15" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="11" t="n">
+      <c r="G20" s="15" t="n"/>
+      <c r="H20" s="15" t="n"/>
+      <c r="I20" s="15" t="n"/>
+      <c r="J20" s="15" t="n"/>
+      <c r="K20" s="15" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B20" s="11" t="n">
+      <c r="B21" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="11" t="n">
+      <c r="C21" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D20" s="11" t="n">
+      <c r="D21" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E20" s="11" t="n">
+      <c r="E21" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F20" s="11" t="inlineStr">
+      <c r="F21" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" s="11" t="n"/>
-      <c r="C21" s="11" t="n"/>
-      <c r="D21" s="11" t="n"/>
-      <c r="E21" s="11" t="n">
+    <row r="22">
+      <c r="B22" s="11" t="n"/>
+      <c r="C22" s="11" t="n"/>
+      <c r="D22" s="11" t="n"/>
+      <c r="E22" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="F21" s="11" t="inlineStr">
+      <c r="F22" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="B22" s="16" t="n"/>
-      <c r="C22" s="16" t="n"/>
-      <c r="D22" s="16" t="n"/>
-      <c r="E22" s="16" t="n">
+    <row r="23">
+      <c r="B23" s="16" t="n"/>
+      <c r="C23" s="16" t="n"/>
+      <c r="D23" s="16" t="n"/>
+      <c r="E23" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="F22" s="16" t="inlineStr">
+      <c r="F23" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G22" s="15" t="n"/>
-      <c r="H22" s="15" t="n"/>
-      <c r="I22" s="15" t="n"/>
-      <c r="J22" s="15" t="n"/>
-      <c r="K22" s="15" t="n"/>
-      <c r="L22" s="15" t="n"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="11" t="n">
+      <c r="G23" s="15" t="n"/>
+      <c r="H23" s="15" t="n"/>
+      <c r="I23" s="15" t="n"/>
+      <c r="J23" s="15" t="n"/>
+      <c r="K23" s="15" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C23" s="11" t="n">
+      <c r="C24" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D23" s="11" t="n">
+      <c r="D24" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="11" t="n">
+      <c r="E24" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="11" t="inlineStr">
+      <c r="F24" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" s="11" t="n"/>
-      <c r="C24" s="11" t="n"/>
-      <c r="D24" s="11" t="n"/>
-      <c r="E24" s="11" t="n">
+    <row r="25">
+      <c r="B25" s="11" t="n"/>
+      <c r="C25" s="11" t="n"/>
+      <c r="D25" s="11" t="n"/>
+      <c r="E25" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="11" t="inlineStr">
+      <c r="F25" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" s="16" t="n"/>
-      <c r="C25" s="16" t="n"/>
-      <c r="D25" s="16" t="n"/>
-      <c r="E25" s="16" t="n">
+    <row r="26">
+      <c r="B26" s="16" t="n"/>
+      <c r="C26" s="16" t="n"/>
+      <c r="D26" s="16" t="n"/>
+      <c r="E26" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="16" t="inlineStr">
+      <c r="F26" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G25" s="15" t="n"/>
-      <c r="H25" s="15" t="n"/>
-      <c r="I25" s="15" t="n"/>
-      <c r="J25" s="15" t="n"/>
-      <c r="K25" s="15" t="n"/>
-      <c r="L25" s="15" t="n"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="11" t="n">
+      <c r="G26" s="15" t="n"/>
+      <c r="H26" s="15" t="n"/>
+      <c r="I26" s="15" t="n"/>
+      <c r="J26" s="15" t="n"/>
+      <c r="K26" s="15" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C26" s="11" t="n">
+      <c r="C27" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D26" s="11" t="n">
+      <c r="D27" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E26" s="11" t="n">
+      <c r="E27" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F26" s="11" t="inlineStr">
+      <c r="F27" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" s="11" t="n"/>
-      <c r="C27" s="11" t="n"/>
-      <c r="D27" s="11" t="n"/>
-      <c r="E27" s="11" t="n">
+    <row r="28">
+      <c r="B28" s="11" t="n"/>
+      <c r="C28" s="11" t="n"/>
+      <c r="D28" s="11" t="n"/>
+      <c r="E28" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="F27" s="11" t="inlineStr">
+      <c r="F28" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="15" t="n"/>
-      <c r="B28" s="16" t="n"/>
-      <c r="C28" s="16" t="n"/>
-      <c r="D28" s="16" t="n"/>
-      <c r="E28" s="16" t="n">
+    <row r="29">
+      <c r="A29" s="15" t="n"/>
+      <c r="B29" s="16" t="n"/>
+      <c r="C29" s="16" t="n"/>
+      <c r="D29" s="16" t="n"/>
+      <c r="E29" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="F28" s="16" t="inlineStr">
+      <c r="F29" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G28" s="15" t="n"/>
-      <c r="H28" s="15" t="n"/>
-      <c r="I28" s="15" t="n"/>
-      <c r="J28" s="15" t="n"/>
-      <c r="K28" s="15" t="n"/>
-      <c r="L28" s="15" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="n">
+      <c r="G29" s="15" t="n"/>
+      <c r="H29" s="15" t="n"/>
+      <c r="I29" s="15" t="n"/>
+      <c r="J29" s="15" t="n"/>
+      <c r="K29" s="15" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B29" s="11" t="n">
+      <c r="B30" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C29" s="11" t="n">
+      <c r="C30" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D29" s="11" t="n">
+      <c r="D30" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E29" s="11" t="n">
+      <c r="E30" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="11" t="inlineStr">
+      <c r="F30" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="B30" s="11" t="n"/>
-      <c r="C30" s="11" t="n"/>
-      <c r="D30" s="11" t="n"/>
-      <c r="E30" s="11" t="n">
+    <row r="31">
+      <c r="B31" s="11" t="n"/>
+      <c r="C31" s="11" t="n"/>
+      <c r="D31" s="11" t="n"/>
+      <c r="E31" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F30" s="11" t="inlineStr">
+      <c r="F31" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="B31" s="16" t="n"/>
-      <c r="C31" s="16" t="n"/>
-      <c r="D31" s="16" t="n"/>
-      <c r="E31" s="16" t="n">
+    <row r="32">
+      <c r="B32" s="16" t="n"/>
+      <c r="C32" s="16" t="n"/>
+      <c r="D32" s="16" t="n"/>
+      <c r="E32" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F31" s="16" t="inlineStr">
+      <c r="F32" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G31" s="15" t="n"/>
-      <c r="H31" s="15" t="n"/>
-      <c r="I31" s="15" t="n"/>
-      <c r="J31" s="15" t="n"/>
-      <c r="K31" s="15" t="n"/>
-      <c r="L31" s="15" t="n"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="11" t="n">
+      <c r="G32" s="15" t="n"/>
+      <c r="H32" s="15" t="n"/>
+      <c r="I32" s="15" t="n"/>
+      <c r="J32" s="15" t="n"/>
+      <c r="K32" s="15" t="n"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C32" s="11" t="n">
+      <c r="C33" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="11" t="n">
+      <c r="D33" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E32" s="11" t="n">
+      <c r="E33" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F32" s="11" t="inlineStr">
+      <c r="F33" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="B33" s="11" t="n"/>
-      <c r="C33" s="11" t="n"/>
-      <c r="D33" s="11" t="n"/>
-      <c r="E33" s="11" t="n">
+    <row r="34">
+      <c r="B34" s="11" t="n"/>
+      <c r="C34" s="11" t="n"/>
+      <c r="D34" s="11" t="n"/>
+      <c r="E34" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="F33" s="11" t="inlineStr">
+      <c r="F34" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="B34" s="16" t="n"/>
-      <c r="C34" s="16" t="n"/>
-      <c r="D34" s="16" t="n"/>
-      <c r="E34" s="16" t="n">
+    <row r="35">
+      <c r="B35" s="16" t="n"/>
+      <c r="C35" s="16" t="n"/>
+      <c r="D35" s="16" t="n"/>
+      <c r="E35" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="F34" s="16" t="inlineStr">
+      <c r="F35" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G34" s="15" t="n"/>
-      <c r="H34" s="15" t="n"/>
-      <c r="I34" s="15" t="n"/>
-      <c r="J34" s="15" t="n"/>
-      <c r="K34" s="15" t="n"/>
-      <c r="L34" s="15" t="n"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="11" t="n">
+      <c r="G35" s="15" t="n"/>
+      <c r="H35" s="15" t="n"/>
+      <c r="I35" s="15" t="n"/>
+      <c r="J35" s="15" t="n"/>
+      <c r="K35" s="15" t="n"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C35" s="11" t="n">
+      <c r="C36" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D35" s="11" t="n">
+      <c r="D36" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E35" s="11" t="n">
+      <c r="E36" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F35" s="11" t="inlineStr">
+      <c r="F36" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="B36" s="11" t="n"/>
-      <c r="C36" s="11" t="n"/>
-      <c r="D36" s="11" t="n"/>
-      <c r="E36" s="11" t="n">
+    <row r="37">
+      <c r="B37" s="11" t="n"/>
+      <c r="C37" s="11" t="n"/>
+      <c r="D37" s="11" t="n"/>
+      <c r="E37" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="F36" s="11" t="inlineStr">
+      <c r="F37" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="15" t="n"/>
-      <c r="B37" s="16" t="n"/>
-      <c r="C37" s="16" t="n"/>
-      <c r="D37" s="16" t="n"/>
-      <c r="E37" s="16" t="n">
+    <row r="38">
+      <c r="A38" s="15" t="n"/>
+      <c r="B38" s="16" t="n"/>
+      <c r="C38" s="16" t="n"/>
+      <c r="D38" s="16" t="n"/>
+      <c r="E38" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="F37" s="16" t="inlineStr">
+      <c r="F38" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G37" s="15" t="n"/>
-      <c r="H37" s="15" t="n"/>
-      <c r="I37" s="15" t="n"/>
-      <c r="J37" s="15" t="n"/>
-      <c r="K37" s="15" t="n"/>
-      <c r="L37" s="15" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="11" t="n">
+      <c r="G38" s="15" t="n"/>
+      <c r="H38" s="15" t="n"/>
+      <c r="I38" s="15" t="n"/>
+      <c r="J38" s="15" t="n"/>
+      <c r="K38" s="15" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B38" s="11" t="n">
+      <c r="B39" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C38" s="11" t="n">
+      <c r="C39" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D38" s="11" t="n">
+      <c r="D39" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E38" s="11" t="n">
+      <c r="E39" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F38" s="11" t="inlineStr">
+      <c r="F39" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="B39" s="11" t="n"/>
-      <c r="C39" s="11" t="n"/>
-      <c r="D39" s="11" t="n"/>
-      <c r="E39" s="11" t="n">
+    <row r="40">
+      <c r="B40" s="11" t="n"/>
+      <c r="C40" s="11" t="n"/>
+      <c r="D40" s="11" t="n"/>
+      <c r="E40" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="F39" s="11" t="inlineStr">
+      <c r="F40" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="B40" s="16" t="n"/>
-      <c r="C40" s="16" t="n"/>
-      <c r="D40" s="16" t="n"/>
-      <c r="E40" s="16" t="n">
+    <row r="41">
+      <c r="B41" s="16" t="n"/>
+      <c r="C41" s="16" t="n"/>
+      <c r="D41" s="16" t="n"/>
+      <c r="E41" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="F40" s="16" t="inlineStr">
+      <c r="F41" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G40" s="15" t="n"/>
-      <c r="H40" s="15" t="n"/>
-      <c r="I40" s="15" t="n"/>
-      <c r="J40" s="15" t="n"/>
-      <c r="K40" s="15" t="n"/>
-      <c r="L40" s="15" t="n"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="11" t="n">
+      <c r="G41" s="15" t="n"/>
+      <c r="H41" s="15" t="n"/>
+      <c r="I41" s="15" t="n"/>
+      <c r="J41" s="15" t="n"/>
+      <c r="K41" s="15" t="n"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C41" s="11" t="n">
+      <c r="C42" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D41" s="11" t="n">
+      <c r="D42" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E41" s="11" t="n">
+      <c r="E42" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F41" s="11" t="inlineStr">
+      <c r="F42" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="B42" s="11" t="n"/>
-      <c r="C42" s="11" t="n"/>
-      <c r="D42" s="11" t="n"/>
-      <c r="E42" s="11" t="n">
+    <row r="43">
+      <c r="B43" s="11" t="n"/>
+      <c r="C43" s="11" t="n"/>
+      <c r="D43" s="11" t="n"/>
+      <c r="E43" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="F42" s="11" t="inlineStr">
+      <c r="F43" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="B43" s="16" t="n"/>
-      <c r="C43" s="16" t="n"/>
-      <c r="D43" s="16" t="n"/>
-      <c r="E43" s="16" t="n">
+    <row r="44">
+      <c r="B44" s="16" t="n"/>
+      <c r="C44" s="16" t="n"/>
+      <c r="D44" s="16" t="n"/>
+      <c r="E44" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="F43" s="16" t="inlineStr">
+      <c r="F44" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G43" s="15" t="n"/>
-      <c r="H43" s="15" t="n"/>
-      <c r="I43" s="15" t="n"/>
-      <c r="J43" s="15" t="n"/>
-      <c r="K43" s="15" t="n"/>
-      <c r="L43" s="15" t="n"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="11" t="n">
+      <c r="G44" s="15" t="n"/>
+      <c r="H44" s="15" t="n"/>
+      <c r="I44" s="15" t="n"/>
+      <c r="J44" s="15" t="n"/>
+      <c r="K44" s="15" t="n"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C44" s="11" t="n">
+      <c r="C45" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D44" s="11" t="n">
+      <c r="D45" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E44" s="11" t="n">
+      <c r="E45" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F44" s="11" t="inlineStr">
+      <c r="F45" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="B45" s="11" t="n"/>
-      <c r="C45" s="11" t="n"/>
-      <c r="D45" s="11" t="n"/>
-      <c r="E45" s="11" t="n">
+    <row r="46">
+      <c r="B46" s="11" t="n"/>
+      <c r="C46" s="11" t="n"/>
+      <c r="D46" s="11" t="n"/>
+      <c r="E46" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="F45" s="11" t="inlineStr">
+      <c r="F46" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="15" t="n"/>
-      <c r="B46" s="16" t="n"/>
-      <c r="C46" s="16" t="n"/>
-      <c r="D46" s="16" t="n"/>
-      <c r="E46" s="16" t="n">
+    <row r="47">
+      <c r="A47" s="15" t="n"/>
+      <c r="B47" s="16" t="n"/>
+      <c r="C47" s="16" t="n"/>
+      <c r="D47" s="16" t="n"/>
+      <c r="E47" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="F46" s="16" t="inlineStr">
+      <c r="F47" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G46" s="15" t="n"/>
-      <c r="H46" s="15" t="n"/>
-      <c r="I46" s="15" t="n"/>
-      <c r="J46" s="15" t="n"/>
-      <c r="K46" s="15" t="n"/>
-      <c r="L46" s="15" t="n"/>
+      <c r="G47" s="15" t="n"/>
+      <c r="H47" s="15" t="n"/>
+      <c r="I47" s="15" t="n"/>
+      <c r="J47" s="15" t="n"/>
+      <c r="K47" s="15" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L1:M1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/howell6.xlsx
+++ b/howell6.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 06, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 08, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 45</t>
+          <t>Name 73</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 26</t>
+          <t>Name 58</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 81</t>
+          <t>Name 18</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 38</t>
+          <t>Name 86</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 15</t>
+          <t>Name 36</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 19</t>
+          <t>Name 67</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 24</t>
+          <t>Name 55</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 76</t>
+          <t>Name 74</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 63</t>
+          <t>Name 44</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 29</t>
+          <t>Name 21</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 37</t>
+          <t>Name 35</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 68</t>
+          <t>Name 19</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -1004,29 +1004,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <f>'By Round'!B3</f>
         <v/>
       </c>
-      <c r="D3">
+      <c r="D3" s="11">
         <f>'By Round'!C3</f>
         <v/>
       </c>
-      <c r="E3">
+      <c r="E3" s="11">
         <f>'By Round'!D3</f>
         <v/>
       </c>
-      <c r="F3" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F3" s="11">
+        <f>IF(ISBLANK('By Round'!F3),"",'By Round'!F3)</f>
+        <v/>
       </c>
       <c r="G3">
         <f>IF(ISBLANK('By Round'!G3),"",'By Round'!G3)</f>
@@ -1114,26 +1113,25 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4">
+      <c r="B4" s="11">
         <f>'By Round'!A21</f>
         <v/>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <f>'By Round'!B27</f>
         <v/>
       </c>
-      <c r="D4">
+      <c r="D4" s="11">
         <f>'By Round'!C27</f>
         <v/>
       </c>
-      <c r="E4">
+      <c r="E4" s="11">
         <f>'By Round'!D27</f>
         <v/>
       </c>
-      <c r="F4" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F4" s="11">
+        <f>IF(ISBLANK('By Round'!F27),"",'By Round'!F27)</f>
+        <v/>
       </c>
       <c r="G4">
         <f>IF(ISBLANK('By Round'!G27),"",'By Round'!G27)</f>
@@ -1222,26 +1220,25 @@
     </row>
     <row r="5">
       <c r="A5" s="15" t="n"/>
-      <c r="B5" s="15">
+      <c r="B5" s="16">
         <f>'By Round'!A30</f>
         <v/>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="16">
         <f>'By Round'!B36</f>
         <v/>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="16">
         <f>'By Round'!C36</f>
         <v/>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="16">
         <f>'By Round'!D36</f>
         <v/>
       </c>
-      <c r="F5" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F5" s="16">
+        <f>IF(ISBLANK('By Round'!F36),"",'By Round'!F36)</f>
+        <v/>
       </c>
       <c r="G5" s="15">
         <f>IF(ISBLANK('By Round'!G36),"",'By Round'!G36)</f>
@@ -1329,48 +1326,47 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C6">
+      <c r="C6" s="11">
         <f>'By Round'!B3</f>
         <v/>
       </c>
-      <c r="D6">
+      <c r="D6" s="11">
         <f>'By Round'!C3</f>
         <v/>
       </c>
-      <c r="E6">
+      <c r="E6" s="11">
         <f>'By Round'!D3</f>
         <v/>
       </c>
-      <c r="F6" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F6" s="11">
+        <f>IF(ISBLANK('By Round'!F4),"",'By Round'!F4)</f>
+        <v/>
       </c>
       <c r="G6">
-        <f>IF(ISBLANK('By Round'!G3),"",'By Round'!G3)</f>
+        <f>IF(ISBLANK('By Round'!G4),"",'By Round'!G4)</f>
         <v/>
       </c>
       <c r="H6">
-        <f>IF(ISBLANK('By Round'!H3),"",'By Round'!H3)</f>
+        <f>IF(ISBLANK('By Round'!H4),"",'By Round'!H4)</f>
         <v/>
       </c>
       <c r="I6">
-        <f>IF(ISBLANK('By Round'!I3),"",'By Round'!I3)</f>
+        <f>IF(ISBLANK('By Round'!I4),"",'By Round'!I4)</f>
         <v/>
       </c>
       <c r="J6">
-        <f>IF(ISBLANK('By Round'!J3),"",'By Round'!J3)</f>
+        <f>IF(ISBLANK('By Round'!J4),"",'By Round'!J4)</f>
         <v/>
       </c>
       <c r="K6">
-        <f>IF(ISBLANK('By Round'!K3),"",'By Round'!K3)</f>
+        <f>IF(ISBLANK('By Round'!K4),"",'By Round'!K4)</f>
         <v/>
       </c>
       <c r="L6" s="12">
@@ -1439,45 +1435,44 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7">
+      <c r="B7" s="11">
         <f>'By Round'!A21</f>
         <v/>
       </c>
-      <c r="C7">
+      <c r="C7" s="11">
         <f>'By Round'!B27</f>
         <v/>
       </c>
-      <c r="D7">
+      <c r="D7" s="11">
         <f>'By Round'!C27</f>
         <v/>
       </c>
-      <c r="E7">
+      <c r="E7" s="11">
         <f>'By Round'!D27</f>
         <v/>
       </c>
-      <c r="F7" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F7" s="11">
+        <f>IF(ISBLANK('By Round'!F28),"",'By Round'!F28)</f>
+        <v/>
       </c>
       <c r="G7">
-        <f>IF(ISBLANK('By Round'!G27),"",'By Round'!G27)</f>
+        <f>IF(ISBLANK('By Round'!G28),"",'By Round'!G28)</f>
         <v/>
       </c>
       <c r="H7">
-        <f>IF(ISBLANK('By Round'!H27),"",'By Round'!H27)</f>
+        <f>IF(ISBLANK('By Round'!H28),"",'By Round'!H28)</f>
         <v/>
       </c>
       <c r="I7">
-        <f>IF(ISBLANK('By Round'!I27),"",'By Round'!I27)</f>
+        <f>IF(ISBLANK('By Round'!I28),"",'By Round'!I28)</f>
         <v/>
       </c>
       <c r="J7">
-        <f>IF(ISBLANK('By Round'!J27),"",'By Round'!J27)</f>
+        <f>IF(ISBLANK('By Round'!J28),"",'By Round'!J28)</f>
         <v/>
       </c>
       <c r="K7">
-        <f>IF(ISBLANK('By Round'!K27),"",'By Round'!K27)</f>
+        <f>IF(ISBLANK('By Round'!K28),"",'By Round'!K28)</f>
         <v/>
       </c>
       <c r="L7" s="12">
@@ -1547,45 +1542,44 @@
     </row>
     <row r="8">
       <c r="A8" s="15" t="n"/>
-      <c r="B8" s="15">
+      <c r="B8" s="16">
         <f>'By Round'!A30</f>
         <v/>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="16">
         <f>'By Round'!B36</f>
         <v/>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="16">
         <f>'By Round'!C36</f>
         <v/>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="16">
         <f>'By Round'!D36</f>
         <v/>
       </c>
-      <c r="F8" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F8" s="16">
+        <f>IF(ISBLANK('By Round'!F37),"",'By Round'!F37)</f>
+        <v/>
       </c>
       <c r="G8" s="15">
-        <f>IF(ISBLANK('By Round'!G36),"",'By Round'!G36)</f>
+        <f>IF(ISBLANK('By Round'!G37),"",'By Round'!G37)</f>
         <v/>
       </c>
       <c r="H8" s="15">
-        <f>IF(ISBLANK('By Round'!H36),"",'By Round'!H36)</f>
+        <f>IF(ISBLANK('By Round'!H37),"",'By Round'!H37)</f>
         <v/>
       </c>
       <c r="I8" s="15">
-        <f>IF(ISBLANK('By Round'!I36),"",'By Round'!I36)</f>
+        <f>IF(ISBLANK('By Round'!I37),"",'By Round'!I37)</f>
         <v/>
       </c>
       <c r="J8" s="15">
-        <f>IF(ISBLANK('By Round'!J36),"",'By Round'!J36)</f>
+        <f>IF(ISBLANK('By Round'!J37),"",'By Round'!J37)</f>
         <v/>
       </c>
       <c r="K8" s="15">
-        <f>IF(ISBLANK('By Round'!K36),"",'By Round'!K36)</f>
+        <f>IF(ISBLANK('By Round'!K37),"",'By Round'!K37)</f>
         <v/>
       </c>
       <c r="L8" s="17">
@@ -1654,48 +1648,47 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C9">
+      <c r="C9" s="11">
         <f>'By Round'!B3</f>
         <v/>
       </c>
-      <c r="D9">
+      <c r="D9" s="11">
         <f>'By Round'!C3</f>
         <v/>
       </c>
-      <c r="E9">
+      <c r="E9" s="11">
         <f>'By Round'!D3</f>
         <v/>
       </c>
-      <c r="F9" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F9" s="11">
+        <f>IF(ISBLANK('By Round'!F5),"",'By Round'!F5)</f>
+        <v/>
       </c>
       <c r="G9">
-        <f>IF(ISBLANK('By Round'!G3),"",'By Round'!G3)</f>
+        <f>IF(ISBLANK('By Round'!G5),"",'By Round'!G5)</f>
         <v/>
       </c>
       <c r="H9">
-        <f>IF(ISBLANK('By Round'!H3),"",'By Round'!H3)</f>
+        <f>IF(ISBLANK('By Round'!H5),"",'By Round'!H5)</f>
         <v/>
       </c>
       <c r="I9">
-        <f>IF(ISBLANK('By Round'!I3),"",'By Round'!I3)</f>
+        <f>IF(ISBLANK('By Round'!I5),"",'By Round'!I5)</f>
         <v/>
       </c>
       <c r="J9">
-        <f>IF(ISBLANK('By Round'!J3),"",'By Round'!J3)</f>
+        <f>IF(ISBLANK('By Round'!J5),"",'By Round'!J5)</f>
         <v/>
       </c>
       <c r="K9">
-        <f>IF(ISBLANK('By Round'!K3),"",'By Round'!K3)</f>
+        <f>IF(ISBLANK('By Round'!K5),"",'By Round'!K5)</f>
         <v/>
       </c>
       <c r="L9" s="12">
@@ -1764,45 +1757,44 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10">
+      <c r="B10" s="11">
         <f>'By Round'!A21</f>
         <v/>
       </c>
-      <c r="C10">
+      <c r="C10" s="11">
         <f>'By Round'!B27</f>
         <v/>
       </c>
-      <c r="D10">
+      <c r="D10" s="11">
         <f>'By Round'!C27</f>
         <v/>
       </c>
-      <c r="E10">
+      <c r="E10" s="11">
         <f>'By Round'!D27</f>
         <v/>
       </c>
-      <c r="F10" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F10" s="11">
+        <f>IF(ISBLANK('By Round'!F29),"",'By Round'!F29)</f>
+        <v/>
       </c>
       <c r="G10">
-        <f>IF(ISBLANK('By Round'!G27),"",'By Round'!G27)</f>
+        <f>IF(ISBLANK('By Round'!G29),"",'By Round'!G29)</f>
         <v/>
       </c>
       <c r="H10">
-        <f>IF(ISBLANK('By Round'!H27),"",'By Round'!H27)</f>
+        <f>IF(ISBLANK('By Round'!H29),"",'By Round'!H29)</f>
         <v/>
       </c>
       <c r="I10">
-        <f>IF(ISBLANK('By Round'!I27),"",'By Round'!I27)</f>
+        <f>IF(ISBLANK('By Round'!I29),"",'By Round'!I29)</f>
         <v/>
       </c>
       <c r="J10">
-        <f>IF(ISBLANK('By Round'!J27),"",'By Round'!J27)</f>
+        <f>IF(ISBLANK('By Round'!J29),"",'By Round'!J29)</f>
         <v/>
       </c>
       <c r="K10">
-        <f>IF(ISBLANK('By Round'!K27),"",'By Round'!K27)</f>
+        <f>IF(ISBLANK('By Round'!K29),"",'By Round'!K29)</f>
         <v/>
       </c>
       <c r="L10" s="12">
@@ -1872,45 +1864,44 @@
     </row>
     <row r="11">
       <c r="A11" s="15" t="n"/>
-      <c r="B11" s="15">
+      <c r="B11" s="16">
         <f>'By Round'!A30</f>
         <v/>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="16">
         <f>'By Round'!B36</f>
         <v/>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="16">
         <f>'By Round'!C36</f>
         <v/>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="16">
         <f>'By Round'!D36</f>
         <v/>
       </c>
-      <c r="F11" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F11" s="16">
+        <f>IF(ISBLANK('By Round'!F38),"",'By Round'!F38)</f>
+        <v/>
       </c>
       <c r="G11" s="15">
-        <f>IF(ISBLANK('By Round'!G36),"",'By Round'!G36)</f>
+        <f>IF(ISBLANK('By Round'!G38),"",'By Round'!G38)</f>
         <v/>
       </c>
       <c r="H11" s="15">
-        <f>IF(ISBLANK('By Round'!H36),"",'By Round'!H36)</f>
+        <f>IF(ISBLANK('By Round'!H38),"",'By Round'!H38)</f>
         <v/>
       </c>
       <c r="I11" s="15">
-        <f>IF(ISBLANK('By Round'!I36),"",'By Round'!I36)</f>
+        <f>IF(ISBLANK('By Round'!I38),"",'By Round'!I38)</f>
         <v/>
       </c>
       <c r="J11" s="15">
-        <f>IF(ISBLANK('By Round'!J36),"",'By Round'!J36)</f>
+        <f>IF(ISBLANK('By Round'!J38),"",'By Round'!J38)</f>
         <v/>
       </c>
       <c r="K11" s="15">
-        <f>IF(ISBLANK('By Round'!K36),"",'By Round'!K36)</f>
+        <f>IF(ISBLANK('By Round'!K38),"",'By Round'!K38)</f>
         <v/>
       </c>
       <c r="L11" s="17">
@@ -1979,29 +1970,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C12">
+      <c r="C12" s="11">
         <f>'By Round'!B6</f>
         <v/>
       </c>
-      <c r="D12">
+      <c r="D12" s="11">
         <f>'By Round'!C6</f>
         <v/>
       </c>
-      <c r="E12">
+      <c r="E12" s="11">
         <f>'By Round'!D6</f>
         <v/>
       </c>
-      <c r="F12" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F12" s="11">
+        <f>IF(ISBLANK('By Round'!F6),"",'By Round'!F6)</f>
+        <v/>
       </c>
       <c r="G12">
         <f>IF(ISBLANK('By Round'!G6),"",'By Round'!G6)</f>
@@ -2089,26 +2079,25 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13">
+      <c r="B13" s="11">
         <f>'By Round'!A12</f>
         <v/>
       </c>
-      <c r="C13">
+      <c r="C13" s="11">
         <f>'By Round'!B12</f>
         <v/>
       </c>
-      <c r="D13">
+      <c r="D13" s="11">
         <f>'By Round'!C12</f>
         <v/>
       </c>
-      <c r="E13">
+      <c r="E13" s="11">
         <f>'By Round'!D12</f>
         <v/>
       </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F13" s="11">
+        <f>IF(ISBLANK('By Round'!F12),"",'By Round'!F12)</f>
+        <v/>
       </c>
       <c r="G13">
         <f>IF(ISBLANK('By Round'!G12),"",'By Round'!G12)</f>
@@ -2197,26 +2186,25 @@
     </row>
     <row r="14">
       <c r="A14" s="15" t="n"/>
-      <c r="B14" s="15">
+      <c r="B14" s="16">
         <f>'By Round'!A21</f>
         <v/>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="16">
         <f>'By Round'!B24</f>
         <v/>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="16">
         <f>'By Round'!C24</f>
         <v/>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="16">
         <f>'By Round'!D24</f>
         <v/>
       </c>
-      <c r="F14" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F14" s="16">
+        <f>IF(ISBLANK('By Round'!F24),"",'By Round'!F24)</f>
+        <v/>
       </c>
       <c r="G14" s="15">
         <f>IF(ISBLANK('By Round'!G24),"",'By Round'!G24)</f>
@@ -2304,48 +2292,47 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C15">
+      <c r="C15" s="11">
         <f>'By Round'!B6</f>
         <v/>
       </c>
-      <c r="D15">
+      <c r="D15" s="11">
         <f>'By Round'!C6</f>
         <v/>
       </c>
-      <c r="E15">
+      <c r="E15" s="11">
         <f>'By Round'!D6</f>
         <v/>
       </c>
-      <c r="F15" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F15" s="11">
+        <f>IF(ISBLANK('By Round'!F7),"",'By Round'!F7)</f>
+        <v/>
       </c>
       <c r="G15">
-        <f>IF(ISBLANK('By Round'!G6),"",'By Round'!G6)</f>
+        <f>IF(ISBLANK('By Round'!G7),"",'By Round'!G7)</f>
         <v/>
       </c>
       <c r="H15">
-        <f>IF(ISBLANK('By Round'!H6),"",'By Round'!H6)</f>
+        <f>IF(ISBLANK('By Round'!H7),"",'By Round'!H7)</f>
         <v/>
       </c>
       <c r="I15">
-        <f>IF(ISBLANK('By Round'!I6),"",'By Round'!I6)</f>
+        <f>IF(ISBLANK('By Round'!I7),"",'By Round'!I7)</f>
         <v/>
       </c>
       <c r="J15">
-        <f>IF(ISBLANK('By Round'!J6),"",'By Round'!J6)</f>
+        <f>IF(ISBLANK('By Round'!J7),"",'By Round'!J7)</f>
         <v/>
       </c>
       <c r="K15">
-        <f>IF(ISBLANK('By Round'!K6),"",'By Round'!K6)</f>
+        <f>IF(ISBLANK('By Round'!K7),"",'By Round'!K7)</f>
         <v/>
       </c>
       <c r="L15" s="12">
@@ -2414,45 +2401,44 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16">
+      <c r="B16" s="11">
         <f>'By Round'!A12</f>
         <v/>
       </c>
-      <c r="C16">
+      <c r="C16" s="11">
         <f>'By Round'!B12</f>
         <v/>
       </c>
-      <c r="D16">
+      <c r="D16" s="11">
         <f>'By Round'!C12</f>
         <v/>
       </c>
-      <c r="E16">
+      <c r="E16" s="11">
         <f>'By Round'!D12</f>
         <v/>
       </c>
-      <c r="F16" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F16" s="11">
+        <f>IF(ISBLANK('By Round'!F13),"",'By Round'!F13)</f>
+        <v/>
       </c>
       <c r="G16">
-        <f>IF(ISBLANK('By Round'!G12),"",'By Round'!G12)</f>
+        <f>IF(ISBLANK('By Round'!G13),"",'By Round'!G13)</f>
         <v/>
       </c>
       <c r="H16">
-        <f>IF(ISBLANK('By Round'!H12),"",'By Round'!H12)</f>
+        <f>IF(ISBLANK('By Round'!H13),"",'By Round'!H13)</f>
         <v/>
       </c>
       <c r="I16">
-        <f>IF(ISBLANK('By Round'!I12),"",'By Round'!I12)</f>
+        <f>IF(ISBLANK('By Round'!I13),"",'By Round'!I13)</f>
         <v/>
       </c>
       <c r="J16">
-        <f>IF(ISBLANK('By Round'!J12),"",'By Round'!J12)</f>
+        <f>IF(ISBLANK('By Round'!J13),"",'By Round'!J13)</f>
         <v/>
       </c>
       <c r="K16">
-        <f>IF(ISBLANK('By Round'!K12),"",'By Round'!K12)</f>
+        <f>IF(ISBLANK('By Round'!K13),"",'By Round'!K13)</f>
         <v/>
       </c>
       <c r="L16" s="12">
@@ -2522,45 +2508,44 @@
     </row>
     <row r="17">
       <c r="A17" s="15" t="n"/>
-      <c r="B17" s="15">
+      <c r="B17" s="16">
         <f>'By Round'!A21</f>
         <v/>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="16">
         <f>'By Round'!B24</f>
         <v/>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="16">
         <f>'By Round'!C24</f>
         <v/>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="16">
         <f>'By Round'!D24</f>
         <v/>
       </c>
-      <c r="F17" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F17" s="16">
+        <f>IF(ISBLANK('By Round'!F25),"",'By Round'!F25)</f>
+        <v/>
       </c>
       <c r="G17" s="15">
-        <f>IF(ISBLANK('By Round'!G24),"",'By Round'!G24)</f>
+        <f>IF(ISBLANK('By Round'!G25),"",'By Round'!G25)</f>
         <v/>
       </c>
       <c r="H17" s="15">
-        <f>IF(ISBLANK('By Round'!H24),"",'By Round'!H24)</f>
+        <f>IF(ISBLANK('By Round'!H25),"",'By Round'!H25)</f>
         <v/>
       </c>
       <c r="I17" s="15">
-        <f>IF(ISBLANK('By Round'!I24),"",'By Round'!I24)</f>
+        <f>IF(ISBLANK('By Round'!I25),"",'By Round'!I25)</f>
         <v/>
       </c>
       <c r="J17" s="15">
-        <f>IF(ISBLANK('By Round'!J24),"",'By Round'!J24)</f>
+        <f>IF(ISBLANK('By Round'!J25),"",'By Round'!J25)</f>
         <v/>
       </c>
       <c r="K17" s="15">
-        <f>IF(ISBLANK('By Round'!K24),"",'By Round'!K24)</f>
+        <f>IF(ISBLANK('By Round'!K25),"",'By Round'!K25)</f>
         <v/>
       </c>
       <c r="L17" s="17">
@@ -2629,48 +2614,47 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C18">
+      <c r="C18" s="11">
         <f>'By Round'!B6</f>
         <v/>
       </c>
-      <c r="D18">
+      <c r="D18" s="11">
         <f>'By Round'!C6</f>
         <v/>
       </c>
-      <c r="E18">
+      <c r="E18" s="11">
         <f>'By Round'!D6</f>
         <v/>
       </c>
-      <c r="F18" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F18" s="11">
+        <f>IF(ISBLANK('By Round'!F8),"",'By Round'!F8)</f>
+        <v/>
       </c>
       <c r="G18">
-        <f>IF(ISBLANK('By Round'!G6),"",'By Round'!G6)</f>
+        <f>IF(ISBLANK('By Round'!G8),"",'By Round'!G8)</f>
         <v/>
       </c>
       <c r="H18">
-        <f>IF(ISBLANK('By Round'!H6),"",'By Round'!H6)</f>
+        <f>IF(ISBLANK('By Round'!H8),"",'By Round'!H8)</f>
         <v/>
       </c>
       <c r="I18">
-        <f>IF(ISBLANK('By Round'!I6),"",'By Round'!I6)</f>
+        <f>IF(ISBLANK('By Round'!I8),"",'By Round'!I8)</f>
         <v/>
       </c>
       <c r="J18">
-        <f>IF(ISBLANK('By Round'!J6),"",'By Round'!J6)</f>
+        <f>IF(ISBLANK('By Round'!J8),"",'By Round'!J8)</f>
         <v/>
       </c>
       <c r="K18">
-        <f>IF(ISBLANK('By Round'!K6),"",'By Round'!K6)</f>
+        <f>IF(ISBLANK('By Round'!K8),"",'By Round'!K8)</f>
         <v/>
       </c>
       <c r="L18" s="12">
@@ -2739,45 +2723,44 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19">
+      <c r="B19" s="11">
         <f>'By Round'!A12</f>
         <v/>
       </c>
-      <c r="C19">
+      <c r="C19" s="11">
         <f>'By Round'!B12</f>
         <v/>
       </c>
-      <c r="D19">
+      <c r="D19" s="11">
         <f>'By Round'!C12</f>
         <v/>
       </c>
-      <c r="E19">
+      <c r="E19" s="11">
         <f>'By Round'!D12</f>
         <v/>
       </c>
-      <c r="F19" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F19" s="11">
+        <f>IF(ISBLANK('By Round'!F14),"",'By Round'!F14)</f>
+        <v/>
       </c>
       <c r="G19">
-        <f>IF(ISBLANK('By Round'!G12),"",'By Round'!G12)</f>
+        <f>IF(ISBLANK('By Round'!G14),"",'By Round'!G14)</f>
         <v/>
       </c>
       <c r="H19">
-        <f>IF(ISBLANK('By Round'!H12),"",'By Round'!H12)</f>
+        <f>IF(ISBLANK('By Round'!H14),"",'By Round'!H14)</f>
         <v/>
       </c>
       <c r="I19">
-        <f>IF(ISBLANK('By Round'!I12),"",'By Round'!I12)</f>
+        <f>IF(ISBLANK('By Round'!I14),"",'By Round'!I14)</f>
         <v/>
       </c>
       <c r="J19">
-        <f>IF(ISBLANK('By Round'!J12),"",'By Round'!J12)</f>
+        <f>IF(ISBLANK('By Round'!J14),"",'By Round'!J14)</f>
         <v/>
       </c>
       <c r="K19">
-        <f>IF(ISBLANK('By Round'!K12),"",'By Round'!K12)</f>
+        <f>IF(ISBLANK('By Round'!K14),"",'By Round'!K14)</f>
         <v/>
       </c>
       <c r="L19" s="12">
@@ -2847,45 +2830,44 @@
     </row>
     <row r="20">
       <c r="A20" s="15" t="n"/>
-      <c r="B20" s="15">
+      <c r="B20" s="16">
         <f>'By Round'!A21</f>
         <v/>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="16">
         <f>'By Round'!B24</f>
         <v/>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="16">
         <f>'By Round'!C24</f>
         <v/>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="16">
         <f>'By Round'!D24</f>
         <v/>
       </c>
-      <c r="F20" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F20" s="16">
+        <f>IF(ISBLANK('By Round'!F26),"",'By Round'!F26)</f>
+        <v/>
       </c>
       <c r="G20" s="15">
-        <f>IF(ISBLANK('By Round'!G24),"",'By Round'!G24)</f>
+        <f>IF(ISBLANK('By Round'!G26),"",'By Round'!G26)</f>
         <v/>
       </c>
       <c r="H20" s="15">
-        <f>IF(ISBLANK('By Round'!H24),"",'By Round'!H24)</f>
+        <f>IF(ISBLANK('By Round'!H26),"",'By Round'!H26)</f>
         <v/>
       </c>
       <c r="I20" s="15">
-        <f>IF(ISBLANK('By Round'!I24),"",'By Round'!I24)</f>
+        <f>IF(ISBLANK('By Round'!I26),"",'By Round'!I26)</f>
         <v/>
       </c>
       <c r="J20" s="15">
-        <f>IF(ISBLANK('By Round'!J24),"",'By Round'!J24)</f>
+        <f>IF(ISBLANK('By Round'!J26),"",'By Round'!J26)</f>
         <v/>
       </c>
       <c r="K20" s="15">
-        <f>IF(ISBLANK('By Round'!K24),"",'By Round'!K24)</f>
+        <f>IF(ISBLANK('By Round'!K26),"",'By Round'!K26)</f>
         <v/>
       </c>
       <c r="L20" s="17">
@@ -2954,29 +2936,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="11">
         <f>'By Round'!A12</f>
         <v/>
       </c>
-      <c r="C21">
+      <c r="C21" s="11">
         <f>'By Round'!B15</f>
         <v/>
       </c>
-      <c r="D21">
+      <c r="D21" s="11">
         <f>'By Round'!C15</f>
         <v/>
       </c>
-      <c r="E21">
+      <c r="E21" s="11">
         <f>'By Round'!D15</f>
         <v/>
       </c>
-      <c r="F21" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F21" s="11">
+        <f>IF(ISBLANK('By Round'!F15),"",'By Round'!F15)</f>
+        <v/>
       </c>
       <c r="G21">
         <f>IF(ISBLANK('By Round'!G15),"",'By Round'!G15)</f>
@@ -3064,26 +3045,25 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22">
+      <c r="B22" s="11">
         <f>'By Round'!A21</f>
         <v/>
       </c>
-      <c r="C22">
+      <c r="C22" s="11">
         <f>'By Round'!B21</f>
         <v/>
       </c>
-      <c r="D22">
+      <c r="D22" s="11">
         <f>'By Round'!C21</f>
         <v/>
       </c>
-      <c r="E22">
+      <c r="E22" s="11">
         <f>'By Round'!D21</f>
         <v/>
       </c>
-      <c r="F22" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F22" s="11">
+        <f>IF(ISBLANK('By Round'!F21),"",'By Round'!F21)</f>
+        <v/>
       </c>
       <c r="G22">
         <f>IF(ISBLANK('By Round'!G21),"",'By Round'!G21)</f>
@@ -3172,26 +3152,25 @@
     </row>
     <row r="23">
       <c r="A23" s="15" t="n"/>
-      <c r="B23" s="15">
+      <c r="B23" s="16">
         <f>'By Round'!A30</f>
         <v/>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="16">
         <f>'By Round'!B33</f>
         <v/>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="16">
         <f>'By Round'!C33</f>
         <v/>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="16">
         <f>'By Round'!D33</f>
         <v/>
       </c>
-      <c r="F23" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F23" s="16">
+        <f>IF(ISBLANK('By Round'!F33),"",'By Round'!F33)</f>
+        <v/>
       </c>
       <c r="G23" s="15">
         <f>IF(ISBLANK('By Round'!G33),"",'By Round'!G33)</f>
@@ -3279,48 +3258,47 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="11">
         <f>'By Round'!A12</f>
         <v/>
       </c>
-      <c r="C24">
+      <c r="C24" s="11">
         <f>'By Round'!B15</f>
         <v/>
       </c>
-      <c r="D24">
+      <c r="D24" s="11">
         <f>'By Round'!C15</f>
         <v/>
       </c>
-      <c r="E24">
+      <c r="E24" s="11">
         <f>'By Round'!D15</f>
         <v/>
       </c>
-      <c r="F24" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F24" s="11">
+        <f>IF(ISBLANK('By Round'!F16),"",'By Round'!F16)</f>
+        <v/>
       </c>
       <c r="G24">
-        <f>IF(ISBLANK('By Round'!G15),"",'By Round'!G15)</f>
+        <f>IF(ISBLANK('By Round'!G16),"",'By Round'!G16)</f>
         <v/>
       </c>
       <c r="H24">
-        <f>IF(ISBLANK('By Round'!H15),"",'By Round'!H15)</f>
+        <f>IF(ISBLANK('By Round'!H16),"",'By Round'!H16)</f>
         <v/>
       </c>
       <c r="I24">
-        <f>IF(ISBLANK('By Round'!I15),"",'By Round'!I15)</f>
+        <f>IF(ISBLANK('By Round'!I16),"",'By Round'!I16)</f>
         <v/>
       </c>
       <c r="J24">
-        <f>IF(ISBLANK('By Round'!J15),"",'By Round'!J15)</f>
+        <f>IF(ISBLANK('By Round'!J16),"",'By Round'!J16)</f>
         <v/>
       </c>
       <c r="K24">
-        <f>IF(ISBLANK('By Round'!K15),"",'By Round'!K15)</f>
+        <f>IF(ISBLANK('By Round'!K16),"",'By Round'!K16)</f>
         <v/>
       </c>
       <c r="L24" s="12">
@@ -3389,45 +3367,44 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25">
+      <c r="B25" s="11">
         <f>'By Round'!A21</f>
         <v/>
       </c>
-      <c r="C25">
+      <c r="C25" s="11">
         <f>'By Round'!B21</f>
         <v/>
       </c>
-      <c r="D25">
+      <c r="D25" s="11">
         <f>'By Round'!C21</f>
         <v/>
       </c>
-      <c r="E25">
+      <c r="E25" s="11">
         <f>'By Round'!D21</f>
         <v/>
       </c>
-      <c r="F25" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F25" s="11">
+        <f>IF(ISBLANK('By Round'!F22),"",'By Round'!F22)</f>
+        <v/>
       </c>
       <c r="G25">
-        <f>IF(ISBLANK('By Round'!G21),"",'By Round'!G21)</f>
+        <f>IF(ISBLANK('By Round'!G22),"",'By Round'!G22)</f>
         <v/>
       </c>
       <c r="H25">
-        <f>IF(ISBLANK('By Round'!H21),"",'By Round'!H21)</f>
+        <f>IF(ISBLANK('By Round'!H22),"",'By Round'!H22)</f>
         <v/>
       </c>
       <c r="I25">
-        <f>IF(ISBLANK('By Round'!I21),"",'By Round'!I21)</f>
+        <f>IF(ISBLANK('By Round'!I22),"",'By Round'!I22)</f>
         <v/>
       </c>
       <c r="J25">
-        <f>IF(ISBLANK('By Round'!J21),"",'By Round'!J21)</f>
+        <f>IF(ISBLANK('By Round'!J22),"",'By Round'!J22)</f>
         <v/>
       </c>
       <c r="K25">
-        <f>IF(ISBLANK('By Round'!K21),"",'By Round'!K21)</f>
+        <f>IF(ISBLANK('By Round'!K22),"",'By Round'!K22)</f>
         <v/>
       </c>
       <c r="L25" s="12">
@@ -3497,45 +3474,44 @@
     </row>
     <row r="26">
       <c r="A26" s="15" t="n"/>
-      <c r="B26" s="15">
+      <c r="B26" s="16">
         <f>'By Round'!A30</f>
         <v/>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="16">
         <f>'By Round'!B33</f>
         <v/>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="16">
         <f>'By Round'!C33</f>
         <v/>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="16">
         <f>'By Round'!D33</f>
         <v/>
       </c>
-      <c r="F26" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F26" s="16">
+        <f>IF(ISBLANK('By Round'!F34),"",'By Round'!F34)</f>
+        <v/>
       </c>
       <c r="G26" s="15">
-        <f>IF(ISBLANK('By Round'!G33),"",'By Round'!G33)</f>
+        <f>IF(ISBLANK('By Round'!G34),"",'By Round'!G34)</f>
         <v/>
       </c>
       <c r="H26" s="15">
-        <f>IF(ISBLANK('By Round'!H33),"",'By Round'!H33)</f>
+        <f>IF(ISBLANK('By Round'!H34),"",'By Round'!H34)</f>
         <v/>
       </c>
       <c r="I26" s="15">
-        <f>IF(ISBLANK('By Round'!I33),"",'By Round'!I33)</f>
+        <f>IF(ISBLANK('By Round'!I34),"",'By Round'!I34)</f>
         <v/>
       </c>
       <c r="J26" s="15">
-        <f>IF(ISBLANK('By Round'!J33),"",'By Round'!J33)</f>
+        <f>IF(ISBLANK('By Round'!J34),"",'By Round'!J34)</f>
         <v/>
       </c>
       <c r="K26" s="15">
-        <f>IF(ISBLANK('By Round'!K33),"",'By Round'!K33)</f>
+        <f>IF(ISBLANK('By Round'!K34),"",'By Round'!K34)</f>
         <v/>
       </c>
       <c r="L26" s="17">
@@ -3604,48 +3580,47 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="11">
         <f>'By Round'!A12</f>
         <v/>
       </c>
-      <c r="C27">
+      <c r="C27" s="11">
         <f>'By Round'!B15</f>
         <v/>
       </c>
-      <c r="D27">
+      <c r="D27" s="11">
         <f>'By Round'!C15</f>
         <v/>
       </c>
-      <c r="E27">
+      <c r="E27" s="11">
         <f>'By Round'!D15</f>
         <v/>
       </c>
-      <c r="F27" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F27" s="11">
+        <f>IF(ISBLANK('By Round'!F17),"",'By Round'!F17)</f>
+        <v/>
       </c>
       <c r="G27">
-        <f>IF(ISBLANK('By Round'!G15),"",'By Round'!G15)</f>
+        <f>IF(ISBLANK('By Round'!G17),"",'By Round'!G17)</f>
         <v/>
       </c>
       <c r="H27">
-        <f>IF(ISBLANK('By Round'!H15),"",'By Round'!H15)</f>
+        <f>IF(ISBLANK('By Round'!H17),"",'By Round'!H17)</f>
         <v/>
       </c>
       <c r="I27">
-        <f>IF(ISBLANK('By Round'!I15),"",'By Round'!I15)</f>
+        <f>IF(ISBLANK('By Round'!I17),"",'By Round'!I17)</f>
         <v/>
       </c>
       <c r="J27">
-        <f>IF(ISBLANK('By Round'!J15),"",'By Round'!J15)</f>
+        <f>IF(ISBLANK('By Round'!J17),"",'By Round'!J17)</f>
         <v/>
       </c>
       <c r="K27">
-        <f>IF(ISBLANK('By Round'!K15),"",'By Round'!K15)</f>
+        <f>IF(ISBLANK('By Round'!K17),"",'By Round'!K17)</f>
         <v/>
       </c>
       <c r="L27" s="12">
@@ -3714,45 +3689,44 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28">
+      <c r="B28" s="11">
         <f>'By Round'!A21</f>
         <v/>
       </c>
-      <c r="C28">
+      <c r="C28" s="11">
         <f>'By Round'!B21</f>
         <v/>
       </c>
-      <c r="D28">
+      <c r="D28" s="11">
         <f>'By Round'!C21</f>
         <v/>
       </c>
-      <c r="E28">
+      <c r="E28" s="11">
         <f>'By Round'!D21</f>
         <v/>
       </c>
-      <c r="F28" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F28" s="11">
+        <f>IF(ISBLANK('By Round'!F23),"",'By Round'!F23)</f>
+        <v/>
       </c>
       <c r="G28">
-        <f>IF(ISBLANK('By Round'!G21),"",'By Round'!G21)</f>
+        <f>IF(ISBLANK('By Round'!G23),"",'By Round'!G23)</f>
         <v/>
       </c>
       <c r="H28">
-        <f>IF(ISBLANK('By Round'!H21),"",'By Round'!H21)</f>
+        <f>IF(ISBLANK('By Round'!H23),"",'By Round'!H23)</f>
         <v/>
       </c>
       <c r="I28">
-        <f>IF(ISBLANK('By Round'!I21),"",'By Round'!I21)</f>
+        <f>IF(ISBLANK('By Round'!I23),"",'By Round'!I23)</f>
         <v/>
       </c>
       <c r="J28">
-        <f>IF(ISBLANK('By Round'!J21),"",'By Round'!J21)</f>
+        <f>IF(ISBLANK('By Round'!J23),"",'By Round'!J23)</f>
         <v/>
       </c>
       <c r="K28">
-        <f>IF(ISBLANK('By Round'!K21),"",'By Round'!K21)</f>
+        <f>IF(ISBLANK('By Round'!K23),"",'By Round'!K23)</f>
         <v/>
       </c>
       <c r="L28" s="12">
@@ -3822,45 +3796,44 @@
     </row>
     <row r="29">
       <c r="A29" s="15" t="n"/>
-      <c r="B29" s="15">
+      <c r="B29" s="16">
         <f>'By Round'!A30</f>
         <v/>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="16">
         <f>'By Round'!B33</f>
         <v/>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="16">
         <f>'By Round'!C33</f>
         <v/>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="16">
         <f>'By Round'!D33</f>
         <v/>
       </c>
-      <c r="F29" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F29" s="16">
+        <f>IF(ISBLANK('By Round'!F35),"",'By Round'!F35)</f>
+        <v/>
       </c>
       <c r="G29" s="15">
-        <f>IF(ISBLANK('By Round'!G33),"",'By Round'!G33)</f>
+        <f>IF(ISBLANK('By Round'!G35),"",'By Round'!G35)</f>
         <v/>
       </c>
       <c r="H29" s="15">
-        <f>IF(ISBLANK('By Round'!H33),"",'By Round'!H33)</f>
+        <f>IF(ISBLANK('By Round'!H35),"",'By Round'!H35)</f>
         <v/>
       </c>
       <c r="I29" s="15">
-        <f>IF(ISBLANK('By Round'!I33),"",'By Round'!I33)</f>
+        <f>IF(ISBLANK('By Round'!I35),"",'By Round'!I35)</f>
         <v/>
       </c>
       <c r="J29" s="15">
-        <f>IF(ISBLANK('By Round'!J33),"",'By Round'!J33)</f>
+        <f>IF(ISBLANK('By Round'!J35),"",'By Round'!J35)</f>
         <v/>
       </c>
       <c r="K29" s="15">
-        <f>IF(ISBLANK('By Round'!K33),"",'By Round'!K33)</f>
+        <f>IF(ISBLANK('By Round'!K35),"",'By Round'!K35)</f>
         <v/>
       </c>
       <c r="L29" s="17">
@@ -3929,29 +3902,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C30">
+      <c r="C30" s="11">
         <f>'By Round'!B9</f>
         <v/>
       </c>
-      <c r="D30">
+      <c r="D30" s="11">
         <f>'By Round'!C9</f>
         <v/>
       </c>
-      <c r="E30">
+      <c r="E30" s="11">
         <f>'By Round'!D9</f>
         <v/>
       </c>
-      <c r="F30" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F30" s="11">
+        <f>IF(ISBLANK('By Round'!F9),"",'By Round'!F9)</f>
+        <v/>
       </c>
       <c r="G30">
         <f>IF(ISBLANK('By Round'!G9),"",'By Round'!G9)</f>
@@ -4039,26 +4011,25 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31">
+      <c r="B31" s="11">
         <f>'By Round'!A12</f>
         <v/>
       </c>
-      <c r="C31">
+      <c r="C31" s="11">
         <f>'By Round'!B18</f>
         <v/>
       </c>
-      <c r="D31">
+      <c r="D31" s="11">
         <f>'By Round'!C18</f>
         <v/>
       </c>
-      <c r="E31">
+      <c r="E31" s="11">
         <f>'By Round'!D18</f>
         <v/>
       </c>
-      <c r="F31" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F31" s="11">
+        <f>IF(ISBLANK('By Round'!F18),"",'By Round'!F18)</f>
+        <v/>
       </c>
       <c r="G31">
         <f>IF(ISBLANK('By Round'!G18),"",'By Round'!G18)</f>
@@ -4147,26 +4118,25 @@
     </row>
     <row r="32">
       <c r="A32" s="15" t="n"/>
-      <c r="B32" s="15">
+      <c r="B32" s="16">
         <f>'By Round'!A30</f>
         <v/>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="16">
         <f>'By Round'!B30</f>
         <v/>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="16">
         <f>'By Round'!C30</f>
         <v/>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="16">
         <f>'By Round'!D30</f>
         <v/>
       </c>
-      <c r="F32" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F32" s="16">
+        <f>IF(ISBLANK('By Round'!F30),"",'By Round'!F30)</f>
+        <v/>
       </c>
       <c r="G32" s="15">
         <f>IF(ISBLANK('By Round'!G30),"",'By Round'!G30)</f>
@@ -4254,48 +4224,47 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C33">
+      <c r="C33" s="11">
         <f>'By Round'!B9</f>
         <v/>
       </c>
-      <c r="D33">
+      <c r="D33" s="11">
         <f>'By Round'!C9</f>
         <v/>
       </c>
-      <c r="E33">
+      <c r="E33" s="11">
         <f>'By Round'!D9</f>
         <v/>
       </c>
-      <c r="F33" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F33" s="11">
+        <f>IF(ISBLANK('By Round'!F10),"",'By Round'!F10)</f>
+        <v/>
       </c>
       <c r="G33">
-        <f>IF(ISBLANK('By Round'!G9),"",'By Round'!G9)</f>
+        <f>IF(ISBLANK('By Round'!G10),"",'By Round'!G10)</f>
         <v/>
       </c>
       <c r="H33">
-        <f>IF(ISBLANK('By Round'!H9),"",'By Round'!H9)</f>
+        <f>IF(ISBLANK('By Round'!H10),"",'By Round'!H10)</f>
         <v/>
       </c>
       <c r="I33">
-        <f>IF(ISBLANK('By Round'!I9),"",'By Round'!I9)</f>
+        <f>IF(ISBLANK('By Round'!I10),"",'By Round'!I10)</f>
         <v/>
       </c>
       <c r="J33">
-        <f>IF(ISBLANK('By Round'!J9),"",'By Round'!J9)</f>
+        <f>IF(ISBLANK('By Round'!J10),"",'By Round'!J10)</f>
         <v/>
       </c>
       <c r="K33">
-        <f>IF(ISBLANK('By Round'!K9),"",'By Round'!K9)</f>
+        <f>IF(ISBLANK('By Round'!K10),"",'By Round'!K10)</f>
         <v/>
       </c>
       <c r="L33" s="12">
@@ -4364,45 +4333,44 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34">
+      <c r="B34" s="11">
         <f>'By Round'!A12</f>
         <v/>
       </c>
-      <c r="C34">
+      <c r="C34" s="11">
         <f>'By Round'!B18</f>
         <v/>
       </c>
-      <c r="D34">
+      <c r="D34" s="11">
         <f>'By Round'!C18</f>
         <v/>
       </c>
-      <c r="E34">
+      <c r="E34" s="11">
         <f>'By Round'!D18</f>
         <v/>
       </c>
-      <c r="F34" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F34" s="11">
+        <f>IF(ISBLANK('By Round'!F19),"",'By Round'!F19)</f>
+        <v/>
       </c>
       <c r="G34">
-        <f>IF(ISBLANK('By Round'!G18),"",'By Round'!G18)</f>
+        <f>IF(ISBLANK('By Round'!G19),"",'By Round'!G19)</f>
         <v/>
       </c>
       <c r="H34">
-        <f>IF(ISBLANK('By Round'!H18),"",'By Round'!H18)</f>
+        <f>IF(ISBLANK('By Round'!H19),"",'By Round'!H19)</f>
         <v/>
       </c>
       <c r="I34">
-        <f>IF(ISBLANK('By Round'!I18),"",'By Round'!I18)</f>
+        <f>IF(ISBLANK('By Round'!I19),"",'By Round'!I19)</f>
         <v/>
       </c>
       <c r="J34">
-        <f>IF(ISBLANK('By Round'!J18),"",'By Round'!J18)</f>
+        <f>IF(ISBLANK('By Round'!J19),"",'By Round'!J19)</f>
         <v/>
       </c>
       <c r="K34">
-        <f>IF(ISBLANK('By Round'!K18),"",'By Round'!K18)</f>
+        <f>IF(ISBLANK('By Round'!K19),"",'By Round'!K19)</f>
         <v/>
       </c>
       <c r="L34" s="12">
@@ -4472,45 +4440,44 @@
     </row>
     <row r="35">
       <c r="A35" s="15" t="n"/>
-      <c r="B35" s="15">
+      <c r="B35" s="16">
         <f>'By Round'!A30</f>
         <v/>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="16">
         <f>'By Round'!B30</f>
         <v/>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="16">
         <f>'By Round'!C30</f>
         <v/>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="16">
         <f>'By Round'!D30</f>
         <v/>
       </c>
-      <c r="F35" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F35" s="16">
+        <f>IF(ISBLANK('By Round'!F31),"",'By Round'!F31)</f>
+        <v/>
       </c>
       <c r="G35" s="15">
-        <f>IF(ISBLANK('By Round'!G30),"",'By Round'!G30)</f>
+        <f>IF(ISBLANK('By Round'!G31),"",'By Round'!G31)</f>
         <v/>
       </c>
       <c r="H35" s="15">
-        <f>IF(ISBLANK('By Round'!H30),"",'By Round'!H30)</f>
+        <f>IF(ISBLANK('By Round'!H31),"",'By Round'!H31)</f>
         <v/>
       </c>
       <c r="I35" s="15">
-        <f>IF(ISBLANK('By Round'!I30),"",'By Round'!I30)</f>
+        <f>IF(ISBLANK('By Round'!I31),"",'By Round'!I31)</f>
         <v/>
       </c>
       <c r="J35" s="15">
-        <f>IF(ISBLANK('By Round'!J30),"",'By Round'!J30)</f>
+        <f>IF(ISBLANK('By Round'!J31),"",'By Round'!J31)</f>
         <v/>
       </c>
       <c r="K35" s="15">
-        <f>IF(ISBLANK('By Round'!K30),"",'By Round'!K30)</f>
+        <f>IF(ISBLANK('By Round'!K31),"",'By Round'!K31)</f>
         <v/>
       </c>
       <c r="L35" s="17">
@@ -4579,48 +4546,47 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C36">
+      <c r="C36" s="11">
         <f>'By Round'!B9</f>
         <v/>
       </c>
-      <c r="D36">
+      <c r="D36" s="11">
         <f>'By Round'!C9</f>
         <v/>
       </c>
-      <c r="E36">
+      <c r="E36" s="11">
         <f>'By Round'!D9</f>
         <v/>
       </c>
-      <c r="F36" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F36" s="11">
+        <f>IF(ISBLANK('By Round'!F11),"",'By Round'!F11)</f>
+        <v/>
       </c>
       <c r="G36">
-        <f>IF(ISBLANK('By Round'!G9),"",'By Round'!G9)</f>
+        <f>IF(ISBLANK('By Round'!G11),"",'By Round'!G11)</f>
         <v/>
       </c>
       <c r="H36">
-        <f>IF(ISBLANK('By Round'!H9),"",'By Round'!H9)</f>
+        <f>IF(ISBLANK('By Round'!H11),"",'By Round'!H11)</f>
         <v/>
       </c>
       <c r="I36">
-        <f>IF(ISBLANK('By Round'!I9),"",'By Round'!I9)</f>
+        <f>IF(ISBLANK('By Round'!I11),"",'By Round'!I11)</f>
         <v/>
       </c>
       <c r="J36">
-        <f>IF(ISBLANK('By Round'!J9),"",'By Round'!J9)</f>
+        <f>IF(ISBLANK('By Round'!J11),"",'By Round'!J11)</f>
         <v/>
       </c>
       <c r="K36">
-        <f>IF(ISBLANK('By Round'!K9),"",'By Round'!K9)</f>
+        <f>IF(ISBLANK('By Round'!K11),"",'By Round'!K11)</f>
         <v/>
       </c>
       <c r="L36" s="12">
@@ -4689,45 +4655,44 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37">
+      <c r="B37" s="11">
         <f>'By Round'!A12</f>
         <v/>
       </c>
-      <c r="C37">
+      <c r="C37" s="11">
         <f>'By Round'!B18</f>
         <v/>
       </c>
-      <c r="D37">
+      <c r="D37" s="11">
         <f>'By Round'!C18</f>
         <v/>
       </c>
-      <c r="E37">
+      <c r="E37" s="11">
         <f>'By Round'!D18</f>
         <v/>
       </c>
-      <c r="F37" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F37" s="11">
+        <f>IF(ISBLANK('By Round'!F20),"",'By Round'!F20)</f>
+        <v/>
       </c>
       <c r="G37">
-        <f>IF(ISBLANK('By Round'!G18),"",'By Round'!G18)</f>
+        <f>IF(ISBLANK('By Round'!G20),"",'By Round'!G20)</f>
         <v/>
       </c>
       <c r="H37">
-        <f>IF(ISBLANK('By Round'!H18),"",'By Round'!H18)</f>
+        <f>IF(ISBLANK('By Round'!H20),"",'By Round'!H20)</f>
         <v/>
       </c>
       <c r="I37">
-        <f>IF(ISBLANK('By Round'!I18),"",'By Round'!I18)</f>
+        <f>IF(ISBLANK('By Round'!I20),"",'By Round'!I20)</f>
         <v/>
       </c>
       <c r="J37">
-        <f>IF(ISBLANK('By Round'!J18),"",'By Round'!J18)</f>
+        <f>IF(ISBLANK('By Round'!J20),"",'By Round'!J20)</f>
         <v/>
       </c>
       <c r="K37">
-        <f>IF(ISBLANK('By Round'!K18),"",'By Round'!K18)</f>
+        <f>IF(ISBLANK('By Round'!K20),"",'By Round'!K20)</f>
         <v/>
       </c>
       <c r="L37" s="12">
@@ -4797,45 +4762,44 @@
     </row>
     <row r="38">
       <c r="A38" s="15" t="n"/>
-      <c r="B38" s="15">
+      <c r="B38" s="16">
         <f>'By Round'!A30</f>
         <v/>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="16">
         <f>'By Round'!B30</f>
         <v/>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="16">
         <f>'By Round'!C30</f>
         <v/>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="16">
         <f>'By Round'!D30</f>
         <v/>
       </c>
-      <c r="F38" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F38" s="16">
+        <f>IF(ISBLANK('By Round'!F32),"",'By Round'!F32)</f>
+        <v/>
       </c>
       <c r="G38" s="15">
-        <f>IF(ISBLANK('By Round'!G30),"",'By Round'!G30)</f>
+        <f>IF(ISBLANK('By Round'!G32),"",'By Round'!G32)</f>
         <v/>
       </c>
       <c r="H38" s="15">
-        <f>IF(ISBLANK('By Round'!H30),"",'By Round'!H30)</f>
+        <f>IF(ISBLANK('By Round'!H32),"",'By Round'!H32)</f>
         <v/>
       </c>
       <c r="I38" s="15">
-        <f>IF(ISBLANK('By Round'!I30),"",'By Round'!I30)</f>
+        <f>IF(ISBLANK('By Round'!I32),"",'By Round'!I32)</f>
         <v/>
       </c>
       <c r="J38" s="15">
-        <f>IF(ISBLANK('By Round'!J30),"",'By Round'!J30)</f>
+        <f>IF(ISBLANK('By Round'!J32),"",'By Round'!J32)</f>
         <v/>
       </c>
       <c r="K38" s="15">
-        <f>IF(ISBLANK('By Round'!K30),"",'By Round'!K30)</f>
+        <f>IF(ISBLANK('By Round'!K32),"",'By Round'!K32)</f>
         <v/>
       </c>
       <c r="L38" s="17">
@@ -4904,29 +4868,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="11">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C39">
+      <c r="C39" s="11">
         <f>'By Round'!B39</f>
         <v/>
       </c>
-      <c r="D39">
+      <c r="D39" s="11">
         <f>'By Round'!C39</f>
         <v/>
       </c>
-      <c r="E39">
+      <c r="E39" s="11">
         <f>'By Round'!D39</f>
         <v/>
       </c>
-      <c r="F39" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F39" s="11">
+        <f>IF(ISBLANK('By Round'!F39),"",'By Round'!F39)</f>
+        <v/>
       </c>
       <c r="G39">
         <f>IF(ISBLANK('By Round'!G39),"",'By Round'!G39)</f>
@@ -5014,26 +4977,25 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40">
+      <c r="B40" s="11">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C40">
+      <c r="C40" s="11">
         <f>'By Round'!B42</f>
         <v/>
       </c>
-      <c r="D40">
+      <c r="D40" s="11">
         <f>'By Round'!C42</f>
         <v/>
       </c>
-      <c r="E40">
+      <c r="E40" s="11">
         <f>'By Round'!D42</f>
         <v/>
       </c>
-      <c r="F40" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F40" s="11">
+        <f>IF(ISBLANK('By Round'!F42),"",'By Round'!F42)</f>
+        <v/>
       </c>
       <c r="G40">
         <f>IF(ISBLANK('By Round'!G42),"",'By Round'!G42)</f>
@@ -5122,26 +5084,25 @@
     </row>
     <row r="41">
       <c r="A41" s="15" t="n"/>
-      <c r="B41" s="15">
+      <c r="B41" s="16">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="16">
         <f>'By Round'!B45</f>
         <v/>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="16">
         <f>'By Round'!C45</f>
         <v/>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="16">
         <f>'By Round'!D45</f>
         <v/>
       </c>
-      <c r="F41" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F41" s="16">
+        <f>IF(ISBLANK('By Round'!F45),"",'By Round'!F45)</f>
+        <v/>
       </c>
       <c r="G41" s="15">
         <f>IF(ISBLANK('By Round'!G45),"",'By Round'!G45)</f>
@@ -5229,48 +5190,47 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="11">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C42">
+      <c r="C42" s="11">
         <f>'By Round'!B39</f>
         <v/>
       </c>
-      <c r="D42">
+      <c r="D42" s="11">
         <f>'By Round'!C39</f>
         <v/>
       </c>
-      <c r="E42">
+      <c r="E42" s="11">
         <f>'By Round'!D39</f>
         <v/>
       </c>
-      <c r="F42" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F42" s="11">
+        <f>IF(ISBLANK('By Round'!F40),"",'By Round'!F40)</f>
+        <v/>
       </c>
       <c r="G42">
-        <f>IF(ISBLANK('By Round'!G39),"",'By Round'!G39)</f>
+        <f>IF(ISBLANK('By Round'!G40),"",'By Round'!G40)</f>
         <v/>
       </c>
       <c r="H42">
-        <f>IF(ISBLANK('By Round'!H39),"",'By Round'!H39)</f>
+        <f>IF(ISBLANK('By Round'!H40),"",'By Round'!H40)</f>
         <v/>
       </c>
       <c r="I42">
-        <f>IF(ISBLANK('By Round'!I39),"",'By Round'!I39)</f>
+        <f>IF(ISBLANK('By Round'!I40),"",'By Round'!I40)</f>
         <v/>
       </c>
       <c r="J42">
-        <f>IF(ISBLANK('By Round'!J39),"",'By Round'!J39)</f>
+        <f>IF(ISBLANK('By Round'!J40),"",'By Round'!J40)</f>
         <v/>
       </c>
       <c r="K42">
-        <f>IF(ISBLANK('By Round'!K39),"",'By Round'!K39)</f>
+        <f>IF(ISBLANK('By Round'!K40),"",'By Round'!K40)</f>
         <v/>
       </c>
       <c r="L42" s="12">
@@ -5339,45 +5299,44 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43">
+      <c r="B43" s="11">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C43">
+      <c r="C43" s="11">
         <f>'By Round'!B42</f>
         <v/>
       </c>
-      <c r="D43">
+      <c r="D43" s="11">
         <f>'By Round'!C42</f>
         <v/>
       </c>
-      <c r="E43">
+      <c r="E43" s="11">
         <f>'By Round'!D42</f>
         <v/>
       </c>
-      <c r="F43" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F43" s="11">
+        <f>IF(ISBLANK('By Round'!F43),"",'By Round'!F43)</f>
+        <v/>
       </c>
       <c r="G43">
-        <f>IF(ISBLANK('By Round'!G42),"",'By Round'!G42)</f>
+        <f>IF(ISBLANK('By Round'!G43),"",'By Round'!G43)</f>
         <v/>
       </c>
       <c r="H43">
-        <f>IF(ISBLANK('By Round'!H42),"",'By Round'!H42)</f>
+        <f>IF(ISBLANK('By Round'!H43),"",'By Round'!H43)</f>
         <v/>
       </c>
       <c r="I43">
-        <f>IF(ISBLANK('By Round'!I42),"",'By Round'!I42)</f>
+        <f>IF(ISBLANK('By Round'!I43),"",'By Round'!I43)</f>
         <v/>
       </c>
       <c r="J43">
-        <f>IF(ISBLANK('By Round'!J42),"",'By Round'!J42)</f>
+        <f>IF(ISBLANK('By Round'!J43),"",'By Round'!J43)</f>
         <v/>
       </c>
       <c r="K43">
-        <f>IF(ISBLANK('By Round'!K42),"",'By Round'!K42)</f>
+        <f>IF(ISBLANK('By Round'!K43),"",'By Round'!K43)</f>
         <v/>
       </c>
       <c r="L43" s="12">
@@ -5447,45 +5406,44 @@
     </row>
     <row r="44">
       <c r="A44" s="15" t="n"/>
-      <c r="B44" s="15">
+      <c r="B44" s="16">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="16">
         <f>'By Round'!B45</f>
         <v/>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="16">
         <f>'By Round'!C45</f>
         <v/>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="16">
         <f>'By Round'!D45</f>
         <v/>
       </c>
-      <c r="F44" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F44" s="16">
+        <f>IF(ISBLANK('By Round'!F46),"",'By Round'!F46)</f>
+        <v/>
       </c>
       <c r="G44" s="15">
-        <f>IF(ISBLANK('By Round'!G45),"",'By Round'!G45)</f>
+        <f>IF(ISBLANK('By Round'!G46),"",'By Round'!G46)</f>
         <v/>
       </c>
       <c r="H44" s="15">
-        <f>IF(ISBLANK('By Round'!H45),"",'By Round'!H45)</f>
+        <f>IF(ISBLANK('By Round'!H46),"",'By Round'!H46)</f>
         <v/>
       </c>
       <c r="I44" s="15">
-        <f>IF(ISBLANK('By Round'!I45),"",'By Round'!I45)</f>
+        <f>IF(ISBLANK('By Round'!I46),"",'By Round'!I46)</f>
         <v/>
       </c>
       <c r="J44" s="15">
-        <f>IF(ISBLANK('By Round'!J45),"",'By Round'!J45)</f>
+        <f>IF(ISBLANK('By Round'!J46),"",'By Round'!J46)</f>
         <v/>
       </c>
       <c r="K44" s="15">
-        <f>IF(ISBLANK('By Round'!K45),"",'By Round'!K45)</f>
+        <f>IF(ISBLANK('By Round'!K46),"",'By Round'!K46)</f>
         <v/>
       </c>
       <c r="L44" s="17">
@@ -5554,48 +5512,47 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="11">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C45">
+      <c r="C45" s="11">
         <f>'By Round'!B39</f>
         <v/>
       </c>
-      <c r="D45">
+      <c r="D45" s="11">
         <f>'By Round'!C39</f>
         <v/>
       </c>
-      <c r="E45">
+      <c r="E45" s="11">
         <f>'By Round'!D39</f>
         <v/>
       </c>
-      <c r="F45" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F45" s="11">
+        <f>IF(ISBLANK('By Round'!F41),"",'By Round'!F41)</f>
+        <v/>
       </c>
       <c r="G45">
-        <f>IF(ISBLANK('By Round'!G39),"",'By Round'!G39)</f>
+        <f>IF(ISBLANK('By Round'!G41),"",'By Round'!G41)</f>
         <v/>
       </c>
       <c r="H45">
-        <f>IF(ISBLANK('By Round'!H39),"",'By Round'!H39)</f>
+        <f>IF(ISBLANK('By Round'!H41),"",'By Round'!H41)</f>
         <v/>
       </c>
       <c r="I45">
-        <f>IF(ISBLANK('By Round'!I39),"",'By Round'!I39)</f>
+        <f>IF(ISBLANK('By Round'!I41),"",'By Round'!I41)</f>
         <v/>
       </c>
       <c r="J45">
-        <f>IF(ISBLANK('By Round'!J39),"",'By Round'!J39)</f>
+        <f>IF(ISBLANK('By Round'!J41),"",'By Round'!J41)</f>
         <v/>
       </c>
       <c r="K45">
-        <f>IF(ISBLANK('By Round'!K39),"",'By Round'!K39)</f>
+        <f>IF(ISBLANK('By Round'!K41),"",'By Round'!K41)</f>
         <v/>
       </c>
       <c r="L45" s="12">
@@ -5664,45 +5621,44 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46">
+      <c r="B46" s="11">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C46">
+      <c r="C46" s="11">
         <f>'By Round'!B42</f>
         <v/>
       </c>
-      <c r="D46">
+      <c r="D46" s="11">
         <f>'By Round'!C42</f>
         <v/>
       </c>
-      <c r="E46">
+      <c r="E46" s="11">
         <f>'By Round'!D42</f>
         <v/>
       </c>
-      <c r="F46" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F46" s="11">
+        <f>IF(ISBLANK('By Round'!F44),"",'By Round'!F44)</f>
+        <v/>
       </c>
       <c r="G46">
-        <f>IF(ISBLANK('By Round'!G42),"",'By Round'!G42)</f>
+        <f>IF(ISBLANK('By Round'!G44),"",'By Round'!G44)</f>
         <v/>
       </c>
       <c r="H46">
-        <f>IF(ISBLANK('By Round'!H42),"",'By Round'!H42)</f>
+        <f>IF(ISBLANK('By Round'!H44),"",'By Round'!H44)</f>
         <v/>
       </c>
       <c r="I46">
-        <f>IF(ISBLANK('By Round'!I42),"",'By Round'!I42)</f>
+        <f>IF(ISBLANK('By Round'!I44),"",'By Round'!I44)</f>
         <v/>
       </c>
       <c r="J46">
-        <f>IF(ISBLANK('By Round'!J42),"",'By Round'!J42)</f>
+        <f>IF(ISBLANK('By Round'!J44),"",'By Round'!J44)</f>
         <v/>
       </c>
       <c r="K46">
-        <f>IF(ISBLANK('By Round'!K42),"",'By Round'!K42)</f>
+        <f>IF(ISBLANK('By Round'!K44),"",'By Round'!K44)</f>
         <v/>
       </c>
       <c r="L46" s="12">
@@ -5772,45 +5728,44 @@
     </row>
     <row r="47">
       <c r="A47" s="15" t="n"/>
-      <c r="B47" s="15">
+      <c r="B47" s="16">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="16">
         <f>'By Round'!B45</f>
         <v/>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="16">
         <f>'By Round'!C45</f>
         <v/>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="16">
         <f>'By Round'!D45</f>
         <v/>
       </c>
-      <c r="F47" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F47" s="16">
+        <f>IF(ISBLANK('By Round'!F47),"",'By Round'!F47)</f>
+        <v/>
       </c>
       <c r="G47" s="15">
-        <f>IF(ISBLANK('By Round'!G45),"",'By Round'!G45)</f>
+        <f>IF(ISBLANK('By Round'!G47),"",'By Round'!G47)</f>
         <v/>
       </c>
       <c r="H47" s="15">
-        <f>IF(ISBLANK('By Round'!H45),"",'By Round'!H45)</f>
+        <f>IF(ISBLANK('By Round'!H47),"",'By Round'!H47)</f>
         <v/>
       </c>
       <c r="I47" s="15">
-        <f>IF(ISBLANK('By Round'!I45),"",'By Round'!I45)</f>
+        <f>IF(ISBLANK('By Round'!I47),"",'By Round'!I47)</f>
         <v/>
       </c>
       <c r="J47" s="15">
-        <f>IF(ISBLANK('By Round'!J45),"",'By Round'!J45)</f>
+        <f>IF(ISBLANK('By Round'!J47),"",'By Round'!J47)</f>
         <v/>
       </c>
       <c r="K47" s="15">
-        <f>IF(ISBLANK('By Round'!K45),"",'By Round'!K45)</f>
+        <f>IF(ISBLANK('By Round'!K47),"",'By Round'!K47)</f>
         <v/>
       </c>
       <c r="L47" s="17">

--- a/howell6.xlsx
+++ b/howell6.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 08, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 10, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 73</t>
+          <t>Name 53</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 58</t>
+          <t>Name 51</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 18</t>
+          <t>Name 80</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 86</t>
+          <t>Name 80</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 36</t>
+          <t>Name 22</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 67</t>
+          <t>Name 70</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 55</t>
+          <t>Name 56</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 74</t>
+          <t>Name 69</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 44</t>
+          <t>Name 87</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 21</t>
+          <t>Name 76</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 35</t>
+          <t>Name 56</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 19</t>
+          <t>Name 18</t>
         </is>
       </c>
       <c r="D15" s="4">

--- a/howell6.xlsx
+++ b/howell6.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 10, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 11, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 53</t>
+          <t>Name 42</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 51</t>
+          <t>Name 52</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -623,7 +623,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 80</t>
+          <t>Name 41</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 22</t>
+          <t>Name 31</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 70</t>
+          <t>Name 82</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 56</t>
+          <t>Name 52</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 69</t>
+          <t>Name 24</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 87</t>
+          <t>Name 24</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 76</t>
+          <t>Name 40</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 56</t>
+          <t>Name 61</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 18</t>
+          <t>Name 37</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -1008,51 +1008,51 @@
         <v>1</v>
       </c>
       <c r="B3" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A21</f>
         <v/>
       </c>
       <c r="C3" s="11">
-        <f>'By Round'!B3</f>
+        <f>'By Round'!B27</f>
         <v/>
       </c>
       <c r="D3" s="11">
-        <f>'By Round'!C3</f>
+        <f>'By Round'!C27</f>
         <v/>
       </c>
       <c r="E3" s="11">
-        <f>'By Round'!D3</f>
+        <f>'By Round'!D27</f>
         <v/>
       </c>
       <c r="F3" s="11">
-        <f>IF(ISBLANK('By Round'!F3),"",'By Round'!F3)</f>
+        <f>IF(ISBLANK('By Round'!F27),"",'By Round'!F27)</f>
         <v/>
       </c>
       <c r="G3">
-        <f>IF(ISBLANK('By Round'!G3),"",'By Round'!G3)</f>
+        <f>IF(ISBLANK('By Round'!G27),"",'By Round'!G27)</f>
         <v/>
       </c>
       <c r="H3">
-        <f>IF(ISBLANK('By Round'!H3),"",'By Round'!H3)</f>
+        <f>IF(ISBLANK('By Round'!H27),"",'By Round'!H27)</f>
         <v/>
       </c>
       <c r="I3">
-        <f>IF(ISBLANK('By Round'!I3),"",'By Round'!I3)</f>
+        <f>IF(ISBLANK('By Round'!I27),"",'By Round'!I27)</f>
         <v/>
       </c>
       <c r="J3">
-        <f>IF(ISBLANK('By Round'!J3),"",'By Round'!J3)</f>
+        <f>IF(ISBLANK('By Round'!J27),"",'By Round'!J27)</f>
         <v/>
       </c>
       <c r="K3">
-        <f>IF(ISBLANK('By Round'!K3),"",'By Round'!K3)</f>
+        <f>IF(ISBLANK('By Round'!K27),"",'By Round'!K27)</f>
         <v/>
       </c>
       <c r="L3" s="12">
-        <f>SUM(X3:Y3)</f>
+        <f>AVERAGE(X3:Y3)</f>
         <v/>
       </c>
       <c r="M3" s="13">
-        <f>SUM(Z3:AA3)</f>
+        <f>AVERAGE(Z3:AA3)</f>
         <v/>
       </c>
       <c r="N3" s="8">
@@ -1114,51 +1114,51 @@
     </row>
     <row r="4">
       <c r="B4" s="11">
-        <f>'By Round'!A21</f>
+        <f>'By Round'!A30</f>
         <v/>
       </c>
       <c r="C4" s="11">
-        <f>'By Round'!B27</f>
+        <f>'By Round'!B36</f>
         <v/>
       </c>
       <c r="D4" s="11">
-        <f>'By Round'!C27</f>
+        <f>'By Round'!C36</f>
         <v/>
       </c>
       <c r="E4" s="11">
-        <f>'By Round'!D27</f>
+        <f>'By Round'!D36</f>
         <v/>
       </c>
       <c r="F4" s="11">
-        <f>IF(ISBLANK('By Round'!F27),"",'By Round'!F27)</f>
+        <f>IF(ISBLANK('By Round'!F36),"",'By Round'!F36)</f>
         <v/>
       </c>
       <c r="G4">
-        <f>IF(ISBLANK('By Round'!G27),"",'By Round'!G27)</f>
+        <f>IF(ISBLANK('By Round'!G36),"",'By Round'!G36)</f>
         <v/>
       </c>
       <c r="H4">
-        <f>IF(ISBLANK('By Round'!H27),"",'By Round'!H27)</f>
+        <f>IF(ISBLANK('By Round'!H36),"",'By Round'!H36)</f>
         <v/>
       </c>
       <c r="I4">
-        <f>IF(ISBLANK('By Round'!I27),"",'By Round'!I27)</f>
+        <f>IF(ISBLANK('By Round'!I36),"",'By Round'!I36)</f>
         <v/>
       </c>
       <c r="J4">
-        <f>IF(ISBLANK('By Round'!J27),"",'By Round'!J27)</f>
+        <f>IF(ISBLANK('By Round'!J36),"",'By Round'!J36)</f>
         <v/>
       </c>
       <c r="K4">
-        <f>IF(ISBLANK('By Round'!K27),"",'By Round'!K27)</f>
+        <f>IF(ISBLANK('By Round'!K36),"",'By Round'!K36)</f>
         <v/>
       </c>
       <c r="L4" s="12">
-        <f>SUM(X4:Y4)</f>
+        <f>AVERAGE(X4:Y4)</f>
         <v/>
       </c>
       <c r="M4" s="13">
-        <f>SUM(Z4:AA4)</f>
+        <f>AVERAGE(Z4:AA4)</f>
         <v/>
       </c>
       <c r="N4" s="8">
@@ -1221,51 +1221,51 @@
     <row r="5">
       <c r="A5" s="15" t="n"/>
       <c r="B5" s="16">
-        <f>'By Round'!A30</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C5" s="16">
-        <f>'By Round'!B36</f>
+        <f>'By Round'!B3</f>
         <v/>
       </c>
       <c r="D5" s="16">
-        <f>'By Round'!C36</f>
+        <f>'By Round'!C3</f>
         <v/>
       </c>
       <c r="E5" s="16">
-        <f>'By Round'!D36</f>
+        <f>'By Round'!D3</f>
         <v/>
       </c>
       <c r="F5" s="16">
-        <f>IF(ISBLANK('By Round'!F36),"",'By Round'!F36)</f>
+        <f>IF(ISBLANK('By Round'!F3),"",'By Round'!F3)</f>
         <v/>
       </c>
       <c r="G5" s="15">
-        <f>IF(ISBLANK('By Round'!G36),"",'By Round'!G36)</f>
+        <f>IF(ISBLANK('By Round'!G3),"",'By Round'!G3)</f>
         <v/>
       </c>
       <c r="H5" s="15">
-        <f>IF(ISBLANK('By Round'!H36),"",'By Round'!H36)</f>
+        <f>IF(ISBLANK('By Round'!H3),"",'By Round'!H3)</f>
         <v/>
       </c>
       <c r="I5" s="15">
-        <f>IF(ISBLANK('By Round'!I36),"",'By Round'!I36)</f>
+        <f>IF(ISBLANK('By Round'!I3),"",'By Round'!I3)</f>
         <v/>
       </c>
       <c r="J5" s="15">
-        <f>IF(ISBLANK('By Round'!J36),"",'By Round'!J36)</f>
+        <f>IF(ISBLANK('By Round'!J3),"",'By Round'!J3)</f>
         <v/>
       </c>
       <c r="K5" s="15">
-        <f>IF(ISBLANK('By Round'!K36),"",'By Round'!K36)</f>
+        <f>IF(ISBLANK('By Round'!K3),"",'By Round'!K3)</f>
         <v/>
       </c>
       <c r="L5" s="17">
-        <f>SUM(X5:Y5)</f>
+        <f>AVERAGE(X5:Y5)</f>
         <v/>
       </c>
       <c r="M5" s="18">
-        <f>SUM(Z5:AA5)</f>
+        <f>AVERAGE(Z5:AA5)</f>
         <v/>
       </c>
       <c r="N5" s="19">
@@ -1330,51 +1330,51 @@
         <v>2</v>
       </c>
       <c r="B6" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A21</f>
         <v/>
       </c>
       <c r="C6" s="11">
-        <f>'By Round'!B3</f>
+        <f>'By Round'!B27</f>
         <v/>
       </c>
       <c r="D6" s="11">
-        <f>'By Round'!C3</f>
+        <f>'By Round'!C27</f>
         <v/>
       </c>
       <c r="E6" s="11">
-        <f>'By Round'!D3</f>
+        <f>'By Round'!D27</f>
         <v/>
       </c>
       <c r="F6" s="11">
-        <f>IF(ISBLANK('By Round'!F4),"",'By Round'!F4)</f>
+        <f>IF(ISBLANK('By Round'!F28),"",'By Round'!F28)</f>
         <v/>
       </c>
       <c r="G6">
-        <f>IF(ISBLANK('By Round'!G4),"",'By Round'!G4)</f>
+        <f>IF(ISBLANK('By Round'!G28),"",'By Round'!G28)</f>
         <v/>
       </c>
       <c r="H6">
-        <f>IF(ISBLANK('By Round'!H4),"",'By Round'!H4)</f>
+        <f>IF(ISBLANK('By Round'!H28),"",'By Round'!H28)</f>
         <v/>
       </c>
       <c r="I6">
-        <f>IF(ISBLANK('By Round'!I4),"",'By Round'!I4)</f>
+        <f>IF(ISBLANK('By Round'!I28),"",'By Round'!I28)</f>
         <v/>
       </c>
       <c r="J6">
-        <f>IF(ISBLANK('By Round'!J4),"",'By Round'!J4)</f>
+        <f>IF(ISBLANK('By Round'!J28),"",'By Round'!J28)</f>
         <v/>
       </c>
       <c r="K6">
-        <f>IF(ISBLANK('By Round'!K4),"",'By Round'!K4)</f>
+        <f>IF(ISBLANK('By Round'!K28),"",'By Round'!K28)</f>
         <v/>
       </c>
       <c r="L6" s="12">
-        <f>SUM(X6:Y6)</f>
+        <f>AVERAGE(X6:Y6)</f>
         <v/>
       </c>
       <c r="M6" s="13">
-        <f>SUM(Z6:AA6)</f>
+        <f>AVERAGE(Z6:AA6)</f>
         <v/>
       </c>
       <c r="N6" s="8">
@@ -1436,51 +1436,51 @@
     </row>
     <row r="7">
       <c r="B7" s="11">
-        <f>'By Round'!A21</f>
+        <f>'By Round'!A30</f>
         <v/>
       </c>
       <c r="C7" s="11">
-        <f>'By Round'!B27</f>
+        <f>'By Round'!B36</f>
         <v/>
       </c>
       <c r="D7" s="11">
-        <f>'By Round'!C27</f>
+        <f>'By Round'!C36</f>
         <v/>
       </c>
       <c r="E7" s="11">
-        <f>'By Round'!D27</f>
+        <f>'By Round'!D36</f>
         <v/>
       </c>
       <c r="F7" s="11">
-        <f>IF(ISBLANK('By Round'!F28),"",'By Round'!F28)</f>
+        <f>IF(ISBLANK('By Round'!F37),"",'By Round'!F37)</f>
         <v/>
       </c>
       <c r="G7">
-        <f>IF(ISBLANK('By Round'!G28),"",'By Round'!G28)</f>
+        <f>IF(ISBLANK('By Round'!G37),"",'By Round'!G37)</f>
         <v/>
       </c>
       <c r="H7">
-        <f>IF(ISBLANK('By Round'!H28),"",'By Round'!H28)</f>
+        <f>IF(ISBLANK('By Round'!H37),"",'By Round'!H37)</f>
         <v/>
       </c>
       <c r="I7">
-        <f>IF(ISBLANK('By Round'!I28),"",'By Round'!I28)</f>
+        <f>IF(ISBLANK('By Round'!I37),"",'By Round'!I37)</f>
         <v/>
       </c>
       <c r="J7">
-        <f>IF(ISBLANK('By Round'!J28),"",'By Round'!J28)</f>
+        <f>IF(ISBLANK('By Round'!J37),"",'By Round'!J37)</f>
         <v/>
       </c>
       <c r="K7">
-        <f>IF(ISBLANK('By Round'!K28),"",'By Round'!K28)</f>
+        <f>IF(ISBLANK('By Round'!K37),"",'By Round'!K37)</f>
         <v/>
       </c>
       <c r="L7" s="12">
-        <f>SUM(X7:Y7)</f>
+        <f>AVERAGE(X7:Y7)</f>
         <v/>
       </c>
       <c r="M7" s="13">
-        <f>SUM(Z7:AA7)</f>
+        <f>AVERAGE(Z7:AA7)</f>
         <v/>
       </c>
       <c r="N7" s="8">
@@ -1543,51 +1543,51 @@
     <row r="8">
       <c r="A8" s="15" t="n"/>
       <c r="B8" s="16">
-        <f>'By Round'!A30</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C8" s="16">
-        <f>'By Round'!B36</f>
+        <f>'By Round'!B3</f>
         <v/>
       </c>
       <c r="D8" s="16">
-        <f>'By Round'!C36</f>
+        <f>'By Round'!C3</f>
         <v/>
       </c>
       <c r="E8" s="16">
-        <f>'By Round'!D36</f>
+        <f>'By Round'!D3</f>
         <v/>
       </c>
       <c r="F8" s="16">
-        <f>IF(ISBLANK('By Round'!F37),"",'By Round'!F37)</f>
+        <f>IF(ISBLANK('By Round'!F4),"",'By Round'!F4)</f>
         <v/>
       </c>
       <c r="G8" s="15">
-        <f>IF(ISBLANK('By Round'!G37),"",'By Round'!G37)</f>
+        <f>IF(ISBLANK('By Round'!G4),"",'By Round'!G4)</f>
         <v/>
       </c>
       <c r="H8" s="15">
-        <f>IF(ISBLANK('By Round'!H37),"",'By Round'!H37)</f>
+        <f>IF(ISBLANK('By Round'!H4),"",'By Round'!H4)</f>
         <v/>
       </c>
       <c r="I8" s="15">
-        <f>IF(ISBLANK('By Round'!I37),"",'By Round'!I37)</f>
+        <f>IF(ISBLANK('By Round'!I4),"",'By Round'!I4)</f>
         <v/>
       </c>
       <c r="J8" s="15">
-        <f>IF(ISBLANK('By Round'!J37),"",'By Round'!J37)</f>
+        <f>IF(ISBLANK('By Round'!J4),"",'By Round'!J4)</f>
         <v/>
       </c>
       <c r="K8" s="15">
-        <f>IF(ISBLANK('By Round'!K37),"",'By Round'!K37)</f>
+        <f>IF(ISBLANK('By Round'!K4),"",'By Round'!K4)</f>
         <v/>
       </c>
       <c r="L8" s="17">
-        <f>SUM(X8:Y8)</f>
+        <f>AVERAGE(X8:Y8)</f>
         <v/>
       </c>
       <c r="M8" s="18">
-        <f>SUM(Z8:AA8)</f>
+        <f>AVERAGE(Z8:AA8)</f>
         <v/>
       </c>
       <c r="N8" s="19">
@@ -1652,51 +1652,51 @@
         <v>3</v>
       </c>
       <c r="B9" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A21</f>
         <v/>
       </c>
       <c r="C9" s="11">
-        <f>'By Round'!B3</f>
+        <f>'By Round'!B27</f>
         <v/>
       </c>
       <c r="D9" s="11">
-        <f>'By Round'!C3</f>
+        <f>'By Round'!C27</f>
         <v/>
       </c>
       <c r="E9" s="11">
-        <f>'By Round'!D3</f>
+        <f>'By Round'!D27</f>
         <v/>
       </c>
       <c r="F9" s="11">
-        <f>IF(ISBLANK('By Round'!F5),"",'By Round'!F5)</f>
+        <f>IF(ISBLANK('By Round'!F29),"",'By Round'!F29)</f>
         <v/>
       </c>
       <c r="G9">
-        <f>IF(ISBLANK('By Round'!G5),"",'By Round'!G5)</f>
+        <f>IF(ISBLANK('By Round'!G29),"",'By Round'!G29)</f>
         <v/>
       </c>
       <c r="H9">
-        <f>IF(ISBLANK('By Round'!H5),"",'By Round'!H5)</f>
+        <f>IF(ISBLANK('By Round'!H29),"",'By Round'!H29)</f>
         <v/>
       </c>
       <c r="I9">
-        <f>IF(ISBLANK('By Round'!I5),"",'By Round'!I5)</f>
+        <f>IF(ISBLANK('By Round'!I29),"",'By Round'!I29)</f>
         <v/>
       </c>
       <c r="J9">
-        <f>IF(ISBLANK('By Round'!J5),"",'By Round'!J5)</f>
+        <f>IF(ISBLANK('By Round'!J29),"",'By Round'!J29)</f>
         <v/>
       </c>
       <c r="K9">
-        <f>IF(ISBLANK('By Round'!K5),"",'By Round'!K5)</f>
+        <f>IF(ISBLANK('By Round'!K29),"",'By Round'!K29)</f>
         <v/>
       </c>
       <c r="L9" s="12">
-        <f>SUM(X9:Y9)</f>
+        <f>AVERAGE(X9:Y9)</f>
         <v/>
       </c>
       <c r="M9" s="13">
-        <f>SUM(Z9:AA9)</f>
+        <f>AVERAGE(Z9:AA9)</f>
         <v/>
       </c>
       <c r="N9" s="8">
@@ -1758,51 +1758,51 @@
     </row>
     <row r="10">
       <c r="B10" s="11">
-        <f>'By Round'!A21</f>
+        <f>'By Round'!A30</f>
         <v/>
       </c>
       <c r="C10" s="11">
-        <f>'By Round'!B27</f>
+        <f>'By Round'!B36</f>
         <v/>
       </c>
       <c r="D10" s="11">
-        <f>'By Round'!C27</f>
+        <f>'By Round'!C36</f>
         <v/>
       </c>
       <c r="E10" s="11">
-        <f>'By Round'!D27</f>
+        <f>'By Round'!D36</f>
         <v/>
       </c>
       <c r="F10" s="11">
-        <f>IF(ISBLANK('By Round'!F29),"",'By Round'!F29)</f>
+        <f>IF(ISBLANK('By Round'!F38),"",'By Round'!F38)</f>
         <v/>
       </c>
       <c r="G10">
-        <f>IF(ISBLANK('By Round'!G29),"",'By Round'!G29)</f>
+        <f>IF(ISBLANK('By Round'!G38),"",'By Round'!G38)</f>
         <v/>
       </c>
       <c r="H10">
-        <f>IF(ISBLANK('By Round'!H29),"",'By Round'!H29)</f>
+        <f>IF(ISBLANK('By Round'!H38),"",'By Round'!H38)</f>
         <v/>
       </c>
       <c r="I10">
-        <f>IF(ISBLANK('By Round'!I29),"",'By Round'!I29)</f>
+        <f>IF(ISBLANK('By Round'!I38),"",'By Round'!I38)</f>
         <v/>
       </c>
       <c r="J10">
-        <f>IF(ISBLANK('By Round'!J29),"",'By Round'!J29)</f>
+        <f>IF(ISBLANK('By Round'!J38),"",'By Round'!J38)</f>
         <v/>
       </c>
       <c r="K10">
-        <f>IF(ISBLANK('By Round'!K29),"",'By Round'!K29)</f>
+        <f>IF(ISBLANK('By Round'!K38),"",'By Round'!K38)</f>
         <v/>
       </c>
       <c r="L10" s="12">
-        <f>SUM(X10:Y10)</f>
+        <f>AVERAGE(X10:Y10)</f>
         <v/>
       </c>
       <c r="M10" s="13">
-        <f>SUM(Z10:AA10)</f>
+        <f>AVERAGE(Z10:AA10)</f>
         <v/>
       </c>
       <c r="N10" s="8">
@@ -1865,51 +1865,51 @@
     <row r="11">
       <c r="A11" s="15" t="n"/>
       <c r="B11" s="16">
-        <f>'By Round'!A30</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C11" s="16">
-        <f>'By Round'!B36</f>
+        <f>'By Round'!B3</f>
         <v/>
       </c>
       <c r="D11" s="16">
-        <f>'By Round'!C36</f>
+        <f>'By Round'!C3</f>
         <v/>
       </c>
       <c r="E11" s="16">
-        <f>'By Round'!D36</f>
+        <f>'By Round'!D3</f>
         <v/>
       </c>
       <c r="F11" s="16">
-        <f>IF(ISBLANK('By Round'!F38),"",'By Round'!F38)</f>
+        <f>IF(ISBLANK('By Round'!F5),"",'By Round'!F5)</f>
         <v/>
       </c>
       <c r="G11" s="15">
-        <f>IF(ISBLANK('By Round'!G38),"",'By Round'!G38)</f>
+        <f>IF(ISBLANK('By Round'!G5),"",'By Round'!G5)</f>
         <v/>
       </c>
       <c r="H11" s="15">
-        <f>IF(ISBLANK('By Round'!H38),"",'By Round'!H38)</f>
+        <f>IF(ISBLANK('By Round'!H5),"",'By Round'!H5)</f>
         <v/>
       </c>
       <c r="I11" s="15">
-        <f>IF(ISBLANK('By Round'!I38),"",'By Round'!I38)</f>
+        <f>IF(ISBLANK('By Round'!I5),"",'By Round'!I5)</f>
         <v/>
       </c>
       <c r="J11" s="15">
-        <f>IF(ISBLANK('By Round'!J38),"",'By Round'!J38)</f>
+        <f>IF(ISBLANK('By Round'!J5),"",'By Round'!J5)</f>
         <v/>
       </c>
       <c r="K11" s="15">
-        <f>IF(ISBLANK('By Round'!K38),"",'By Round'!K38)</f>
+        <f>IF(ISBLANK('By Round'!K5),"",'By Round'!K5)</f>
         <v/>
       </c>
       <c r="L11" s="17">
-        <f>SUM(X11:Y11)</f>
+        <f>AVERAGE(X11:Y11)</f>
         <v/>
       </c>
       <c r="M11" s="18">
-        <f>SUM(Z11:AA11)</f>
+        <f>AVERAGE(Z11:AA11)</f>
         <v/>
       </c>
       <c r="N11" s="19">
@@ -2014,11 +2014,11 @@
         <v/>
       </c>
       <c r="L12" s="12">
-        <f>SUM(X12:Y12)</f>
+        <f>AVERAGE(X12:Y12)</f>
         <v/>
       </c>
       <c r="M12" s="13">
-        <f>SUM(Z12:AA12)</f>
+        <f>AVERAGE(Z12:AA12)</f>
         <v/>
       </c>
       <c r="N12" s="8">
@@ -2080,51 +2080,51 @@
     </row>
     <row r="13">
       <c r="B13" s="11">
-        <f>'By Round'!A12</f>
+        <f>'By Round'!A21</f>
         <v/>
       </c>
       <c r="C13" s="11">
-        <f>'By Round'!B12</f>
+        <f>'By Round'!B24</f>
         <v/>
       </c>
       <c r="D13" s="11">
-        <f>'By Round'!C12</f>
+        <f>'By Round'!C24</f>
         <v/>
       </c>
       <c r="E13" s="11">
-        <f>'By Round'!D12</f>
+        <f>'By Round'!D24</f>
         <v/>
       </c>
       <c r="F13" s="11">
-        <f>IF(ISBLANK('By Round'!F12),"",'By Round'!F12)</f>
+        <f>IF(ISBLANK('By Round'!F24),"",'By Round'!F24)</f>
         <v/>
       </c>
       <c r="G13">
-        <f>IF(ISBLANK('By Round'!G12),"",'By Round'!G12)</f>
+        <f>IF(ISBLANK('By Round'!G24),"",'By Round'!G24)</f>
         <v/>
       </c>
       <c r="H13">
-        <f>IF(ISBLANK('By Round'!H12),"",'By Round'!H12)</f>
+        <f>IF(ISBLANK('By Round'!H24),"",'By Round'!H24)</f>
         <v/>
       </c>
       <c r="I13">
-        <f>IF(ISBLANK('By Round'!I12),"",'By Round'!I12)</f>
+        <f>IF(ISBLANK('By Round'!I24),"",'By Round'!I24)</f>
         <v/>
       </c>
       <c r="J13">
-        <f>IF(ISBLANK('By Round'!J12),"",'By Round'!J12)</f>
+        <f>IF(ISBLANK('By Round'!J24),"",'By Round'!J24)</f>
         <v/>
       </c>
       <c r="K13">
-        <f>IF(ISBLANK('By Round'!K12),"",'By Round'!K12)</f>
+        <f>IF(ISBLANK('By Round'!K24),"",'By Round'!K24)</f>
         <v/>
       </c>
       <c r="L13" s="12">
-        <f>SUM(X13:Y13)</f>
+        <f>AVERAGE(X13:Y13)</f>
         <v/>
       </c>
       <c r="M13" s="13">
-        <f>SUM(Z13:AA13)</f>
+        <f>AVERAGE(Z13:AA13)</f>
         <v/>
       </c>
       <c r="N13" s="8">
@@ -2187,51 +2187,51 @@
     <row r="14">
       <c r="A14" s="15" t="n"/>
       <c r="B14" s="16">
-        <f>'By Round'!A21</f>
+        <f>'By Round'!A12</f>
         <v/>
       </c>
       <c r="C14" s="16">
-        <f>'By Round'!B24</f>
+        <f>'By Round'!B12</f>
         <v/>
       </c>
       <c r="D14" s="16">
-        <f>'By Round'!C24</f>
+        <f>'By Round'!C12</f>
         <v/>
       </c>
       <c r="E14" s="16">
-        <f>'By Round'!D24</f>
+        <f>'By Round'!D12</f>
         <v/>
       </c>
       <c r="F14" s="16">
-        <f>IF(ISBLANK('By Round'!F24),"",'By Round'!F24)</f>
+        <f>IF(ISBLANK('By Round'!F12),"",'By Round'!F12)</f>
         <v/>
       </c>
       <c r="G14" s="15">
-        <f>IF(ISBLANK('By Round'!G24),"",'By Round'!G24)</f>
+        <f>IF(ISBLANK('By Round'!G12),"",'By Round'!G12)</f>
         <v/>
       </c>
       <c r="H14" s="15">
-        <f>IF(ISBLANK('By Round'!H24),"",'By Round'!H24)</f>
+        <f>IF(ISBLANK('By Round'!H12),"",'By Round'!H12)</f>
         <v/>
       </c>
       <c r="I14" s="15">
-        <f>IF(ISBLANK('By Round'!I24),"",'By Round'!I24)</f>
+        <f>IF(ISBLANK('By Round'!I12),"",'By Round'!I12)</f>
         <v/>
       </c>
       <c r="J14" s="15">
-        <f>IF(ISBLANK('By Round'!J24),"",'By Round'!J24)</f>
+        <f>IF(ISBLANK('By Round'!J12),"",'By Round'!J12)</f>
         <v/>
       </c>
       <c r="K14" s="15">
-        <f>IF(ISBLANK('By Round'!K24),"",'By Round'!K24)</f>
+        <f>IF(ISBLANK('By Round'!K12),"",'By Round'!K12)</f>
         <v/>
       </c>
       <c r="L14" s="17">
-        <f>SUM(X14:Y14)</f>
+        <f>AVERAGE(X14:Y14)</f>
         <v/>
       </c>
       <c r="M14" s="18">
-        <f>SUM(Z14:AA14)</f>
+        <f>AVERAGE(Z14:AA14)</f>
         <v/>
       </c>
       <c r="N14" s="19">
@@ -2336,11 +2336,11 @@
         <v/>
       </c>
       <c r="L15" s="12">
-        <f>SUM(X15:Y15)</f>
+        <f>AVERAGE(X15:Y15)</f>
         <v/>
       </c>
       <c r="M15" s="13">
-        <f>SUM(Z15:AA15)</f>
+        <f>AVERAGE(Z15:AA15)</f>
         <v/>
       </c>
       <c r="N15" s="8">
@@ -2402,51 +2402,51 @@
     </row>
     <row r="16">
       <c r="B16" s="11">
-        <f>'By Round'!A12</f>
+        <f>'By Round'!A21</f>
         <v/>
       </c>
       <c r="C16" s="11">
-        <f>'By Round'!B12</f>
+        <f>'By Round'!B24</f>
         <v/>
       </c>
       <c r="D16" s="11">
-        <f>'By Round'!C12</f>
+        <f>'By Round'!C24</f>
         <v/>
       </c>
       <c r="E16" s="11">
-        <f>'By Round'!D12</f>
+        <f>'By Round'!D24</f>
         <v/>
       </c>
       <c r="F16" s="11">
-        <f>IF(ISBLANK('By Round'!F13),"",'By Round'!F13)</f>
+        <f>IF(ISBLANK('By Round'!F25),"",'By Round'!F25)</f>
         <v/>
       </c>
       <c r="G16">
-        <f>IF(ISBLANK('By Round'!G13),"",'By Round'!G13)</f>
+        <f>IF(ISBLANK('By Round'!G25),"",'By Round'!G25)</f>
         <v/>
       </c>
       <c r="H16">
-        <f>IF(ISBLANK('By Round'!H13),"",'By Round'!H13)</f>
+        <f>IF(ISBLANK('By Round'!H25),"",'By Round'!H25)</f>
         <v/>
       </c>
       <c r="I16">
-        <f>IF(ISBLANK('By Round'!I13),"",'By Round'!I13)</f>
+        <f>IF(ISBLANK('By Round'!I25),"",'By Round'!I25)</f>
         <v/>
       </c>
       <c r="J16">
-        <f>IF(ISBLANK('By Round'!J13),"",'By Round'!J13)</f>
+        <f>IF(ISBLANK('By Round'!J25),"",'By Round'!J25)</f>
         <v/>
       </c>
       <c r="K16">
-        <f>IF(ISBLANK('By Round'!K13),"",'By Round'!K13)</f>
+        <f>IF(ISBLANK('By Round'!K25),"",'By Round'!K25)</f>
         <v/>
       </c>
       <c r="L16" s="12">
-        <f>SUM(X16:Y16)</f>
+        <f>AVERAGE(X16:Y16)</f>
         <v/>
       </c>
       <c r="M16" s="13">
-        <f>SUM(Z16:AA16)</f>
+        <f>AVERAGE(Z16:AA16)</f>
         <v/>
       </c>
       <c r="N16" s="8">
@@ -2509,51 +2509,51 @@
     <row r="17">
       <c r="A17" s="15" t="n"/>
       <c r="B17" s="16">
-        <f>'By Round'!A21</f>
+        <f>'By Round'!A12</f>
         <v/>
       </c>
       <c r="C17" s="16">
-        <f>'By Round'!B24</f>
+        <f>'By Round'!B12</f>
         <v/>
       </c>
       <c r="D17" s="16">
-        <f>'By Round'!C24</f>
+        <f>'By Round'!C12</f>
         <v/>
       </c>
       <c r="E17" s="16">
-        <f>'By Round'!D24</f>
+        <f>'By Round'!D12</f>
         <v/>
       </c>
       <c r="F17" s="16">
-        <f>IF(ISBLANK('By Round'!F25),"",'By Round'!F25)</f>
+        <f>IF(ISBLANK('By Round'!F13),"",'By Round'!F13)</f>
         <v/>
       </c>
       <c r="G17" s="15">
-        <f>IF(ISBLANK('By Round'!G25),"",'By Round'!G25)</f>
+        <f>IF(ISBLANK('By Round'!G13),"",'By Round'!G13)</f>
         <v/>
       </c>
       <c r="H17" s="15">
-        <f>IF(ISBLANK('By Round'!H25),"",'By Round'!H25)</f>
+        <f>IF(ISBLANK('By Round'!H13),"",'By Round'!H13)</f>
         <v/>
       </c>
       <c r="I17" s="15">
-        <f>IF(ISBLANK('By Round'!I25),"",'By Round'!I25)</f>
+        <f>IF(ISBLANK('By Round'!I13),"",'By Round'!I13)</f>
         <v/>
       </c>
       <c r="J17" s="15">
-        <f>IF(ISBLANK('By Round'!J25),"",'By Round'!J25)</f>
+        <f>IF(ISBLANK('By Round'!J13),"",'By Round'!J13)</f>
         <v/>
       </c>
       <c r="K17" s="15">
-        <f>IF(ISBLANK('By Round'!K25),"",'By Round'!K25)</f>
+        <f>IF(ISBLANK('By Round'!K13),"",'By Round'!K13)</f>
         <v/>
       </c>
       <c r="L17" s="17">
-        <f>SUM(X17:Y17)</f>
+        <f>AVERAGE(X17:Y17)</f>
         <v/>
       </c>
       <c r="M17" s="18">
-        <f>SUM(Z17:AA17)</f>
+        <f>AVERAGE(Z17:AA17)</f>
         <v/>
       </c>
       <c r="N17" s="19">
@@ -2658,11 +2658,11 @@
         <v/>
       </c>
       <c r="L18" s="12">
-        <f>SUM(X18:Y18)</f>
+        <f>AVERAGE(X18:Y18)</f>
         <v/>
       </c>
       <c r="M18" s="13">
-        <f>SUM(Z18:AA18)</f>
+        <f>AVERAGE(Z18:AA18)</f>
         <v/>
       </c>
       <c r="N18" s="8">
@@ -2724,51 +2724,51 @@
     </row>
     <row r="19">
       <c r="B19" s="11">
-        <f>'By Round'!A12</f>
+        <f>'By Round'!A21</f>
         <v/>
       </c>
       <c r="C19" s="11">
-        <f>'By Round'!B12</f>
+        <f>'By Round'!B24</f>
         <v/>
       </c>
       <c r="D19" s="11">
-        <f>'By Round'!C12</f>
+        <f>'By Round'!C24</f>
         <v/>
       </c>
       <c r="E19" s="11">
-        <f>'By Round'!D12</f>
+        <f>'By Round'!D24</f>
         <v/>
       </c>
       <c r="F19" s="11">
-        <f>IF(ISBLANK('By Round'!F14),"",'By Round'!F14)</f>
+        <f>IF(ISBLANK('By Round'!F26),"",'By Round'!F26)</f>
         <v/>
       </c>
       <c r="G19">
-        <f>IF(ISBLANK('By Round'!G14),"",'By Round'!G14)</f>
+        <f>IF(ISBLANK('By Round'!G26),"",'By Round'!G26)</f>
         <v/>
       </c>
       <c r="H19">
-        <f>IF(ISBLANK('By Round'!H14),"",'By Round'!H14)</f>
+        <f>IF(ISBLANK('By Round'!H26),"",'By Round'!H26)</f>
         <v/>
       </c>
       <c r="I19">
-        <f>IF(ISBLANK('By Round'!I14),"",'By Round'!I14)</f>
+        <f>IF(ISBLANK('By Round'!I26),"",'By Round'!I26)</f>
         <v/>
       </c>
       <c r="J19">
-        <f>IF(ISBLANK('By Round'!J14),"",'By Round'!J14)</f>
+        <f>IF(ISBLANK('By Round'!J26),"",'By Round'!J26)</f>
         <v/>
       </c>
       <c r="K19">
-        <f>IF(ISBLANK('By Round'!K14),"",'By Round'!K14)</f>
+        <f>IF(ISBLANK('By Round'!K26),"",'By Round'!K26)</f>
         <v/>
       </c>
       <c r="L19" s="12">
-        <f>SUM(X19:Y19)</f>
+        <f>AVERAGE(X19:Y19)</f>
         <v/>
       </c>
       <c r="M19" s="13">
-        <f>SUM(Z19:AA19)</f>
+        <f>AVERAGE(Z19:AA19)</f>
         <v/>
       </c>
       <c r="N19" s="8">
@@ -2831,51 +2831,51 @@
     <row r="20">
       <c r="A20" s="15" t="n"/>
       <c r="B20" s="16">
-        <f>'By Round'!A21</f>
+        <f>'By Round'!A12</f>
         <v/>
       </c>
       <c r="C20" s="16">
-        <f>'By Round'!B24</f>
+        <f>'By Round'!B12</f>
         <v/>
       </c>
       <c r="D20" s="16">
-        <f>'By Round'!C24</f>
+        <f>'By Round'!C12</f>
         <v/>
       </c>
       <c r="E20" s="16">
-        <f>'By Round'!D24</f>
+        <f>'By Round'!D12</f>
         <v/>
       </c>
       <c r="F20" s="16">
-        <f>IF(ISBLANK('By Round'!F26),"",'By Round'!F26)</f>
+        <f>IF(ISBLANK('By Round'!F14),"",'By Round'!F14)</f>
         <v/>
       </c>
       <c r="G20" s="15">
-        <f>IF(ISBLANK('By Round'!G26),"",'By Round'!G26)</f>
+        <f>IF(ISBLANK('By Round'!G14),"",'By Round'!G14)</f>
         <v/>
       </c>
       <c r="H20" s="15">
-        <f>IF(ISBLANK('By Round'!H26),"",'By Round'!H26)</f>
+        <f>IF(ISBLANK('By Round'!H14),"",'By Round'!H14)</f>
         <v/>
       </c>
       <c r="I20" s="15">
-        <f>IF(ISBLANK('By Round'!I26),"",'By Round'!I26)</f>
+        <f>IF(ISBLANK('By Round'!I14),"",'By Round'!I14)</f>
         <v/>
       </c>
       <c r="J20" s="15">
-        <f>IF(ISBLANK('By Round'!J26),"",'By Round'!J26)</f>
+        <f>IF(ISBLANK('By Round'!J14),"",'By Round'!J14)</f>
         <v/>
       </c>
       <c r="K20" s="15">
-        <f>IF(ISBLANK('By Round'!K26),"",'By Round'!K26)</f>
+        <f>IF(ISBLANK('By Round'!K14),"",'By Round'!K14)</f>
         <v/>
       </c>
       <c r="L20" s="17">
-        <f>SUM(X20:Y20)</f>
+        <f>AVERAGE(X20:Y20)</f>
         <v/>
       </c>
       <c r="M20" s="18">
-        <f>SUM(Z20:AA20)</f>
+        <f>AVERAGE(Z20:AA20)</f>
         <v/>
       </c>
       <c r="N20" s="19">
@@ -2940,51 +2940,51 @@
         <v>7</v>
       </c>
       <c r="B21" s="11">
-        <f>'By Round'!A12</f>
+        <f>'By Round'!A30</f>
         <v/>
       </c>
       <c r="C21" s="11">
-        <f>'By Round'!B15</f>
+        <f>'By Round'!B33</f>
         <v/>
       </c>
       <c r="D21" s="11">
-        <f>'By Round'!C15</f>
+        <f>'By Round'!C33</f>
         <v/>
       </c>
       <c r="E21" s="11">
-        <f>'By Round'!D15</f>
+        <f>'By Round'!D33</f>
         <v/>
       </c>
       <c r="F21" s="11">
-        <f>IF(ISBLANK('By Round'!F15),"",'By Round'!F15)</f>
+        <f>IF(ISBLANK('By Round'!F33),"",'By Round'!F33)</f>
         <v/>
       </c>
       <c r="G21">
-        <f>IF(ISBLANK('By Round'!G15),"",'By Round'!G15)</f>
+        <f>IF(ISBLANK('By Round'!G33),"",'By Round'!G33)</f>
         <v/>
       </c>
       <c r="H21">
-        <f>IF(ISBLANK('By Round'!H15),"",'By Round'!H15)</f>
+        <f>IF(ISBLANK('By Round'!H33),"",'By Round'!H33)</f>
         <v/>
       </c>
       <c r="I21">
-        <f>IF(ISBLANK('By Round'!I15),"",'By Round'!I15)</f>
+        <f>IF(ISBLANK('By Round'!I33),"",'By Round'!I33)</f>
         <v/>
       </c>
       <c r="J21">
-        <f>IF(ISBLANK('By Round'!J15),"",'By Round'!J15)</f>
+        <f>IF(ISBLANK('By Round'!J33),"",'By Round'!J33)</f>
         <v/>
       </c>
       <c r="K21">
-        <f>IF(ISBLANK('By Round'!K15),"",'By Round'!K15)</f>
+        <f>IF(ISBLANK('By Round'!K33),"",'By Round'!K33)</f>
         <v/>
       </c>
       <c r="L21" s="12">
-        <f>SUM(X21:Y21)</f>
+        <f>AVERAGE(X21:Y21)</f>
         <v/>
       </c>
       <c r="M21" s="13">
-        <f>SUM(Z21:AA21)</f>
+        <f>AVERAGE(Z21:AA21)</f>
         <v/>
       </c>
       <c r="N21" s="8">
@@ -3046,51 +3046,51 @@
     </row>
     <row r="22">
       <c r="B22" s="11">
-        <f>'By Round'!A21</f>
+        <f>'By Round'!A12</f>
         <v/>
       </c>
       <c r="C22" s="11">
-        <f>'By Round'!B21</f>
+        <f>'By Round'!B15</f>
         <v/>
       </c>
       <c r="D22" s="11">
-        <f>'By Round'!C21</f>
+        <f>'By Round'!C15</f>
         <v/>
       </c>
       <c r="E22" s="11">
-        <f>'By Round'!D21</f>
+        <f>'By Round'!D15</f>
         <v/>
       </c>
       <c r="F22" s="11">
-        <f>IF(ISBLANK('By Round'!F21),"",'By Round'!F21)</f>
+        <f>IF(ISBLANK('By Round'!F15),"",'By Round'!F15)</f>
         <v/>
       </c>
       <c r="G22">
-        <f>IF(ISBLANK('By Round'!G21),"",'By Round'!G21)</f>
+        <f>IF(ISBLANK('By Round'!G15),"",'By Round'!G15)</f>
         <v/>
       </c>
       <c r="H22">
-        <f>IF(ISBLANK('By Round'!H21),"",'By Round'!H21)</f>
+        <f>IF(ISBLANK('By Round'!H15),"",'By Round'!H15)</f>
         <v/>
       </c>
       <c r="I22">
-        <f>IF(ISBLANK('By Round'!I21),"",'By Round'!I21)</f>
+        <f>IF(ISBLANK('By Round'!I15),"",'By Round'!I15)</f>
         <v/>
       </c>
       <c r="J22">
-        <f>IF(ISBLANK('By Round'!J21),"",'By Round'!J21)</f>
+        <f>IF(ISBLANK('By Round'!J15),"",'By Round'!J15)</f>
         <v/>
       </c>
       <c r="K22">
-        <f>IF(ISBLANK('By Round'!K21),"",'By Round'!K21)</f>
+        <f>IF(ISBLANK('By Round'!K15),"",'By Round'!K15)</f>
         <v/>
       </c>
       <c r="L22" s="12">
-        <f>SUM(X22:Y22)</f>
+        <f>AVERAGE(X22:Y22)</f>
         <v/>
       </c>
       <c r="M22" s="13">
-        <f>SUM(Z22:AA22)</f>
+        <f>AVERAGE(Z22:AA22)</f>
         <v/>
       </c>
       <c r="N22" s="8">
@@ -3153,51 +3153,51 @@
     <row r="23">
       <c r="A23" s="15" t="n"/>
       <c r="B23" s="16">
-        <f>'By Round'!A30</f>
+        <f>'By Round'!A21</f>
         <v/>
       </c>
       <c r="C23" s="16">
-        <f>'By Round'!B33</f>
+        <f>'By Round'!B21</f>
         <v/>
       </c>
       <c r="D23" s="16">
-        <f>'By Round'!C33</f>
+        <f>'By Round'!C21</f>
         <v/>
       </c>
       <c r="E23" s="16">
-        <f>'By Round'!D33</f>
+        <f>'By Round'!D21</f>
         <v/>
       </c>
       <c r="F23" s="16">
-        <f>IF(ISBLANK('By Round'!F33),"",'By Round'!F33)</f>
+        <f>IF(ISBLANK('By Round'!F21),"",'By Round'!F21)</f>
         <v/>
       </c>
       <c r="G23" s="15">
-        <f>IF(ISBLANK('By Round'!G33),"",'By Round'!G33)</f>
+        <f>IF(ISBLANK('By Round'!G21),"",'By Round'!G21)</f>
         <v/>
       </c>
       <c r="H23" s="15">
-        <f>IF(ISBLANK('By Round'!H33),"",'By Round'!H33)</f>
+        <f>IF(ISBLANK('By Round'!H21),"",'By Round'!H21)</f>
         <v/>
       </c>
       <c r="I23" s="15">
-        <f>IF(ISBLANK('By Round'!I33),"",'By Round'!I33)</f>
+        <f>IF(ISBLANK('By Round'!I21),"",'By Round'!I21)</f>
         <v/>
       </c>
       <c r="J23" s="15">
-        <f>IF(ISBLANK('By Round'!J33),"",'By Round'!J33)</f>
+        <f>IF(ISBLANK('By Round'!J21),"",'By Round'!J21)</f>
         <v/>
       </c>
       <c r="K23" s="15">
-        <f>IF(ISBLANK('By Round'!K33),"",'By Round'!K33)</f>
+        <f>IF(ISBLANK('By Round'!K21),"",'By Round'!K21)</f>
         <v/>
       </c>
       <c r="L23" s="17">
-        <f>SUM(X23:Y23)</f>
+        <f>AVERAGE(X23:Y23)</f>
         <v/>
       </c>
       <c r="M23" s="18">
-        <f>SUM(Z23:AA23)</f>
+        <f>AVERAGE(Z23:AA23)</f>
         <v/>
       </c>
       <c r="N23" s="19">
@@ -3262,51 +3262,51 @@
         <v>8</v>
       </c>
       <c r="B24" s="11">
-        <f>'By Round'!A12</f>
+        <f>'By Round'!A30</f>
         <v/>
       </c>
       <c r="C24" s="11">
-        <f>'By Round'!B15</f>
+        <f>'By Round'!B33</f>
         <v/>
       </c>
       <c r="D24" s="11">
-        <f>'By Round'!C15</f>
+        <f>'By Round'!C33</f>
         <v/>
       </c>
       <c r="E24" s="11">
-        <f>'By Round'!D15</f>
+        <f>'By Round'!D33</f>
         <v/>
       </c>
       <c r="F24" s="11">
-        <f>IF(ISBLANK('By Round'!F16),"",'By Round'!F16)</f>
+        <f>IF(ISBLANK('By Round'!F34),"",'By Round'!F34)</f>
         <v/>
       </c>
       <c r="G24">
-        <f>IF(ISBLANK('By Round'!G16),"",'By Round'!G16)</f>
+        <f>IF(ISBLANK('By Round'!G34),"",'By Round'!G34)</f>
         <v/>
       </c>
       <c r="H24">
-        <f>IF(ISBLANK('By Round'!H16),"",'By Round'!H16)</f>
+        <f>IF(ISBLANK('By Round'!H34),"",'By Round'!H34)</f>
         <v/>
       </c>
       <c r="I24">
-        <f>IF(ISBLANK('By Round'!I16),"",'By Round'!I16)</f>
+        <f>IF(ISBLANK('By Round'!I34),"",'By Round'!I34)</f>
         <v/>
       </c>
       <c r="J24">
-        <f>IF(ISBLANK('By Round'!J16),"",'By Round'!J16)</f>
+        <f>IF(ISBLANK('By Round'!J34),"",'By Round'!J34)</f>
         <v/>
       </c>
       <c r="K24">
-        <f>IF(ISBLANK('By Round'!K16),"",'By Round'!K16)</f>
+        <f>IF(ISBLANK('By Round'!K34),"",'By Round'!K34)</f>
         <v/>
       </c>
       <c r="L24" s="12">
-        <f>SUM(X24:Y24)</f>
+        <f>AVERAGE(X24:Y24)</f>
         <v/>
       </c>
       <c r="M24" s="13">
-        <f>SUM(Z24:AA24)</f>
+        <f>AVERAGE(Z24:AA24)</f>
         <v/>
       </c>
       <c r="N24" s="8">
@@ -3368,51 +3368,51 @@
     </row>
     <row r="25">
       <c r="B25" s="11">
-        <f>'By Round'!A21</f>
+        <f>'By Round'!A12</f>
         <v/>
       </c>
       <c r="C25" s="11">
-        <f>'By Round'!B21</f>
+        <f>'By Round'!B15</f>
         <v/>
       </c>
       <c r="D25" s="11">
-        <f>'By Round'!C21</f>
+        <f>'By Round'!C15</f>
         <v/>
       </c>
       <c r="E25" s="11">
-        <f>'By Round'!D21</f>
+        <f>'By Round'!D15</f>
         <v/>
       </c>
       <c r="F25" s="11">
-        <f>IF(ISBLANK('By Round'!F22),"",'By Round'!F22)</f>
+        <f>IF(ISBLANK('By Round'!F16),"",'By Round'!F16)</f>
         <v/>
       </c>
       <c r="G25">
-        <f>IF(ISBLANK('By Round'!G22),"",'By Round'!G22)</f>
+        <f>IF(ISBLANK('By Round'!G16),"",'By Round'!G16)</f>
         <v/>
       </c>
       <c r="H25">
-        <f>IF(ISBLANK('By Round'!H22),"",'By Round'!H22)</f>
+        <f>IF(ISBLANK('By Round'!H16),"",'By Round'!H16)</f>
         <v/>
       </c>
       <c r="I25">
-        <f>IF(ISBLANK('By Round'!I22),"",'By Round'!I22)</f>
+        <f>IF(ISBLANK('By Round'!I16),"",'By Round'!I16)</f>
         <v/>
       </c>
       <c r="J25">
-        <f>IF(ISBLANK('By Round'!J22),"",'By Round'!J22)</f>
+        <f>IF(ISBLANK('By Round'!J16),"",'By Round'!J16)</f>
         <v/>
       </c>
       <c r="K25">
-        <f>IF(ISBLANK('By Round'!K22),"",'By Round'!K22)</f>
+        <f>IF(ISBLANK('By Round'!K16),"",'By Round'!K16)</f>
         <v/>
       </c>
       <c r="L25" s="12">
-        <f>SUM(X25:Y25)</f>
+        <f>AVERAGE(X25:Y25)</f>
         <v/>
       </c>
       <c r="M25" s="13">
-        <f>SUM(Z25:AA25)</f>
+        <f>AVERAGE(Z25:AA25)</f>
         <v/>
       </c>
       <c r="N25" s="8">
@@ -3475,51 +3475,51 @@
     <row r="26">
       <c r="A26" s="15" t="n"/>
       <c r="B26" s="16">
-        <f>'By Round'!A30</f>
+        <f>'By Round'!A21</f>
         <v/>
       </c>
       <c r="C26" s="16">
-        <f>'By Round'!B33</f>
+        <f>'By Round'!B21</f>
         <v/>
       </c>
       <c r="D26" s="16">
-        <f>'By Round'!C33</f>
+        <f>'By Round'!C21</f>
         <v/>
       </c>
       <c r="E26" s="16">
-        <f>'By Round'!D33</f>
+        <f>'By Round'!D21</f>
         <v/>
       </c>
       <c r="F26" s="16">
-        <f>IF(ISBLANK('By Round'!F34),"",'By Round'!F34)</f>
+        <f>IF(ISBLANK('By Round'!F22),"",'By Round'!F22)</f>
         <v/>
       </c>
       <c r="G26" s="15">
-        <f>IF(ISBLANK('By Round'!G34),"",'By Round'!G34)</f>
+        <f>IF(ISBLANK('By Round'!G22),"",'By Round'!G22)</f>
         <v/>
       </c>
       <c r="H26" s="15">
-        <f>IF(ISBLANK('By Round'!H34),"",'By Round'!H34)</f>
+        <f>IF(ISBLANK('By Round'!H22),"",'By Round'!H22)</f>
         <v/>
       </c>
       <c r="I26" s="15">
-        <f>IF(ISBLANK('By Round'!I34),"",'By Round'!I34)</f>
+        <f>IF(ISBLANK('By Round'!I22),"",'By Round'!I22)</f>
         <v/>
       </c>
       <c r="J26" s="15">
-        <f>IF(ISBLANK('By Round'!J34),"",'By Round'!J34)</f>
+        <f>IF(ISBLANK('By Round'!J22),"",'By Round'!J22)</f>
         <v/>
       </c>
       <c r="K26" s="15">
-        <f>IF(ISBLANK('By Round'!K34),"",'By Round'!K34)</f>
+        <f>IF(ISBLANK('By Round'!K22),"",'By Round'!K22)</f>
         <v/>
       </c>
       <c r="L26" s="17">
-        <f>SUM(X26:Y26)</f>
+        <f>AVERAGE(X26:Y26)</f>
         <v/>
       </c>
       <c r="M26" s="18">
-        <f>SUM(Z26:AA26)</f>
+        <f>AVERAGE(Z26:AA26)</f>
         <v/>
       </c>
       <c r="N26" s="19">
@@ -3584,51 +3584,51 @@
         <v>9</v>
       </c>
       <c r="B27" s="11">
-        <f>'By Round'!A12</f>
+        <f>'By Round'!A30</f>
         <v/>
       </c>
       <c r="C27" s="11">
-        <f>'By Round'!B15</f>
+        <f>'By Round'!B33</f>
         <v/>
       </c>
       <c r="D27" s="11">
-        <f>'By Round'!C15</f>
+        <f>'By Round'!C33</f>
         <v/>
       </c>
       <c r="E27" s="11">
-        <f>'By Round'!D15</f>
+        <f>'By Round'!D33</f>
         <v/>
       </c>
       <c r="F27" s="11">
-        <f>IF(ISBLANK('By Round'!F17),"",'By Round'!F17)</f>
+        <f>IF(ISBLANK('By Round'!F35),"",'By Round'!F35)</f>
         <v/>
       </c>
       <c r="G27">
-        <f>IF(ISBLANK('By Round'!G17),"",'By Round'!G17)</f>
+        <f>IF(ISBLANK('By Round'!G35),"",'By Round'!G35)</f>
         <v/>
       </c>
       <c r="H27">
-        <f>IF(ISBLANK('By Round'!H17),"",'By Round'!H17)</f>
+        <f>IF(ISBLANK('By Round'!H35),"",'By Round'!H35)</f>
         <v/>
       </c>
       <c r="I27">
-        <f>IF(ISBLANK('By Round'!I17),"",'By Round'!I17)</f>
+        <f>IF(ISBLANK('By Round'!I35),"",'By Round'!I35)</f>
         <v/>
       </c>
       <c r="J27">
-        <f>IF(ISBLANK('By Round'!J17),"",'By Round'!J17)</f>
+        <f>IF(ISBLANK('By Round'!J35),"",'By Round'!J35)</f>
         <v/>
       </c>
       <c r="K27">
-        <f>IF(ISBLANK('By Round'!K17),"",'By Round'!K17)</f>
+        <f>IF(ISBLANK('By Round'!K35),"",'By Round'!K35)</f>
         <v/>
       </c>
       <c r="L27" s="12">
-        <f>SUM(X27:Y27)</f>
+        <f>AVERAGE(X27:Y27)</f>
         <v/>
       </c>
       <c r="M27" s="13">
-        <f>SUM(Z27:AA27)</f>
+        <f>AVERAGE(Z27:AA27)</f>
         <v/>
       </c>
       <c r="N27" s="8">
@@ -3690,51 +3690,51 @@
     </row>
     <row r="28">
       <c r="B28" s="11">
-        <f>'By Round'!A21</f>
+        <f>'By Round'!A12</f>
         <v/>
       </c>
       <c r="C28" s="11">
-        <f>'By Round'!B21</f>
+        <f>'By Round'!B15</f>
         <v/>
       </c>
       <c r="D28" s="11">
-        <f>'By Round'!C21</f>
+        <f>'By Round'!C15</f>
         <v/>
       </c>
       <c r="E28" s="11">
-        <f>'By Round'!D21</f>
+        <f>'By Round'!D15</f>
         <v/>
       </c>
       <c r="F28" s="11">
-        <f>IF(ISBLANK('By Round'!F23),"",'By Round'!F23)</f>
+        <f>IF(ISBLANK('By Round'!F17),"",'By Round'!F17)</f>
         <v/>
       </c>
       <c r="G28">
-        <f>IF(ISBLANK('By Round'!G23),"",'By Round'!G23)</f>
+        <f>IF(ISBLANK('By Round'!G17),"",'By Round'!G17)</f>
         <v/>
       </c>
       <c r="H28">
-        <f>IF(ISBLANK('By Round'!H23),"",'By Round'!H23)</f>
+        <f>IF(ISBLANK('By Round'!H17),"",'By Round'!H17)</f>
         <v/>
       </c>
       <c r="I28">
-        <f>IF(ISBLANK('By Round'!I23),"",'By Round'!I23)</f>
+        <f>IF(ISBLANK('By Round'!I17),"",'By Round'!I17)</f>
         <v/>
       </c>
       <c r="J28">
-        <f>IF(ISBLANK('By Round'!J23),"",'By Round'!J23)</f>
+        <f>IF(ISBLANK('By Round'!J17),"",'By Round'!J17)</f>
         <v/>
       </c>
       <c r="K28">
-        <f>IF(ISBLANK('By Round'!K23),"",'By Round'!K23)</f>
+        <f>IF(ISBLANK('By Round'!K17),"",'By Round'!K17)</f>
         <v/>
       </c>
       <c r="L28" s="12">
-        <f>SUM(X28:Y28)</f>
+        <f>AVERAGE(X28:Y28)</f>
         <v/>
       </c>
       <c r="M28" s="13">
-        <f>SUM(Z28:AA28)</f>
+        <f>AVERAGE(Z28:AA28)</f>
         <v/>
       </c>
       <c r="N28" s="8">
@@ -3797,51 +3797,51 @@
     <row r="29">
       <c r="A29" s="15" t="n"/>
       <c r="B29" s="16">
-        <f>'By Round'!A30</f>
+        <f>'By Round'!A21</f>
         <v/>
       </c>
       <c r="C29" s="16">
-        <f>'By Round'!B33</f>
+        <f>'By Round'!B21</f>
         <v/>
       </c>
       <c r="D29" s="16">
-        <f>'By Round'!C33</f>
+        <f>'By Round'!C21</f>
         <v/>
       </c>
       <c r="E29" s="16">
-        <f>'By Round'!D33</f>
+        <f>'By Round'!D21</f>
         <v/>
       </c>
       <c r="F29" s="16">
-        <f>IF(ISBLANK('By Round'!F35),"",'By Round'!F35)</f>
+        <f>IF(ISBLANK('By Round'!F23),"",'By Round'!F23)</f>
         <v/>
       </c>
       <c r="G29" s="15">
-        <f>IF(ISBLANK('By Round'!G35),"",'By Round'!G35)</f>
+        <f>IF(ISBLANK('By Round'!G23),"",'By Round'!G23)</f>
         <v/>
       </c>
       <c r="H29" s="15">
-        <f>IF(ISBLANK('By Round'!H35),"",'By Round'!H35)</f>
+        <f>IF(ISBLANK('By Round'!H23),"",'By Round'!H23)</f>
         <v/>
       </c>
       <c r="I29" s="15">
-        <f>IF(ISBLANK('By Round'!I35),"",'By Round'!I35)</f>
+        <f>IF(ISBLANK('By Round'!I23),"",'By Round'!I23)</f>
         <v/>
       </c>
       <c r="J29" s="15">
-        <f>IF(ISBLANK('By Round'!J35),"",'By Round'!J35)</f>
+        <f>IF(ISBLANK('By Round'!J23),"",'By Round'!J23)</f>
         <v/>
       </c>
       <c r="K29" s="15">
-        <f>IF(ISBLANK('By Round'!K35),"",'By Round'!K35)</f>
+        <f>IF(ISBLANK('By Round'!K23),"",'By Round'!K23)</f>
         <v/>
       </c>
       <c r="L29" s="17">
-        <f>SUM(X29:Y29)</f>
+        <f>AVERAGE(X29:Y29)</f>
         <v/>
       </c>
       <c r="M29" s="18">
-        <f>SUM(Z29:AA29)</f>
+        <f>AVERAGE(Z29:AA29)</f>
         <v/>
       </c>
       <c r="N29" s="19">
@@ -3906,51 +3906,51 @@
         <v>10</v>
       </c>
       <c r="B30" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A12</f>
         <v/>
       </c>
       <c r="C30" s="11">
-        <f>'By Round'!B9</f>
+        <f>'By Round'!B18</f>
         <v/>
       </c>
       <c r="D30" s="11">
-        <f>'By Round'!C9</f>
+        <f>'By Round'!C18</f>
         <v/>
       </c>
       <c r="E30" s="11">
-        <f>'By Round'!D9</f>
+        <f>'By Round'!D18</f>
         <v/>
       </c>
       <c r="F30" s="11">
-        <f>IF(ISBLANK('By Round'!F9),"",'By Round'!F9)</f>
+        <f>IF(ISBLANK('By Round'!F18),"",'By Round'!F18)</f>
         <v/>
       </c>
       <c r="G30">
-        <f>IF(ISBLANK('By Round'!G9),"",'By Round'!G9)</f>
+        <f>IF(ISBLANK('By Round'!G18),"",'By Round'!G18)</f>
         <v/>
       </c>
       <c r="H30">
-        <f>IF(ISBLANK('By Round'!H9),"",'By Round'!H9)</f>
+        <f>IF(ISBLANK('By Round'!H18),"",'By Round'!H18)</f>
         <v/>
       </c>
       <c r="I30">
-        <f>IF(ISBLANK('By Round'!I9),"",'By Round'!I9)</f>
+        <f>IF(ISBLANK('By Round'!I18),"",'By Round'!I18)</f>
         <v/>
       </c>
       <c r="J30">
-        <f>IF(ISBLANK('By Round'!J9),"",'By Round'!J9)</f>
+        <f>IF(ISBLANK('By Round'!J18),"",'By Round'!J18)</f>
         <v/>
       </c>
       <c r="K30">
-        <f>IF(ISBLANK('By Round'!K9),"",'By Round'!K9)</f>
+        <f>IF(ISBLANK('By Round'!K18),"",'By Round'!K18)</f>
         <v/>
       </c>
       <c r="L30" s="12">
-        <f>SUM(X30:Y30)</f>
+        <f>AVERAGE(X30:Y30)</f>
         <v/>
       </c>
       <c r="M30" s="13">
-        <f>SUM(Z30:AA30)</f>
+        <f>AVERAGE(Z30:AA30)</f>
         <v/>
       </c>
       <c r="N30" s="8">
@@ -4012,51 +4012,51 @@
     </row>
     <row r="31">
       <c r="B31" s="11">
-        <f>'By Round'!A12</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C31" s="11">
-        <f>'By Round'!B18</f>
+        <f>'By Round'!B9</f>
         <v/>
       </c>
       <c r="D31" s="11">
-        <f>'By Round'!C18</f>
+        <f>'By Round'!C9</f>
         <v/>
       </c>
       <c r="E31" s="11">
-        <f>'By Round'!D18</f>
+        <f>'By Round'!D9</f>
         <v/>
       </c>
       <c r="F31" s="11">
-        <f>IF(ISBLANK('By Round'!F18),"",'By Round'!F18)</f>
+        <f>IF(ISBLANK('By Round'!F9),"",'By Round'!F9)</f>
         <v/>
       </c>
       <c r="G31">
-        <f>IF(ISBLANK('By Round'!G18),"",'By Round'!G18)</f>
+        <f>IF(ISBLANK('By Round'!G9),"",'By Round'!G9)</f>
         <v/>
       </c>
       <c r="H31">
-        <f>IF(ISBLANK('By Round'!H18),"",'By Round'!H18)</f>
+        <f>IF(ISBLANK('By Round'!H9),"",'By Round'!H9)</f>
         <v/>
       </c>
       <c r="I31">
-        <f>IF(ISBLANK('By Round'!I18),"",'By Round'!I18)</f>
+        <f>IF(ISBLANK('By Round'!I9),"",'By Round'!I9)</f>
         <v/>
       </c>
       <c r="J31">
-        <f>IF(ISBLANK('By Round'!J18),"",'By Round'!J18)</f>
+        <f>IF(ISBLANK('By Round'!J9),"",'By Round'!J9)</f>
         <v/>
       </c>
       <c r="K31">
-        <f>IF(ISBLANK('By Round'!K18),"",'By Round'!K18)</f>
+        <f>IF(ISBLANK('By Round'!K9),"",'By Round'!K9)</f>
         <v/>
       </c>
       <c r="L31" s="12">
-        <f>SUM(X31:Y31)</f>
+        <f>AVERAGE(X31:Y31)</f>
         <v/>
       </c>
       <c r="M31" s="13">
-        <f>SUM(Z31:AA31)</f>
+        <f>AVERAGE(Z31:AA31)</f>
         <v/>
       </c>
       <c r="N31" s="8">
@@ -4159,11 +4159,11 @@
         <v/>
       </c>
       <c r="L32" s="17">
-        <f>SUM(X32:Y32)</f>
+        <f>AVERAGE(X32:Y32)</f>
         <v/>
       </c>
       <c r="M32" s="18">
-        <f>SUM(Z32:AA32)</f>
+        <f>AVERAGE(Z32:AA32)</f>
         <v/>
       </c>
       <c r="N32" s="19">
@@ -4228,51 +4228,51 @@
         <v>11</v>
       </c>
       <c r="B33" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A12</f>
         <v/>
       </c>
       <c r="C33" s="11">
-        <f>'By Round'!B9</f>
+        <f>'By Round'!B18</f>
         <v/>
       </c>
       <c r="D33" s="11">
-        <f>'By Round'!C9</f>
+        <f>'By Round'!C18</f>
         <v/>
       </c>
       <c r="E33" s="11">
-        <f>'By Round'!D9</f>
+        <f>'By Round'!D18</f>
         <v/>
       </c>
       <c r="F33" s="11">
-        <f>IF(ISBLANK('By Round'!F10),"",'By Round'!F10)</f>
+        <f>IF(ISBLANK('By Round'!F19),"",'By Round'!F19)</f>
         <v/>
       </c>
       <c r="G33">
-        <f>IF(ISBLANK('By Round'!G10),"",'By Round'!G10)</f>
+        <f>IF(ISBLANK('By Round'!G19),"",'By Round'!G19)</f>
         <v/>
       </c>
       <c r="H33">
-        <f>IF(ISBLANK('By Round'!H10),"",'By Round'!H10)</f>
+        <f>IF(ISBLANK('By Round'!H19),"",'By Round'!H19)</f>
         <v/>
       </c>
       <c r="I33">
-        <f>IF(ISBLANK('By Round'!I10),"",'By Round'!I10)</f>
+        <f>IF(ISBLANK('By Round'!I19),"",'By Round'!I19)</f>
         <v/>
       </c>
       <c r="J33">
-        <f>IF(ISBLANK('By Round'!J10),"",'By Round'!J10)</f>
+        <f>IF(ISBLANK('By Round'!J19),"",'By Round'!J19)</f>
         <v/>
       </c>
       <c r="K33">
-        <f>IF(ISBLANK('By Round'!K10),"",'By Round'!K10)</f>
+        <f>IF(ISBLANK('By Round'!K19),"",'By Round'!K19)</f>
         <v/>
       </c>
       <c r="L33" s="12">
-        <f>SUM(X33:Y33)</f>
+        <f>AVERAGE(X33:Y33)</f>
         <v/>
       </c>
       <c r="M33" s="13">
-        <f>SUM(Z33:AA33)</f>
+        <f>AVERAGE(Z33:AA33)</f>
         <v/>
       </c>
       <c r="N33" s="8">
@@ -4334,51 +4334,51 @@
     </row>
     <row r="34">
       <c r="B34" s="11">
-        <f>'By Round'!A12</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C34" s="11">
-        <f>'By Round'!B18</f>
+        <f>'By Round'!B9</f>
         <v/>
       </c>
       <c r="D34" s="11">
-        <f>'By Round'!C18</f>
+        <f>'By Round'!C9</f>
         <v/>
       </c>
       <c r="E34" s="11">
-        <f>'By Round'!D18</f>
+        <f>'By Round'!D9</f>
         <v/>
       </c>
       <c r="F34" s="11">
-        <f>IF(ISBLANK('By Round'!F19),"",'By Round'!F19)</f>
+        <f>IF(ISBLANK('By Round'!F10),"",'By Round'!F10)</f>
         <v/>
       </c>
       <c r="G34">
-        <f>IF(ISBLANK('By Round'!G19),"",'By Round'!G19)</f>
+        <f>IF(ISBLANK('By Round'!G10),"",'By Round'!G10)</f>
         <v/>
       </c>
       <c r="H34">
-        <f>IF(ISBLANK('By Round'!H19),"",'By Round'!H19)</f>
+        <f>IF(ISBLANK('By Round'!H10),"",'By Round'!H10)</f>
         <v/>
       </c>
       <c r="I34">
-        <f>IF(ISBLANK('By Round'!I19),"",'By Round'!I19)</f>
+        <f>IF(ISBLANK('By Round'!I10),"",'By Round'!I10)</f>
         <v/>
       </c>
       <c r="J34">
-        <f>IF(ISBLANK('By Round'!J19),"",'By Round'!J19)</f>
+        <f>IF(ISBLANK('By Round'!J10),"",'By Round'!J10)</f>
         <v/>
       </c>
       <c r="K34">
-        <f>IF(ISBLANK('By Round'!K19),"",'By Round'!K19)</f>
+        <f>IF(ISBLANK('By Round'!K10),"",'By Round'!K10)</f>
         <v/>
       </c>
       <c r="L34" s="12">
-        <f>SUM(X34:Y34)</f>
+        <f>AVERAGE(X34:Y34)</f>
         <v/>
       </c>
       <c r="M34" s="13">
-        <f>SUM(Z34:AA34)</f>
+        <f>AVERAGE(Z34:AA34)</f>
         <v/>
       </c>
       <c r="N34" s="8">
@@ -4481,11 +4481,11 @@
         <v/>
       </c>
       <c r="L35" s="17">
-        <f>SUM(X35:Y35)</f>
+        <f>AVERAGE(X35:Y35)</f>
         <v/>
       </c>
       <c r="M35" s="18">
-        <f>SUM(Z35:AA35)</f>
+        <f>AVERAGE(Z35:AA35)</f>
         <v/>
       </c>
       <c r="N35" s="19">
@@ -4550,51 +4550,51 @@
         <v>12</v>
       </c>
       <c r="B36" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A12</f>
         <v/>
       </c>
       <c r="C36" s="11">
-        <f>'By Round'!B9</f>
+        <f>'By Round'!B18</f>
         <v/>
       </c>
       <c r="D36" s="11">
-        <f>'By Round'!C9</f>
+        <f>'By Round'!C18</f>
         <v/>
       </c>
       <c r="E36" s="11">
-        <f>'By Round'!D9</f>
+        <f>'By Round'!D18</f>
         <v/>
       </c>
       <c r="F36" s="11">
-        <f>IF(ISBLANK('By Round'!F11),"",'By Round'!F11)</f>
+        <f>IF(ISBLANK('By Round'!F20),"",'By Round'!F20)</f>
         <v/>
       </c>
       <c r="G36">
-        <f>IF(ISBLANK('By Round'!G11),"",'By Round'!G11)</f>
+        <f>IF(ISBLANK('By Round'!G20),"",'By Round'!G20)</f>
         <v/>
       </c>
       <c r="H36">
-        <f>IF(ISBLANK('By Round'!H11),"",'By Round'!H11)</f>
+        <f>IF(ISBLANK('By Round'!H20),"",'By Round'!H20)</f>
         <v/>
       </c>
       <c r="I36">
-        <f>IF(ISBLANK('By Round'!I11),"",'By Round'!I11)</f>
+        <f>IF(ISBLANK('By Round'!I20),"",'By Round'!I20)</f>
         <v/>
       </c>
       <c r="J36">
-        <f>IF(ISBLANK('By Round'!J11),"",'By Round'!J11)</f>
+        <f>IF(ISBLANK('By Round'!J20),"",'By Round'!J20)</f>
         <v/>
       </c>
       <c r="K36">
-        <f>IF(ISBLANK('By Round'!K11),"",'By Round'!K11)</f>
+        <f>IF(ISBLANK('By Round'!K20),"",'By Round'!K20)</f>
         <v/>
       </c>
       <c r="L36" s="12">
-        <f>SUM(X36:Y36)</f>
+        <f>AVERAGE(X36:Y36)</f>
         <v/>
       </c>
       <c r="M36" s="13">
-        <f>SUM(Z36:AA36)</f>
+        <f>AVERAGE(Z36:AA36)</f>
         <v/>
       </c>
       <c r="N36" s="8">
@@ -4656,51 +4656,51 @@
     </row>
     <row r="37">
       <c r="B37" s="11">
-        <f>'By Round'!A12</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C37" s="11">
-        <f>'By Round'!B18</f>
+        <f>'By Round'!B9</f>
         <v/>
       </c>
       <c r="D37" s="11">
-        <f>'By Round'!C18</f>
+        <f>'By Round'!C9</f>
         <v/>
       </c>
       <c r="E37" s="11">
-        <f>'By Round'!D18</f>
+        <f>'By Round'!D9</f>
         <v/>
       </c>
       <c r="F37" s="11">
-        <f>IF(ISBLANK('By Round'!F20),"",'By Round'!F20)</f>
+        <f>IF(ISBLANK('By Round'!F11),"",'By Round'!F11)</f>
         <v/>
       </c>
       <c r="G37">
-        <f>IF(ISBLANK('By Round'!G20),"",'By Round'!G20)</f>
+        <f>IF(ISBLANK('By Round'!G11),"",'By Round'!G11)</f>
         <v/>
       </c>
       <c r="H37">
-        <f>IF(ISBLANK('By Round'!H20),"",'By Round'!H20)</f>
+        <f>IF(ISBLANK('By Round'!H11),"",'By Round'!H11)</f>
         <v/>
       </c>
       <c r="I37">
-        <f>IF(ISBLANK('By Round'!I20),"",'By Round'!I20)</f>
+        <f>IF(ISBLANK('By Round'!I11),"",'By Round'!I11)</f>
         <v/>
       </c>
       <c r="J37">
-        <f>IF(ISBLANK('By Round'!J20),"",'By Round'!J20)</f>
+        <f>IF(ISBLANK('By Round'!J11),"",'By Round'!J11)</f>
         <v/>
       </c>
       <c r="K37">
-        <f>IF(ISBLANK('By Round'!K20),"",'By Round'!K20)</f>
+        <f>IF(ISBLANK('By Round'!K11),"",'By Round'!K11)</f>
         <v/>
       </c>
       <c r="L37" s="12">
-        <f>SUM(X37:Y37)</f>
+        <f>AVERAGE(X37:Y37)</f>
         <v/>
       </c>
       <c r="M37" s="13">
-        <f>SUM(Z37:AA37)</f>
+        <f>AVERAGE(Z37:AA37)</f>
         <v/>
       </c>
       <c r="N37" s="8">
@@ -4803,11 +4803,11 @@
         <v/>
       </c>
       <c r="L38" s="17">
-        <f>SUM(X38:Y38)</f>
+        <f>AVERAGE(X38:Y38)</f>
         <v/>
       </c>
       <c r="M38" s="18">
-        <f>SUM(Z38:AA38)</f>
+        <f>AVERAGE(Z38:AA38)</f>
         <v/>
       </c>
       <c r="N38" s="19">
@@ -4876,47 +4876,47 @@
         <v/>
       </c>
       <c r="C39" s="11">
-        <f>'By Round'!B39</f>
+        <f>'By Round'!B42</f>
         <v/>
       </c>
       <c r="D39" s="11">
-        <f>'By Round'!C39</f>
+        <f>'By Round'!C42</f>
         <v/>
       </c>
       <c r="E39" s="11">
-        <f>'By Round'!D39</f>
+        <f>'By Round'!D42</f>
         <v/>
       </c>
       <c r="F39" s="11">
-        <f>IF(ISBLANK('By Round'!F39),"",'By Round'!F39)</f>
+        <f>IF(ISBLANK('By Round'!F42),"",'By Round'!F42)</f>
         <v/>
       </c>
       <c r="G39">
-        <f>IF(ISBLANK('By Round'!G39),"",'By Round'!G39)</f>
+        <f>IF(ISBLANK('By Round'!G42),"",'By Round'!G42)</f>
         <v/>
       </c>
       <c r="H39">
-        <f>IF(ISBLANK('By Round'!H39),"",'By Round'!H39)</f>
+        <f>IF(ISBLANK('By Round'!H42),"",'By Round'!H42)</f>
         <v/>
       </c>
       <c r="I39">
-        <f>IF(ISBLANK('By Round'!I39),"",'By Round'!I39)</f>
+        <f>IF(ISBLANK('By Round'!I42),"",'By Round'!I42)</f>
         <v/>
       </c>
       <c r="J39">
-        <f>IF(ISBLANK('By Round'!J39),"",'By Round'!J39)</f>
+        <f>IF(ISBLANK('By Round'!J42),"",'By Round'!J42)</f>
         <v/>
       </c>
       <c r="K39">
-        <f>IF(ISBLANK('By Round'!K39),"",'By Round'!K39)</f>
+        <f>IF(ISBLANK('By Round'!K42),"",'By Round'!K42)</f>
         <v/>
       </c>
       <c r="L39" s="12">
-        <f>SUM(X39:Y39)</f>
+        <f>AVERAGE(X39:Y39)</f>
         <v/>
       </c>
       <c r="M39" s="13">
-        <f>SUM(Z39:AA39)</f>
+        <f>AVERAGE(Z39:AA39)</f>
         <v/>
       </c>
       <c r="N39" s="8">
@@ -4982,47 +4982,47 @@
         <v/>
       </c>
       <c r="C40" s="11">
-        <f>'By Round'!B42</f>
+        <f>'By Round'!B45</f>
         <v/>
       </c>
       <c r="D40" s="11">
-        <f>'By Round'!C42</f>
+        <f>'By Round'!C45</f>
         <v/>
       </c>
       <c r="E40" s="11">
-        <f>'By Round'!D42</f>
+        <f>'By Round'!D45</f>
         <v/>
       </c>
       <c r="F40" s="11">
-        <f>IF(ISBLANK('By Round'!F42),"",'By Round'!F42)</f>
+        <f>IF(ISBLANK('By Round'!F45),"",'By Round'!F45)</f>
         <v/>
       </c>
       <c r="G40">
-        <f>IF(ISBLANK('By Round'!G42),"",'By Round'!G42)</f>
+        <f>IF(ISBLANK('By Round'!G45),"",'By Round'!G45)</f>
         <v/>
       </c>
       <c r="H40">
-        <f>IF(ISBLANK('By Round'!H42),"",'By Round'!H42)</f>
+        <f>IF(ISBLANK('By Round'!H45),"",'By Round'!H45)</f>
         <v/>
       </c>
       <c r="I40">
-        <f>IF(ISBLANK('By Round'!I42),"",'By Round'!I42)</f>
+        <f>IF(ISBLANK('By Round'!I45),"",'By Round'!I45)</f>
         <v/>
       </c>
       <c r="J40">
-        <f>IF(ISBLANK('By Round'!J42),"",'By Round'!J42)</f>
+        <f>IF(ISBLANK('By Round'!J45),"",'By Round'!J45)</f>
         <v/>
       </c>
       <c r="K40">
-        <f>IF(ISBLANK('By Round'!K42),"",'By Round'!K42)</f>
+        <f>IF(ISBLANK('By Round'!K45),"",'By Round'!K45)</f>
         <v/>
       </c>
       <c r="L40" s="12">
-        <f>SUM(X40:Y40)</f>
+        <f>AVERAGE(X40:Y40)</f>
         <v/>
       </c>
       <c r="M40" s="13">
-        <f>SUM(Z40:AA40)</f>
+        <f>AVERAGE(Z40:AA40)</f>
         <v/>
       </c>
       <c r="N40" s="8">
@@ -5089,47 +5089,47 @@
         <v/>
       </c>
       <c r="C41" s="16">
-        <f>'By Round'!B45</f>
+        <f>'By Round'!B39</f>
         <v/>
       </c>
       <c r="D41" s="16">
-        <f>'By Round'!C45</f>
+        <f>'By Round'!C39</f>
         <v/>
       </c>
       <c r="E41" s="16">
-        <f>'By Round'!D45</f>
+        <f>'By Round'!D39</f>
         <v/>
       </c>
       <c r="F41" s="16">
-        <f>IF(ISBLANK('By Round'!F45),"",'By Round'!F45)</f>
+        <f>IF(ISBLANK('By Round'!F39),"",'By Round'!F39)</f>
         <v/>
       </c>
       <c r="G41" s="15">
-        <f>IF(ISBLANK('By Round'!G45),"",'By Round'!G45)</f>
+        <f>IF(ISBLANK('By Round'!G39),"",'By Round'!G39)</f>
         <v/>
       </c>
       <c r="H41" s="15">
-        <f>IF(ISBLANK('By Round'!H45),"",'By Round'!H45)</f>
+        <f>IF(ISBLANK('By Round'!H39),"",'By Round'!H39)</f>
         <v/>
       </c>
       <c r="I41" s="15">
-        <f>IF(ISBLANK('By Round'!I45),"",'By Round'!I45)</f>
+        <f>IF(ISBLANK('By Round'!I39),"",'By Round'!I39)</f>
         <v/>
       </c>
       <c r="J41" s="15">
-        <f>IF(ISBLANK('By Round'!J45),"",'By Round'!J45)</f>
+        <f>IF(ISBLANK('By Round'!J39),"",'By Round'!J39)</f>
         <v/>
       </c>
       <c r="K41" s="15">
-        <f>IF(ISBLANK('By Round'!K45),"",'By Round'!K45)</f>
+        <f>IF(ISBLANK('By Round'!K39),"",'By Round'!K39)</f>
         <v/>
       </c>
       <c r="L41" s="17">
-        <f>SUM(X41:Y41)</f>
+        <f>AVERAGE(X41:Y41)</f>
         <v/>
       </c>
       <c r="M41" s="18">
-        <f>SUM(Z41:AA41)</f>
+        <f>AVERAGE(Z41:AA41)</f>
         <v/>
       </c>
       <c r="N41" s="19">
@@ -5198,47 +5198,47 @@
         <v/>
       </c>
       <c r="C42" s="11">
-        <f>'By Round'!B39</f>
+        <f>'By Round'!B42</f>
         <v/>
       </c>
       <c r="D42" s="11">
-        <f>'By Round'!C39</f>
+        <f>'By Round'!C42</f>
         <v/>
       </c>
       <c r="E42" s="11">
-        <f>'By Round'!D39</f>
+        <f>'By Round'!D42</f>
         <v/>
       </c>
       <c r="F42" s="11">
-        <f>IF(ISBLANK('By Round'!F40),"",'By Round'!F40)</f>
+        <f>IF(ISBLANK('By Round'!F43),"",'By Round'!F43)</f>
         <v/>
       </c>
       <c r="G42">
-        <f>IF(ISBLANK('By Round'!G40),"",'By Round'!G40)</f>
+        <f>IF(ISBLANK('By Round'!G43),"",'By Round'!G43)</f>
         <v/>
       </c>
       <c r="H42">
-        <f>IF(ISBLANK('By Round'!H40),"",'By Round'!H40)</f>
+        <f>IF(ISBLANK('By Round'!H43),"",'By Round'!H43)</f>
         <v/>
       </c>
       <c r="I42">
-        <f>IF(ISBLANK('By Round'!I40),"",'By Round'!I40)</f>
+        <f>IF(ISBLANK('By Round'!I43),"",'By Round'!I43)</f>
         <v/>
       </c>
       <c r="J42">
-        <f>IF(ISBLANK('By Round'!J40),"",'By Round'!J40)</f>
+        <f>IF(ISBLANK('By Round'!J43),"",'By Round'!J43)</f>
         <v/>
       </c>
       <c r="K42">
-        <f>IF(ISBLANK('By Round'!K40),"",'By Round'!K40)</f>
+        <f>IF(ISBLANK('By Round'!K43),"",'By Round'!K43)</f>
         <v/>
       </c>
       <c r="L42" s="12">
-        <f>SUM(X42:Y42)</f>
+        <f>AVERAGE(X42:Y42)</f>
         <v/>
       </c>
       <c r="M42" s="13">
-        <f>SUM(Z42:AA42)</f>
+        <f>AVERAGE(Z42:AA42)</f>
         <v/>
       </c>
       <c r="N42" s="8">
@@ -5304,47 +5304,47 @@
         <v/>
       </c>
       <c r="C43" s="11">
-        <f>'By Round'!B42</f>
+        <f>'By Round'!B45</f>
         <v/>
       </c>
       <c r="D43" s="11">
-        <f>'By Round'!C42</f>
+        <f>'By Round'!C45</f>
         <v/>
       </c>
       <c r="E43" s="11">
-        <f>'By Round'!D42</f>
+        <f>'By Round'!D45</f>
         <v/>
       </c>
       <c r="F43" s="11">
-        <f>IF(ISBLANK('By Round'!F43),"",'By Round'!F43)</f>
+        <f>IF(ISBLANK('By Round'!F46),"",'By Round'!F46)</f>
         <v/>
       </c>
       <c r="G43">
-        <f>IF(ISBLANK('By Round'!G43),"",'By Round'!G43)</f>
+        <f>IF(ISBLANK('By Round'!G46),"",'By Round'!G46)</f>
         <v/>
       </c>
       <c r="H43">
-        <f>IF(ISBLANK('By Round'!H43),"",'By Round'!H43)</f>
+        <f>IF(ISBLANK('By Round'!H46),"",'By Round'!H46)</f>
         <v/>
       </c>
       <c r="I43">
-        <f>IF(ISBLANK('By Round'!I43),"",'By Round'!I43)</f>
+        <f>IF(ISBLANK('By Round'!I46),"",'By Round'!I46)</f>
         <v/>
       </c>
       <c r="J43">
-        <f>IF(ISBLANK('By Round'!J43),"",'By Round'!J43)</f>
+        <f>IF(ISBLANK('By Round'!J46),"",'By Round'!J46)</f>
         <v/>
       </c>
       <c r="K43">
-        <f>IF(ISBLANK('By Round'!K43),"",'By Round'!K43)</f>
+        <f>IF(ISBLANK('By Round'!K46),"",'By Round'!K46)</f>
         <v/>
       </c>
       <c r="L43" s="12">
-        <f>SUM(X43:Y43)</f>
+        <f>AVERAGE(X43:Y43)</f>
         <v/>
       </c>
       <c r="M43" s="13">
-        <f>SUM(Z43:AA43)</f>
+        <f>AVERAGE(Z43:AA43)</f>
         <v/>
       </c>
       <c r="N43" s="8">
@@ -5411,47 +5411,47 @@
         <v/>
       </c>
       <c r="C44" s="16">
-        <f>'By Round'!B45</f>
+        <f>'By Round'!B39</f>
         <v/>
       </c>
       <c r="D44" s="16">
-        <f>'By Round'!C45</f>
+        <f>'By Round'!C39</f>
         <v/>
       </c>
       <c r="E44" s="16">
-        <f>'By Round'!D45</f>
+        <f>'By Round'!D39</f>
         <v/>
       </c>
       <c r="F44" s="16">
-        <f>IF(ISBLANK('By Round'!F46),"",'By Round'!F46)</f>
+        <f>IF(ISBLANK('By Round'!F40),"",'By Round'!F40)</f>
         <v/>
       </c>
       <c r="G44" s="15">
-        <f>IF(ISBLANK('By Round'!G46),"",'By Round'!G46)</f>
+        <f>IF(ISBLANK('By Round'!G40),"",'By Round'!G40)</f>
         <v/>
       </c>
       <c r="H44" s="15">
-        <f>IF(ISBLANK('By Round'!H46),"",'By Round'!H46)</f>
+        <f>IF(ISBLANK('By Round'!H40),"",'By Round'!H40)</f>
         <v/>
       </c>
       <c r="I44" s="15">
-        <f>IF(ISBLANK('By Round'!I46),"",'By Round'!I46)</f>
+        <f>IF(ISBLANK('By Round'!I40),"",'By Round'!I40)</f>
         <v/>
       </c>
       <c r="J44" s="15">
-        <f>IF(ISBLANK('By Round'!J46),"",'By Round'!J46)</f>
+        <f>IF(ISBLANK('By Round'!J40),"",'By Round'!J40)</f>
         <v/>
       </c>
       <c r="K44" s="15">
-        <f>IF(ISBLANK('By Round'!K46),"",'By Round'!K46)</f>
+        <f>IF(ISBLANK('By Round'!K40),"",'By Round'!K40)</f>
         <v/>
       </c>
       <c r="L44" s="17">
-        <f>SUM(X44:Y44)</f>
+        <f>AVERAGE(X44:Y44)</f>
         <v/>
       </c>
       <c r="M44" s="18">
-        <f>SUM(Z44:AA44)</f>
+        <f>AVERAGE(Z44:AA44)</f>
         <v/>
       </c>
       <c r="N44" s="19">
@@ -5520,47 +5520,47 @@
         <v/>
       </c>
       <c r="C45" s="11">
-        <f>'By Round'!B39</f>
+        <f>'By Round'!B42</f>
         <v/>
       </c>
       <c r="D45" s="11">
-        <f>'By Round'!C39</f>
+        <f>'By Round'!C42</f>
         <v/>
       </c>
       <c r="E45" s="11">
-        <f>'By Round'!D39</f>
+        <f>'By Round'!D42</f>
         <v/>
       </c>
       <c r="F45" s="11">
-        <f>IF(ISBLANK('By Round'!F41),"",'By Round'!F41)</f>
+        <f>IF(ISBLANK('By Round'!F44),"",'By Round'!F44)</f>
         <v/>
       </c>
       <c r="G45">
-        <f>IF(ISBLANK('By Round'!G41),"",'By Round'!G41)</f>
+        <f>IF(ISBLANK('By Round'!G44),"",'By Round'!G44)</f>
         <v/>
       </c>
       <c r="H45">
-        <f>IF(ISBLANK('By Round'!H41),"",'By Round'!H41)</f>
+        <f>IF(ISBLANK('By Round'!H44),"",'By Round'!H44)</f>
         <v/>
       </c>
       <c r="I45">
-        <f>IF(ISBLANK('By Round'!I41),"",'By Round'!I41)</f>
+        <f>IF(ISBLANK('By Round'!I44),"",'By Round'!I44)</f>
         <v/>
       </c>
       <c r="J45">
-        <f>IF(ISBLANK('By Round'!J41),"",'By Round'!J41)</f>
+        <f>IF(ISBLANK('By Round'!J44),"",'By Round'!J44)</f>
         <v/>
       </c>
       <c r="K45">
-        <f>IF(ISBLANK('By Round'!K41),"",'By Round'!K41)</f>
+        <f>IF(ISBLANK('By Round'!K44),"",'By Round'!K44)</f>
         <v/>
       </c>
       <c r="L45" s="12">
-        <f>SUM(X45:Y45)</f>
+        <f>AVERAGE(X45:Y45)</f>
         <v/>
       </c>
       <c r="M45" s="13">
-        <f>SUM(Z45:AA45)</f>
+        <f>AVERAGE(Z45:AA45)</f>
         <v/>
       </c>
       <c r="N45" s="8">
@@ -5626,47 +5626,47 @@
         <v/>
       </c>
       <c r="C46" s="11">
-        <f>'By Round'!B42</f>
+        <f>'By Round'!B45</f>
         <v/>
       </c>
       <c r="D46" s="11">
-        <f>'By Round'!C42</f>
+        <f>'By Round'!C45</f>
         <v/>
       </c>
       <c r="E46" s="11">
-        <f>'By Round'!D42</f>
+        <f>'By Round'!D45</f>
         <v/>
       </c>
       <c r="F46" s="11">
-        <f>IF(ISBLANK('By Round'!F44),"",'By Round'!F44)</f>
+        <f>IF(ISBLANK('By Round'!F47),"",'By Round'!F47)</f>
         <v/>
       </c>
       <c r="G46">
-        <f>IF(ISBLANK('By Round'!G44),"",'By Round'!G44)</f>
+        <f>IF(ISBLANK('By Round'!G47),"",'By Round'!G47)</f>
         <v/>
       </c>
       <c r="H46">
-        <f>IF(ISBLANK('By Round'!H44),"",'By Round'!H44)</f>
+        <f>IF(ISBLANK('By Round'!H47),"",'By Round'!H47)</f>
         <v/>
       </c>
       <c r="I46">
-        <f>IF(ISBLANK('By Round'!I44),"",'By Round'!I44)</f>
+        <f>IF(ISBLANK('By Round'!I47),"",'By Round'!I47)</f>
         <v/>
       </c>
       <c r="J46">
-        <f>IF(ISBLANK('By Round'!J44),"",'By Round'!J44)</f>
+        <f>IF(ISBLANK('By Round'!J47),"",'By Round'!J47)</f>
         <v/>
       </c>
       <c r="K46">
-        <f>IF(ISBLANK('By Round'!K44),"",'By Round'!K44)</f>
+        <f>IF(ISBLANK('By Round'!K47),"",'By Round'!K47)</f>
         <v/>
       </c>
       <c r="L46" s="12">
-        <f>SUM(X46:Y46)</f>
+        <f>AVERAGE(X46:Y46)</f>
         <v/>
       </c>
       <c r="M46" s="13">
-        <f>SUM(Z46:AA46)</f>
+        <f>AVERAGE(Z46:AA46)</f>
         <v/>
       </c>
       <c r="N46" s="8">
@@ -5733,47 +5733,47 @@
         <v/>
       </c>
       <c r="C47" s="16">
-        <f>'By Round'!B45</f>
+        <f>'By Round'!B39</f>
         <v/>
       </c>
       <c r="D47" s="16">
-        <f>'By Round'!C45</f>
+        <f>'By Round'!C39</f>
         <v/>
       </c>
       <c r="E47" s="16">
-        <f>'By Round'!D45</f>
+        <f>'By Round'!D39</f>
         <v/>
       </c>
       <c r="F47" s="16">
-        <f>IF(ISBLANK('By Round'!F47),"",'By Round'!F47)</f>
+        <f>IF(ISBLANK('By Round'!F41),"",'By Round'!F41)</f>
         <v/>
       </c>
       <c r="G47" s="15">
-        <f>IF(ISBLANK('By Round'!G47),"",'By Round'!G47)</f>
+        <f>IF(ISBLANK('By Round'!G41),"",'By Round'!G41)</f>
         <v/>
       </c>
       <c r="H47" s="15">
-        <f>IF(ISBLANK('By Round'!H47),"",'By Round'!H47)</f>
+        <f>IF(ISBLANK('By Round'!H41),"",'By Round'!H41)</f>
         <v/>
       </c>
       <c r="I47" s="15">
-        <f>IF(ISBLANK('By Round'!I47),"",'By Round'!I47)</f>
+        <f>IF(ISBLANK('By Round'!I41),"",'By Round'!I41)</f>
         <v/>
       </c>
       <c r="J47" s="15">
-        <f>IF(ISBLANK('By Round'!J47),"",'By Round'!J47)</f>
+        <f>IF(ISBLANK('By Round'!J41),"",'By Round'!J41)</f>
         <v/>
       </c>
       <c r="K47" s="15">
-        <f>IF(ISBLANK('By Round'!K47),"",'By Round'!K47)</f>
+        <f>IF(ISBLANK('By Round'!K41),"",'By Round'!K41)</f>
         <v/>
       </c>
       <c r="L47" s="17">
-        <f>SUM(X47:Y47)</f>
+        <f>AVERAGE(X47:Y47)</f>
         <v/>
       </c>
       <c r="M47" s="18">
-        <f>SUM(Z47:AA47)</f>
+        <f>AVERAGE(Z47:AA47)</f>
         <v/>
       </c>
       <c r="N47" s="19">
@@ -7963,7 +7963,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="22" t="n">
         <v>90</v>
@@ -7986,7 +7986,7 @@
     </row>
     <row r="25">
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="22" t="n">
         <v>110</v>
@@ -8009,7 +8009,7 @@
     </row>
     <row r="26">
       <c r="B26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="22" t="n">
         <v>130</v>
@@ -8032,7 +8032,7 @@
     </row>
     <row r="27">
       <c r="B27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="22" t="n">
         <v>150</v>
@@ -8055,7 +8055,7 @@
     </row>
     <row r="28">
       <c r="B28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="22" t="n">
         <v>170</v>
@@ -8078,7 +8078,7 @@
     </row>
     <row r="29">
       <c r="B29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" s="22" t="n">
         <v>190</v>
@@ -8106,7 +8106,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="22" t="n">
         <v>110</v>
@@ -8129,7 +8129,7 @@
     </row>
     <row r="31">
       <c r="B31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="22" t="n">
         <v>140</v>
@@ -8152,7 +8152,7 @@
     </row>
     <row r="32">
       <c r="B32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" s="22" t="n">
         <v>170</v>
@@ -8175,7 +8175,7 @@
     </row>
     <row r="33">
       <c r="B33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" s="22" t="n">
         <v>200</v>
@@ -8198,7 +8198,7 @@
     </row>
     <row r="34">
       <c r="B34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" s="22" t="n">
         <v>230</v>
@@ -8221,7 +8221,7 @@
     </row>
     <row r="35">
       <c r="B35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" s="22" t="n">
         <v>260</v>
@@ -8249,7 +8249,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="22" t="n">
         <v>120</v>
@@ -8272,7 +8272,7 @@
     </row>
     <row r="37">
       <c r="B37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" s="22" t="n">
         <v>150</v>
@@ -8295,7 +8295,7 @@
     </row>
     <row r="38">
       <c r="B38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" s="22" t="n">
         <v>180</v>
@@ -8318,7 +8318,7 @@
     </row>
     <row r="39">
       <c r="B39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" s="22" t="n">
         <v>210</v>
@@ -8341,7 +8341,7 @@
     </row>
     <row r="40">
       <c r="B40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" s="22" t="n">
         <v>240</v>
@@ -8364,7 +8364,7 @@
     </row>
     <row r="41">
       <c r="B41" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" s="22" t="n">
         <v>270</v>
@@ -8392,7 +8392,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" s="22" t="n">
         <v>110</v>
@@ -8415,7 +8415,7 @@
     </row>
     <row r="43">
       <c r="B43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C43" s="22" t="n">
         <v>130</v>
@@ -8438,7 +8438,7 @@
     </row>
     <row r="44">
       <c r="B44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C44" s="22" t="n">
         <v>150</v>
@@ -8461,7 +8461,7 @@
     </row>
     <row r="45">
       <c r="B45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C45" s="22" t="n">
         <v>170</v>
@@ -8484,7 +8484,7 @@
     </row>
     <row r="46">
       <c r="B46" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" s="22" t="n">
         <v>190</v>
@@ -8512,7 +8512,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47" s="22" t="n">
         <v>140</v>
@@ -8535,7 +8535,7 @@
     </row>
     <row r="48">
       <c r="B48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C48" s="22" t="n">
         <v>170</v>
@@ -8558,7 +8558,7 @@
     </row>
     <row r="49">
       <c r="B49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C49" s="22" t="n">
         <v>200</v>
@@ -8581,7 +8581,7 @@
     </row>
     <row r="50">
       <c r="B50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C50" s="22" t="n">
         <v>230</v>
@@ -8604,7 +8604,7 @@
     </row>
     <row r="51">
       <c r="B51" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51" s="22" t="n">
         <v>260</v>
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52" s="22" t="n">
         <v>400</v>
@@ -8655,7 +8655,7 @@
     </row>
     <row r="53">
       <c r="B53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C53" s="22" t="n">
         <v>430</v>
@@ -8678,7 +8678,7 @@
     </row>
     <row r="54">
       <c r="B54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C54" s="22" t="n">
         <v>460</v>
@@ -8701,7 +8701,7 @@
     </row>
     <row r="55">
       <c r="B55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C55" s="22" t="n">
         <v>490</v>
@@ -8724,7 +8724,7 @@
     </row>
     <row r="56">
       <c r="B56" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C56" s="22" t="n">
         <v>520</v>
@@ -8752,7 +8752,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C57" s="22" t="n">
         <v>130</v>
@@ -8775,7 +8775,7 @@
     </row>
     <row r="58">
       <c r="B58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C58" s="22" t="n">
         <v>150</v>
@@ -8798,7 +8798,7 @@
     </row>
     <row r="59">
       <c r="B59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C59" s="22" t="n">
         <v>170</v>
@@ -8821,7 +8821,7 @@
     </row>
     <row r="60">
       <c r="B60" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C60" s="22" t="n">
         <v>190</v>
@@ -8849,7 +8849,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C61" s="22" t="n">
         <v>420</v>
@@ -8872,7 +8872,7 @@
     </row>
     <row r="62">
       <c r="B62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C62" s="22" t="n">
         <v>450</v>
@@ -8895,7 +8895,7 @@
     </row>
     <row r="63">
       <c r="B63" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C63" s="22" t="n">
         <v>480</v>
@@ -8918,7 +8918,7 @@
     </row>
     <row r="64">
       <c r="B64" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C64" s="22" t="n">
         <v>510</v>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C65" s="22" t="n">
         <v>430</v>
@@ -8969,7 +8969,7 @@
     </row>
     <row r="66">
       <c r="B66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C66" s="22" t="n">
         <v>460</v>
@@ -8992,7 +8992,7 @@
     </row>
     <row r="67">
       <c r="B67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C67" s="22" t="n">
         <v>490</v>
@@ -9015,7 +9015,7 @@
     </row>
     <row r="68">
       <c r="B68" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C68" s="22" t="n">
         <v>520</v>
@@ -9043,7 +9043,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C69" s="22" t="n">
         <v>400</v>
@@ -9066,7 +9066,7 @@
     </row>
     <row r="70">
       <c r="B70" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C70" s="22" t="n">
         <v>420</v>
@@ -9089,7 +9089,7 @@
     </row>
     <row r="71">
       <c r="B71" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C71" s="22" t="n">
         <v>440</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C72" s="22" t="n">
         <v>450</v>
@@ -9140,7 +9140,7 @@
     </row>
     <row r="73">
       <c r="B73" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C73" s="22" t="n">
         <v>480</v>
@@ -9163,7 +9163,7 @@
     </row>
     <row r="74">
       <c r="B74" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C74" s="22" t="n">
         <v>510</v>
@@ -9191,7 +9191,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C75" s="22" t="n">
         <v>460</v>
@@ -9214,7 +9214,7 @@
     </row>
     <row r="76">
       <c r="B76" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C76" s="22" t="n">
         <v>490</v>
@@ -9237,7 +9237,7 @@
     </row>
     <row r="77">
       <c r="B77" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C77" s="22" t="n">
         <v>520</v>
@@ -9265,7 +9265,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C78" s="22" t="n">
         <v>920</v>
@@ -9288,7 +9288,7 @@
     </row>
     <row r="79">
       <c r="B79" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C79" s="22" t="n">
         <v>940</v>
@@ -9316,7 +9316,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C80" s="22" t="n">
         <v>980</v>
@@ -9339,7 +9339,7 @@
     </row>
     <row r="81">
       <c r="B81" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C81" s="22" t="n">
         <v>1010</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C82" s="22" t="n">
         <v>990</v>
@@ -9390,7 +9390,7 @@
     </row>
     <row r="83">
       <c r="B83" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C83" s="22" t="n">
         <v>1020</v>
@@ -9418,7 +9418,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C84" s="22" t="n">
         <v>1440</v>
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C85" s="22" t="n">
         <v>1510</v>
@@ -9474,7 +9474,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C86" s="22" t="n">
         <v>1520</v>

--- a/howell6.xlsx
+++ b/howell6.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 11, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 12, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 42</t>
+          <t>Name 29</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 52</t>
+          <t>Name 86</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 80</t>
+          <t>Name 85</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 41</t>
+          <t>Name 39</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 31</t>
+          <t>Name 74</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 82</t>
+          <t>Name 48</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 52</t>
+          <t>Name 74</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 24</t>
+          <t>Name 30</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 24</t>
+          <t>Name 71</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 40</t>
+          <t>Name 38</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 61</t>
+          <t>Name 23</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 37</t>
+          <t>Name 12</t>
         </is>
       </c>
       <c r="D15" s="4">

--- a/howell6.xlsx
+++ b/howell6.xlsx
@@ -108,7 +108,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -120,6 +119,7 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -496,7 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 12, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 13, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,20 +595,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 29</t>
+          <t>Name 78</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 86</t>
+          <t>Name 11</t>
         </is>
       </c>
       <c r="D10" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$47,"=1",'By Board'!$N$3:$N$47)/15+SUMIF('By Board'!$E$3:$E$47,"=1",'By Board'!$O$3:$O$47)/15</f>
+        <f>SUMIF('By Board'!$D$3:$D$47,"=1",'By Board'!$O$3:$O$47)/15+SUMIF('By Board'!$E$3:$E$47,"=1",'By Board'!$P$3:$P$47)/15</f>
         <v/>
       </c>
       <c r="E10" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$47,"=1",'By Board'!$L$3:$L$47)+SUMIF('By Board'!$E$3:$E$47,"=1",'By Board'!$M$3:$M$47)</f>
+        <f>SUMIF('By Board'!$D$3:$D$47,"=1",'By Board'!$M$3:$M$47)+SUMIF('By Board'!$E$3:$E$47,"=1",'By Board'!$N$3:$N$47)</f>
         <v/>
       </c>
     </row>
@@ -618,20 +618,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 85</t>
+          <t>Name 76</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 39</t>
+          <t>Name 46</t>
         </is>
       </c>
       <c r="D11" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$47,"=2",'By Board'!$N$3:$N$47)/15+SUMIF('By Board'!$E$3:$E$47,"=2",'By Board'!$O$3:$O$47)/15</f>
+        <f>SUMIF('By Board'!$D$3:$D$47,"=2",'By Board'!$O$3:$O$47)/15+SUMIF('By Board'!$E$3:$E$47,"=2",'By Board'!$P$3:$P$47)/15</f>
         <v/>
       </c>
       <c r="E11" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$47,"=2",'By Board'!$L$3:$L$47)+SUMIF('By Board'!$E$3:$E$47,"=2",'By Board'!$M$3:$M$47)</f>
+        <f>SUMIF('By Board'!$D$3:$D$47,"=2",'By Board'!$M$3:$M$47)+SUMIF('By Board'!$E$3:$E$47,"=2",'By Board'!$N$3:$N$47)</f>
         <v/>
       </c>
     </row>
@@ -641,20 +641,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 74</t>
+          <t>Name 83</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 48</t>
+          <t>Name 71</t>
         </is>
       </c>
       <c r="D12" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$47,"=3",'By Board'!$N$3:$N$47)/15+SUMIF('By Board'!$E$3:$E$47,"=3",'By Board'!$O$3:$O$47)/15</f>
+        <f>SUMIF('By Board'!$D$3:$D$47,"=3",'By Board'!$O$3:$O$47)/15+SUMIF('By Board'!$E$3:$E$47,"=3",'By Board'!$P$3:$P$47)/15</f>
         <v/>
       </c>
       <c r="E12" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$47,"=3",'By Board'!$L$3:$L$47)+SUMIF('By Board'!$E$3:$E$47,"=3",'By Board'!$M$3:$M$47)</f>
+        <f>SUMIF('By Board'!$D$3:$D$47,"=3",'By Board'!$M$3:$M$47)+SUMIF('By Board'!$E$3:$E$47,"=3",'By Board'!$N$3:$N$47)</f>
         <v/>
       </c>
     </row>
@@ -664,20 +664,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 74</t>
+          <t>Name 29</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 30</t>
+          <t>Name 45</t>
         </is>
       </c>
       <c r="D13" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$47,"=4",'By Board'!$N$3:$N$47)/15+SUMIF('By Board'!$E$3:$E$47,"=4",'By Board'!$O$3:$O$47)/15</f>
+        <f>SUMIF('By Board'!$D$3:$D$47,"=4",'By Board'!$O$3:$O$47)/15+SUMIF('By Board'!$E$3:$E$47,"=4",'By Board'!$P$3:$P$47)/15</f>
         <v/>
       </c>
       <c r="E13" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$47,"=4",'By Board'!$L$3:$L$47)+SUMIF('By Board'!$E$3:$E$47,"=4",'By Board'!$M$3:$M$47)</f>
+        <f>SUMIF('By Board'!$D$3:$D$47,"=4",'By Board'!$M$3:$M$47)+SUMIF('By Board'!$E$3:$E$47,"=4",'By Board'!$N$3:$N$47)</f>
         <v/>
       </c>
     </row>
@@ -687,20 +687,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 71</t>
+          <t>Name 64</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 38</t>
+          <t>Name 31</t>
         </is>
       </c>
       <c r="D14" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$47,"=5",'By Board'!$N$3:$N$47)/15+SUMIF('By Board'!$E$3:$E$47,"=5",'By Board'!$O$3:$O$47)/15</f>
+        <f>SUMIF('By Board'!$D$3:$D$47,"=5",'By Board'!$O$3:$O$47)/15+SUMIF('By Board'!$E$3:$E$47,"=5",'By Board'!$P$3:$P$47)/15</f>
         <v/>
       </c>
       <c r="E14" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$47,"=5",'By Board'!$L$3:$L$47)+SUMIF('By Board'!$E$3:$E$47,"=5",'By Board'!$M$3:$M$47)</f>
+        <f>SUMIF('By Board'!$D$3:$D$47,"=5",'By Board'!$M$3:$M$47)+SUMIF('By Board'!$E$3:$E$47,"=5",'By Board'!$N$3:$N$47)</f>
         <v/>
       </c>
     </row>
@@ -710,20 +710,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 23</t>
+          <t>Name 51</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 12</t>
+          <t>Name 40</t>
         </is>
       </c>
       <c r="D15" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$47,"=6",'By Board'!$N$3:$N$47)/15+0/15</f>
+        <f>SUMIF('By Board'!$D$3:$D$47,"=6",'By Board'!$O$3:$O$47)/15+0/15</f>
         <v/>
       </c>
       <c r="E15" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$47,"=6",'By Board'!$L$3:$L$47)+0</f>
+        <f>SUMIF('By Board'!$D$3:$D$47,"=6",'By Board'!$M$3:$M$47)+0</f>
         <v/>
       </c>
     </row>
@@ -737,93 +737,12 @@
         <v/>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>To sort, remove single quote below</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>IMP Ranking</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>'=SORT(A10:E15,4,-1)</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="8" t="n"/>
-    </row>
-    <row r="21">
-      <c r="D21" s="5" t="n"/>
-      <c r="E21" s="8" t="n"/>
-    </row>
-    <row r="22">
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="8" t="n"/>
-    </row>
-    <row r="23">
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="8" t="n"/>
-    </row>
-    <row r="24">
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="8" t="n"/>
-    </row>
-    <row r="25">
-      <c r="D25" s="5" t="n"/>
-      <c r="E25" s="8" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>MP Ranking</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>'=SORT(A10:E15,5,-1)</t>
-        </is>
-      </c>
-      <c r="D31" s="5" t="n"/>
-      <c r="E31" s="8" t="n"/>
-    </row>
-    <row r="32">
-      <c r="D32" s="5" t="n"/>
-      <c r="E32" s="8" t="n"/>
-    </row>
-    <row r="33">
-      <c r="D33" s="5" t="n"/>
-      <c r="E33" s="8" t="n"/>
-    </row>
-    <row r="34">
-      <c r="D34" s="5" t="n"/>
-      <c r="E34" s="8" t="n"/>
-    </row>
-    <row r="35">
-      <c r="D35" s="5" t="n"/>
-      <c r="E35" s="8" t="n"/>
-    </row>
-    <row r="36">
-      <c r="D36" s="5" t="n"/>
-      <c r="E36" s="8" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A30:E30"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A19:E19"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A6:B6"/>
@@ -838,7 +757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA47"/>
+  <dimension ref="A1:AB47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -850,37 +769,42 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="J1" s="9" t="inlineStr">
+      <c r="I1" s="8" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="K1" s="8" t="inlineStr">
         <is>
           <t>Score</t>
         </is>
       </c>
-      <c r="L1" s="9" t="inlineStr">
+      <c r="M1" s="8" t="inlineStr">
         <is>
           <t>IMP</t>
         </is>
       </c>
-      <c r="N1" s="9" t="inlineStr">
+      <c r="O1" s="8" t="inlineStr">
         <is>
           <t>MP %</t>
         </is>
       </c>
-      <c r="P1" s="9" t="inlineStr">
+      <c r="Q1" s="8" t="inlineStr">
         <is>
           <t>MP Pts</t>
         </is>
       </c>
-      <c r="R1" s="9" t="inlineStr">
+      <c r="S1" s="8" t="inlineStr">
         <is>
           <t>Net</t>
         </is>
       </c>
-      <c r="T1" s="9" t="inlineStr">
+      <c r="U1" s="8" t="inlineStr">
         <is>
           <t>MP Calculation</t>
         </is>
       </c>
-      <c r="X1" s="9" t="inlineStr">
+      <c r="Y1" s="8" t="inlineStr">
         <is>
           <t>IMP Calculation</t>
         </is>
@@ -929,101 +853,106 @@
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>Result</t>
+          <t>Made</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="L2" s="10" t="inlineStr">
+      <c r="M2" s="9" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="N2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="N2" s="2" t="inlineStr">
+      <c r="O2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr">
+      <c r="P2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="P2" s="2" t="inlineStr">
+      <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="Q2" s="2" t="inlineStr">
+      <c r="R2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="R2" s="10" t="inlineStr">
+      <c r="S2" s="9" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="S2" s="2" t="inlineStr">
+      <c r="T2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="T2" s="10" t="inlineStr">
+      <c r="U2" s="9" t="inlineStr">
         <is>
           <t>NS MP Scores</t>
         </is>
       </c>
-      <c r="V2" s="2" t="inlineStr">
+      <c r="W2" s="2" t="inlineStr">
         <is>
           <t>EW MP Scores</t>
         </is>
       </c>
-      <c r="X2" s="10" t="inlineStr">
+      <c r="Y2" s="9" t="inlineStr">
         <is>
           <t>NS IMP Pair-wise</t>
         </is>
       </c>
-      <c r="Z2" s="2" t="inlineStr">
+      <c r="AA2" s="2" t="inlineStr">
         <is>
           <t>EW IMP Pair-wise</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="n">
+      <c r="A3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <f>'By Round'!A21</f>
         <v/>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <f>'By Round'!B27</f>
         <v/>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <f>'By Round'!C27</f>
         <v/>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <f>'By Round'!D27</f>
         <v/>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <f>IF(ISBLANK('By Round'!F27),"",'By Round'!F27)</f>
         <v/>
       </c>
@@ -1047,89 +976,93 @@
         <f>IF(ISBLANK('By Round'!K27),"",'By Round'!K27)</f>
         <v/>
       </c>
-      <c r="L3" s="12">
-        <f>AVERAGE(X3:Y3)</f>
-        <v/>
-      </c>
-      <c r="M3" s="13">
-        <f>AVERAGE(Z3:AA3)</f>
-        <v/>
-      </c>
-      <c r="N3" s="8">
-        <f>IF(COUNT(T3:U3)&gt;0,P3/COUNT(T3:U3),0.5)</f>
-        <v/>
-      </c>
-      <c r="O3" s="8">
-        <f>IF(COUNT(V3:W3)&gt;0,Q3/COUNT(V3:W3),0.5)</f>
-        <v/>
-      </c>
-      <c r="P3" s="5">
-        <f>SUM(T3:U3)</f>
+      <c r="L3">
+        <f>IF(ISBLANK('By Round'!L27),"",'By Round'!L27)</f>
+        <v/>
+      </c>
+      <c r="M3" s="11">
+        <f>AVERAGE(Y3:Z3)</f>
+        <v/>
+      </c>
+      <c r="N3" s="12">
+        <f>AVERAGE(AA3:AB3)</f>
+        <v/>
+      </c>
+      <c r="O3" s="13">
+        <f>IF(COUNT(U3:V3)&gt;0,Q3/COUNT(U3:V3),0.5)</f>
+        <v/>
+      </c>
+      <c r="P3" s="13">
+        <f>IF(COUNT(W3:X3)&gt;0,R3/COUNT(W3:X3),0.5)</f>
         <v/>
       </c>
       <c r="Q3" s="5">
-        <f>SUM(V3:W3)</f>
-        <v/>
-      </c>
-      <c r="R3" s="14">
-        <f>IF(ISNUMBER(J3),J3,IF(ISNUMBER(K3),-K3,""))</f>
-        <v/>
-      </c>
-      <c r="S3">
-        <f>IF(ISNUMBER(K3),K3,IF(ISNUMBER(J3),-J3,""))</f>
-        <v/>
-      </c>
-      <c r="T3" s="14">
-        <f>IF(ISNUMBER(R3),IF(ISNUMBER(R4),IF(R3&gt;R4,1.0,IF(R3=R4,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U3">
-        <f>IF(ISNUMBER(R3),IF(ISNUMBER(R5),IF(R3&gt;R5,1.0,IF(R3=R5,0.5,0.0)),""),"")</f>
+        <f>SUM(U3:V3)</f>
+        <v/>
+      </c>
+      <c r="R3" s="5">
+        <f>SUM(W3:X3)</f>
+        <v/>
+      </c>
+      <c r="S3" s="14">
+        <f>IF(ISNUMBER(K3),K3,IF(ISNUMBER(L3),-L3,""))</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>IF(ISNUMBER(L3),L3,IF(ISNUMBER(K3),-K3,""))</f>
+        <v/>
+      </c>
+      <c r="U3" s="14">
+        <f>IF(ISNUMBER(S3),IF(ISNUMBER(S4),IF(S3&gt;S4,1.0,IF(S3=S4,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>IF(ISNUMBER(S3),IF(ISNUMBER(S4),IF(S3&gt;S4,1.0,IF(S3=S4,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S3),IF(ISNUMBER(S5),IF(S3&gt;S5,1.0,IF(S3=S5,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>IF(ISNUMBER(S3),IF(ISNUMBER(S5),IF(S3&gt;S5,1.0,IF(S3=S5,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X3" s="14">
-        <f>IF(AND(ISNUMBER(R3),ISNUMBER(R4)),VLOOKUP(ABS(R3-R4),'IMP Table'!$A$2:$C$26,3)*SIGN(R3-R4),0)</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>IF(AND(ISNUMBER(R3),ISNUMBER(R5)),VLOOKUP(ABS(R3-R5),'IMP Table'!$A$2:$C$26,3)*SIGN(R3-R5),0)</f>
+        <f>IF(ISNUMBER(T3),IF(ISNUMBER(T4),IF(T3&gt;T4,1.0,IF(T3=T4,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>IF(ISNUMBER(T3),IF(ISNUMBER(T5),IF(T3&gt;T5,1.0,IF(T3=T5,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y3" s="14">
+        <f>IF(AND(ISNUMBER(S3),ISNUMBER(S4)),VLOOKUP(ABS(S3-S4),'IMP Table'!$A$2:$C$26,3)*SIGN(S3-S4),0)</f>
         <v/>
       </c>
       <c r="Z3">
-        <f>IF(AND(ISNUMBER(S3),ISNUMBER(S4)),VLOOKUP(ABS(S3-S4),'IMP Table'!$A$2:$C$26,3)*SIGN(S3-S4),0)</f>
+        <f>IF(AND(ISNUMBER(S3),ISNUMBER(S5)),VLOOKUP(ABS(S3-S5),'IMP Table'!$A$2:$C$26,3)*SIGN(S3-S5),0)</f>
         <v/>
       </c>
       <c r="AA3">
-        <f>IF(AND(ISNUMBER(S3),ISNUMBER(S5)),VLOOKUP(ABS(S3-S5),'IMP Table'!$A$2:$C$26,3)*SIGN(S3-S5),0)</f>
+        <f>IF(AND(ISNUMBER(T3),ISNUMBER(T4)),VLOOKUP(ABS(T3-T4),'IMP Table'!$A$2:$C$26,3)*SIGN(T3-T4),0)</f>
+        <v/>
+      </c>
+      <c r="AB3">
+        <f>IF(AND(ISNUMBER(T3),ISNUMBER(T5)),VLOOKUP(ABS(T3-T5),'IMP Table'!$A$2:$C$26,3)*SIGN(T3-T5),0)</f>
         <v/>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <f>'By Round'!A30</f>
         <v/>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <f>'By Round'!B36</f>
         <v/>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <f>'By Round'!C36</f>
         <v/>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <f>'By Round'!D36</f>
         <v/>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <f>IF(ISBLANK('By Round'!F36),"",'By Round'!F36)</f>
         <v/>
       </c>
@@ -1153,68 +1086,72 @@
         <f>IF(ISBLANK('By Round'!K36),"",'By Round'!K36)</f>
         <v/>
       </c>
-      <c r="L4" s="12">
-        <f>AVERAGE(X4:Y4)</f>
-        <v/>
-      </c>
-      <c r="M4" s="13">
-        <f>AVERAGE(Z4:AA4)</f>
-        <v/>
-      </c>
-      <c r="N4" s="8">
-        <f>IF(COUNT(T4:U4)&gt;0,P4/COUNT(T4:U4),0.5)</f>
-        <v/>
-      </c>
-      <c r="O4" s="8">
-        <f>IF(COUNT(V4:W4)&gt;0,Q4/COUNT(V4:W4),0.5)</f>
-        <v/>
-      </c>
-      <c r="P4" s="5">
-        <f>SUM(T4:U4)</f>
+      <c r="L4">
+        <f>IF(ISBLANK('By Round'!L36),"",'By Round'!L36)</f>
+        <v/>
+      </c>
+      <c r="M4" s="11">
+        <f>AVERAGE(Y4:Z4)</f>
+        <v/>
+      </c>
+      <c r="N4" s="12">
+        <f>AVERAGE(AA4:AB4)</f>
+        <v/>
+      </c>
+      <c r="O4" s="13">
+        <f>IF(COUNT(U4:V4)&gt;0,Q4/COUNT(U4:V4),0.5)</f>
+        <v/>
+      </c>
+      <c r="P4" s="13">
+        <f>IF(COUNT(W4:X4)&gt;0,R4/COUNT(W4:X4),0.5)</f>
         <v/>
       </c>
       <c r="Q4" s="5">
-        <f>SUM(V4:W4)</f>
-        <v/>
-      </c>
-      <c r="R4" s="14">
-        <f>IF(ISNUMBER(J4),J4,IF(ISNUMBER(K4),-K4,""))</f>
-        <v/>
-      </c>
-      <c r="S4">
-        <f>IF(ISNUMBER(K4),K4,IF(ISNUMBER(J4),-J4,""))</f>
-        <v/>
-      </c>
-      <c r="T4" s="14">
-        <f>IF(ISNUMBER(R4),IF(ISNUMBER(R3),IF(R4&gt;R3,1.0,IF(R4=R3,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U4">
-        <f>IF(ISNUMBER(R4),IF(ISNUMBER(R5),IF(R4&gt;R5,1.0,IF(R4=R5,0.5,0.0)),""),"")</f>
+        <f>SUM(U4:V4)</f>
+        <v/>
+      </c>
+      <c r="R4" s="5">
+        <f>SUM(W4:X4)</f>
+        <v/>
+      </c>
+      <c r="S4" s="14">
+        <f>IF(ISNUMBER(K4),K4,IF(ISNUMBER(L4),-L4,""))</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>IF(ISNUMBER(L4),L4,IF(ISNUMBER(K4),-K4,""))</f>
+        <v/>
+      </c>
+      <c r="U4" s="14">
+        <f>IF(ISNUMBER(S4),IF(ISNUMBER(S3),IF(S4&gt;S3,1.0,IF(S4=S3,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>IF(ISNUMBER(S4),IF(ISNUMBER(S3),IF(S4&gt;S3,1.0,IF(S4=S3,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S4),IF(ISNUMBER(S5),IF(S4&gt;S5,1.0,IF(S4=S5,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>IF(ISNUMBER(S4),IF(ISNUMBER(S5),IF(S4&gt;S5,1.0,IF(S4=S5,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X4" s="14">
-        <f>IF(AND(ISNUMBER(R4),ISNUMBER(R3)),VLOOKUP(ABS(R4-R3),'IMP Table'!$A$2:$C$26,3)*SIGN(R4-R3),0)</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>IF(AND(ISNUMBER(R4),ISNUMBER(R5)),VLOOKUP(ABS(R4-R5),'IMP Table'!$A$2:$C$26,3)*SIGN(R4-R5),0)</f>
+        <f>IF(ISNUMBER(T4),IF(ISNUMBER(T3),IF(T4&gt;T3,1.0,IF(T4=T3,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>IF(ISNUMBER(T4),IF(ISNUMBER(T5),IF(T4&gt;T5,1.0,IF(T4=T5,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y4" s="14">
+        <f>IF(AND(ISNUMBER(S4),ISNUMBER(S3)),VLOOKUP(ABS(S4-S3),'IMP Table'!$A$2:$C$26,3)*SIGN(S4-S3),0)</f>
         <v/>
       </c>
       <c r="Z4">
-        <f>IF(AND(ISNUMBER(S4),ISNUMBER(S3)),VLOOKUP(ABS(S4-S3),'IMP Table'!$A$2:$C$26,3)*SIGN(S4-S3),0)</f>
+        <f>IF(AND(ISNUMBER(S4),ISNUMBER(S5)),VLOOKUP(ABS(S4-S5),'IMP Table'!$A$2:$C$26,3)*SIGN(S4-S5),0)</f>
         <v/>
       </c>
       <c r="AA4">
-        <f>IF(AND(ISNUMBER(S4),ISNUMBER(S5)),VLOOKUP(ABS(S4-S5),'IMP Table'!$A$2:$C$26,3)*SIGN(S4-S5),0)</f>
+        <f>IF(AND(ISNUMBER(T4),ISNUMBER(T3)),VLOOKUP(ABS(T4-T3),'IMP Table'!$A$2:$C$26,3)*SIGN(T4-T3),0)</f>
+        <v/>
+      </c>
+      <c r="AB4">
+        <f>IF(AND(ISNUMBER(T4),ISNUMBER(T5)),VLOOKUP(ABS(T4-T5),'IMP Table'!$A$2:$C$26,3)*SIGN(T4-T5),0)</f>
         <v/>
       </c>
     </row>
@@ -1260,92 +1197,96 @@
         <f>IF(ISBLANK('By Round'!K3),"",'By Round'!K3)</f>
         <v/>
       </c>
-      <c r="L5" s="17">
-        <f>AVERAGE(X5:Y5)</f>
-        <v/>
-      </c>
-      <c r="M5" s="18">
-        <f>AVERAGE(Z5:AA5)</f>
-        <v/>
-      </c>
-      <c r="N5" s="19">
-        <f>IF(COUNT(T5:U5)&gt;0,P5/COUNT(T5:U5),0.5)</f>
+      <c r="L5" s="15">
+        <f>IF(ISBLANK('By Round'!L3),"",'By Round'!L3)</f>
+        <v/>
+      </c>
+      <c r="M5" s="17">
+        <f>AVERAGE(Y5:Z5)</f>
+        <v/>
+      </c>
+      <c r="N5" s="18">
+        <f>AVERAGE(AA5:AB5)</f>
         <v/>
       </c>
       <c r="O5" s="19">
-        <f>IF(COUNT(V5:W5)&gt;0,Q5/COUNT(V5:W5),0.5)</f>
-        <v/>
-      </c>
-      <c r="P5" s="20">
-        <f>SUM(T5:U5)</f>
+        <f>IF(COUNT(U5:V5)&gt;0,Q5/COUNT(U5:V5),0.5)</f>
+        <v/>
+      </c>
+      <c r="P5" s="19">
+        <f>IF(COUNT(W5:X5)&gt;0,R5/COUNT(W5:X5),0.5)</f>
         <v/>
       </c>
       <c r="Q5" s="20">
-        <f>SUM(V5:W5)</f>
-        <v/>
-      </c>
-      <c r="R5" s="21">
-        <f>IF(ISNUMBER(J5),J5,IF(ISNUMBER(K5),-K5,""))</f>
-        <v/>
-      </c>
-      <c r="S5" s="15">
-        <f>IF(ISNUMBER(K5),K5,IF(ISNUMBER(J5),-J5,""))</f>
-        <v/>
-      </c>
-      <c r="T5" s="21">
-        <f>IF(ISNUMBER(R5),IF(ISNUMBER(R3),IF(R5&gt;R3,1.0,IF(R5=R3,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U5" s="15">
-        <f>IF(ISNUMBER(R5),IF(ISNUMBER(R4),IF(R5&gt;R4,1.0,IF(R5=R4,0.5,0.0)),""),"")</f>
+        <f>SUM(U5:V5)</f>
+        <v/>
+      </c>
+      <c r="R5" s="20">
+        <f>SUM(W5:X5)</f>
+        <v/>
+      </c>
+      <c r="S5" s="21">
+        <f>IF(ISNUMBER(K5),K5,IF(ISNUMBER(L5),-L5,""))</f>
+        <v/>
+      </c>
+      <c r="T5" s="15">
+        <f>IF(ISNUMBER(L5),L5,IF(ISNUMBER(K5),-K5,""))</f>
+        <v/>
+      </c>
+      <c r="U5" s="21">
+        <f>IF(ISNUMBER(S5),IF(ISNUMBER(S3),IF(S5&gt;S3,1.0,IF(S5=S3,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V5" s="15">
-        <f>IF(ISNUMBER(S5),IF(ISNUMBER(S3),IF(S5&gt;S3,1.0,IF(S5=S3,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S5),IF(ISNUMBER(S4),IF(S5&gt;S4,1.0,IF(S5=S4,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W5" s="15">
-        <f>IF(ISNUMBER(S5),IF(ISNUMBER(S4),IF(S5&gt;S4,1.0,IF(S5=S4,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X5" s="21">
-        <f>IF(AND(ISNUMBER(R5),ISNUMBER(R3)),VLOOKUP(ABS(R5-R3),'IMP Table'!$A$2:$C$26,3)*SIGN(R5-R3),0)</f>
-        <v/>
-      </c>
-      <c r="Y5" s="15">
-        <f>IF(AND(ISNUMBER(R5),ISNUMBER(R4)),VLOOKUP(ABS(R5-R4),'IMP Table'!$A$2:$C$26,3)*SIGN(R5-R4),0)</f>
+        <f>IF(ISNUMBER(T5),IF(ISNUMBER(T3),IF(T5&gt;T3,1.0,IF(T5=T3,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X5" s="15">
+        <f>IF(ISNUMBER(T5),IF(ISNUMBER(T4),IF(T5&gt;T4,1.0,IF(T5=T4,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y5" s="21">
+        <f>IF(AND(ISNUMBER(S5),ISNUMBER(S3)),VLOOKUP(ABS(S5-S3),'IMP Table'!$A$2:$C$26,3)*SIGN(S5-S3),0)</f>
         <v/>
       </c>
       <c r="Z5" s="15">
-        <f>IF(AND(ISNUMBER(S5),ISNUMBER(S3)),VLOOKUP(ABS(S5-S3),'IMP Table'!$A$2:$C$26,3)*SIGN(S5-S3),0)</f>
+        <f>IF(AND(ISNUMBER(S5),ISNUMBER(S4)),VLOOKUP(ABS(S5-S4),'IMP Table'!$A$2:$C$26,3)*SIGN(S5-S4),0)</f>
         <v/>
       </c>
       <c r="AA5" s="15">
-        <f>IF(AND(ISNUMBER(S5),ISNUMBER(S4)),VLOOKUP(ABS(S5-S4),'IMP Table'!$A$2:$C$26,3)*SIGN(S5-S4),0)</f>
+        <f>IF(AND(ISNUMBER(T5),ISNUMBER(T3)),VLOOKUP(ABS(T5-T3),'IMP Table'!$A$2:$C$26,3)*SIGN(T5-T3),0)</f>
+        <v/>
+      </c>
+      <c r="AB5" s="15">
+        <f>IF(AND(ISNUMBER(T5),ISNUMBER(T4)),VLOOKUP(ABS(T5-T4),'IMP Table'!$A$2:$C$26,3)*SIGN(T5-T4),0)</f>
         <v/>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="n">
+      <c r="A6" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <f>'By Round'!A21</f>
         <v/>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <f>'By Round'!B27</f>
         <v/>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <f>'By Round'!C27</f>
         <v/>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <f>'By Round'!D27</f>
         <v/>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <f>IF(ISBLANK('By Round'!F28),"",'By Round'!F28)</f>
         <v/>
       </c>
@@ -1369,89 +1310,93 @@
         <f>IF(ISBLANK('By Round'!K28),"",'By Round'!K28)</f>
         <v/>
       </c>
-      <c r="L6" s="12">
-        <f>AVERAGE(X6:Y6)</f>
-        <v/>
-      </c>
-      <c r="M6" s="13">
-        <f>AVERAGE(Z6:AA6)</f>
-        <v/>
-      </c>
-      <c r="N6" s="8">
-        <f>IF(COUNT(T6:U6)&gt;0,P6/COUNT(T6:U6),0.5)</f>
-        <v/>
-      </c>
-      <c r="O6" s="8">
-        <f>IF(COUNT(V6:W6)&gt;0,Q6/COUNT(V6:W6),0.5)</f>
-        <v/>
-      </c>
-      <c r="P6" s="5">
-        <f>SUM(T6:U6)</f>
+      <c r="L6">
+        <f>IF(ISBLANK('By Round'!L28),"",'By Round'!L28)</f>
+        <v/>
+      </c>
+      <c r="M6" s="11">
+        <f>AVERAGE(Y6:Z6)</f>
+        <v/>
+      </c>
+      <c r="N6" s="12">
+        <f>AVERAGE(AA6:AB6)</f>
+        <v/>
+      </c>
+      <c r="O6" s="13">
+        <f>IF(COUNT(U6:V6)&gt;0,Q6/COUNT(U6:V6),0.5)</f>
+        <v/>
+      </c>
+      <c r="P6" s="13">
+        <f>IF(COUNT(W6:X6)&gt;0,R6/COUNT(W6:X6),0.5)</f>
         <v/>
       </c>
       <c r="Q6" s="5">
-        <f>SUM(V6:W6)</f>
-        <v/>
-      </c>
-      <c r="R6" s="14">
-        <f>IF(ISNUMBER(J6),J6,IF(ISNUMBER(K6),-K6,""))</f>
-        <v/>
-      </c>
-      <c r="S6">
-        <f>IF(ISNUMBER(K6),K6,IF(ISNUMBER(J6),-J6,""))</f>
-        <v/>
-      </c>
-      <c r="T6" s="14">
-        <f>IF(ISNUMBER(R6),IF(ISNUMBER(R7),IF(R6&gt;R7,1.0,IF(R6=R7,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U6">
-        <f>IF(ISNUMBER(R6),IF(ISNUMBER(R8),IF(R6&gt;R8,1.0,IF(R6=R8,0.5,0.0)),""),"")</f>
+        <f>SUM(U6:V6)</f>
+        <v/>
+      </c>
+      <c r="R6" s="5">
+        <f>SUM(W6:X6)</f>
+        <v/>
+      </c>
+      <c r="S6" s="14">
+        <f>IF(ISNUMBER(K6),K6,IF(ISNUMBER(L6),-L6,""))</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>IF(ISNUMBER(L6),L6,IF(ISNUMBER(K6),-K6,""))</f>
+        <v/>
+      </c>
+      <c r="U6" s="14">
+        <f>IF(ISNUMBER(S6),IF(ISNUMBER(S7),IF(S6&gt;S7,1.0,IF(S6=S7,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>IF(ISNUMBER(S6),IF(ISNUMBER(S7),IF(S6&gt;S7,1.0,IF(S6=S7,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S6),IF(ISNUMBER(S8),IF(S6&gt;S8,1.0,IF(S6=S8,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>IF(ISNUMBER(S6),IF(ISNUMBER(S8),IF(S6&gt;S8,1.0,IF(S6=S8,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X6" s="14">
-        <f>IF(AND(ISNUMBER(R6),ISNUMBER(R7)),VLOOKUP(ABS(R6-R7),'IMP Table'!$A$2:$C$26,3)*SIGN(R6-R7),0)</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>IF(AND(ISNUMBER(R6),ISNUMBER(R8)),VLOOKUP(ABS(R6-R8),'IMP Table'!$A$2:$C$26,3)*SIGN(R6-R8),0)</f>
+        <f>IF(ISNUMBER(T6),IF(ISNUMBER(T7),IF(T6&gt;T7,1.0,IF(T6=T7,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>IF(ISNUMBER(T6),IF(ISNUMBER(T8),IF(T6&gt;T8,1.0,IF(T6=T8,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y6" s="14">
+        <f>IF(AND(ISNUMBER(S6),ISNUMBER(S7)),VLOOKUP(ABS(S6-S7),'IMP Table'!$A$2:$C$26,3)*SIGN(S6-S7),0)</f>
         <v/>
       </c>
       <c r="Z6">
-        <f>IF(AND(ISNUMBER(S6),ISNUMBER(S7)),VLOOKUP(ABS(S6-S7),'IMP Table'!$A$2:$C$26,3)*SIGN(S6-S7),0)</f>
+        <f>IF(AND(ISNUMBER(S6),ISNUMBER(S8)),VLOOKUP(ABS(S6-S8),'IMP Table'!$A$2:$C$26,3)*SIGN(S6-S8),0)</f>
         <v/>
       </c>
       <c r="AA6">
-        <f>IF(AND(ISNUMBER(S6),ISNUMBER(S8)),VLOOKUP(ABS(S6-S8),'IMP Table'!$A$2:$C$26,3)*SIGN(S6-S8),0)</f>
+        <f>IF(AND(ISNUMBER(T6),ISNUMBER(T7)),VLOOKUP(ABS(T6-T7),'IMP Table'!$A$2:$C$26,3)*SIGN(T6-T7),0)</f>
+        <v/>
+      </c>
+      <c r="AB6">
+        <f>IF(AND(ISNUMBER(T6),ISNUMBER(T8)),VLOOKUP(ABS(T6-T8),'IMP Table'!$A$2:$C$26,3)*SIGN(T6-T8),0)</f>
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <f>'By Round'!A30</f>
         <v/>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <f>'By Round'!B36</f>
         <v/>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <f>'By Round'!C36</f>
         <v/>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <f>'By Round'!D36</f>
         <v/>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <f>IF(ISBLANK('By Round'!F37),"",'By Round'!F37)</f>
         <v/>
       </c>
@@ -1475,68 +1420,72 @@
         <f>IF(ISBLANK('By Round'!K37),"",'By Round'!K37)</f>
         <v/>
       </c>
-      <c r="L7" s="12">
-        <f>AVERAGE(X7:Y7)</f>
-        <v/>
-      </c>
-      <c r="M7" s="13">
-        <f>AVERAGE(Z7:AA7)</f>
-        <v/>
-      </c>
-      <c r="N7" s="8">
-        <f>IF(COUNT(T7:U7)&gt;0,P7/COUNT(T7:U7),0.5)</f>
-        <v/>
-      </c>
-      <c r="O7" s="8">
-        <f>IF(COUNT(V7:W7)&gt;0,Q7/COUNT(V7:W7),0.5)</f>
-        <v/>
-      </c>
-      <c r="P7" s="5">
-        <f>SUM(T7:U7)</f>
+      <c r="L7">
+        <f>IF(ISBLANK('By Round'!L37),"",'By Round'!L37)</f>
+        <v/>
+      </c>
+      <c r="M7" s="11">
+        <f>AVERAGE(Y7:Z7)</f>
+        <v/>
+      </c>
+      <c r="N7" s="12">
+        <f>AVERAGE(AA7:AB7)</f>
+        <v/>
+      </c>
+      <c r="O7" s="13">
+        <f>IF(COUNT(U7:V7)&gt;0,Q7/COUNT(U7:V7),0.5)</f>
+        <v/>
+      </c>
+      <c r="P7" s="13">
+        <f>IF(COUNT(W7:X7)&gt;0,R7/COUNT(W7:X7),0.5)</f>
         <v/>
       </c>
       <c r="Q7" s="5">
-        <f>SUM(V7:W7)</f>
-        <v/>
-      </c>
-      <c r="R7" s="14">
-        <f>IF(ISNUMBER(J7),J7,IF(ISNUMBER(K7),-K7,""))</f>
-        <v/>
-      </c>
-      <c r="S7">
-        <f>IF(ISNUMBER(K7),K7,IF(ISNUMBER(J7),-J7,""))</f>
-        <v/>
-      </c>
-      <c r="T7" s="14">
-        <f>IF(ISNUMBER(R7),IF(ISNUMBER(R6),IF(R7&gt;R6,1.0,IF(R7=R6,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U7">
-        <f>IF(ISNUMBER(R7),IF(ISNUMBER(R8),IF(R7&gt;R8,1.0,IF(R7=R8,0.5,0.0)),""),"")</f>
+        <f>SUM(U7:V7)</f>
+        <v/>
+      </c>
+      <c r="R7" s="5">
+        <f>SUM(W7:X7)</f>
+        <v/>
+      </c>
+      <c r="S7" s="14">
+        <f>IF(ISNUMBER(K7),K7,IF(ISNUMBER(L7),-L7,""))</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>IF(ISNUMBER(L7),L7,IF(ISNUMBER(K7),-K7,""))</f>
+        <v/>
+      </c>
+      <c r="U7" s="14">
+        <f>IF(ISNUMBER(S7),IF(ISNUMBER(S6),IF(S7&gt;S6,1.0,IF(S7=S6,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>IF(ISNUMBER(S7),IF(ISNUMBER(S6),IF(S7&gt;S6,1.0,IF(S7=S6,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S7),IF(ISNUMBER(S8),IF(S7&gt;S8,1.0,IF(S7=S8,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>IF(ISNUMBER(S7),IF(ISNUMBER(S8),IF(S7&gt;S8,1.0,IF(S7=S8,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X7" s="14">
-        <f>IF(AND(ISNUMBER(R7),ISNUMBER(R6)),VLOOKUP(ABS(R7-R6),'IMP Table'!$A$2:$C$26,3)*SIGN(R7-R6),0)</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>IF(AND(ISNUMBER(R7),ISNUMBER(R8)),VLOOKUP(ABS(R7-R8),'IMP Table'!$A$2:$C$26,3)*SIGN(R7-R8),0)</f>
+        <f>IF(ISNUMBER(T7),IF(ISNUMBER(T6),IF(T7&gt;T6,1.0,IF(T7=T6,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>IF(ISNUMBER(T7),IF(ISNUMBER(T8),IF(T7&gt;T8,1.0,IF(T7=T8,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y7" s="14">
+        <f>IF(AND(ISNUMBER(S7),ISNUMBER(S6)),VLOOKUP(ABS(S7-S6),'IMP Table'!$A$2:$C$26,3)*SIGN(S7-S6),0)</f>
         <v/>
       </c>
       <c r="Z7">
-        <f>IF(AND(ISNUMBER(S7),ISNUMBER(S6)),VLOOKUP(ABS(S7-S6),'IMP Table'!$A$2:$C$26,3)*SIGN(S7-S6),0)</f>
+        <f>IF(AND(ISNUMBER(S7),ISNUMBER(S8)),VLOOKUP(ABS(S7-S8),'IMP Table'!$A$2:$C$26,3)*SIGN(S7-S8),0)</f>
         <v/>
       </c>
       <c r="AA7">
-        <f>IF(AND(ISNUMBER(S7),ISNUMBER(S8)),VLOOKUP(ABS(S7-S8),'IMP Table'!$A$2:$C$26,3)*SIGN(S7-S8),0)</f>
+        <f>IF(AND(ISNUMBER(T7),ISNUMBER(T6)),VLOOKUP(ABS(T7-T6),'IMP Table'!$A$2:$C$26,3)*SIGN(T7-T6),0)</f>
+        <v/>
+      </c>
+      <c r="AB7">
+        <f>IF(AND(ISNUMBER(T7),ISNUMBER(T8)),VLOOKUP(ABS(T7-T8),'IMP Table'!$A$2:$C$26,3)*SIGN(T7-T8),0)</f>
         <v/>
       </c>
     </row>
@@ -1582,92 +1531,96 @@
         <f>IF(ISBLANK('By Round'!K4),"",'By Round'!K4)</f>
         <v/>
       </c>
-      <c r="L8" s="17">
-        <f>AVERAGE(X8:Y8)</f>
-        <v/>
-      </c>
-      <c r="M8" s="18">
-        <f>AVERAGE(Z8:AA8)</f>
-        <v/>
-      </c>
-      <c r="N8" s="19">
-        <f>IF(COUNT(T8:U8)&gt;0,P8/COUNT(T8:U8),0.5)</f>
+      <c r="L8" s="15">
+        <f>IF(ISBLANK('By Round'!L4),"",'By Round'!L4)</f>
+        <v/>
+      </c>
+      <c r="M8" s="17">
+        <f>AVERAGE(Y8:Z8)</f>
+        <v/>
+      </c>
+      <c r="N8" s="18">
+        <f>AVERAGE(AA8:AB8)</f>
         <v/>
       </c>
       <c r="O8" s="19">
-        <f>IF(COUNT(V8:W8)&gt;0,Q8/COUNT(V8:W8),0.5)</f>
-        <v/>
-      </c>
-      <c r="P8" s="20">
-        <f>SUM(T8:U8)</f>
+        <f>IF(COUNT(U8:V8)&gt;0,Q8/COUNT(U8:V8),0.5)</f>
+        <v/>
+      </c>
+      <c r="P8" s="19">
+        <f>IF(COUNT(W8:X8)&gt;0,R8/COUNT(W8:X8),0.5)</f>
         <v/>
       </c>
       <c r="Q8" s="20">
-        <f>SUM(V8:W8)</f>
-        <v/>
-      </c>
-      <c r="R8" s="21">
-        <f>IF(ISNUMBER(J8),J8,IF(ISNUMBER(K8),-K8,""))</f>
-        <v/>
-      </c>
-      <c r="S8" s="15">
-        <f>IF(ISNUMBER(K8),K8,IF(ISNUMBER(J8),-J8,""))</f>
-        <v/>
-      </c>
-      <c r="T8" s="21">
-        <f>IF(ISNUMBER(R8),IF(ISNUMBER(R6),IF(R8&gt;R6,1.0,IF(R8=R6,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U8" s="15">
-        <f>IF(ISNUMBER(R8),IF(ISNUMBER(R7),IF(R8&gt;R7,1.0,IF(R8=R7,0.5,0.0)),""),"")</f>
+        <f>SUM(U8:V8)</f>
+        <v/>
+      </c>
+      <c r="R8" s="20">
+        <f>SUM(W8:X8)</f>
+        <v/>
+      </c>
+      <c r="S8" s="21">
+        <f>IF(ISNUMBER(K8),K8,IF(ISNUMBER(L8),-L8,""))</f>
+        <v/>
+      </c>
+      <c r="T8" s="15">
+        <f>IF(ISNUMBER(L8),L8,IF(ISNUMBER(K8),-K8,""))</f>
+        <v/>
+      </c>
+      <c r="U8" s="21">
+        <f>IF(ISNUMBER(S8),IF(ISNUMBER(S6),IF(S8&gt;S6,1.0,IF(S8=S6,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V8" s="15">
-        <f>IF(ISNUMBER(S8),IF(ISNUMBER(S6),IF(S8&gt;S6,1.0,IF(S8=S6,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S8),IF(ISNUMBER(S7),IF(S8&gt;S7,1.0,IF(S8=S7,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W8" s="15">
-        <f>IF(ISNUMBER(S8),IF(ISNUMBER(S7),IF(S8&gt;S7,1.0,IF(S8=S7,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X8" s="21">
-        <f>IF(AND(ISNUMBER(R8),ISNUMBER(R6)),VLOOKUP(ABS(R8-R6),'IMP Table'!$A$2:$C$26,3)*SIGN(R8-R6),0)</f>
-        <v/>
-      </c>
-      <c r="Y8" s="15">
-        <f>IF(AND(ISNUMBER(R8),ISNUMBER(R7)),VLOOKUP(ABS(R8-R7),'IMP Table'!$A$2:$C$26,3)*SIGN(R8-R7),0)</f>
+        <f>IF(ISNUMBER(T8),IF(ISNUMBER(T6),IF(T8&gt;T6,1.0,IF(T8=T6,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X8" s="15">
+        <f>IF(ISNUMBER(T8),IF(ISNUMBER(T7),IF(T8&gt;T7,1.0,IF(T8=T7,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y8" s="21">
+        <f>IF(AND(ISNUMBER(S8),ISNUMBER(S6)),VLOOKUP(ABS(S8-S6),'IMP Table'!$A$2:$C$26,3)*SIGN(S8-S6),0)</f>
         <v/>
       </c>
       <c r="Z8" s="15">
-        <f>IF(AND(ISNUMBER(S8),ISNUMBER(S6)),VLOOKUP(ABS(S8-S6),'IMP Table'!$A$2:$C$26,3)*SIGN(S8-S6),0)</f>
+        <f>IF(AND(ISNUMBER(S8),ISNUMBER(S7)),VLOOKUP(ABS(S8-S7),'IMP Table'!$A$2:$C$26,3)*SIGN(S8-S7),0)</f>
         <v/>
       </c>
       <c r="AA8" s="15">
-        <f>IF(AND(ISNUMBER(S8),ISNUMBER(S7)),VLOOKUP(ABS(S8-S7),'IMP Table'!$A$2:$C$26,3)*SIGN(S8-S7),0)</f>
+        <f>IF(AND(ISNUMBER(T8),ISNUMBER(T6)),VLOOKUP(ABS(T8-T6),'IMP Table'!$A$2:$C$26,3)*SIGN(T8-T6),0)</f>
+        <v/>
+      </c>
+      <c r="AB8" s="15">
+        <f>IF(AND(ISNUMBER(T8),ISNUMBER(T7)),VLOOKUP(ABS(T8-T7),'IMP Table'!$A$2:$C$26,3)*SIGN(T8-T7),0)</f>
         <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="n">
+      <c r="A9" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <f>'By Round'!A21</f>
         <v/>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <f>'By Round'!B27</f>
         <v/>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <f>'By Round'!C27</f>
         <v/>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <f>'By Round'!D27</f>
         <v/>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <f>IF(ISBLANK('By Round'!F29),"",'By Round'!F29)</f>
         <v/>
       </c>
@@ -1691,89 +1644,93 @@
         <f>IF(ISBLANK('By Round'!K29),"",'By Round'!K29)</f>
         <v/>
       </c>
-      <c r="L9" s="12">
-        <f>AVERAGE(X9:Y9)</f>
-        <v/>
-      </c>
-      <c r="M9" s="13">
-        <f>AVERAGE(Z9:AA9)</f>
-        <v/>
-      </c>
-      <c r="N9" s="8">
-        <f>IF(COUNT(T9:U9)&gt;0,P9/COUNT(T9:U9),0.5)</f>
-        <v/>
-      </c>
-      <c r="O9" s="8">
-        <f>IF(COUNT(V9:W9)&gt;0,Q9/COUNT(V9:W9),0.5)</f>
-        <v/>
-      </c>
-      <c r="P9" s="5">
-        <f>SUM(T9:U9)</f>
+      <c r="L9">
+        <f>IF(ISBLANK('By Round'!L29),"",'By Round'!L29)</f>
+        <v/>
+      </c>
+      <c r="M9" s="11">
+        <f>AVERAGE(Y9:Z9)</f>
+        <v/>
+      </c>
+      <c r="N9" s="12">
+        <f>AVERAGE(AA9:AB9)</f>
+        <v/>
+      </c>
+      <c r="O9" s="13">
+        <f>IF(COUNT(U9:V9)&gt;0,Q9/COUNT(U9:V9),0.5)</f>
+        <v/>
+      </c>
+      <c r="P9" s="13">
+        <f>IF(COUNT(W9:X9)&gt;0,R9/COUNT(W9:X9),0.5)</f>
         <v/>
       </c>
       <c r="Q9" s="5">
-        <f>SUM(V9:W9)</f>
-        <v/>
-      </c>
-      <c r="R9" s="14">
-        <f>IF(ISNUMBER(J9),J9,IF(ISNUMBER(K9),-K9,""))</f>
-        <v/>
-      </c>
-      <c r="S9">
-        <f>IF(ISNUMBER(K9),K9,IF(ISNUMBER(J9),-J9,""))</f>
-        <v/>
-      </c>
-      <c r="T9" s="14">
-        <f>IF(ISNUMBER(R9),IF(ISNUMBER(R10),IF(R9&gt;R10,1.0,IF(R9=R10,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U9">
-        <f>IF(ISNUMBER(R9),IF(ISNUMBER(R11),IF(R9&gt;R11,1.0,IF(R9=R11,0.5,0.0)),""),"")</f>
+        <f>SUM(U9:V9)</f>
+        <v/>
+      </c>
+      <c r="R9" s="5">
+        <f>SUM(W9:X9)</f>
+        <v/>
+      </c>
+      <c r="S9" s="14">
+        <f>IF(ISNUMBER(K9),K9,IF(ISNUMBER(L9),-L9,""))</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>IF(ISNUMBER(L9),L9,IF(ISNUMBER(K9),-K9,""))</f>
+        <v/>
+      </c>
+      <c r="U9" s="14">
+        <f>IF(ISNUMBER(S9),IF(ISNUMBER(S10),IF(S9&gt;S10,1.0,IF(S9=S10,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>IF(ISNUMBER(S9),IF(ISNUMBER(S10),IF(S9&gt;S10,1.0,IF(S9=S10,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S9),IF(ISNUMBER(S11),IF(S9&gt;S11,1.0,IF(S9=S11,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>IF(ISNUMBER(S9),IF(ISNUMBER(S11),IF(S9&gt;S11,1.0,IF(S9=S11,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X9" s="14">
-        <f>IF(AND(ISNUMBER(R9),ISNUMBER(R10)),VLOOKUP(ABS(R9-R10),'IMP Table'!$A$2:$C$26,3)*SIGN(R9-R10),0)</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>IF(AND(ISNUMBER(R9),ISNUMBER(R11)),VLOOKUP(ABS(R9-R11),'IMP Table'!$A$2:$C$26,3)*SIGN(R9-R11),0)</f>
+        <f>IF(ISNUMBER(T9),IF(ISNUMBER(T10),IF(T9&gt;T10,1.0,IF(T9=T10,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>IF(ISNUMBER(T9),IF(ISNUMBER(T11),IF(T9&gt;T11,1.0,IF(T9=T11,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y9" s="14">
+        <f>IF(AND(ISNUMBER(S9),ISNUMBER(S10)),VLOOKUP(ABS(S9-S10),'IMP Table'!$A$2:$C$26,3)*SIGN(S9-S10),0)</f>
         <v/>
       </c>
       <c r="Z9">
-        <f>IF(AND(ISNUMBER(S9),ISNUMBER(S10)),VLOOKUP(ABS(S9-S10),'IMP Table'!$A$2:$C$26,3)*SIGN(S9-S10),0)</f>
+        <f>IF(AND(ISNUMBER(S9),ISNUMBER(S11)),VLOOKUP(ABS(S9-S11),'IMP Table'!$A$2:$C$26,3)*SIGN(S9-S11),0)</f>
         <v/>
       </c>
       <c r="AA9">
-        <f>IF(AND(ISNUMBER(S9),ISNUMBER(S11)),VLOOKUP(ABS(S9-S11),'IMP Table'!$A$2:$C$26,3)*SIGN(S9-S11),0)</f>
+        <f>IF(AND(ISNUMBER(T9),ISNUMBER(T10)),VLOOKUP(ABS(T9-T10),'IMP Table'!$A$2:$C$26,3)*SIGN(T9-T10),0)</f>
+        <v/>
+      </c>
+      <c r="AB9">
+        <f>IF(AND(ISNUMBER(T9),ISNUMBER(T11)),VLOOKUP(ABS(T9-T11),'IMP Table'!$A$2:$C$26,3)*SIGN(T9-T11),0)</f>
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <f>'By Round'!A30</f>
         <v/>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <f>'By Round'!B36</f>
         <v/>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <f>'By Round'!C36</f>
         <v/>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <f>'By Round'!D36</f>
         <v/>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <f>IF(ISBLANK('By Round'!F38),"",'By Round'!F38)</f>
         <v/>
       </c>
@@ -1797,68 +1754,72 @@
         <f>IF(ISBLANK('By Round'!K38),"",'By Round'!K38)</f>
         <v/>
       </c>
-      <c r="L10" s="12">
-        <f>AVERAGE(X10:Y10)</f>
-        <v/>
-      </c>
-      <c r="M10" s="13">
-        <f>AVERAGE(Z10:AA10)</f>
-        <v/>
-      </c>
-      <c r="N10" s="8">
-        <f>IF(COUNT(T10:U10)&gt;0,P10/COUNT(T10:U10),0.5)</f>
-        <v/>
-      </c>
-      <c r="O10" s="8">
-        <f>IF(COUNT(V10:W10)&gt;0,Q10/COUNT(V10:W10),0.5)</f>
-        <v/>
-      </c>
-      <c r="P10" s="5">
-        <f>SUM(T10:U10)</f>
+      <c r="L10">
+        <f>IF(ISBLANK('By Round'!L38),"",'By Round'!L38)</f>
+        <v/>
+      </c>
+      <c r="M10" s="11">
+        <f>AVERAGE(Y10:Z10)</f>
+        <v/>
+      </c>
+      <c r="N10" s="12">
+        <f>AVERAGE(AA10:AB10)</f>
+        <v/>
+      </c>
+      <c r="O10" s="13">
+        <f>IF(COUNT(U10:V10)&gt;0,Q10/COUNT(U10:V10),0.5)</f>
+        <v/>
+      </c>
+      <c r="P10" s="13">
+        <f>IF(COUNT(W10:X10)&gt;0,R10/COUNT(W10:X10),0.5)</f>
         <v/>
       </c>
       <c r="Q10" s="5">
-        <f>SUM(V10:W10)</f>
-        <v/>
-      </c>
-      <c r="R10" s="14">
-        <f>IF(ISNUMBER(J10),J10,IF(ISNUMBER(K10),-K10,""))</f>
-        <v/>
-      </c>
-      <c r="S10">
-        <f>IF(ISNUMBER(K10),K10,IF(ISNUMBER(J10),-J10,""))</f>
-        <v/>
-      </c>
-      <c r="T10" s="14">
-        <f>IF(ISNUMBER(R10),IF(ISNUMBER(R9),IF(R10&gt;R9,1.0,IF(R10=R9,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U10">
-        <f>IF(ISNUMBER(R10),IF(ISNUMBER(R11),IF(R10&gt;R11,1.0,IF(R10=R11,0.5,0.0)),""),"")</f>
+        <f>SUM(U10:V10)</f>
+        <v/>
+      </c>
+      <c r="R10" s="5">
+        <f>SUM(W10:X10)</f>
+        <v/>
+      </c>
+      <c r="S10" s="14">
+        <f>IF(ISNUMBER(K10),K10,IF(ISNUMBER(L10),-L10,""))</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>IF(ISNUMBER(L10),L10,IF(ISNUMBER(K10),-K10,""))</f>
+        <v/>
+      </c>
+      <c r="U10" s="14">
+        <f>IF(ISNUMBER(S10),IF(ISNUMBER(S9),IF(S10&gt;S9,1.0,IF(S10=S9,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>IF(ISNUMBER(S10),IF(ISNUMBER(S9),IF(S10&gt;S9,1.0,IF(S10=S9,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S10),IF(ISNUMBER(S11),IF(S10&gt;S11,1.0,IF(S10=S11,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>IF(ISNUMBER(S10),IF(ISNUMBER(S11),IF(S10&gt;S11,1.0,IF(S10=S11,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X10" s="14">
-        <f>IF(AND(ISNUMBER(R10),ISNUMBER(R9)),VLOOKUP(ABS(R10-R9),'IMP Table'!$A$2:$C$26,3)*SIGN(R10-R9),0)</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>IF(AND(ISNUMBER(R10),ISNUMBER(R11)),VLOOKUP(ABS(R10-R11),'IMP Table'!$A$2:$C$26,3)*SIGN(R10-R11),0)</f>
+        <f>IF(ISNUMBER(T10),IF(ISNUMBER(T9),IF(T10&gt;T9,1.0,IF(T10=T9,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>IF(ISNUMBER(T10),IF(ISNUMBER(T11),IF(T10&gt;T11,1.0,IF(T10=T11,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y10" s="14">
+        <f>IF(AND(ISNUMBER(S10),ISNUMBER(S9)),VLOOKUP(ABS(S10-S9),'IMP Table'!$A$2:$C$26,3)*SIGN(S10-S9),0)</f>
         <v/>
       </c>
       <c r="Z10">
-        <f>IF(AND(ISNUMBER(S10),ISNUMBER(S9)),VLOOKUP(ABS(S10-S9),'IMP Table'!$A$2:$C$26,3)*SIGN(S10-S9),0)</f>
+        <f>IF(AND(ISNUMBER(S10),ISNUMBER(S11)),VLOOKUP(ABS(S10-S11),'IMP Table'!$A$2:$C$26,3)*SIGN(S10-S11),0)</f>
         <v/>
       </c>
       <c r="AA10">
-        <f>IF(AND(ISNUMBER(S10),ISNUMBER(S11)),VLOOKUP(ABS(S10-S11),'IMP Table'!$A$2:$C$26,3)*SIGN(S10-S11),0)</f>
+        <f>IF(AND(ISNUMBER(T10),ISNUMBER(T9)),VLOOKUP(ABS(T10-T9),'IMP Table'!$A$2:$C$26,3)*SIGN(T10-T9),0)</f>
+        <v/>
+      </c>
+      <c r="AB10">
+        <f>IF(AND(ISNUMBER(T10),ISNUMBER(T11)),VLOOKUP(ABS(T10-T11),'IMP Table'!$A$2:$C$26,3)*SIGN(T10-T11),0)</f>
         <v/>
       </c>
     </row>
@@ -1904,92 +1865,96 @@
         <f>IF(ISBLANK('By Round'!K5),"",'By Round'!K5)</f>
         <v/>
       </c>
-      <c r="L11" s="17">
-        <f>AVERAGE(X11:Y11)</f>
-        <v/>
-      </c>
-      <c r="M11" s="18">
-        <f>AVERAGE(Z11:AA11)</f>
-        <v/>
-      </c>
-      <c r="N11" s="19">
-        <f>IF(COUNT(T11:U11)&gt;0,P11/COUNT(T11:U11),0.5)</f>
+      <c r="L11" s="15">
+        <f>IF(ISBLANK('By Round'!L5),"",'By Round'!L5)</f>
+        <v/>
+      </c>
+      <c r="M11" s="17">
+        <f>AVERAGE(Y11:Z11)</f>
+        <v/>
+      </c>
+      <c r="N11" s="18">
+        <f>AVERAGE(AA11:AB11)</f>
         <v/>
       </c>
       <c r="O11" s="19">
-        <f>IF(COUNT(V11:W11)&gt;0,Q11/COUNT(V11:W11),0.5)</f>
-        <v/>
-      </c>
-      <c r="P11" s="20">
-        <f>SUM(T11:U11)</f>
+        <f>IF(COUNT(U11:V11)&gt;0,Q11/COUNT(U11:V11),0.5)</f>
+        <v/>
+      </c>
+      <c r="P11" s="19">
+        <f>IF(COUNT(W11:X11)&gt;0,R11/COUNT(W11:X11),0.5)</f>
         <v/>
       </c>
       <c r="Q11" s="20">
-        <f>SUM(V11:W11)</f>
-        <v/>
-      </c>
-      <c r="R11" s="21">
-        <f>IF(ISNUMBER(J11),J11,IF(ISNUMBER(K11),-K11,""))</f>
-        <v/>
-      </c>
-      <c r="S11" s="15">
-        <f>IF(ISNUMBER(K11),K11,IF(ISNUMBER(J11),-J11,""))</f>
-        <v/>
-      </c>
-      <c r="T11" s="21">
-        <f>IF(ISNUMBER(R11),IF(ISNUMBER(R9),IF(R11&gt;R9,1.0,IF(R11=R9,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U11" s="15">
-        <f>IF(ISNUMBER(R11),IF(ISNUMBER(R10),IF(R11&gt;R10,1.0,IF(R11=R10,0.5,0.0)),""),"")</f>
+        <f>SUM(U11:V11)</f>
+        <v/>
+      </c>
+      <c r="R11" s="20">
+        <f>SUM(W11:X11)</f>
+        <v/>
+      </c>
+      <c r="S11" s="21">
+        <f>IF(ISNUMBER(K11),K11,IF(ISNUMBER(L11),-L11,""))</f>
+        <v/>
+      </c>
+      <c r="T11" s="15">
+        <f>IF(ISNUMBER(L11),L11,IF(ISNUMBER(K11),-K11,""))</f>
+        <v/>
+      </c>
+      <c r="U11" s="21">
+        <f>IF(ISNUMBER(S11),IF(ISNUMBER(S9),IF(S11&gt;S9,1.0,IF(S11=S9,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V11" s="15">
-        <f>IF(ISNUMBER(S11),IF(ISNUMBER(S9),IF(S11&gt;S9,1.0,IF(S11=S9,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S11),IF(ISNUMBER(S10),IF(S11&gt;S10,1.0,IF(S11=S10,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W11" s="15">
-        <f>IF(ISNUMBER(S11),IF(ISNUMBER(S10),IF(S11&gt;S10,1.0,IF(S11=S10,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X11" s="21">
-        <f>IF(AND(ISNUMBER(R11),ISNUMBER(R9)),VLOOKUP(ABS(R11-R9),'IMP Table'!$A$2:$C$26,3)*SIGN(R11-R9),0)</f>
-        <v/>
-      </c>
-      <c r="Y11" s="15">
-        <f>IF(AND(ISNUMBER(R11),ISNUMBER(R10)),VLOOKUP(ABS(R11-R10),'IMP Table'!$A$2:$C$26,3)*SIGN(R11-R10),0)</f>
+        <f>IF(ISNUMBER(T11),IF(ISNUMBER(T9),IF(T11&gt;T9,1.0,IF(T11=T9,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X11" s="15">
+        <f>IF(ISNUMBER(T11),IF(ISNUMBER(T10),IF(T11&gt;T10,1.0,IF(T11=T10,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y11" s="21">
+        <f>IF(AND(ISNUMBER(S11),ISNUMBER(S9)),VLOOKUP(ABS(S11-S9),'IMP Table'!$A$2:$C$26,3)*SIGN(S11-S9),0)</f>
         <v/>
       </c>
       <c r="Z11" s="15">
-        <f>IF(AND(ISNUMBER(S11),ISNUMBER(S9)),VLOOKUP(ABS(S11-S9),'IMP Table'!$A$2:$C$26,3)*SIGN(S11-S9),0)</f>
+        <f>IF(AND(ISNUMBER(S11),ISNUMBER(S10)),VLOOKUP(ABS(S11-S10),'IMP Table'!$A$2:$C$26,3)*SIGN(S11-S10),0)</f>
         <v/>
       </c>
       <c r="AA11" s="15">
-        <f>IF(AND(ISNUMBER(S11),ISNUMBER(S10)),VLOOKUP(ABS(S11-S10),'IMP Table'!$A$2:$C$26,3)*SIGN(S11-S10),0)</f>
+        <f>IF(AND(ISNUMBER(T11),ISNUMBER(T9)),VLOOKUP(ABS(T11-T9),'IMP Table'!$A$2:$C$26,3)*SIGN(T11-T9),0)</f>
+        <v/>
+      </c>
+      <c r="AB11" s="15">
+        <f>IF(AND(ISNUMBER(T11),ISNUMBER(T10)),VLOOKUP(ABS(T11-T10),'IMP Table'!$A$2:$C$26,3)*SIGN(T11-T10),0)</f>
         <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="n">
+      <c r="A12" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <f>'By Round'!B6</f>
         <v/>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <f>'By Round'!C6</f>
         <v/>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <f>'By Round'!D6</f>
         <v/>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <f>IF(ISBLANK('By Round'!F6),"",'By Round'!F6)</f>
         <v/>
       </c>
@@ -2013,89 +1978,93 @@
         <f>IF(ISBLANK('By Round'!K6),"",'By Round'!K6)</f>
         <v/>
       </c>
-      <c r="L12" s="12">
-        <f>AVERAGE(X12:Y12)</f>
-        <v/>
-      </c>
-      <c r="M12" s="13">
-        <f>AVERAGE(Z12:AA12)</f>
-        <v/>
-      </c>
-      <c r="N12" s="8">
-        <f>IF(COUNT(T12:U12)&gt;0,P12/COUNT(T12:U12),0.5)</f>
-        <v/>
-      </c>
-      <c r="O12" s="8">
-        <f>IF(COUNT(V12:W12)&gt;0,Q12/COUNT(V12:W12),0.5)</f>
-        <v/>
-      </c>
-      <c r="P12" s="5">
-        <f>SUM(T12:U12)</f>
+      <c r="L12">
+        <f>IF(ISBLANK('By Round'!L6),"",'By Round'!L6)</f>
+        <v/>
+      </c>
+      <c r="M12" s="11">
+        <f>AVERAGE(Y12:Z12)</f>
+        <v/>
+      </c>
+      <c r="N12" s="12">
+        <f>AVERAGE(AA12:AB12)</f>
+        <v/>
+      </c>
+      <c r="O12" s="13">
+        <f>IF(COUNT(U12:V12)&gt;0,Q12/COUNT(U12:V12),0.5)</f>
+        <v/>
+      </c>
+      <c r="P12" s="13">
+        <f>IF(COUNT(W12:X12)&gt;0,R12/COUNT(W12:X12),0.5)</f>
         <v/>
       </c>
       <c r="Q12" s="5">
-        <f>SUM(V12:W12)</f>
-        <v/>
-      </c>
-      <c r="R12" s="14">
-        <f>IF(ISNUMBER(J12),J12,IF(ISNUMBER(K12),-K12,""))</f>
-        <v/>
-      </c>
-      <c r="S12">
-        <f>IF(ISNUMBER(K12),K12,IF(ISNUMBER(J12),-J12,""))</f>
-        <v/>
-      </c>
-      <c r="T12" s="14">
-        <f>IF(ISNUMBER(R12),IF(ISNUMBER(R13),IF(R12&gt;R13,1.0,IF(R12=R13,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U12">
-        <f>IF(ISNUMBER(R12),IF(ISNUMBER(R14),IF(R12&gt;R14,1.0,IF(R12=R14,0.5,0.0)),""),"")</f>
+        <f>SUM(U12:V12)</f>
+        <v/>
+      </c>
+      <c r="R12" s="5">
+        <f>SUM(W12:X12)</f>
+        <v/>
+      </c>
+      <c r="S12" s="14">
+        <f>IF(ISNUMBER(K12),K12,IF(ISNUMBER(L12),-L12,""))</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>IF(ISNUMBER(L12),L12,IF(ISNUMBER(K12),-K12,""))</f>
+        <v/>
+      </c>
+      <c r="U12" s="14">
+        <f>IF(ISNUMBER(S12),IF(ISNUMBER(S13),IF(S12&gt;S13,1.0,IF(S12=S13,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>IF(ISNUMBER(S12),IF(ISNUMBER(S13),IF(S12&gt;S13,1.0,IF(S12=S13,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S12),IF(ISNUMBER(S14),IF(S12&gt;S14,1.0,IF(S12=S14,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>IF(ISNUMBER(S12),IF(ISNUMBER(S14),IF(S12&gt;S14,1.0,IF(S12=S14,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X12" s="14">
-        <f>IF(AND(ISNUMBER(R12),ISNUMBER(R13)),VLOOKUP(ABS(R12-R13),'IMP Table'!$A$2:$C$26,3)*SIGN(R12-R13),0)</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>IF(AND(ISNUMBER(R12),ISNUMBER(R14)),VLOOKUP(ABS(R12-R14),'IMP Table'!$A$2:$C$26,3)*SIGN(R12-R14),0)</f>
+        <f>IF(ISNUMBER(T12),IF(ISNUMBER(T13),IF(T12&gt;T13,1.0,IF(T12=T13,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>IF(ISNUMBER(T12),IF(ISNUMBER(T14),IF(T12&gt;T14,1.0,IF(T12=T14,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y12" s="14">
+        <f>IF(AND(ISNUMBER(S12),ISNUMBER(S13)),VLOOKUP(ABS(S12-S13),'IMP Table'!$A$2:$C$26,3)*SIGN(S12-S13),0)</f>
         <v/>
       </c>
       <c r="Z12">
-        <f>IF(AND(ISNUMBER(S12),ISNUMBER(S13)),VLOOKUP(ABS(S12-S13),'IMP Table'!$A$2:$C$26,3)*SIGN(S12-S13),0)</f>
+        <f>IF(AND(ISNUMBER(S12),ISNUMBER(S14)),VLOOKUP(ABS(S12-S14),'IMP Table'!$A$2:$C$26,3)*SIGN(S12-S14),0)</f>
         <v/>
       </c>
       <c r="AA12">
-        <f>IF(AND(ISNUMBER(S12),ISNUMBER(S14)),VLOOKUP(ABS(S12-S14),'IMP Table'!$A$2:$C$26,3)*SIGN(S12-S14),0)</f>
+        <f>IF(AND(ISNUMBER(T12),ISNUMBER(T13)),VLOOKUP(ABS(T12-T13),'IMP Table'!$A$2:$C$26,3)*SIGN(T12-T13),0)</f>
+        <v/>
+      </c>
+      <c r="AB12">
+        <f>IF(AND(ISNUMBER(T12),ISNUMBER(T14)),VLOOKUP(ABS(T12-T14),'IMP Table'!$A$2:$C$26,3)*SIGN(T12-T14),0)</f>
         <v/>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <f>'By Round'!A21</f>
         <v/>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <f>'By Round'!B24</f>
         <v/>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <f>'By Round'!C24</f>
         <v/>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <f>'By Round'!D24</f>
         <v/>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <f>IF(ISBLANK('By Round'!F24),"",'By Round'!F24)</f>
         <v/>
       </c>
@@ -2119,68 +2088,72 @@
         <f>IF(ISBLANK('By Round'!K24),"",'By Round'!K24)</f>
         <v/>
       </c>
-      <c r="L13" s="12">
-        <f>AVERAGE(X13:Y13)</f>
-        <v/>
-      </c>
-      <c r="M13" s="13">
-        <f>AVERAGE(Z13:AA13)</f>
-        <v/>
-      </c>
-      <c r="N13" s="8">
-        <f>IF(COUNT(T13:U13)&gt;0,P13/COUNT(T13:U13),0.5)</f>
-        <v/>
-      </c>
-      <c r="O13" s="8">
-        <f>IF(COUNT(V13:W13)&gt;0,Q13/COUNT(V13:W13),0.5)</f>
-        <v/>
-      </c>
-      <c r="P13" s="5">
-        <f>SUM(T13:U13)</f>
+      <c r="L13">
+        <f>IF(ISBLANK('By Round'!L24),"",'By Round'!L24)</f>
+        <v/>
+      </c>
+      <c r="M13" s="11">
+        <f>AVERAGE(Y13:Z13)</f>
+        <v/>
+      </c>
+      <c r="N13" s="12">
+        <f>AVERAGE(AA13:AB13)</f>
+        <v/>
+      </c>
+      <c r="O13" s="13">
+        <f>IF(COUNT(U13:V13)&gt;0,Q13/COUNT(U13:V13),0.5)</f>
+        <v/>
+      </c>
+      <c r="P13" s="13">
+        <f>IF(COUNT(W13:X13)&gt;0,R13/COUNT(W13:X13),0.5)</f>
         <v/>
       </c>
       <c r="Q13" s="5">
-        <f>SUM(V13:W13)</f>
-        <v/>
-      </c>
-      <c r="R13" s="14">
-        <f>IF(ISNUMBER(J13),J13,IF(ISNUMBER(K13),-K13,""))</f>
-        <v/>
-      </c>
-      <c r="S13">
-        <f>IF(ISNUMBER(K13),K13,IF(ISNUMBER(J13),-J13,""))</f>
-        <v/>
-      </c>
-      <c r="T13" s="14">
-        <f>IF(ISNUMBER(R13),IF(ISNUMBER(R12),IF(R13&gt;R12,1.0,IF(R13=R12,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U13">
-        <f>IF(ISNUMBER(R13),IF(ISNUMBER(R14),IF(R13&gt;R14,1.0,IF(R13=R14,0.5,0.0)),""),"")</f>
+        <f>SUM(U13:V13)</f>
+        <v/>
+      </c>
+      <c r="R13" s="5">
+        <f>SUM(W13:X13)</f>
+        <v/>
+      </c>
+      <c r="S13" s="14">
+        <f>IF(ISNUMBER(K13),K13,IF(ISNUMBER(L13),-L13,""))</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>IF(ISNUMBER(L13),L13,IF(ISNUMBER(K13),-K13,""))</f>
+        <v/>
+      </c>
+      <c r="U13" s="14">
+        <f>IF(ISNUMBER(S13),IF(ISNUMBER(S12),IF(S13&gt;S12,1.0,IF(S13=S12,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>IF(ISNUMBER(S13),IF(ISNUMBER(S12),IF(S13&gt;S12,1.0,IF(S13=S12,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S13),IF(ISNUMBER(S14),IF(S13&gt;S14,1.0,IF(S13=S14,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>IF(ISNUMBER(S13),IF(ISNUMBER(S14),IF(S13&gt;S14,1.0,IF(S13=S14,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X13" s="14">
-        <f>IF(AND(ISNUMBER(R13),ISNUMBER(R12)),VLOOKUP(ABS(R13-R12),'IMP Table'!$A$2:$C$26,3)*SIGN(R13-R12),0)</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>IF(AND(ISNUMBER(R13),ISNUMBER(R14)),VLOOKUP(ABS(R13-R14),'IMP Table'!$A$2:$C$26,3)*SIGN(R13-R14),0)</f>
+        <f>IF(ISNUMBER(T13),IF(ISNUMBER(T12),IF(T13&gt;T12,1.0,IF(T13=T12,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>IF(ISNUMBER(T13),IF(ISNUMBER(T14),IF(T13&gt;T14,1.0,IF(T13=T14,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y13" s="14">
+        <f>IF(AND(ISNUMBER(S13),ISNUMBER(S12)),VLOOKUP(ABS(S13-S12),'IMP Table'!$A$2:$C$26,3)*SIGN(S13-S12),0)</f>
         <v/>
       </c>
       <c r="Z13">
-        <f>IF(AND(ISNUMBER(S13),ISNUMBER(S12)),VLOOKUP(ABS(S13-S12),'IMP Table'!$A$2:$C$26,3)*SIGN(S13-S12),0)</f>
+        <f>IF(AND(ISNUMBER(S13),ISNUMBER(S14)),VLOOKUP(ABS(S13-S14),'IMP Table'!$A$2:$C$26,3)*SIGN(S13-S14),0)</f>
         <v/>
       </c>
       <c r="AA13">
-        <f>IF(AND(ISNUMBER(S13),ISNUMBER(S14)),VLOOKUP(ABS(S13-S14),'IMP Table'!$A$2:$C$26,3)*SIGN(S13-S14),0)</f>
+        <f>IF(AND(ISNUMBER(T13),ISNUMBER(T12)),VLOOKUP(ABS(T13-T12),'IMP Table'!$A$2:$C$26,3)*SIGN(T13-T12),0)</f>
+        <v/>
+      </c>
+      <c r="AB13">
+        <f>IF(AND(ISNUMBER(T13),ISNUMBER(T14)),VLOOKUP(ABS(T13-T14),'IMP Table'!$A$2:$C$26,3)*SIGN(T13-T14),0)</f>
         <v/>
       </c>
     </row>
@@ -2226,92 +2199,96 @@
         <f>IF(ISBLANK('By Round'!K12),"",'By Round'!K12)</f>
         <v/>
       </c>
-      <c r="L14" s="17">
-        <f>AVERAGE(X14:Y14)</f>
-        <v/>
-      </c>
-      <c r="M14" s="18">
-        <f>AVERAGE(Z14:AA14)</f>
-        <v/>
-      </c>
-      <c r="N14" s="19">
-        <f>IF(COUNT(T14:U14)&gt;0,P14/COUNT(T14:U14),0.5)</f>
+      <c r="L14" s="15">
+        <f>IF(ISBLANK('By Round'!L12),"",'By Round'!L12)</f>
+        <v/>
+      </c>
+      <c r="M14" s="17">
+        <f>AVERAGE(Y14:Z14)</f>
+        <v/>
+      </c>
+      <c r="N14" s="18">
+        <f>AVERAGE(AA14:AB14)</f>
         <v/>
       </c>
       <c r="O14" s="19">
-        <f>IF(COUNT(V14:W14)&gt;0,Q14/COUNT(V14:W14),0.5)</f>
-        <v/>
-      </c>
-      <c r="P14" s="20">
-        <f>SUM(T14:U14)</f>
+        <f>IF(COUNT(U14:V14)&gt;0,Q14/COUNT(U14:V14),0.5)</f>
+        <v/>
+      </c>
+      <c r="P14" s="19">
+        <f>IF(COUNT(W14:X14)&gt;0,R14/COUNT(W14:X14),0.5)</f>
         <v/>
       </c>
       <c r="Q14" s="20">
-        <f>SUM(V14:W14)</f>
-        <v/>
-      </c>
-      <c r="R14" s="21">
-        <f>IF(ISNUMBER(J14),J14,IF(ISNUMBER(K14),-K14,""))</f>
-        <v/>
-      </c>
-      <c r="S14" s="15">
-        <f>IF(ISNUMBER(K14),K14,IF(ISNUMBER(J14),-J14,""))</f>
-        <v/>
-      </c>
-      <c r="T14" s="21">
-        <f>IF(ISNUMBER(R14),IF(ISNUMBER(R12),IF(R14&gt;R12,1.0,IF(R14=R12,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U14" s="15">
-        <f>IF(ISNUMBER(R14),IF(ISNUMBER(R13),IF(R14&gt;R13,1.0,IF(R14=R13,0.5,0.0)),""),"")</f>
+        <f>SUM(U14:V14)</f>
+        <v/>
+      </c>
+      <c r="R14" s="20">
+        <f>SUM(W14:X14)</f>
+        <v/>
+      </c>
+      <c r="S14" s="21">
+        <f>IF(ISNUMBER(K14),K14,IF(ISNUMBER(L14),-L14,""))</f>
+        <v/>
+      </c>
+      <c r="T14" s="15">
+        <f>IF(ISNUMBER(L14),L14,IF(ISNUMBER(K14),-K14,""))</f>
+        <v/>
+      </c>
+      <c r="U14" s="21">
+        <f>IF(ISNUMBER(S14),IF(ISNUMBER(S12),IF(S14&gt;S12,1.0,IF(S14=S12,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V14" s="15">
-        <f>IF(ISNUMBER(S14),IF(ISNUMBER(S12),IF(S14&gt;S12,1.0,IF(S14=S12,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S14),IF(ISNUMBER(S13),IF(S14&gt;S13,1.0,IF(S14=S13,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W14" s="15">
-        <f>IF(ISNUMBER(S14),IF(ISNUMBER(S13),IF(S14&gt;S13,1.0,IF(S14=S13,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X14" s="21">
-        <f>IF(AND(ISNUMBER(R14),ISNUMBER(R12)),VLOOKUP(ABS(R14-R12),'IMP Table'!$A$2:$C$26,3)*SIGN(R14-R12),0)</f>
-        <v/>
-      </c>
-      <c r="Y14" s="15">
-        <f>IF(AND(ISNUMBER(R14),ISNUMBER(R13)),VLOOKUP(ABS(R14-R13),'IMP Table'!$A$2:$C$26,3)*SIGN(R14-R13),0)</f>
+        <f>IF(ISNUMBER(T14),IF(ISNUMBER(T12),IF(T14&gt;T12,1.0,IF(T14=T12,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X14" s="15">
+        <f>IF(ISNUMBER(T14),IF(ISNUMBER(T13),IF(T14&gt;T13,1.0,IF(T14=T13,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y14" s="21">
+        <f>IF(AND(ISNUMBER(S14),ISNUMBER(S12)),VLOOKUP(ABS(S14-S12),'IMP Table'!$A$2:$C$26,3)*SIGN(S14-S12),0)</f>
         <v/>
       </c>
       <c r="Z14" s="15">
-        <f>IF(AND(ISNUMBER(S14),ISNUMBER(S12)),VLOOKUP(ABS(S14-S12),'IMP Table'!$A$2:$C$26,3)*SIGN(S14-S12),0)</f>
+        <f>IF(AND(ISNUMBER(S14),ISNUMBER(S13)),VLOOKUP(ABS(S14-S13),'IMP Table'!$A$2:$C$26,3)*SIGN(S14-S13),0)</f>
         <v/>
       </c>
       <c r="AA14" s="15">
-        <f>IF(AND(ISNUMBER(S14),ISNUMBER(S13)),VLOOKUP(ABS(S14-S13),'IMP Table'!$A$2:$C$26,3)*SIGN(S14-S13),0)</f>
+        <f>IF(AND(ISNUMBER(T14),ISNUMBER(T12)),VLOOKUP(ABS(T14-T12),'IMP Table'!$A$2:$C$26,3)*SIGN(T14-T12),0)</f>
+        <v/>
+      </c>
+      <c r="AB14" s="15">
+        <f>IF(AND(ISNUMBER(T14),ISNUMBER(T13)),VLOOKUP(ABS(T14-T13),'IMP Table'!$A$2:$C$26,3)*SIGN(T14-T13),0)</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="n">
+      <c r="A15" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <f>'By Round'!B6</f>
         <v/>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <f>'By Round'!C6</f>
         <v/>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <f>'By Round'!D6</f>
         <v/>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <f>IF(ISBLANK('By Round'!F7),"",'By Round'!F7)</f>
         <v/>
       </c>
@@ -2335,89 +2312,93 @@
         <f>IF(ISBLANK('By Round'!K7),"",'By Round'!K7)</f>
         <v/>
       </c>
-      <c r="L15" s="12">
-        <f>AVERAGE(X15:Y15)</f>
-        <v/>
-      </c>
-      <c r="M15" s="13">
-        <f>AVERAGE(Z15:AA15)</f>
-        <v/>
-      </c>
-      <c r="N15" s="8">
-        <f>IF(COUNT(T15:U15)&gt;0,P15/COUNT(T15:U15),0.5)</f>
-        <v/>
-      </c>
-      <c r="O15" s="8">
-        <f>IF(COUNT(V15:W15)&gt;0,Q15/COUNT(V15:W15),0.5)</f>
-        <v/>
-      </c>
-      <c r="P15" s="5">
-        <f>SUM(T15:U15)</f>
+      <c r="L15">
+        <f>IF(ISBLANK('By Round'!L7),"",'By Round'!L7)</f>
+        <v/>
+      </c>
+      <c r="M15" s="11">
+        <f>AVERAGE(Y15:Z15)</f>
+        <v/>
+      </c>
+      <c r="N15" s="12">
+        <f>AVERAGE(AA15:AB15)</f>
+        <v/>
+      </c>
+      <c r="O15" s="13">
+        <f>IF(COUNT(U15:V15)&gt;0,Q15/COUNT(U15:V15),0.5)</f>
+        <v/>
+      </c>
+      <c r="P15" s="13">
+        <f>IF(COUNT(W15:X15)&gt;0,R15/COUNT(W15:X15),0.5)</f>
         <v/>
       </c>
       <c r="Q15" s="5">
-        <f>SUM(V15:W15)</f>
-        <v/>
-      </c>
-      <c r="R15" s="14">
-        <f>IF(ISNUMBER(J15),J15,IF(ISNUMBER(K15),-K15,""))</f>
-        <v/>
-      </c>
-      <c r="S15">
-        <f>IF(ISNUMBER(K15),K15,IF(ISNUMBER(J15),-J15,""))</f>
-        <v/>
-      </c>
-      <c r="T15" s="14">
-        <f>IF(ISNUMBER(R15),IF(ISNUMBER(R16),IF(R15&gt;R16,1.0,IF(R15=R16,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U15">
-        <f>IF(ISNUMBER(R15),IF(ISNUMBER(R17),IF(R15&gt;R17,1.0,IF(R15=R17,0.5,0.0)),""),"")</f>
+        <f>SUM(U15:V15)</f>
+        <v/>
+      </c>
+      <c r="R15" s="5">
+        <f>SUM(W15:X15)</f>
+        <v/>
+      </c>
+      <c r="S15" s="14">
+        <f>IF(ISNUMBER(K15),K15,IF(ISNUMBER(L15),-L15,""))</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>IF(ISNUMBER(L15),L15,IF(ISNUMBER(K15),-K15,""))</f>
+        <v/>
+      </c>
+      <c r="U15" s="14">
+        <f>IF(ISNUMBER(S15),IF(ISNUMBER(S16),IF(S15&gt;S16,1.0,IF(S15=S16,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>IF(ISNUMBER(S15),IF(ISNUMBER(S16),IF(S15&gt;S16,1.0,IF(S15=S16,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S15),IF(ISNUMBER(S17),IF(S15&gt;S17,1.0,IF(S15=S17,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>IF(ISNUMBER(S15),IF(ISNUMBER(S17),IF(S15&gt;S17,1.0,IF(S15=S17,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X15" s="14">
-        <f>IF(AND(ISNUMBER(R15),ISNUMBER(R16)),VLOOKUP(ABS(R15-R16),'IMP Table'!$A$2:$C$26,3)*SIGN(R15-R16),0)</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>IF(AND(ISNUMBER(R15),ISNUMBER(R17)),VLOOKUP(ABS(R15-R17),'IMP Table'!$A$2:$C$26,3)*SIGN(R15-R17),0)</f>
+        <f>IF(ISNUMBER(T15),IF(ISNUMBER(T16),IF(T15&gt;T16,1.0,IF(T15=T16,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>IF(ISNUMBER(T15),IF(ISNUMBER(T17),IF(T15&gt;T17,1.0,IF(T15=T17,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y15" s="14">
+        <f>IF(AND(ISNUMBER(S15),ISNUMBER(S16)),VLOOKUP(ABS(S15-S16),'IMP Table'!$A$2:$C$26,3)*SIGN(S15-S16),0)</f>
         <v/>
       </c>
       <c r="Z15">
-        <f>IF(AND(ISNUMBER(S15),ISNUMBER(S16)),VLOOKUP(ABS(S15-S16),'IMP Table'!$A$2:$C$26,3)*SIGN(S15-S16),0)</f>
+        <f>IF(AND(ISNUMBER(S15),ISNUMBER(S17)),VLOOKUP(ABS(S15-S17),'IMP Table'!$A$2:$C$26,3)*SIGN(S15-S17),0)</f>
         <v/>
       </c>
       <c r="AA15">
-        <f>IF(AND(ISNUMBER(S15),ISNUMBER(S17)),VLOOKUP(ABS(S15-S17),'IMP Table'!$A$2:$C$26,3)*SIGN(S15-S17),0)</f>
+        <f>IF(AND(ISNUMBER(T15),ISNUMBER(T16)),VLOOKUP(ABS(T15-T16),'IMP Table'!$A$2:$C$26,3)*SIGN(T15-T16),0)</f>
+        <v/>
+      </c>
+      <c r="AB15">
+        <f>IF(AND(ISNUMBER(T15),ISNUMBER(T17)),VLOOKUP(ABS(T15-T17),'IMP Table'!$A$2:$C$26,3)*SIGN(T15-T17),0)</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <f>'By Round'!A21</f>
         <v/>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <f>'By Round'!B24</f>
         <v/>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <f>'By Round'!C24</f>
         <v/>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <f>'By Round'!D24</f>
         <v/>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f>IF(ISBLANK('By Round'!F25),"",'By Round'!F25)</f>
         <v/>
       </c>
@@ -2441,68 +2422,72 @@
         <f>IF(ISBLANK('By Round'!K25),"",'By Round'!K25)</f>
         <v/>
       </c>
-      <c r="L16" s="12">
-        <f>AVERAGE(X16:Y16)</f>
-        <v/>
-      </c>
-      <c r="M16" s="13">
-        <f>AVERAGE(Z16:AA16)</f>
-        <v/>
-      </c>
-      <c r="N16" s="8">
-        <f>IF(COUNT(T16:U16)&gt;0,P16/COUNT(T16:U16),0.5)</f>
-        <v/>
-      </c>
-      <c r="O16" s="8">
-        <f>IF(COUNT(V16:W16)&gt;0,Q16/COUNT(V16:W16),0.5)</f>
-        <v/>
-      </c>
-      <c r="P16" s="5">
-        <f>SUM(T16:U16)</f>
+      <c r="L16">
+        <f>IF(ISBLANK('By Round'!L25),"",'By Round'!L25)</f>
+        <v/>
+      </c>
+      <c r="M16" s="11">
+        <f>AVERAGE(Y16:Z16)</f>
+        <v/>
+      </c>
+      <c r="N16" s="12">
+        <f>AVERAGE(AA16:AB16)</f>
+        <v/>
+      </c>
+      <c r="O16" s="13">
+        <f>IF(COUNT(U16:V16)&gt;0,Q16/COUNT(U16:V16),0.5)</f>
+        <v/>
+      </c>
+      <c r="P16" s="13">
+        <f>IF(COUNT(W16:X16)&gt;0,R16/COUNT(W16:X16),0.5)</f>
         <v/>
       </c>
       <c r="Q16" s="5">
-        <f>SUM(V16:W16)</f>
-        <v/>
-      </c>
-      <c r="R16" s="14">
-        <f>IF(ISNUMBER(J16),J16,IF(ISNUMBER(K16),-K16,""))</f>
-        <v/>
-      </c>
-      <c r="S16">
-        <f>IF(ISNUMBER(K16),K16,IF(ISNUMBER(J16),-J16,""))</f>
-        <v/>
-      </c>
-      <c r="T16" s="14">
-        <f>IF(ISNUMBER(R16),IF(ISNUMBER(R15),IF(R16&gt;R15,1.0,IF(R16=R15,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U16">
-        <f>IF(ISNUMBER(R16),IF(ISNUMBER(R17),IF(R16&gt;R17,1.0,IF(R16=R17,0.5,0.0)),""),"")</f>
+        <f>SUM(U16:V16)</f>
+        <v/>
+      </c>
+      <c r="R16" s="5">
+        <f>SUM(W16:X16)</f>
+        <v/>
+      </c>
+      <c r="S16" s="14">
+        <f>IF(ISNUMBER(K16),K16,IF(ISNUMBER(L16),-L16,""))</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>IF(ISNUMBER(L16),L16,IF(ISNUMBER(K16),-K16,""))</f>
+        <v/>
+      </c>
+      <c r="U16" s="14">
+        <f>IF(ISNUMBER(S16),IF(ISNUMBER(S15),IF(S16&gt;S15,1.0,IF(S16=S15,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>IF(ISNUMBER(S16),IF(ISNUMBER(S15),IF(S16&gt;S15,1.0,IF(S16=S15,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S16),IF(ISNUMBER(S17),IF(S16&gt;S17,1.0,IF(S16=S17,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>IF(ISNUMBER(S16),IF(ISNUMBER(S17),IF(S16&gt;S17,1.0,IF(S16=S17,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X16" s="14">
-        <f>IF(AND(ISNUMBER(R16),ISNUMBER(R15)),VLOOKUP(ABS(R16-R15),'IMP Table'!$A$2:$C$26,3)*SIGN(R16-R15),0)</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>IF(AND(ISNUMBER(R16),ISNUMBER(R17)),VLOOKUP(ABS(R16-R17),'IMP Table'!$A$2:$C$26,3)*SIGN(R16-R17),0)</f>
+        <f>IF(ISNUMBER(T16),IF(ISNUMBER(T15),IF(T16&gt;T15,1.0,IF(T16=T15,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>IF(ISNUMBER(T16),IF(ISNUMBER(T17),IF(T16&gt;T17,1.0,IF(T16=T17,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y16" s="14">
+        <f>IF(AND(ISNUMBER(S16),ISNUMBER(S15)),VLOOKUP(ABS(S16-S15),'IMP Table'!$A$2:$C$26,3)*SIGN(S16-S15),0)</f>
         <v/>
       </c>
       <c r="Z16">
-        <f>IF(AND(ISNUMBER(S16),ISNUMBER(S15)),VLOOKUP(ABS(S16-S15),'IMP Table'!$A$2:$C$26,3)*SIGN(S16-S15),0)</f>
+        <f>IF(AND(ISNUMBER(S16),ISNUMBER(S17)),VLOOKUP(ABS(S16-S17),'IMP Table'!$A$2:$C$26,3)*SIGN(S16-S17),0)</f>
         <v/>
       </c>
       <c r="AA16">
-        <f>IF(AND(ISNUMBER(S16),ISNUMBER(S17)),VLOOKUP(ABS(S16-S17),'IMP Table'!$A$2:$C$26,3)*SIGN(S16-S17),0)</f>
+        <f>IF(AND(ISNUMBER(T16),ISNUMBER(T15)),VLOOKUP(ABS(T16-T15),'IMP Table'!$A$2:$C$26,3)*SIGN(T16-T15),0)</f>
+        <v/>
+      </c>
+      <c r="AB16">
+        <f>IF(AND(ISNUMBER(T16),ISNUMBER(T17)),VLOOKUP(ABS(T16-T17),'IMP Table'!$A$2:$C$26,3)*SIGN(T16-T17),0)</f>
         <v/>
       </c>
     </row>
@@ -2548,92 +2533,96 @@
         <f>IF(ISBLANK('By Round'!K13),"",'By Round'!K13)</f>
         <v/>
       </c>
-      <c r="L17" s="17">
-        <f>AVERAGE(X17:Y17)</f>
-        <v/>
-      </c>
-      <c r="M17" s="18">
-        <f>AVERAGE(Z17:AA17)</f>
-        <v/>
-      </c>
-      <c r="N17" s="19">
-        <f>IF(COUNT(T17:U17)&gt;0,P17/COUNT(T17:U17),0.5)</f>
+      <c r="L17" s="15">
+        <f>IF(ISBLANK('By Round'!L13),"",'By Round'!L13)</f>
+        <v/>
+      </c>
+      <c r="M17" s="17">
+        <f>AVERAGE(Y17:Z17)</f>
+        <v/>
+      </c>
+      <c r="N17" s="18">
+        <f>AVERAGE(AA17:AB17)</f>
         <v/>
       </c>
       <c r="O17" s="19">
-        <f>IF(COUNT(V17:W17)&gt;0,Q17/COUNT(V17:W17),0.5)</f>
-        <v/>
-      </c>
-      <c r="P17" s="20">
-        <f>SUM(T17:U17)</f>
+        <f>IF(COUNT(U17:V17)&gt;0,Q17/COUNT(U17:V17),0.5)</f>
+        <v/>
+      </c>
+      <c r="P17" s="19">
+        <f>IF(COUNT(W17:X17)&gt;0,R17/COUNT(W17:X17),0.5)</f>
         <v/>
       </c>
       <c r="Q17" s="20">
-        <f>SUM(V17:W17)</f>
-        <v/>
-      </c>
-      <c r="R17" s="21">
-        <f>IF(ISNUMBER(J17),J17,IF(ISNUMBER(K17),-K17,""))</f>
-        <v/>
-      </c>
-      <c r="S17" s="15">
-        <f>IF(ISNUMBER(K17),K17,IF(ISNUMBER(J17),-J17,""))</f>
-        <v/>
-      </c>
-      <c r="T17" s="21">
-        <f>IF(ISNUMBER(R17),IF(ISNUMBER(R15),IF(R17&gt;R15,1.0,IF(R17=R15,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U17" s="15">
-        <f>IF(ISNUMBER(R17),IF(ISNUMBER(R16),IF(R17&gt;R16,1.0,IF(R17=R16,0.5,0.0)),""),"")</f>
+        <f>SUM(U17:V17)</f>
+        <v/>
+      </c>
+      <c r="R17" s="20">
+        <f>SUM(W17:X17)</f>
+        <v/>
+      </c>
+      <c r="S17" s="21">
+        <f>IF(ISNUMBER(K17),K17,IF(ISNUMBER(L17),-L17,""))</f>
+        <v/>
+      </c>
+      <c r="T17" s="15">
+        <f>IF(ISNUMBER(L17),L17,IF(ISNUMBER(K17),-K17,""))</f>
+        <v/>
+      </c>
+      <c r="U17" s="21">
+        <f>IF(ISNUMBER(S17),IF(ISNUMBER(S15),IF(S17&gt;S15,1.0,IF(S17=S15,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V17" s="15">
-        <f>IF(ISNUMBER(S17),IF(ISNUMBER(S15),IF(S17&gt;S15,1.0,IF(S17=S15,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S17),IF(ISNUMBER(S16),IF(S17&gt;S16,1.0,IF(S17=S16,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W17" s="15">
-        <f>IF(ISNUMBER(S17),IF(ISNUMBER(S16),IF(S17&gt;S16,1.0,IF(S17=S16,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X17" s="21">
-        <f>IF(AND(ISNUMBER(R17),ISNUMBER(R15)),VLOOKUP(ABS(R17-R15),'IMP Table'!$A$2:$C$26,3)*SIGN(R17-R15),0)</f>
-        <v/>
-      </c>
-      <c r="Y17" s="15">
-        <f>IF(AND(ISNUMBER(R17),ISNUMBER(R16)),VLOOKUP(ABS(R17-R16),'IMP Table'!$A$2:$C$26,3)*SIGN(R17-R16),0)</f>
+        <f>IF(ISNUMBER(T17),IF(ISNUMBER(T15),IF(T17&gt;T15,1.0,IF(T17=T15,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X17" s="15">
+        <f>IF(ISNUMBER(T17),IF(ISNUMBER(T16),IF(T17&gt;T16,1.0,IF(T17=T16,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y17" s="21">
+        <f>IF(AND(ISNUMBER(S17),ISNUMBER(S15)),VLOOKUP(ABS(S17-S15),'IMP Table'!$A$2:$C$26,3)*SIGN(S17-S15),0)</f>
         <v/>
       </c>
       <c r="Z17" s="15">
-        <f>IF(AND(ISNUMBER(S17),ISNUMBER(S15)),VLOOKUP(ABS(S17-S15),'IMP Table'!$A$2:$C$26,3)*SIGN(S17-S15),0)</f>
+        <f>IF(AND(ISNUMBER(S17),ISNUMBER(S16)),VLOOKUP(ABS(S17-S16),'IMP Table'!$A$2:$C$26,3)*SIGN(S17-S16),0)</f>
         <v/>
       </c>
       <c r="AA17" s="15">
-        <f>IF(AND(ISNUMBER(S17),ISNUMBER(S16)),VLOOKUP(ABS(S17-S16),'IMP Table'!$A$2:$C$26,3)*SIGN(S17-S16),0)</f>
+        <f>IF(AND(ISNUMBER(T17),ISNUMBER(T15)),VLOOKUP(ABS(T17-T15),'IMP Table'!$A$2:$C$26,3)*SIGN(T17-T15),0)</f>
+        <v/>
+      </c>
+      <c r="AB17" s="15">
+        <f>IF(AND(ISNUMBER(T17),ISNUMBER(T16)),VLOOKUP(ABS(T17-T16),'IMP Table'!$A$2:$C$26,3)*SIGN(T17-T16),0)</f>
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n">
+      <c r="A18" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <f>'By Round'!B6</f>
         <v/>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <f>'By Round'!C6</f>
         <v/>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <f>'By Round'!D6</f>
         <v/>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <f>IF(ISBLANK('By Round'!F8),"",'By Round'!F8)</f>
         <v/>
       </c>
@@ -2657,89 +2646,93 @@
         <f>IF(ISBLANK('By Round'!K8),"",'By Round'!K8)</f>
         <v/>
       </c>
-      <c r="L18" s="12">
-        <f>AVERAGE(X18:Y18)</f>
-        <v/>
-      </c>
-      <c r="M18" s="13">
-        <f>AVERAGE(Z18:AA18)</f>
-        <v/>
-      </c>
-      <c r="N18" s="8">
-        <f>IF(COUNT(T18:U18)&gt;0,P18/COUNT(T18:U18),0.5)</f>
-        <v/>
-      </c>
-      <c r="O18" s="8">
-        <f>IF(COUNT(V18:W18)&gt;0,Q18/COUNT(V18:W18),0.5)</f>
-        <v/>
-      </c>
-      <c r="P18" s="5">
-        <f>SUM(T18:U18)</f>
+      <c r="L18">
+        <f>IF(ISBLANK('By Round'!L8),"",'By Round'!L8)</f>
+        <v/>
+      </c>
+      <c r="M18" s="11">
+        <f>AVERAGE(Y18:Z18)</f>
+        <v/>
+      </c>
+      <c r="N18" s="12">
+        <f>AVERAGE(AA18:AB18)</f>
+        <v/>
+      </c>
+      <c r="O18" s="13">
+        <f>IF(COUNT(U18:V18)&gt;0,Q18/COUNT(U18:V18),0.5)</f>
+        <v/>
+      </c>
+      <c r="P18" s="13">
+        <f>IF(COUNT(W18:X18)&gt;0,R18/COUNT(W18:X18),0.5)</f>
         <v/>
       </c>
       <c r="Q18" s="5">
-        <f>SUM(V18:W18)</f>
-        <v/>
-      </c>
-      <c r="R18" s="14">
-        <f>IF(ISNUMBER(J18),J18,IF(ISNUMBER(K18),-K18,""))</f>
-        <v/>
-      </c>
-      <c r="S18">
-        <f>IF(ISNUMBER(K18),K18,IF(ISNUMBER(J18),-J18,""))</f>
-        <v/>
-      </c>
-      <c r="T18" s="14">
-        <f>IF(ISNUMBER(R18),IF(ISNUMBER(R19),IF(R18&gt;R19,1.0,IF(R18=R19,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U18">
-        <f>IF(ISNUMBER(R18),IF(ISNUMBER(R20),IF(R18&gt;R20,1.0,IF(R18=R20,0.5,0.0)),""),"")</f>
+        <f>SUM(U18:V18)</f>
+        <v/>
+      </c>
+      <c r="R18" s="5">
+        <f>SUM(W18:X18)</f>
+        <v/>
+      </c>
+      <c r="S18" s="14">
+        <f>IF(ISNUMBER(K18),K18,IF(ISNUMBER(L18),-L18,""))</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>IF(ISNUMBER(L18),L18,IF(ISNUMBER(K18),-K18,""))</f>
+        <v/>
+      </c>
+      <c r="U18" s="14">
+        <f>IF(ISNUMBER(S18),IF(ISNUMBER(S19),IF(S18&gt;S19,1.0,IF(S18=S19,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>IF(ISNUMBER(S18),IF(ISNUMBER(S19),IF(S18&gt;S19,1.0,IF(S18=S19,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S18),IF(ISNUMBER(S20),IF(S18&gt;S20,1.0,IF(S18=S20,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>IF(ISNUMBER(S18),IF(ISNUMBER(S20),IF(S18&gt;S20,1.0,IF(S18=S20,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X18" s="14">
-        <f>IF(AND(ISNUMBER(R18),ISNUMBER(R19)),VLOOKUP(ABS(R18-R19),'IMP Table'!$A$2:$C$26,3)*SIGN(R18-R19),0)</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>IF(AND(ISNUMBER(R18),ISNUMBER(R20)),VLOOKUP(ABS(R18-R20),'IMP Table'!$A$2:$C$26,3)*SIGN(R18-R20),0)</f>
+        <f>IF(ISNUMBER(T18),IF(ISNUMBER(T19),IF(T18&gt;T19,1.0,IF(T18=T19,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>IF(ISNUMBER(T18),IF(ISNUMBER(T20),IF(T18&gt;T20,1.0,IF(T18=T20,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y18" s="14">
+        <f>IF(AND(ISNUMBER(S18),ISNUMBER(S19)),VLOOKUP(ABS(S18-S19),'IMP Table'!$A$2:$C$26,3)*SIGN(S18-S19),0)</f>
         <v/>
       </c>
       <c r="Z18">
-        <f>IF(AND(ISNUMBER(S18),ISNUMBER(S19)),VLOOKUP(ABS(S18-S19),'IMP Table'!$A$2:$C$26,3)*SIGN(S18-S19),0)</f>
+        <f>IF(AND(ISNUMBER(S18),ISNUMBER(S20)),VLOOKUP(ABS(S18-S20),'IMP Table'!$A$2:$C$26,3)*SIGN(S18-S20),0)</f>
         <v/>
       </c>
       <c r="AA18">
-        <f>IF(AND(ISNUMBER(S18),ISNUMBER(S20)),VLOOKUP(ABS(S18-S20),'IMP Table'!$A$2:$C$26,3)*SIGN(S18-S20),0)</f>
+        <f>IF(AND(ISNUMBER(T18),ISNUMBER(T19)),VLOOKUP(ABS(T18-T19),'IMP Table'!$A$2:$C$26,3)*SIGN(T18-T19),0)</f>
+        <v/>
+      </c>
+      <c r="AB18">
+        <f>IF(AND(ISNUMBER(T18),ISNUMBER(T20)),VLOOKUP(ABS(T18-T20),'IMP Table'!$A$2:$C$26,3)*SIGN(T18-T20),0)</f>
         <v/>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <f>'By Round'!A21</f>
         <v/>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <f>'By Round'!B24</f>
         <v/>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <f>'By Round'!C24</f>
         <v/>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <f>'By Round'!D24</f>
         <v/>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <f>IF(ISBLANK('By Round'!F26),"",'By Round'!F26)</f>
         <v/>
       </c>
@@ -2763,68 +2756,72 @@
         <f>IF(ISBLANK('By Round'!K26),"",'By Round'!K26)</f>
         <v/>
       </c>
-      <c r="L19" s="12">
-        <f>AVERAGE(X19:Y19)</f>
-        <v/>
-      </c>
-      <c r="M19" s="13">
-        <f>AVERAGE(Z19:AA19)</f>
-        <v/>
-      </c>
-      <c r="N19" s="8">
-        <f>IF(COUNT(T19:U19)&gt;0,P19/COUNT(T19:U19),0.5)</f>
-        <v/>
-      </c>
-      <c r="O19" s="8">
-        <f>IF(COUNT(V19:W19)&gt;0,Q19/COUNT(V19:W19),0.5)</f>
-        <v/>
-      </c>
-      <c r="P19" s="5">
-        <f>SUM(T19:U19)</f>
+      <c r="L19">
+        <f>IF(ISBLANK('By Round'!L26),"",'By Round'!L26)</f>
+        <v/>
+      </c>
+      <c r="M19" s="11">
+        <f>AVERAGE(Y19:Z19)</f>
+        <v/>
+      </c>
+      <c r="N19" s="12">
+        <f>AVERAGE(AA19:AB19)</f>
+        <v/>
+      </c>
+      <c r="O19" s="13">
+        <f>IF(COUNT(U19:V19)&gt;0,Q19/COUNT(U19:V19),0.5)</f>
+        <v/>
+      </c>
+      <c r="P19" s="13">
+        <f>IF(COUNT(W19:X19)&gt;0,R19/COUNT(W19:X19),0.5)</f>
         <v/>
       </c>
       <c r="Q19" s="5">
-        <f>SUM(V19:W19)</f>
-        <v/>
-      </c>
-      <c r="R19" s="14">
-        <f>IF(ISNUMBER(J19),J19,IF(ISNUMBER(K19),-K19,""))</f>
-        <v/>
-      </c>
-      <c r="S19">
-        <f>IF(ISNUMBER(K19),K19,IF(ISNUMBER(J19),-J19,""))</f>
-        <v/>
-      </c>
-      <c r="T19" s="14">
-        <f>IF(ISNUMBER(R19),IF(ISNUMBER(R18),IF(R19&gt;R18,1.0,IF(R19=R18,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U19">
-        <f>IF(ISNUMBER(R19),IF(ISNUMBER(R20),IF(R19&gt;R20,1.0,IF(R19=R20,0.5,0.0)),""),"")</f>
+        <f>SUM(U19:V19)</f>
+        <v/>
+      </c>
+      <c r="R19" s="5">
+        <f>SUM(W19:X19)</f>
+        <v/>
+      </c>
+      <c r="S19" s="14">
+        <f>IF(ISNUMBER(K19),K19,IF(ISNUMBER(L19),-L19,""))</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>IF(ISNUMBER(L19),L19,IF(ISNUMBER(K19),-K19,""))</f>
+        <v/>
+      </c>
+      <c r="U19" s="14">
+        <f>IF(ISNUMBER(S19),IF(ISNUMBER(S18),IF(S19&gt;S18,1.0,IF(S19=S18,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>IF(ISNUMBER(S19),IF(ISNUMBER(S18),IF(S19&gt;S18,1.0,IF(S19=S18,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S19),IF(ISNUMBER(S20),IF(S19&gt;S20,1.0,IF(S19=S20,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>IF(ISNUMBER(S19),IF(ISNUMBER(S20),IF(S19&gt;S20,1.0,IF(S19=S20,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X19" s="14">
-        <f>IF(AND(ISNUMBER(R19),ISNUMBER(R18)),VLOOKUP(ABS(R19-R18),'IMP Table'!$A$2:$C$26,3)*SIGN(R19-R18),0)</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>IF(AND(ISNUMBER(R19),ISNUMBER(R20)),VLOOKUP(ABS(R19-R20),'IMP Table'!$A$2:$C$26,3)*SIGN(R19-R20),0)</f>
+        <f>IF(ISNUMBER(T19),IF(ISNUMBER(T18),IF(T19&gt;T18,1.0,IF(T19=T18,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>IF(ISNUMBER(T19),IF(ISNUMBER(T20),IF(T19&gt;T20,1.0,IF(T19=T20,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y19" s="14">
+        <f>IF(AND(ISNUMBER(S19),ISNUMBER(S18)),VLOOKUP(ABS(S19-S18),'IMP Table'!$A$2:$C$26,3)*SIGN(S19-S18),0)</f>
         <v/>
       </c>
       <c r="Z19">
-        <f>IF(AND(ISNUMBER(S19),ISNUMBER(S18)),VLOOKUP(ABS(S19-S18),'IMP Table'!$A$2:$C$26,3)*SIGN(S19-S18),0)</f>
+        <f>IF(AND(ISNUMBER(S19),ISNUMBER(S20)),VLOOKUP(ABS(S19-S20),'IMP Table'!$A$2:$C$26,3)*SIGN(S19-S20),0)</f>
         <v/>
       </c>
       <c r="AA19">
-        <f>IF(AND(ISNUMBER(S19),ISNUMBER(S20)),VLOOKUP(ABS(S19-S20),'IMP Table'!$A$2:$C$26,3)*SIGN(S19-S20),0)</f>
+        <f>IF(AND(ISNUMBER(T19),ISNUMBER(T18)),VLOOKUP(ABS(T19-T18),'IMP Table'!$A$2:$C$26,3)*SIGN(T19-T18),0)</f>
+        <v/>
+      </c>
+      <c r="AB19">
+        <f>IF(AND(ISNUMBER(T19),ISNUMBER(T20)),VLOOKUP(ABS(T19-T20),'IMP Table'!$A$2:$C$26,3)*SIGN(T19-T20),0)</f>
         <v/>
       </c>
     </row>
@@ -2870,92 +2867,96 @@
         <f>IF(ISBLANK('By Round'!K14),"",'By Round'!K14)</f>
         <v/>
       </c>
-      <c r="L20" s="17">
-        <f>AVERAGE(X20:Y20)</f>
-        <v/>
-      </c>
-      <c r="M20" s="18">
-        <f>AVERAGE(Z20:AA20)</f>
-        <v/>
-      </c>
-      <c r="N20" s="19">
-        <f>IF(COUNT(T20:U20)&gt;0,P20/COUNT(T20:U20),0.5)</f>
+      <c r="L20" s="15">
+        <f>IF(ISBLANK('By Round'!L14),"",'By Round'!L14)</f>
+        <v/>
+      </c>
+      <c r="M20" s="17">
+        <f>AVERAGE(Y20:Z20)</f>
+        <v/>
+      </c>
+      <c r="N20" s="18">
+        <f>AVERAGE(AA20:AB20)</f>
         <v/>
       </c>
       <c r="O20" s="19">
-        <f>IF(COUNT(V20:W20)&gt;0,Q20/COUNT(V20:W20),0.5)</f>
-        <v/>
-      </c>
-      <c r="P20" s="20">
-        <f>SUM(T20:U20)</f>
+        <f>IF(COUNT(U20:V20)&gt;0,Q20/COUNT(U20:V20),0.5)</f>
+        <v/>
+      </c>
+      <c r="P20" s="19">
+        <f>IF(COUNT(W20:X20)&gt;0,R20/COUNT(W20:X20),0.5)</f>
         <v/>
       </c>
       <c r="Q20" s="20">
-        <f>SUM(V20:W20)</f>
-        <v/>
-      </c>
-      <c r="R20" s="21">
-        <f>IF(ISNUMBER(J20),J20,IF(ISNUMBER(K20),-K20,""))</f>
-        <v/>
-      </c>
-      <c r="S20" s="15">
-        <f>IF(ISNUMBER(K20),K20,IF(ISNUMBER(J20),-J20,""))</f>
-        <v/>
-      </c>
-      <c r="T20" s="21">
-        <f>IF(ISNUMBER(R20),IF(ISNUMBER(R18),IF(R20&gt;R18,1.0,IF(R20=R18,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U20" s="15">
-        <f>IF(ISNUMBER(R20),IF(ISNUMBER(R19),IF(R20&gt;R19,1.0,IF(R20=R19,0.5,0.0)),""),"")</f>
+        <f>SUM(U20:V20)</f>
+        <v/>
+      </c>
+      <c r="R20" s="20">
+        <f>SUM(W20:X20)</f>
+        <v/>
+      </c>
+      <c r="S20" s="21">
+        <f>IF(ISNUMBER(K20),K20,IF(ISNUMBER(L20),-L20,""))</f>
+        <v/>
+      </c>
+      <c r="T20" s="15">
+        <f>IF(ISNUMBER(L20),L20,IF(ISNUMBER(K20),-K20,""))</f>
+        <v/>
+      </c>
+      <c r="U20" s="21">
+        <f>IF(ISNUMBER(S20),IF(ISNUMBER(S18),IF(S20&gt;S18,1.0,IF(S20=S18,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V20" s="15">
-        <f>IF(ISNUMBER(S20),IF(ISNUMBER(S18),IF(S20&gt;S18,1.0,IF(S20=S18,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S20),IF(ISNUMBER(S19),IF(S20&gt;S19,1.0,IF(S20=S19,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W20" s="15">
-        <f>IF(ISNUMBER(S20),IF(ISNUMBER(S19),IF(S20&gt;S19,1.0,IF(S20=S19,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X20" s="21">
-        <f>IF(AND(ISNUMBER(R20),ISNUMBER(R18)),VLOOKUP(ABS(R20-R18),'IMP Table'!$A$2:$C$26,3)*SIGN(R20-R18),0)</f>
-        <v/>
-      </c>
-      <c r="Y20" s="15">
-        <f>IF(AND(ISNUMBER(R20),ISNUMBER(R19)),VLOOKUP(ABS(R20-R19),'IMP Table'!$A$2:$C$26,3)*SIGN(R20-R19),0)</f>
+        <f>IF(ISNUMBER(T20),IF(ISNUMBER(T18),IF(T20&gt;T18,1.0,IF(T20=T18,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X20" s="15">
+        <f>IF(ISNUMBER(T20),IF(ISNUMBER(T19),IF(T20&gt;T19,1.0,IF(T20=T19,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y20" s="21">
+        <f>IF(AND(ISNUMBER(S20),ISNUMBER(S18)),VLOOKUP(ABS(S20-S18),'IMP Table'!$A$2:$C$26,3)*SIGN(S20-S18),0)</f>
         <v/>
       </c>
       <c r="Z20" s="15">
-        <f>IF(AND(ISNUMBER(S20),ISNUMBER(S18)),VLOOKUP(ABS(S20-S18),'IMP Table'!$A$2:$C$26,3)*SIGN(S20-S18),0)</f>
+        <f>IF(AND(ISNUMBER(S20),ISNUMBER(S19)),VLOOKUP(ABS(S20-S19),'IMP Table'!$A$2:$C$26,3)*SIGN(S20-S19),0)</f>
         <v/>
       </c>
       <c r="AA20" s="15">
-        <f>IF(AND(ISNUMBER(S20),ISNUMBER(S19)),VLOOKUP(ABS(S20-S19),'IMP Table'!$A$2:$C$26,3)*SIGN(S20-S19),0)</f>
+        <f>IF(AND(ISNUMBER(T20),ISNUMBER(T18)),VLOOKUP(ABS(T20-T18),'IMP Table'!$A$2:$C$26,3)*SIGN(T20-T18),0)</f>
+        <v/>
+      </c>
+      <c r="AB20" s="15">
+        <f>IF(AND(ISNUMBER(T20),ISNUMBER(T19)),VLOOKUP(ABS(T20-T19),'IMP Table'!$A$2:$C$26,3)*SIGN(T20-T19),0)</f>
         <v/>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n">
+      <c r="A21" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <f>'By Round'!A30</f>
         <v/>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <f>'By Round'!B33</f>
         <v/>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <f>'By Round'!C33</f>
         <v/>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <f>'By Round'!D33</f>
         <v/>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <f>IF(ISBLANK('By Round'!F33),"",'By Round'!F33)</f>
         <v/>
       </c>
@@ -2979,89 +2980,93 @@
         <f>IF(ISBLANK('By Round'!K33),"",'By Round'!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="12">
-        <f>AVERAGE(X21:Y21)</f>
-        <v/>
-      </c>
-      <c r="M21" s="13">
-        <f>AVERAGE(Z21:AA21)</f>
-        <v/>
-      </c>
-      <c r="N21" s="8">
-        <f>IF(COUNT(T21:U21)&gt;0,P21/COUNT(T21:U21),0.5)</f>
-        <v/>
-      </c>
-      <c r="O21" s="8">
-        <f>IF(COUNT(V21:W21)&gt;0,Q21/COUNT(V21:W21),0.5)</f>
-        <v/>
-      </c>
-      <c r="P21" s="5">
-        <f>SUM(T21:U21)</f>
+      <c r="L21">
+        <f>IF(ISBLANK('By Round'!L33),"",'By Round'!L33)</f>
+        <v/>
+      </c>
+      <c r="M21" s="11">
+        <f>AVERAGE(Y21:Z21)</f>
+        <v/>
+      </c>
+      <c r="N21" s="12">
+        <f>AVERAGE(AA21:AB21)</f>
+        <v/>
+      </c>
+      <c r="O21" s="13">
+        <f>IF(COUNT(U21:V21)&gt;0,Q21/COUNT(U21:V21),0.5)</f>
+        <v/>
+      </c>
+      <c r="P21" s="13">
+        <f>IF(COUNT(W21:X21)&gt;0,R21/COUNT(W21:X21),0.5)</f>
         <v/>
       </c>
       <c r="Q21" s="5">
-        <f>SUM(V21:W21)</f>
-        <v/>
-      </c>
-      <c r="R21" s="14">
-        <f>IF(ISNUMBER(J21),J21,IF(ISNUMBER(K21),-K21,""))</f>
-        <v/>
-      </c>
-      <c r="S21">
-        <f>IF(ISNUMBER(K21),K21,IF(ISNUMBER(J21),-J21,""))</f>
-        <v/>
-      </c>
-      <c r="T21" s="14">
-        <f>IF(ISNUMBER(R21),IF(ISNUMBER(R22),IF(R21&gt;R22,1.0,IF(R21=R22,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U21">
-        <f>IF(ISNUMBER(R21),IF(ISNUMBER(R23),IF(R21&gt;R23,1.0,IF(R21=R23,0.5,0.0)),""),"")</f>
+        <f>SUM(U21:V21)</f>
+        <v/>
+      </c>
+      <c r="R21" s="5">
+        <f>SUM(W21:X21)</f>
+        <v/>
+      </c>
+      <c r="S21" s="14">
+        <f>IF(ISNUMBER(K21),K21,IF(ISNUMBER(L21),-L21,""))</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>IF(ISNUMBER(L21),L21,IF(ISNUMBER(K21),-K21,""))</f>
+        <v/>
+      </c>
+      <c r="U21" s="14">
+        <f>IF(ISNUMBER(S21),IF(ISNUMBER(S22),IF(S21&gt;S22,1.0,IF(S21=S22,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>IF(ISNUMBER(S21),IF(ISNUMBER(S22),IF(S21&gt;S22,1.0,IF(S21=S22,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S21),IF(ISNUMBER(S23),IF(S21&gt;S23,1.0,IF(S21=S23,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>IF(ISNUMBER(S21),IF(ISNUMBER(S23),IF(S21&gt;S23,1.0,IF(S21=S23,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X21" s="14">
-        <f>IF(AND(ISNUMBER(R21),ISNUMBER(R22)),VLOOKUP(ABS(R21-R22),'IMP Table'!$A$2:$C$26,3)*SIGN(R21-R22),0)</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>IF(AND(ISNUMBER(R21),ISNUMBER(R23)),VLOOKUP(ABS(R21-R23),'IMP Table'!$A$2:$C$26,3)*SIGN(R21-R23),0)</f>
+        <f>IF(ISNUMBER(T21),IF(ISNUMBER(T22),IF(T21&gt;T22,1.0,IF(T21=T22,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>IF(ISNUMBER(T21),IF(ISNUMBER(T23),IF(T21&gt;T23,1.0,IF(T21=T23,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y21" s="14">
+        <f>IF(AND(ISNUMBER(S21),ISNUMBER(S22)),VLOOKUP(ABS(S21-S22),'IMP Table'!$A$2:$C$26,3)*SIGN(S21-S22),0)</f>
         <v/>
       </c>
       <c r="Z21">
-        <f>IF(AND(ISNUMBER(S21),ISNUMBER(S22)),VLOOKUP(ABS(S21-S22),'IMP Table'!$A$2:$C$26,3)*SIGN(S21-S22),0)</f>
+        <f>IF(AND(ISNUMBER(S21),ISNUMBER(S23)),VLOOKUP(ABS(S21-S23),'IMP Table'!$A$2:$C$26,3)*SIGN(S21-S23),0)</f>
         <v/>
       </c>
       <c r="AA21">
-        <f>IF(AND(ISNUMBER(S21),ISNUMBER(S23)),VLOOKUP(ABS(S21-S23),'IMP Table'!$A$2:$C$26,3)*SIGN(S21-S23),0)</f>
+        <f>IF(AND(ISNUMBER(T21),ISNUMBER(T22)),VLOOKUP(ABS(T21-T22),'IMP Table'!$A$2:$C$26,3)*SIGN(T21-T22),0)</f>
+        <v/>
+      </c>
+      <c r="AB21">
+        <f>IF(AND(ISNUMBER(T21),ISNUMBER(T23)),VLOOKUP(ABS(T21-T23),'IMP Table'!$A$2:$C$26,3)*SIGN(T21-T23),0)</f>
         <v/>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <f>'By Round'!A12</f>
         <v/>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <f>'By Round'!B15</f>
         <v/>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <f>'By Round'!C15</f>
         <v/>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <f>'By Round'!D15</f>
         <v/>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <f>IF(ISBLANK('By Round'!F15),"",'By Round'!F15)</f>
         <v/>
       </c>
@@ -3085,68 +3090,72 @@
         <f>IF(ISBLANK('By Round'!K15),"",'By Round'!K15)</f>
         <v/>
       </c>
-      <c r="L22" s="12">
-        <f>AVERAGE(X22:Y22)</f>
-        <v/>
-      </c>
-      <c r="M22" s="13">
-        <f>AVERAGE(Z22:AA22)</f>
-        <v/>
-      </c>
-      <c r="N22" s="8">
-        <f>IF(COUNT(T22:U22)&gt;0,P22/COUNT(T22:U22),0.5)</f>
-        <v/>
-      </c>
-      <c r="O22" s="8">
-        <f>IF(COUNT(V22:W22)&gt;0,Q22/COUNT(V22:W22),0.5)</f>
-        <v/>
-      </c>
-      <c r="P22" s="5">
-        <f>SUM(T22:U22)</f>
+      <c r="L22">
+        <f>IF(ISBLANK('By Round'!L15),"",'By Round'!L15)</f>
+        <v/>
+      </c>
+      <c r="M22" s="11">
+        <f>AVERAGE(Y22:Z22)</f>
+        <v/>
+      </c>
+      <c r="N22" s="12">
+        <f>AVERAGE(AA22:AB22)</f>
+        <v/>
+      </c>
+      <c r="O22" s="13">
+        <f>IF(COUNT(U22:V22)&gt;0,Q22/COUNT(U22:V22),0.5)</f>
+        <v/>
+      </c>
+      <c r="P22" s="13">
+        <f>IF(COUNT(W22:X22)&gt;0,R22/COUNT(W22:X22),0.5)</f>
         <v/>
       </c>
       <c r="Q22" s="5">
-        <f>SUM(V22:W22)</f>
-        <v/>
-      </c>
-      <c r="R22" s="14">
-        <f>IF(ISNUMBER(J22),J22,IF(ISNUMBER(K22),-K22,""))</f>
-        <v/>
-      </c>
-      <c r="S22">
-        <f>IF(ISNUMBER(K22),K22,IF(ISNUMBER(J22),-J22,""))</f>
-        <v/>
-      </c>
-      <c r="T22" s="14">
-        <f>IF(ISNUMBER(R22),IF(ISNUMBER(R21),IF(R22&gt;R21,1.0,IF(R22=R21,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U22">
-        <f>IF(ISNUMBER(R22),IF(ISNUMBER(R23),IF(R22&gt;R23,1.0,IF(R22=R23,0.5,0.0)),""),"")</f>
+        <f>SUM(U22:V22)</f>
+        <v/>
+      </c>
+      <c r="R22" s="5">
+        <f>SUM(W22:X22)</f>
+        <v/>
+      </c>
+      <c r="S22" s="14">
+        <f>IF(ISNUMBER(K22),K22,IF(ISNUMBER(L22),-L22,""))</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>IF(ISNUMBER(L22),L22,IF(ISNUMBER(K22),-K22,""))</f>
+        <v/>
+      </c>
+      <c r="U22" s="14">
+        <f>IF(ISNUMBER(S22),IF(ISNUMBER(S21),IF(S22&gt;S21,1.0,IF(S22=S21,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>IF(ISNUMBER(S22),IF(ISNUMBER(S21),IF(S22&gt;S21,1.0,IF(S22=S21,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S22),IF(ISNUMBER(S23),IF(S22&gt;S23,1.0,IF(S22=S23,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>IF(ISNUMBER(S22),IF(ISNUMBER(S23),IF(S22&gt;S23,1.0,IF(S22=S23,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X22" s="14">
-        <f>IF(AND(ISNUMBER(R22),ISNUMBER(R21)),VLOOKUP(ABS(R22-R21),'IMP Table'!$A$2:$C$26,3)*SIGN(R22-R21),0)</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>IF(AND(ISNUMBER(R22),ISNUMBER(R23)),VLOOKUP(ABS(R22-R23),'IMP Table'!$A$2:$C$26,3)*SIGN(R22-R23),0)</f>
+        <f>IF(ISNUMBER(T22),IF(ISNUMBER(T21),IF(T22&gt;T21,1.0,IF(T22=T21,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>IF(ISNUMBER(T22),IF(ISNUMBER(T23),IF(T22&gt;T23,1.0,IF(T22=T23,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y22" s="14">
+        <f>IF(AND(ISNUMBER(S22),ISNUMBER(S21)),VLOOKUP(ABS(S22-S21),'IMP Table'!$A$2:$C$26,3)*SIGN(S22-S21),0)</f>
         <v/>
       </c>
       <c r="Z22">
-        <f>IF(AND(ISNUMBER(S22),ISNUMBER(S21)),VLOOKUP(ABS(S22-S21),'IMP Table'!$A$2:$C$26,3)*SIGN(S22-S21),0)</f>
+        <f>IF(AND(ISNUMBER(S22),ISNUMBER(S23)),VLOOKUP(ABS(S22-S23),'IMP Table'!$A$2:$C$26,3)*SIGN(S22-S23),0)</f>
         <v/>
       </c>
       <c r="AA22">
-        <f>IF(AND(ISNUMBER(S22),ISNUMBER(S23)),VLOOKUP(ABS(S22-S23),'IMP Table'!$A$2:$C$26,3)*SIGN(S22-S23),0)</f>
+        <f>IF(AND(ISNUMBER(T22),ISNUMBER(T21)),VLOOKUP(ABS(T22-T21),'IMP Table'!$A$2:$C$26,3)*SIGN(T22-T21),0)</f>
+        <v/>
+      </c>
+      <c r="AB22">
+        <f>IF(AND(ISNUMBER(T22),ISNUMBER(T23)),VLOOKUP(ABS(T22-T23),'IMP Table'!$A$2:$C$26,3)*SIGN(T22-T23),0)</f>
         <v/>
       </c>
     </row>
@@ -3192,92 +3201,96 @@
         <f>IF(ISBLANK('By Round'!K21),"",'By Round'!K21)</f>
         <v/>
       </c>
-      <c r="L23" s="17">
-        <f>AVERAGE(X23:Y23)</f>
-        <v/>
-      </c>
-      <c r="M23" s="18">
-        <f>AVERAGE(Z23:AA23)</f>
-        <v/>
-      </c>
-      <c r="N23" s="19">
-        <f>IF(COUNT(T23:U23)&gt;0,P23/COUNT(T23:U23),0.5)</f>
+      <c r="L23" s="15">
+        <f>IF(ISBLANK('By Round'!L21),"",'By Round'!L21)</f>
+        <v/>
+      </c>
+      <c r="M23" s="17">
+        <f>AVERAGE(Y23:Z23)</f>
+        <v/>
+      </c>
+      <c r="N23" s="18">
+        <f>AVERAGE(AA23:AB23)</f>
         <v/>
       </c>
       <c r="O23" s="19">
-        <f>IF(COUNT(V23:W23)&gt;0,Q23/COUNT(V23:W23),0.5)</f>
-        <v/>
-      </c>
-      <c r="P23" s="20">
-        <f>SUM(T23:U23)</f>
+        <f>IF(COUNT(U23:V23)&gt;0,Q23/COUNT(U23:V23),0.5)</f>
+        <v/>
+      </c>
+      <c r="P23" s="19">
+        <f>IF(COUNT(W23:X23)&gt;0,R23/COUNT(W23:X23),0.5)</f>
         <v/>
       </c>
       <c r="Q23" s="20">
-        <f>SUM(V23:W23)</f>
-        <v/>
-      </c>
-      <c r="R23" s="21">
-        <f>IF(ISNUMBER(J23),J23,IF(ISNUMBER(K23),-K23,""))</f>
-        <v/>
-      </c>
-      <c r="S23" s="15">
-        <f>IF(ISNUMBER(K23),K23,IF(ISNUMBER(J23),-J23,""))</f>
-        <v/>
-      </c>
-      <c r="T23" s="21">
-        <f>IF(ISNUMBER(R23),IF(ISNUMBER(R21),IF(R23&gt;R21,1.0,IF(R23=R21,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U23" s="15">
-        <f>IF(ISNUMBER(R23),IF(ISNUMBER(R22),IF(R23&gt;R22,1.0,IF(R23=R22,0.5,0.0)),""),"")</f>
+        <f>SUM(U23:V23)</f>
+        <v/>
+      </c>
+      <c r="R23" s="20">
+        <f>SUM(W23:X23)</f>
+        <v/>
+      </c>
+      <c r="S23" s="21">
+        <f>IF(ISNUMBER(K23),K23,IF(ISNUMBER(L23),-L23,""))</f>
+        <v/>
+      </c>
+      <c r="T23" s="15">
+        <f>IF(ISNUMBER(L23),L23,IF(ISNUMBER(K23),-K23,""))</f>
+        <v/>
+      </c>
+      <c r="U23" s="21">
+        <f>IF(ISNUMBER(S23),IF(ISNUMBER(S21),IF(S23&gt;S21,1.0,IF(S23=S21,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V23" s="15">
-        <f>IF(ISNUMBER(S23),IF(ISNUMBER(S21),IF(S23&gt;S21,1.0,IF(S23=S21,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S23),IF(ISNUMBER(S22),IF(S23&gt;S22,1.0,IF(S23=S22,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W23" s="15">
-        <f>IF(ISNUMBER(S23),IF(ISNUMBER(S22),IF(S23&gt;S22,1.0,IF(S23=S22,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X23" s="21">
-        <f>IF(AND(ISNUMBER(R23),ISNUMBER(R21)),VLOOKUP(ABS(R23-R21),'IMP Table'!$A$2:$C$26,3)*SIGN(R23-R21),0)</f>
-        <v/>
-      </c>
-      <c r="Y23" s="15">
-        <f>IF(AND(ISNUMBER(R23),ISNUMBER(R22)),VLOOKUP(ABS(R23-R22),'IMP Table'!$A$2:$C$26,3)*SIGN(R23-R22),0)</f>
+        <f>IF(ISNUMBER(T23),IF(ISNUMBER(T21),IF(T23&gt;T21,1.0,IF(T23=T21,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X23" s="15">
+        <f>IF(ISNUMBER(T23),IF(ISNUMBER(T22),IF(T23&gt;T22,1.0,IF(T23=T22,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y23" s="21">
+        <f>IF(AND(ISNUMBER(S23),ISNUMBER(S21)),VLOOKUP(ABS(S23-S21),'IMP Table'!$A$2:$C$26,3)*SIGN(S23-S21),0)</f>
         <v/>
       </c>
       <c r="Z23" s="15">
-        <f>IF(AND(ISNUMBER(S23),ISNUMBER(S21)),VLOOKUP(ABS(S23-S21),'IMP Table'!$A$2:$C$26,3)*SIGN(S23-S21),0)</f>
+        <f>IF(AND(ISNUMBER(S23),ISNUMBER(S22)),VLOOKUP(ABS(S23-S22),'IMP Table'!$A$2:$C$26,3)*SIGN(S23-S22),0)</f>
         <v/>
       </c>
       <c r="AA23" s="15">
-        <f>IF(AND(ISNUMBER(S23),ISNUMBER(S22)),VLOOKUP(ABS(S23-S22),'IMP Table'!$A$2:$C$26,3)*SIGN(S23-S22),0)</f>
+        <f>IF(AND(ISNUMBER(T23),ISNUMBER(T21)),VLOOKUP(ABS(T23-T21),'IMP Table'!$A$2:$C$26,3)*SIGN(T23-T21),0)</f>
+        <v/>
+      </c>
+      <c r="AB23" s="15">
+        <f>IF(AND(ISNUMBER(T23),ISNUMBER(T22)),VLOOKUP(ABS(T23-T22),'IMP Table'!$A$2:$C$26,3)*SIGN(T23-T22),0)</f>
         <v/>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n">
+      <c r="A24" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <f>'By Round'!A30</f>
         <v/>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <f>'By Round'!B33</f>
         <v/>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <f>'By Round'!C33</f>
         <v/>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <f>'By Round'!D33</f>
         <v/>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <f>IF(ISBLANK('By Round'!F34),"",'By Round'!F34)</f>
         <v/>
       </c>
@@ -3301,89 +3314,93 @@
         <f>IF(ISBLANK('By Round'!K34),"",'By Round'!K34)</f>
         <v/>
       </c>
-      <c r="L24" s="12">
-        <f>AVERAGE(X24:Y24)</f>
-        <v/>
-      </c>
-      <c r="M24" s="13">
-        <f>AVERAGE(Z24:AA24)</f>
-        <v/>
-      </c>
-      <c r="N24" s="8">
-        <f>IF(COUNT(T24:U24)&gt;0,P24/COUNT(T24:U24),0.5)</f>
-        <v/>
-      </c>
-      <c r="O24" s="8">
-        <f>IF(COUNT(V24:W24)&gt;0,Q24/COUNT(V24:W24),0.5)</f>
-        <v/>
-      </c>
-      <c r="P24" s="5">
-        <f>SUM(T24:U24)</f>
+      <c r="L24">
+        <f>IF(ISBLANK('By Round'!L34),"",'By Round'!L34)</f>
+        <v/>
+      </c>
+      <c r="M24" s="11">
+        <f>AVERAGE(Y24:Z24)</f>
+        <v/>
+      </c>
+      <c r="N24" s="12">
+        <f>AVERAGE(AA24:AB24)</f>
+        <v/>
+      </c>
+      <c r="O24" s="13">
+        <f>IF(COUNT(U24:V24)&gt;0,Q24/COUNT(U24:V24),0.5)</f>
+        <v/>
+      </c>
+      <c r="P24" s="13">
+        <f>IF(COUNT(W24:X24)&gt;0,R24/COUNT(W24:X24),0.5)</f>
         <v/>
       </c>
       <c r="Q24" s="5">
-        <f>SUM(V24:W24)</f>
-        <v/>
-      </c>
-      <c r="R24" s="14">
-        <f>IF(ISNUMBER(J24),J24,IF(ISNUMBER(K24),-K24,""))</f>
-        <v/>
-      </c>
-      <c r="S24">
-        <f>IF(ISNUMBER(K24),K24,IF(ISNUMBER(J24),-J24,""))</f>
-        <v/>
-      </c>
-      <c r="T24" s="14">
-        <f>IF(ISNUMBER(R24),IF(ISNUMBER(R25),IF(R24&gt;R25,1.0,IF(R24=R25,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U24">
-        <f>IF(ISNUMBER(R24),IF(ISNUMBER(R26),IF(R24&gt;R26,1.0,IF(R24=R26,0.5,0.0)),""),"")</f>
+        <f>SUM(U24:V24)</f>
+        <v/>
+      </c>
+      <c r="R24" s="5">
+        <f>SUM(W24:X24)</f>
+        <v/>
+      </c>
+      <c r="S24" s="14">
+        <f>IF(ISNUMBER(K24),K24,IF(ISNUMBER(L24),-L24,""))</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>IF(ISNUMBER(L24),L24,IF(ISNUMBER(K24),-K24,""))</f>
+        <v/>
+      </c>
+      <c r="U24" s="14">
+        <f>IF(ISNUMBER(S24),IF(ISNUMBER(S25),IF(S24&gt;S25,1.0,IF(S24=S25,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>IF(ISNUMBER(S24),IF(ISNUMBER(S25),IF(S24&gt;S25,1.0,IF(S24=S25,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S24),IF(ISNUMBER(S26),IF(S24&gt;S26,1.0,IF(S24=S26,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>IF(ISNUMBER(S24),IF(ISNUMBER(S26),IF(S24&gt;S26,1.0,IF(S24=S26,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X24" s="14">
-        <f>IF(AND(ISNUMBER(R24),ISNUMBER(R25)),VLOOKUP(ABS(R24-R25),'IMP Table'!$A$2:$C$26,3)*SIGN(R24-R25),0)</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>IF(AND(ISNUMBER(R24),ISNUMBER(R26)),VLOOKUP(ABS(R24-R26),'IMP Table'!$A$2:$C$26,3)*SIGN(R24-R26),0)</f>
+        <f>IF(ISNUMBER(T24),IF(ISNUMBER(T25),IF(T24&gt;T25,1.0,IF(T24=T25,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>IF(ISNUMBER(T24),IF(ISNUMBER(T26),IF(T24&gt;T26,1.0,IF(T24=T26,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y24" s="14">
+        <f>IF(AND(ISNUMBER(S24),ISNUMBER(S25)),VLOOKUP(ABS(S24-S25),'IMP Table'!$A$2:$C$26,3)*SIGN(S24-S25),0)</f>
         <v/>
       </c>
       <c r="Z24">
-        <f>IF(AND(ISNUMBER(S24),ISNUMBER(S25)),VLOOKUP(ABS(S24-S25),'IMP Table'!$A$2:$C$26,3)*SIGN(S24-S25),0)</f>
+        <f>IF(AND(ISNUMBER(S24),ISNUMBER(S26)),VLOOKUP(ABS(S24-S26),'IMP Table'!$A$2:$C$26,3)*SIGN(S24-S26),0)</f>
         <v/>
       </c>
       <c r="AA24">
-        <f>IF(AND(ISNUMBER(S24),ISNUMBER(S26)),VLOOKUP(ABS(S24-S26),'IMP Table'!$A$2:$C$26,3)*SIGN(S24-S26),0)</f>
+        <f>IF(AND(ISNUMBER(T24),ISNUMBER(T25)),VLOOKUP(ABS(T24-T25),'IMP Table'!$A$2:$C$26,3)*SIGN(T24-T25),0)</f>
+        <v/>
+      </c>
+      <c r="AB24">
+        <f>IF(AND(ISNUMBER(T24),ISNUMBER(T26)),VLOOKUP(ABS(T24-T26),'IMP Table'!$A$2:$C$26,3)*SIGN(T24-T26),0)</f>
         <v/>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <f>'By Round'!A12</f>
         <v/>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <f>'By Round'!B15</f>
         <v/>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <f>'By Round'!C15</f>
         <v/>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <f>'By Round'!D15</f>
         <v/>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <f>IF(ISBLANK('By Round'!F16),"",'By Round'!F16)</f>
         <v/>
       </c>
@@ -3407,68 +3424,72 @@
         <f>IF(ISBLANK('By Round'!K16),"",'By Round'!K16)</f>
         <v/>
       </c>
-      <c r="L25" s="12">
-        <f>AVERAGE(X25:Y25)</f>
-        <v/>
-      </c>
-      <c r="M25" s="13">
-        <f>AVERAGE(Z25:AA25)</f>
-        <v/>
-      </c>
-      <c r="N25" s="8">
-        <f>IF(COUNT(T25:U25)&gt;0,P25/COUNT(T25:U25),0.5)</f>
-        <v/>
-      </c>
-      <c r="O25" s="8">
-        <f>IF(COUNT(V25:W25)&gt;0,Q25/COUNT(V25:W25),0.5)</f>
-        <v/>
-      </c>
-      <c r="P25" s="5">
-        <f>SUM(T25:U25)</f>
+      <c r="L25">
+        <f>IF(ISBLANK('By Round'!L16),"",'By Round'!L16)</f>
+        <v/>
+      </c>
+      <c r="M25" s="11">
+        <f>AVERAGE(Y25:Z25)</f>
+        <v/>
+      </c>
+      <c r="N25" s="12">
+        <f>AVERAGE(AA25:AB25)</f>
+        <v/>
+      </c>
+      <c r="O25" s="13">
+        <f>IF(COUNT(U25:V25)&gt;0,Q25/COUNT(U25:V25),0.5)</f>
+        <v/>
+      </c>
+      <c r="P25" s="13">
+        <f>IF(COUNT(W25:X25)&gt;0,R25/COUNT(W25:X25),0.5)</f>
         <v/>
       </c>
       <c r="Q25" s="5">
-        <f>SUM(V25:W25)</f>
-        <v/>
-      </c>
-      <c r="R25" s="14">
-        <f>IF(ISNUMBER(J25),J25,IF(ISNUMBER(K25),-K25,""))</f>
-        <v/>
-      </c>
-      <c r="S25">
-        <f>IF(ISNUMBER(K25),K25,IF(ISNUMBER(J25),-J25,""))</f>
-        <v/>
-      </c>
-      <c r="T25" s="14">
-        <f>IF(ISNUMBER(R25),IF(ISNUMBER(R24),IF(R25&gt;R24,1.0,IF(R25=R24,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U25">
-        <f>IF(ISNUMBER(R25),IF(ISNUMBER(R26),IF(R25&gt;R26,1.0,IF(R25=R26,0.5,0.0)),""),"")</f>
+        <f>SUM(U25:V25)</f>
+        <v/>
+      </c>
+      <c r="R25" s="5">
+        <f>SUM(W25:X25)</f>
+        <v/>
+      </c>
+      <c r="S25" s="14">
+        <f>IF(ISNUMBER(K25),K25,IF(ISNUMBER(L25),-L25,""))</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>IF(ISNUMBER(L25),L25,IF(ISNUMBER(K25),-K25,""))</f>
+        <v/>
+      </c>
+      <c r="U25" s="14">
+        <f>IF(ISNUMBER(S25),IF(ISNUMBER(S24),IF(S25&gt;S24,1.0,IF(S25=S24,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>IF(ISNUMBER(S25),IF(ISNUMBER(S24),IF(S25&gt;S24,1.0,IF(S25=S24,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S25),IF(ISNUMBER(S26),IF(S25&gt;S26,1.0,IF(S25=S26,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>IF(ISNUMBER(S25),IF(ISNUMBER(S26),IF(S25&gt;S26,1.0,IF(S25=S26,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X25" s="14">
-        <f>IF(AND(ISNUMBER(R25),ISNUMBER(R24)),VLOOKUP(ABS(R25-R24),'IMP Table'!$A$2:$C$26,3)*SIGN(R25-R24),0)</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>IF(AND(ISNUMBER(R25),ISNUMBER(R26)),VLOOKUP(ABS(R25-R26),'IMP Table'!$A$2:$C$26,3)*SIGN(R25-R26),0)</f>
+        <f>IF(ISNUMBER(T25),IF(ISNUMBER(T24),IF(T25&gt;T24,1.0,IF(T25=T24,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X25">
+        <f>IF(ISNUMBER(T25),IF(ISNUMBER(T26),IF(T25&gt;T26,1.0,IF(T25=T26,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y25" s="14">
+        <f>IF(AND(ISNUMBER(S25),ISNUMBER(S24)),VLOOKUP(ABS(S25-S24),'IMP Table'!$A$2:$C$26,3)*SIGN(S25-S24),0)</f>
         <v/>
       </c>
       <c r="Z25">
-        <f>IF(AND(ISNUMBER(S25),ISNUMBER(S24)),VLOOKUP(ABS(S25-S24),'IMP Table'!$A$2:$C$26,3)*SIGN(S25-S24),0)</f>
+        <f>IF(AND(ISNUMBER(S25),ISNUMBER(S26)),VLOOKUP(ABS(S25-S26),'IMP Table'!$A$2:$C$26,3)*SIGN(S25-S26),0)</f>
         <v/>
       </c>
       <c r="AA25">
-        <f>IF(AND(ISNUMBER(S25),ISNUMBER(S26)),VLOOKUP(ABS(S25-S26),'IMP Table'!$A$2:$C$26,3)*SIGN(S25-S26),0)</f>
+        <f>IF(AND(ISNUMBER(T25),ISNUMBER(T24)),VLOOKUP(ABS(T25-T24),'IMP Table'!$A$2:$C$26,3)*SIGN(T25-T24),0)</f>
+        <v/>
+      </c>
+      <c r="AB25">
+        <f>IF(AND(ISNUMBER(T25),ISNUMBER(T26)),VLOOKUP(ABS(T25-T26),'IMP Table'!$A$2:$C$26,3)*SIGN(T25-T26),0)</f>
         <v/>
       </c>
     </row>
@@ -3514,92 +3535,96 @@
         <f>IF(ISBLANK('By Round'!K22),"",'By Round'!K22)</f>
         <v/>
       </c>
-      <c r="L26" s="17">
-        <f>AVERAGE(X26:Y26)</f>
-        <v/>
-      </c>
-      <c r="M26" s="18">
-        <f>AVERAGE(Z26:AA26)</f>
-        <v/>
-      </c>
-      <c r="N26" s="19">
-        <f>IF(COUNT(T26:U26)&gt;0,P26/COUNT(T26:U26),0.5)</f>
+      <c r="L26" s="15">
+        <f>IF(ISBLANK('By Round'!L22),"",'By Round'!L22)</f>
+        <v/>
+      </c>
+      <c r="M26" s="17">
+        <f>AVERAGE(Y26:Z26)</f>
+        <v/>
+      </c>
+      <c r="N26" s="18">
+        <f>AVERAGE(AA26:AB26)</f>
         <v/>
       </c>
       <c r="O26" s="19">
-        <f>IF(COUNT(V26:W26)&gt;0,Q26/COUNT(V26:W26),0.5)</f>
-        <v/>
-      </c>
-      <c r="P26" s="20">
-        <f>SUM(T26:U26)</f>
+        <f>IF(COUNT(U26:V26)&gt;0,Q26/COUNT(U26:V26),0.5)</f>
+        <v/>
+      </c>
+      <c r="P26" s="19">
+        <f>IF(COUNT(W26:X26)&gt;0,R26/COUNT(W26:X26),0.5)</f>
         <v/>
       </c>
       <c r="Q26" s="20">
-        <f>SUM(V26:W26)</f>
-        <v/>
-      </c>
-      <c r="R26" s="21">
-        <f>IF(ISNUMBER(J26),J26,IF(ISNUMBER(K26),-K26,""))</f>
-        <v/>
-      </c>
-      <c r="S26" s="15">
-        <f>IF(ISNUMBER(K26),K26,IF(ISNUMBER(J26),-J26,""))</f>
-        <v/>
-      </c>
-      <c r="T26" s="21">
-        <f>IF(ISNUMBER(R26),IF(ISNUMBER(R24),IF(R26&gt;R24,1.0,IF(R26=R24,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U26" s="15">
-        <f>IF(ISNUMBER(R26),IF(ISNUMBER(R25),IF(R26&gt;R25,1.0,IF(R26=R25,0.5,0.0)),""),"")</f>
+        <f>SUM(U26:V26)</f>
+        <v/>
+      </c>
+      <c r="R26" s="20">
+        <f>SUM(W26:X26)</f>
+        <v/>
+      </c>
+      <c r="S26" s="21">
+        <f>IF(ISNUMBER(K26),K26,IF(ISNUMBER(L26),-L26,""))</f>
+        <v/>
+      </c>
+      <c r="T26" s="15">
+        <f>IF(ISNUMBER(L26),L26,IF(ISNUMBER(K26),-K26,""))</f>
+        <v/>
+      </c>
+      <c r="U26" s="21">
+        <f>IF(ISNUMBER(S26),IF(ISNUMBER(S24),IF(S26&gt;S24,1.0,IF(S26=S24,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V26" s="15">
-        <f>IF(ISNUMBER(S26),IF(ISNUMBER(S24),IF(S26&gt;S24,1.0,IF(S26=S24,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S26),IF(ISNUMBER(S25),IF(S26&gt;S25,1.0,IF(S26=S25,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W26" s="15">
-        <f>IF(ISNUMBER(S26),IF(ISNUMBER(S25),IF(S26&gt;S25,1.0,IF(S26=S25,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X26" s="21">
-        <f>IF(AND(ISNUMBER(R26),ISNUMBER(R24)),VLOOKUP(ABS(R26-R24),'IMP Table'!$A$2:$C$26,3)*SIGN(R26-R24),0)</f>
-        <v/>
-      </c>
-      <c r="Y26" s="15">
-        <f>IF(AND(ISNUMBER(R26),ISNUMBER(R25)),VLOOKUP(ABS(R26-R25),'IMP Table'!$A$2:$C$26,3)*SIGN(R26-R25),0)</f>
+        <f>IF(ISNUMBER(T26),IF(ISNUMBER(T24),IF(T26&gt;T24,1.0,IF(T26=T24,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X26" s="15">
+        <f>IF(ISNUMBER(T26),IF(ISNUMBER(T25),IF(T26&gt;T25,1.0,IF(T26=T25,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y26" s="21">
+        <f>IF(AND(ISNUMBER(S26),ISNUMBER(S24)),VLOOKUP(ABS(S26-S24),'IMP Table'!$A$2:$C$26,3)*SIGN(S26-S24),0)</f>
         <v/>
       </c>
       <c r="Z26" s="15">
-        <f>IF(AND(ISNUMBER(S26),ISNUMBER(S24)),VLOOKUP(ABS(S26-S24),'IMP Table'!$A$2:$C$26,3)*SIGN(S26-S24),0)</f>
+        <f>IF(AND(ISNUMBER(S26),ISNUMBER(S25)),VLOOKUP(ABS(S26-S25),'IMP Table'!$A$2:$C$26,3)*SIGN(S26-S25),0)</f>
         <v/>
       </c>
       <c r="AA26" s="15">
-        <f>IF(AND(ISNUMBER(S26),ISNUMBER(S25)),VLOOKUP(ABS(S26-S25),'IMP Table'!$A$2:$C$26,3)*SIGN(S26-S25),0)</f>
+        <f>IF(AND(ISNUMBER(T26),ISNUMBER(T24)),VLOOKUP(ABS(T26-T24),'IMP Table'!$A$2:$C$26,3)*SIGN(T26-T24),0)</f>
+        <v/>
+      </c>
+      <c r="AB26" s="15">
+        <f>IF(AND(ISNUMBER(T26),ISNUMBER(T25)),VLOOKUP(ABS(T26-T25),'IMP Table'!$A$2:$C$26,3)*SIGN(T26-T25),0)</f>
         <v/>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n">
+      <c r="A27" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <f>'By Round'!A30</f>
         <v/>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="10">
         <f>'By Round'!B33</f>
         <v/>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <f>'By Round'!C33</f>
         <v/>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <f>'By Round'!D33</f>
         <v/>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <f>IF(ISBLANK('By Round'!F35),"",'By Round'!F35)</f>
         <v/>
       </c>
@@ -3623,89 +3648,93 @@
         <f>IF(ISBLANK('By Round'!K35),"",'By Round'!K35)</f>
         <v/>
       </c>
-      <c r="L27" s="12">
-        <f>AVERAGE(X27:Y27)</f>
-        <v/>
-      </c>
-      <c r="M27" s="13">
-        <f>AVERAGE(Z27:AA27)</f>
-        <v/>
-      </c>
-      <c r="N27" s="8">
-        <f>IF(COUNT(T27:U27)&gt;0,P27/COUNT(T27:U27),0.5)</f>
-        <v/>
-      </c>
-      <c r="O27" s="8">
-        <f>IF(COUNT(V27:W27)&gt;0,Q27/COUNT(V27:W27),0.5)</f>
-        <v/>
-      </c>
-      <c r="P27" s="5">
-        <f>SUM(T27:U27)</f>
+      <c r="L27">
+        <f>IF(ISBLANK('By Round'!L35),"",'By Round'!L35)</f>
+        <v/>
+      </c>
+      <c r="M27" s="11">
+        <f>AVERAGE(Y27:Z27)</f>
+        <v/>
+      </c>
+      <c r="N27" s="12">
+        <f>AVERAGE(AA27:AB27)</f>
+        <v/>
+      </c>
+      <c r="O27" s="13">
+        <f>IF(COUNT(U27:V27)&gt;0,Q27/COUNT(U27:V27),0.5)</f>
+        <v/>
+      </c>
+      <c r="P27" s="13">
+        <f>IF(COUNT(W27:X27)&gt;0,R27/COUNT(W27:X27),0.5)</f>
         <v/>
       </c>
       <c r="Q27" s="5">
-        <f>SUM(V27:W27)</f>
-        <v/>
-      </c>
-      <c r="R27" s="14">
-        <f>IF(ISNUMBER(J27),J27,IF(ISNUMBER(K27),-K27,""))</f>
-        <v/>
-      </c>
-      <c r="S27">
-        <f>IF(ISNUMBER(K27),K27,IF(ISNUMBER(J27),-J27,""))</f>
-        <v/>
-      </c>
-      <c r="T27" s="14">
-        <f>IF(ISNUMBER(R27),IF(ISNUMBER(R28),IF(R27&gt;R28,1.0,IF(R27=R28,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U27">
-        <f>IF(ISNUMBER(R27),IF(ISNUMBER(R29),IF(R27&gt;R29,1.0,IF(R27=R29,0.5,0.0)),""),"")</f>
+        <f>SUM(U27:V27)</f>
+        <v/>
+      </c>
+      <c r="R27" s="5">
+        <f>SUM(W27:X27)</f>
+        <v/>
+      </c>
+      <c r="S27" s="14">
+        <f>IF(ISNUMBER(K27),K27,IF(ISNUMBER(L27),-L27,""))</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>IF(ISNUMBER(L27),L27,IF(ISNUMBER(K27),-K27,""))</f>
+        <v/>
+      </c>
+      <c r="U27" s="14">
+        <f>IF(ISNUMBER(S27),IF(ISNUMBER(S28),IF(S27&gt;S28,1.0,IF(S27=S28,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>IF(ISNUMBER(S27),IF(ISNUMBER(S28),IF(S27&gt;S28,1.0,IF(S27=S28,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S27),IF(ISNUMBER(S29),IF(S27&gt;S29,1.0,IF(S27=S29,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>IF(ISNUMBER(S27),IF(ISNUMBER(S29),IF(S27&gt;S29,1.0,IF(S27=S29,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X27" s="14">
-        <f>IF(AND(ISNUMBER(R27),ISNUMBER(R28)),VLOOKUP(ABS(R27-R28),'IMP Table'!$A$2:$C$26,3)*SIGN(R27-R28),0)</f>
-        <v/>
-      </c>
-      <c r="Y27">
-        <f>IF(AND(ISNUMBER(R27),ISNUMBER(R29)),VLOOKUP(ABS(R27-R29),'IMP Table'!$A$2:$C$26,3)*SIGN(R27-R29),0)</f>
+        <f>IF(ISNUMBER(T27),IF(ISNUMBER(T28),IF(T27&gt;T28,1.0,IF(T27=T28,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X27">
+        <f>IF(ISNUMBER(T27),IF(ISNUMBER(T29),IF(T27&gt;T29,1.0,IF(T27=T29,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y27" s="14">
+        <f>IF(AND(ISNUMBER(S27),ISNUMBER(S28)),VLOOKUP(ABS(S27-S28),'IMP Table'!$A$2:$C$26,3)*SIGN(S27-S28),0)</f>
         <v/>
       </c>
       <c r="Z27">
-        <f>IF(AND(ISNUMBER(S27),ISNUMBER(S28)),VLOOKUP(ABS(S27-S28),'IMP Table'!$A$2:$C$26,3)*SIGN(S27-S28),0)</f>
+        <f>IF(AND(ISNUMBER(S27),ISNUMBER(S29)),VLOOKUP(ABS(S27-S29),'IMP Table'!$A$2:$C$26,3)*SIGN(S27-S29),0)</f>
         <v/>
       </c>
       <c r="AA27">
-        <f>IF(AND(ISNUMBER(S27),ISNUMBER(S29)),VLOOKUP(ABS(S27-S29),'IMP Table'!$A$2:$C$26,3)*SIGN(S27-S29),0)</f>
+        <f>IF(AND(ISNUMBER(T27),ISNUMBER(T28)),VLOOKUP(ABS(T27-T28),'IMP Table'!$A$2:$C$26,3)*SIGN(T27-T28),0)</f>
+        <v/>
+      </c>
+      <c r="AB27">
+        <f>IF(AND(ISNUMBER(T27),ISNUMBER(T29)),VLOOKUP(ABS(T27-T29),'IMP Table'!$A$2:$C$26,3)*SIGN(T27-T29),0)</f>
         <v/>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <f>'By Round'!A12</f>
         <v/>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <f>'By Round'!B15</f>
         <v/>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <f>'By Round'!C15</f>
         <v/>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <f>'By Round'!D15</f>
         <v/>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <f>IF(ISBLANK('By Round'!F17),"",'By Round'!F17)</f>
         <v/>
       </c>
@@ -3729,68 +3758,72 @@
         <f>IF(ISBLANK('By Round'!K17),"",'By Round'!K17)</f>
         <v/>
       </c>
-      <c r="L28" s="12">
-        <f>AVERAGE(X28:Y28)</f>
-        <v/>
-      </c>
-      <c r="M28" s="13">
-        <f>AVERAGE(Z28:AA28)</f>
-        <v/>
-      </c>
-      <c r="N28" s="8">
-        <f>IF(COUNT(T28:U28)&gt;0,P28/COUNT(T28:U28),0.5)</f>
-        <v/>
-      </c>
-      <c r="O28" s="8">
-        <f>IF(COUNT(V28:W28)&gt;0,Q28/COUNT(V28:W28),0.5)</f>
-        <v/>
-      </c>
-      <c r="P28" s="5">
-        <f>SUM(T28:U28)</f>
+      <c r="L28">
+        <f>IF(ISBLANK('By Round'!L17),"",'By Round'!L17)</f>
+        <v/>
+      </c>
+      <c r="M28" s="11">
+        <f>AVERAGE(Y28:Z28)</f>
+        <v/>
+      </c>
+      <c r="N28" s="12">
+        <f>AVERAGE(AA28:AB28)</f>
+        <v/>
+      </c>
+      <c r="O28" s="13">
+        <f>IF(COUNT(U28:V28)&gt;0,Q28/COUNT(U28:V28),0.5)</f>
+        <v/>
+      </c>
+      <c r="P28" s="13">
+        <f>IF(COUNT(W28:X28)&gt;0,R28/COUNT(W28:X28),0.5)</f>
         <v/>
       </c>
       <c r="Q28" s="5">
-        <f>SUM(V28:W28)</f>
-        <v/>
-      </c>
-      <c r="R28" s="14">
-        <f>IF(ISNUMBER(J28),J28,IF(ISNUMBER(K28),-K28,""))</f>
-        <v/>
-      </c>
-      <c r="S28">
-        <f>IF(ISNUMBER(K28),K28,IF(ISNUMBER(J28),-J28,""))</f>
-        <v/>
-      </c>
-      <c r="T28" s="14">
-        <f>IF(ISNUMBER(R28),IF(ISNUMBER(R27),IF(R28&gt;R27,1.0,IF(R28=R27,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U28">
-        <f>IF(ISNUMBER(R28),IF(ISNUMBER(R29),IF(R28&gt;R29,1.0,IF(R28=R29,0.5,0.0)),""),"")</f>
+        <f>SUM(U28:V28)</f>
+        <v/>
+      </c>
+      <c r="R28" s="5">
+        <f>SUM(W28:X28)</f>
+        <v/>
+      </c>
+      <c r="S28" s="14">
+        <f>IF(ISNUMBER(K28),K28,IF(ISNUMBER(L28),-L28,""))</f>
+        <v/>
+      </c>
+      <c r="T28">
+        <f>IF(ISNUMBER(L28),L28,IF(ISNUMBER(K28),-K28,""))</f>
+        <v/>
+      </c>
+      <c r="U28" s="14">
+        <f>IF(ISNUMBER(S28),IF(ISNUMBER(S27),IF(S28&gt;S27,1.0,IF(S28=S27,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>IF(ISNUMBER(S28),IF(ISNUMBER(S27),IF(S28&gt;S27,1.0,IF(S28=S27,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S28),IF(ISNUMBER(S29),IF(S28&gt;S29,1.0,IF(S28=S29,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>IF(ISNUMBER(S28),IF(ISNUMBER(S29),IF(S28&gt;S29,1.0,IF(S28=S29,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X28" s="14">
-        <f>IF(AND(ISNUMBER(R28),ISNUMBER(R27)),VLOOKUP(ABS(R28-R27),'IMP Table'!$A$2:$C$26,3)*SIGN(R28-R27),0)</f>
-        <v/>
-      </c>
-      <c r="Y28">
-        <f>IF(AND(ISNUMBER(R28),ISNUMBER(R29)),VLOOKUP(ABS(R28-R29),'IMP Table'!$A$2:$C$26,3)*SIGN(R28-R29),0)</f>
+        <f>IF(ISNUMBER(T28),IF(ISNUMBER(T27),IF(T28&gt;T27,1.0,IF(T28=T27,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X28">
+        <f>IF(ISNUMBER(T28),IF(ISNUMBER(T29),IF(T28&gt;T29,1.0,IF(T28=T29,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y28" s="14">
+        <f>IF(AND(ISNUMBER(S28),ISNUMBER(S27)),VLOOKUP(ABS(S28-S27),'IMP Table'!$A$2:$C$26,3)*SIGN(S28-S27),0)</f>
         <v/>
       </c>
       <c r="Z28">
-        <f>IF(AND(ISNUMBER(S28),ISNUMBER(S27)),VLOOKUP(ABS(S28-S27),'IMP Table'!$A$2:$C$26,3)*SIGN(S28-S27),0)</f>
+        <f>IF(AND(ISNUMBER(S28),ISNUMBER(S29)),VLOOKUP(ABS(S28-S29),'IMP Table'!$A$2:$C$26,3)*SIGN(S28-S29),0)</f>
         <v/>
       </c>
       <c r="AA28">
-        <f>IF(AND(ISNUMBER(S28),ISNUMBER(S29)),VLOOKUP(ABS(S28-S29),'IMP Table'!$A$2:$C$26,3)*SIGN(S28-S29),0)</f>
+        <f>IF(AND(ISNUMBER(T28),ISNUMBER(T27)),VLOOKUP(ABS(T28-T27),'IMP Table'!$A$2:$C$26,3)*SIGN(T28-T27),0)</f>
+        <v/>
+      </c>
+      <c r="AB28">
+        <f>IF(AND(ISNUMBER(T28),ISNUMBER(T29)),VLOOKUP(ABS(T28-T29),'IMP Table'!$A$2:$C$26,3)*SIGN(T28-T29),0)</f>
         <v/>
       </c>
     </row>
@@ -3836,92 +3869,96 @@
         <f>IF(ISBLANK('By Round'!K23),"",'By Round'!K23)</f>
         <v/>
       </c>
-      <c r="L29" s="17">
-        <f>AVERAGE(X29:Y29)</f>
-        <v/>
-      </c>
-      <c r="M29" s="18">
-        <f>AVERAGE(Z29:AA29)</f>
-        <v/>
-      </c>
-      <c r="N29" s="19">
-        <f>IF(COUNT(T29:U29)&gt;0,P29/COUNT(T29:U29),0.5)</f>
+      <c r="L29" s="15">
+        <f>IF(ISBLANK('By Round'!L23),"",'By Round'!L23)</f>
+        <v/>
+      </c>
+      <c r="M29" s="17">
+        <f>AVERAGE(Y29:Z29)</f>
+        <v/>
+      </c>
+      <c r="N29" s="18">
+        <f>AVERAGE(AA29:AB29)</f>
         <v/>
       </c>
       <c r="O29" s="19">
-        <f>IF(COUNT(V29:W29)&gt;0,Q29/COUNT(V29:W29),0.5)</f>
-        <v/>
-      </c>
-      <c r="P29" s="20">
-        <f>SUM(T29:U29)</f>
+        <f>IF(COUNT(U29:V29)&gt;0,Q29/COUNT(U29:V29),0.5)</f>
+        <v/>
+      </c>
+      <c r="P29" s="19">
+        <f>IF(COUNT(W29:X29)&gt;0,R29/COUNT(W29:X29),0.5)</f>
         <v/>
       </c>
       <c r="Q29" s="20">
-        <f>SUM(V29:W29)</f>
-        <v/>
-      </c>
-      <c r="R29" s="21">
-        <f>IF(ISNUMBER(J29),J29,IF(ISNUMBER(K29),-K29,""))</f>
-        <v/>
-      </c>
-      <c r="S29" s="15">
-        <f>IF(ISNUMBER(K29),K29,IF(ISNUMBER(J29),-J29,""))</f>
-        <v/>
-      </c>
-      <c r="T29" s="21">
-        <f>IF(ISNUMBER(R29),IF(ISNUMBER(R27),IF(R29&gt;R27,1.0,IF(R29=R27,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U29" s="15">
-        <f>IF(ISNUMBER(R29),IF(ISNUMBER(R28),IF(R29&gt;R28,1.0,IF(R29=R28,0.5,0.0)),""),"")</f>
+        <f>SUM(U29:V29)</f>
+        <v/>
+      </c>
+      <c r="R29" s="20">
+        <f>SUM(W29:X29)</f>
+        <v/>
+      </c>
+      <c r="S29" s="21">
+        <f>IF(ISNUMBER(K29),K29,IF(ISNUMBER(L29),-L29,""))</f>
+        <v/>
+      </c>
+      <c r="T29" s="15">
+        <f>IF(ISNUMBER(L29),L29,IF(ISNUMBER(K29),-K29,""))</f>
+        <v/>
+      </c>
+      <c r="U29" s="21">
+        <f>IF(ISNUMBER(S29),IF(ISNUMBER(S27),IF(S29&gt;S27,1.0,IF(S29=S27,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V29" s="15">
-        <f>IF(ISNUMBER(S29),IF(ISNUMBER(S27),IF(S29&gt;S27,1.0,IF(S29=S27,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S29),IF(ISNUMBER(S28),IF(S29&gt;S28,1.0,IF(S29=S28,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W29" s="15">
-        <f>IF(ISNUMBER(S29),IF(ISNUMBER(S28),IF(S29&gt;S28,1.0,IF(S29=S28,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X29" s="21">
-        <f>IF(AND(ISNUMBER(R29),ISNUMBER(R27)),VLOOKUP(ABS(R29-R27),'IMP Table'!$A$2:$C$26,3)*SIGN(R29-R27),0)</f>
-        <v/>
-      </c>
-      <c r="Y29" s="15">
-        <f>IF(AND(ISNUMBER(R29),ISNUMBER(R28)),VLOOKUP(ABS(R29-R28),'IMP Table'!$A$2:$C$26,3)*SIGN(R29-R28),0)</f>
+        <f>IF(ISNUMBER(T29),IF(ISNUMBER(T27),IF(T29&gt;T27,1.0,IF(T29=T27,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X29" s="15">
+        <f>IF(ISNUMBER(T29),IF(ISNUMBER(T28),IF(T29&gt;T28,1.0,IF(T29=T28,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y29" s="21">
+        <f>IF(AND(ISNUMBER(S29),ISNUMBER(S27)),VLOOKUP(ABS(S29-S27),'IMP Table'!$A$2:$C$26,3)*SIGN(S29-S27),0)</f>
         <v/>
       </c>
       <c r="Z29" s="15">
-        <f>IF(AND(ISNUMBER(S29),ISNUMBER(S27)),VLOOKUP(ABS(S29-S27),'IMP Table'!$A$2:$C$26,3)*SIGN(S29-S27),0)</f>
+        <f>IF(AND(ISNUMBER(S29),ISNUMBER(S28)),VLOOKUP(ABS(S29-S28),'IMP Table'!$A$2:$C$26,3)*SIGN(S29-S28),0)</f>
         <v/>
       </c>
       <c r="AA29" s="15">
-        <f>IF(AND(ISNUMBER(S29),ISNUMBER(S28)),VLOOKUP(ABS(S29-S28),'IMP Table'!$A$2:$C$26,3)*SIGN(S29-S28),0)</f>
+        <f>IF(AND(ISNUMBER(T29),ISNUMBER(T27)),VLOOKUP(ABS(T29-T27),'IMP Table'!$A$2:$C$26,3)*SIGN(T29-T27),0)</f>
+        <v/>
+      </c>
+      <c r="AB29" s="15">
+        <f>IF(AND(ISNUMBER(T29),ISNUMBER(T28)),VLOOKUP(ABS(T29-T28),'IMP Table'!$A$2:$C$26,3)*SIGN(T29-T28),0)</f>
         <v/>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="n">
+      <c r="A30" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <f>'By Round'!A12</f>
         <v/>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <f>'By Round'!B18</f>
         <v/>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="10">
         <f>'By Round'!C18</f>
         <v/>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <f>'By Round'!D18</f>
         <v/>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <f>IF(ISBLANK('By Round'!F18),"",'By Round'!F18)</f>
         <v/>
       </c>
@@ -3945,89 +3982,93 @@
         <f>IF(ISBLANK('By Round'!K18),"",'By Round'!K18)</f>
         <v/>
       </c>
-      <c r="L30" s="12">
-        <f>AVERAGE(X30:Y30)</f>
-        <v/>
-      </c>
-      <c r="M30" s="13">
-        <f>AVERAGE(Z30:AA30)</f>
-        <v/>
-      </c>
-      <c r="N30" s="8">
-        <f>IF(COUNT(T30:U30)&gt;0,P30/COUNT(T30:U30),0.5)</f>
-        <v/>
-      </c>
-      <c r="O30" s="8">
-        <f>IF(COUNT(V30:W30)&gt;0,Q30/COUNT(V30:W30),0.5)</f>
-        <v/>
-      </c>
-      <c r="P30" s="5">
-        <f>SUM(T30:U30)</f>
+      <c r="L30">
+        <f>IF(ISBLANK('By Round'!L18),"",'By Round'!L18)</f>
+        <v/>
+      </c>
+      <c r="M30" s="11">
+        <f>AVERAGE(Y30:Z30)</f>
+        <v/>
+      </c>
+      <c r="N30" s="12">
+        <f>AVERAGE(AA30:AB30)</f>
+        <v/>
+      </c>
+      <c r="O30" s="13">
+        <f>IF(COUNT(U30:V30)&gt;0,Q30/COUNT(U30:V30),0.5)</f>
+        <v/>
+      </c>
+      <c r="P30" s="13">
+        <f>IF(COUNT(W30:X30)&gt;0,R30/COUNT(W30:X30),0.5)</f>
         <v/>
       </c>
       <c r="Q30" s="5">
-        <f>SUM(V30:W30)</f>
-        <v/>
-      </c>
-      <c r="R30" s="14">
-        <f>IF(ISNUMBER(J30),J30,IF(ISNUMBER(K30),-K30,""))</f>
-        <v/>
-      </c>
-      <c r="S30">
-        <f>IF(ISNUMBER(K30),K30,IF(ISNUMBER(J30),-J30,""))</f>
-        <v/>
-      </c>
-      <c r="T30" s="14">
-        <f>IF(ISNUMBER(R30),IF(ISNUMBER(R31),IF(R30&gt;R31,1.0,IF(R30=R31,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U30">
-        <f>IF(ISNUMBER(R30),IF(ISNUMBER(R32),IF(R30&gt;R32,1.0,IF(R30=R32,0.5,0.0)),""),"")</f>
+        <f>SUM(U30:V30)</f>
+        <v/>
+      </c>
+      <c r="R30" s="5">
+        <f>SUM(W30:X30)</f>
+        <v/>
+      </c>
+      <c r="S30" s="14">
+        <f>IF(ISNUMBER(K30),K30,IF(ISNUMBER(L30),-L30,""))</f>
+        <v/>
+      </c>
+      <c r="T30">
+        <f>IF(ISNUMBER(L30),L30,IF(ISNUMBER(K30),-K30,""))</f>
+        <v/>
+      </c>
+      <c r="U30" s="14">
+        <f>IF(ISNUMBER(S30),IF(ISNUMBER(S31),IF(S30&gt;S31,1.0,IF(S30=S31,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>IF(ISNUMBER(S30),IF(ISNUMBER(S31),IF(S30&gt;S31,1.0,IF(S30=S31,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S30),IF(ISNUMBER(S32),IF(S30&gt;S32,1.0,IF(S30=S32,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>IF(ISNUMBER(S30),IF(ISNUMBER(S32),IF(S30&gt;S32,1.0,IF(S30=S32,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X30" s="14">
-        <f>IF(AND(ISNUMBER(R30),ISNUMBER(R31)),VLOOKUP(ABS(R30-R31),'IMP Table'!$A$2:$C$26,3)*SIGN(R30-R31),0)</f>
-        <v/>
-      </c>
-      <c r="Y30">
-        <f>IF(AND(ISNUMBER(R30),ISNUMBER(R32)),VLOOKUP(ABS(R30-R32),'IMP Table'!$A$2:$C$26,3)*SIGN(R30-R32),0)</f>
+        <f>IF(ISNUMBER(T30),IF(ISNUMBER(T31),IF(T30&gt;T31,1.0,IF(T30=T31,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X30">
+        <f>IF(ISNUMBER(T30),IF(ISNUMBER(T32),IF(T30&gt;T32,1.0,IF(T30=T32,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y30" s="14">
+        <f>IF(AND(ISNUMBER(S30),ISNUMBER(S31)),VLOOKUP(ABS(S30-S31),'IMP Table'!$A$2:$C$26,3)*SIGN(S30-S31),0)</f>
         <v/>
       </c>
       <c r="Z30">
-        <f>IF(AND(ISNUMBER(S30),ISNUMBER(S31)),VLOOKUP(ABS(S30-S31),'IMP Table'!$A$2:$C$26,3)*SIGN(S30-S31),0)</f>
+        <f>IF(AND(ISNUMBER(S30),ISNUMBER(S32)),VLOOKUP(ABS(S30-S32),'IMP Table'!$A$2:$C$26,3)*SIGN(S30-S32),0)</f>
         <v/>
       </c>
       <c r="AA30">
-        <f>IF(AND(ISNUMBER(S30),ISNUMBER(S32)),VLOOKUP(ABS(S30-S32),'IMP Table'!$A$2:$C$26,3)*SIGN(S30-S32),0)</f>
+        <f>IF(AND(ISNUMBER(T30),ISNUMBER(T31)),VLOOKUP(ABS(T30-T31),'IMP Table'!$A$2:$C$26,3)*SIGN(T30-T31),0)</f>
+        <v/>
+      </c>
+      <c r="AB30">
+        <f>IF(AND(ISNUMBER(T30),ISNUMBER(T32)),VLOOKUP(ABS(T30-T32),'IMP Table'!$A$2:$C$26,3)*SIGN(T30-T32),0)</f>
         <v/>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="10">
         <f>'By Round'!B9</f>
         <v/>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="10">
         <f>'By Round'!C9</f>
         <v/>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <f>'By Round'!D9</f>
         <v/>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <f>IF(ISBLANK('By Round'!F9),"",'By Round'!F9)</f>
         <v/>
       </c>
@@ -4051,68 +4092,72 @@
         <f>IF(ISBLANK('By Round'!K9),"",'By Round'!K9)</f>
         <v/>
       </c>
-      <c r="L31" s="12">
-        <f>AVERAGE(X31:Y31)</f>
-        <v/>
-      </c>
-      <c r="M31" s="13">
-        <f>AVERAGE(Z31:AA31)</f>
-        <v/>
-      </c>
-      <c r="N31" s="8">
-        <f>IF(COUNT(T31:U31)&gt;0,P31/COUNT(T31:U31),0.5)</f>
-        <v/>
-      </c>
-      <c r="O31" s="8">
-        <f>IF(COUNT(V31:W31)&gt;0,Q31/COUNT(V31:W31),0.5)</f>
-        <v/>
-      </c>
-      <c r="P31" s="5">
-        <f>SUM(T31:U31)</f>
+      <c r="L31">
+        <f>IF(ISBLANK('By Round'!L9),"",'By Round'!L9)</f>
+        <v/>
+      </c>
+      <c r="M31" s="11">
+        <f>AVERAGE(Y31:Z31)</f>
+        <v/>
+      </c>
+      <c r="N31" s="12">
+        <f>AVERAGE(AA31:AB31)</f>
+        <v/>
+      </c>
+      <c r="O31" s="13">
+        <f>IF(COUNT(U31:V31)&gt;0,Q31/COUNT(U31:V31),0.5)</f>
+        <v/>
+      </c>
+      <c r="P31" s="13">
+        <f>IF(COUNT(W31:X31)&gt;0,R31/COUNT(W31:X31),0.5)</f>
         <v/>
       </c>
       <c r="Q31" s="5">
-        <f>SUM(V31:W31)</f>
-        <v/>
-      </c>
-      <c r="R31" s="14">
-        <f>IF(ISNUMBER(J31),J31,IF(ISNUMBER(K31),-K31,""))</f>
-        <v/>
-      </c>
-      <c r="S31">
-        <f>IF(ISNUMBER(K31),K31,IF(ISNUMBER(J31),-J31,""))</f>
-        <v/>
-      </c>
-      <c r="T31" s="14">
-        <f>IF(ISNUMBER(R31),IF(ISNUMBER(R30),IF(R31&gt;R30,1.0,IF(R31=R30,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U31">
-        <f>IF(ISNUMBER(R31),IF(ISNUMBER(R32),IF(R31&gt;R32,1.0,IF(R31=R32,0.5,0.0)),""),"")</f>
+        <f>SUM(U31:V31)</f>
+        <v/>
+      </c>
+      <c r="R31" s="5">
+        <f>SUM(W31:X31)</f>
+        <v/>
+      </c>
+      <c r="S31" s="14">
+        <f>IF(ISNUMBER(K31),K31,IF(ISNUMBER(L31),-L31,""))</f>
+        <v/>
+      </c>
+      <c r="T31">
+        <f>IF(ISNUMBER(L31),L31,IF(ISNUMBER(K31),-K31,""))</f>
+        <v/>
+      </c>
+      <c r="U31" s="14">
+        <f>IF(ISNUMBER(S31),IF(ISNUMBER(S30),IF(S31&gt;S30,1.0,IF(S31=S30,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>IF(ISNUMBER(S31),IF(ISNUMBER(S30),IF(S31&gt;S30,1.0,IF(S31=S30,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S31),IF(ISNUMBER(S32),IF(S31&gt;S32,1.0,IF(S31=S32,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>IF(ISNUMBER(S31),IF(ISNUMBER(S32),IF(S31&gt;S32,1.0,IF(S31=S32,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X31" s="14">
-        <f>IF(AND(ISNUMBER(R31),ISNUMBER(R30)),VLOOKUP(ABS(R31-R30),'IMP Table'!$A$2:$C$26,3)*SIGN(R31-R30),0)</f>
-        <v/>
-      </c>
-      <c r="Y31">
-        <f>IF(AND(ISNUMBER(R31),ISNUMBER(R32)),VLOOKUP(ABS(R31-R32),'IMP Table'!$A$2:$C$26,3)*SIGN(R31-R32),0)</f>
+        <f>IF(ISNUMBER(T31),IF(ISNUMBER(T30),IF(T31&gt;T30,1.0,IF(T31=T30,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X31">
+        <f>IF(ISNUMBER(T31),IF(ISNUMBER(T32),IF(T31&gt;T32,1.0,IF(T31=T32,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y31" s="14">
+        <f>IF(AND(ISNUMBER(S31),ISNUMBER(S30)),VLOOKUP(ABS(S31-S30),'IMP Table'!$A$2:$C$26,3)*SIGN(S31-S30),0)</f>
         <v/>
       </c>
       <c r="Z31">
-        <f>IF(AND(ISNUMBER(S31),ISNUMBER(S30)),VLOOKUP(ABS(S31-S30),'IMP Table'!$A$2:$C$26,3)*SIGN(S31-S30),0)</f>
+        <f>IF(AND(ISNUMBER(S31),ISNUMBER(S32)),VLOOKUP(ABS(S31-S32),'IMP Table'!$A$2:$C$26,3)*SIGN(S31-S32),0)</f>
         <v/>
       </c>
       <c r="AA31">
-        <f>IF(AND(ISNUMBER(S31),ISNUMBER(S32)),VLOOKUP(ABS(S31-S32),'IMP Table'!$A$2:$C$26,3)*SIGN(S31-S32),0)</f>
+        <f>IF(AND(ISNUMBER(T31),ISNUMBER(T30)),VLOOKUP(ABS(T31-T30),'IMP Table'!$A$2:$C$26,3)*SIGN(T31-T30),0)</f>
+        <v/>
+      </c>
+      <c r="AB31">
+        <f>IF(AND(ISNUMBER(T31),ISNUMBER(T32)),VLOOKUP(ABS(T31-T32),'IMP Table'!$A$2:$C$26,3)*SIGN(T31-T32),0)</f>
         <v/>
       </c>
     </row>
@@ -4158,92 +4203,96 @@
         <f>IF(ISBLANK('By Round'!K30),"",'By Round'!K30)</f>
         <v/>
       </c>
-      <c r="L32" s="17">
-        <f>AVERAGE(X32:Y32)</f>
-        <v/>
-      </c>
-      <c r="M32" s="18">
-        <f>AVERAGE(Z32:AA32)</f>
-        <v/>
-      </c>
-      <c r="N32" s="19">
-        <f>IF(COUNT(T32:U32)&gt;0,P32/COUNT(T32:U32),0.5)</f>
+      <c r="L32" s="15">
+        <f>IF(ISBLANK('By Round'!L30),"",'By Round'!L30)</f>
+        <v/>
+      </c>
+      <c r="M32" s="17">
+        <f>AVERAGE(Y32:Z32)</f>
+        <v/>
+      </c>
+      <c r="N32" s="18">
+        <f>AVERAGE(AA32:AB32)</f>
         <v/>
       </c>
       <c r="O32" s="19">
-        <f>IF(COUNT(V32:W32)&gt;0,Q32/COUNT(V32:W32),0.5)</f>
-        <v/>
-      </c>
-      <c r="P32" s="20">
-        <f>SUM(T32:U32)</f>
+        <f>IF(COUNT(U32:V32)&gt;0,Q32/COUNT(U32:V32),0.5)</f>
+        <v/>
+      </c>
+      <c r="P32" s="19">
+        <f>IF(COUNT(W32:X32)&gt;0,R32/COUNT(W32:X32),0.5)</f>
         <v/>
       </c>
       <c r="Q32" s="20">
-        <f>SUM(V32:W32)</f>
-        <v/>
-      </c>
-      <c r="R32" s="21">
-        <f>IF(ISNUMBER(J32),J32,IF(ISNUMBER(K32),-K32,""))</f>
-        <v/>
-      </c>
-      <c r="S32" s="15">
-        <f>IF(ISNUMBER(K32),K32,IF(ISNUMBER(J32),-J32,""))</f>
-        <v/>
-      </c>
-      <c r="T32" s="21">
-        <f>IF(ISNUMBER(R32),IF(ISNUMBER(R30),IF(R32&gt;R30,1.0,IF(R32=R30,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U32" s="15">
-        <f>IF(ISNUMBER(R32),IF(ISNUMBER(R31),IF(R32&gt;R31,1.0,IF(R32=R31,0.5,0.0)),""),"")</f>
+        <f>SUM(U32:V32)</f>
+        <v/>
+      </c>
+      <c r="R32" s="20">
+        <f>SUM(W32:X32)</f>
+        <v/>
+      </c>
+      <c r="S32" s="21">
+        <f>IF(ISNUMBER(K32),K32,IF(ISNUMBER(L32),-L32,""))</f>
+        <v/>
+      </c>
+      <c r="T32" s="15">
+        <f>IF(ISNUMBER(L32),L32,IF(ISNUMBER(K32),-K32,""))</f>
+        <v/>
+      </c>
+      <c r="U32" s="21">
+        <f>IF(ISNUMBER(S32),IF(ISNUMBER(S30),IF(S32&gt;S30,1.0,IF(S32=S30,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V32" s="15">
-        <f>IF(ISNUMBER(S32),IF(ISNUMBER(S30),IF(S32&gt;S30,1.0,IF(S32=S30,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S32),IF(ISNUMBER(S31),IF(S32&gt;S31,1.0,IF(S32=S31,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W32" s="15">
-        <f>IF(ISNUMBER(S32),IF(ISNUMBER(S31),IF(S32&gt;S31,1.0,IF(S32=S31,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X32" s="21">
-        <f>IF(AND(ISNUMBER(R32),ISNUMBER(R30)),VLOOKUP(ABS(R32-R30),'IMP Table'!$A$2:$C$26,3)*SIGN(R32-R30),0)</f>
-        <v/>
-      </c>
-      <c r="Y32" s="15">
-        <f>IF(AND(ISNUMBER(R32),ISNUMBER(R31)),VLOOKUP(ABS(R32-R31),'IMP Table'!$A$2:$C$26,3)*SIGN(R32-R31),0)</f>
+        <f>IF(ISNUMBER(T32),IF(ISNUMBER(T30),IF(T32&gt;T30,1.0,IF(T32=T30,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X32" s="15">
+        <f>IF(ISNUMBER(T32),IF(ISNUMBER(T31),IF(T32&gt;T31,1.0,IF(T32=T31,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y32" s="21">
+        <f>IF(AND(ISNUMBER(S32),ISNUMBER(S30)),VLOOKUP(ABS(S32-S30),'IMP Table'!$A$2:$C$26,3)*SIGN(S32-S30),0)</f>
         <v/>
       </c>
       <c r="Z32" s="15">
-        <f>IF(AND(ISNUMBER(S32),ISNUMBER(S30)),VLOOKUP(ABS(S32-S30),'IMP Table'!$A$2:$C$26,3)*SIGN(S32-S30),0)</f>
+        <f>IF(AND(ISNUMBER(S32),ISNUMBER(S31)),VLOOKUP(ABS(S32-S31),'IMP Table'!$A$2:$C$26,3)*SIGN(S32-S31),0)</f>
         <v/>
       </c>
       <c r="AA32" s="15">
-        <f>IF(AND(ISNUMBER(S32),ISNUMBER(S31)),VLOOKUP(ABS(S32-S31),'IMP Table'!$A$2:$C$26,3)*SIGN(S32-S31),0)</f>
+        <f>IF(AND(ISNUMBER(T32),ISNUMBER(T30)),VLOOKUP(ABS(T32-T30),'IMP Table'!$A$2:$C$26,3)*SIGN(T32-T30),0)</f>
+        <v/>
+      </c>
+      <c r="AB32" s="15">
+        <f>IF(AND(ISNUMBER(T32),ISNUMBER(T31)),VLOOKUP(ABS(T32-T31),'IMP Table'!$A$2:$C$26,3)*SIGN(T32-T31),0)</f>
         <v/>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n">
+      <c r="A33" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <f>'By Round'!A12</f>
         <v/>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="10">
         <f>'By Round'!B18</f>
         <v/>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="10">
         <f>'By Round'!C18</f>
         <v/>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <f>'By Round'!D18</f>
         <v/>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="10">
         <f>IF(ISBLANK('By Round'!F19),"",'By Round'!F19)</f>
         <v/>
       </c>
@@ -4267,89 +4316,93 @@
         <f>IF(ISBLANK('By Round'!K19),"",'By Round'!K19)</f>
         <v/>
       </c>
-      <c r="L33" s="12">
-        <f>AVERAGE(X33:Y33)</f>
-        <v/>
-      </c>
-      <c r="M33" s="13">
-        <f>AVERAGE(Z33:AA33)</f>
-        <v/>
-      </c>
-      <c r="N33" s="8">
-        <f>IF(COUNT(T33:U33)&gt;0,P33/COUNT(T33:U33),0.5)</f>
-        <v/>
-      </c>
-      <c r="O33" s="8">
-        <f>IF(COUNT(V33:W33)&gt;0,Q33/COUNT(V33:W33),0.5)</f>
-        <v/>
-      </c>
-      <c r="P33" s="5">
-        <f>SUM(T33:U33)</f>
+      <c r="L33">
+        <f>IF(ISBLANK('By Round'!L19),"",'By Round'!L19)</f>
+        <v/>
+      </c>
+      <c r="M33" s="11">
+        <f>AVERAGE(Y33:Z33)</f>
+        <v/>
+      </c>
+      <c r="N33" s="12">
+        <f>AVERAGE(AA33:AB33)</f>
+        <v/>
+      </c>
+      <c r="O33" s="13">
+        <f>IF(COUNT(U33:V33)&gt;0,Q33/COUNT(U33:V33),0.5)</f>
+        <v/>
+      </c>
+      <c r="P33" s="13">
+        <f>IF(COUNT(W33:X33)&gt;0,R33/COUNT(W33:X33),0.5)</f>
         <v/>
       </c>
       <c r="Q33" s="5">
-        <f>SUM(V33:W33)</f>
-        <v/>
-      </c>
-      <c r="R33" s="14">
-        <f>IF(ISNUMBER(J33),J33,IF(ISNUMBER(K33),-K33,""))</f>
-        <v/>
-      </c>
-      <c r="S33">
-        <f>IF(ISNUMBER(K33),K33,IF(ISNUMBER(J33),-J33,""))</f>
-        <v/>
-      </c>
-      <c r="T33" s="14">
-        <f>IF(ISNUMBER(R33),IF(ISNUMBER(R34),IF(R33&gt;R34,1.0,IF(R33=R34,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U33">
-        <f>IF(ISNUMBER(R33),IF(ISNUMBER(R35),IF(R33&gt;R35,1.0,IF(R33=R35,0.5,0.0)),""),"")</f>
+        <f>SUM(U33:V33)</f>
+        <v/>
+      </c>
+      <c r="R33" s="5">
+        <f>SUM(W33:X33)</f>
+        <v/>
+      </c>
+      <c r="S33" s="14">
+        <f>IF(ISNUMBER(K33),K33,IF(ISNUMBER(L33),-L33,""))</f>
+        <v/>
+      </c>
+      <c r="T33">
+        <f>IF(ISNUMBER(L33),L33,IF(ISNUMBER(K33),-K33,""))</f>
+        <v/>
+      </c>
+      <c r="U33" s="14">
+        <f>IF(ISNUMBER(S33),IF(ISNUMBER(S34),IF(S33&gt;S34,1.0,IF(S33=S34,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>IF(ISNUMBER(S33),IF(ISNUMBER(S34),IF(S33&gt;S34,1.0,IF(S33=S34,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S33),IF(ISNUMBER(S35),IF(S33&gt;S35,1.0,IF(S33=S35,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>IF(ISNUMBER(S33),IF(ISNUMBER(S35),IF(S33&gt;S35,1.0,IF(S33=S35,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X33" s="14">
-        <f>IF(AND(ISNUMBER(R33),ISNUMBER(R34)),VLOOKUP(ABS(R33-R34),'IMP Table'!$A$2:$C$26,3)*SIGN(R33-R34),0)</f>
-        <v/>
-      </c>
-      <c r="Y33">
-        <f>IF(AND(ISNUMBER(R33),ISNUMBER(R35)),VLOOKUP(ABS(R33-R35),'IMP Table'!$A$2:$C$26,3)*SIGN(R33-R35),0)</f>
+        <f>IF(ISNUMBER(T33),IF(ISNUMBER(T34),IF(T33&gt;T34,1.0,IF(T33=T34,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X33">
+        <f>IF(ISNUMBER(T33),IF(ISNUMBER(T35),IF(T33&gt;T35,1.0,IF(T33=T35,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y33" s="14">
+        <f>IF(AND(ISNUMBER(S33),ISNUMBER(S34)),VLOOKUP(ABS(S33-S34),'IMP Table'!$A$2:$C$26,3)*SIGN(S33-S34),0)</f>
         <v/>
       </c>
       <c r="Z33">
-        <f>IF(AND(ISNUMBER(S33),ISNUMBER(S34)),VLOOKUP(ABS(S33-S34),'IMP Table'!$A$2:$C$26,3)*SIGN(S33-S34),0)</f>
+        <f>IF(AND(ISNUMBER(S33),ISNUMBER(S35)),VLOOKUP(ABS(S33-S35),'IMP Table'!$A$2:$C$26,3)*SIGN(S33-S35),0)</f>
         <v/>
       </c>
       <c r="AA33">
-        <f>IF(AND(ISNUMBER(S33),ISNUMBER(S35)),VLOOKUP(ABS(S33-S35),'IMP Table'!$A$2:$C$26,3)*SIGN(S33-S35),0)</f>
+        <f>IF(AND(ISNUMBER(T33),ISNUMBER(T34)),VLOOKUP(ABS(T33-T34),'IMP Table'!$A$2:$C$26,3)*SIGN(T33-T34),0)</f>
+        <v/>
+      </c>
+      <c r="AB33">
+        <f>IF(AND(ISNUMBER(T33),ISNUMBER(T35)),VLOOKUP(ABS(T33-T35),'IMP Table'!$A$2:$C$26,3)*SIGN(T33-T35),0)</f>
         <v/>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="10">
         <f>'By Round'!B9</f>
         <v/>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="10">
         <f>'By Round'!C9</f>
         <v/>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <f>'By Round'!D9</f>
         <v/>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <f>IF(ISBLANK('By Round'!F10),"",'By Round'!F10)</f>
         <v/>
       </c>
@@ -4373,68 +4426,72 @@
         <f>IF(ISBLANK('By Round'!K10),"",'By Round'!K10)</f>
         <v/>
       </c>
-      <c r="L34" s="12">
-        <f>AVERAGE(X34:Y34)</f>
-        <v/>
-      </c>
-      <c r="M34" s="13">
-        <f>AVERAGE(Z34:AA34)</f>
-        <v/>
-      </c>
-      <c r="N34" s="8">
-        <f>IF(COUNT(T34:U34)&gt;0,P34/COUNT(T34:U34),0.5)</f>
-        <v/>
-      </c>
-      <c r="O34" s="8">
-        <f>IF(COUNT(V34:W34)&gt;0,Q34/COUNT(V34:W34),0.5)</f>
-        <v/>
-      </c>
-      <c r="P34" s="5">
-        <f>SUM(T34:U34)</f>
+      <c r="L34">
+        <f>IF(ISBLANK('By Round'!L10),"",'By Round'!L10)</f>
+        <v/>
+      </c>
+      <c r="M34" s="11">
+        <f>AVERAGE(Y34:Z34)</f>
+        <v/>
+      </c>
+      <c r="N34" s="12">
+        <f>AVERAGE(AA34:AB34)</f>
+        <v/>
+      </c>
+      <c r="O34" s="13">
+        <f>IF(COUNT(U34:V34)&gt;0,Q34/COUNT(U34:V34),0.5)</f>
+        <v/>
+      </c>
+      <c r="P34" s="13">
+        <f>IF(COUNT(W34:X34)&gt;0,R34/COUNT(W34:X34),0.5)</f>
         <v/>
       </c>
       <c r="Q34" s="5">
-        <f>SUM(V34:W34)</f>
-        <v/>
-      </c>
-      <c r="R34" s="14">
-        <f>IF(ISNUMBER(J34),J34,IF(ISNUMBER(K34),-K34,""))</f>
-        <v/>
-      </c>
-      <c r="S34">
-        <f>IF(ISNUMBER(K34),K34,IF(ISNUMBER(J34),-J34,""))</f>
-        <v/>
-      </c>
-      <c r="T34" s="14">
-        <f>IF(ISNUMBER(R34),IF(ISNUMBER(R33),IF(R34&gt;R33,1.0,IF(R34=R33,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U34">
-        <f>IF(ISNUMBER(R34),IF(ISNUMBER(R35),IF(R34&gt;R35,1.0,IF(R34=R35,0.5,0.0)),""),"")</f>
+        <f>SUM(U34:V34)</f>
+        <v/>
+      </c>
+      <c r="R34" s="5">
+        <f>SUM(W34:X34)</f>
+        <v/>
+      </c>
+      <c r="S34" s="14">
+        <f>IF(ISNUMBER(K34),K34,IF(ISNUMBER(L34),-L34,""))</f>
+        <v/>
+      </c>
+      <c r="T34">
+        <f>IF(ISNUMBER(L34),L34,IF(ISNUMBER(K34),-K34,""))</f>
+        <v/>
+      </c>
+      <c r="U34" s="14">
+        <f>IF(ISNUMBER(S34),IF(ISNUMBER(S33),IF(S34&gt;S33,1.0,IF(S34=S33,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>IF(ISNUMBER(S34),IF(ISNUMBER(S33),IF(S34&gt;S33,1.0,IF(S34=S33,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S34),IF(ISNUMBER(S35),IF(S34&gt;S35,1.0,IF(S34=S35,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>IF(ISNUMBER(S34),IF(ISNUMBER(S35),IF(S34&gt;S35,1.0,IF(S34=S35,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X34" s="14">
-        <f>IF(AND(ISNUMBER(R34),ISNUMBER(R33)),VLOOKUP(ABS(R34-R33),'IMP Table'!$A$2:$C$26,3)*SIGN(R34-R33),0)</f>
-        <v/>
-      </c>
-      <c r="Y34">
-        <f>IF(AND(ISNUMBER(R34),ISNUMBER(R35)),VLOOKUP(ABS(R34-R35),'IMP Table'!$A$2:$C$26,3)*SIGN(R34-R35),0)</f>
+        <f>IF(ISNUMBER(T34),IF(ISNUMBER(T33),IF(T34&gt;T33,1.0,IF(T34=T33,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X34">
+        <f>IF(ISNUMBER(T34),IF(ISNUMBER(T35),IF(T34&gt;T35,1.0,IF(T34=T35,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y34" s="14">
+        <f>IF(AND(ISNUMBER(S34),ISNUMBER(S33)),VLOOKUP(ABS(S34-S33),'IMP Table'!$A$2:$C$26,3)*SIGN(S34-S33),0)</f>
         <v/>
       </c>
       <c r="Z34">
-        <f>IF(AND(ISNUMBER(S34),ISNUMBER(S33)),VLOOKUP(ABS(S34-S33),'IMP Table'!$A$2:$C$26,3)*SIGN(S34-S33),0)</f>
+        <f>IF(AND(ISNUMBER(S34),ISNUMBER(S35)),VLOOKUP(ABS(S34-S35),'IMP Table'!$A$2:$C$26,3)*SIGN(S34-S35),0)</f>
         <v/>
       </c>
       <c r="AA34">
-        <f>IF(AND(ISNUMBER(S34),ISNUMBER(S35)),VLOOKUP(ABS(S34-S35),'IMP Table'!$A$2:$C$26,3)*SIGN(S34-S35),0)</f>
+        <f>IF(AND(ISNUMBER(T34),ISNUMBER(T33)),VLOOKUP(ABS(T34-T33),'IMP Table'!$A$2:$C$26,3)*SIGN(T34-T33),0)</f>
+        <v/>
+      </c>
+      <c r="AB34">
+        <f>IF(AND(ISNUMBER(T34),ISNUMBER(T35)),VLOOKUP(ABS(T34-T35),'IMP Table'!$A$2:$C$26,3)*SIGN(T34-T35),0)</f>
         <v/>
       </c>
     </row>
@@ -4480,92 +4537,96 @@
         <f>IF(ISBLANK('By Round'!K31),"",'By Round'!K31)</f>
         <v/>
       </c>
-      <c r="L35" s="17">
-        <f>AVERAGE(X35:Y35)</f>
-        <v/>
-      </c>
-      <c r="M35" s="18">
-        <f>AVERAGE(Z35:AA35)</f>
-        <v/>
-      </c>
-      <c r="N35" s="19">
-        <f>IF(COUNT(T35:U35)&gt;0,P35/COUNT(T35:U35),0.5)</f>
+      <c r="L35" s="15">
+        <f>IF(ISBLANK('By Round'!L31),"",'By Round'!L31)</f>
+        <v/>
+      </c>
+      <c r="M35" s="17">
+        <f>AVERAGE(Y35:Z35)</f>
+        <v/>
+      </c>
+      <c r="N35" s="18">
+        <f>AVERAGE(AA35:AB35)</f>
         <v/>
       </c>
       <c r="O35" s="19">
-        <f>IF(COUNT(V35:W35)&gt;0,Q35/COUNT(V35:W35),0.5)</f>
-        <v/>
-      </c>
-      <c r="P35" s="20">
-        <f>SUM(T35:U35)</f>
+        <f>IF(COUNT(U35:V35)&gt;0,Q35/COUNT(U35:V35),0.5)</f>
+        <v/>
+      </c>
+      <c r="P35" s="19">
+        <f>IF(COUNT(W35:X35)&gt;0,R35/COUNT(W35:X35),0.5)</f>
         <v/>
       </c>
       <c r="Q35" s="20">
-        <f>SUM(V35:W35)</f>
-        <v/>
-      </c>
-      <c r="R35" s="21">
-        <f>IF(ISNUMBER(J35),J35,IF(ISNUMBER(K35),-K35,""))</f>
-        <v/>
-      </c>
-      <c r="S35" s="15">
-        <f>IF(ISNUMBER(K35),K35,IF(ISNUMBER(J35),-J35,""))</f>
-        <v/>
-      </c>
-      <c r="T35" s="21">
-        <f>IF(ISNUMBER(R35),IF(ISNUMBER(R33),IF(R35&gt;R33,1.0,IF(R35=R33,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U35" s="15">
-        <f>IF(ISNUMBER(R35),IF(ISNUMBER(R34),IF(R35&gt;R34,1.0,IF(R35=R34,0.5,0.0)),""),"")</f>
+        <f>SUM(U35:V35)</f>
+        <v/>
+      </c>
+      <c r="R35" s="20">
+        <f>SUM(W35:X35)</f>
+        <v/>
+      </c>
+      <c r="S35" s="21">
+        <f>IF(ISNUMBER(K35),K35,IF(ISNUMBER(L35),-L35,""))</f>
+        <v/>
+      </c>
+      <c r="T35" s="15">
+        <f>IF(ISNUMBER(L35),L35,IF(ISNUMBER(K35),-K35,""))</f>
+        <v/>
+      </c>
+      <c r="U35" s="21">
+        <f>IF(ISNUMBER(S35),IF(ISNUMBER(S33),IF(S35&gt;S33,1.0,IF(S35=S33,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V35" s="15">
-        <f>IF(ISNUMBER(S35),IF(ISNUMBER(S33),IF(S35&gt;S33,1.0,IF(S35=S33,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S35),IF(ISNUMBER(S34),IF(S35&gt;S34,1.0,IF(S35=S34,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W35" s="15">
-        <f>IF(ISNUMBER(S35),IF(ISNUMBER(S34),IF(S35&gt;S34,1.0,IF(S35=S34,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X35" s="21">
-        <f>IF(AND(ISNUMBER(R35),ISNUMBER(R33)),VLOOKUP(ABS(R35-R33),'IMP Table'!$A$2:$C$26,3)*SIGN(R35-R33),0)</f>
-        <v/>
-      </c>
-      <c r="Y35" s="15">
-        <f>IF(AND(ISNUMBER(R35),ISNUMBER(R34)),VLOOKUP(ABS(R35-R34),'IMP Table'!$A$2:$C$26,3)*SIGN(R35-R34),0)</f>
+        <f>IF(ISNUMBER(T35),IF(ISNUMBER(T33),IF(T35&gt;T33,1.0,IF(T35=T33,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X35" s="15">
+        <f>IF(ISNUMBER(T35),IF(ISNUMBER(T34),IF(T35&gt;T34,1.0,IF(T35=T34,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y35" s="21">
+        <f>IF(AND(ISNUMBER(S35),ISNUMBER(S33)),VLOOKUP(ABS(S35-S33),'IMP Table'!$A$2:$C$26,3)*SIGN(S35-S33),0)</f>
         <v/>
       </c>
       <c r="Z35" s="15">
-        <f>IF(AND(ISNUMBER(S35),ISNUMBER(S33)),VLOOKUP(ABS(S35-S33),'IMP Table'!$A$2:$C$26,3)*SIGN(S35-S33),0)</f>
+        <f>IF(AND(ISNUMBER(S35),ISNUMBER(S34)),VLOOKUP(ABS(S35-S34),'IMP Table'!$A$2:$C$26,3)*SIGN(S35-S34),0)</f>
         <v/>
       </c>
       <c r="AA35" s="15">
-        <f>IF(AND(ISNUMBER(S35),ISNUMBER(S34)),VLOOKUP(ABS(S35-S34),'IMP Table'!$A$2:$C$26,3)*SIGN(S35-S34),0)</f>
+        <f>IF(AND(ISNUMBER(T35),ISNUMBER(T33)),VLOOKUP(ABS(T35-T33),'IMP Table'!$A$2:$C$26,3)*SIGN(T35-T33),0)</f>
+        <v/>
+      </c>
+      <c r="AB35" s="15">
+        <f>IF(AND(ISNUMBER(T35),ISNUMBER(T34)),VLOOKUP(ABS(T35-T34),'IMP Table'!$A$2:$C$26,3)*SIGN(T35-T34),0)</f>
         <v/>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n">
+      <c r="A36" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <f>'By Round'!A12</f>
         <v/>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="10">
         <f>'By Round'!B18</f>
         <v/>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="10">
         <f>'By Round'!C18</f>
         <v/>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="10">
         <f>'By Round'!D18</f>
         <v/>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <f>IF(ISBLANK('By Round'!F20),"",'By Round'!F20)</f>
         <v/>
       </c>
@@ -4589,89 +4650,93 @@
         <f>IF(ISBLANK('By Round'!K20),"",'By Round'!K20)</f>
         <v/>
       </c>
-      <c r="L36" s="12">
-        <f>AVERAGE(X36:Y36)</f>
-        <v/>
-      </c>
-      <c r="M36" s="13">
-        <f>AVERAGE(Z36:AA36)</f>
-        <v/>
-      </c>
-      <c r="N36" s="8">
-        <f>IF(COUNT(T36:U36)&gt;0,P36/COUNT(T36:U36),0.5)</f>
-        <v/>
-      </c>
-      <c r="O36" s="8">
-        <f>IF(COUNT(V36:W36)&gt;0,Q36/COUNT(V36:W36),0.5)</f>
-        <v/>
-      </c>
-      <c r="P36" s="5">
-        <f>SUM(T36:U36)</f>
+      <c r="L36">
+        <f>IF(ISBLANK('By Round'!L20),"",'By Round'!L20)</f>
+        <v/>
+      </c>
+      <c r="M36" s="11">
+        <f>AVERAGE(Y36:Z36)</f>
+        <v/>
+      </c>
+      <c r="N36" s="12">
+        <f>AVERAGE(AA36:AB36)</f>
+        <v/>
+      </c>
+      <c r="O36" s="13">
+        <f>IF(COUNT(U36:V36)&gt;0,Q36/COUNT(U36:V36),0.5)</f>
+        <v/>
+      </c>
+      <c r="P36" s="13">
+        <f>IF(COUNT(W36:X36)&gt;0,R36/COUNT(W36:X36),0.5)</f>
         <v/>
       </c>
       <c r="Q36" s="5">
-        <f>SUM(V36:W36)</f>
-        <v/>
-      </c>
-      <c r="R36" s="14">
-        <f>IF(ISNUMBER(J36),J36,IF(ISNUMBER(K36),-K36,""))</f>
-        <v/>
-      </c>
-      <c r="S36">
-        <f>IF(ISNUMBER(K36),K36,IF(ISNUMBER(J36),-J36,""))</f>
-        <v/>
-      </c>
-      <c r="T36" s="14">
-        <f>IF(ISNUMBER(R36),IF(ISNUMBER(R37),IF(R36&gt;R37,1.0,IF(R36=R37,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U36">
-        <f>IF(ISNUMBER(R36),IF(ISNUMBER(R38),IF(R36&gt;R38,1.0,IF(R36=R38,0.5,0.0)),""),"")</f>
+        <f>SUM(U36:V36)</f>
+        <v/>
+      </c>
+      <c r="R36" s="5">
+        <f>SUM(W36:X36)</f>
+        <v/>
+      </c>
+      <c r="S36" s="14">
+        <f>IF(ISNUMBER(K36),K36,IF(ISNUMBER(L36),-L36,""))</f>
+        <v/>
+      </c>
+      <c r="T36">
+        <f>IF(ISNUMBER(L36),L36,IF(ISNUMBER(K36),-K36,""))</f>
+        <v/>
+      </c>
+      <c r="U36" s="14">
+        <f>IF(ISNUMBER(S36),IF(ISNUMBER(S37),IF(S36&gt;S37,1.0,IF(S36=S37,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>IF(ISNUMBER(S36),IF(ISNUMBER(S37),IF(S36&gt;S37,1.0,IF(S36=S37,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S36),IF(ISNUMBER(S38),IF(S36&gt;S38,1.0,IF(S36=S38,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>IF(ISNUMBER(S36),IF(ISNUMBER(S38),IF(S36&gt;S38,1.0,IF(S36=S38,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X36" s="14">
-        <f>IF(AND(ISNUMBER(R36),ISNUMBER(R37)),VLOOKUP(ABS(R36-R37),'IMP Table'!$A$2:$C$26,3)*SIGN(R36-R37),0)</f>
-        <v/>
-      </c>
-      <c r="Y36">
-        <f>IF(AND(ISNUMBER(R36),ISNUMBER(R38)),VLOOKUP(ABS(R36-R38),'IMP Table'!$A$2:$C$26,3)*SIGN(R36-R38),0)</f>
+        <f>IF(ISNUMBER(T36),IF(ISNUMBER(T37),IF(T36&gt;T37,1.0,IF(T36=T37,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X36">
+        <f>IF(ISNUMBER(T36),IF(ISNUMBER(T38),IF(T36&gt;T38,1.0,IF(T36=T38,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y36" s="14">
+        <f>IF(AND(ISNUMBER(S36),ISNUMBER(S37)),VLOOKUP(ABS(S36-S37),'IMP Table'!$A$2:$C$26,3)*SIGN(S36-S37),0)</f>
         <v/>
       </c>
       <c r="Z36">
-        <f>IF(AND(ISNUMBER(S36),ISNUMBER(S37)),VLOOKUP(ABS(S36-S37),'IMP Table'!$A$2:$C$26,3)*SIGN(S36-S37),0)</f>
+        <f>IF(AND(ISNUMBER(S36),ISNUMBER(S38)),VLOOKUP(ABS(S36-S38),'IMP Table'!$A$2:$C$26,3)*SIGN(S36-S38),0)</f>
         <v/>
       </c>
       <c r="AA36">
-        <f>IF(AND(ISNUMBER(S36),ISNUMBER(S38)),VLOOKUP(ABS(S36-S38),'IMP Table'!$A$2:$C$26,3)*SIGN(S36-S38),0)</f>
+        <f>IF(AND(ISNUMBER(T36),ISNUMBER(T37)),VLOOKUP(ABS(T36-T37),'IMP Table'!$A$2:$C$26,3)*SIGN(T36-T37),0)</f>
+        <v/>
+      </c>
+      <c r="AB36">
+        <f>IF(AND(ISNUMBER(T36),ISNUMBER(T38)),VLOOKUP(ABS(T36-T38),'IMP Table'!$A$2:$C$26,3)*SIGN(T36-T38),0)</f>
         <v/>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="10">
         <f>'By Round'!B9</f>
         <v/>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="10">
         <f>'By Round'!C9</f>
         <v/>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="10">
         <f>'By Round'!D9</f>
         <v/>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <f>IF(ISBLANK('By Round'!F11),"",'By Round'!F11)</f>
         <v/>
       </c>
@@ -4695,68 +4760,72 @@
         <f>IF(ISBLANK('By Round'!K11),"",'By Round'!K11)</f>
         <v/>
       </c>
-      <c r="L37" s="12">
-        <f>AVERAGE(X37:Y37)</f>
-        <v/>
-      </c>
-      <c r="M37" s="13">
-        <f>AVERAGE(Z37:AA37)</f>
-        <v/>
-      </c>
-      <c r="N37" s="8">
-        <f>IF(COUNT(T37:U37)&gt;0,P37/COUNT(T37:U37),0.5)</f>
-        <v/>
-      </c>
-      <c r="O37" s="8">
-        <f>IF(COUNT(V37:W37)&gt;0,Q37/COUNT(V37:W37),0.5)</f>
-        <v/>
-      </c>
-      <c r="P37" s="5">
-        <f>SUM(T37:U37)</f>
+      <c r="L37">
+        <f>IF(ISBLANK('By Round'!L11),"",'By Round'!L11)</f>
+        <v/>
+      </c>
+      <c r="M37" s="11">
+        <f>AVERAGE(Y37:Z37)</f>
+        <v/>
+      </c>
+      <c r="N37" s="12">
+        <f>AVERAGE(AA37:AB37)</f>
+        <v/>
+      </c>
+      <c r="O37" s="13">
+        <f>IF(COUNT(U37:V37)&gt;0,Q37/COUNT(U37:V37),0.5)</f>
+        <v/>
+      </c>
+      <c r="P37" s="13">
+        <f>IF(COUNT(W37:X37)&gt;0,R37/COUNT(W37:X37),0.5)</f>
         <v/>
       </c>
       <c r="Q37" s="5">
-        <f>SUM(V37:W37)</f>
-        <v/>
-      </c>
-      <c r="R37" s="14">
-        <f>IF(ISNUMBER(J37),J37,IF(ISNUMBER(K37),-K37,""))</f>
-        <v/>
-      </c>
-      <c r="S37">
-        <f>IF(ISNUMBER(K37),K37,IF(ISNUMBER(J37),-J37,""))</f>
-        <v/>
-      </c>
-      <c r="T37" s="14">
-        <f>IF(ISNUMBER(R37),IF(ISNUMBER(R36),IF(R37&gt;R36,1.0,IF(R37=R36,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U37">
-        <f>IF(ISNUMBER(R37),IF(ISNUMBER(R38),IF(R37&gt;R38,1.0,IF(R37=R38,0.5,0.0)),""),"")</f>
+        <f>SUM(U37:V37)</f>
+        <v/>
+      </c>
+      <c r="R37" s="5">
+        <f>SUM(W37:X37)</f>
+        <v/>
+      </c>
+      <c r="S37" s="14">
+        <f>IF(ISNUMBER(K37),K37,IF(ISNUMBER(L37),-L37,""))</f>
+        <v/>
+      </c>
+      <c r="T37">
+        <f>IF(ISNUMBER(L37),L37,IF(ISNUMBER(K37),-K37,""))</f>
+        <v/>
+      </c>
+      <c r="U37" s="14">
+        <f>IF(ISNUMBER(S37),IF(ISNUMBER(S36),IF(S37&gt;S36,1.0,IF(S37=S36,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>IF(ISNUMBER(S37),IF(ISNUMBER(S36),IF(S37&gt;S36,1.0,IF(S37=S36,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S37),IF(ISNUMBER(S38),IF(S37&gt;S38,1.0,IF(S37=S38,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>IF(ISNUMBER(S37),IF(ISNUMBER(S38),IF(S37&gt;S38,1.0,IF(S37=S38,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X37" s="14">
-        <f>IF(AND(ISNUMBER(R37),ISNUMBER(R36)),VLOOKUP(ABS(R37-R36),'IMP Table'!$A$2:$C$26,3)*SIGN(R37-R36),0)</f>
-        <v/>
-      </c>
-      <c r="Y37">
-        <f>IF(AND(ISNUMBER(R37),ISNUMBER(R38)),VLOOKUP(ABS(R37-R38),'IMP Table'!$A$2:$C$26,3)*SIGN(R37-R38),0)</f>
+        <f>IF(ISNUMBER(T37),IF(ISNUMBER(T36),IF(T37&gt;T36,1.0,IF(T37=T36,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X37">
+        <f>IF(ISNUMBER(T37),IF(ISNUMBER(T38),IF(T37&gt;T38,1.0,IF(T37=T38,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y37" s="14">
+        <f>IF(AND(ISNUMBER(S37),ISNUMBER(S36)),VLOOKUP(ABS(S37-S36),'IMP Table'!$A$2:$C$26,3)*SIGN(S37-S36),0)</f>
         <v/>
       </c>
       <c r="Z37">
-        <f>IF(AND(ISNUMBER(S37),ISNUMBER(S36)),VLOOKUP(ABS(S37-S36),'IMP Table'!$A$2:$C$26,3)*SIGN(S37-S36),0)</f>
+        <f>IF(AND(ISNUMBER(S37),ISNUMBER(S38)),VLOOKUP(ABS(S37-S38),'IMP Table'!$A$2:$C$26,3)*SIGN(S37-S38),0)</f>
         <v/>
       </c>
       <c r="AA37">
-        <f>IF(AND(ISNUMBER(S37),ISNUMBER(S38)),VLOOKUP(ABS(S37-S38),'IMP Table'!$A$2:$C$26,3)*SIGN(S37-S38),0)</f>
+        <f>IF(AND(ISNUMBER(T37),ISNUMBER(T36)),VLOOKUP(ABS(T37-T36),'IMP Table'!$A$2:$C$26,3)*SIGN(T37-T36),0)</f>
+        <v/>
+      </c>
+      <c r="AB37">
+        <f>IF(AND(ISNUMBER(T37),ISNUMBER(T38)),VLOOKUP(ABS(T37-T38),'IMP Table'!$A$2:$C$26,3)*SIGN(T37-T38),0)</f>
         <v/>
       </c>
     </row>
@@ -4802,92 +4871,96 @@
         <f>IF(ISBLANK('By Round'!K32),"",'By Round'!K32)</f>
         <v/>
       </c>
-      <c r="L38" s="17">
-        <f>AVERAGE(X38:Y38)</f>
-        <v/>
-      </c>
-      <c r="M38" s="18">
-        <f>AVERAGE(Z38:AA38)</f>
-        <v/>
-      </c>
-      <c r="N38" s="19">
-        <f>IF(COUNT(T38:U38)&gt;0,P38/COUNT(T38:U38),0.5)</f>
+      <c r="L38" s="15">
+        <f>IF(ISBLANK('By Round'!L32),"",'By Round'!L32)</f>
+        <v/>
+      </c>
+      <c r="M38" s="17">
+        <f>AVERAGE(Y38:Z38)</f>
+        <v/>
+      </c>
+      <c r="N38" s="18">
+        <f>AVERAGE(AA38:AB38)</f>
         <v/>
       </c>
       <c r="O38" s="19">
-        <f>IF(COUNT(V38:W38)&gt;0,Q38/COUNT(V38:W38),0.5)</f>
-        <v/>
-      </c>
-      <c r="P38" s="20">
-        <f>SUM(T38:U38)</f>
+        <f>IF(COUNT(U38:V38)&gt;0,Q38/COUNT(U38:V38),0.5)</f>
+        <v/>
+      </c>
+      <c r="P38" s="19">
+        <f>IF(COUNT(W38:X38)&gt;0,R38/COUNT(W38:X38),0.5)</f>
         <v/>
       </c>
       <c r="Q38" s="20">
-        <f>SUM(V38:W38)</f>
-        <v/>
-      </c>
-      <c r="R38" s="21">
-        <f>IF(ISNUMBER(J38),J38,IF(ISNUMBER(K38),-K38,""))</f>
-        <v/>
-      </c>
-      <c r="S38" s="15">
-        <f>IF(ISNUMBER(K38),K38,IF(ISNUMBER(J38),-J38,""))</f>
-        <v/>
-      </c>
-      <c r="T38" s="21">
-        <f>IF(ISNUMBER(R38),IF(ISNUMBER(R36),IF(R38&gt;R36,1.0,IF(R38=R36,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U38" s="15">
-        <f>IF(ISNUMBER(R38),IF(ISNUMBER(R37),IF(R38&gt;R37,1.0,IF(R38=R37,0.5,0.0)),""),"")</f>
+        <f>SUM(U38:V38)</f>
+        <v/>
+      </c>
+      <c r="R38" s="20">
+        <f>SUM(W38:X38)</f>
+        <v/>
+      </c>
+      <c r="S38" s="21">
+        <f>IF(ISNUMBER(K38),K38,IF(ISNUMBER(L38),-L38,""))</f>
+        <v/>
+      </c>
+      <c r="T38" s="15">
+        <f>IF(ISNUMBER(L38),L38,IF(ISNUMBER(K38),-K38,""))</f>
+        <v/>
+      </c>
+      <c r="U38" s="21">
+        <f>IF(ISNUMBER(S38),IF(ISNUMBER(S36),IF(S38&gt;S36,1.0,IF(S38=S36,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V38" s="15">
-        <f>IF(ISNUMBER(S38),IF(ISNUMBER(S36),IF(S38&gt;S36,1.0,IF(S38=S36,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S38),IF(ISNUMBER(S37),IF(S38&gt;S37,1.0,IF(S38=S37,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W38" s="15">
-        <f>IF(ISNUMBER(S38),IF(ISNUMBER(S37),IF(S38&gt;S37,1.0,IF(S38=S37,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X38" s="21">
-        <f>IF(AND(ISNUMBER(R38),ISNUMBER(R36)),VLOOKUP(ABS(R38-R36),'IMP Table'!$A$2:$C$26,3)*SIGN(R38-R36),0)</f>
-        <v/>
-      </c>
-      <c r="Y38" s="15">
-        <f>IF(AND(ISNUMBER(R38),ISNUMBER(R37)),VLOOKUP(ABS(R38-R37),'IMP Table'!$A$2:$C$26,3)*SIGN(R38-R37),0)</f>
+        <f>IF(ISNUMBER(T38),IF(ISNUMBER(T36),IF(T38&gt;T36,1.0,IF(T38=T36,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X38" s="15">
+        <f>IF(ISNUMBER(T38),IF(ISNUMBER(T37),IF(T38&gt;T37,1.0,IF(T38=T37,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y38" s="21">
+        <f>IF(AND(ISNUMBER(S38),ISNUMBER(S36)),VLOOKUP(ABS(S38-S36),'IMP Table'!$A$2:$C$26,3)*SIGN(S38-S36),0)</f>
         <v/>
       </c>
       <c r="Z38" s="15">
-        <f>IF(AND(ISNUMBER(S38),ISNUMBER(S36)),VLOOKUP(ABS(S38-S36),'IMP Table'!$A$2:$C$26,3)*SIGN(S38-S36),0)</f>
+        <f>IF(AND(ISNUMBER(S38),ISNUMBER(S37)),VLOOKUP(ABS(S38-S37),'IMP Table'!$A$2:$C$26,3)*SIGN(S38-S37),0)</f>
         <v/>
       </c>
       <c r="AA38" s="15">
-        <f>IF(AND(ISNUMBER(S38),ISNUMBER(S37)),VLOOKUP(ABS(S38-S37),'IMP Table'!$A$2:$C$26,3)*SIGN(S38-S37),0)</f>
+        <f>IF(AND(ISNUMBER(T38),ISNUMBER(T36)),VLOOKUP(ABS(T38-T36),'IMP Table'!$A$2:$C$26,3)*SIGN(T38-T36),0)</f>
+        <v/>
+      </c>
+      <c r="AB38" s="15">
+        <f>IF(AND(ISNUMBER(T38),ISNUMBER(T37)),VLOOKUP(ABS(T38-T37),'IMP Table'!$A$2:$C$26,3)*SIGN(T38-T37),0)</f>
         <v/>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n">
+      <c r="A39" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="10">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="10">
         <f>'By Round'!B42</f>
         <v/>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="10">
         <f>'By Round'!C42</f>
         <v/>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="10">
         <f>'By Round'!D42</f>
         <v/>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="10">
         <f>IF(ISBLANK('By Round'!F42),"",'By Round'!F42)</f>
         <v/>
       </c>
@@ -4911,89 +4984,93 @@
         <f>IF(ISBLANK('By Round'!K42),"",'By Round'!K42)</f>
         <v/>
       </c>
-      <c r="L39" s="12">
-        <f>AVERAGE(X39:Y39)</f>
-        <v/>
-      </c>
-      <c r="M39" s="13">
-        <f>AVERAGE(Z39:AA39)</f>
-        <v/>
-      </c>
-      <c r="N39" s="8">
-        <f>IF(COUNT(T39:U39)&gt;0,P39/COUNT(T39:U39),0.5)</f>
-        <v/>
-      </c>
-      <c r="O39" s="8">
-        <f>IF(COUNT(V39:W39)&gt;0,Q39/COUNT(V39:W39),0.5)</f>
-        <v/>
-      </c>
-      <c r="P39" s="5">
-        <f>SUM(T39:U39)</f>
+      <c r="L39">
+        <f>IF(ISBLANK('By Round'!L42),"",'By Round'!L42)</f>
+        <v/>
+      </c>
+      <c r="M39" s="11">
+        <f>AVERAGE(Y39:Z39)</f>
+        <v/>
+      </c>
+      <c r="N39" s="12">
+        <f>AVERAGE(AA39:AB39)</f>
+        <v/>
+      </c>
+      <c r="O39" s="13">
+        <f>IF(COUNT(U39:V39)&gt;0,Q39/COUNT(U39:V39),0.5)</f>
+        <v/>
+      </c>
+      <c r="P39" s="13">
+        <f>IF(COUNT(W39:X39)&gt;0,R39/COUNT(W39:X39),0.5)</f>
         <v/>
       </c>
       <c r="Q39" s="5">
-        <f>SUM(V39:W39)</f>
-        <v/>
-      </c>
-      <c r="R39" s="14">
-        <f>IF(ISNUMBER(J39),J39,IF(ISNUMBER(K39),-K39,""))</f>
-        <v/>
-      </c>
-      <c r="S39">
-        <f>IF(ISNUMBER(K39),K39,IF(ISNUMBER(J39),-J39,""))</f>
-        <v/>
-      </c>
-      <c r="T39" s="14">
-        <f>IF(ISNUMBER(R39),IF(ISNUMBER(R40),IF(R39&gt;R40,1.0,IF(R39=R40,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U39">
-        <f>IF(ISNUMBER(R39),IF(ISNUMBER(R41),IF(R39&gt;R41,1.0,IF(R39=R41,0.5,0.0)),""),"")</f>
+        <f>SUM(U39:V39)</f>
+        <v/>
+      </c>
+      <c r="R39" s="5">
+        <f>SUM(W39:X39)</f>
+        <v/>
+      </c>
+      <c r="S39" s="14">
+        <f>IF(ISNUMBER(K39),K39,IF(ISNUMBER(L39),-L39,""))</f>
+        <v/>
+      </c>
+      <c r="T39">
+        <f>IF(ISNUMBER(L39),L39,IF(ISNUMBER(K39),-K39,""))</f>
+        <v/>
+      </c>
+      <c r="U39" s="14">
+        <f>IF(ISNUMBER(S39),IF(ISNUMBER(S40),IF(S39&gt;S40,1.0,IF(S39=S40,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>IF(ISNUMBER(S39),IF(ISNUMBER(S40),IF(S39&gt;S40,1.0,IF(S39=S40,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S39),IF(ISNUMBER(S41),IF(S39&gt;S41,1.0,IF(S39=S41,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>IF(ISNUMBER(S39),IF(ISNUMBER(S41),IF(S39&gt;S41,1.0,IF(S39=S41,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X39" s="14">
-        <f>IF(AND(ISNUMBER(R39),ISNUMBER(R40)),VLOOKUP(ABS(R39-R40),'IMP Table'!$A$2:$C$26,3)*SIGN(R39-R40),0)</f>
-        <v/>
-      </c>
-      <c r="Y39">
-        <f>IF(AND(ISNUMBER(R39),ISNUMBER(R41)),VLOOKUP(ABS(R39-R41),'IMP Table'!$A$2:$C$26,3)*SIGN(R39-R41),0)</f>
+        <f>IF(ISNUMBER(T39),IF(ISNUMBER(T40),IF(T39&gt;T40,1.0,IF(T39=T40,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X39">
+        <f>IF(ISNUMBER(T39),IF(ISNUMBER(T41),IF(T39&gt;T41,1.0,IF(T39=T41,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y39" s="14">
+        <f>IF(AND(ISNUMBER(S39),ISNUMBER(S40)),VLOOKUP(ABS(S39-S40),'IMP Table'!$A$2:$C$26,3)*SIGN(S39-S40),0)</f>
         <v/>
       </c>
       <c r="Z39">
-        <f>IF(AND(ISNUMBER(S39),ISNUMBER(S40)),VLOOKUP(ABS(S39-S40),'IMP Table'!$A$2:$C$26,3)*SIGN(S39-S40),0)</f>
+        <f>IF(AND(ISNUMBER(S39),ISNUMBER(S41)),VLOOKUP(ABS(S39-S41),'IMP Table'!$A$2:$C$26,3)*SIGN(S39-S41),0)</f>
         <v/>
       </c>
       <c r="AA39">
-        <f>IF(AND(ISNUMBER(S39),ISNUMBER(S41)),VLOOKUP(ABS(S39-S41),'IMP Table'!$A$2:$C$26,3)*SIGN(S39-S41),0)</f>
+        <f>IF(AND(ISNUMBER(T39),ISNUMBER(T40)),VLOOKUP(ABS(T39-T40),'IMP Table'!$A$2:$C$26,3)*SIGN(T39-T40),0)</f>
+        <v/>
+      </c>
+      <c r="AB39">
+        <f>IF(AND(ISNUMBER(T39),ISNUMBER(T41)),VLOOKUP(ABS(T39-T41),'IMP Table'!$A$2:$C$26,3)*SIGN(T39-T41),0)</f>
         <v/>
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="10">
         <f>'By Round'!B45</f>
         <v/>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="10">
         <f>'By Round'!C45</f>
         <v/>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="10">
         <f>'By Round'!D45</f>
         <v/>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <f>IF(ISBLANK('By Round'!F45),"",'By Round'!F45)</f>
         <v/>
       </c>
@@ -5017,68 +5094,72 @@
         <f>IF(ISBLANK('By Round'!K45),"",'By Round'!K45)</f>
         <v/>
       </c>
-      <c r="L40" s="12">
-        <f>AVERAGE(X40:Y40)</f>
-        <v/>
-      </c>
-      <c r="M40" s="13">
-        <f>AVERAGE(Z40:AA40)</f>
-        <v/>
-      </c>
-      <c r="N40" s="8">
-        <f>IF(COUNT(T40:U40)&gt;0,P40/COUNT(T40:U40),0.5)</f>
-        <v/>
-      </c>
-      <c r="O40" s="8">
-        <f>IF(COUNT(V40:W40)&gt;0,Q40/COUNT(V40:W40),0.5)</f>
-        <v/>
-      </c>
-      <c r="P40" s="5">
-        <f>SUM(T40:U40)</f>
+      <c r="L40">
+        <f>IF(ISBLANK('By Round'!L45),"",'By Round'!L45)</f>
+        <v/>
+      </c>
+      <c r="M40" s="11">
+        <f>AVERAGE(Y40:Z40)</f>
+        <v/>
+      </c>
+      <c r="N40" s="12">
+        <f>AVERAGE(AA40:AB40)</f>
+        <v/>
+      </c>
+      <c r="O40" s="13">
+        <f>IF(COUNT(U40:V40)&gt;0,Q40/COUNT(U40:V40),0.5)</f>
+        <v/>
+      </c>
+      <c r="P40" s="13">
+        <f>IF(COUNT(W40:X40)&gt;0,R40/COUNT(W40:X40),0.5)</f>
         <v/>
       </c>
       <c r="Q40" s="5">
-        <f>SUM(V40:W40)</f>
-        <v/>
-      </c>
-      <c r="R40" s="14">
-        <f>IF(ISNUMBER(J40),J40,IF(ISNUMBER(K40),-K40,""))</f>
-        <v/>
-      </c>
-      <c r="S40">
-        <f>IF(ISNUMBER(K40),K40,IF(ISNUMBER(J40),-J40,""))</f>
-        <v/>
-      </c>
-      <c r="T40" s="14">
-        <f>IF(ISNUMBER(R40),IF(ISNUMBER(R39),IF(R40&gt;R39,1.0,IF(R40=R39,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U40">
-        <f>IF(ISNUMBER(R40),IF(ISNUMBER(R41),IF(R40&gt;R41,1.0,IF(R40=R41,0.5,0.0)),""),"")</f>
+        <f>SUM(U40:V40)</f>
+        <v/>
+      </c>
+      <c r="R40" s="5">
+        <f>SUM(W40:X40)</f>
+        <v/>
+      </c>
+      <c r="S40" s="14">
+        <f>IF(ISNUMBER(K40),K40,IF(ISNUMBER(L40),-L40,""))</f>
+        <v/>
+      </c>
+      <c r="T40">
+        <f>IF(ISNUMBER(L40),L40,IF(ISNUMBER(K40),-K40,""))</f>
+        <v/>
+      </c>
+      <c r="U40" s="14">
+        <f>IF(ISNUMBER(S40),IF(ISNUMBER(S39),IF(S40&gt;S39,1.0,IF(S40=S39,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>IF(ISNUMBER(S40),IF(ISNUMBER(S39),IF(S40&gt;S39,1.0,IF(S40=S39,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S40),IF(ISNUMBER(S41),IF(S40&gt;S41,1.0,IF(S40=S41,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>IF(ISNUMBER(S40),IF(ISNUMBER(S41),IF(S40&gt;S41,1.0,IF(S40=S41,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X40" s="14">
-        <f>IF(AND(ISNUMBER(R40),ISNUMBER(R39)),VLOOKUP(ABS(R40-R39),'IMP Table'!$A$2:$C$26,3)*SIGN(R40-R39),0)</f>
-        <v/>
-      </c>
-      <c r="Y40">
-        <f>IF(AND(ISNUMBER(R40),ISNUMBER(R41)),VLOOKUP(ABS(R40-R41),'IMP Table'!$A$2:$C$26,3)*SIGN(R40-R41),0)</f>
+        <f>IF(ISNUMBER(T40),IF(ISNUMBER(T39),IF(T40&gt;T39,1.0,IF(T40=T39,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X40">
+        <f>IF(ISNUMBER(T40),IF(ISNUMBER(T41),IF(T40&gt;T41,1.0,IF(T40=T41,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y40" s="14">
+        <f>IF(AND(ISNUMBER(S40),ISNUMBER(S39)),VLOOKUP(ABS(S40-S39),'IMP Table'!$A$2:$C$26,3)*SIGN(S40-S39),0)</f>
         <v/>
       </c>
       <c r="Z40">
-        <f>IF(AND(ISNUMBER(S40),ISNUMBER(S39)),VLOOKUP(ABS(S40-S39),'IMP Table'!$A$2:$C$26,3)*SIGN(S40-S39),0)</f>
+        <f>IF(AND(ISNUMBER(S40),ISNUMBER(S41)),VLOOKUP(ABS(S40-S41),'IMP Table'!$A$2:$C$26,3)*SIGN(S40-S41),0)</f>
         <v/>
       </c>
       <c r="AA40">
-        <f>IF(AND(ISNUMBER(S40),ISNUMBER(S41)),VLOOKUP(ABS(S40-S41),'IMP Table'!$A$2:$C$26,3)*SIGN(S40-S41),0)</f>
+        <f>IF(AND(ISNUMBER(T40),ISNUMBER(T39)),VLOOKUP(ABS(T40-T39),'IMP Table'!$A$2:$C$26,3)*SIGN(T40-T39),0)</f>
+        <v/>
+      </c>
+      <c r="AB40">
+        <f>IF(AND(ISNUMBER(T40),ISNUMBER(T41)),VLOOKUP(ABS(T40-T41),'IMP Table'!$A$2:$C$26,3)*SIGN(T40-T41),0)</f>
         <v/>
       </c>
     </row>
@@ -5124,92 +5205,96 @@
         <f>IF(ISBLANK('By Round'!K39),"",'By Round'!K39)</f>
         <v/>
       </c>
-      <c r="L41" s="17">
-        <f>AVERAGE(X41:Y41)</f>
-        <v/>
-      </c>
-      <c r="M41" s="18">
-        <f>AVERAGE(Z41:AA41)</f>
-        <v/>
-      </c>
-      <c r="N41" s="19">
-        <f>IF(COUNT(T41:U41)&gt;0,P41/COUNT(T41:U41),0.5)</f>
+      <c r="L41" s="15">
+        <f>IF(ISBLANK('By Round'!L39),"",'By Round'!L39)</f>
+        <v/>
+      </c>
+      <c r="M41" s="17">
+        <f>AVERAGE(Y41:Z41)</f>
+        <v/>
+      </c>
+      <c r="N41" s="18">
+        <f>AVERAGE(AA41:AB41)</f>
         <v/>
       </c>
       <c r="O41" s="19">
-        <f>IF(COUNT(V41:W41)&gt;0,Q41/COUNT(V41:W41),0.5)</f>
-        <v/>
-      </c>
-      <c r="P41" s="20">
-        <f>SUM(T41:U41)</f>
+        <f>IF(COUNT(U41:V41)&gt;0,Q41/COUNT(U41:V41),0.5)</f>
+        <v/>
+      </c>
+      <c r="P41" s="19">
+        <f>IF(COUNT(W41:X41)&gt;0,R41/COUNT(W41:X41),0.5)</f>
         <v/>
       </c>
       <c r="Q41" s="20">
-        <f>SUM(V41:W41)</f>
-        <v/>
-      </c>
-      <c r="R41" s="21">
-        <f>IF(ISNUMBER(J41),J41,IF(ISNUMBER(K41),-K41,""))</f>
-        <v/>
-      </c>
-      <c r="S41" s="15">
-        <f>IF(ISNUMBER(K41),K41,IF(ISNUMBER(J41),-J41,""))</f>
-        <v/>
-      </c>
-      <c r="T41" s="21">
-        <f>IF(ISNUMBER(R41),IF(ISNUMBER(R39),IF(R41&gt;R39,1.0,IF(R41=R39,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U41" s="15">
-        <f>IF(ISNUMBER(R41),IF(ISNUMBER(R40),IF(R41&gt;R40,1.0,IF(R41=R40,0.5,0.0)),""),"")</f>
+        <f>SUM(U41:V41)</f>
+        <v/>
+      </c>
+      <c r="R41" s="20">
+        <f>SUM(W41:X41)</f>
+        <v/>
+      </c>
+      <c r="S41" s="21">
+        <f>IF(ISNUMBER(K41),K41,IF(ISNUMBER(L41),-L41,""))</f>
+        <v/>
+      </c>
+      <c r="T41" s="15">
+        <f>IF(ISNUMBER(L41),L41,IF(ISNUMBER(K41),-K41,""))</f>
+        <v/>
+      </c>
+      <c r="U41" s="21">
+        <f>IF(ISNUMBER(S41),IF(ISNUMBER(S39),IF(S41&gt;S39,1.0,IF(S41=S39,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V41" s="15">
-        <f>IF(ISNUMBER(S41),IF(ISNUMBER(S39),IF(S41&gt;S39,1.0,IF(S41=S39,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S41),IF(ISNUMBER(S40),IF(S41&gt;S40,1.0,IF(S41=S40,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W41" s="15">
-        <f>IF(ISNUMBER(S41),IF(ISNUMBER(S40),IF(S41&gt;S40,1.0,IF(S41=S40,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X41" s="21">
-        <f>IF(AND(ISNUMBER(R41),ISNUMBER(R39)),VLOOKUP(ABS(R41-R39),'IMP Table'!$A$2:$C$26,3)*SIGN(R41-R39),0)</f>
-        <v/>
-      </c>
-      <c r="Y41" s="15">
-        <f>IF(AND(ISNUMBER(R41),ISNUMBER(R40)),VLOOKUP(ABS(R41-R40),'IMP Table'!$A$2:$C$26,3)*SIGN(R41-R40),0)</f>
+        <f>IF(ISNUMBER(T41),IF(ISNUMBER(T39),IF(T41&gt;T39,1.0,IF(T41=T39,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X41" s="15">
+        <f>IF(ISNUMBER(T41),IF(ISNUMBER(T40),IF(T41&gt;T40,1.0,IF(T41=T40,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y41" s="21">
+        <f>IF(AND(ISNUMBER(S41),ISNUMBER(S39)),VLOOKUP(ABS(S41-S39),'IMP Table'!$A$2:$C$26,3)*SIGN(S41-S39),0)</f>
         <v/>
       </c>
       <c r="Z41" s="15">
-        <f>IF(AND(ISNUMBER(S41),ISNUMBER(S39)),VLOOKUP(ABS(S41-S39),'IMP Table'!$A$2:$C$26,3)*SIGN(S41-S39),0)</f>
+        <f>IF(AND(ISNUMBER(S41),ISNUMBER(S40)),VLOOKUP(ABS(S41-S40),'IMP Table'!$A$2:$C$26,3)*SIGN(S41-S40),0)</f>
         <v/>
       </c>
       <c r="AA41" s="15">
-        <f>IF(AND(ISNUMBER(S41),ISNUMBER(S40)),VLOOKUP(ABS(S41-S40),'IMP Table'!$A$2:$C$26,3)*SIGN(S41-S40),0)</f>
+        <f>IF(AND(ISNUMBER(T41),ISNUMBER(T39)),VLOOKUP(ABS(T41-T39),'IMP Table'!$A$2:$C$26,3)*SIGN(T41-T39),0)</f>
+        <v/>
+      </c>
+      <c r="AB41" s="15">
+        <f>IF(AND(ISNUMBER(T41),ISNUMBER(T40)),VLOOKUP(ABS(T41-T40),'IMP Table'!$A$2:$C$26,3)*SIGN(T41-T40),0)</f>
         <v/>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="11" t="n">
+      <c r="A42" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="10">
         <f>'By Round'!B42</f>
         <v/>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="10">
         <f>'By Round'!C42</f>
         <v/>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="10">
         <f>'By Round'!D42</f>
         <v/>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="10">
         <f>IF(ISBLANK('By Round'!F43),"",'By Round'!F43)</f>
         <v/>
       </c>
@@ -5233,89 +5318,93 @@
         <f>IF(ISBLANK('By Round'!K43),"",'By Round'!K43)</f>
         <v/>
       </c>
-      <c r="L42" s="12">
-        <f>AVERAGE(X42:Y42)</f>
-        <v/>
-      </c>
-      <c r="M42" s="13">
-        <f>AVERAGE(Z42:AA42)</f>
-        <v/>
-      </c>
-      <c r="N42" s="8">
-        <f>IF(COUNT(T42:U42)&gt;0,P42/COUNT(T42:U42),0.5)</f>
-        <v/>
-      </c>
-      <c r="O42" s="8">
-        <f>IF(COUNT(V42:W42)&gt;0,Q42/COUNT(V42:W42),0.5)</f>
-        <v/>
-      </c>
-      <c r="P42" s="5">
-        <f>SUM(T42:U42)</f>
+      <c r="L42">
+        <f>IF(ISBLANK('By Round'!L43),"",'By Round'!L43)</f>
+        <v/>
+      </c>
+      <c r="M42" s="11">
+        <f>AVERAGE(Y42:Z42)</f>
+        <v/>
+      </c>
+      <c r="N42" s="12">
+        <f>AVERAGE(AA42:AB42)</f>
+        <v/>
+      </c>
+      <c r="O42" s="13">
+        <f>IF(COUNT(U42:V42)&gt;0,Q42/COUNT(U42:V42),0.5)</f>
+        <v/>
+      </c>
+      <c r="P42" s="13">
+        <f>IF(COUNT(W42:X42)&gt;0,R42/COUNT(W42:X42),0.5)</f>
         <v/>
       </c>
       <c r="Q42" s="5">
-        <f>SUM(V42:W42)</f>
-        <v/>
-      </c>
-      <c r="R42" s="14">
-        <f>IF(ISNUMBER(J42),J42,IF(ISNUMBER(K42),-K42,""))</f>
-        <v/>
-      </c>
-      <c r="S42">
-        <f>IF(ISNUMBER(K42),K42,IF(ISNUMBER(J42),-J42,""))</f>
-        <v/>
-      </c>
-      <c r="T42" s="14">
-        <f>IF(ISNUMBER(R42),IF(ISNUMBER(R43),IF(R42&gt;R43,1.0,IF(R42=R43,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U42">
-        <f>IF(ISNUMBER(R42),IF(ISNUMBER(R44),IF(R42&gt;R44,1.0,IF(R42=R44,0.5,0.0)),""),"")</f>
+        <f>SUM(U42:V42)</f>
+        <v/>
+      </c>
+      <c r="R42" s="5">
+        <f>SUM(W42:X42)</f>
+        <v/>
+      </c>
+      <c r="S42" s="14">
+        <f>IF(ISNUMBER(K42),K42,IF(ISNUMBER(L42),-L42,""))</f>
+        <v/>
+      </c>
+      <c r="T42">
+        <f>IF(ISNUMBER(L42),L42,IF(ISNUMBER(K42),-K42,""))</f>
+        <v/>
+      </c>
+      <c r="U42" s="14">
+        <f>IF(ISNUMBER(S42),IF(ISNUMBER(S43),IF(S42&gt;S43,1.0,IF(S42=S43,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>IF(ISNUMBER(S42),IF(ISNUMBER(S43),IF(S42&gt;S43,1.0,IF(S42=S43,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S42),IF(ISNUMBER(S44),IF(S42&gt;S44,1.0,IF(S42=S44,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>IF(ISNUMBER(S42),IF(ISNUMBER(S44),IF(S42&gt;S44,1.0,IF(S42=S44,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X42" s="14">
-        <f>IF(AND(ISNUMBER(R42),ISNUMBER(R43)),VLOOKUP(ABS(R42-R43),'IMP Table'!$A$2:$C$26,3)*SIGN(R42-R43),0)</f>
-        <v/>
-      </c>
-      <c r="Y42">
-        <f>IF(AND(ISNUMBER(R42),ISNUMBER(R44)),VLOOKUP(ABS(R42-R44),'IMP Table'!$A$2:$C$26,3)*SIGN(R42-R44),0)</f>
+        <f>IF(ISNUMBER(T42),IF(ISNUMBER(T43),IF(T42&gt;T43,1.0,IF(T42=T43,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X42">
+        <f>IF(ISNUMBER(T42),IF(ISNUMBER(T44),IF(T42&gt;T44,1.0,IF(T42=T44,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y42" s="14">
+        <f>IF(AND(ISNUMBER(S42),ISNUMBER(S43)),VLOOKUP(ABS(S42-S43),'IMP Table'!$A$2:$C$26,3)*SIGN(S42-S43),0)</f>
         <v/>
       </c>
       <c r="Z42">
-        <f>IF(AND(ISNUMBER(S42),ISNUMBER(S43)),VLOOKUP(ABS(S42-S43),'IMP Table'!$A$2:$C$26,3)*SIGN(S42-S43),0)</f>
+        <f>IF(AND(ISNUMBER(S42),ISNUMBER(S44)),VLOOKUP(ABS(S42-S44),'IMP Table'!$A$2:$C$26,3)*SIGN(S42-S44),0)</f>
         <v/>
       </c>
       <c r="AA42">
-        <f>IF(AND(ISNUMBER(S42),ISNUMBER(S44)),VLOOKUP(ABS(S42-S44),'IMP Table'!$A$2:$C$26,3)*SIGN(S42-S44),0)</f>
+        <f>IF(AND(ISNUMBER(T42),ISNUMBER(T43)),VLOOKUP(ABS(T42-T43),'IMP Table'!$A$2:$C$26,3)*SIGN(T42-T43),0)</f>
+        <v/>
+      </c>
+      <c r="AB42">
+        <f>IF(AND(ISNUMBER(T42),ISNUMBER(T44)),VLOOKUP(ABS(T42-T44),'IMP Table'!$A$2:$C$26,3)*SIGN(T42-T44),0)</f>
         <v/>
       </c>
     </row>
     <row r="43">
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="10">
         <f>'By Round'!B45</f>
         <v/>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="10">
         <f>'By Round'!C45</f>
         <v/>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="10">
         <f>'By Round'!D45</f>
         <v/>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="10">
         <f>IF(ISBLANK('By Round'!F46),"",'By Round'!F46)</f>
         <v/>
       </c>
@@ -5339,68 +5428,72 @@
         <f>IF(ISBLANK('By Round'!K46),"",'By Round'!K46)</f>
         <v/>
       </c>
-      <c r="L43" s="12">
-        <f>AVERAGE(X43:Y43)</f>
-        <v/>
-      </c>
-      <c r="M43" s="13">
-        <f>AVERAGE(Z43:AA43)</f>
-        <v/>
-      </c>
-      <c r="N43" s="8">
-        <f>IF(COUNT(T43:U43)&gt;0,P43/COUNT(T43:U43),0.5)</f>
-        <v/>
-      </c>
-      <c r="O43" s="8">
-        <f>IF(COUNT(V43:W43)&gt;0,Q43/COUNT(V43:W43),0.5)</f>
-        <v/>
-      </c>
-      <c r="P43" s="5">
-        <f>SUM(T43:U43)</f>
+      <c r="L43">
+        <f>IF(ISBLANK('By Round'!L46),"",'By Round'!L46)</f>
+        <v/>
+      </c>
+      <c r="M43" s="11">
+        <f>AVERAGE(Y43:Z43)</f>
+        <v/>
+      </c>
+      <c r="N43" s="12">
+        <f>AVERAGE(AA43:AB43)</f>
+        <v/>
+      </c>
+      <c r="O43" s="13">
+        <f>IF(COUNT(U43:V43)&gt;0,Q43/COUNT(U43:V43),0.5)</f>
+        <v/>
+      </c>
+      <c r="P43" s="13">
+        <f>IF(COUNT(W43:X43)&gt;0,R43/COUNT(W43:X43),0.5)</f>
         <v/>
       </c>
       <c r="Q43" s="5">
-        <f>SUM(V43:W43)</f>
-        <v/>
-      </c>
-      <c r="R43" s="14">
-        <f>IF(ISNUMBER(J43),J43,IF(ISNUMBER(K43),-K43,""))</f>
-        <v/>
-      </c>
-      <c r="S43">
-        <f>IF(ISNUMBER(K43),K43,IF(ISNUMBER(J43),-J43,""))</f>
-        <v/>
-      </c>
-      <c r="T43" s="14">
-        <f>IF(ISNUMBER(R43),IF(ISNUMBER(R42),IF(R43&gt;R42,1.0,IF(R43=R42,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U43">
-        <f>IF(ISNUMBER(R43),IF(ISNUMBER(R44),IF(R43&gt;R44,1.0,IF(R43=R44,0.5,0.0)),""),"")</f>
+        <f>SUM(U43:V43)</f>
+        <v/>
+      </c>
+      <c r="R43" s="5">
+        <f>SUM(W43:X43)</f>
+        <v/>
+      </c>
+      <c r="S43" s="14">
+        <f>IF(ISNUMBER(K43),K43,IF(ISNUMBER(L43),-L43,""))</f>
+        <v/>
+      </c>
+      <c r="T43">
+        <f>IF(ISNUMBER(L43),L43,IF(ISNUMBER(K43),-K43,""))</f>
+        <v/>
+      </c>
+      <c r="U43" s="14">
+        <f>IF(ISNUMBER(S43),IF(ISNUMBER(S42),IF(S43&gt;S42,1.0,IF(S43=S42,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>IF(ISNUMBER(S43),IF(ISNUMBER(S42),IF(S43&gt;S42,1.0,IF(S43=S42,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S43),IF(ISNUMBER(S44),IF(S43&gt;S44,1.0,IF(S43=S44,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>IF(ISNUMBER(S43),IF(ISNUMBER(S44),IF(S43&gt;S44,1.0,IF(S43=S44,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X43" s="14">
-        <f>IF(AND(ISNUMBER(R43),ISNUMBER(R42)),VLOOKUP(ABS(R43-R42),'IMP Table'!$A$2:$C$26,3)*SIGN(R43-R42),0)</f>
-        <v/>
-      </c>
-      <c r="Y43">
-        <f>IF(AND(ISNUMBER(R43),ISNUMBER(R44)),VLOOKUP(ABS(R43-R44),'IMP Table'!$A$2:$C$26,3)*SIGN(R43-R44),0)</f>
+        <f>IF(ISNUMBER(T43),IF(ISNUMBER(T42),IF(T43&gt;T42,1.0,IF(T43=T42,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X43">
+        <f>IF(ISNUMBER(T43),IF(ISNUMBER(T44),IF(T43&gt;T44,1.0,IF(T43=T44,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y43" s="14">
+        <f>IF(AND(ISNUMBER(S43),ISNUMBER(S42)),VLOOKUP(ABS(S43-S42),'IMP Table'!$A$2:$C$26,3)*SIGN(S43-S42),0)</f>
         <v/>
       </c>
       <c r="Z43">
-        <f>IF(AND(ISNUMBER(S43),ISNUMBER(S42)),VLOOKUP(ABS(S43-S42),'IMP Table'!$A$2:$C$26,3)*SIGN(S43-S42),0)</f>
+        <f>IF(AND(ISNUMBER(S43),ISNUMBER(S44)),VLOOKUP(ABS(S43-S44),'IMP Table'!$A$2:$C$26,3)*SIGN(S43-S44),0)</f>
         <v/>
       </c>
       <c r="AA43">
-        <f>IF(AND(ISNUMBER(S43),ISNUMBER(S44)),VLOOKUP(ABS(S43-S44),'IMP Table'!$A$2:$C$26,3)*SIGN(S43-S44),0)</f>
+        <f>IF(AND(ISNUMBER(T43),ISNUMBER(T42)),VLOOKUP(ABS(T43-T42),'IMP Table'!$A$2:$C$26,3)*SIGN(T43-T42),0)</f>
+        <v/>
+      </c>
+      <c r="AB43">
+        <f>IF(AND(ISNUMBER(T43),ISNUMBER(T44)),VLOOKUP(ABS(T43-T44),'IMP Table'!$A$2:$C$26,3)*SIGN(T43-T44),0)</f>
         <v/>
       </c>
     </row>
@@ -5446,92 +5539,96 @@
         <f>IF(ISBLANK('By Round'!K40),"",'By Round'!K40)</f>
         <v/>
       </c>
-      <c r="L44" s="17">
-        <f>AVERAGE(X44:Y44)</f>
-        <v/>
-      </c>
-      <c r="M44" s="18">
-        <f>AVERAGE(Z44:AA44)</f>
-        <v/>
-      </c>
-      <c r="N44" s="19">
-        <f>IF(COUNT(T44:U44)&gt;0,P44/COUNT(T44:U44),0.5)</f>
+      <c r="L44" s="15">
+        <f>IF(ISBLANK('By Round'!L40),"",'By Round'!L40)</f>
+        <v/>
+      </c>
+      <c r="M44" s="17">
+        <f>AVERAGE(Y44:Z44)</f>
+        <v/>
+      </c>
+      <c r="N44" s="18">
+        <f>AVERAGE(AA44:AB44)</f>
         <v/>
       </c>
       <c r="O44" s="19">
-        <f>IF(COUNT(V44:W44)&gt;0,Q44/COUNT(V44:W44),0.5)</f>
-        <v/>
-      </c>
-      <c r="P44" s="20">
-        <f>SUM(T44:U44)</f>
+        <f>IF(COUNT(U44:V44)&gt;0,Q44/COUNT(U44:V44),0.5)</f>
+        <v/>
+      </c>
+      <c r="P44" s="19">
+        <f>IF(COUNT(W44:X44)&gt;0,R44/COUNT(W44:X44),0.5)</f>
         <v/>
       </c>
       <c r="Q44" s="20">
-        <f>SUM(V44:W44)</f>
-        <v/>
-      </c>
-      <c r="R44" s="21">
-        <f>IF(ISNUMBER(J44),J44,IF(ISNUMBER(K44),-K44,""))</f>
-        <v/>
-      </c>
-      <c r="S44" s="15">
-        <f>IF(ISNUMBER(K44),K44,IF(ISNUMBER(J44),-J44,""))</f>
-        <v/>
-      </c>
-      <c r="T44" s="21">
-        <f>IF(ISNUMBER(R44),IF(ISNUMBER(R42),IF(R44&gt;R42,1.0,IF(R44=R42,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U44" s="15">
-        <f>IF(ISNUMBER(R44),IF(ISNUMBER(R43),IF(R44&gt;R43,1.0,IF(R44=R43,0.5,0.0)),""),"")</f>
+        <f>SUM(U44:V44)</f>
+        <v/>
+      </c>
+      <c r="R44" s="20">
+        <f>SUM(W44:X44)</f>
+        <v/>
+      </c>
+      <c r="S44" s="21">
+        <f>IF(ISNUMBER(K44),K44,IF(ISNUMBER(L44),-L44,""))</f>
+        <v/>
+      </c>
+      <c r="T44" s="15">
+        <f>IF(ISNUMBER(L44),L44,IF(ISNUMBER(K44),-K44,""))</f>
+        <v/>
+      </c>
+      <c r="U44" s="21">
+        <f>IF(ISNUMBER(S44),IF(ISNUMBER(S42),IF(S44&gt;S42,1.0,IF(S44=S42,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V44" s="15">
-        <f>IF(ISNUMBER(S44),IF(ISNUMBER(S42),IF(S44&gt;S42,1.0,IF(S44=S42,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S44),IF(ISNUMBER(S43),IF(S44&gt;S43,1.0,IF(S44=S43,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W44" s="15">
-        <f>IF(ISNUMBER(S44),IF(ISNUMBER(S43),IF(S44&gt;S43,1.0,IF(S44=S43,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X44" s="21">
-        <f>IF(AND(ISNUMBER(R44),ISNUMBER(R42)),VLOOKUP(ABS(R44-R42),'IMP Table'!$A$2:$C$26,3)*SIGN(R44-R42),0)</f>
-        <v/>
-      </c>
-      <c r="Y44" s="15">
-        <f>IF(AND(ISNUMBER(R44),ISNUMBER(R43)),VLOOKUP(ABS(R44-R43),'IMP Table'!$A$2:$C$26,3)*SIGN(R44-R43),0)</f>
+        <f>IF(ISNUMBER(T44),IF(ISNUMBER(T42),IF(T44&gt;T42,1.0,IF(T44=T42,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X44" s="15">
+        <f>IF(ISNUMBER(T44),IF(ISNUMBER(T43),IF(T44&gt;T43,1.0,IF(T44=T43,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y44" s="21">
+        <f>IF(AND(ISNUMBER(S44),ISNUMBER(S42)),VLOOKUP(ABS(S44-S42),'IMP Table'!$A$2:$C$26,3)*SIGN(S44-S42),0)</f>
         <v/>
       </c>
       <c r="Z44" s="15">
-        <f>IF(AND(ISNUMBER(S44),ISNUMBER(S42)),VLOOKUP(ABS(S44-S42),'IMP Table'!$A$2:$C$26,3)*SIGN(S44-S42),0)</f>
+        <f>IF(AND(ISNUMBER(S44),ISNUMBER(S43)),VLOOKUP(ABS(S44-S43),'IMP Table'!$A$2:$C$26,3)*SIGN(S44-S43),0)</f>
         <v/>
       </c>
       <c r="AA44" s="15">
-        <f>IF(AND(ISNUMBER(S44),ISNUMBER(S43)),VLOOKUP(ABS(S44-S43),'IMP Table'!$A$2:$C$26,3)*SIGN(S44-S43),0)</f>
+        <f>IF(AND(ISNUMBER(T44),ISNUMBER(T42)),VLOOKUP(ABS(T44-T42),'IMP Table'!$A$2:$C$26,3)*SIGN(T44-T42),0)</f>
+        <v/>
+      </c>
+      <c r="AB44" s="15">
+        <f>IF(AND(ISNUMBER(T44),ISNUMBER(T43)),VLOOKUP(ABS(T44-T43),'IMP Table'!$A$2:$C$26,3)*SIGN(T44-T43),0)</f>
         <v/>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n">
+      <c r="A45" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="10">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="10">
         <f>'By Round'!B42</f>
         <v/>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="10">
         <f>'By Round'!C42</f>
         <v/>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="10">
         <f>'By Round'!D42</f>
         <v/>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="10">
         <f>IF(ISBLANK('By Round'!F44),"",'By Round'!F44)</f>
         <v/>
       </c>
@@ -5555,89 +5652,93 @@
         <f>IF(ISBLANK('By Round'!K44),"",'By Round'!K44)</f>
         <v/>
       </c>
-      <c r="L45" s="12">
-        <f>AVERAGE(X45:Y45)</f>
-        <v/>
-      </c>
-      <c r="M45" s="13">
-        <f>AVERAGE(Z45:AA45)</f>
-        <v/>
-      </c>
-      <c r="N45" s="8">
-        <f>IF(COUNT(T45:U45)&gt;0,P45/COUNT(T45:U45),0.5)</f>
-        <v/>
-      </c>
-      <c r="O45" s="8">
-        <f>IF(COUNT(V45:W45)&gt;0,Q45/COUNT(V45:W45),0.5)</f>
-        <v/>
-      </c>
-      <c r="P45" s="5">
-        <f>SUM(T45:U45)</f>
+      <c r="L45">
+        <f>IF(ISBLANK('By Round'!L44),"",'By Round'!L44)</f>
+        <v/>
+      </c>
+      <c r="M45" s="11">
+        <f>AVERAGE(Y45:Z45)</f>
+        <v/>
+      </c>
+      <c r="N45" s="12">
+        <f>AVERAGE(AA45:AB45)</f>
+        <v/>
+      </c>
+      <c r="O45" s="13">
+        <f>IF(COUNT(U45:V45)&gt;0,Q45/COUNT(U45:V45),0.5)</f>
+        <v/>
+      </c>
+      <c r="P45" s="13">
+        <f>IF(COUNT(W45:X45)&gt;0,R45/COUNT(W45:X45),0.5)</f>
         <v/>
       </c>
       <c r="Q45" s="5">
-        <f>SUM(V45:W45)</f>
-        <v/>
-      </c>
-      <c r="R45" s="14">
-        <f>IF(ISNUMBER(J45),J45,IF(ISNUMBER(K45),-K45,""))</f>
-        <v/>
-      </c>
-      <c r="S45">
-        <f>IF(ISNUMBER(K45),K45,IF(ISNUMBER(J45),-J45,""))</f>
-        <v/>
-      </c>
-      <c r="T45" s="14">
-        <f>IF(ISNUMBER(R45),IF(ISNUMBER(R46),IF(R45&gt;R46,1.0,IF(R45=R46,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U45">
-        <f>IF(ISNUMBER(R45),IF(ISNUMBER(R47),IF(R45&gt;R47,1.0,IF(R45=R47,0.5,0.0)),""),"")</f>
+        <f>SUM(U45:V45)</f>
+        <v/>
+      </c>
+      <c r="R45" s="5">
+        <f>SUM(W45:X45)</f>
+        <v/>
+      </c>
+      <c r="S45" s="14">
+        <f>IF(ISNUMBER(K45),K45,IF(ISNUMBER(L45),-L45,""))</f>
+        <v/>
+      </c>
+      <c r="T45">
+        <f>IF(ISNUMBER(L45),L45,IF(ISNUMBER(K45),-K45,""))</f>
+        <v/>
+      </c>
+      <c r="U45" s="14">
+        <f>IF(ISNUMBER(S45),IF(ISNUMBER(S46),IF(S45&gt;S46,1.0,IF(S45=S46,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>IF(ISNUMBER(S45),IF(ISNUMBER(S46),IF(S45&gt;S46,1.0,IF(S45=S46,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S45),IF(ISNUMBER(S47),IF(S45&gt;S47,1.0,IF(S45=S47,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>IF(ISNUMBER(S45),IF(ISNUMBER(S47),IF(S45&gt;S47,1.0,IF(S45=S47,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X45" s="14">
-        <f>IF(AND(ISNUMBER(R45),ISNUMBER(R46)),VLOOKUP(ABS(R45-R46),'IMP Table'!$A$2:$C$26,3)*SIGN(R45-R46),0)</f>
-        <v/>
-      </c>
-      <c r="Y45">
-        <f>IF(AND(ISNUMBER(R45),ISNUMBER(R47)),VLOOKUP(ABS(R45-R47),'IMP Table'!$A$2:$C$26,3)*SIGN(R45-R47),0)</f>
+        <f>IF(ISNUMBER(T45),IF(ISNUMBER(T46),IF(T45&gt;T46,1.0,IF(T45=T46,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X45">
+        <f>IF(ISNUMBER(T45),IF(ISNUMBER(T47),IF(T45&gt;T47,1.0,IF(T45=T47,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y45" s="14">
+        <f>IF(AND(ISNUMBER(S45),ISNUMBER(S46)),VLOOKUP(ABS(S45-S46),'IMP Table'!$A$2:$C$26,3)*SIGN(S45-S46),0)</f>
         <v/>
       </c>
       <c r="Z45">
-        <f>IF(AND(ISNUMBER(S45),ISNUMBER(S46)),VLOOKUP(ABS(S45-S46),'IMP Table'!$A$2:$C$26,3)*SIGN(S45-S46),0)</f>
+        <f>IF(AND(ISNUMBER(S45),ISNUMBER(S47)),VLOOKUP(ABS(S45-S47),'IMP Table'!$A$2:$C$26,3)*SIGN(S45-S47),0)</f>
         <v/>
       </c>
       <c r="AA45">
-        <f>IF(AND(ISNUMBER(S45),ISNUMBER(S47)),VLOOKUP(ABS(S45-S47),'IMP Table'!$A$2:$C$26,3)*SIGN(S45-S47),0)</f>
+        <f>IF(AND(ISNUMBER(T45),ISNUMBER(T46)),VLOOKUP(ABS(T45-T46),'IMP Table'!$A$2:$C$26,3)*SIGN(T45-T46),0)</f>
+        <v/>
+      </c>
+      <c r="AB45">
+        <f>IF(AND(ISNUMBER(T45),ISNUMBER(T47)),VLOOKUP(ABS(T45-T47),'IMP Table'!$A$2:$C$26,3)*SIGN(T45-T47),0)</f>
         <v/>
       </c>
     </row>
     <row r="46">
-      <c r="B46" s="11">
+      <c r="B46" s="10">
         <f>'By Round'!A39</f>
         <v/>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="10">
         <f>'By Round'!B45</f>
         <v/>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="10">
         <f>'By Round'!C45</f>
         <v/>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="10">
         <f>'By Round'!D45</f>
         <v/>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="10">
         <f>IF(ISBLANK('By Round'!F47),"",'By Round'!F47)</f>
         <v/>
       </c>
@@ -5661,68 +5762,72 @@
         <f>IF(ISBLANK('By Round'!K47),"",'By Round'!K47)</f>
         <v/>
       </c>
-      <c r="L46" s="12">
-        <f>AVERAGE(X46:Y46)</f>
-        <v/>
-      </c>
-      <c r="M46" s="13">
-        <f>AVERAGE(Z46:AA46)</f>
-        <v/>
-      </c>
-      <c r="N46" s="8">
-        <f>IF(COUNT(T46:U46)&gt;0,P46/COUNT(T46:U46),0.5)</f>
-        <v/>
-      </c>
-      <c r="O46" s="8">
-        <f>IF(COUNT(V46:W46)&gt;0,Q46/COUNT(V46:W46),0.5)</f>
-        <v/>
-      </c>
-      <c r="P46" s="5">
-        <f>SUM(T46:U46)</f>
+      <c r="L46">
+        <f>IF(ISBLANK('By Round'!L47),"",'By Round'!L47)</f>
+        <v/>
+      </c>
+      <c r="M46" s="11">
+        <f>AVERAGE(Y46:Z46)</f>
+        <v/>
+      </c>
+      <c r="N46" s="12">
+        <f>AVERAGE(AA46:AB46)</f>
+        <v/>
+      </c>
+      <c r="O46" s="13">
+        <f>IF(COUNT(U46:V46)&gt;0,Q46/COUNT(U46:V46),0.5)</f>
+        <v/>
+      </c>
+      <c r="P46" s="13">
+        <f>IF(COUNT(W46:X46)&gt;0,R46/COUNT(W46:X46),0.5)</f>
         <v/>
       </c>
       <c r="Q46" s="5">
-        <f>SUM(V46:W46)</f>
-        <v/>
-      </c>
-      <c r="R46" s="14">
-        <f>IF(ISNUMBER(J46),J46,IF(ISNUMBER(K46),-K46,""))</f>
-        <v/>
-      </c>
-      <c r="S46">
-        <f>IF(ISNUMBER(K46),K46,IF(ISNUMBER(J46),-J46,""))</f>
-        <v/>
-      </c>
-      <c r="T46" s="14">
-        <f>IF(ISNUMBER(R46),IF(ISNUMBER(R45),IF(R46&gt;R45,1.0,IF(R46=R45,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U46">
-        <f>IF(ISNUMBER(R46),IF(ISNUMBER(R47),IF(R46&gt;R47,1.0,IF(R46=R47,0.5,0.0)),""),"")</f>
+        <f>SUM(U46:V46)</f>
+        <v/>
+      </c>
+      <c r="R46" s="5">
+        <f>SUM(W46:X46)</f>
+        <v/>
+      </c>
+      <c r="S46" s="14">
+        <f>IF(ISNUMBER(K46),K46,IF(ISNUMBER(L46),-L46,""))</f>
+        <v/>
+      </c>
+      <c r="T46">
+        <f>IF(ISNUMBER(L46),L46,IF(ISNUMBER(K46),-K46,""))</f>
+        <v/>
+      </c>
+      <c r="U46" s="14">
+        <f>IF(ISNUMBER(S46),IF(ISNUMBER(S45),IF(S46&gt;S45,1.0,IF(S46=S45,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>IF(ISNUMBER(S46),IF(ISNUMBER(S45),IF(S46&gt;S45,1.0,IF(S46=S45,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S46),IF(ISNUMBER(S47),IF(S46&gt;S47,1.0,IF(S46=S47,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>IF(ISNUMBER(S46),IF(ISNUMBER(S47),IF(S46&gt;S47,1.0,IF(S46=S47,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X46" s="14">
-        <f>IF(AND(ISNUMBER(R46),ISNUMBER(R45)),VLOOKUP(ABS(R46-R45),'IMP Table'!$A$2:$C$26,3)*SIGN(R46-R45),0)</f>
-        <v/>
-      </c>
-      <c r="Y46">
-        <f>IF(AND(ISNUMBER(R46),ISNUMBER(R47)),VLOOKUP(ABS(R46-R47),'IMP Table'!$A$2:$C$26,3)*SIGN(R46-R47),0)</f>
+        <f>IF(ISNUMBER(T46),IF(ISNUMBER(T45),IF(T46&gt;T45,1.0,IF(T46=T45,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X46">
+        <f>IF(ISNUMBER(T46),IF(ISNUMBER(T47),IF(T46&gt;T47,1.0,IF(T46=T47,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y46" s="14">
+        <f>IF(AND(ISNUMBER(S46),ISNUMBER(S45)),VLOOKUP(ABS(S46-S45),'IMP Table'!$A$2:$C$26,3)*SIGN(S46-S45),0)</f>
         <v/>
       </c>
       <c r="Z46">
-        <f>IF(AND(ISNUMBER(S46),ISNUMBER(S45)),VLOOKUP(ABS(S46-S45),'IMP Table'!$A$2:$C$26,3)*SIGN(S46-S45),0)</f>
+        <f>IF(AND(ISNUMBER(S46),ISNUMBER(S47)),VLOOKUP(ABS(S46-S47),'IMP Table'!$A$2:$C$26,3)*SIGN(S46-S47),0)</f>
         <v/>
       </c>
       <c r="AA46">
-        <f>IF(AND(ISNUMBER(S46),ISNUMBER(S47)),VLOOKUP(ABS(S46-S47),'IMP Table'!$A$2:$C$26,3)*SIGN(S46-S47),0)</f>
+        <f>IF(AND(ISNUMBER(T46),ISNUMBER(T45)),VLOOKUP(ABS(T46-T45),'IMP Table'!$A$2:$C$26,3)*SIGN(T46-T45),0)</f>
+        <v/>
+      </c>
+      <c r="AB46">
+        <f>IF(AND(ISNUMBER(T46),ISNUMBER(T47)),VLOOKUP(ABS(T46-T47),'IMP Table'!$A$2:$C$26,3)*SIGN(T46-T47),0)</f>
         <v/>
       </c>
     </row>
@@ -5768,84 +5873,89 @@
         <f>IF(ISBLANK('By Round'!K41),"",'By Round'!K41)</f>
         <v/>
       </c>
-      <c r="L47" s="17">
-        <f>AVERAGE(X47:Y47)</f>
-        <v/>
-      </c>
-      <c r="M47" s="18">
-        <f>AVERAGE(Z47:AA47)</f>
-        <v/>
-      </c>
-      <c r="N47" s="19">
-        <f>IF(COUNT(T47:U47)&gt;0,P47/COUNT(T47:U47),0.5)</f>
+      <c r="L47" s="15">
+        <f>IF(ISBLANK('By Round'!L41),"",'By Round'!L41)</f>
+        <v/>
+      </c>
+      <c r="M47" s="17">
+        <f>AVERAGE(Y47:Z47)</f>
+        <v/>
+      </c>
+      <c r="N47" s="18">
+        <f>AVERAGE(AA47:AB47)</f>
         <v/>
       </c>
       <c r="O47" s="19">
-        <f>IF(COUNT(V47:W47)&gt;0,Q47/COUNT(V47:W47),0.5)</f>
-        <v/>
-      </c>
-      <c r="P47" s="20">
-        <f>SUM(T47:U47)</f>
+        <f>IF(COUNT(U47:V47)&gt;0,Q47/COUNT(U47:V47),0.5)</f>
+        <v/>
+      </c>
+      <c r="P47" s="19">
+        <f>IF(COUNT(W47:X47)&gt;0,R47/COUNT(W47:X47),0.5)</f>
         <v/>
       </c>
       <c r="Q47" s="20">
-        <f>SUM(V47:W47)</f>
-        <v/>
-      </c>
-      <c r="R47" s="21">
-        <f>IF(ISNUMBER(J47),J47,IF(ISNUMBER(K47),-K47,""))</f>
-        <v/>
-      </c>
-      <c r="S47" s="15">
-        <f>IF(ISNUMBER(K47),K47,IF(ISNUMBER(J47),-J47,""))</f>
-        <v/>
-      </c>
-      <c r="T47" s="21">
-        <f>IF(ISNUMBER(R47),IF(ISNUMBER(R45),IF(R47&gt;R45,1.0,IF(R47=R45,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U47" s="15">
-        <f>IF(ISNUMBER(R47),IF(ISNUMBER(R46),IF(R47&gt;R46,1.0,IF(R47=R46,0.5,0.0)),""),"")</f>
+        <f>SUM(U47:V47)</f>
+        <v/>
+      </c>
+      <c r="R47" s="20">
+        <f>SUM(W47:X47)</f>
+        <v/>
+      </c>
+      <c r="S47" s="21">
+        <f>IF(ISNUMBER(K47),K47,IF(ISNUMBER(L47),-L47,""))</f>
+        <v/>
+      </c>
+      <c r="T47" s="15">
+        <f>IF(ISNUMBER(L47),L47,IF(ISNUMBER(K47),-K47,""))</f>
+        <v/>
+      </c>
+      <c r="U47" s="21">
+        <f>IF(ISNUMBER(S47),IF(ISNUMBER(S45),IF(S47&gt;S45,1.0,IF(S47=S45,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V47" s="15">
-        <f>IF(ISNUMBER(S47),IF(ISNUMBER(S45),IF(S47&gt;S45,1.0,IF(S47=S45,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S47),IF(ISNUMBER(S46),IF(S47&gt;S46,1.0,IF(S47=S46,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W47" s="15">
-        <f>IF(ISNUMBER(S47),IF(ISNUMBER(S46),IF(S47&gt;S46,1.0,IF(S47=S46,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="X47" s="21">
-        <f>IF(AND(ISNUMBER(R47),ISNUMBER(R45)),VLOOKUP(ABS(R47-R45),'IMP Table'!$A$2:$C$26,3)*SIGN(R47-R45),0)</f>
-        <v/>
-      </c>
-      <c r="Y47" s="15">
-        <f>IF(AND(ISNUMBER(R47),ISNUMBER(R46)),VLOOKUP(ABS(R47-R46),'IMP Table'!$A$2:$C$26,3)*SIGN(R47-R46),0)</f>
+        <f>IF(ISNUMBER(T47),IF(ISNUMBER(T45),IF(T47&gt;T45,1.0,IF(T47=T45,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="X47" s="15">
+        <f>IF(ISNUMBER(T47),IF(ISNUMBER(T46),IF(T47&gt;T46,1.0,IF(T47=T46,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Y47" s="21">
+        <f>IF(AND(ISNUMBER(S47),ISNUMBER(S45)),VLOOKUP(ABS(S47-S45),'IMP Table'!$A$2:$C$26,3)*SIGN(S47-S45),0)</f>
         <v/>
       </c>
       <c r="Z47" s="15">
-        <f>IF(AND(ISNUMBER(S47),ISNUMBER(S45)),VLOOKUP(ABS(S47-S45),'IMP Table'!$A$2:$C$26,3)*SIGN(S47-S45),0)</f>
+        <f>IF(AND(ISNUMBER(S47),ISNUMBER(S46)),VLOOKUP(ABS(S47-S46),'IMP Table'!$A$2:$C$26,3)*SIGN(S47-S46),0)</f>
         <v/>
       </c>
       <c r="AA47" s="15">
-        <f>IF(AND(ISNUMBER(S47),ISNUMBER(S46)),VLOOKUP(ABS(S47-S46),'IMP Table'!$A$2:$C$26,3)*SIGN(S47-S46),0)</f>
+        <f>IF(AND(ISNUMBER(T47),ISNUMBER(T45)),VLOOKUP(ABS(T47-T45),'IMP Table'!$A$2:$C$26,3)*SIGN(T47-T45),0)</f>
+        <v/>
+      </c>
+      <c r="AB47" s="15">
+        <f>IF(AND(ISNUMBER(T47),ISNUMBER(T46)),VLOOKUP(ABS(T47-T46),'IMP Table'!$A$2:$C$26,3)*SIGN(T47-T46),0)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:W1"/>
+  <mergeCells count="12">
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5857,7 +5967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:K47"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5868,6 +5978,18 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="I1" s="8" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="K1" s="8" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
@@ -5911,50 +6033,55 @@
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>Result</t>
+          <t>Made</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="n">
+      <c r="A3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="n">
+      <c r="C3" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="n">
+      <c r="D3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="n">
+      <c r="E3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="11" t="inlineStr">
+      <c r="F3" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="11" t="n"/>
-      <c r="C4" s="11" t="n"/>
-      <c r="D4" s="11" t="n"/>
-      <c r="E4" s="11" t="n">
+      <c r="B4" s="10" t="n"/>
+      <c r="C4" s="10" t="n"/>
+      <c r="D4" s="10" t="n"/>
+      <c r="E4" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="11" t="inlineStr">
+      <c r="F4" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
@@ -5977,34 +6104,35 @@
       <c r="I5" s="15" t="n"/>
       <c r="J5" s="15" t="n"/>
       <c r="K5" s="15" t="n"/>
+      <c r="L5" s="15" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D6" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="11" t="inlineStr">
+      <c r="F6" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="11" t="n"/>
-      <c r="C7" s="11" t="n"/>
-      <c r="D7" s="11" t="n"/>
-      <c r="E7" s="11" t="n">
+      <c r="B7" s="10" t="n"/>
+      <c r="C7" s="10" t="n"/>
+      <c r="D7" s="10" t="n"/>
+      <c r="E7" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="11" t="inlineStr">
+      <c r="F7" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
@@ -6027,34 +6155,35 @@
       <c r="I8" s="15" t="n"/>
       <c r="J8" s="15" t="n"/>
       <c r="K8" s="15" t="n"/>
+      <c r="L8" s="15" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" s="11" t="n">
+      <c r="B9" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="11" t="n">
+      <c r="C9" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="F9" s="11" t="inlineStr">
+      <c r="F9" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="11" t="n"/>
-      <c r="C10" s="11" t="n"/>
-      <c r="D10" s="11" t="n"/>
-      <c r="E10" s="11" t="n">
+      <c r="B10" s="10" t="n"/>
+      <c r="C10" s="10" t="n"/>
+      <c r="D10" s="10" t="n"/>
+      <c r="E10" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="F10" s="11" t="inlineStr">
+      <c r="F10" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -6078,37 +6207,38 @@
       <c r="I11" s="15" t="n"/>
       <c r="J11" s="15" t="n"/>
       <c r="K11" s="15" t="n"/>
+      <c r="L11" s="15" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="n">
+      <c r="A12" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="11" t="n">
+      <c r="B12" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="11" t="n">
+      <c r="C12" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="D12" s="11" t="n">
+      <c r="D12" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="E12" s="11" t="n">
+      <c r="E12" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="F12" s="11" t="inlineStr">
+      <c r="F12" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="11" t="n"/>
-      <c r="C13" s="11" t="n"/>
-      <c r="D13" s="11" t="n"/>
-      <c r="E13" s="11" t="n">
+      <c r="B13" s="10" t="n"/>
+      <c r="C13" s="10" t="n"/>
+      <c r="D13" s="10" t="n"/>
+      <c r="E13" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="11" t="inlineStr">
+      <c r="F13" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
@@ -6131,34 +6261,35 @@
       <c r="I14" s="15" t="n"/>
       <c r="J14" s="15" t="n"/>
       <c r="K14" s="15" t="n"/>
+      <c r="L14" s="15" t="n"/>
     </row>
     <row r="15">
-      <c r="B15" s="11" t="n">
+      <c r="B15" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="F15" s="11" t="inlineStr">
+      <c r="F15" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="11" t="n"/>
-      <c r="C16" s="11" t="n"/>
-      <c r="D16" s="11" t="n"/>
-      <c r="E16" s="11" t="n">
+      <c r="B16" s="10" t="n"/>
+      <c r="C16" s="10" t="n"/>
+      <c r="D16" s="10" t="n"/>
+      <c r="E16" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="F16" s="11" t="inlineStr">
+      <c r="F16" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -6181,34 +6312,35 @@
       <c r="I17" s="15" t="n"/>
       <c r="J17" s="15" t="n"/>
       <c r="K17" s="15" t="n"/>
+      <c r="L17" s="15" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="11" t="n">
+      <c r="B18" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C18" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="11" t="n">
+      <c r="D18" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E18" s="11" t="n">
+      <c r="E18" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="F18" s="11" t="inlineStr">
+      <c r="F18" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="11" t="n"/>
-      <c r="C19" s="11" t="n"/>
-      <c r="D19" s="11" t="n"/>
-      <c r="E19" s="11" t="n">
+      <c r="B19" s="10" t="n"/>
+      <c r="C19" s="10" t="n"/>
+      <c r="D19" s="10" t="n"/>
+      <c r="E19" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="F19" s="11" t="inlineStr">
+      <c r="F19" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -6232,37 +6364,38 @@
       <c r="I20" s="15" t="n"/>
       <c r="J20" s="15" t="n"/>
       <c r="K20" s="15" t="n"/>
+      <c r="L20" s="15" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n">
+      <c r="A21" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B21" s="11" t="n">
+      <c r="B21" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="11" t="n">
+      <c r="C21" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="D21" s="11" t="n">
+      <c r="D21" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E21" s="11" t="n">
+      <c r="E21" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="F21" s="11" t="inlineStr">
+      <c r="F21" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="11" t="n"/>
-      <c r="C22" s="11" t="n"/>
-      <c r="D22" s="11" t="n"/>
-      <c r="E22" s="11" t="n">
+      <c r="B22" s="10" t="n"/>
+      <c r="C22" s="10" t="n"/>
+      <c r="D22" s="10" t="n"/>
+      <c r="E22" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="F22" s="11" t="inlineStr">
+      <c r="F22" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -6285,34 +6418,35 @@
       <c r="I23" s="15" t="n"/>
       <c r="J23" s="15" t="n"/>
       <c r="K23" s="15" t="n"/>
+      <c r="L23" s="15" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="11" t="n">
+      <c r="B24" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C24" s="11" t="n">
+      <c r="C24" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="D24" s="11" t="n">
+      <c r="D24" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="11" t="n">
+      <c r="E24" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="F24" s="11" t="inlineStr">
+      <c r="F24" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="11" t="n"/>
-      <c r="C25" s="11" t="n"/>
-      <c r="D25" s="11" t="n"/>
-      <c r="E25" s="11" t="n">
+      <c r="B25" s="10" t="n"/>
+      <c r="C25" s="10" t="n"/>
+      <c r="D25" s="10" t="n"/>
+      <c r="E25" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="F25" s="11" t="inlineStr">
+      <c r="F25" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
@@ -6335,34 +6469,35 @@
       <c r="I26" s="15" t="n"/>
       <c r="J26" s="15" t="n"/>
       <c r="K26" s="15" t="n"/>
+      <c r="L26" s="15" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="11" t="n">
+      <c r="B27" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="C27" s="11" t="n">
+      <c r="C27" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D27" s="11" t="n">
+      <c r="D27" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="E27" s="11" t="n">
+      <c r="E27" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F27" s="11" t="inlineStr">
+      <c r="F27" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="11" t="n"/>
-      <c r="C28" s="11" t="n"/>
-      <c r="D28" s="11" t="n"/>
-      <c r="E28" s="11" t="n">
+      <c r="B28" s="10" t="n"/>
+      <c r="C28" s="10" t="n"/>
+      <c r="D28" s="10" t="n"/>
+      <c r="E28" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="F28" s="11" t="inlineStr">
+      <c r="F28" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
@@ -6386,37 +6521,38 @@
       <c r="I29" s="15" t="n"/>
       <c r="J29" s="15" t="n"/>
       <c r="K29" s="15" t="n"/>
+      <c r="L29" s="15" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="n">
+      <c r="A30" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B30" s="11" t="n">
+      <c r="B30" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="11" t="n">
+      <c r="C30" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="D30" s="11" t="n">
+      <c r="D30" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="E30" s="11" t="n">
+      <c r="E30" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="F30" s="11" t="inlineStr">
+      <c r="F30" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="11" t="n"/>
-      <c r="C31" s="11" t="n"/>
-      <c r="D31" s="11" t="n"/>
-      <c r="E31" s="11" t="n">
+      <c r="B31" s="10" t="n"/>
+      <c r="C31" s="10" t="n"/>
+      <c r="D31" s="10" t="n"/>
+      <c r="E31" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="F31" s="11" t="inlineStr">
+      <c r="F31" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -6439,34 +6575,35 @@
       <c r="I32" s="15" t="n"/>
       <c r="J32" s="15" t="n"/>
       <c r="K32" s="15" t="n"/>
+      <c r="L32" s="15" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="11" t="n">
+      <c r="B33" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C33" s="11" t="n">
+      <c r="C33" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D33" s="11" t="n">
+      <c r="D33" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="E33" s="11" t="n">
+      <c r="E33" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="F33" s="11" t="inlineStr">
+      <c r="F33" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="11" t="n"/>
-      <c r="C34" s="11" t="n"/>
-      <c r="D34" s="11" t="n"/>
-      <c r="E34" s="11" t="n">
+      <c r="B34" s="10" t="n"/>
+      <c r="C34" s="10" t="n"/>
+      <c r="D34" s="10" t="n"/>
+      <c r="E34" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="F34" s="11" t="inlineStr">
+      <c r="F34" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -6489,34 +6626,35 @@
       <c r="I35" s="15" t="n"/>
       <c r="J35" s="15" t="n"/>
       <c r="K35" s="15" t="n"/>
+      <c r="L35" s="15" t="n"/>
     </row>
     <row r="36">
-      <c r="B36" s="11" t="n">
+      <c r="B36" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="C36" s="11" t="n">
+      <c r="C36" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="D36" s="11" t="n">
+      <c r="D36" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="E36" s="11" t="n">
+      <c r="E36" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F36" s="11" t="inlineStr">
+      <c r="F36" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="11" t="n"/>
-      <c r="C37" s="11" t="n"/>
-      <c r="D37" s="11" t="n"/>
-      <c r="E37" s="11" t="n">
+      <c r="B37" s="10" t="n"/>
+      <c r="C37" s="10" t="n"/>
+      <c r="D37" s="10" t="n"/>
+      <c r="E37" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="F37" s="11" t="inlineStr">
+      <c r="F37" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
@@ -6540,37 +6678,38 @@
       <c r="I38" s="15" t="n"/>
       <c r="J38" s="15" t="n"/>
       <c r="K38" s="15" t="n"/>
+      <c r="L38" s="15" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n">
+      <c r="A39" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="B39" s="11" t="n">
+      <c r="B39" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C39" s="11" t="n">
+      <c r="C39" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="D39" s="11" t="n">
+      <c r="D39" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="E39" s="11" t="n">
+      <c r="E39" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="F39" s="11" t="inlineStr">
+      <c r="F39" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="11" t="n"/>
-      <c r="C40" s="11" t="n"/>
-      <c r="D40" s="11" t="n"/>
-      <c r="E40" s="11" t="n">
+      <c r="B40" s="10" t="n"/>
+      <c r="C40" s="10" t="n"/>
+      <c r="D40" s="10" t="n"/>
+      <c r="E40" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="F40" s="11" t="inlineStr">
+      <c r="F40" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -6593,34 +6732,35 @@
       <c r="I41" s="15" t="n"/>
       <c r="J41" s="15" t="n"/>
       <c r="K41" s="15" t="n"/>
+      <c r="L41" s="15" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="11" t="n">
+      <c r="B42" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C42" s="11" t="n">
+      <c r="C42" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D42" s="11" t="n">
+      <c r="D42" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E42" s="11" t="n">
+      <c r="E42" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="F42" s="11" t="inlineStr">
+      <c r="F42" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="B43" s="11" t="n"/>
-      <c r="C43" s="11" t="n"/>
-      <c r="D43" s="11" t="n"/>
-      <c r="E43" s="11" t="n">
+      <c r="B43" s="10" t="n"/>
+      <c r="C43" s="10" t="n"/>
+      <c r="D43" s="10" t="n"/>
+      <c r="E43" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="F43" s="11" t="inlineStr">
+      <c r="F43" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -6643,34 +6783,35 @@
       <c r="I44" s="15" t="n"/>
       <c r="J44" s="15" t="n"/>
       <c r="K44" s="15" t="n"/>
+      <c r="L44" s="15" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="11" t="n">
+      <c r="B45" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="C45" s="11" t="n">
+      <c r="C45" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="D45" s="11" t="n">
+      <c r="D45" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="E45" s="11" t="n">
+      <c r="E45" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="F45" s="11" t="inlineStr">
+      <c r="F45" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="B46" s="11" t="n"/>
-      <c r="C46" s="11" t="n"/>
-      <c r="D46" s="11" t="n"/>
-      <c r="E46" s="11" t="n">
+      <c r="B46" s="10" t="n"/>
+      <c r="C46" s="10" t="n"/>
+      <c r="D46" s="10" t="n"/>
+      <c r="E46" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="F46" s="11" t="inlineStr">
+      <c r="F46" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -6694,8 +6835,13 @@
       <c r="I47" s="15" t="n"/>
       <c r="J47" s="15" t="n"/>
       <c r="K47" s="15" t="n"/>
+      <c r="L47" s="15" t="n"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/howell6.xlsx
+++ b/howell6.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 13, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 19, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 78</t>
+          <t>Name 44</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 11</t>
+          <t>Name 80</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 76</t>
+          <t>Name 45</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 46</t>
+          <t>Name 21</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 83</t>
+          <t>Name 82</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 71</t>
+          <t>Name 90</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 29</t>
+          <t>Name 70</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 45</t>
+          <t>Name 58</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 64</t>
+          <t>Name 17</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 31</t>
+          <t>Name 30</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 51</t>
+          <t>Name 48</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 40</t>
+          <t>Name 76</t>
         </is>
       </c>
       <c r="D15" s="4">
